--- a/arch-ums/uni-life-ums.xlsx
+++ b/arch-ums/uni-life-ums.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces-Idea\proc\arch-module\arch-ums\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D92EA941-52CD-45C9-BD10-6770F7059947}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE5FB9C1-6021-42A1-A99D-468D4818ADEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="9" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2294" uniqueCount="866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2294" uniqueCount="868">
   <si>
     <t>表名/Table</t>
   </si>
@@ -2328,6 +2328,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2355,6 +2356,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2875,6 +2877,14 @@
   </si>
   <si>
     <t>relativesType</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>520</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3151,8 +3161,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3160,14 +3170,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4394,8 +4404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4448,8 +4458,8 @@
       <c r="A2" s="51" t="s">
         <v>745</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
+      <c r="B2" s="26" t="s">
+        <v>866</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>11</v>
@@ -7662,8 +7672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L132"/>
   <sheetViews>
-    <sheetView topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="C130" sqref="C130"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7713,7 +7723,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="55" t="s">
         <v>857</v>
       </c>
       <c r="B2" s="29" t="s">
@@ -7735,7 +7745,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="29" t="s">
         <v>855</v>
       </c>
@@ -7755,7 +7765,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="33" t="s">
         <v>752</v>
       </c>
@@ -7775,7 +7785,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="29" t="s">
         <v>856</v>
       </c>
@@ -8526,7 +8536,7 @@
         <v>17</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>20</v>
+        <v>867</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>13</v>
@@ -8566,7 +8576,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="55" t="s">
+      <c r="A40" s="56" t="s">
         <v>727</v>
       </c>
       <c r="B40" s="21" t="s">
@@ -8588,7 +8598,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="56"/>
+      <c r="A41" s="57"/>
       <c r="B41" s="21" t="s">
         <v>125</v>
       </c>
@@ -8608,7 +8618,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="56"/>
+      <c r="A42" s="57"/>
       <c r="B42" s="21" t="s">
         <v>126</v>
       </c>
@@ -8628,7 +8638,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="56"/>
+      <c r="A43" s="57"/>
       <c r="B43" s="21" t="s">
         <v>127</v>
       </c>
@@ -8648,7 +8658,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="56"/>
+      <c r="A44" s="57"/>
       <c r="B44" s="21" t="s">
         <v>128</v>
       </c>
@@ -8668,7 +8678,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="56"/>
+      <c r="A45" s="57"/>
       <c r="B45" s="21" t="s">
         <v>129</v>
       </c>
@@ -8688,7 +8698,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="56"/>
+      <c r="A46" s="57"/>
       <c r="B46" s="21" t="s">
         <v>130</v>
       </c>
@@ -8708,7 +8718,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="56"/>
+      <c r="A47" s="57"/>
       <c r="B47" s="21" t="s">
         <v>131</v>
       </c>
@@ -8728,7 +8738,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="56"/>
+      <c r="A48" s="57"/>
       <c r="B48" s="21" t="s">
         <v>132</v>
       </c>
@@ -8748,7 +8758,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="56"/>
+      <c r="A49" s="57"/>
       <c r="B49" s="21" t="s">
         <v>133</v>
       </c>
@@ -9984,7 +9994,7 @@
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="57" t="s">
+      <c r="A109" s="52" t="s">
         <v>172</v>
       </c>
       <c r="B109" s="21" t="s">
@@ -10006,7 +10016,7 @@
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="57"/>
+      <c r="A110" s="52"/>
       <c r="B110" s="29" t="s">
         <v>859</v>
       </c>
@@ -10026,7 +10036,7 @@
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="57"/>
+      <c r="A111" s="52"/>
       <c r="B111" s="21" t="s">
         <v>174</v>
       </c>
@@ -10046,7 +10056,7 @@
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="57"/>
+      <c r="A112" s="52"/>
       <c r="B112" s="21" t="s">
         <v>175</v>
       </c>
@@ -10066,7 +10076,7 @@
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="57" t="s">
+      <c r="A113" s="52" t="s">
         <v>176</v>
       </c>
       <c r="B113" s="21" t="s">
@@ -10088,7 +10098,7 @@
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="57"/>
+      <c r="A114" s="52"/>
       <c r="B114" s="21" t="s">
         <v>177</v>
       </c>
@@ -10108,7 +10118,7 @@
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="57"/>
+      <c r="A115" s="52"/>
       <c r="B115" s="21" t="s">
         <v>178</v>
       </c>
@@ -10128,7 +10138,7 @@
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="57"/>
+      <c r="A116" s="52"/>
       <c r="B116" s="21" t="s">
         <v>179</v>
       </c>
@@ -10148,7 +10158,7 @@
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="57" t="s">
+      <c r="A117" s="52" t="s">
         <v>180</v>
       </c>
       <c r="B117" s="21" t="s">
@@ -10170,7 +10180,7 @@
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="57"/>
+      <c r="A118" s="52"/>
       <c r="B118" s="21" t="s">
         <v>181</v>
       </c>
@@ -10190,7 +10200,7 @@
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="57"/>
+      <c r="A119" s="52"/>
       <c r="B119" s="21" t="s">
         <v>182</v>
       </c>
@@ -10208,7 +10218,7 @@
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="57"/>
+      <c r="A120" s="52"/>
       <c r="B120" s="21" t="s">
         <v>183</v>
       </c>
@@ -10226,7 +10236,7 @@
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="57" t="s">
+      <c r="A121" s="52" t="s">
         <v>837</v>
       </c>
       <c r="B121" s="21" t="s">
@@ -10248,7 +10258,7 @@
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="57"/>
+      <c r="A122" s="52"/>
       <c r="B122" s="29" t="s">
         <v>860</v>
       </c>
@@ -10268,7 +10278,7 @@
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="57"/>
+      <c r="A123" s="52"/>
       <c r="B123" s="21" t="s">
         <v>184</v>
       </c>
@@ -10286,7 +10296,7 @@
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="57"/>
+      <c r="A124" s="52"/>
       <c r="B124" s="21" t="s">
         <v>185</v>
       </c>
@@ -10329,17 +10339,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A117:A120"/>
-    <mergeCell ref="A121:A124"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="A106:A108"/>
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="A100:A102"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="A58:A68"/>
-    <mergeCell ref="A78:A84"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A29"/>
     <mergeCell ref="A69:A77"/>
@@ -10349,6 +10348,17 @@
     <mergeCell ref="A40:A49"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="A100:A102"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="A58:A68"/>
+    <mergeCell ref="A78:A84"/>
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="A121:A124"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="A106:A108"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="A1:B1">

--- a/arch-ums/uni-life-ums.xlsx
+++ b/arch-ums/uni-life-ums.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces-Idea\proc\arch-module\arch-ums\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE5FB9C1-6021-42A1-A99D-468D4818ADEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA1CF1E-3223-43CC-A257-B41D4C265D97}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3840" yWindow="4296" windowWidth="23040" windowHeight="12312" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="9" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2294" uniqueCount="868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2294" uniqueCount="867">
   <si>
     <t>表名/Table</t>
   </si>
@@ -2454,10 +2454,6 @@
   </si>
   <si>
     <t>来源，推广统计用</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名ID</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -3161,8 +3157,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3170,14 +3166,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4459,7 +4455,7 @@
         <v>745</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>11</v>
@@ -4485,7 +4481,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="50"/>
       <c r="B3" s="26" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>17</v>
@@ -4625,7 +4621,7 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="50"/>
       <c r="B10" s="26" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>17</v>
@@ -4750,7 +4746,7 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="50"/>
       <c r="B17" s="43" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C17" s="40" t="s">
         <v>709</v>
@@ -4764,7 +4760,7 @@
       <c r="H17" s="42"/>
       <c r="I17" s="42"/>
       <c r="J17" s="39" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -4800,7 +4796,7 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="50"/>
       <c r="B20" s="39" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C20" s="40" t="s">
         <v>708</v>
@@ -4814,7 +4810,7 @@
       <c r="H20" s="42"/>
       <c r="I20" s="42"/>
       <c r="J20" s="39" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -4951,7 +4947,7 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="50"/>
       <c r="B29" s="26" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C29" s="23" t="s">
         <v>17</v>
@@ -5024,7 +5020,7 @@
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="50"/>
       <c r="B34" s="26" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C34" s="23" t="s">
         <v>17</v>
@@ -7672,8 +7668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="D118" sqref="D118"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7723,11 +7719,11 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
-        <v>857</v>
+      <c r="A2" s="52" t="s">
+        <v>856</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>17</v>
@@ -7741,13 +7737,13 @@
       <c r="H2" s="31"/>
       <c r="I2" s="30"/>
       <c r="J2" s="27" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
+      <c r="A3" s="52"/>
       <c r="B3" s="29" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>709</v>
@@ -7765,7 +7761,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="33" t="s">
         <v>752</v>
       </c>
@@ -7781,13 +7777,13 @@
       <c r="H4" s="36"/>
       <c r="I4" s="36"/>
       <c r="J4" s="49" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="29" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>709</v>
@@ -7915,13 +7911,13 @@
       <c r="H10" s="24"/>
       <c r="I10" s="24"/>
       <c r="J10" s="27" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="54"/>
       <c r="B11" s="37" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>11</v>
@@ -7935,7 +7931,7 @@
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
       <c r="J11" s="35" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -8458,13 +8454,13 @@
       </c>
       <c r="I34" s="23"/>
       <c r="J34" s="27" t="s">
-        <v>770</v>
+        <v>720</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="54"/>
       <c r="B35" s="29" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C35" s="22" t="s">
         <v>17</v>
@@ -8490,7 +8486,7 @@
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="54"/>
       <c r="B36" s="47" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C36" s="44" t="s">
         <v>709</v>
@@ -8504,13 +8500,13 @@
       <c r="H36" s="48"/>
       <c r="I36" s="48"/>
       <c r="J36" s="46" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="54"/>
       <c r="B37" s="47" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C37" s="44" t="s">
         <v>709</v>
@@ -8524,7 +8520,7 @@
       <c r="H37" s="48"/>
       <c r="I37" s="48"/>
       <c r="J37" s="46" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -8536,7 +8532,7 @@
         <v>17</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>13</v>
@@ -8576,7 +8572,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="56" t="s">
+      <c r="A40" s="55" t="s">
         <v>727</v>
       </c>
       <c r="B40" s="21" t="s">
@@ -8598,7 +8594,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="57"/>
+      <c r="A41" s="56"/>
       <c r="B41" s="21" t="s">
         <v>125</v>
       </c>
@@ -8614,11 +8610,11 @@
       <c r="H41" s="24"/>
       <c r="I41" s="24"/>
       <c r="J41" s="27" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="57"/>
+      <c r="A42" s="56"/>
       <c r="B42" s="21" t="s">
         <v>126</v>
       </c>
@@ -8634,11 +8630,11 @@
       <c r="H42" s="24"/>
       <c r="I42" s="24"/>
       <c r="J42" s="27" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="57"/>
+      <c r="A43" s="56"/>
       <c r="B43" s="21" t="s">
         <v>127</v>
       </c>
@@ -8654,11 +8650,11 @@
       <c r="H43" s="24"/>
       <c r="I43" s="24"/>
       <c r="J43" s="27" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="57"/>
+      <c r="A44" s="56"/>
       <c r="B44" s="21" t="s">
         <v>128</v>
       </c>
@@ -8674,11 +8670,11 @@
       <c r="H44" s="24"/>
       <c r="I44" s="24"/>
       <c r="J44" s="27" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="57"/>
+      <c r="A45" s="56"/>
       <c r="B45" s="21" t="s">
         <v>129</v>
       </c>
@@ -8694,11 +8690,11 @@
       <c r="H45" s="24"/>
       <c r="I45" s="24"/>
       <c r="J45" s="27" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="57"/>
+      <c r="A46" s="56"/>
       <c r="B46" s="21" t="s">
         <v>130</v>
       </c>
@@ -8714,11 +8710,11 @@
       <c r="H46" s="24"/>
       <c r="I46" s="24"/>
       <c r="J46" s="27" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="57"/>
+      <c r="A47" s="56"/>
       <c r="B47" s="21" t="s">
         <v>131</v>
       </c>
@@ -8734,11 +8730,11 @@
       <c r="H47" s="24"/>
       <c r="I47" s="24"/>
       <c r="J47" s="27" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="57"/>
+      <c r="A48" s="56"/>
       <c r="B48" s="21" t="s">
         <v>132</v>
       </c>
@@ -8754,11 +8750,11 @@
       <c r="H48" s="24"/>
       <c r="I48" s="24"/>
       <c r="J48" s="27" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="57"/>
+      <c r="A49" s="56"/>
       <c r="B49" s="21" t="s">
         <v>133</v>
       </c>
@@ -8774,7 +8770,7 @@
       <c r="H49" s="24"/>
       <c r="I49" s="24"/>
       <c r="J49" s="27" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -8802,13 +8798,13 @@
       </c>
       <c r="I50" s="23"/>
       <c r="J50" s="27" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="53"/>
       <c r="B51" s="47" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C51" s="44" t="s">
         <v>709</v>
@@ -8822,7 +8818,7 @@
       <c r="H51" s="48"/>
       <c r="I51" s="48"/>
       <c r="J51" s="46" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -8848,7 +8844,7 @@
       </c>
       <c r="I52" s="23"/>
       <c r="J52" s="27" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -8870,15 +8866,15 @@
       <c r="H53" s="10"/>
       <c r="I53" s="23"/>
       <c r="J53" s="27" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="53" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C54" s="22" t="s">
         <v>11</v>
@@ -8892,13 +8888,13 @@
       <c r="H54" s="10"/>
       <c r="I54" s="23"/>
       <c r="J54" s="27" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="54"/>
       <c r="B55" s="47" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C55" s="44" t="s">
         <v>709</v>
@@ -8912,7 +8908,7 @@
       <c r="H55" s="48"/>
       <c r="I55" s="48"/>
       <c r="J55" s="46" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -8932,7 +8928,7 @@
       <c r="H56" s="10"/>
       <c r="I56" s="23"/>
       <c r="J56" s="27" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -8952,12 +8948,12 @@
       <c r="H57" s="10"/>
       <c r="I57" s="23"/>
       <c r="J57" s="27" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="53" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B58" s="21" t="s">
         <v>139</v>
@@ -8974,13 +8970,13 @@
       <c r="H58" s="10"/>
       <c r="I58" s="23"/>
       <c r="J58" s="27" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="54"/>
       <c r="B59" s="47" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C59" s="44" t="s">
         <v>709</v>
@@ -8994,7 +8990,7 @@
       <c r="H59" s="48"/>
       <c r="I59" s="48"/>
       <c r="J59" s="46" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -9014,7 +9010,7 @@
       <c r="H60" s="10"/>
       <c r="I60" s="23"/>
       <c r="J60" s="27" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -9034,13 +9030,13 @@
       <c r="H61" s="10"/>
       <c r="I61" s="23"/>
       <c r="J61" s="27" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="54"/>
       <c r="B62" s="21" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C62" s="22" t="s">
         <v>17</v>
@@ -9054,7 +9050,7 @@
       <c r="H62" s="10"/>
       <c r="I62" s="23"/>
       <c r="J62" s="27" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -9074,7 +9070,7 @@
       <c r="H63" s="10"/>
       <c r="I63" s="23"/>
       <c r="J63" s="27" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -9094,7 +9090,7 @@
       <c r="H64" s="10"/>
       <c r="I64" s="23"/>
       <c r="J64" s="27" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -9114,7 +9110,7 @@
       <c r="H65" s="10"/>
       <c r="I65" s="23"/>
       <c r="J65" s="27" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -9134,7 +9130,7 @@
       <c r="H66" s="10"/>
       <c r="I66" s="23"/>
       <c r="J66" s="27" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -9154,7 +9150,7 @@
       <c r="H67" s="10"/>
       <c r="I67" s="23"/>
       <c r="J67" s="27" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -9174,12 +9170,12 @@
       <c r="H68" s="10"/>
       <c r="I68" s="23"/>
       <c r="J68" s="27" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="53" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B69" s="21" t="s">
         <v>124</v>
@@ -9196,13 +9192,13 @@
       <c r="H69" s="10"/>
       <c r="I69" s="23"/>
       <c r="J69" s="27" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="54"/>
       <c r="B70" s="47" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C70" s="44" t="s">
         <v>709</v>
@@ -9216,7 +9212,7 @@
       <c r="H70" s="48"/>
       <c r="I70" s="48"/>
       <c r="J70" s="46" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -9236,7 +9232,7 @@
       <c r="H71" s="24"/>
       <c r="I71" s="24"/>
       <c r="J71" s="27" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -9256,7 +9252,7 @@
       <c r="H72" s="24"/>
       <c r="I72" s="24"/>
       <c r="J72" s="27" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -9276,7 +9272,7 @@
       <c r="H73" s="24"/>
       <c r="I73" s="24"/>
       <c r="J73" s="27" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -9296,7 +9292,7 @@
       <c r="H74" s="24"/>
       <c r="I74" s="24"/>
       <c r="J74" s="27" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -9316,7 +9312,7 @@
       <c r="H75" s="24"/>
       <c r="I75" s="24"/>
       <c r="J75" s="27" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -9336,7 +9332,7 @@
       <c r="H76" s="24"/>
       <c r="I76" s="24"/>
       <c r="J76" s="27" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -9356,15 +9352,15 @@
       <c r="H77" s="24"/>
       <c r="I77" s="24"/>
       <c r="J77" s="27" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="53" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B78" s="47" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C78" s="44" t="s">
         <v>709</v>
@@ -9378,7 +9374,7 @@
       <c r="H78" s="48"/>
       <c r="I78" s="48"/>
       <c r="J78" s="46" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -9418,7 +9414,7 @@
       <c r="H80" s="24"/>
       <c r="I80" s="24"/>
       <c r="J80" s="27" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -9438,7 +9434,7 @@
       <c r="H81" s="24"/>
       <c r="I81" s="24"/>
       <c r="J81" s="27" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -9458,13 +9454,13 @@
       <c r="H82" s="24"/>
       <c r="I82" s="24"/>
       <c r="J82" s="27" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="54"/>
       <c r="B83" s="29" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C83" s="22" t="s">
         <v>17</v>
@@ -9498,12 +9494,12 @@
       <c r="H84" s="24"/>
       <c r="I84" s="24"/>
       <c r="J84" s="27" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="53" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B85" s="21" t="s">
         <v>159</v>
@@ -9520,13 +9516,13 @@
       <c r="H85" s="24"/>
       <c r="I85" s="24"/>
       <c r="J85" s="27" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="54"/>
       <c r="B86" s="47" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C86" s="44" t="s">
         <v>709</v>
@@ -9540,7 +9536,7 @@
       <c r="H86" s="48"/>
       <c r="I86" s="48"/>
       <c r="J86" s="46" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -9560,7 +9556,7 @@
       <c r="H87" s="24"/>
       <c r="I87" s="24"/>
       <c r="J87" s="27" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -9580,7 +9576,7 @@
       <c r="H88" s="24"/>
       <c r="I88" s="24"/>
       <c r="J88" s="27" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -9600,7 +9596,7 @@
       <c r="H89" s="24"/>
       <c r="I89" s="24"/>
       <c r="J89" s="27" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -9620,12 +9616,12 @@
       <c r="H90" s="24"/>
       <c r="I90" s="24"/>
       <c r="J90" s="27" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="53" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B91" s="21" t="s">
         <v>162</v>
@@ -9642,13 +9638,13 @@
       <c r="H91" s="24"/>
       <c r="I91" s="24"/>
       <c r="J91" s="27" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="54"/>
       <c r="B92" s="47" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C92" s="44" t="s">
         <v>709</v>
@@ -9662,7 +9658,7 @@
       <c r="H92" s="48"/>
       <c r="I92" s="48"/>
       <c r="J92" s="46" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -9682,7 +9678,7 @@
       <c r="H93" s="24"/>
       <c r="I93" s="24"/>
       <c r="J93" s="27" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -9702,7 +9698,7 @@
       <c r="H94" s="24"/>
       <c r="I94" s="24"/>
       <c r="J94" s="27" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
@@ -9722,7 +9718,7 @@
       <c r="H95" s="24"/>
       <c r="I95" s="24"/>
       <c r="J95" s="27" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
@@ -9742,15 +9738,15 @@
       <c r="H96" s="24"/>
       <c r="I96" s="24"/>
       <c r="J96" s="27" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="53" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B97" s="47" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C97" s="44" t="s">
         <v>709</v>
@@ -9764,7 +9760,7 @@
       <c r="H97" s="48"/>
       <c r="I97" s="48"/>
       <c r="J97" s="46" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -9784,7 +9780,7 @@
       <c r="H98" s="24"/>
       <c r="I98" s="24"/>
       <c r="J98" s="27" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -9804,15 +9800,15 @@
       <c r="H99" s="24"/>
       <c r="I99" s="24"/>
       <c r="J99" s="27" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="53" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B100" s="47" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C100" s="44" t="s">
         <v>709</v>
@@ -9826,7 +9822,7 @@
       <c r="H100" s="48"/>
       <c r="I100" s="48"/>
       <c r="J100" s="46" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -9846,7 +9842,7 @@
       <c r="H101" s="24"/>
       <c r="I101" s="24"/>
       <c r="J101" s="27" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
@@ -9866,15 +9862,15 @@
       <c r="H102" s="24"/>
       <c r="I102" s="24"/>
       <c r="J102" s="27" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="53" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B103" s="47" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C103" s="44" t="s">
         <v>709</v>
@@ -9888,7 +9884,7 @@
       <c r="H103" s="48"/>
       <c r="I103" s="48"/>
       <c r="J103" s="46" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
@@ -9908,7 +9904,7 @@
       <c r="H104" s="24"/>
       <c r="I104" s="24"/>
       <c r="J104" s="27" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
@@ -9928,15 +9924,15 @@
       <c r="H105" s="24"/>
       <c r="I105" s="24"/>
       <c r="J105" s="27" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="53" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B106" s="47" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C106" s="44" t="s">
         <v>709</v>
@@ -9950,7 +9946,7 @@
       <c r="H106" s="48"/>
       <c r="I106" s="48"/>
       <c r="J106" s="46" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
@@ -9970,7 +9966,7 @@
       <c r="H107" s="24"/>
       <c r="I107" s="24"/>
       <c r="J107" s="27" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
@@ -9990,11 +9986,11 @@
       <c r="H108" s="24"/>
       <c r="I108" s="24"/>
       <c r="J108" s="27" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="52" t="s">
+      <c r="A109" s="57" t="s">
         <v>172</v>
       </c>
       <c r="B109" s="21" t="s">
@@ -10012,13 +10008,13 @@
       <c r="H109" s="24"/>
       <c r="I109" s="24"/>
       <c r="J109" s="27" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="52"/>
+      <c r="A110" s="57"/>
       <c r="B110" s="29" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C110" s="22" t="s">
         <v>17</v>
@@ -10032,11 +10028,11 @@
       <c r="H110" s="24"/>
       <c r="I110" s="24"/>
       <c r="J110" s="27" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="52"/>
+      <c r="A111" s="57"/>
       <c r="B111" s="21" t="s">
         <v>174</v>
       </c>
@@ -10052,11 +10048,11 @@
       <c r="H111" s="24"/>
       <c r="I111" s="24"/>
       <c r="J111" s="27" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="52"/>
+      <c r="A112" s="57"/>
       <c r="B112" s="21" t="s">
         <v>175</v>
       </c>
@@ -10072,11 +10068,11 @@
       <c r="H112" s="24"/>
       <c r="I112" s="24"/>
       <c r="J112" s="27" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="52" t="s">
+      <c r="A113" s="57" t="s">
         <v>176</v>
       </c>
       <c r="B113" s="21" t="s">
@@ -10094,11 +10090,11 @@
       <c r="H113" s="24"/>
       <c r="I113" s="24"/>
       <c r="J113" s="27" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="52"/>
+      <c r="A114" s="57"/>
       <c r="B114" s="21" t="s">
         <v>177</v>
       </c>
@@ -10114,11 +10110,11 @@
       <c r="H114" s="24"/>
       <c r="I114" s="24"/>
       <c r="J114" s="27" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="52"/>
+      <c r="A115" s="57"/>
       <c r="B115" s="21" t="s">
         <v>178</v>
       </c>
@@ -10134,11 +10130,11 @@
       <c r="H115" s="24"/>
       <c r="I115" s="24"/>
       <c r="J115" s="27" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="52"/>
+      <c r="A116" s="57"/>
       <c r="B116" s="21" t="s">
         <v>179</v>
       </c>
@@ -10154,11 +10150,11 @@
       <c r="H116" s="24"/>
       <c r="I116" s="24"/>
       <c r="J116" s="27" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="52" t="s">
+      <c r="A117" s="57" t="s">
         <v>180</v>
       </c>
       <c r="B117" s="21" t="s">
@@ -10176,11 +10172,11 @@
       <c r="H117" s="24"/>
       <c r="I117" s="24"/>
       <c r="J117" s="27" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="52"/>
+      <c r="A118" s="57"/>
       <c r="B118" s="21" t="s">
         <v>181</v>
       </c>
@@ -10196,11 +10192,11 @@
       <c r="H118" s="24"/>
       <c r="I118" s="24"/>
       <c r="J118" s="27" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="52"/>
+      <c r="A119" s="57"/>
       <c r="B119" s="21" t="s">
         <v>182</v>
       </c>
@@ -10214,11 +10210,11 @@
       <c r="H119" s="24"/>
       <c r="I119" s="24"/>
       <c r="J119" s="27" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="52"/>
+      <c r="A120" s="57"/>
       <c r="B120" s="21" t="s">
         <v>183</v>
       </c>
@@ -10232,12 +10228,12 @@
       <c r="H120" s="24"/>
       <c r="I120" s="24"/>
       <c r="J120" s="27" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="52" t="s">
-        <v>837</v>
+      <c r="A121" s="57" t="s">
+        <v>836</v>
       </c>
       <c r="B121" s="21" t="s">
         <v>107</v>
@@ -10254,13 +10250,13 @@
       <c r="H121" s="24"/>
       <c r="I121" s="24"/>
       <c r="J121" s="27" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="52"/>
+      <c r="A122" s="57"/>
       <c r="B122" s="29" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C122" s="22" t="s">
         <v>17</v>
@@ -10274,11 +10270,11 @@
       <c r="H122" s="24"/>
       <c r="I122" s="24"/>
       <c r="J122" s="27" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="52"/>
+      <c r="A123" s="57"/>
       <c r="B123" s="21" t="s">
         <v>184</v>
       </c>
@@ -10292,11 +10288,11 @@
       <c r="H123" s="24"/>
       <c r="I123" s="24"/>
       <c r="J123" s="27" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="52"/>
+      <c r="A124" s="57"/>
       <c r="B124" s="21" t="s">
         <v>185</v>
       </c>
@@ -10312,7 +10308,7 @@
       <c r="H124" s="24"/>
       <c r="I124" s="24"/>
       <c r="J124" s="27" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
@@ -10339,6 +10335,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="A121:A124"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="A106:A108"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="A100:A102"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="A58:A68"/>
+    <mergeCell ref="A78:A84"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A29"/>
     <mergeCell ref="A69:A77"/>
@@ -10348,17 +10355,6 @@
     <mergeCell ref="A40:A49"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="A100:A102"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="A58:A68"/>
-    <mergeCell ref="A78:A84"/>
-    <mergeCell ref="A117:A120"/>
-    <mergeCell ref="A121:A124"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="A106:A108"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="A1:B1">

--- a/arch-ums/uni-life-ums.xlsx
+++ b/arch-ums/uni-life-ums.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces-Idea\proc\arch-module\arch-ums\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA1CF1E-3223-43CC-A257-B41D4C265D97}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7267AD1-1380-4E54-BF34-F4C26655E08E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="4296" windowWidth="23040" windowHeight="12312" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3840" yWindow="4296" windowWidth="23040" windowHeight="12312" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="9" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2294" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2360" uniqueCount="897">
   <si>
     <t>表名/Table</t>
   </si>
@@ -2881,6 +2881,215 @@
   </si>
   <si>
     <t>520</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象存储文件信息/ConfigFileInfo</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigint</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号ID/用户ID/会员ID/商户ID</t>
+  </si>
+  <si>
+    <t>存储类型: aws/aliyun/minio/tencent/qiniu</t>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>torage_type</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>original_file_name</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始文件名称</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>suffix</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>width</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eight</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ile_path</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>full_file_path</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ile_hash</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pload_type</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pload_start_time</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pload_end_time</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件大小</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件后缀</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片宽度</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片高度</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件路径(不带域名)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件全路径(带域名)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件hash</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>上次的类型</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件上传开始的时间</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件上传结束的时间</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3042,7 +3251,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -3151,19 +3360,25 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3172,18 +3387,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="70">
+  <dxfs count="75">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3782,41 +4103,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -4056,41 +4342,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4105,17 +4356,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CE11B0DB-5C62-420D-84D8-E87A9EF327B7}" name="表1" displayName="表1" ref="B1:J62" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63" headerRowCellStyle="常规 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CE11B0DB-5C62-420D-84D8-E87A9EF327B7}" name="表1" displayName="表1" ref="B1:J62" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73" headerRowCellStyle="常规 2">
   <autoFilter ref="B1:J62" xr:uid="{B6969820-1EDF-4876-9A5D-FBFC4A41984D}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{72E794A9-4DD1-49BE-A027-5ADCBA03FBD0}" name="列名/Column"/>
-    <tableColumn id="2" xr3:uid="{2BD92A17-8B86-4B03-9D18-9105A0D34354}" name="数据类型/Type" dataDxfId="62"/>
-    <tableColumn id="3" xr3:uid="{D8E94063-B8C9-4FA6-9A01-E7DF0C6D48F1}" name="长度/Length" dataDxfId="61"/>
-    <tableColumn id="4" xr3:uid="{9C5A6399-4D88-4569-8E5F-39B9DE8AF37B}" name="是否为空/Null(Y,N)" dataDxfId="60"/>
-    <tableColumn id="5" xr3:uid="{A4F55127-F997-4CC4-B0D1-1DA0A350A101}" name="默认值/Default" dataDxfId="59"/>
-    <tableColumn id="6" xr3:uid="{0F626792-F279-49AC-8EC1-BFB6B6687D67}" name="是否主键/Primary(Y,N)" dataDxfId="58"/>
-    <tableColumn id="7" xr3:uid="{7071273C-D0E4-4535-8AE8-1DA697EFE72A}" name="是否唯一/Unique(Y,N)" dataDxfId="57"/>
-    <tableColumn id="8" xr3:uid="{79AD77F4-4A81-4B14-B022-EB542F9CB50D}" name="外键/Forigen(可空)" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{2BD92A17-8B86-4B03-9D18-9105A0D34354}" name="数据类型/Type" dataDxfId="72"/>
+    <tableColumn id="3" xr3:uid="{D8E94063-B8C9-4FA6-9A01-E7DF0C6D48F1}" name="长度/Length" dataDxfId="71"/>
+    <tableColumn id="4" xr3:uid="{9C5A6399-4D88-4569-8E5F-39B9DE8AF37B}" name="是否为空/Null(Y,N)" dataDxfId="70"/>
+    <tableColumn id="5" xr3:uid="{A4F55127-F997-4CC4-B0D1-1DA0A350A101}" name="默认值/Default" dataDxfId="69"/>
+    <tableColumn id="6" xr3:uid="{0F626792-F279-49AC-8EC1-BFB6B6687D67}" name="是否主键/Primary(Y,N)" dataDxfId="68"/>
+    <tableColumn id="7" xr3:uid="{7071273C-D0E4-4535-8AE8-1DA697EFE72A}" name="是否唯一/Unique(Y,N)" dataDxfId="67"/>
+    <tableColumn id="8" xr3:uid="{79AD77F4-4A81-4B14-B022-EB542F9CB50D}" name="外键/Forigen(可空)" dataDxfId="66"/>
     <tableColumn id="9" xr3:uid="{F4869BE7-97E9-4573-A762-3FCC07598356}" name="备注/Comment"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4123,18 +4374,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D4223DF3-0FD4-4A51-9CB4-4ADBF0194284}" name="表4" displayName="表4" ref="B1:J124" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49" headerRowCellStyle="常规 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D4223DF3-0FD4-4A51-9CB4-4ADBF0194284}" name="表4" displayName="表4" ref="B1:J124" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64" headerRowCellStyle="常规 2">
   <autoFilter ref="B1:J124" xr:uid="{B9CDCF83-4341-4D97-8AF8-098A114465A9}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{350E8EA7-6A95-4955-AF92-86AAEA2BA677}" name="列名/Column" dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{6ABB1A04-FB0D-4D10-B245-B8C8DB4828E1}" name="数据类型/Type" dataDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{FCA6C0C7-D58A-4EB4-ADAD-587CBD0DD701}" name="长度/Length" dataDxfId="46"/>
-    <tableColumn id="4" xr3:uid="{52DA6CEC-27BC-4EAE-AE94-7470B76EC7C3}" name="是否为空/Null(Y,N)" dataDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{AE35D0B9-0729-44FC-B690-C7EDD3166A02}" name="默认值/Default" dataDxfId="44"/>
-    <tableColumn id="6" xr3:uid="{6C52994F-377C-4C2E-9F7E-525CAC70A537}" name="是否主键/Primary(Y,N)" dataDxfId="43"/>
-    <tableColumn id="7" xr3:uid="{6EA4723E-17A5-4EC8-8998-8102D06DE919}" name="是否唯一/Unique(Y,N)" dataDxfId="42"/>
-    <tableColumn id="8" xr3:uid="{1A6BD3A8-4916-46D9-B4C6-624DA102515A}" name="外键/Forigen(可空)" dataDxfId="41"/>
-    <tableColumn id="9" xr3:uid="{632B0B2F-EABB-4492-9536-4E24187636CD}" name="备注/Comment" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{350E8EA7-6A95-4955-AF92-86AAEA2BA677}" name="列名/Column" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{6ABB1A04-FB0D-4D10-B245-B8C8DB4828E1}" name="数据类型/Type" dataDxfId="62"/>
+    <tableColumn id="3" xr3:uid="{FCA6C0C7-D58A-4EB4-ADAD-587CBD0DD701}" name="长度/Length" dataDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{52DA6CEC-27BC-4EAE-AE94-7470B76EC7C3}" name="是否为空/Null(Y,N)" dataDxfId="60"/>
+    <tableColumn id="5" xr3:uid="{AE35D0B9-0729-44FC-B690-C7EDD3166A02}" name="默认值/Default" dataDxfId="59"/>
+    <tableColumn id="6" xr3:uid="{6C52994F-377C-4C2E-9F7E-525CAC70A537}" name="是否主键/Primary(Y,N)" dataDxfId="58"/>
+    <tableColumn id="7" xr3:uid="{6EA4723E-17A5-4EC8-8998-8102D06DE919}" name="是否唯一/Unique(Y,N)" dataDxfId="57"/>
+    <tableColumn id="8" xr3:uid="{1A6BD3A8-4916-46D9-B4C6-624DA102515A}" name="外键/Forigen(可空)" dataDxfId="56"/>
+    <tableColumn id="9" xr3:uid="{632B0B2F-EABB-4492-9536-4E24187636CD}" name="备注/Comment" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4451,7 +4702,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="52" t="s">
         <v>745</v>
       </c>
       <c r="B2" s="26" t="s">
@@ -4479,7 +4730,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="50"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="26" t="s">
         <v>860</v>
       </c>
@@ -4501,7 +4752,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
+      <c r="A4" s="51"/>
       <c r="B4" t="s">
         <v>19</v>
       </c>
@@ -4521,7 +4772,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
+      <c r="A5" s="51"/>
       <c r="B5" t="s">
         <v>22</v>
       </c>
@@ -4541,7 +4792,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
+      <c r="A6" s="51"/>
       <c r="B6" t="s">
         <v>26</v>
       </c>
@@ -4561,7 +4812,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
+      <c r="A7" s="51"/>
       <c r="B7" t="s">
         <v>29</v>
       </c>
@@ -4579,7 +4830,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
+      <c r="A8" s="51"/>
       <c r="B8" t="s">
         <v>31</v>
       </c>
@@ -4599,7 +4850,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
+      <c r="A9" s="51"/>
       <c r="B9" t="s">
         <v>33</v>
       </c>
@@ -4619,7 +4870,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="26" t="s">
         <v>861</v>
       </c>
@@ -4643,7 +4894,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
+      <c r="A11" s="51"/>
       <c r="B11" t="s">
         <v>38</v>
       </c>
@@ -4656,7 +4907,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="51" t="s">
         <v>41</v>
       </c>
       <c r="B12" t="s">
@@ -4684,7 +4935,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
+      <c r="A13" s="51"/>
       <c r="B13" t="s">
         <v>42</v>
       </c>
@@ -4699,7 +4950,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
+      <c r="A14" s="51"/>
       <c r="B14" t="s">
         <v>44</v>
       </c>
@@ -4714,7 +4965,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
+      <c r="A15" s="51"/>
       <c r="B15" t="s">
         <v>46</v>
       </c>
@@ -4729,7 +4980,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
+      <c r="A16" s="51"/>
       <c r="B16" t="s">
         <v>48</v>
       </c>
@@ -4744,7 +4995,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="43" t="s">
         <v>833</v>
       </c>
@@ -4764,7 +5015,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
+      <c r="A18" s="51"/>
       <c r="B18" t="s">
         <v>50</v>
       </c>
@@ -4779,7 +5030,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
+      <c r="A19" s="51"/>
       <c r="B19" t="s">
         <v>52</v>
       </c>
@@ -4794,7 +5045,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="50"/>
+      <c r="A20" s="51"/>
       <c r="B20" s="39" t="s">
         <v>862</v>
       </c>
@@ -4814,7 +5065,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
+      <c r="A21" s="51"/>
       <c r="B21" t="s">
         <v>54</v>
       </c>
@@ -4829,7 +5080,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
+      <c r="A22" s="51"/>
       <c r="B22" t="s">
         <v>56</v>
       </c>
@@ -4844,7 +5095,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="50"/>
+      <c r="A23" s="51"/>
       <c r="B23" t="s">
         <v>38</v>
       </c>
@@ -4857,7 +5108,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="52" t="s">
         <v>746</v>
       </c>
       <c r="B24" t="s">
@@ -4885,7 +5136,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
+      <c r="A25" s="51"/>
       <c r="B25" t="s">
         <v>58</v>
       </c>
@@ -4900,7 +5151,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
+      <c r="A26" s="51"/>
       <c r="B26" t="s">
         <v>60</v>
       </c>
@@ -4915,7 +5166,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="50"/>
+      <c r="A27" s="51"/>
       <c r="B27" t="s">
         <v>62</v>
       </c>
@@ -4930,7 +5181,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="50"/>
+      <c r="A28" s="51"/>
       <c r="B28" t="s">
         <v>64</v>
       </c>
@@ -4945,7 +5196,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="50"/>
+      <c r="A29" s="51"/>
       <c r="B29" s="26" t="s">
         <v>863</v>
       </c>
@@ -4960,7 +5211,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="50"/>
+      <c r="A30" s="51"/>
       <c r="B30" t="s">
         <v>52</v>
       </c>
@@ -4975,7 +5226,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="50"/>
+      <c r="A31" s="51"/>
       <c r="B31" t="s">
         <v>67</v>
       </c>
@@ -4988,7 +5239,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="50"/>
+      <c r="A32" s="51"/>
       <c r="B32" t="s">
         <v>38</v>
       </c>
@@ -5001,7 +5252,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="50" t="s">
+      <c r="A33" s="51" t="s">
         <v>69</v>
       </c>
       <c r="B33" t="s">
@@ -5018,7 +5269,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="50"/>
+      <c r="A34" s="51"/>
       <c r="B34" s="26" t="s">
         <v>864</v>
       </c>
@@ -5033,7 +5284,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="50"/>
+      <c r="A35" s="51"/>
       <c r="B35" t="s">
         <v>71</v>
       </c>
@@ -5048,7 +5299,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="50"/>
+      <c r="A36" s="51"/>
       <c r="B36" t="s">
         <v>73</v>
       </c>
@@ -5063,7 +5314,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="50"/>
+      <c r="A37" s="51"/>
       <c r="B37" t="s">
         <v>52</v>
       </c>
@@ -5078,7 +5329,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="50"/>
+      <c r="A38" s="51"/>
       <c r="B38" t="s">
         <v>75</v>
       </c>
@@ -5091,7 +5342,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="50"/>
+      <c r="A39" s="51"/>
       <c r="B39" t="s">
         <v>38</v>
       </c>
@@ -5104,7 +5355,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="50" t="s">
+      <c r="A40" s="51" t="s">
         <v>77</v>
       </c>
       <c r="B40" t="s">
@@ -5121,7 +5372,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="50"/>
+      <c r="A41" s="51"/>
       <c r="B41" t="s">
         <v>78</v>
       </c>
@@ -5136,7 +5387,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="50"/>
+      <c r="A42" s="51"/>
       <c r="B42" t="s">
         <v>80</v>
       </c>
@@ -5151,7 +5402,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="50"/>
+      <c r="A43" s="51"/>
       <c r="B43" t="s">
         <v>740</v>
       </c>
@@ -5171,7 +5422,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="50"/>
+      <c r="A44" s="51"/>
       <c r="B44" t="s">
         <v>82</v>
       </c>
@@ -5186,7 +5437,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="50"/>
+      <c r="A45" s="51"/>
       <c r="B45" t="s">
         <v>52</v>
       </c>
@@ -5201,7 +5452,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="50"/>
+      <c r="A46" s="51"/>
       <c r="B46" t="s">
         <v>75</v>
       </c>
@@ -5214,7 +5465,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="50"/>
+      <c r="A47" s="51"/>
       <c r="B47" t="s">
         <v>38</v>
       </c>
@@ -5227,7 +5478,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="50" t="s">
+      <c r="A48" s="51" t="s">
         <v>83</v>
       </c>
       <c r="B48" t="s">
@@ -5244,7 +5495,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="50"/>
+      <c r="A49" s="51"/>
       <c r="B49" t="s">
         <v>84</v>
       </c>
@@ -5259,7 +5510,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="50"/>
+      <c r="A50" s="51"/>
       <c r="B50" t="s">
         <v>86</v>
       </c>
@@ -5274,7 +5525,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="50"/>
+      <c r="A51" s="51"/>
       <c r="B51" t="s">
         <v>88</v>
       </c>
@@ -5289,7 +5540,7 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="50"/>
+      <c r="A52" s="51"/>
       <c r="B52" t="s">
         <v>90</v>
       </c>
@@ -5304,7 +5555,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="50"/>
+      <c r="A53" s="51"/>
       <c r="B53" t="s">
         <v>52</v>
       </c>
@@ -5319,7 +5570,7 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="50"/>
+      <c r="A54" s="51"/>
       <c r="B54" t="s">
         <v>92</v>
       </c>
@@ -5332,7 +5583,7 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="50"/>
+      <c r="A55" s="51"/>
       <c r="B55" t="s">
         <v>94</v>
       </c>
@@ -5345,7 +5596,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="50"/>
+      <c r="A56" s="51"/>
       <c r="B56" t="s">
         <v>38</v>
       </c>
@@ -5358,7 +5609,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="50" t="s">
+      <c r="A57" s="51" t="s">
         <v>96</v>
       </c>
       <c r="B57" t="s">
@@ -5375,7 +5626,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="50"/>
+      <c r="A58" s="51"/>
       <c r="B58" t="s">
         <v>97</v>
       </c>
@@ -5390,7 +5641,7 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="50"/>
+      <c r="A59" s="51"/>
       <c r="B59" t="s">
         <v>98</v>
       </c>
@@ -5405,7 +5656,7 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="50"/>
+      <c r="A60" s="51"/>
       <c r="B60" t="s">
         <v>100</v>
       </c>
@@ -5420,7 +5671,7 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="50"/>
+      <c r="A61" s="51"/>
       <c r="B61" t="s">
         <v>52</v>
       </c>
@@ -5433,7 +5684,7 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="50"/>
+      <c r="A62" s="51"/>
       <c r="B62" t="s">
         <v>38</v>
       </c>
@@ -5565,27 +5816,27 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="cellIs" dxfId="69" priority="2" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="54" priority="2" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:E1">
-    <cfRule type="cellIs" dxfId="68" priority="5" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="53" priority="5" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:H1">
-    <cfRule type="cellIs" dxfId="67" priority="3" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="52" priority="3" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="66" priority="4" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="51" priority="4" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="65" priority="1" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="50" priority="1" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5614,16 +5865,485 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.77734375" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
+        <v>867</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>868</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>869</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>749</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31" t="s">
+        <v>870</v>
+      </c>
+      <c r="H2" s="31"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="27" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="60"/>
+      <c r="B3" s="29" t="s">
+        <v>721</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>869</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>749</v>
+      </c>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="27" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="60"/>
+      <c r="B4" s="29" t="s">
+        <v>873</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>709</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>730</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="27" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="60"/>
+      <c r="B5" s="29" t="s">
+        <v>874</v>
+      </c>
+      <c r="C5" s="61" t="s">
+        <v>709</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>753</v>
+      </c>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="27" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="60"/>
+      <c r="B6" s="29" t="s">
+        <v>876</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>869</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>749</v>
+      </c>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="27" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="60"/>
+      <c r="B7" s="29" t="s">
+        <v>877</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>709</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>730</v>
+      </c>
+      <c r="E7" s="50"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="27" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="60"/>
+      <c r="B8" s="29" t="s">
+        <v>878</v>
+      </c>
+      <c r="C8" s="61" t="s">
+        <v>708</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>879</v>
+      </c>
+      <c r="E8" s="50"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="27" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="60"/>
+      <c r="B9" s="29" t="s">
+        <v>880</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>708</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>879</v>
+      </c>
+      <c r="E9" s="50"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="27" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="60"/>
+      <c r="B10" s="29" t="s">
+        <v>881</v>
+      </c>
+      <c r="C10" s="61" t="s">
+        <v>709</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>753</v>
+      </c>
+      <c r="E10" s="50"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="27" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="60"/>
+      <c r="B11" s="37" t="s">
+        <v>882</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>709</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>753</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="35" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="60"/>
+      <c r="B12" s="29" t="s">
+        <v>883</v>
+      </c>
+      <c r="C12" s="61" t="s">
+        <v>709</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>753</v>
+      </c>
+      <c r="E12" s="50"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="27" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="60"/>
+      <c r="B13" s="29" t="s">
+        <v>884</v>
+      </c>
+      <c r="C13" s="61" t="s">
+        <v>709</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>753</v>
+      </c>
+      <c r="E13" s="50"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="27" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="60"/>
+      <c r="B14" s="29" t="s">
+        <v>885</v>
+      </c>
+      <c r="C14" s="61" t="s">
+        <v>718</v>
+      </c>
+      <c r="D14" s="30"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="27" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="60"/>
+      <c r="B15" s="29" t="s">
+        <v>886</v>
+      </c>
+      <c r="C15" s="61" t="s">
+        <v>718</v>
+      </c>
+      <c r="D15" s="30"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="27" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="55"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="27"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="55"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="27"/>
+      <c r="L17" s="26"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="55"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="27"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="55"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="27"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="54"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="27"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="55"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="27"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="55"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="27"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="55"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="27"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="55"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="27"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="55"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A2:A15"/>
+  </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="A1:B1">
+    <cfRule type="cellIs" dxfId="9" priority="2" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:E1">
+    <cfRule type="cellIs" dxfId="8" priority="5" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:H1">
+    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1">
+    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5682,7 +6402,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>498</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -5699,7 +6419,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="5" t="s">
         <v>501</v>
       </c>
@@ -5714,7 +6434,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="5" t="s">
         <v>503</v>
       </c>
@@ -5729,7 +6449,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="5" t="s">
         <v>505</v>
       </c>
@@ -5744,7 +6464,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="54"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="5" t="s">
         <v>507</v>
       </c>
@@ -5756,7 +6476,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="5" t="s">
         <v>509</v>
       </c>
@@ -5768,7 +6488,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="5" t="s">
         <v>511</v>
       </c>
@@ -5780,7 +6500,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="5" t="s">
         <v>513</v>
       </c>
@@ -5792,7 +6512,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="5" t="s">
         <v>515</v>
       </c>
@@ -5807,7 +6527,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="54"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="5" t="s">
         <v>517</v>
       </c>
@@ -5822,7 +6542,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="5" t="s">
         <v>519</v>
       </c>
@@ -5837,7 +6557,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="5" t="s">
         <v>521</v>
       </c>
@@ -5852,7 +6572,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
+      <c r="A14" s="55"/>
       <c r="B14" s="5" t="s">
         <v>523</v>
       </c>
@@ -5867,7 +6587,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="5" t="s">
         <v>525</v>
       </c>
@@ -5882,7 +6602,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="5" t="s">
         <v>527</v>
       </c>
@@ -5897,7 +6617,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="5" t="s">
         <v>529</v>
       </c>
@@ -5912,7 +6632,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="5" t="s">
         <v>489</v>
       </c>
@@ -5927,7 +6647,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="54"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="5" t="s">
         <v>532</v>
       </c>
@@ -5942,7 +6662,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="5" t="s">
         <v>534</v>
       </c>
@@ -5957,7 +6677,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="54"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="5" t="s">
         <v>536</v>
       </c>
@@ -5972,7 +6692,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="5" t="s">
         <v>538</v>
       </c>
@@ -5987,7 +6707,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="54"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="5" t="s">
         <v>540</v>
       </c>
@@ -6002,7 +6722,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="55" t="s">
         <v>542</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -6019,7 +6739,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="54"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="5" t="s">
         <v>543</v>
       </c>
@@ -6034,7 +6754,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="54"/>
+      <c r="A26" s="55"/>
       <c r="B26" s="5" t="s">
         <v>505</v>
       </c>
@@ -6049,7 +6769,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="54"/>
+      <c r="A27" s="55"/>
       <c r="B27" s="5" t="s">
         <v>546</v>
       </c>
@@ -6064,7 +6784,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="54"/>
+      <c r="A28" s="55"/>
       <c r="B28" s="5" t="s">
         <v>548</v>
       </c>
@@ -6079,7 +6799,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="54"/>
+      <c r="A29" s="55"/>
       <c r="B29" s="5" t="s">
         <v>515</v>
       </c>
@@ -6094,7 +6814,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="54"/>
+      <c r="A30" s="55"/>
       <c r="B30" s="5" t="s">
         <v>550</v>
       </c>
@@ -6109,7 +6829,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="54"/>
+      <c r="A31" s="55"/>
       <c r="B31" s="5" t="s">
         <v>552</v>
       </c>
@@ -6124,7 +6844,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="54"/>
+      <c r="A32" s="55"/>
       <c r="B32" s="5" t="s">
         <v>554</v>
       </c>
@@ -6139,7 +6859,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="54"/>
+      <c r="A33" s="55"/>
       <c r="B33" s="5" t="s">
         <v>556</v>
       </c>
@@ -6154,7 +6874,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="54"/>
+      <c r="A34" s="55"/>
       <c r="B34" s="5" t="s">
         <v>558</v>
       </c>
@@ -6169,7 +6889,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="54"/>
+      <c r="A35" s="55"/>
       <c r="B35" s="5" t="s">
         <v>561</v>
       </c>
@@ -6184,13 +6904,13 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="54"/>
+      <c r="A36" s="55"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="J36" s="5"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="54"/>
+      <c r="A37" s="55"/>
       <c r="B37" s="5" t="s">
         <v>563</v>
       </c>
@@ -6205,7 +6925,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="54"/>
+      <c r="A38" s="55"/>
       <c r="B38" s="5" t="s">
         <v>565</v>
       </c>
@@ -6220,7 +6940,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="54"/>
+      <c r="A39" s="55"/>
       <c r="B39" s="5" t="s">
         <v>566</v>
       </c>
@@ -6235,7 +6955,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="54"/>
+      <c r="A40" s="55"/>
       <c r="B40" s="5" t="s">
         <v>568</v>
       </c>
@@ -6250,13 +6970,13 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="54"/>
+      <c r="A41" s="55"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="J41" s="5"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="54"/>
+      <c r="A42" s="55"/>
       <c r="B42" s="5" t="s">
         <v>570</v>
       </c>
@@ -6271,7 +6991,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="54"/>
+      <c r="A43" s="55"/>
       <c r="B43" s="5" t="s">
         <v>572</v>
       </c>
@@ -6286,7 +7006,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="54"/>
+      <c r="A44" s="55"/>
       <c r="B44" s="5" t="s">
         <v>538</v>
       </c>
@@ -6301,7 +7021,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="54"/>
+      <c r="A45" s="55"/>
       <c r="B45" s="5" t="s">
         <v>575</v>
       </c>
@@ -6316,7 +7036,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="54"/>
+      <c r="A46" s="55"/>
       <c r="B46" s="5" t="s">
         <v>577</v>
       </c>
@@ -6331,7 +7051,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="54"/>
+      <c r="A47" s="55"/>
       <c r="B47" s="5" t="s">
         <v>579</v>
       </c>
@@ -6346,7 +7066,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="54"/>
+      <c r="A48" s="55"/>
       <c r="B48" s="5" t="s">
         <v>581</v>
       </c>
@@ -6361,7 +7081,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="54"/>
+      <c r="A49" s="55"/>
       <c r="B49" s="5" t="s">
         <v>583</v>
       </c>
@@ -6376,7 +7096,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="54"/>
+      <c r="A50" s="55"/>
       <c r="B50" s="5" t="s">
         <v>585</v>
       </c>
@@ -6388,13 +7108,13 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="54"/>
+      <c r="A51" s="55"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="J51" s="5"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="54"/>
+      <c r="A52" s="55"/>
       <c r="B52" s="5" t="s">
         <v>587</v>
       </c>
@@ -6409,7 +7129,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="54"/>
+      <c r="A53" s="55"/>
       <c r="B53" s="5" t="s">
         <v>589</v>
       </c>
@@ -6424,7 +7144,7 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="54"/>
+      <c r="A54" s="55"/>
       <c r="B54" s="5" t="s">
         <v>591</v>
       </c>
@@ -6439,7 +7159,7 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="54"/>
+      <c r="A55" s="55"/>
       <c r="B55" s="5" t="s">
         <v>593</v>
       </c>
@@ -6454,7 +7174,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="54"/>
+      <c r="A56" s="55"/>
       <c r="B56" s="5" t="s">
         <v>595</v>
       </c>
@@ -6469,7 +7189,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="54"/>
+      <c r="A57" s="55"/>
       <c r="B57" s="5" t="s">
         <v>597</v>
       </c>
@@ -6484,7 +7204,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="54"/>
+      <c r="A58" s="55"/>
       <c r="B58" s="5" t="s">
         <v>599</v>
       </c>
@@ -6499,7 +7219,7 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="54"/>
+      <c r="A59" s="55"/>
       <c r="B59" s="5" t="s">
         <v>601</v>
       </c>
@@ -6514,7 +7234,7 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="54"/>
+      <c r="A60" s="55"/>
       <c r="B60" s="5" t="s">
         <v>603</v>
       </c>
@@ -6529,7 +7249,7 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="54"/>
+      <c r="A61" s="55"/>
       <c r="B61" s="5" t="s">
         <v>605</v>
       </c>
@@ -6544,7 +7264,7 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="54"/>
+      <c r="A62" s="55"/>
       <c r="B62" s="5" t="s">
         <v>607</v>
       </c>
@@ -6559,7 +7279,7 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="54"/>
+      <c r="A63" s="55"/>
       <c r="B63" s="5" t="s">
         <v>609</v>
       </c>
@@ -6574,7 +7294,7 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="54"/>
+      <c r="A64" s="55"/>
       <c r="B64" s="5" t="s">
         <v>611</v>
       </c>
@@ -6589,7 +7309,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="54"/>
+      <c r="A65" s="55"/>
       <c r="B65" s="5" t="s">
         <v>613</v>
       </c>
@@ -6604,7 +7324,7 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="54"/>
+      <c r="A66" s="55"/>
       <c r="B66" s="5" t="s">
         <v>615</v>
       </c>
@@ -6619,13 +7339,13 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="54"/>
+      <c r="A67" s="55"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="J67" s="5"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="54"/>
+      <c r="A68" s="55"/>
       <c r="B68" s="5" t="s">
         <v>617</v>
       </c>
@@ -6637,7 +7357,7 @@
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="54"/>
+      <c r="A69" s="55"/>
       <c r="B69" s="5" t="s">
         <v>527</v>
       </c>
@@ -6652,7 +7372,7 @@
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="54"/>
+      <c r="A70" s="55"/>
       <c r="B70" s="5" t="s">
         <v>529</v>
       </c>
@@ -6667,7 +7387,7 @@
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="54"/>
+      <c r="A71" s="55"/>
       <c r="B71" s="5" t="s">
         <v>619</v>
       </c>
@@ -6682,13 +7402,13 @@
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="54"/>
+      <c r="A72" s="55"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="J72" s="5"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="54"/>
+      <c r="A73" s="55"/>
       <c r="B73" s="5" t="s">
         <v>621</v>
       </c>
@@ -6703,7 +7423,7 @@
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="54"/>
+      <c r="A74" s="55"/>
       <c r="B74" s="5" t="s">
         <v>623</v>
       </c>
@@ -6718,7 +7438,7 @@
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="54"/>
+      <c r="A75" s="55"/>
       <c r="B75" s="5" t="s">
         <v>625</v>
       </c>
@@ -6733,7 +7453,7 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="54"/>
+      <c r="A76" s="55"/>
       <c r="B76" s="5" t="s">
         <v>626</v>
       </c>
@@ -6748,7 +7468,7 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="54"/>
+      <c r="A77" s="55"/>
       <c r="B77" s="5" t="s">
         <v>628</v>
       </c>
@@ -6763,7 +7483,7 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="54"/>
+      <c r="A78" s="55"/>
       <c r="B78" s="5" t="s">
         <v>630</v>
       </c>
@@ -6778,7 +7498,7 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="54"/>
+      <c r="A79" s="55"/>
       <c r="B79" s="5" t="s">
         <v>632</v>
       </c>
@@ -6793,7 +7513,7 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="54"/>
+      <c r="A80" s="55"/>
       <c r="B80" s="5" t="s">
         <v>634</v>
       </c>
@@ -6808,7 +7528,7 @@
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="54"/>
+      <c r="A81" s="55"/>
       <c r="B81" s="5" t="s">
         <v>636</v>
       </c>
@@ -6823,7 +7543,7 @@
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="54"/>
+      <c r="A82" s="55"/>
       <c r="B82" s="5" t="s">
         <v>638</v>
       </c>
@@ -6838,7 +7558,7 @@
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="54"/>
+      <c r="A83" s="55"/>
       <c r="B83" s="5" t="s">
         <v>640</v>
       </c>
@@ -6853,7 +7573,7 @@
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="54"/>
+      <c r="A84" s="55"/>
       <c r="B84" s="5" t="s">
         <v>642</v>
       </c>
@@ -6868,7 +7588,7 @@
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="54"/>
+      <c r="A85" s="55"/>
       <c r="B85" s="5" t="s">
         <v>644</v>
       </c>
@@ -6883,7 +7603,7 @@
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="54"/>
+      <c r="A86" s="55"/>
       <c r="B86" s="5" t="s">
         <v>646</v>
       </c>
@@ -6898,7 +7618,7 @@
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="54"/>
+      <c r="A87" s="55"/>
       <c r="B87" s="5" t="s">
         <v>648</v>
       </c>
@@ -6913,7 +7633,7 @@
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="54"/>
+      <c r="A88" s="55"/>
       <c r="B88" s="5" t="s">
         <v>650</v>
       </c>
@@ -6928,7 +7648,7 @@
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="54"/>
+      <c r="A89" s="55"/>
       <c r="B89" s="5" t="s">
         <v>652</v>
       </c>
@@ -6943,7 +7663,7 @@
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="54"/>
+      <c r="A90" s="55"/>
       <c r="B90" s="5" t="s">
         <v>654</v>
       </c>
@@ -6958,13 +7678,13 @@
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="54"/>
+      <c r="A91" s="55"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="J91" s="5"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="54"/>
+      <c r="A92" s="55"/>
       <c r="B92" s="5" t="s">
         <v>656</v>
       </c>
@@ -6979,7 +7699,7 @@
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="54"/>
+      <c r="A93" s="55"/>
       <c r="B93" s="5" t="s">
         <v>658</v>
       </c>
@@ -6994,13 +7714,13 @@
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="54"/>
+      <c r="A94" s="55"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="J94" s="5"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="54"/>
+      <c r="A95" s="55"/>
       <c r="B95" s="5" t="s">
         <v>660</v>
       </c>
@@ -7015,7 +7735,7 @@
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="54"/>
+      <c r="A96" s="55"/>
       <c r="B96" s="5" t="s">
         <v>662</v>
       </c>
@@ -7030,7 +7750,7 @@
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="54"/>
+      <c r="A97" s="55"/>
       <c r="B97" s="5" t="s">
         <v>664</v>
       </c>
@@ -7042,13 +7762,13 @@
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="54"/>
+      <c r="A98" s="55"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="J98" s="5"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="54"/>
+      <c r="A99" s="55"/>
       <c r="B99" s="5" t="s">
         <v>666</v>
       </c>
@@ -7063,7 +7783,7 @@
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="54"/>
+      <c r="A100" s="55"/>
       <c r="B100" s="5" t="s">
         <v>668</v>
       </c>
@@ -7078,7 +7798,7 @@
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="54"/>
+      <c r="A101" s="55"/>
       <c r="B101" s="5" t="s">
         <v>670</v>
       </c>
@@ -7093,7 +7813,7 @@
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="54"/>
+      <c r="A102" s="55"/>
       <c r="B102" s="5" t="s">
         <v>672</v>
       </c>
@@ -7108,7 +7828,7 @@
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="54" t="s">
+      <c r="A103" s="55" t="s">
         <v>674</v>
       </c>
       <c r="B103" s="5" t="s">
@@ -7125,7 +7845,7 @@
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="54"/>
+      <c r="A104" s="55"/>
       <c r="B104" s="5" t="s">
         <v>676</v>
       </c>
@@ -7140,7 +7860,7 @@
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="54"/>
+      <c r="A105" s="55"/>
       <c r="B105" s="5" t="s">
         <v>678</v>
       </c>
@@ -7155,7 +7875,7 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="54"/>
+      <c r="A106" s="55"/>
       <c r="B106" s="5" t="s">
         <v>680</v>
       </c>
@@ -7170,7 +7890,7 @@
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="54"/>
+      <c r="A107" s="55"/>
       <c r="B107" s="5" t="s">
         <v>682</v>
       </c>
@@ -7185,7 +7905,7 @@
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="54"/>
+      <c r="A108" s="55"/>
       <c r="B108" s="5" t="s">
         <v>684</v>
       </c>
@@ -7200,7 +7920,7 @@
       </c>
     </row>
     <row r="109" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A109" s="54"/>
+      <c r="A109" s="55"/>
       <c r="B109" s="5" t="s">
         <v>686</v>
       </c>
@@ -7215,7 +7935,7 @@
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="54"/>
+      <c r="A110" s="55"/>
       <c r="B110" s="5" t="s">
         <v>688</v>
       </c>
@@ -7230,7 +7950,7 @@
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="54"/>
+      <c r="A111" s="55"/>
       <c r="B111" s="5" t="s">
         <v>690</v>
       </c>
@@ -7245,7 +7965,7 @@
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="54"/>
+      <c r="A112" s="55"/>
       <c r="B112" s="5" t="s">
         <v>692</v>
       </c>
@@ -7260,7 +7980,7 @@
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="54"/>
+      <c r="A113" s="55"/>
       <c r="B113" s="5" t="s">
         <v>694</v>
       </c>
@@ -7272,7 +7992,7 @@
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="54"/>
+      <c r="A114" s="55"/>
       <c r="B114" s="5" t="s">
         <v>696</v>
       </c>
@@ -7284,7 +8004,7 @@
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="54" t="s">
+      <c r="A115" s="55" t="s">
         <v>697</v>
       </c>
       <c r="B115" s="5" t="s">
@@ -7301,7 +8021,7 @@
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="54"/>
+      <c r="A116" s="55"/>
       <c r="B116" s="5" t="s">
         <v>676</v>
       </c>
@@ -7316,7 +8036,7 @@
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="54"/>
+      <c r="A117" s="55"/>
       <c r="B117" s="5" t="s">
         <v>678</v>
       </c>
@@ -7331,7 +8051,7 @@
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="54"/>
+      <c r="A118" s="55"/>
       <c r="B118" s="5" t="s">
         <v>682</v>
       </c>
@@ -7346,7 +8066,7 @@
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="54"/>
+      <c r="A119" s="55"/>
       <c r="B119" s="5" t="s">
         <v>587</v>
       </c>
@@ -7361,7 +8081,7 @@
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="54"/>
+      <c r="A120" s="55"/>
       <c r="B120" s="5" t="s">
         <v>589</v>
       </c>
@@ -7376,7 +8096,7 @@
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="54"/>
+      <c r="A121" s="55"/>
       <c r="B121" s="5" t="s">
         <v>591</v>
       </c>
@@ -7391,7 +8111,7 @@
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="54"/>
+      <c r="A122" s="55"/>
       <c r="B122" s="5" t="s">
         <v>593</v>
       </c>
@@ -7406,7 +8126,7 @@
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="54"/>
+      <c r="A123" s="55"/>
       <c r="B123" s="5" t="s">
         <v>595</v>
       </c>
@@ -7421,7 +8141,7 @@
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="54"/>
+      <c r="A124" s="55"/>
       <c r="B124" s="5" t="s">
         <v>597</v>
       </c>
@@ -7436,7 +8156,7 @@
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="54"/>
+      <c r="A125" s="55"/>
       <c r="B125" s="5" t="s">
         <v>599</v>
       </c>
@@ -7451,7 +8171,7 @@
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="54"/>
+      <c r="A126" s="55"/>
       <c r="B126" s="5" t="s">
         <v>601</v>
       </c>
@@ -7466,7 +8186,7 @@
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="54"/>
+      <c r="A127" s="55"/>
       <c r="B127" s="5" t="s">
         <v>603</v>
       </c>
@@ -7481,7 +8201,7 @@
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="54"/>
+      <c r="A128" s="55"/>
       <c r="B128" s="5" t="s">
         <v>605</v>
       </c>
@@ -7496,7 +8216,7 @@
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="54"/>
+      <c r="A129" s="55"/>
       <c r="B129" s="5" t="s">
         <v>607</v>
       </c>
@@ -7511,7 +8231,7 @@
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="54"/>
+      <c r="A130" s="55"/>
       <c r="B130" s="5" t="s">
         <v>609</v>
       </c>
@@ -7526,7 +8246,7 @@
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="54"/>
+      <c r="A131" s="55"/>
       <c r="B131" s="5" t="s">
         <v>611</v>
       </c>
@@ -7541,7 +8261,7 @@
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="54"/>
+      <c r="A132" s="55"/>
       <c r="B132" s="5" t="s">
         <v>613</v>
       </c>
@@ -7556,7 +8276,7 @@
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="54"/>
+      <c r="A133" s="55"/>
       <c r="B133" s="5" t="s">
         <v>615</v>
       </c>
@@ -7571,7 +8291,7 @@
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="54"/>
+      <c r="A134" s="55"/>
       <c r="B134" s="5" t="s">
         <v>699</v>
       </c>
@@ -7586,7 +8306,7 @@
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="54"/>
+      <c r="A135" s="55"/>
       <c r="B135" s="5" t="s">
         <v>701</v>
       </c>
@@ -7601,7 +8321,7 @@
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="54"/>
+      <c r="A136" s="55"/>
       <c r="B136" s="5" t="s">
         <v>703</v>
       </c>
@@ -7616,7 +8336,7 @@
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="54"/>
+      <c r="A137" s="55"/>
       <c r="B137" s="5" t="s">
         <v>696</v>
       </c>
@@ -7668,8 +8388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="A1:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7719,7 +8439,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="56" t="s">
         <v>856</v>
       </c>
       <c r="B2" s="29" t="s">
@@ -7741,7 +8461,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
+      <c r="A3" s="56"/>
       <c r="B3" s="29" t="s">
         <v>854</v>
       </c>
@@ -7761,7 +8481,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="33" t="s">
         <v>752</v>
       </c>
@@ -7781,7 +8501,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="29" t="s">
         <v>855</v>
       </c>
@@ -7801,7 +8521,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="54" t="s">
         <v>751</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -7823,7 +8543,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="21" t="s">
         <v>102</v>
       </c>
@@ -7847,7 +8567,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="21" t="s">
         <v>103</v>
       </c>
@@ -7869,7 +8589,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="21" t="s">
         <v>104</v>
       </c>
@@ -7891,7 +8611,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="21" t="s">
         <v>105</v>
       </c>
@@ -7915,7 +8635,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="54"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="37" t="s">
         <v>829</v>
       </c>
@@ -7935,7 +8655,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="21" t="s">
         <v>106</v>
       </c>
@@ -7957,7 +8677,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="21" t="s">
         <v>715</v>
       </c>
@@ -7979,7 +8699,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
+      <c r="A14" s="55"/>
       <c r="B14" s="21" t="s">
         <v>108</v>
       </c>
@@ -8001,7 +8721,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="21" t="s">
         <v>109</v>
       </c>
@@ -8023,7 +8743,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="21" t="s">
         <v>110</v>
       </c>
@@ -8045,7 +8765,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="21" t="s">
         <v>111</v>
       </c>
@@ -8067,7 +8787,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="21" t="s">
         <v>112</v>
       </c>
@@ -8089,7 +8809,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="54"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="21" t="s">
         <v>113</v>
       </c>
@@ -8111,7 +8831,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="21" t="s">
         <v>114</v>
       </c>
@@ -8133,7 +8853,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="54"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="21" t="s">
         <v>115</v>
       </c>
@@ -8155,7 +8875,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="21" t="s">
         <v>116</v>
       </c>
@@ -8177,7 +8897,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="54"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="21" t="s">
         <v>117</v>
       </c>
@@ -8199,7 +8919,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="54"/>
+      <c r="A24" s="55"/>
       <c r="B24" s="21" t="s">
         <v>118</v>
       </c>
@@ -8221,7 +8941,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="54"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="21" t="s">
         <v>10</v>
       </c>
@@ -8243,7 +8963,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="54"/>
+      <c r="A26" s="55"/>
       <c r="B26" s="21" t="s">
         <v>119</v>
       </c>
@@ -8265,7 +8985,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="54"/>
+      <c r="A27" s="55"/>
       <c r="B27" s="21" t="s">
         <v>120</v>
       </c>
@@ -8287,7 +9007,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="54"/>
+      <c r="A28" s="55"/>
       <c r="B28" s="21" t="s">
         <v>121</v>
       </c>
@@ -8311,7 +9031,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="54"/>
+      <c r="A29" s="55"/>
       <c r="B29" s="21" t="s">
         <v>38</v>
       </c>
@@ -8327,7 +9047,7 @@
       <c r="J29" s="27"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="54" t="s">
+      <c r="A30" s="55" t="s">
         <v>719</v>
       </c>
       <c r="B30" s="21" t="s">
@@ -8355,7 +9075,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="54"/>
+      <c r="A31" s="55"/>
       <c r="B31" s="21" t="s">
         <v>722</v>
       </c>
@@ -8382,7 +9102,7 @@
       <c r="L31" s="26"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="54"/>
+      <c r="A32" s="55"/>
       <c r="B32" s="21" t="s">
         <v>122</v>
       </c>
@@ -8410,7 +9130,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="54"/>
+      <c r="A33" s="55"/>
       <c r="B33" s="21" t="s">
         <v>744</v>
       </c>
@@ -8430,7 +9150,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="53" t="s">
+      <c r="A34" s="54" t="s">
         <v>747</v>
       </c>
       <c r="B34" s="21" t="s">
@@ -8458,7 +9178,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="54"/>
+      <c r="A35" s="55"/>
       <c r="B35" s="29" t="s">
         <v>832</v>
       </c>
@@ -8484,7 +9204,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="54"/>
+      <c r="A36" s="55"/>
       <c r="B36" s="47" t="s">
         <v>837</v>
       </c>
@@ -8504,7 +9224,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="54"/>
+      <c r="A37" s="55"/>
       <c r="B37" s="47" t="s">
         <v>838</v>
       </c>
@@ -8524,7 +9244,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="54"/>
+      <c r="A38" s="55"/>
       <c r="B38" s="29" t="s">
         <v>750</v>
       </c>
@@ -8550,7 +9270,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="54"/>
+      <c r="A39" s="55"/>
       <c r="B39" s="29" t="s">
         <v>725</v>
       </c>
@@ -8572,7 +9292,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="55" t="s">
+      <c r="A40" s="57" t="s">
         <v>727</v>
       </c>
       <c r="B40" s="21" t="s">
@@ -8594,7 +9314,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="56"/>
+      <c r="A41" s="58"/>
       <c r="B41" s="21" t="s">
         <v>125</v>
       </c>
@@ -8614,7 +9334,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="56"/>
+      <c r="A42" s="58"/>
       <c r="B42" s="21" t="s">
         <v>126</v>
       </c>
@@ -8634,7 +9354,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="56"/>
+      <c r="A43" s="58"/>
       <c r="B43" s="21" t="s">
         <v>127</v>
       </c>
@@ -8654,7 +9374,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="56"/>
+      <c r="A44" s="58"/>
       <c r="B44" s="21" t="s">
         <v>128</v>
       </c>
@@ -8674,7 +9394,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="56"/>
+      <c r="A45" s="58"/>
       <c r="B45" s="21" t="s">
         <v>129</v>
       </c>
@@ -8694,7 +9414,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="56"/>
+      <c r="A46" s="58"/>
       <c r="B46" s="21" t="s">
         <v>130</v>
       </c>
@@ -8714,7 +9434,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="56"/>
+      <c r="A47" s="58"/>
       <c r="B47" s="21" t="s">
         <v>131</v>
       </c>
@@ -8734,7 +9454,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="56"/>
+      <c r="A48" s="58"/>
       <c r="B48" s="21" t="s">
         <v>132</v>
       </c>
@@ -8754,7 +9474,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="56"/>
+      <c r="A49" s="58"/>
       <c r="B49" s="21" t="s">
         <v>133</v>
       </c>
@@ -8774,7 +9494,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="53" t="s">
+      <c r="A50" s="54" t="s">
         <v>729</v>
       </c>
       <c r="B50" s="21" t="s">
@@ -8802,7 +9522,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="53"/>
+      <c r="A51" s="54"/>
       <c r="B51" s="47" t="s">
         <v>837</v>
       </c>
@@ -8822,7 +9542,7 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="54"/>
+      <c r="A52" s="55"/>
       <c r="B52" s="21" t="s">
         <v>136</v>
       </c>
@@ -8848,7 +9568,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="54"/>
+      <c r="A53" s="55"/>
       <c r="B53" s="21" t="s">
         <v>52</v>
       </c>
@@ -8870,7 +9590,7 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="53" t="s">
+      <c r="A54" s="54" t="s">
         <v>842</v>
       </c>
       <c r="B54" s="29" t="s">
@@ -8892,7 +9612,7 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="54"/>
+      <c r="A55" s="55"/>
       <c r="B55" s="47" t="s">
         <v>837</v>
       </c>
@@ -8912,7 +9632,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="54"/>
+      <c r="A56" s="55"/>
       <c r="B56" s="21" t="s">
         <v>137</v>
       </c>
@@ -8932,7 +9652,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="54"/>
+      <c r="A57" s="55"/>
       <c r="B57" s="21" t="s">
         <v>52</v>
       </c>
@@ -8952,7 +9672,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="53" t="s">
+      <c r="A58" s="54" t="s">
         <v>843</v>
       </c>
       <c r="B58" s="21" t="s">
@@ -8974,7 +9694,7 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="54"/>
+      <c r="A59" s="55"/>
       <c r="B59" s="47" t="s">
         <v>837</v>
       </c>
@@ -8994,7 +9714,7 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="54"/>
+      <c r="A60" s="55"/>
       <c r="B60" s="21" t="s">
         <v>141</v>
       </c>
@@ -9014,7 +9734,7 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="54"/>
+      <c r="A61" s="55"/>
       <c r="B61" s="21" t="s">
         <v>142</v>
       </c>
@@ -9034,7 +9754,7 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="54"/>
+      <c r="A62" s="55"/>
       <c r="B62" s="21" t="s">
         <v>857</v>
       </c>
@@ -9054,7 +9774,7 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="54"/>
+      <c r="A63" s="55"/>
       <c r="B63" s="21" t="s">
         <v>144</v>
       </c>
@@ -9074,7 +9794,7 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="54"/>
+      <c r="A64" s="55"/>
       <c r="B64" s="21" t="s">
         <v>145</v>
       </c>
@@ -9094,7 +9814,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="54"/>
+      <c r="A65" s="55"/>
       <c r="B65" s="21" t="s">
         <v>146</v>
       </c>
@@ -9114,7 +9834,7 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="54"/>
+      <c r="A66" s="55"/>
       <c r="B66" s="21" t="s">
         <v>734</v>
       </c>
@@ -9134,7 +9854,7 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="54"/>
+      <c r="A67" s="55"/>
       <c r="B67" s="21" t="s">
         <v>147</v>
       </c>
@@ -9154,7 +9874,7 @@
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="54"/>
+      <c r="A68" s="55"/>
       <c r="B68" s="21" t="s">
         <v>148</v>
       </c>
@@ -9174,7 +9894,7 @@
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="53" t="s">
+      <c r="A69" s="54" t="s">
         <v>844</v>
       </c>
       <c r="B69" s="21" t="s">
@@ -9196,7 +9916,7 @@
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="54"/>
+      <c r="A70" s="55"/>
       <c r="B70" s="47" t="s">
         <v>837</v>
       </c>
@@ -9216,7 +9936,7 @@
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="54"/>
+      <c r="A71" s="55"/>
       <c r="B71" s="21" t="s">
         <v>149</v>
       </c>
@@ -9236,7 +9956,7 @@
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="54"/>
+      <c r="A72" s="55"/>
       <c r="B72" s="21" t="s">
         <v>150</v>
       </c>
@@ -9256,7 +9976,7 @@
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="54"/>
+      <c r="A73" s="55"/>
       <c r="B73" s="21" t="s">
         <v>152</v>
       </c>
@@ -9276,7 +9996,7 @@
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="54"/>
+      <c r="A74" s="55"/>
       <c r="B74" s="21" t="s">
         <v>148</v>
       </c>
@@ -9296,7 +10016,7 @@
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="54"/>
+      <c r="A75" s="55"/>
       <c r="B75" s="21" t="s">
         <v>52</v>
       </c>
@@ -9316,7 +10036,7 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="54"/>
+      <c r="A76" s="55"/>
       <c r="B76" s="21" t="s">
         <v>743</v>
       </c>
@@ -9336,7 +10056,7 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="54"/>
+      <c r="A77" s="55"/>
       <c r="B77" s="21" t="s">
         <v>136</v>
       </c>
@@ -9356,7 +10076,7 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="53" t="s">
+      <c r="A78" s="54" t="s">
         <v>845</v>
       </c>
       <c r="B78" s="47" t="s">
@@ -9378,7 +10098,7 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="54"/>
+      <c r="A79" s="55"/>
       <c r="B79" s="21" t="s">
         <v>154</v>
       </c>
@@ -9398,7 +10118,7 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="54"/>
+      <c r="A80" s="55"/>
       <c r="B80" s="21" t="s">
         <v>155</v>
       </c>
@@ -9418,7 +10138,7 @@
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="54"/>
+      <c r="A81" s="55"/>
       <c r="B81" s="21" t="s">
         <v>156</v>
       </c>
@@ -9438,7 +10158,7 @@
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="54"/>
+      <c r="A82" s="55"/>
       <c r="B82" s="21" t="s">
         <v>157</v>
       </c>
@@ -9458,7 +10178,7 @@
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="54"/>
+      <c r="A83" s="55"/>
       <c r="B83" s="29" t="s">
         <v>857</v>
       </c>
@@ -9478,7 +10198,7 @@
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="54"/>
+      <c r="A84" s="55"/>
       <c r="B84" s="21" t="s">
         <v>52</v>
       </c>
@@ -9498,7 +10218,7 @@
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="53" t="s">
+      <c r="A85" s="54" t="s">
         <v>846</v>
       </c>
       <c r="B85" s="21" t="s">
@@ -9520,7 +10240,7 @@
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="54"/>
+      <c r="A86" s="55"/>
       <c r="B86" s="47" t="s">
         <v>837</v>
       </c>
@@ -9540,7 +10260,7 @@
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="54"/>
+      <c r="A87" s="55"/>
       <c r="B87" s="21" t="s">
         <v>160</v>
       </c>
@@ -9560,7 +10280,7 @@
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="54"/>
+      <c r="A88" s="55"/>
       <c r="B88" s="21" t="s">
         <v>735</v>
       </c>
@@ -9580,7 +10300,7 @@
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="54"/>
+      <c r="A89" s="55"/>
       <c r="B89" s="21" t="s">
         <v>161</v>
       </c>
@@ -9600,7 +10320,7 @@
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="54"/>
+      <c r="A90" s="55"/>
       <c r="B90" s="21" t="s">
         <v>52</v>
       </c>
@@ -9620,7 +10340,7 @@
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="53" t="s">
+      <c r="A91" s="54" t="s">
         <v>847</v>
       </c>
       <c r="B91" s="21" t="s">
@@ -9642,7 +10362,7 @@
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="54"/>
+      <c r="A92" s="55"/>
       <c r="B92" s="47" t="s">
         <v>837</v>
       </c>
@@ -9662,7 +10382,7 @@
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="54"/>
+      <c r="A93" s="55"/>
       <c r="B93" s="21" t="s">
         <v>88</v>
       </c>
@@ -9682,7 +10402,7 @@
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="54"/>
+      <c r="A94" s="55"/>
       <c r="B94" s="21" t="s">
         <v>163</v>
       </c>
@@ -9702,7 +10422,7 @@
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="54"/>
+      <c r="A95" s="55"/>
       <c r="B95" s="21" t="s">
         <v>164</v>
       </c>
@@ -9722,7 +10442,7 @@
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="54"/>
+      <c r="A96" s="55"/>
       <c r="B96" s="21" t="s">
         <v>165</v>
       </c>
@@ -9742,7 +10462,7 @@
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="53" t="s">
+      <c r="A97" s="54" t="s">
         <v>848</v>
       </c>
       <c r="B97" s="47" t="s">
@@ -9764,7 +10484,7 @@
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="54"/>
+      <c r="A98" s="55"/>
       <c r="B98" s="21" t="s">
         <v>166</v>
       </c>
@@ -9784,7 +10504,7 @@
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="54"/>
+      <c r="A99" s="55"/>
       <c r="B99" s="21" t="s">
         <v>167</v>
       </c>
@@ -9804,7 +10524,7 @@
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="53" t="s">
+      <c r="A100" s="54" t="s">
         <v>849</v>
       </c>
       <c r="B100" s="47" t="s">
@@ -9826,7 +10546,7 @@
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="54"/>
+      <c r="A101" s="55"/>
       <c r="B101" s="21" t="s">
         <v>166</v>
       </c>
@@ -9846,7 +10566,7 @@
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="54"/>
+      <c r="A102" s="55"/>
       <c r="B102" s="21" t="s">
         <v>168</v>
       </c>
@@ -9866,7 +10586,7 @@
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="53" t="s">
+      <c r="A103" s="54" t="s">
         <v>850</v>
       </c>
       <c r="B103" s="47" t="s">
@@ -9888,7 +10608,7 @@
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="54"/>
+      <c r="A104" s="55"/>
       <c r="B104" s="21" t="s">
         <v>166</v>
       </c>
@@ -9908,7 +10628,7 @@
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="54"/>
+      <c r="A105" s="55"/>
       <c r="B105" s="21" t="s">
         <v>170</v>
       </c>
@@ -9928,7 +10648,7 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="53" t="s">
+      <c r="A106" s="54" t="s">
         <v>851</v>
       </c>
       <c r="B106" s="47" t="s">
@@ -9950,7 +10670,7 @@
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="54"/>
+      <c r="A107" s="55"/>
       <c r="B107" s="21" t="s">
         <v>166</v>
       </c>
@@ -9970,7 +10690,7 @@
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="54"/>
+      <c r="A108" s="55"/>
       <c r="B108" s="21" t="s">
         <v>171</v>
       </c>
@@ -9990,7 +10710,7 @@
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="57" t="s">
+      <c r="A109" s="53" t="s">
         <v>172</v>
       </c>
       <c r="B109" s="21" t="s">
@@ -10012,7 +10732,7 @@
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="57"/>
+      <c r="A110" s="53"/>
       <c r="B110" s="29" t="s">
         <v>858</v>
       </c>
@@ -10032,7 +10752,7 @@
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="57"/>
+      <c r="A111" s="53"/>
       <c r="B111" s="21" t="s">
         <v>174</v>
       </c>
@@ -10052,7 +10772,7 @@
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="57"/>
+      <c r="A112" s="53"/>
       <c r="B112" s="21" t="s">
         <v>175</v>
       </c>
@@ -10072,7 +10792,7 @@
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="57" t="s">
+      <c r="A113" s="53" t="s">
         <v>176</v>
       </c>
       <c r="B113" s="21" t="s">
@@ -10094,7 +10814,7 @@
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="57"/>
+      <c r="A114" s="53"/>
       <c r="B114" s="21" t="s">
         <v>177</v>
       </c>
@@ -10114,7 +10834,7 @@
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="57"/>
+      <c r="A115" s="53"/>
       <c r="B115" s="21" t="s">
         <v>178</v>
       </c>
@@ -10134,7 +10854,7 @@
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="57"/>
+      <c r="A116" s="53"/>
       <c r="B116" s="21" t="s">
         <v>179</v>
       </c>
@@ -10154,7 +10874,7 @@
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="57" t="s">
+      <c r="A117" s="53" t="s">
         <v>180</v>
       </c>
       <c r="B117" s="21" t="s">
@@ -10176,7 +10896,7 @@
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="57"/>
+      <c r="A118" s="53"/>
       <c r="B118" s="21" t="s">
         <v>181</v>
       </c>
@@ -10196,7 +10916,7 @@
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="57"/>
+      <c r="A119" s="53"/>
       <c r="B119" s="21" t="s">
         <v>182</v>
       </c>
@@ -10214,7 +10934,7 @@
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="57"/>
+      <c r="A120" s="53"/>
       <c r="B120" s="21" t="s">
         <v>183</v>
       </c>
@@ -10232,7 +10952,7 @@
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="57" t="s">
+      <c r="A121" s="53" t="s">
         <v>836</v>
       </c>
       <c r="B121" s="21" t="s">
@@ -10254,7 +10974,7 @@
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="57"/>
+      <c r="A122" s="53"/>
       <c r="B122" s="29" t="s">
         <v>859</v>
       </c>
@@ -10274,7 +10994,7 @@
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="57"/>
+      <c r="A123" s="53"/>
       <c r="B123" s="21" t="s">
         <v>184</v>
       </c>
@@ -10292,7 +11012,7 @@
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="57"/>
+      <c r="A124" s="53"/>
       <c r="B124" s="21" t="s">
         <v>185</v>
       </c>
@@ -10335,17 +11055,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A117:A120"/>
-    <mergeCell ref="A121:A124"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="A106:A108"/>
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="A100:A102"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="A58:A68"/>
-    <mergeCell ref="A78:A84"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A29"/>
     <mergeCell ref="A69:A77"/>
@@ -10355,30 +11064,41 @@
     <mergeCell ref="A40:A49"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="A100:A102"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="A58:A68"/>
+    <mergeCell ref="A78:A84"/>
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="A121:A124"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="A106:A108"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="cellIs" dxfId="55" priority="2" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="49" priority="2" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:E1">
-    <cfRule type="cellIs" dxfId="54" priority="5" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="48" priority="5" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:H1">
-    <cfRule type="cellIs" dxfId="53" priority="3" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="47" priority="3" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="52" priority="4" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="46" priority="4" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="51" priority="1" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="45" priority="1" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10445,7 +11165,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="59" t="s">
         <v>186</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -10473,7 +11193,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A3" s="58"/>
+      <c r="A3" s="59"/>
       <c r="B3" s="15" t="s">
         <v>136</v>
       </c>
@@ -10499,7 +11219,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A4" s="58"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="15" t="s">
         <v>137</v>
       </c>
@@ -10525,7 +11245,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A5" s="58"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="15" t="s">
         <v>190</v>
       </c>
@@ -10551,7 +11271,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A6" s="58"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="15" t="s">
         <v>192</v>
       </c>
@@ -10577,7 +11297,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="58"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="15" t="s">
         <v>194</v>
       </c>
@@ -10603,7 +11323,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="58"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="15" t="s">
         <v>196</v>
       </c>
@@ -10629,7 +11349,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A9" s="58"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="15" t="s">
         <v>198</v>
       </c>
@@ -10655,7 +11375,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A10" s="58"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="15" t="s">
         <v>148</v>
       </c>
@@ -10681,7 +11401,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A11" s="58"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="15" t="s">
         <v>201</v>
       </c>
@@ -10707,7 +11427,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A12" s="58"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="12" t="s">
         <v>203</v>
       </c>
@@ -10733,7 +11453,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A13" s="58"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="12" t="s">
         <v>205</v>
       </c>
@@ -10759,7 +11479,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A14" s="58"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="15" t="s">
         <v>207</v>
       </c>
@@ -10785,7 +11505,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="59" t="s">
         <v>209</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -10813,7 +11533,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A16" s="58"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="12" t="s">
         <v>212</v>
       </c>
@@ -10839,7 +11559,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A17" s="58"/>
+      <c r="A17" s="59"/>
       <c r="B17" s="12" t="s">
         <v>214</v>
       </c>
@@ -10865,7 +11585,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A18" s="58"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="12" t="s">
         <v>216</v>
       </c>
@@ -10891,7 +11611,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A19" s="58"/>
+      <c r="A19" s="59"/>
       <c r="B19" s="12" t="s">
         <v>218</v>
       </c>
@@ -10917,7 +11637,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A20" s="58"/>
+      <c r="A20" s="59"/>
       <c r="B20" s="12" t="s">
         <v>220</v>
       </c>
@@ -10943,7 +11663,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A21" s="58"/>
+      <c r="A21" s="59"/>
       <c r="B21" s="12" t="s">
         <v>222</v>
       </c>
@@ -10969,7 +11689,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A22" s="58"/>
+      <c r="A22" s="59"/>
       <c r="B22" s="12" t="s">
         <v>224</v>
       </c>
@@ -10995,7 +11715,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A23" s="58"/>
+      <c r="A23" s="59"/>
       <c r="B23" s="12" t="s">
         <v>226</v>
       </c>
@@ -11021,7 +11741,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A24" s="58"/>
+      <c r="A24" s="59"/>
       <c r="B24" s="12" t="s">
         <v>228</v>
       </c>
@@ -11047,7 +11767,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A25" s="58"/>
+      <c r="A25" s="59"/>
       <c r="B25" s="12" t="s">
         <v>52</v>
       </c>
@@ -11073,7 +11793,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A26" s="58" t="s">
+      <c r="A26" s="59" t="s">
         <v>230</v>
       </c>
       <c r="B26" s="15" t="s">
@@ -11101,7 +11821,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A27" s="58"/>
+      <c r="A27" s="59"/>
       <c r="B27" s="15" t="s">
         <v>233</v>
       </c>
@@ -11127,7 +11847,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A28" s="58"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="15" t="s">
         <v>234</v>
       </c>
@@ -11153,7 +11873,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A29" s="58"/>
+      <c r="A29" s="59"/>
       <c r="B29" s="15" t="s">
         <v>52</v>
       </c>
@@ -11179,7 +11899,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A30" s="58" t="s">
+      <c r="A30" s="59" t="s">
         <v>236</v>
       </c>
       <c r="B30" s="15" t="s">
@@ -11207,7 +11927,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A31" s="58"/>
+      <c r="A31" s="59"/>
       <c r="B31" s="15" t="s">
         <v>201</v>
       </c>
@@ -11233,7 +11953,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A32" s="58"/>
+      <c r="A32" s="59"/>
       <c r="B32" s="15" t="s">
         <v>240</v>
       </c>
@@ -11259,7 +11979,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A33" s="58"/>
+      <c r="A33" s="59"/>
       <c r="B33" s="15" t="s">
         <v>52</v>
       </c>
@@ -11285,7 +12005,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A34" s="58" t="s">
+      <c r="A34" s="59" t="s">
         <v>242</v>
       </c>
       <c r="B34" s="15" t="s">
@@ -11313,7 +12033,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A35" s="58"/>
+      <c r="A35" s="59"/>
       <c r="B35" s="15" t="s">
         <v>245</v>
       </c>
@@ -11339,7 +12059,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A36" s="58"/>
+      <c r="A36" s="59"/>
       <c r="B36" s="15" t="s">
         <v>247</v>
       </c>
@@ -11365,7 +12085,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A37" s="58"/>
+      <c r="A37" s="59"/>
       <c r="B37" s="15" t="s">
         <v>52</v>
       </c>
@@ -11391,7 +12111,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A38" s="58" t="s">
+      <c r="A38" s="59" t="s">
         <v>249</v>
       </c>
       <c r="B38" s="15" t="s">
@@ -11419,7 +12139,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A39" s="58"/>
+      <c r="A39" s="59"/>
       <c r="B39" s="15" t="s">
         <v>250</v>
       </c>
@@ -11445,7 +12165,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A40" s="58"/>
+      <c r="A40" s="59"/>
       <c r="B40" s="15" t="s">
         <v>252</v>
       </c>
@@ -11471,7 +12191,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A41" s="58"/>
+      <c r="A41" s="59"/>
       <c r="B41" s="15" t="s">
         <v>201</v>
       </c>
@@ -11497,7 +12217,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A42" s="58" t="s">
+      <c r="A42" s="59" t="s">
         <v>254</v>
       </c>
       <c r="B42" s="12" t="s">
@@ -11525,7 +12245,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A43" s="58"/>
+      <c r="A43" s="59"/>
       <c r="B43" s="12" t="s">
         <v>255</v>
       </c>
@@ -11551,7 +12271,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A44" s="58"/>
+      <c r="A44" s="59"/>
       <c r="B44" s="12" t="s">
         <v>257</v>
       </c>
@@ -11577,7 +12297,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A45" s="58"/>
+      <c r="A45" s="59"/>
       <c r="B45" s="12" t="s">
         <v>259</v>
       </c>
@@ -11603,7 +12323,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A46" s="58"/>
+      <c r="A46" s="59"/>
       <c r="B46" s="12" t="s">
         <v>261</v>
       </c>
@@ -11629,7 +12349,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A47" s="58"/>
+      <c r="A47" s="59"/>
       <c r="B47" s="12" t="s">
         <v>263</v>
       </c>
@@ -11655,7 +12375,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A48" s="58"/>
+      <c r="A48" s="59"/>
       <c r="B48" s="12" t="s">
         <v>265</v>
       </c>
@@ -11681,7 +12401,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A49" s="58"/>
+      <c r="A49" s="59"/>
       <c r="B49" s="12" t="s">
         <v>267</v>
       </c>
@@ -11707,7 +12427,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A50" s="58"/>
+      <c r="A50" s="59"/>
       <c r="B50" s="12" t="s">
         <v>269</v>
       </c>
@@ -11733,7 +12453,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A51" s="58"/>
+      <c r="A51" s="59"/>
       <c r="B51" s="12" t="s">
         <v>271</v>
       </c>
@@ -11759,7 +12479,7 @@
       </c>
     </row>
     <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A52" s="58" t="s">
+      <c r="A52" s="59" t="s">
         <v>273</v>
       </c>
       <c r="B52" s="12" t="s">
@@ -11787,7 +12507,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A53" s="58"/>
+      <c r="A53" s="59"/>
       <c r="B53" s="12" t="s">
         <v>275</v>
       </c>
@@ -11813,7 +12533,7 @@
       </c>
     </row>
     <row r="54" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A54" s="58"/>
+      <c r="A54" s="59"/>
       <c r="B54" s="12" t="s">
         <v>277</v>
       </c>
@@ -11839,7 +12559,7 @@
       </c>
     </row>
     <row r="55" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A55" s="58"/>
+      <c r="A55" s="59"/>
       <c r="B55" s="12" t="s">
         <v>279</v>
       </c>
@@ -11865,7 +12585,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A56" s="58"/>
+      <c r="A56" s="59"/>
       <c r="B56" s="12" t="s">
         <v>281</v>
       </c>
@@ -11891,7 +12611,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A57" s="58"/>
+      <c r="A57" s="59"/>
       <c r="B57" s="12" t="s">
         <v>282</v>
       </c>
@@ -11917,7 +12637,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A58" s="58"/>
+      <c r="A58" s="59"/>
       <c r="B58" s="12" t="s">
         <v>19</v>
       </c>
@@ -11943,7 +12663,7 @@
       </c>
     </row>
     <row r="59" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A59" s="58"/>
+      <c r="A59" s="59"/>
       <c r="B59" s="12" t="s">
         <v>261</v>
       </c>
@@ -11969,7 +12689,7 @@
       </c>
     </row>
     <row r="60" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A60" s="58"/>
+      <c r="A60" s="59"/>
       <c r="B60" s="12" t="s">
         <v>284</v>
       </c>
@@ -11995,7 +12715,7 @@
       </c>
     </row>
     <row r="61" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A61" s="58"/>
+      <c r="A61" s="59"/>
       <c r="B61" s="12" t="s">
         <v>263</v>
       </c>
@@ -12021,7 +12741,7 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A62" s="58"/>
+      <c r="A62" s="59"/>
       <c r="B62" s="12" t="s">
         <v>257</v>
       </c>
@@ -12047,7 +12767,7 @@
       </c>
     </row>
     <row r="63" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A63" s="58"/>
+      <c r="A63" s="59"/>
       <c r="B63" s="12" t="s">
         <v>286</v>
       </c>
@@ -12073,7 +12793,7 @@
       </c>
     </row>
     <row r="64" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A64" s="58"/>
+      <c r="A64" s="59"/>
       <c r="B64" s="12" t="s">
         <v>265</v>
       </c>
@@ -12099,7 +12819,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A65" s="58"/>
+      <c r="A65" s="59"/>
       <c r="B65" s="12" t="s">
         <v>288</v>
       </c>
@@ -12125,7 +12845,7 @@
       </c>
     </row>
     <row r="66" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A66" s="58"/>
+      <c r="A66" s="59"/>
       <c r="B66" s="12" t="s">
         <v>289</v>
       </c>
@@ -12151,7 +12871,7 @@
       </c>
     </row>
     <row r="67" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A67" s="58"/>
+      <c r="A67" s="59"/>
       <c r="B67" s="12" t="s">
         <v>267</v>
       </c>
@@ -12177,7 +12897,7 @@
       </c>
     </row>
     <row r="68" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A68" s="58"/>
+      <c r="A68" s="59"/>
       <c r="B68" s="12" t="s">
         <v>290</v>
       </c>
@@ -12203,7 +12923,7 @@
       </c>
     </row>
     <row r="69" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A69" s="58"/>
+      <c r="A69" s="59"/>
       <c r="B69" s="12" t="s">
         <v>201</v>
       </c>
@@ -12229,7 +12949,7 @@
       </c>
     </row>
     <row r="70" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A70" s="58"/>
+      <c r="A70" s="59"/>
       <c r="B70" s="12" t="s">
         <v>293</v>
       </c>
@@ -12255,7 +12975,7 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A71" s="58"/>
+      <c r="A71" s="59"/>
       <c r="B71" s="12" t="s">
         <v>294</v>
       </c>
@@ -12281,7 +13001,7 @@
       </c>
     </row>
     <row r="72" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A72" s="58"/>
+      <c r="A72" s="59"/>
       <c r="B72" s="12" t="s">
         <v>295</v>
       </c>
@@ -12307,7 +13027,7 @@
       </c>
     </row>
     <row r="73" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A73" s="58"/>
+      <c r="A73" s="59"/>
       <c r="B73" s="12" t="s">
         <v>296</v>
       </c>
@@ -12333,7 +13053,7 @@
       </c>
     </row>
     <row r="74" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A74" s="58"/>
+      <c r="A74" s="59"/>
       <c r="B74" s="12" t="s">
         <v>198</v>
       </c>
@@ -12359,7 +13079,7 @@
       </c>
     </row>
     <row r="75" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A75" s="58"/>
+      <c r="A75" s="59"/>
       <c r="B75" s="12" t="s">
         <v>297</v>
       </c>
@@ -12385,7 +13105,7 @@
       </c>
     </row>
     <row r="76" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A76" s="58"/>
+      <c r="A76" s="59"/>
       <c r="B76" s="12" t="s">
         <v>299</v>
       </c>
@@ -12411,7 +13131,7 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A77" s="58"/>
+      <c r="A77" s="59"/>
       <c r="B77" s="12" t="s">
         <v>300</v>
       </c>
@@ -12437,7 +13157,7 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A78" s="58"/>
+      <c r="A78" s="59"/>
       <c r="B78" s="12" t="s">
         <v>301</v>
       </c>
@@ -12463,7 +13183,7 @@
       </c>
     </row>
     <row r="79" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A79" s="58"/>
+      <c r="A79" s="59"/>
       <c r="B79" s="12" t="s">
         <v>302</v>
       </c>
@@ -12489,7 +13209,7 @@
       </c>
     </row>
     <row r="80" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A80" s="58"/>
+      <c r="A80" s="59"/>
       <c r="B80" s="12" t="s">
         <v>303</v>
       </c>
@@ -12515,7 +13235,7 @@
       </c>
     </row>
     <row r="81" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A81" s="58"/>
+      <c r="A81" s="59"/>
       <c r="B81" s="12" t="s">
         <v>304</v>
       </c>
@@ -12541,7 +13261,7 @@
       </c>
     </row>
     <row r="82" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A82" s="58"/>
+      <c r="A82" s="59"/>
       <c r="B82" s="12" t="s">
         <v>305</v>
       </c>
@@ -12567,7 +13287,7 @@
       </c>
     </row>
     <row r="83" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A83" s="58"/>
+      <c r="A83" s="59"/>
       <c r="B83" s="12" t="s">
         <v>306</v>
       </c>
@@ -12593,7 +13313,7 @@
       </c>
     </row>
     <row r="84" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A84" s="58"/>
+      <c r="A84" s="59"/>
       <c r="B84" s="12" t="s">
         <v>307</v>
       </c>
@@ -12619,7 +13339,7 @@
       </c>
     </row>
     <row r="85" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A85" s="58"/>
+      <c r="A85" s="59"/>
       <c r="B85" s="12" t="s">
         <v>259</v>
       </c>
@@ -12645,7 +13365,7 @@
       </c>
     </row>
     <row r="86" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A86" s="58"/>
+      <c r="A86" s="59"/>
       <c r="B86" s="12" t="s">
         <v>308</v>
       </c>
@@ -12671,7 +13391,7 @@
       </c>
     </row>
     <row r="87" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A87" s="58"/>
+      <c r="A87" s="59"/>
       <c r="B87" s="12" t="s">
         <v>309</v>
       </c>
@@ -12697,7 +13417,7 @@
       </c>
     </row>
     <row r="88" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A88" s="58"/>
+      <c r="A88" s="59"/>
       <c r="B88" s="12" t="s">
         <v>311</v>
       </c>
@@ -12723,7 +13443,7 @@
       </c>
     </row>
     <row r="89" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A89" s="58"/>
+      <c r="A89" s="59"/>
       <c r="B89" s="12" t="s">
         <v>313</v>
       </c>
@@ -12749,7 +13469,7 @@
       </c>
     </row>
     <row r="90" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A90" s="58"/>
+      <c r="A90" s="59"/>
       <c r="B90" s="12" t="s">
         <v>315</v>
       </c>
@@ -12775,7 +13495,7 @@
       </c>
     </row>
     <row r="91" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A91" s="58"/>
+      <c r="A91" s="59"/>
       <c r="B91" s="12" t="s">
         <v>317</v>
       </c>
@@ -12801,7 +13521,7 @@
       </c>
     </row>
     <row r="92" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A92" s="58"/>
+      <c r="A92" s="59"/>
       <c r="B92" s="12" t="s">
         <v>318</v>
       </c>
@@ -12827,7 +13547,7 @@
       </c>
     </row>
     <row r="93" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A93" s="58" t="s">
+      <c r="A93" s="59" t="s">
         <v>320</v>
       </c>
       <c r="B93" s="12" t="s">
@@ -12855,7 +13575,7 @@
       </c>
     </row>
     <row r="94" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A94" s="58"/>
+      <c r="A94" s="59"/>
       <c r="B94" s="12" t="s">
         <v>322</v>
       </c>
@@ -12893,27 +13613,27 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="cellIs" dxfId="39" priority="2" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="44" priority="2" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:E1">
-    <cfRule type="cellIs" dxfId="38" priority="5" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="43" priority="5" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:H1">
-    <cfRule type="cellIs" dxfId="37" priority="3" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="42" priority="3" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="36" priority="4" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="41" priority="4" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="35" priority="1" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="40" priority="1" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12976,7 +13696,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>324</v>
       </c>
       <c r="B2" t="s">
@@ -12994,7 +13714,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
+      <c r="A3" s="55"/>
       <c r="B3" t="s">
         <v>327</v>
       </c>
@@ -13010,7 +13730,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
+      <c r="A4" s="55"/>
       <c r="B4" t="s">
         <v>329</v>
       </c>
@@ -13021,7 +13741,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="55" t="s">
         <v>331</v>
       </c>
       <c r="B5" t="s">
@@ -13039,7 +13759,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="54"/>
+      <c r="A6" s="55"/>
       <c r="B6" t="s">
         <v>333</v>
       </c>
@@ -13055,7 +13775,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
+      <c r="A7" s="55"/>
       <c r="B7" t="s">
         <v>335</v>
       </c>
@@ -13071,7 +13791,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
+      <c r="A8" s="55"/>
       <c r="B8" t="s">
         <v>337</v>
       </c>
@@ -13087,7 +13807,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
+      <c r="A9" s="55"/>
       <c r="B9" t="s">
         <v>339</v>
       </c>
@@ -13103,7 +13823,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="55" t="s">
         <v>341</v>
       </c>
       <c r="B10" t="s">
@@ -13121,7 +13841,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="54"/>
+      <c r="A11" s="55"/>
       <c r="B11" t="s">
         <v>342</v>
       </c>
@@ -13137,7 +13857,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
+      <c r="A12" s="55"/>
       <c r="B12" t="s">
         <v>344</v>
       </c>
@@ -13160,27 +13880,27 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="cellIs" dxfId="34" priority="2" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="39" priority="2" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:E1">
-    <cfRule type="cellIs" dxfId="33" priority="5" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="38" priority="5" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:H1">
-    <cfRule type="cellIs" dxfId="32" priority="3" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="37" priority="3" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="31" priority="4" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="36" priority="4" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="30" priority="1" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="35" priority="1" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13244,7 +13964,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
+      <c r="A2" s="55"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="10"/>
@@ -13255,7 +13975,7 @@
       <c r="K2" s="11"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
+      <c r="A3" s="55"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="10"/>
@@ -13266,7 +13986,7 @@
       <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
+      <c r="A4" s="55"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="10"/>
@@ -13277,7 +13997,7 @@
       <c r="K4" s="11"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
+      <c r="A5" s="55"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="10"/>
@@ -13288,7 +14008,7 @@
       <c r="K5" s="11"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="54"/>
+      <c r="A6" s="55"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="10"/>
@@ -13299,7 +14019,7 @@
       <c r="K6" s="11"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
+      <c r="A7" s="55"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="10"/>
@@ -13310,7 +14030,7 @@
       <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
+      <c r="A8" s="55"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="10"/>
@@ -13321,7 +14041,7 @@
       <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
+      <c r="A9" s="55"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="10"/>
@@ -13332,7 +14052,7 @@
       <c r="K9" s="11"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
+      <c r="A10" s="55"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="10"/>
@@ -13343,13 +14063,13 @@
       <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="54"/>
+      <c r="A11" s="55"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="K11" s="11"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
+      <c r="A12" s="55"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="10"/>
@@ -13360,7 +14080,7 @@
       <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
+      <c r="A13" s="55"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="10"/>
@@ -13371,7 +14091,7 @@
       <c r="K13" s="11"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
+      <c r="A14" s="55"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="10"/>
@@ -13382,7 +14102,7 @@
       <c r="K14" s="11"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
+      <c r="A15" s="55"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="10"/>
@@ -13393,7 +14113,7 @@
       <c r="K15" s="11"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
+      <c r="A16" s="55"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="10"/>
@@ -13404,7 +14124,7 @@
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
+      <c r="A17" s="55"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="10"/>
@@ -13415,7 +14135,7 @@
       <c r="K17" s="11"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
+      <c r="A18" s="55"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="10"/>
@@ -13426,7 +14146,7 @@
       <c r="K18" s="11"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="54"/>
+      <c r="A19" s="55"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="10"/>
@@ -13437,7 +14157,7 @@
       <c r="K19" s="11"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
+      <c r="A20" s="55"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="10"/>
@@ -13448,7 +14168,7 @@
       <c r="K20" s="11"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="54"/>
+      <c r="A21" s="55"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="10"/>
@@ -13459,7 +14179,7 @@
       <c r="K21" s="11"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
+      <c r="A22" s="55"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="10"/>
@@ -13470,7 +14190,7 @@
       <c r="K22" s="11"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="54"/>
+      <c r="A23" s="55"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="10"/>
@@ -13481,7 +14201,7 @@
       <c r="K23" s="11"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="54"/>
+      <c r="A24" s="55"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="10"/>
@@ -13492,7 +14212,7 @@
       <c r="K24" s="11"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="54"/>
+      <c r="A25" s="55"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="10"/>
@@ -13503,151 +14223,151 @@
       <c r="K25" s="11"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="54"/>
+      <c r="A26" s="55"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="K26" s="11"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="54"/>
+      <c r="A27" s="55"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="K27" s="11"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="54"/>
+      <c r="A28" s="55"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="K28" s="11"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="54"/>
+      <c r="A29" s="55"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="K29" s="11"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="54"/>
+      <c r="A30" s="55"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="K30" s="11"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="54"/>
+      <c r="A31" s="55"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="K31" s="11"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="54"/>
+      <c r="A32" s="55"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="K32" s="11"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="54"/>
+      <c r="A33" s="55"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="K33" s="11"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="54"/>
+      <c r="A34" s="55"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="K34" s="11"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="54"/>
+      <c r="A35" s="55"/>
       <c r="K35" s="11"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="54"/>
+      <c r="A36" s="55"/>
       <c r="K36" s="11"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="54"/>
+      <c r="A37" s="55"/>
       <c r="K37" s="11"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="54"/>
+      <c r="A38" s="55"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="K38" s="11"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="54"/>
+      <c r="A39" s="55"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="K39" s="11"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="54"/>
+      <c r="A40" s="55"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="K40" s="11"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="54"/>
+      <c r="A41" s="55"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="K41" s="11"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="54"/>
+      <c r="A42" s="55"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="K42" s="11"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="54"/>
+      <c r="A43" s="55"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="K43" s="11"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="54"/>
+      <c r="A44" s="55"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="K44" s="11"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="54"/>
+      <c r="A45" s="55"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="K45" s="11"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="54"/>
+      <c r="A46" s="55"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="K46" s="11"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="54"/>
+      <c r="A47" s="55"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="K47" s="11"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="54"/>
+      <c r="A48" s="55"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="K48" s="11"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="54"/>
+      <c r="A49" s="55"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="K49" s="11"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="54"/>
+      <c r="A50" s="55"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="K50" s="11"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="54"/>
+      <c r="A51" s="55"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="K51" s="11"/>
@@ -13665,27 +14385,27 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="cellIs" dxfId="29" priority="2" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="34" priority="2" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:E1">
-    <cfRule type="cellIs" dxfId="28" priority="5" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="33" priority="5" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:H1">
-    <cfRule type="cellIs" dxfId="27" priority="3" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="32" priority="3" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="26" priority="4" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="31" priority="4" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="25" priority="1" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="30" priority="1" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13748,7 +14468,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>346</v>
       </c>
       <c r="B2" t="s">
@@ -13770,7 +14490,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
+      <c r="A3" s="55"/>
       <c r="B3" t="s">
         <v>123</v>
       </c>
@@ -13790,7 +14510,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
+      <c r="A4" s="55"/>
       <c r="B4" t="s">
         <v>97</v>
       </c>
@@ -13810,7 +14530,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
+      <c r="A5" s="55"/>
       <c r="B5" t="s">
         <v>168</v>
       </c>
@@ -13830,7 +14550,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="54"/>
+      <c r="A6" s="55"/>
       <c r="B6" t="s">
         <v>143</v>
       </c>
@@ -13850,7 +14570,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
+      <c r="A7" s="55"/>
       <c r="B7" t="s">
         <v>352</v>
       </c>
@@ -13870,7 +14590,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
+      <c r="A8" s="55"/>
       <c r="B8" t="s">
         <v>354</v>
       </c>
@@ -13890,7 +14610,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
+      <c r="A9" s="55"/>
       <c r="B9" t="s">
         <v>356</v>
       </c>
@@ -13910,7 +14630,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
+      <c r="A10" s="55"/>
       <c r="B10" t="s">
         <v>358</v>
       </c>
@@ -13930,7 +14650,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="54"/>
+      <c r="A11" s="55"/>
       <c r="B11" t="s">
         <v>360</v>
       </c>
@@ -13950,7 +14670,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
+      <c r="A12" s="55"/>
       <c r="B12" t="s">
         <v>362</v>
       </c>
@@ -13970,7 +14690,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
+      <c r="A13" s="55"/>
       <c r="B13" t="s">
         <v>364</v>
       </c>
@@ -13990,7 +14710,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
+      <c r="A14" s="55"/>
       <c r="B14" t="s">
         <v>366</v>
       </c>
@@ -14010,7 +14730,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
+      <c r="A15" s="55"/>
       <c r="B15" t="s">
         <v>367</v>
       </c>
@@ -14030,7 +14750,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
+      <c r="A16" s="55"/>
       <c r="B16" t="s">
         <v>38</v>
       </c>
@@ -14046,7 +14766,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="55" t="s">
         <v>371</v>
       </c>
       <c r="B17" t="s">
@@ -14068,7 +14788,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
+      <c r="A18" s="55"/>
       <c r="B18" t="s">
         <v>168</v>
       </c>
@@ -14088,7 +14808,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="54"/>
+      <c r="A19" s="55"/>
       <c r="B19" t="s">
         <v>141</v>
       </c>
@@ -14108,7 +14828,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
+      <c r="A20" s="55"/>
       <c r="B20" t="s">
         <v>259</v>
       </c>
@@ -14128,7 +14848,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="54"/>
+      <c r="A21" s="55"/>
       <c r="B21" t="s">
         <v>374</v>
       </c>
@@ -14148,7 +14868,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
+      <c r="A22" s="55"/>
       <c r="B22" t="s">
         <v>376</v>
       </c>
@@ -14168,7 +14888,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="54"/>
+      <c r="A23" s="55"/>
       <c r="B23" t="s">
         <v>378</v>
       </c>
@@ -14188,7 +14908,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="54"/>
+      <c r="A24" s="55"/>
       <c r="B24" t="s">
         <v>380</v>
       </c>
@@ -14208,7 +14928,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="54"/>
+      <c r="A25" s="55"/>
       <c r="B25" t="s">
         <v>382</v>
       </c>
@@ -14228,7 +14948,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="54"/>
+      <c r="A26" s="55"/>
       <c r="B26" t="s">
         <v>384</v>
       </c>
@@ -14248,7 +14968,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="54"/>
+      <c r="A27" s="55"/>
       <c r="B27" t="s">
         <v>386</v>
       </c>
@@ -14268,7 +14988,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="54"/>
+      <c r="A28" s="55"/>
       <c r="B28" t="s">
         <v>38</v>
       </c>
@@ -14284,7 +15004,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="54" t="s">
+      <c r="A29" s="55" t="s">
         <v>388</v>
       </c>
       <c r="B29" t="s">
@@ -14305,7 +15025,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="54"/>
+      <c r="A30" s="55"/>
       <c r="B30" t="s">
         <v>168</v>
       </c>
@@ -14324,7 +15044,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="54"/>
+      <c r="A31" s="55"/>
       <c r="B31" t="s">
         <v>390</v>
       </c>
@@ -14343,7 +15063,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="54"/>
+      <c r="A32" s="55"/>
       <c r="B32" t="s">
         <v>123</v>
       </c>
@@ -14362,7 +15082,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="54" t="s">
+      <c r="A33" s="55" t="s">
         <v>392</v>
       </c>
       <c r="B33" t="s">
@@ -14383,7 +15103,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="54"/>
+      <c r="A34" s="55"/>
       <c r="B34" t="s">
         <v>168</v>
       </c>
@@ -14402,7 +15122,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="54"/>
+      <c r="A35" s="55"/>
       <c r="B35" t="s">
         <v>123</v>
       </c>
@@ -14421,7 +15141,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="54"/>
+      <c r="A36" s="55"/>
       <c r="B36" t="s">
         <v>38</v>
       </c>
@@ -14442,6 +15162,521 @@
     <mergeCell ref="A17:A28"/>
     <mergeCell ref="A29:A32"/>
     <mergeCell ref="A33:A36"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="A1:B1">
+    <cfRule type="cellIs" dxfId="29" priority="2" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:E1">
+    <cfRule type="cellIs" dxfId="28" priority="5" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:H1">
+    <cfRule type="cellIs" dxfId="27" priority="3" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1">
+    <cfRule type="cellIs" dxfId="26" priority="4" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1">
+    <cfRule type="cellIs" dxfId="25" priority="1" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:J48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" style="7" customWidth="1"/>
+    <col min="10" max="10" width="99" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="55" t="s">
+        <v>393</v>
+      </c>
+      <c r="B2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="8"/>
+      <c r="J2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="55"/>
+      <c r="B3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="8"/>
+      <c r="J3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="55"/>
+      <c r="B4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="55"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="55" t="s">
+        <v>395</v>
+      </c>
+      <c r="B6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="8"/>
+      <c r="J6" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="55"/>
+      <c r="B7" t="s">
+        <v>397</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="8"/>
+      <c r="J7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="55"/>
+      <c r="B8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="8"/>
+      <c r="J8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="55"/>
+      <c r="B9" t="s">
+        <v>399</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="8"/>
+      <c r="J9" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="55"/>
+      <c r="B10" t="s">
+        <v>401</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="8"/>
+      <c r="J10" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A11" s="55"/>
+      <c r="B11" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="55"/>
+      <c r="B12" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="8"/>
+      <c r="J12" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="55"/>
+      <c r="B13" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="8"/>
+      <c r="J13" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="55"/>
+      <c r="B14" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="8"/>
+      <c r="J14" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="55"/>
+      <c r="B15" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="8"/>
+      <c r="J15" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="55"/>
+      <c r="B16" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="8"/>
+      <c r="J16" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="55"/>
+      <c r="B17" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="8"/>
+      <c r="J17" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="55"/>
+      <c r="B18" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="8"/>
+      <c r="J18" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="55"/>
+      <c r="B19" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="8"/>
+      <c r="J19" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="55"/>
+      <c r="B20" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="8"/>
+      <c r="J20" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="55"/>
+      <c r="B21" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="55"/>
+      <c r="B22" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="55" t="s">
+        <v>424</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="55"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="55"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="8"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="55"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="8"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="8"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="9"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="9"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="9"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="9"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="9"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="9"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="9"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="9"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="9"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="9"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="9"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="9"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="9"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="9"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="9"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="9"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="9"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A22"/>
+    <mergeCell ref="A23:A26"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="A1:B1">
@@ -14466,521 +15701,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
     <cfRule type="cellIs" dxfId="20" priority="1" stopIfTrue="1" operator="notEqual">
-      <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:J48"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="34.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="16.88671875" style="7" customWidth="1"/>
-    <col min="10" max="10" width="99" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
-        <v>393</v>
-      </c>
-      <c r="B2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="8"/>
-      <c r="J2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="8"/>
-      <c r="J3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="s">
-        <v>395</v>
-      </c>
-      <c r="B6" t="s">
-        <v>274</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="8"/>
-      <c r="J6" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
-      <c r="B7" t="s">
-        <v>397</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="8"/>
-      <c r="J7" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
-      <c r="B8" t="s">
-        <v>201</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="8"/>
-      <c r="J8" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
-      <c r="B9" t="s">
-        <v>399</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="8"/>
-      <c r="J9" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
-      <c r="B10" t="s">
-        <v>401</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="8"/>
-      <c r="J10" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A11" s="54"/>
-      <c r="B11" s="12" t="s">
-        <v>403</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="15" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
-      <c r="B12" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="8"/>
-      <c r="J12" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
-      <c r="B13" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="8"/>
-      <c r="J13" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
-      <c r="B14" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="8"/>
-      <c r="J14" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
-      <c r="B15" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="8"/>
-      <c r="J15" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
-      <c r="B16" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="8"/>
-      <c r="J16" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
-      <c r="B17" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="8"/>
-      <c r="J17" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
-      <c r="B18" s="9" t="s">
-        <v>417</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="8"/>
-      <c r="J18" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="54"/>
-      <c r="B19" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="8"/>
-      <c r="J19" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
-      <c r="B20" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="8"/>
-      <c r="J20" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="54"/>
-      <c r="B21" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="8"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
-      <c r="B22" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="8"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="54" t="s">
-        <v>424</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="8"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="54"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="8"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="54"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="8"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="54"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="8"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="8"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="9"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="9"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="9"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="9"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="9"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="9"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="9"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="9"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="9"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="9"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="9"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="9"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="9"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="9"/>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="9"/>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="9"/>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="9"/>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A22"/>
-    <mergeCell ref="A23:A26"/>
-  </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="A1:B1">
-    <cfRule type="cellIs" dxfId="19" priority="2" stopIfTrue="1" operator="notEqual">
-      <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:E1">
-    <cfRule type="cellIs" dxfId="18" priority="5" stopIfTrue="1" operator="notEqual">
-      <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:H1">
-    <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="notEqual">
-      <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="16" priority="4" stopIfTrue="1" operator="notEqual">
-      <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="15" priority="1" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15044,7 +15764,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>425</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -15063,7 +15783,7 @@
       <c r="K2" s="11"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="9" t="s">
         <v>428</v>
       </c>
@@ -15080,7 +15800,7 @@
       <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="9" t="s">
         <v>430</v>
       </c>
@@ -15097,7 +15817,7 @@
       <c r="K4" s="11"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="9" t="s">
         <v>432</v>
       </c>
@@ -15114,7 +15834,7 @@
       <c r="K5" s="11"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="54"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="9" t="s">
         <v>434</v>
       </c>
@@ -15131,7 +15851,7 @@
       <c r="K6" s="11"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="9" t="s">
         <v>436</v>
       </c>
@@ -15148,7 +15868,7 @@
       <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
+      <c r="A8" s="55"/>
       <c r="B8" t="s">
         <v>38</v>
       </c>
@@ -15165,7 +15885,7 @@
       <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="55" t="s">
         <v>438</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -15184,7 +15904,7 @@
       <c r="K9" s="11"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="9" t="s">
         <v>439</v>
       </c>
@@ -15201,7 +15921,7 @@
       <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="54"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="9" t="s">
         <v>441</v>
       </c>
@@ -15218,7 +15938,7 @@
       <c r="K11" s="11"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="9" t="s">
         <v>443</v>
       </c>
@@ -15230,7 +15950,7 @@
       <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="9" t="s">
         <v>445</v>
       </c>
@@ -15247,7 +15967,7 @@
       <c r="K13" s="11"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
+      <c r="A14" s="55"/>
       <c r="B14" s="9" t="s">
         <v>447</v>
       </c>
@@ -15264,7 +15984,7 @@
       <c r="K14" s="11"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
+      <c r="A15" s="55"/>
       <c r="B15" t="s">
         <v>38</v>
       </c>
@@ -15281,7 +16001,7 @@
       <c r="K15" s="11"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="55" t="s">
         <v>449</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -15300,7 +16020,7 @@
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="9" t="s">
         <v>428</v>
       </c>
@@ -15317,7 +16037,7 @@
       <c r="K17" s="11"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="9" t="s">
         <v>426</v>
       </c>
@@ -15329,7 +16049,7 @@
       <c r="K18" s="11"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="54"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="9" t="s">
         <v>451</v>
       </c>
@@ -15341,7 +16061,7 @@
       <c r="K19" s="11"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="9" t="s">
         <v>453</v>
       </c>
@@ -15353,7 +16073,7 @@
       <c r="K20" s="11"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="54"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="9" t="s">
         <v>455</v>
       </c>
@@ -15365,7 +16085,7 @@
       <c r="K21" s="11"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="9" t="s">
         <v>457</v>
       </c>
@@ -15377,7 +16097,7 @@
       <c r="K22" s="11"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="54"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="9" t="s">
         <v>459</v>
       </c>
@@ -15389,7 +16109,7 @@
       <c r="K23" s="11"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="54"/>
+      <c r="A24" s="55"/>
       <c r="B24" s="9" t="s">
         <v>286</v>
       </c>
@@ -15401,7 +16121,7 @@
       <c r="K24" s="11"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="54"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="9" t="s">
         <v>201</v>
       </c>
@@ -15411,7 +16131,7 @@
       <c r="K25" s="11"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="54"/>
+      <c r="A26" s="55"/>
       <c r="B26" t="s">
         <v>38</v>
       </c>
@@ -15421,7 +16141,7 @@
       <c r="K26" s="11"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="55" t="s">
         <v>462</v>
       </c>
       <c r="B27" s="9" t="s">
@@ -15435,7 +16155,7 @@
       <c r="K27" s="11"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="54"/>
+      <c r="A28" s="55"/>
       <c r="B28" s="9" t="s">
         <v>366</v>
       </c>
@@ -15447,7 +16167,7 @@
       <c r="K28" s="11"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="54"/>
+      <c r="A29" s="55"/>
       <c r="B29" s="9" t="s">
         <v>463</v>
       </c>
@@ -15459,7 +16179,7 @@
       <c r="K29" s="11"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="54"/>
+      <c r="A30" s="55"/>
       <c r="B30" s="9" t="s">
         <v>465</v>
       </c>
@@ -15471,7 +16191,7 @@
       <c r="K30" s="11"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="54"/>
+      <c r="A31" s="55"/>
       <c r="B31" s="9" t="s">
         <v>467</v>
       </c>
@@ -15483,7 +16203,7 @@
       <c r="K31" s="11"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="54"/>
+      <c r="A32" s="55"/>
       <c r="B32" s="9" t="s">
         <v>469</v>
       </c>
@@ -15492,7 +16212,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="54"/>
+      <c r="A33" s="55"/>
       <c r="B33" s="9" t="s">
         <v>471</v>
       </c>
@@ -15501,7 +16221,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="54"/>
+      <c r="A34" s="55"/>
       <c r="B34" s="9" t="s">
         <v>426</v>
       </c>
@@ -15510,7 +16230,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="54"/>
+      <c r="A35" s="55"/>
       <c r="B35" s="9" t="s">
         <v>428</v>
       </c>
@@ -15519,7 +16239,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="54"/>
+      <c r="A36" s="55"/>
       <c r="B36" s="9" t="s">
         <v>439</v>
       </c>
@@ -15528,7 +16248,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="54"/>
+      <c r="A37" s="55"/>
       <c r="B37" s="9" t="s">
         <v>475</v>
       </c>
@@ -15537,7 +16257,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="54"/>
+      <c r="A38" s="55"/>
       <c r="B38" s="9" t="s">
         <v>453</v>
       </c>
@@ -15546,7 +16266,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="54"/>
+      <c r="A39" s="55"/>
       <c r="B39" s="9" t="s">
         <v>476</v>
       </c>
@@ -15555,7 +16275,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="54"/>
+      <c r="A40" s="55"/>
       <c r="B40" s="9" t="s">
         <v>56</v>
       </c>
@@ -15564,7 +16284,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="54"/>
+      <c r="A41" s="55"/>
       <c r="B41" s="9" t="s">
         <v>478</v>
       </c>
@@ -15573,7 +16293,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="54"/>
+      <c r="A42" s="55"/>
       <c r="B42" s="9" t="s">
         <v>480</v>
       </c>
@@ -15582,7 +16302,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="54"/>
+      <c r="A43" s="55"/>
       <c r="B43" s="9" t="s">
         <v>482</v>
       </c>
@@ -15591,7 +16311,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="54"/>
+      <c r="A44" s="55"/>
       <c r="B44" s="9" t="s">
         <v>366</v>
       </c>
@@ -15600,7 +16320,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="54"/>
+      <c r="A45" s="55"/>
       <c r="B45" t="s">
         <v>38</v>
       </c>
@@ -15609,7 +16329,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="54" t="s">
+      <c r="A46" s="55" t="s">
         <v>484</v>
       </c>
       <c r="B46" s="9" t="s">
@@ -15620,7 +16340,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="54"/>
+      <c r="A47" s="55"/>
       <c r="B47" s="9" t="s">
         <v>465</v>
       </c>
@@ -15629,7 +16349,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="54"/>
+      <c r="A48" s="55"/>
       <c r="B48" s="9" t="s">
         <v>486</v>
       </c>
@@ -15638,7 +16358,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="54"/>
+      <c r="A49" s="55"/>
       <c r="B49" s="9" t="s">
         <v>426</v>
       </c>
@@ -15647,7 +16367,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="54"/>
+      <c r="A50" s="55"/>
       <c r="B50" s="9" t="s">
         <v>428</v>
       </c>
@@ -15656,7 +16376,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="54"/>
+      <c r="A51" s="55"/>
       <c r="B51" s="9" t="s">
         <v>286</v>
       </c>
@@ -15665,7 +16385,7 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="54"/>
+      <c r="A52" s="55"/>
       <c r="B52" t="s">
         <v>38</v>
       </c>
@@ -15674,7 +16394,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="54" t="s">
+      <c r="A53" s="55" t="s">
         <v>488</v>
       </c>
       <c r="B53" s="9" t="s">
@@ -15685,7 +16405,7 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="54"/>
+      <c r="A54" s="55"/>
       <c r="B54" s="9" t="s">
         <v>428</v>
       </c>
@@ -15694,7 +16414,7 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="54"/>
+      <c r="A55" s="55"/>
       <c r="B55" s="9" t="s">
         <v>366</v>
       </c>
@@ -15703,7 +16423,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="54"/>
+      <c r="A56" s="55"/>
       <c r="B56" s="9" t="s">
         <v>16</v>
       </c>
@@ -15712,7 +16432,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="54"/>
+      <c r="A57" s="55"/>
       <c r="B57" s="9" t="s">
         <v>489</v>
       </c>
@@ -15721,7 +16441,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="54"/>
+      <c r="A58" s="55"/>
       <c r="B58" s="9" t="s">
         <v>467</v>
       </c>
@@ -15730,7 +16450,7 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="54"/>
+      <c r="A59" s="55"/>
       <c r="B59" s="9" t="s">
         <v>490</v>
       </c>
@@ -15739,7 +16459,7 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="54"/>
+      <c r="A60" s="55"/>
       <c r="B60" s="9" t="s">
         <v>492</v>
       </c>
@@ -15748,7 +16468,7 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="54"/>
+      <c r="A61" s="55"/>
       <c r="B61" s="9" t="s">
         <v>478</v>
       </c>
@@ -15757,7 +16477,7 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="54"/>
+      <c r="A62" s="55"/>
       <c r="B62" t="s">
         <v>38</v>
       </c>
@@ -15766,7 +16486,7 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="54" t="s">
+      <c r="A63" s="55" t="s">
         <v>495</v>
       </c>
       <c r="B63" s="9" t="s">
@@ -15777,7 +16497,7 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="54"/>
+      <c r="A64" s="55"/>
       <c r="B64" s="9" t="s">
         <v>496</v>
       </c>
@@ -15786,7 +16506,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="54"/>
+      <c r="A65" s="55"/>
       <c r="B65" s="9" t="s">
         <v>428</v>
       </c>
@@ -15795,7 +16515,7 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="54"/>
+      <c r="A66" s="55"/>
       <c r="B66" s="9" t="s">
         <v>439</v>
       </c>
@@ -15804,7 +16524,7 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="54"/>
+      <c r="A67" s="55"/>
       <c r="B67" s="9" t="s">
         <v>286</v>
       </c>
@@ -15813,7 +16533,7 @@
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="54"/>
+      <c r="A68" s="55"/>
       <c r="B68" t="s">
         <v>38</v>
       </c>
@@ -15833,27 +16553,27 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="cellIs" dxfId="14" priority="2" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="19" priority="2" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:E1">
-    <cfRule type="cellIs" dxfId="13" priority="5" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="18" priority="5" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:H1">
-    <cfRule type="cellIs" dxfId="12" priority="3" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="11" priority="4" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="16" priority="4" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="15" priority="1" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15916,7 +16636,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
+      <c r="A2" s="55"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="10"/>
@@ -15926,7 +16646,7 @@
       <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
+      <c r="A3" s="55"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="10"/>
@@ -15936,7 +16656,7 @@
       <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
+      <c r="A4" s="55"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="10"/>
@@ -15946,7 +16666,7 @@
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
+      <c r="A5" s="55"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="10"/>
@@ -15956,7 +16676,7 @@
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="54"/>
+      <c r="A6" s="55"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="10"/>
@@ -15966,7 +16686,7 @@
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
+      <c r="A7" s="55"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="10"/>
@@ -15976,7 +16696,7 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
+      <c r="A8" s="55"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="10"/>
@@ -15986,7 +16706,7 @@
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
+      <c r="A9" s="55"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="10"/>
@@ -15996,7 +16716,7 @@
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
+      <c r="A10" s="55"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="10"/>
@@ -16006,7 +16726,7 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="54"/>
+      <c r="A11" s="55"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="10"/>
@@ -16016,7 +16736,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -16027,7 +16747,7 @@
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -16038,12 +16758,12 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
+      <c r="A14" s="55"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -16054,7 +16774,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="9"/>
       <c r="C16"/>
       <c r="D16" s="8"/>
@@ -16065,7 +16785,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="9"/>
       <c r="C17"/>
       <c r="D17" s="8"/>
@@ -16076,7 +16796,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="9"/>
       <c r="C18"/>
       <c r="D18" s="8"/>
@@ -16087,7 +16807,7 @@
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="54"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="9"/>
       <c r="C19"/>
       <c r="D19" s="8"/>
@@ -16098,7 +16818,7 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="9"/>
       <c r="C20"/>
       <c r="D20" s="8"/>
@@ -16109,7 +16829,7 @@
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="54"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="9"/>
       <c r="C21"/>
       <c r="D21" s="8"/>
@@ -16120,7 +16840,7 @@
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="9"/>
       <c r="C22"/>
       <c r="D22" s="8"/>
@@ -16131,7 +16851,7 @@
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="54"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="9"/>
       <c r="C23"/>
       <c r="D23" s="8"/>
@@ -16142,7 +16862,7 @@
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="54"/>
+      <c r="A24" s="55"/>
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -16153,7 +16873,7 @@
       <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="54"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -16164,7 +16884,7 @@
       <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="54"/>
+      <c r="A26" s="55"/>
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -16175,7 +16895,7 @@
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="54"/>
+      <c r="A27" s="55"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="10"/>
@@ -16185,7 +16905,7 @@
       <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="54"/>
+      <c r="A28" s="55"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="10"/>
@@ -16195,7 +16915,7 @@
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="54"/>
+      <c r="A29" s="55"/>
       <c r="C29"/>
       <c r="D29" s="8"/>
       <c r="E29" s="10"/>
@@ -16205,7 +16925,7 @@
       <c r="I29" s="8"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="54"/>
+      <c r="A30" s="55"/>
       <c r="C30"/>
       <c r="D30" s="8"/>
       <c r="E30" s="10"/>
@@ -16215,7 +16935,7 @@
       <c r="I30" s="8"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="54"/>
+      <c r="A31" s="55"/>
       <c r="C31"/>
       <c r="D31" s="8"/>
       <c r="E31" s="10"/>
@@ -16225,7 +16945,7 @@
       <c r="I31" s="8"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="54"/>
+      <c r="A32" s="55"/>
       <c r="C32"/>
       <c r="D32" s="8"/>
       <c r="E32" s="10"/>
@@ -16235,7 +16955,7 @@
       <c r="I32" s="8"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="54"/>
+      <c r="A33" s="55"/>
       <c r="C33"/>
       <c r="D33" s="8"/>
       <c r="E33" s="10"/>
@@ -16245,7 +16965,7 @@
       <c r="I33" s="8"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="54"/>
+      <c r="A34" s="55"/>
       <c r="C34"/>
       <c r="D34" s="8"/>
       <c r="E34" s="10"/>
@@ -16255,7 +16975,7 @@
       <c r="I34" s="8"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="54"/>
+      <c r="A35" s="55"/>
       <c r="C35"/>
       <c r="D35" s="8"/>
       <c r="E35" s="10"/>
@@ -16265,7 +16985,7 @@
       <c r="I35" s="8"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="54"/>
+      <c r="A36" s="55"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="10"/>
@@ -16275,7 +16995,7 @@
       <c r="I36" s="8"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="54"/>
+      <c r="A37" s="55"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="10"/>
@@ -16285,7 +17005,7 @@
       <c r="I37" s="8"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="54"/>
+      <c r="A38" s="55"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="10"/>
@@ -16295,7 +17015,7 @@
       <c r="I38" s="8"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="54"/>
+      <c r="A39" s="55"/>
       <c r="C39"/>
       <c r="D39" s="8"/>
       <c r="E39" s="10"/>
@@ -16305,7 +17025,7 @@
       <c r="I39" s="8"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="54"/>
+      <c r="A40" s="55"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="10"/>
@@ -16315,7 +17035,7 @@
       <c r="I40" s="8"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="54"/>
+      <c r="A41" s="55"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="10"/>
@@ -16325,7 +17045,7 @@
       <c r="I41" s="8"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="54"/>
+      <c r="A42" s="55"/>
       <c r="B42" s="9"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
@@ -16336,7 +17056,7 @@
       <c r="I42" s="8"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="54"/>
+      <c r="A43" s="55"/>
       <c r="B43" s="9"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -16347,7 +17067,7 @@
       <c r="I43" s="8"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="54"/>
+      <c r="A44" s="55"/>
       <c r="B44" s="9"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -16358,7 +17078,7 @@
       <c r="I44" s="8"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="54"/>
+      <c r="A45" s="55"/>
       <c r="B45" s="9"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -16369,7 +17089,7 @@
       <c r="I45" s="8"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="54"/>
+      <c r="A46" s="55"/>
       <c r="B46" s="9"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
@@ -16380,7 +17100,7 @@
       <c r="I46" s="8"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="54"/>
+      <c r="A47" s="55"/>
       <c r="B47" s="9"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
@@ -16391,7 +17111,7 @@
       <c r="I47" s="8"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="54"/>
+      <c r="A48" s="55"/>
       <c r="B48" s="9"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -16402,7 +17122,7 @@
       <c r="I48" s="8"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="54"/>
+      <c r="A49" s="55"/>
       <c r="B49" s="9"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
@@ -16413,7 +17133,7 @@
       <c r="I49" s="8"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="54"/>
+      <c r="A50" s="55"/>
       <c r="B50" s="9"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -16424,7 +17144,7 @@
       <c r="I50" s="8"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="54"/>
+      <c r="A51" s="55"/>
       <c r="B51" s="9"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -16435,7 +17155,7 @@
       <c r="I51" s="8"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="54"/>
+      <c r="A52" s="55"/>
       <c r="B52" s="9"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
@@ -16446,7 +17166,7 @@
       <c r="I52" s="8"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="54"/>
+      <c r="A53" s="55"/>
       <c r="B53" s="9"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -16457,7 +17177,7 @@
       <c r="I53" s="8"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="54"/>
+      <c r="A54" s="55"/>
       <c r="B54" s="9"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
@@ -16468,7 +17188,7 @@
       <c r="I54" s="8"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="54"/>
+      <c r="A55" s="55"/>
       <c r="B55" s="9"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
@@ -16479,7 +17199,7 @@
       <c r="I55" s="8"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="54"/>
+      <c r="A56" s="55"/>
       <c r="B56" s="9"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
@@ -16490,7 +17210,7 @@
       <c r="I56" s="8"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="54"/>
+      <c r="A57" s="55"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
       <c r="E57" s="10"/>
@@ -16500,7 +17220,7 @@
       <c r="I57" s="8"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="54"/>
+      <c r="A58" s="55"/>
       <c r="B58" s="9"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -16511,7 +17231,7 @@
       <c r="I58" s="8"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="54"/>
+      <c r="A59" s="55"/>
       <c r="B59" s="9"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
@@ -16522,7 +17242,7 @@
       <c r="I59" s="8"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="54"/>
+      <c r="A60" s="55"/>
       <c r="B60" s="9"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
@@ -16533,7 +17253,7 @@
       <c r="I60" s="8"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="54"/>
+      <c r="A61" s="55"/>
       <c r="B61" s="9"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -16544,7 +17264,7 @@
       <c r="I61" s="8"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="54"/>
+      <c r="A62" s="55"/>
       <c r="B62" s="9"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
@@ -16555,7 +17275,7 @@
       <c r="I62" s="8"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="54"/>
+      <c r="A63" s="55"/>
       <c r="B63" s="9"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
@@ -16566,7 +17286,7 @@
       <c r="I63" s="8"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="54"/>
+      <c r="A64" s="55"/>
       <c r="B64" s="9"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -16577,7 +17297,7 @@
       <c r="I64" s="8"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="54"/>
+      <c r="A65" s="55"/>
       <c r="B65" s="9"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -16588,7 +17308,7 @@
       <c r="I65" s="8"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="54"/>
+      <c r="A66" s="55"/>
       <c r="B66" s="9"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
@@ -16599,7 +17319,7 @@
       <c r="I66" s="8"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="54"/>
+      <c r="A67" s="55"/>
       <c r="B67" s="9"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -16610,7 +17330,7 @@
       <c r="I67" s="8"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="54"/>
+      <c r="A68" s="55"/>
       <c r="B68" s="9"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
@@ -16621,7 +17341,7 @@
       <c r="I68" s="8"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="54"/>
+      <c r="A69" s="55"/>
       <c r="B69" s="9"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
@@ -16632,7 +17352,7 @@
       <c r="I69" s="8"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="54"/>
+      <c r="A70" s="55"/>
       <c r="B70" s="9"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
@@ -16643,7 +17363,7 @@
       <c r="I70" s="8"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="54"/>
+      <c r="A71" s="55"/>
       <c r="B71" s="9"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
@@ -16654,7 +17374,7 @@
       <c r="I71" s="8"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="54"/>
+      <c r="A72" s="55"/>
       <c r="B72" s="9"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
@@ -16665,7 +17385,7 @@
       <c r="I72" s="8"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="54"/>
+      <c r="A73" s="55"/>
       <c r="B73" s="9"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
@@ -16676,195 +17396,195 @@
       <c r="I73" s="8"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="54"/>
+      <c r="A74" s="55"/>
       <c r="B74" s="9"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
       <c r="G74"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="54"/>
+      <c r="A75" s="55"/>
       <c r="B75" s="9"/>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
       <c r="G75"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="54"/>
+      <c r="A76" s="55"/>
       <c r="B76" s="9"/>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
       <c r="G76"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="54"/>
+      <c r="A77" s="55"/>
       <c r="B77" s="9"/>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
       <c r="G77"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="54"/>
+      <c r="A78" s="55"/>
       <c r="B78" s="9"/>
       <c r="G78"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="54"/>
+      <c r="A79" s="55"/>
       <c r="B79" s="9"/>
       <c r="G79"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="54"/>
+      <c r="A80" s="55"/>
       <c r="B80" s="9"/>
       <c r="G80"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="54"/>
+      <c r="A81" s="55"/>
       <c r="B81" s="9"/>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
       <c r="G81"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="54"/>
+      <c r="A82" s="55"/>
       <c r="B82" s="9"/>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
       <c r="G82"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="54"/>
+      <c r="A83" s="55"/>
       <c r="B83" s="9"/>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
       <c r="G83"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="54"/>
+      <c r="A84" s="55"/>
       <c r="B84" s="9"/>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
       <c r="G84"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="54"/>
+      <c r="A85" s="55"/>
       <c r="B85" s="9"/>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
       <c r="G85"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="54"/>
+      <c r="A86" s="55"/>
       <c r="B86" s="9"/>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
       <c r="G86"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="54"/>
+      <c r="A87" s="55"/>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
       <c r="G87"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="54"/>
+      <c r="A88" s="55"/>
       <c r="B88" s="9"/>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
       <c r="G88"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="54"/>
+      <c r="A89" s="55"/>
       <c r="B89" s="9"/>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
       <c r="G89"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="54"/>
+      <c r="A90" s="55"/>
       <c r="B90" s="9"/>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
       <c r="G90"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="54"/>
+      <c r="A91" s="55"/>
       <c r="B91" s="9"/>
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
       <c r="G91"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="54"/>
+      <c r="A92" s="55"/>
       <c r="B92" s="9"/>
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
       <c r="G92"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="54"/>
+      <c r="A93" s="55"/>
       <c r="B93" s="9"/>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
       <c r="G93"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="54"/>
+      <c r="A94" s="55"/>
       <c r="B94" s="9"/>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
       <c r="G94"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="54"/>
+      <c r="A95" s="55"/>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
       <c r="G95"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="54"/>
+      <c r="A96" s="55"/>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
       <c r="G96"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="54"/>
+      <c r="A97" s="55"/>
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
       <c r="G97"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="54"/>
+      <c r="A98" s="55"/>
       <c r="C98" s="8"/>
       <c r="D98" s="8"/>
       <c r="G98"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="54"/>
+      <c r="A99" s="55"/>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
       <c r="G99"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="54"/>
+      <c r="A100" s="55"/>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
       <c r="G100"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="54"/>
+      <c r="A101" s="55"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="54"/>
+      <c r="A102" s="55"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="54"/>
+      <c r="A103" s="55"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="54"/>
+      <c r="A104" s="55"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="54"/>
+      <c r="A105" s="55"/>
     </row>
     <row r="116" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G116" s="9"/>
@@ -16885,27 +17605,27 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="cellIs" dxfId="9" priority="2" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="14" priority="2" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:E1">
-    <cfRule type="cellIs" dxfId="8" priority="5" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="13" priority="5" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:H1">
-    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="12" priority="3" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="11" priority="4" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/arch-ums/uni-life-ums.xlsx
+++ b/arch-ums/uni-life-ums.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces-Idea\proc\arch-module\arch-ums\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7267AD1-1380-4E54-BF34-F4C26655E08E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F595FC89-873E-41F7-B2A4-3E6A47BD3431}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="4296" windowWidth="23040" windowHeight="12312" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5292" yWindow="2304" windowWidth="23040" windowHeight="12312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="9" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2360" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2360" uniqueCount="900">
   <si>
     <t>表名/Table</t>
   </si>
@@ -2230,10 +2230,6 @@
   </si>
   <si>
     <t>channelType</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录类型【IDENTITYTYPE】：登录类别，如：系统用户、邮箱、手机，或者第三方的QQ、微信、微博；</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -3090,6 +3086,21 @@
   </si>
   <si>
     <t>文件上传结束的时间</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>dt</t>
+  </si>
+  <si>
+    <t>dt</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录类型：登录类别，如：系统用户、邮箱、手机，或者第三方的QQ、微信、微博；</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>dt</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3363,22 +3374,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3387,89 +3396,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="75">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4103,6 +4044,41 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -4342,6 +4318,41 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4356,17 +4367,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CE11B0DB-5C62-420D-84D8-E87A9EF327B7}" name="表1" displayName="表1" ref="B1:J62" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73" headerRowCellStyle="常规 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CE11B0DB-5C62-420D-84D8-E87A9EF327B7}" name="表1" displayName="表1" ref="B1:J62" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68" headerRowCellStyle="常规 2">
   <autoFilter ref="B1:J62" xr:uid="{B6969820-1EDF-4876-9A5D-FBFC4A41984D}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{72E794A9-4DD1-49BE-A027-5ADCBA03FBD0}" name="列名/Column"/>
-    <tableColumn id="2" xr3:uid="{2BD92A17-8B86-4B03-9D18-9105A0D34354}" name="数据类型/Type" dataDxfId="72"/>
-    <tableColumn id="3" xr3:uid="{D8E94063-B8C9-4FA6-9A01-E7DF0C6D48F1}" name="长度/Length" dataDxfId="71"/>
-    <tableColumn id="4" xr3:uid="{9C5A6399-4D88-4569-8E5F-39B9DE8AF37B}" name="是否为空/Null(Y,N)" dataDxfId="70"/>
-    <tableColumn id="5" xr3:uid="{A4F55127-F997-4CC4-B0D1-1DA0A350A101}" name="默认值/Default" dataDxfId="69"/>
-    <tableColumn id="6" xr3:uid="{0F626792-F279-49AC-8EC1-BFB6B6687D67}" name="是否主键/Primary(Y,N)" dataDxfId="68"/>
-    <tableColumn id="7" xr3:uid="{7071273C-D0E4-4535-8AE8-1DA697EFE72A}" name="是否唯一/Unique(Y,N)" dataDxfId="67"/>
-    <tableColumn id="8" xr3:uid="{79AD77F4-4A81-4B14-B022-EB542F9CB50D}" name="外键/Forigen(可空)" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{2BD92A17-8B86-4B03-9D18-9105A0D34354}" name="数据类型/Type" dataDxfId="67"/>
+    <tableColumn id="3" xr3:uid="{D8E94063-B8C9-4FA6-9A01-E7DF0C6D48F1}" name="长度/Length" dataDxfId="66"/>
+    <tableColumn id="4" xr3:uid="{9C5A6399-4D88-4569-8E5F-39B9DE8AF37B}" name="是否为空/Null(Y,N)" dataDxfId="65"/>
+    <tableColumn id="5" xr3:uid="{A4F55127-F997-4CC4-B0D1-1DA0A350A101}" name="默认值/Default" dataDxfId="64"/>
+    <tableColumn id="6" xr3:uid="{0F626792-F279-49AC-8EC1-BFB6B6687D67}" name="是否主键/Primary(Y,N)" dataDxfId="63"/>
+    <tableColumn id="7" xr3:uid="{7071273C-D0E4-4535-8AE8-1DA697EFE72A}" name="是否唯一/Unique(Y,N)" dataDxfId="62"/>
+    <tableColumn id="8" xr3:uid="{79AD77F4-4A81-4B14-B022-EB542F9CB50D}" name="外键/Forigen(可空)" dataDxfId="61"/>
     <tableColumn id="9" xr3:uid="{F4869BE7-97E9-4573-A762-3FCC07598356}" name="备注/Comment"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4374,18 +4385,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D4223DF3-0FD4-4A51-9CB4-4ADBF0194284}" name="表4" displayName="表4" ref="B1:J124" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64" headerRowCellStyle="常规 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D4223DF3-0FD4-4A51-9CB4-4ADBF0194284}" name="表4" displayName="表4" ref="B1:J124" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54" headerRowCellStyle="常规 2">
   <autoFilter ref="B1:J124" xr:uid="{B9CDCF83-4341-4D97-8AF8-098A114465A9}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{350E8EA7-6A95-4955-AF92-86AAEA2BA677}" name="列名/Column" dataDxfId="63"/>
-    <tableColumn id="2" xr3:uid="{6ABB1A04-FB0D-4D10-B245-B8C8DB4828E1}" name="数据类型/Type" dataDxfId="62"/>
-    <tableColumn id="3" xr3:uid="{FCA6C0C7-D58A-4EB4-ADAD-587CBD0DD701}" name="长度/Length" dataDxfId="61"/>
-    <tableColumn id="4" xr3:uid="{52DA6CEC-27BC-4EAE-AE94-7470B76EC7C3}" name="是否为空/Null(Y,N)" dataDxfId="60"/>
-    <tableColumn id="5" xr3:uid="{AE35D0B9-0729-44FC-B690-C7EDD3166A02}" name="默认值/Default" dataDxfId="59"/>
-    <tableColumn id="6" xr3:uid="{6C52994F-377C-4C2E-9F7E-525CAC70A537}" name="是否主键/Primary(Y,N)" dataDxfId="58"/>
-    <tableColumn id="7" xr3:uid="{6EA4723E-17A5-4EC8-8998-8102D06DE919}" name="是否唯一/Unique(Y,N)" dataDxfId="57"/>
-    <tableColumn id="8" xr3:uid="{1A6BD3A8-4916-46D9-B4C6-624DA102515A}" name="外键/Forigen(可空)" dataDxfId="56"/>
-    <tableColumn id="9" xr3:uid="{632B0B2F-EABB-4492-9536-4E24187636CD}" name="备注/Comment" dataDxfId="55"/>
+    <tableColumn id="1" xr3:uid="{350E8EA7-6A95-4955-AF92-86AAEA2BA677}" name="列名/Column" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{6ABB1A04-FB0D-4D10-B245-B8C8DB4828E1}" name="数据类型/Type" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{FCA6C0C7-D58A-4EB4-ADAD-587CBD0DD701}" name="长度/Length" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{52DA6CEC-27BC-4EAE-AE94-7470B76EC7C3}" name="是否为空/Null(Y,N)" dataDxfId="50"/>
+    <tableColumn id="5" xr3:uid="{AE35D0B9-0729-44FC-B690-C7EDD3166A02}" name="默认值/Default" dataDxfId="49"/>
+    <tableColumn id="6" xr3:uid="{6C52994F-377C-4C2E-9F7E-525CAC70A537}" name="是否主键/Primary(Y,N)" dataDxfId="48"/>
+    <tableColumn id="7" xr3:uid="{6EA4723E-17A5-4EC8-8998-8102D06DE919}" name="是否唯一/Unique(Y,N)" dataDxfId="47"/>
+    <tableColumn id="8" xr3:uid="{1A6BD3A8-4916-46D9-B4C6-624DA102515A}" name="外键/Forigen(可空)" dataDxfId="46"/>
+    <tableColumn id="9" xr3:uid="{632B0B2F-EABB-4492-9536-4E24187636CD}" name="备注/Comment" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4651,8 +4662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4702,17 +4713,17 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
-        <v>745</v>
+      <c r="A2" s="53" t="s">
+        <v>744</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>13</v>
@@ -4730,9 +4741,9 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
+      <c r="A3" s="52"/>
       <c r="B3" s="26" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>17</v>
@@ -4752,7 +4763,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
+      <c r="A4" s="52"/>
       <c r="B4" t="s">
         <v>19</v>
       </c>
@@ -4772,7 +4783,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
+      <c r="A5" s="52"/>
       <c r="B5" t="s">
         <v>22</v>
       </c>
@@ -4792,7 +4803,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
+      <c r="A6" s="52"/>
       <c r="B6" t="s">
         <v>26</v>
       </c>
@@ -4812,7 +4823,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
+      <c r="A7" s="52"/>
       <c r="B7" t="s">
         <v>29</v>
       </c>
@@ -4830,7 +4841,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
+      <c r="A8" s="52"/>
       <c r="B8" t="s">
         <v>31</v>
       </c>
@@ -4850,7 +4861,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
+      <c r="A9" s="52"/>
       <c r="B9" t="s">
         <v>33</v>
       </c>
@@ -4870,15 +4881,15 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="26" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>14</v>
@@ -4894,9 +4905,9 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
+      <c r="A11" s="52"/>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>896</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>718</v>
@@ -4907,7 +4918,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="52" t="s">
         <v>41</v>
       </c>
       <c r="B12" t="s">
@@ -4917,7 +4928,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>13</v>
@@ -4935,7 +4946,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
+      <c r="A13" s="52"/>
       <c r="B13" t="s">
         <v>42</v>
       </c>
@@ -4950,7 +4961,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
+      <c r="A14" s="52"/>
       <c r="B14" t="s">
         <v>44</v>
       </c>
@@ -4965,7 +4976,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
+      <c r="A15" s="52"/>
       <c r="B15" t="s">
         <v>46</v>
       </c>
@@ -4980,7 +4991,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
+      <c r="A16" s="52"/>
       <c r="B16" t="s">
         <v>48</v>
       </c>
@@ -4995,15 +5006,15 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="43" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C17" s="40" t="s">
         <v>709</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
@@ -5011,11 +5022,11 @@
       <c r="H17" s="42"/>
       <c r="I17" s="42"/>
       <c r="J17" s="39" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
+      <c r="A18" s="52"/>
       <c r="B18" t="s">
         <v>50</v>
       </c>
@@ -5030,7 +5041,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
+      <c r="A19" s="52"/>
       <c r="B19" t="s">
         <v>52</v>
       </c>
@@ -5045,9 +5056,9 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="51"/>
+      <c r="A20" s="52"/>
       <c r="B20" s="39" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C20" s="40" t="s">
         <v>708</v>
@@ -5061,11 +5072,11 @@
       <c r="H20" s="42"/>
       <c r="I20" s="42"/>
       <c r="J20" s="39" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
+      <c r="A21" s="52"/>
       <c r="B21" t="s">
         <v>54</v>
       </c>
@@ -5080,7 +5091,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
+      <c r="A22" s="52"/>
       <c r="B22" t="s">
         <v>56</v>
       </c>
@@ -5095,9 +5106,9 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="51"/>
+      <c r="A23" s="52"/>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>896</v>
       </c>
       <c r="C23" s="23" t="s">
         <v>718</v>
@@ -5108,8 +5119,8 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="52" t="s">
-        <v>746</v>
+      <c r="A24" s="53" t="s">
+        <v>745</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -5118,7 +5129,7 @@
         <v>11</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>13</v>
@@ -5136,7 +5147,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
+      <c r="A25" s="52"/>
       <c r="B25" t="s">
         <v>58</v>
       </c>
@@ -5151,7 +5162,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="51"/>
+      <c r="A26" s="52"/>
       <c r="B26" t="s">
         <v>60</v>
       </c>
@@ -5166,7 +5177,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
+      <c r="A27" s="52"/>
       <c r="B27" t="s">
         <v>62</v>
       </c>
@@ -5181,7 +5192,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="51"/>
+      <c r="A28" s="52"/>
       <c r="B28" t="s">
         <v>64</v>
       </c>
@@ -5196,9 +5207,9 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="51"/>
+      <c r="A29" s="52"/>
       <c r="B29" s="26" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C29" s="23" t="s">
         <v>17</v>
@@ -5211,7 +5222,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="51"/>
+      <c r="A30" s="52"/>
       <c r="B30" t="s">
         <v>52</v>
       </c>
@@ -5226,7 +5237,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="51"/>
+      <c r="A31" s="52"/>
       <c r="B31" t="s">
         <v>67</v>
       </c>
@@ -5239,9 +5250,9 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="51"/>
-      <c r="B32" t="s">
-        <v>38</v>
+      <c r="A32" s="52"/>
+      <c r="B32" s="26" t="s">
+        <v>899</v>
       </c>
       <c r="C32" s="23" t="s">
         <v>718</v>
@@ -5252,7 +5263,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="51" t="s">
+      <c r="A33" s="52" t="s">
         <v>69</v>
       </c>
       <c r="B33" t="s">
@@ -5262,16 +5273,16 @@
         <v>11</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J33" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="51"/>
+      <c r="A34" s="52"/>
       <c r="B34" s="26" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C34" s="23" t="s">
         <v>17</v>
@@ -5284,7 +5295,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="51"/>
+      <c r="A35" s="52"/>
       <c r="B35" t="s">
         <v>71</v>
       </c>
@@ -5299,7 +5310,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="51"/>
+      <c r="A36" s="52"/>
       <c r="B36" t="s">
         <v>73</v>
       </c>
@@ -5314,7 +5325,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="51"/>
+      <c r="A37" s="52"/>
       <c r="B37" t="s">
         <v>52</v>
       </c>
@@ -5329,7 +5340,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="51"/>
+      <c r="A38" s="52"/>
       <c r="B38" t="s">
         <v>75</v>
       </c>
@@ -5342,9 +5353,9 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="51"/>
+      <c r="A39" s="52"/>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>896</v>
       </c>
       <c r="C39" s="23" t="s">
         <v>718</v>
@@ -5355,7 +5366,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="51" t="s">
+      <c r="A40" s="52" t="s">
         <v>77</v>
       </c>
       <c r="B40" t="s">
@@ -5365,14 +5376,14 @@
         <v>11</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J40" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="51"/>
+      <c r="A41" s="52"/>
       <c r="B41" t="s">
         <v>78</v>
       </c>
@@ -5387,7 +5398,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="51"/>
+      <c r="A42" s="52"/>
       <c r="B42" t="s">
         <v>80</v>
       </c>
@@ -5402,9 +5413,9 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="51"/>
+      <c r="A43" s="52"/>
       <c r="B43" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C43" s="23" t="s">
         <v>709</v>
@@ -5418,11 +5429,11 @@
       <c r="H43" s="32"/>
       <c r="I43" s="32"/>
       <c r="J43" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="51"/>
+      <c r="A44" s="52"/>
       <c r="B44" t="s">
         <v>82</v>
       </c>
@@ -5433,11 +5444,11 @@
         <v>706</v>
       </c>
       <c r="J44" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="51"/>
+      <c r="A45" s="52"/>
       <c r="B45" t="s">
         <v>52</v>
       </c>
@@ -5452,7 +5463,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="51"/>
+      <c r="A46" s="52"/>
       <c r="B46" t="s">
         <v>75</v>
       </c>
@@ -5465,9 +5476,9 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="51"/>
+      <c r="A47" s="52"/>
       <c r="B47" t="s">
-        <v>38</v>
+        <v>896</v>
       </c>
       <c r="C47" s="23" t="s">
         <v>718</v>
@@ -5478,7 +5489,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="51" t="s">
+      <c r="A48" s="52" t="s">
         <v>83</v>
       </c>
       <c r="B48" t="s">
@@ -5488,14 +5499,14 @@
         <v>11</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J48" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="51"/>
+      <c r="A49" s="52"/>
       <c r="B49" t="s">
         <v>84</v>
       </c>
@@ -5510,7 +5521,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="51"/>
+      <c r="A50" s="52"/>
       <c r="B50" t="s">
         <v>86</v>
       </c>
@@ -5525,7 +5536,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="51"/>
+      <c r="A51" s="52"/>
       <c r="B51" t="s">
         <v>88</v>
       </c>
@@ -5540,7 +5551,7 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="51"/>
+      <c r="A52" s="52"/>
       <c r="B52" t="s">
         <v>90</v>
       </c>
@@ -5548,14 +5559,14 @@
         <v>17</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="J52" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="51"/>
+      <c r="A53" s="52"/>
       <c r="B53" t="s">
         <v>52</v>
       </c>
@@ -5570,7 +5581,7 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="51"/>
+      <c r="A54" s="52"/>
       <c r="B54" t="s">
         <v>92</v>
       </c>
@@ -5583,7 +5594,7 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="51"/>
+      <c r="A55" s="52"/>
       <c r="B55" t="s">
         <v>94</v>
       </c>
@@ -5596,9 +5607,9 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="51"/>
-      <c r="B56" t="s">
-        <v>38</v>
+      <c r="A56" s="52"/>
+      <c r="B56" s="26" t="s">
+        <v>899</v>
       </c>
       <c r="C56" s="23" t="s">
         <v>718</v>
@@ -5609,7 +5620,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="51" t="s">
+      <c r="A57" s="52" t="s">
         <v>96</v>
       </c>
       <c r="B57" t="s">
@@ -5619,14 +5630,14 @@
         <v>11</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J57" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="51"/>
+      <c r="A58" s="52"/>
       <c r="B58" t="s">
         <v>97</v>
       </c>
@@ -5641,7 +5652,7 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="51"/>
+      <c r="A59" s="52"/>
       <c r="B59" t="s">
         <v>98</v>
       </c>
@@ -5656,7 +5667,7 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="51"/>
+      <c r="A60" s="52"/>
       <c r="B60" t="s">
         <v>100</v>
       </c>
@@ -5671,7 +5682,7 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="51"/>
+      <c r="A61" s="52"/>
       <c r="B61" t="s">
         <v>52</v>
       </c>
@@ -5684,9 +5695,9 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="51"/>
-      <c r="B62" t="s">
-        <v>38</v>
+      <c r="A62" s="52"/>
+      <c r="B62" s="26" t="s">
+        <v>899</v>
       </c>
       <c r="C62" s="23" t="s">
         <v>718</v>
@@ -5816,27 +5827,27 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="cellIs" dxfId="54" priority="2" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="74" priority="2" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:E1">
-    <cfRule type="cellIs" dxfId="53" priority="5" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="73" priority="5" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:H1">
-    <cfRule type="cellIs" dxfId="52" priority="3" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="72" priority="3" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="51" priority="4" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="71" priority="4" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="50" priority="1" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="70" priority="1" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5867,7 +5878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A15"/>
     </sheetView>
   </sheetViews>
@@ -5910,39 +5921,39 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="61" t="s">
+        <v>866</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>867</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="C2" s="22" t="s">
         <v>868</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>869</v>
-      </c>
       <c r="D2" s="30" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E2" s="31"/>
       <c r="F2" s="31"/>
       <c r="G2" s="31" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H2" s="31"/>
       <c r="I2" s="30"/>
       <c r="J2" s="27" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="60"/>
+      <c r="A3" s="61"/>
       <c r="B3" s="29" t="s">
         <v>721</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E3" s="31"/>
       <c r="F3" s="31"/>
@@ -5950,19 +5961,19 @@
       <c r="H3" s="31"/>
       <c r="I3" s="30"/>
       <c r="J3" s="27" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="60"/>
+      <c r="A4" s="61"/>
       <c r="B4" s="29" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>709</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
@@ -5970,19 +5981,19 @@
       <c r="H4" s="10"/>
       <c r="I4" s="23"/>
       <c r="J4" s="27" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="29" t="s">
-        <v>874</v>
-      </c>
-      <c r="C5" s="61" t="s">
+        <v>873</v>
+      </c>
+      <c r="C5" s="51" t="s">
         <v>709</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E5" s="31"/>
       <c r="F5" s="31"/>
@@ -5990,19 +6001,19 @@
       <c r="H5" s="31"/>
       <c r="I5" s="30"/>
       <c r="J5" s="27" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="61"/>
+      <c r="B6" s="29" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="60"/>
-      <c r="B6" s="29" t="s">
-        <v>876</v>
-      </c>
-      <c r="C6" s="61" t="s">
-        <v>869</v>
+      <c r="C6" s="51" t="s">
+        <v>868</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E6" s="34"/>
       <c r="F6" s="34"/>
@@ -6010,19 +6021,19 @@
       <c r="H6" s="34"/>
       <c r="I6" s="34"/>
       <c r="J6" s="27" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="60"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="29" t="s">
-        <v>877</v>
-      </c>
-      <c r="C7" s="61" t="s">
+        <v>876</v>
+      </c>
+      <c r="C7" s="51" t="s">
         <v>709</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E7" s="50"/>
       <c r="F7" s="24"/>
@@ -6030,19 +6041,19 @@
       <c r="H7" s="24"/>
       <c r="I7" s="24"/>
       <c r="J7" s="27" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="29" t="s">
+        <v>877</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>708</v>
+      </c>
+      <c r="D8" s="30" t="s">
         <v>878</v>
-      </c>
-      <c r="C8" s="61" t="s">
-        <v>708</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>879</v>
       </c>
       <c r="E8" s="50"/>
       <c r="F8" s="24"/>
@@ -6050,19 +6061,19 @@
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
       <c r="J8" s="27" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="60"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="29" t="s">
-        <v>880</v>
-      </c>
-      <c r="C9" s="61" t="s">
+        <v>879</v>
+      </c>
+      <c r="C9" s="51" t="s">
         <v>708</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E9" s="50"/>
       <c r="F9" s="24"/>
@@ -6070,19 +6081,19 @@
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
       <c r="J9" s="27" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="60"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="29" t="s">
-        <v>881</v>
-      </c>
-      <c r="C10" s="61" t="s">
+        <v>880</v>
+      </c>
+      <c r="C10" s="51" t="s">
         <v>709</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E10" s="50"/>
       <c r="F10" s="24"/>
@@ -6090,19 +6101,19 @@
       <c r="H10" s="24"/>
       <c r="I10" s="24"/>
       <c r="J10" s="27" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="60"/>
+      <c r="A11" s="61"/>
       <c r="B11" s="37" t="s">
-        <v>882</v>
-      </c>
-      <c r="C11" s="61" t="s">
+        <v>881</v>
+      </c>
+      <c r="C11" s="51" t="s">
         <v>709</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
@@ -6110,19 +6121,19 @@
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
       <c r="J11" s="35" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="60"/>
+      <c r="A12" s="61"/>
       <c r="B12" s="29" t="s">
-        <v>883</v>
-      </c>
-      <c r="C12" s="61" t="s">
+        <v>882</v>
+      </c>
+      <c r="C12" s="51" t="s">
         <v>709</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E12" s="50"/>
       <c r="F12" s="24"/>
@@ -6130,19 +6141,19 @@
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
       <c r="J12" s="27" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="60"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="29" t="s">
-        <v>884</v>
-      </c>
-      <c r="C13" s="61" t="s">
+        <v>883</v>
+      </c>
+      <c r="C13" s="51" t="s">
         <v>709</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E13" s="50"/>
       <c r="F13" s="24"/>
@@ -6150,15 +6161,15 @@
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
       <c r="J13" s="27" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="60"/>
+      <c r="A14" s="61"/>
       <c r="B14" s="29" t="s">
-        <v>885</v>
-      </c>
-      <c r="C14" s="61" t="s">
+        <v>884</v>
+      </c>
+      <c r="C14" s="51" t="s">
         <v>718</v>
       </c>
       <c r="D14" s="30"/>
@@ -6168,15 +6179,15 @@
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
       <c r="J14" s="27" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="60"/>
+      <c r="A15" s="61"/>
       <c r="B15" s="29" t="s">
-        <v>886</v>
-      </c>
-      <c r="C15" s="61" t="s">
+        <v>885</v>
+      </c>
+      <c r="C15" s="51" t="s">
         <v>718</v>
       </c>
       <c r="D15" s="30"/>
@@ -6186,11 +6197,11 @@
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
       <c r="J15" s="27" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="21"/>
       <c r="C16" s="22"/>
       <c r="D16" s="30"/>
@@ -6202,7 +6213,7 @@
       <c r="J16" s="27"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="21"/>
       <c r="C17" s="22"/>
       <c r="D17" s="30"/>
@@ -6215,7 +6226,7 @@
       <c r="L17" s="26"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="21"/>
       <c r="C18" s="22"/>
       <c r="D18" s="30"/>
@@ -6227,7 +6238,7 @@
       <c r="J18" s="27"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="21"/>
       <c r="C19" s="22"/>
       <c r="D19" s="30"/>
@@ -6239,7 +6250,7 @@
       <c r="J19" s="27"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="21"/>
       <c r="C20" s="22"/>
       <c r="D20" s="30"/>
@@ -6251,7 +6262,7 @@
       <c r="J20" s="27"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
+      <c r="A21" s="56"/>
       <c r="B21" s="29"/>
       <c r="C21" s="22"/>
       <c r="D21" s="30"/>
@@ -6263,7 +6274,7 @@
       <c r="J21" s="27"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="55"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="21"/>
       <c r="C22" s="22"/>
       <c r="D22" s="30"/>
@@ -6275,7 +6286,7 @@
       <c r="J22" s="27"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="21"/>
       <c r="C23" s="22"/>
       <c r="D23" s="30"/>
@@ -6287,7 +6298,7 @@
       <c r="J23" s="27"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="29"/>
       <c r="C24" s="22"/>
       <c r="D24" s="30"/>
@@ -6299,7 +6310,7 @@
       <c r="J24" s="27"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
+      <c r="A25" s="56"/>
       <c r="B25" s="29"/>
       <c r="C25" s="22"/>
       <c r="D25" s="30"/>
@@ -6402,7 +6413,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="56" t="s">
         <v>498</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -6419,7 +6430,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
+      <c r="A3" s="56"/>
       <c r="B3" s="5" t="s">
         <v>501</v>
       </c>
@@ -6434,7 +6445,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="5" t="s">
         <v>503</v>
       </c>
@@ -6449,7 +6460,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="5" t="s">
         <v>505</v>
       </c>
@@ -6464,7 +6475,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="5" t="s">
         <v>507</v>
       </c>
@@ -6476,7 +6487,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="5" t="s">
         <v>509</v>
       </c>
@@ -6488,7 +6499,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="5" t="s">
         <v>511</v>
       </c>
@@ -6500,7 +6511,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="5" t="s">
         <v>513</v>
       </c>
@@ -6512,7 +6523,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="5" t="s">
         <v>515</v>
       </c>
@@ -6527,7 +6538,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="5" t="s">
         <v>517</v>
       </c>
@@ -6542,7 +6553,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="5" t="s">
         <v>519</v>
       </c>
@@ -6557,7 +6568,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="5" t="s">
         <v>521</v>
       </c>
@@ -6572,7 +6583,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="5" t="s">
         <v>523</v>
       </c>
@@ -6587,7 +6598,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="5" t="s">
         <v>525</v>
       </c>
@@ -6602,7 +6613,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="5" t="s">
         <v>527</v>
       </c>
@@ -6617,7 +6628,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="5" t="s">
         <v>529</v>
       </c>
@@ -6632,7 +6643,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="5" t="s">
         <v>489</v>
       </c>
@@ -6647,7 +6658,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="5" t="s">
         <v>532</v>
       </c>
@@ -6662,7 +6673,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="55"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="5" t="s">
         <v>534</v>
       </c>
@@ -6677,7 +6688,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
+      <c r="A21" s="56"/>
       <c r="B21" s="5" t="s">
         <v>536</v>
       </c>
@@ -6692,7 +6703,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="55"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="5" t="s">
         <v>538</v>
       </c>
@@ -6707,7 +6718,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="5" t="s">
         <v>540</v>
       </c>
@@ -6722,7 +6733,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="55" t="s">
+      <c r="A24" s="56" t="s">
         <v>542</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -6739,7 +6750,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
+      <c r="A25" s="56"/>
       <c r="B25" s="5" t="s">
         <v>543</v>
       </c>
@@ -6754,7 +6765,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="5" t="s">
         <v>505</v>
       </c>
@@ -6769,7 +6780,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="55"/>
+      <c r="A27" s="56"/>
       <c r="B27" s="5" t="s">
         <v>546</v>
       </c>
@@ -6784,7 +6795,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="5" t="s">
         <v>548</v>
       </c>
@@ -6799,7 +6810,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
+      <c r="A29" s="56"/>
       <c r="B29" s="5" t="s">
         <v>515</v>
       </c>
@@ -6814,7 +6825,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="55"/>
+      <c r="A30" s="56"/>
       <c r="B30" s="5" t="s">
         <v>550</v>
       </c>
@@ -6829,7 +6840,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
+      <c r="A31" s="56"/>
       <c r="B31" s="5" t="s">
         <v>552</v>
       </c>
@@ -6844,7 +6855,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="55"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="5" t="s">
         <v>554</v>
       </c>
@@ -6859,7 +6870,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="55"/>
+      <c r="A33" s="56"/>
       <c r="B33" s="5" t="s">
         <v>556</v>
       </c>
@@ -6874,7 +6885,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="55"/>
+      <c r="A34" s="56"/>
       <c r="B34" s="5" t="s">
         <v>558</v>
       </c>
@@ -6889,7 +6900,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
+      <c r="A35" s="56"/>
       <c r="B35" s="5" t="s">
         <v>561</v>
       </c>
@@ -6904,13 +6915,13 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="55"/>
+      <c r="A36" s="56"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="J36" s="5"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
+      <c r="A37" s="56"/>
       <c r="B37" s="5" t="s">
         <v>563</v>
       </c>
@@ -6925,7 +6936,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="55"/>
+      <c r="A38" s="56"/>
       <c r="B38" s="5" t="s">
         <v>565</v>
       </c>
@@ -6940,7 +6951,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="55"/>
+      <c r="A39" s="56"/>
       <c r="B39" s="5" t="s">
         <v>566</v>
       </c>
@@ -6955,7 +6966,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="55"/>
+      <c r="A40" s="56"/>
       <c r="B40" s="5" t="s">
         <v>568</v>
       </c>
@@ -6970,13 +6981,13 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="55"/>
+      <c r="A41" s="56"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="J41" s="5"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="55"/>
+      <c r="A42" s="56"/>
       <c r="B42" s="5" t="s">
         <v>570</v>
       </c>
@@ -6991,7 +7002,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="55"/>
+      <c r="A43" s="56"/>
       <c r="B43" s="5" t="s">
         <v>572</v>
       </c>
@@ -7006,7 +7017,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="55"/>
+      <c r="A44" s="56"/>
       <c r="B44" s="5" t="s">
         <v>538</v>
       </c>
@@ -7021,7 +7032,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="55"/>
+      <c r="A45" s="56"/>
       <c r="B45" s="5" t="s">
         <v>575</v>
       </c>
@@ -7036,7 +7047,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="55"/>
+      <c r="A46" s="56"/>
       <c r="B46" s="5" t="s">
         <v>577</v>
       </c>
@@ -7051,7 +7062,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="55"/>
+      <c r="A47" s="56"/>
       <c r="B47" s="5" t="s">
         <v>579</v>
       </c>
@@ -7066,7 +7077,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="55"/>
+      <c r="A48" s="56"/>
       <c r="B48" s="5" t="s">
         <v>581</v>
       </c>
@@ -7081,7 +7092,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="55"/>
+      <c r="A49" s="56"/>
       <c r="B49" s="5" t="s">
         <v>583</v>
       </c>
@@ -7096,7 +7107,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="55"/>
+      <c r="A50" s="56"/>
       <c r="B50" s="5" t="s">
         <v>585</v>
       </c>
@@ -7108,13 +7119,13 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="55"/>
+      <c r="A51" s="56"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="J51" s="5"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="55"/>
+      <c r="A52" s="56"/>
       <c r="B52" s="5" t="s">
         <v>587</v>
       </c>
@@ -7129,7 +7140,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="55"/>
+      <c r="A53" s="56"/>
       <c r="B53" s="5" t="s">
         <v>589</v>
       </c>
@@ -7144,7 +7155,7 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="55"/>
+      <c r="A54" s="56"/>
       <c r="B54" s="5" t="s">
         <v>591</v>
       </c>
@@ -7159,7 +7170,7 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="55"/>
+      <c r="A55" s="56"/>
       <c r="B55" s="5" t="s">
         <v>593</v>
       </c>
@@ -7174,7 +7185,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="55"/>
+      <c r="A56" s="56"/>
       <c r="B56" s="5" t="s">
         <v>595</v>
       </c>
@@ -7189,7 +7200,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="55"/>
+      <c r="A57" s="56"/>
       <c r="B57" s="5" t="s">
         <v>597</v>
       </c>
@@ -7204,7 +7215,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="55"/>
+      <c r="A58" s="56"/>
       <c r="B58" s="5" t="s">
         <v>599</v>
       </c>
@@ -7219,7 +7230,7 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="55"/>
+      <c r="A59" s="56"/>
       <c r="B59" s="5" t="s">
         <v>601</v>
       </c>
@@ -7234,7 +7245,7 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="55"/>
+      <c r="A60" s="56"/>
       <c r="B60" s="5" t="s">
         <v>603</v>
       </c>
@@ -7249,7 +7260,7 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="55"/>
+      <c r="A61" s="56"/>
       <c r="B61" s="5" t="s">
         <v>605</v>
       </c>
@@ -7264,7 +7275,7 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="55"/>
+      <c r="A62" s="56"/>
       <c r="B62" s="5" t="s">
         <v>607</v>
       </c>
@@ -7279,7 +7290,7 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="55"/>
+      <c r="A63" s="56"/>
       <c r="B63" s="5" t="s">
         <v>609</v>
       </c>
@@ -7294,7 +7305,7 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="55"/>
+      <c r="A64" s="56"/>
       <c r="B64" s="5" t="s">
         <v>611</v>
       </c>
@@ -7309,7 +7320,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="55"/>
+      <c r="A65" s="56"/>
       <c r="B65" s="5" t="s">
         <v>613</v>
       </c>
@@ -7324,7 +7335,7 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="55"/>
+      <c r="A66" s="56"/>
       <c r="B66" s="5" t="s">
         <v>615</v>
       </c>
@@ -7339,13 +7350,13 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="55"/>
+      <c r="A67" s="56"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="J67" s="5"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="55"/>
+      <c r="A68" s="56"/>
       <c r="B68" s="5" t="s">
         <v>617</v>
       </c>
@@ -7357,7 +7368,7 @@
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="55"/>
+      <c r="A69" s="56"/>
       <c r="B69" s="5" t="s">
         <v>527</v>
       </c>
@@ -7372,7 +7383,7 @@
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="55"/>
+      <c r="A70" s="56"/>
       <c r="B70" s="5" t="s">
         <v>529</v>
       </c>
@@ -7387,7 +7398,7 @@
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="55"/>
+      <c r="A71" s="56"/>
       <c r="B71" s="5" t="s">
         <v>619</v>
       </c>
@@ -7402,13 +7413,13 @@
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="55"/>
+      <c r="A72" s="56"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="J72" s="5"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="55"/>
+      <c r="A73" s="56"/>
       <c r="B73" s="5" t="s">
         <v>621</v>
       </c>
@@ -7423,7 +7434,7 @@
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="55"/>
+      <c r="A74" s="56"/>
       <c r="B74" s="5" t="s">
         <v>623</v>
       </c>
@@ -7438,7 +7449,7 @@
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="55"/>
+      <c r="A75" s="56"/>
       <c r="B75" s="5" t="s">
         <v>625</v>
       </c>
@@ -7453,7 +7464,7 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="55"/>
+      <c r="A76" s="56"/>
       <c r="B76" s="5" t="s">
         <v>626</v>
       </c>
@@ -7468,7 +7479,7 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="55"/>
+      <c r="A77" s="56"/>
       <c r="B77" s="5" t="s">
         <v>628</v>
       </c>
@@ -7483,7 +7494,7 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="55"/>
+      <c r="A78" s="56"/>
       <c r="B78" s="5" t="s">
         <v>630</v>
       </c>
@@ -7498,7 +7509,7 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="55"/>
+      <c r="A79" s="56"/>
       <c r="B79" s="5" t="s">
         <v>632</v>
       </c>
@@ -7513,7 +7524,7 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="55"/>
+      <c r="A80" s="56"/>
       <c r="B80" s="5" t="s">
         <v>634</v>
       </c>
@@ -7528,7 +7539,7 @@
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="55"/>
+      <c r="A81" s="56"/>
       <c r="B81" s="5" t="s">
         <v>636</v>
       </c>
@@ -7543,7 +7554,7 @@
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="55"/>
+      <c r="A82" s="56"/>
       <c r="B82" s="5" t="s">
         <v>638</v>
       </c>
@@ -7558,7 +7569,7 @@
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="55"/>
+      <c r="A83" s="56"/>
       <c r="B83" s="5" t="s">
         <v>640</v>
       </c>
@@ -7573,7 +7584,7 @@
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="55"/>
+      <c r="A84" s="56"/>
       <c r="B84" s="5" t="s">
         <v>642</v>
       </c>
@@ -7588,7 +7599,7 @@
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="55"/>
+      <c r="A85" s="56"/>
       <c r="B85" s="5" t="s">
         <v>644</v>
       </c>
@@ -7603,7 +7614,7 @@
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="55"/>
+      <c r="A86" s="56"/>
       <c r="B86" s="5" t="s">
         <v>646</v>
       </c>
@@ -7618,7 +7629,7 @@
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="55"/>
+      <c r="A87" s="56"/>
       <c r="B87" s="5" t="s">
         <v>648</v>
       </c>
@@ -7633,7 +7644,7 @@
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="55"/>
+      <c r="A88" s="56"/>
       <c r="B88" s="5" t="s">
         <v>650</v>
       </c>
@@ -7648,7 +7659,7 @@
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="55"/>
+      <c r="A89" s="56"/>
       <c r="B89" s="5" t="s">
         <v>652</v>
       </c>
@@ -7663,7 +7674,7 @@
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="55"/>
+      <c r="A90" s="56"/>
       <c r="B90" s="5" t="s">
         <v>654</v>
       </c>
@@ -7678,13 +7689,13 @@
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="55"/>
+      <c r="A91" s="56"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="J91" s="5"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="55"/>
+      <c r="A92" s="56"/>
       <c r="B92" s="5" t="s">
         <v>656</v>
       </c>
@@ -7699,7 +7710,7 @@
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="55"/>
+      <c r="A93" s="56"/>
       <c r="B93" s="5" t="s">
         <v>658</v>
       </c>
@@ -7714,13 +7725,13 @@
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="55"/>
+      <c r="A94" s="56"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="J94" s="5"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="55"/>
+      <c r="A95" s="56"/>
       <c r="B95" s="5" t="s">
         <v>660</v>
       </c>
@@ -7735,7 +7746,7 @@
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="55"/>
+      <c r="A96" s="56"/>
       <c r="B96" s="5" t="s">
         <v>662</v>
       </c>
@@ -7750,7 +7761,7 @@
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="55"/>
+      <c r="A97" s="56"/>
       <c r="B97" s="5" t="s">
         <v>664</v>
       </c>
@@ -7762,13 +7773,13 @@
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="55"/>
+      <c r="A98" s="56"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="J98" s="5"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="55"/>
+      <c r="A99" s="56"/>
       <c r="B99" s="5" t="s">
         <v>666</v>
       </c>
@@ -7783,7 +7794,7 @@
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="55"/>
+      <c r="A100" s="56"/>
       <c r="B100" s="5" t="s">
         <v>668</v>
       </c>
@@ -7798,7 +7809,7 @@
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="55"/>
+      <c r="A101" s="56"/>
       <c r="B101" s="5" t="s">
         <v>670</v>
       </c>
@@ -7813,7 +7824,7 @@
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="55"/>
+      <c r="A102" s="56"/>
       <c r="B102" s="5" t="s">
         <v>672</v>
       </c>
@@ -7828,7 +7839,7 @@
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="55" t="s">
+      <c r="A103" s="56" t="s">
         <v>674</v>
       </c>
       <c r="B103" s="5" t="s">
@@ -7845,7 +7856,7 @@
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="55"/>
+      <c r="A104" s="56"/>
       <c r="B104" s="5" t="s">
         <v>676</v>
       </c>
@@ -7860,7 +7871,7 @@
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="55"/>
+      <c r="A105" s="56"/>
       <c r="B105" s="5" t="s">
         <v>678</v>
       </c>
@@ -7875,7 +7886,7 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="55"/>
+      <c r="A106" s="56"/>
       <c r="B106" s="5" t="s">
         <v>680</v>
       </c>
@@ -7890,7 +7901,7 @@
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="55"/>
+      <c r="A107" s="56"/>
       <c r="B107" s="5" t="s">
         <v>682</v>
       </c>
@@ -7905,7 +7916,7 @@
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="55"/>
+      <c r="A108" s="56"/>
       <c r="B108" s="5" t="s">
         <v>684</v>
       </c>
@@ -7920,7 +7931,7 @@
       </c>
     </row>
     <row r="109" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A109" s="55"/>
+      <c r="A109" s="56"/>
       <c r="B109" s="5" t="s">
         <v>686</v>
       </c>
@@ -7935,7 +7946,7 @@
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="55"/>
+      <c r="A110" s="56"/>
       <c r="B110" s="5" t="s">
         <v>688</v>
       </c>
@@ -7950,7 +7961,7 @@
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="55"/>
+      <c r="A111" s="56"/>
       <c r="B111" s="5" t="s">
         <v>690</v>
       </c>
@@ -7965,7 +7976,7 @@
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="55"/>
+      <c r="A112" s="56"/>
       <c r="B112" s="5" t="s">
         <v>692</v>
       </c>
@@ -7980,7 +7991,7 @@
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="55"/>
+      <c r="A113" s="56"/>
       <c r="B113" s="5" t="s">
         <v>694</v>
       </c>
@@ -7992,7 +8003,7 @@
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="55"/>
+      <c r="A114" s="56"/>
       <c r="B114" s="5" t="s">
         <v>696</v>
       </c>
@@ -8004,7 +8015,7 @@
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="55" t="s">
+      <c r="A115" s="56" t="s">
         <v>697</v>
       </c>
       <c r="B115" s="5" t="s">
@@ -8021,7 +8032,7 @@
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="55"/>
+      <c r="A116" s="56"/>
       <c r="B116" s="5" t="s">
         <v>676</v>
       </c>
@@ -8036,7 +8047,7 @@
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="55"/>
+      <c r="A117" s="56"/>
       <c r="B117" s="5" t="s">
         <v>678</v>
       </c>
@@ -8051,7 +8062,7 @@
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="55"/>
+      <c r="A118" s="56"/>
       <c r="B118" s="5" t="s">
         <v>682</v>
       </c>
@@ -8066,7 +8077,7 @@
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="55"/>
+      <c r="A119" s="56"/>
       <c r="B119" s="5" t="s">
         <v>587</v>
       </c>
@@ -8081,7 +8092,7 @@
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="55"/>
+      <c r="A120" s="56"/>
       <c r="B120" s="5" t="s">
         <v>589</v>
       </c>
@@ -8096,7 +8107,7 @@
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="55"/>
+      <c r="A121" s="56"/>
       <c r="B121" s="5" t="s">
         <v>591</v>
       </c>
@@ -8111,7 +8122,7 @@
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="55"/>
+      <c r="A122" s="56"/>
       <c r="B122" s="5" t="s">
         <v>593</v>
       </c>
@@ -8126,7 +8137,7 @@
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="55"/>
+      <c r="A123" s="56"/>
       <c r="B123" s="5" t="s">
         <v>595</v>
       </c>
@@ -8141,7 +8152,7 @@
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="55"/>
+      <c r="A124" s="56"/>
       <c r="B124" s="5" t="s">
         <v>597</v>
       </c>
@@ -8156,7 +8167,7 @@
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="55"/>
+      <c r="A125" s="56"/>
       <c r="B125" s="5" t="s">
         <v>599</v>
       </c>
@@ -8171,7 +8182,7 @@
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="55"/>
+      <c r="A126" s="56"/>
       <c r="B126" s="5" t="s">
         <v>601</v>
       </c>
@@ -8186,7 +8197,7 @@
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="55"/>
+      <c r="A127" s="56"/>
       <c r="B127" s="5" t="s">
         <v>603</v>
       </c>
@@ -8201,7 +8212,7 @@
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="55"/>
+      <c r="A128" s="56"/>
       <c r="B128" s="5" t="s">
         <v>605</v>
       </c>
@@ -8216,7 +8227,7 @@
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="55"/>
+      <c r="A129" s="56"/>
       <c r="B129" s="5" t="s">
         <v>607</v>
       </c>
@@ -8231,7 +8242,7 @@
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="55"/>
+      <c r="A130" s="56"/>
       <c r="B130" s="5" t="s">
         <v>609</v>
       </c>
@@ -8246,7 +8257,7 @@
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="55"/>
+      <c r="A131" s="56"/>
       <c r="B131" s="5" t="s">
         <v>611</v>
       </c>
@@ -8261,7 +8272,7 @@
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="55"/>
+      <c r="A132" s="56"/>
       <c r="B132" s="5" t="s">
         <v>613</v>
       </c>
@@ -8276,7 +8287,7 @@
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="55"/>
+      <c r="A133" s="56"/>
       <c r="B133" s="5" t="s">
         <v>615</v>
       </c>
@@ -8291,7 +8302,7 @@
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="55"/>
+      <c r="A134" s="56"/>
       <c r="B134" s="5" t="s">
         <v>699</v>
       </c>
@@ -8306,7 +8317,7 @@
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="55"/>
+      <c r="A135" s="56"/>
       <c r="B135" s="5" t="s">
         <v>701</v>
       </c>
@@ -8321,7 +8332,7 @@
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="55"/>
+      <c r="A136" s="56"/>
       <c r="B136" s="5" t="s">
         <v>703</v>
       </c>
@@ -8336,7 +8347,7 @@
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="55"/>
+      <c r="A137" s="56"/>
       <c r="B137" s="5" t="s">
         <v>696</v>
       </c>
@@ -8388,8 +8399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L132"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="A1:XFD39"/>
+    <sheetView topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8439,11 +8450,11 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
-        <v>856</v>
+      <c r="A2" s="54" t="s">
+        <v>855</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>17</v>
@@ -8457,13 +8468,13 @@
       <c r="H2" s="31"/>
       <c r="I2" s="30"/>
       <c r="J2" s="27" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="29" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>709</v>
@@ -8481,15 +8492,15 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="33" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C4" s="44" t="s">
         <v>709</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E4" s="36"/>
       <c r="F4" s="36"/>
@@ -8497,13 +8508,13 @@
       <c r="H4" s="36"/>
       <c r="I4" s="36"/>
       <c r="J4" s="49" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="29" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>709</v>
@@ -8517,21 +8528,21 @@
       <c r="H5" s="31"/>
       <c r="I5" s="30"/>
       <c r="J5" s="27" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="s">
-        <v>751</v>
+      <c r="A6" s="55" t="s">
+        <v>750</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E6" s="34"/>
       <c r="F6" s="34"/>
@@ -8539,11 +8550,11 @@
       <c r="H6" s="34"/>
       <c r="I6" s="34"/>
       <c r="J6" s="27" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="21" t="s">
         <v>102</v>
       </c>
@@ -8563,11 +8574,11 @@
       <c r="H7" s="24"/>
       <c r="I7" s="24"/>
       <c r="J7" s="27" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="21" t="s">
         <v>103</v>
       </c>
@@ -8585,11 +8596,11 @@
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
       <c r="J8" s="27" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="21" t="s">
         <v>104</v>
       </c>
@@ -8607,11 +8618,11 @@
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
       <c r="J9" s="27" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="21" t="s">
         <v>105</v>
       </c>
@@ -8631,19 +8642,19 @@
       <c r="H10" s="24"/>
       <c r="I10" s="24"/>
       <c r="J10" s="27" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="37" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
@@ -8651,11 +8662,11 @@
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
       <c r="J11" s="35" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="21" t="s">
         <v>106</v>
       </c>
@@ -8673,11 +8684,11 @@
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
       <c r="J12" s="27" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="21" t="s">
         <v>715</v>
       </c>
@@ -8695,11 +8706,11 @@
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
       <c r="J13" s="27" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="21" t="s">
         <v>108</v>
       </c>
@@ -8717,11 +8728,11 @@
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
       <c r="J14" s="27" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="21" t="s">
         <v>109</v>
       </c>
@@ -8739,11 +8750,11 @@
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
       <c r="J15" s="27" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="21" t="s">
         <v>110</v>
       </c>
@@ -8761,11 +8772,11 @@
       <c r="H16" s="24"/>
       <c r="I16" s="24"/>
       <c r="J16" s="27" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="21" t="s">
         <v>111</v>
       </c>
@@ -8783,11 +8794,11 @@
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
       <c r="J17" s="27" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="21" t="s">
         <v>112</v>
       </c>
@@ -8805,11 +8816,11 @@
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
       <c r="J18" s="27" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="21" t="s">
         <v>113</v>
       </c>
@@ -8827,11 +8838,11 @@
       <c r="H19" s="24"/>
       <c r="I19" s="24"/>
       <c r="J19" s="27" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="55"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="21" t="s">
         <v>114</v>
       </c>
@@ -8849,11 +8860,11 @@
       <c r="H20" s="24"/>
       <c r="I20" s="24"/>
       <c r="J20" s="27" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
+      <c r="A21" s="56"/>
       <c r="B21" s="21" t="s">
         <v>115</v>
       </c>
@@ -8871,11 +8882,11 @@
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
       <c r="J21" s="27" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="55"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="21" t="s">
         <v>116</v>
       </c>
@@ -8893,11 +8904,11 @@
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
       <c r="J22" s="27" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="21" t="s">
         <v>117</v>
       </c>
@@ -8915,11 +8926,11 @@
       <c r="H23" s="24"/>
       <c r="I23" s="24"/>
       <c r="J23" s="27" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="21" t="s">
         <v>118</v>
       </c>
@@ -8937,11 +8948,11 @@
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
       <c r="J24" s="27" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
+      <c r="A25" s="56"/>
       <c r="B25" s="21" t="s">
         <v>10</v>
       </c>
@@ -8959,11 +8970,11 @@
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
       <c r="J25" s="27" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="21" t="s">
         <v>119</v>
       </c>
@@ -8981,11 +8992,11 @@
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
       <c r="J26" s="27" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="55"/>
+      <c r="A27" s="56"/>
       <c r="B27" s="21" t="s">
         <v>120</v>
       </c>
@@ -9003,11 +9014,11 @@
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
       <c r="J27" s="27" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="21" t="s">
         <v>121</v>
       </c>
@@ -9027,13 +9038,13 @@
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
       <c r="J28" s="27" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
+      <c r="A29" s="56"/>
       <c r="B29" s="21" t="s">
-        <v>38</v>
+        <v>897</v>
       </c>
       <c r="C29" s="22" t="s">
         <v>718</v>
@@ -9047,7 +9058,7 @@
       <c r="J29" s="27"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="55" t="s">
+      <c r="A30" s="56" t="s">
         <v>719</v>
       </c>
       <c r="B30" s="21" t="s">
@@ -9057,7 +9068,7 @@
         <v>11</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>13</v>
@@ -9075,7 +9086,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
+      <c r="A31" s="56"/>
       <c r="B31" s="21" t="s">
         <v>722</v>
       </c>
@@ -9097,12 +9108,12 @@
       </c>
       <c r="I31" s="23"/>
       <c r="J31" s="27" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="L31" s="26"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="55"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="21" t="s">
         <v>122</v>
       </c>
@@ -9126,13 +9137,13 @@
       </c>
       <c r="I32" s="23"/>
       <c r="J32" s="27" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="55"/>
+      <c r="A33" s="56"/>
       <c r="B33" s="21" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C33" s="22" t="s">
         <v>17</v>
@@ -9146,12 +9157,12 @@
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
       <c r="J33" s="27" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="54" t="s">
-        <v>747</v>
+      <c r="A34" s="55" t="s">
+        <v>746</v>
       </c>
       <c r="B34" s="21" t="s">
         <v>721</v>
@@ -9160,7 +9171,7 @@
         <v>11</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>13</v>
@@ -9178,9 +9189,9 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
+      <c r="A35" s="56"/>
       <c r="B35" s="29" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C35" s="22" t="s">
         <v>17</v>
@@ -9204,15 +9215,15 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="55"/>
+      <c r="A36" s="56"/>
       <c r="B36" s="47" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C36" s="44" t="s">
         <v>709</v>
       </c>
       <c r="D36" s="45" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E36" s="48"/>
       <c r="F36" s="48"/>
@@ -9220,19 +9231,19 @@
       <c r="H36" s="48"/>
       <c r="I36" s="48"/>
       <c r="J36" s="46" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
+      <c r="A37" s="56"/>
       <c r="B37" s="47" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C37" s="44" t="s">
         <v>709</v>
       </c>
       <c r="D37" s="45" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E37" s="48"/>
       <c r="F37" s="48"/>
@@ -9240,19 +9251,19 @@
       <c r="H37" s="48"/>
       <c r="I37" s="48"/>
       <c r="J37" s="46" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="55"/>
+      <c r="A38" s="56"/>
       <c r="B38" s="29" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C38" s="22" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>13</v>
@@ -9270,7 +9281,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="55"/>
+      <c r="A39" s="56"/>
       <c r="B39" s="29" t="s">
         <v>725</v>
       </c>
@@ -9288,12 +9299,12 @@
       <c r="H39" s="10"/>
       <c r="I39" s="23"/>
       <c r="J39" s="27" t="s">
-        <v>726</v>
+        <v>898</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="57" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B40" s="21" t="s">
         <v>124</v>
@@ -9302,7 +9313,7 @@
         <v>11</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E40" s="24"/>
       <c r="F40" s="24"/>
@@ -9310,7 +9321,7 @@
       <c r="H40" s="24"/>
       <c r="I40" s="24"/>
       <c r="J40" s="27" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -9330,7 +9341,7 @@
       <c r="H41" s="24"/>
       <c r="I41" s="24"/>
       <c r="J41" s="27" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -9350,7 +9361,7 @@
       <c r="H42" s="24"/>
       <c r="I42" s="24"/>
       <c r="J42" s="27" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -9370,7 +9381,7 @@
       <c r="H43" s="24"/>
       <c r="I43" s="24"/>
       <c r="J43" s="27" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -9382,7 +9393,7 @@
         <v>11</v>
       </c>
       <c r="D44" s="30" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E44" s="24"/>
       <c r="F44" s="24"/>
@@ -9390,7 +9401,7 @@
       <c r="H44" s="24"/>
       <c r="I44" s="24"/>
       <c r="J44" s="27" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -9410,7 +9421,7 @@
       <c r="H45" s="24"/>
       <c r="I45" s="24"/>
       <c r="J45" s="27" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -9430,7 +9441,7 @@
       <c r="H46" s="24"/>
       <c r="I46" s="24"/>
       <c r="J46" s="27" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -9442,7 +9453,7 @@
         <v>11</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E47" s="24"/>
       <c r="F47" s="24"/>
@@ -9450,7 +9461,7 @@
       <c r="H47" s="24"/>
       <c r="I47" s="24"/>
       <c r="J47" s="27" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -9470,7 +9481,7 @@
       <c r="H48" s="24"/>
       <c r="I48" s="24"/>
       <c r="J48" s="27" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -9490,12 +9501,12 @@
       <c r="H49" s="24"/>
       <c r="I49" s="24"/>
       <c r="J49" s="27" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="54" t="s">
-        <v>729</v>
+      <c r="A50" s="55" t="s">
+        <v>728</v>
       </c>
       <c r="B50" s="21" t="s">
         <v>135</v>
@@ -9518,19 +9529,19 @@
       </c>
       <c r="I50" s="23"/>
       <c r="J50" s="27" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="54"/>
+      <c r="A51" s="55"/>
       <c r="B51" s="47" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C51" s="44" t="s">
         <v>709</v>
       </c>
       <c r="D51" s="45" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E51" s="48"/>
       <c r="F51" s="48"/>
@@ -9538,11 +9549,11 @@
       <c r="H51" s="48"/>
       <c r="I51" s="48"/>
       <c r="J51" s="46" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="55"/>
+      <c r="A52" s="56"/>
       <c r="B52" s="21" t="s">
         <v>136</v>
       </c>
@@ -9564,11 +9575,11 @@
       </c>
       <c r="I52" s="23"/>
       <c r="J52" s="27" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="55"/>
+      <c r="A53" s="56"/>
       <c r="B53" s="21" t="s">
         <v>52</v>
       </c>
@@ -9586,21 +9597,21 @@
       <c r="H53" s="10"/>
       <c r="I53" s="23"/>
       <c r="J53" s="27" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="54" t="s">
-        <v>842</v>
+      <c r="A54" s="55" t="s">
+        <v>841</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C54" s="22" t="s">
         <v>11</v>
       </c>
       <c r="D54" s="30" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
@@ -9608,19 +9619,19 @@
       <c r="H54" s="10"/>
       <c r="I54" s="23"/>
       <c r="J54" s="27" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="55"/>
+      <c r="A55" s="56"/>
       <c r="B55" s="47" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C55" s="44" t="s">
         <v>709</v>
       </c>
       <c r="D55" s="45" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E55" s="48"/>
       <c r="F55" s="48"/>
@@ -9628,11 +9639,11 @@
       <c r="H55" s="48"/>
       <c r="I55" s="48"/>
       <c r="J55" s="46" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="55"/>
+      <c r="A56" s="56"/>
       <c r="B56" s="21" t="s">
         <v>137</v>
       </c>
@@ -9648,11 +9659,11 @@
       <c r="H56" s="10"/>
       <c r="I56" s="23"/>
       <c r="J56" s="27" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="55"/>
+      <c r="A57" s="56"/>
       <c r="B57" s="21" t="s">
         <v>52</v>
       </c>
@@ -9668,12 +9679,12 @@
       <c r="H57" s="10"/>
       <c r="I57" s="23"/>
       <c r="J57" s="27" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="54" t="s">
-        <v>843</v>
+      <c r="A58" s="55" t="s">
+        <v>842</v>
       </c>
       <c r="B58" s="21" t="s">
         <v>139</v>
@@ -9682,7 +9693,7 @@
         <v>11</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
@@ -9690,19 +9701,19 @@
       <c r="H58" s="10"/>
       <c r="I58" s="23"/>
       <c r="J58" s="27" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="55"/>
+      <c r="A59" s="56"/>
       <c r="B59" s="47" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C59" s="44" t="s">
         <v>709</v>
       </c>
       <c r="D59" s="45" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E59" s="48"/>
       <c r="F59" s="48"/>
@@ -9710,11 +9721,11 @@
       <c r="H59" s="48"/>
       <c r="I59" s="48"/>
       <c r="J59" s="46" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="55"/>
+      <c r="A60" s="56"/>
       <c r="B60" s="21" t="s">
         <v>141</v>
       </c>
@@ -9730,11 +9741,11 @@
       <c r="H60" s="10"/>
       <c r="I60" s="23"/>
       <c r="J60" s="27" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="55"/>
+      <c r="A61" s="56"/>
       <c r="B61" s="21" t="s">
         <v>142</v>
       </c>
@@ -9750,19 +9761,19 @@
       <c r="H61" s="10"/>
       <c r="I61" s="23"/>
       <c r="J61" s="27" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="55"/>
+      <c r="A62" s="56"/>
       <c r="B62" s="21" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C62" s="22" t="s">
         <v>17</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
@@ -9770,11 +9781,11 @@
       <c r="H62" s="10"/>
       <c r="I62" s="23"/>
       <c r="J62" s="27" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="55"/>
+      <c r="A63" s="56"/>
       <c r="B63" s="21" t="s">
         <v>144</v>
       </c>
@@ -9790,11 +9801,11 @@
       <c r="H63" s="10"/>
       <c r="I63" s="23"/>
       <c r="J63" s="27" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="55"/>
+      <c r="A64" s="56"/>
       <c r="B64" s="21" t="s">
         <v>145</v>
       </c>
@@ -9810,11 +9821,11 @@
       <c r="H64" s="10"/>
       <c r="I64" s="23"/>
       <c r="J64" s="27" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="55"/>
+      <c r="A65" s="56"/>
       <c r="B65" s="21" t="s">
         <v>146</v>
       </c>
@@ -9830,13 +9841,13 @@
       <c r="H65" s="10"/>
       <c r="I65" s="23"/>
       <c r="J65" s="27" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="55"/>
+      <c r="A66" s="56"/>
       <c r="B66" s="21" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C66" s="22" t="s">
         <v>17</v>
@@ -9850,11 +9861,11 @@
       <c r="H66" s="10"/>
       <c r="I66" s="23"/>
       <c r="J66" s="27" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="55"/>
+      <c r="A67" s="56"/>
       <c r="B67" s="21" t="s">
         <v>147</v>
       </c>
@@ -9870,11 +9881,11 @@
       <c r="H67" s="10"/>
       <c r="I67" s="23"/>
       <c r="J67" s="27" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="55"/>
+      <c r="A68" s="56"/>
       <c r="B68" s="21" t="s">
         <v>148</v>
       </c>
@@ -9890,12 +9901,12 @@
       <c r="H68" s="10"/>
       <c r="I68" s="23"/>
       <c r="J68" s="27" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="54" t="s">
-        <v>844</v>
+      <c r="A69" s="55" t="s">
+        <v>843</v>
       </c>
       <c r="B69" s="21" t="s">
         <v>124</v>
@@ -9904,7 +9915,7 @@
         <v>11</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
@@ -9912,19 +9923,19 @@
       <c r="H69" s="10"/>
       <c r="I69" s="23"/>
       <c r="J69" s="27" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="55"/>
+      <c r="A70" s="56"/>
       <c r="B70" s="47" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C70" s="44" t="s">
         <v>709</v>
       </c>
       <c r="D70" s="45" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E70" s="48"/>
       <c r="F70" s="48"/>
@@ -9932,11 +9943,11 @@
       <c r="H70" s="48"/>
       <c r="I70" s="48"/>
       <c r="J70" s="46" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="55"/>
+      <c r="A71" s="56"/>
       <c r="B71" s="21" t="s">
         <v>149</v>
       </c>
@@ -9952,11 +9963,11 @@
       <c r="H71" s="24"/>
       <c r="I71" s="24"/>
       <c r="J71" s="27" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="55"/>
+      <c r="A72" s="56"/>
       <c r="B72" s="21" t="s">
         <v>150</v>
       </c>
@@ -9972,11 +9983,11 @@
       <c r="H72" s="24"/>
       <c r="I72" s="24"/>
       <c r="J72" s="27" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="55"/>
+      <c r="A73" s="56"/>
       <c r="B73" s="21" t="s">
         <v>152</v>
       </c>
@@ -9992,11 +10003,11 @@
       <c r="H73" s="24"/>
       <c r="I73" s="24"/>
       <c r="J73" s="27" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="55"/>
+      <c r="A74" s="56"/>
       <c r="B74" s="21" t="s">
         <v>148</v>
       </c>
@@ -10012,11 +10023,11 @@
       <c r="H74" s="24"/>
       <c r="I74" s="24"/>
       <c r="J74" s="27" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="55"/>
+      <c r="A75" s="56"/>
       <c r="B75" s="21" t="s">
         <v>52</v>
       </c>
@@ -10032,13 +10043,13 @@
       <c r="H75" s="24"/>
       <c r="I75" s="24"/>
       <c r="J75" s="27" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="55"/>
+      <c r="A76" s="56"/>
       <c r="B76" s="21" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C76" s="22" t="s">
         <v>23</v>
@@ -10052,11 +10063,11 @@
       <c r="H76" s="24"/>
       <c r="I76" s="24"/>
       <c r="J76" s="27" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="55"/>
+      <c r="A77" s="56"/>
       <c r="B77" s="21" t="s">
         <v>136</v>
       </c>
@@ -10064,7 +10075,7 @@
         <v>17</v>
       </c>
       <c r="D77" s="30" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E77" s="24"/>
       <c r="F77" s="24"/>
@@ -10072,21 +10083,21 @@
       <c r="H77" s="24"/>
       <c r="I77" s="24"/>
       <c r="J77" s="27" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="54" t="s">
-        <v>845</v>
+      <c r="A78" s="55" t="s">
+        <v>844</v>
       </c>
       <c r="B78" s="47" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C78" s="44" t="s">
         <v>709</v>
       </c>
       <c r="D78" s="45" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E78" s="48"/>
       <c r="F78" s="48"/>
@@ -10094,11 +10105,11 @@
       <c r="H78" s="48"/>
       <c r="I78" s="48"/>
       <c r="J78" s="46" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="55"/>
+      <c r="A79" s="56"/>
       <c r="B79" s="21" t="s">
         <v>154</v>
       </c>
@@ -10114,11 +10125,11 @@
       <c r="H79" s="24"/>
       <c r="I79" s="24"/>
       <c r="J79" s="27" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="55"/>
+      <c r="A80" s="56"/>
       <c r="B80" s="21" t="s">
         <v>155</v>
       </c>
@@ -10134,11 +10145,11 @@
       <c r="H80" s="24"/>
       <c r="I80" s="24"/>
       <c r="J80" s="27" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="55"/>
+      <c r="A81" s="56"/>
       <c r="B81" s="21" t="s">
         <v>156</v>
       </c>
@@ -10154,11 +10165,11 @@
       <c r="H81" s="24"/>
       <c r="I81" s="24"/>
       <c r="J81" s="27" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="55"/>
+      <c r="A82" s="56"/>
       <c r="B82" s="21" t="s">
         <v>157</v>
       </c>
@@ -10174,19 +10185,19 @@
       <c r="H82" s="24"/>
       <c r="I82" s="24"/>
       <c r="J82" s="27" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="55"/>
+      <c r="A83" s="56"/>
       <c r="B83" s="29" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C83" s="22" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="30" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E83" s="24"/>
       <c r="F83" s="24"/>
@@ -10194,11 +10205,11 @@
       <c r="H83" s="24"/>
       <c r="I83" s="24"/>
       <c r="J83" s="27" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="55"/>
+      <c r="A84" s="56"/>
       <c r="B84" s="21" t="s">
         <v>52</v>
       </c>
@@ -10214,12 +10225,12 @@
       <c r="H84" s="24"/>
       <c r="I84" s="24"/>
       <c r="J84" s="27" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="54" t="s">
-        <v>846</v>
+      <c r="A85" s="55" t="s">
+        <v>845</v>
       </c>
       <c r="B85" s="21" t="s">
         <v>159</v>
@@ -10228,7 +10239,7 @@
         <v>11</v>
       </c>
       <c r="D85" s="30" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E85" s="24"/>
       <c r="F85" s="24"/>
@@ -10236,19 +10247,19 @@
       <c r="H85" s="24"/>
       <c r="I85" s="24"/>
       <c r="J85" s="27" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="55"/>
+      <c r="A86" s="56"/>
       <c r="B86" s="47" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C86" s="44" t="s">
         <v>709</v>
       </c>
       <c r="D86" s="45" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E86" s="48"/>
       <c r="F86" s="48"/>
@@ -10256,11 +10267,11 @@
       <c r="H86" s="48"/>
       <c r="I86" s="48"/>
       <c r="J86" s="46" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="55"/>
+      <c r="A87" s="56"/>
       <c r="B87" s="21" t="s">
         <v>160</v>
       </c>
@@ -10276,13 +10287,13 @@
       <c r="H87" s="24"/>
       <c r="I87" s="24"/>
       <c r="J87" s="27" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="55"/>
+      <c r="A88" s="56"/>
       <c r="B88" s="21" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C88" s="22" t="s">
         <v>17</v>
@@ -10296,11 +10307,11 @@
       <c r="H88" s="24"/>
       <c r="I88" s="24"/>
       <c r="J88" s="27" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="55"/>
+      <c r="A89" s="56"/>
       <c r="B89" s="21" t="s">
         <v>161</v>
       </c>
@@ -10316,11 +10327,11 @@
       <c r="H89" s="24"/>
       <c r="I89" s="24"/>
       <c r="J89" s="27" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="55"/>
+      <c r="A90" s="56"/>
       <c r="B90" s="21" t="s">
         <v>52</v>
       </c>
@@ -10336,12 +10347,12 @@
       <c r="H90" s="24"/>
       <c r="I90" s="24"/>
       <c r="J90" s="27" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="54" t="s">
-        <v>847</v>
+      <c r="A91" s="55" t="s">
+        <v>846</v>
       </c>
       <c r="B91" s="21" t="s">
         <v>162</v>
@@ -10350,7 +10361,7 @@
         <v>11</v>
       </c>
       <c r="D91" s="30" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E91" s="24"/>
       <c r="F91" s="24"/>
@@ -10358,19 +10369,19 @@
       <c r="H91" s="24"/>
       <c r="I91" s="24"/>
       <c r="J91" s="27" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="55"/>
+      <c r="A92" s="56"/>
       <c r="B92" s="47" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C92" s="44" t="s">
         <v>709</v>
       </c>
       <c r="D92" s="45" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E92" s="48"/>
       <c r="F92" s="48"/>
@@ -10378,11 +10389,11 @@
       <c r="H92" s="48"/>
       <c r="I92" s="48"/>
       <c r="J92" s="46" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="55"/>
+      <c r="A93" s="56"/>
       <c r="B93" s="21" t="s">
         <v>88</v>
       </c>
@@ -10398,11 +10409,11 @@
       <c r="H93" s="24"/>
       <c r="I93" s="24"/>
       <c r="J93" s="27" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="55"/>
+      <c r="A94" s="56"/>
       <c r="B94" s="21" t="s">
         <v>163</v>
       </c>
@@ -10418,11 +10429,11 @@
       <c r="H94" s="24"/>
       <c r="I94" s="24"/>
       <c r="J94" s="27" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="55"/>
+      <c r="A95" s="56"/>
       <c r="B95" s="21" t="s">
         <v>164</v>
       </c>
@@ -10438,19 +10449,19 @@
       <c r="H95" s="24"/>
       <c r="I95" s="24"/>
       <c r="J95" s="27" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="55"/>
+      <c r="A96" s="56"/>
       <c r="B96" s="21" t="s">
         <v>165</v>
       </c>
       <c r="C96" s="22" t="s">
+        <v>736</v>
+      </c>
+      <c r="D96" s="30" t="s">
         <v>737</v>
-      </c>
-      <c r="D96" s="30" t="s">
-        <v>738</v>
       </c>
       <c r="E96" s="24"/>
       <c r="F96" s="24"/>
@@ -10458,21 +10469,21 @@
       <c r="H96" s="24"/>
       <c r="I96" s="24"/>
       <c r="J96" s="27" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="54" t="s">
-        <v>848</v>
+      <c r="A97" s="55" t="s">
+        <v>847</v>
       </c>
       <c r="B97" s="47" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C97" s="44" t="s">
         <v>709</v>
       </c>
       <c r="D97" s="45" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E97" s="48"/>
       <c r="F97" s="48"/>
@@ -10480,11 +10491,11 @@
       <c r="H97" s="48"/>
       <c r="I97" s="48"/>
       <c r="J97" s="46" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="55"/>
+      <c r="A98" s="56"/>
       <c r="B98" s="21" t="s">
         <v>166</v>
       </c>
@@ -10492,7 +10503,7 @@
         <v>11</v>
       </c>
       <c r="D98" s="30" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E98" s="24"/>
       <c r="F98" s="24"/>
@@ -10500,11 +10511,11 @@
       <c r="H98" s="24"/>
       <c r="I98" s="24"/>
       <c r="J98" s="27" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="55"/>
+      <c r="A99" s="56"/>
       <c r="B99" s="21" t="s">
         <v>167</v>
       </c>
@@ -10512,7 +10523,7 @@
         <v>11</v>
       </c>
       <c r="D99" s="30" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E99" s="24"/>
       <c r="F99" s="24"/>
@@ -10520,21 +10531,21 @@
       <c r="H99" s="24"/>
       <c r="I99" s="24"/>
       <c r="J99" s="27" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="54" t="s">
-        <v>849</v>
+      <c r="A100" s="55" t="s">
+        <v>848</v>
       </c>
       <c r="B100" s="47" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C100" s="44" t="s">
         <v>709</v>
       </c>
       <c r="D100" s="45" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E100" s="48"/>
       <c r="F100" s="48"/>
@@ -10542,11 +10553,11 @@
       <c r="H100" s="48"/>
       <c r="I100" s="48"/>
       <c r="J100" s="46" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="55"/>
+      <c r="A101" s="56"/>
       <c r="B101" s="21" t="s">
         <v>166</v>
       </c>
@@ -10554,7 +10565,7 @@
         <v>11</v>
       </c>
       <c r="D101" s="30" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E101" s="24"/>
       <c r="F101" s="24"/>
@@ -10562,11 +10573,11 @@
       <c r="H101" s="24"/>
       <c r="I101" s="24"/>
       <c r="J101" s="27" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="55"/>
+      <c r="A102" s="56"/>
       <c r="B102" s="21" t="s">
         <v>168</v>
       </c>
@@ -10574,7 +10585,7 @@
         <v>11</v>
       </c>
       <c r="D102" s="30" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E102" s="24"/>
       <c r="F102" s="24"/>
@@ -10582,21 +10593,21 @@
       <c r="H102" s="24"/>
       <c r="I102" s="24"/>
       <c r="J102" s="27" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="54" t="s">
-        <v>850</v>
+      <c r="A103" s="55" t="s">
+        <v>849</v>
       </c>
       <c r="B103" s="47" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C103" s="44" t="s">
         <v>709</v>
       </c>
       <c r="D103" s="45" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E103" s="48"/>
       <c r="F103" s="48"/>
@@ -10604,11 +10615,11 @@
       <c r="H103" s="48"/>
       <c r="I103" s="48"/>
       <c r="J103" s="46" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="55"/>
+      <c r="A104" s="56"/>
       <c r="B104" s="21" t="s">
         <v>166</v>
       </c>
@@ -10616,7 +10627,7 @@
         <v>11</v>
       </c>
       <c r="D104" s="30" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E104" s="24"/>
       <c r="F104" s="24"/>
@@ -10624,11 +10635,11 @@
       <c r="H104" s="24"/>
       <c r="I104" s="24"/>
       <c r="J104" s="27" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="55"/>
+      <c r="A105" s="56"/>
       <c r="B105" s="21" t="s">
         <v>170</v>
       </c>
@@ -10636,7 +10647,7 @@
         <v>11</v>
       </c>
       <c r="D105" s="30" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E105" s="24"/>
       <c r="F105" s="24"/>
@@ -10644,21 +10655,21 @@
       <c r="H105" s="24"/>
       <c r="I105" s="24"/>
       <c r="J105" s="27" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="54" t="s">
-        <v>851</v>
+      <c r="A106" s="55" t="s">
+        <v>850</v>
       </c>
       <c r="B106" s="47" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C106" s="44" t="s">
         <v>709</v>
       </c>
       <c r="D106" s="45" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E106" s="48"/>
       <c r="F106" s="48"/>
@@ -10666,11 +10677,11 @@
       <c r="H106" s="48"/>
       <c r="I106" s="48"/>
       <c r="J106" s="46" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="55"/>
+      <c r="A107" s="56"/>
       <c r="B107" s="21" t="s">
         <v>166</v>
       </c>
@@ -10678,7 +10689,7 @@
         <v>11</v>
       </c>
       <c r="D107" s="30" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E107" s="24"/>
       <c r="F107" s="24"/>
@@ -10686,11 +10697,11 @@
       <c r="H107" s="24"/>
       <c r="I107" s="24"/>
       <c r="J107" s="27" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="55"/>
+      <c r="A108" s="56"/>
       <c r="B108" s="21" t="s">
         <v>171</v>
       </c>
@@ -10698,7 +10709,7 @@
         <v>11</v>
       </c>
       <c r="D108" s="30" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E108" s="24"/>
       <c r="F108" s="24"/>
@@ -10706,11 +10717,11 @@
       <c r="H108" s="24"/>
       <c r="I108" s="24"/>
       <c r="J108" s="27" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="53" t="s">
+      <c r="A109" s="59" t="s">
         <v>172</v>
       </c>
       <c r="B109" s="21" t="s">
@@ -10728,13 +10739,13 @@
       <c r="H109" s="24"/>
       <c r="I109" s="24"/>
       <c r="J109" s="27" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="53"/>
+      <c r="A110" s="59"/>
       <c r="B110" s="29" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C110" s="22" t="s">
         <v>17</v>
@@ -10748,11 +10759,11 @@
       <c r="H110" s="24"/>
       <c r="I110" s="24"/>
       <c r="J110" s="27" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="53"/>
+      <c r="A111" s="59"/>
       <c r="B111" s="21" t="s">
         <v>174</v>
       </c>
@@ -10768,11 +10779,11 @@
       <c r="H111" s="24"/>
       <c r="I111" s="24"/>
       <c r="J111" s="27" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="53"/>
+      <c r="A112" s="59"/>
       <c r="B112" s="21" t="s">
         <v>175</v>
       </c>
@@ -10788,11 +10799,11 @@
       <c r="H112" s="24"/>
       <c r="I112" s="24"/>
       <c r="J112" s="27" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="53" t="s">
+      <c r="A113" s="59" t="s">
         <v>176</v>
       </c>
       <c r="B113" s="21" t="s">
@@ -10810,11 +10821,11 @@
       <c r="H113" s="24"/>
       <c r="I113" s="24"/>
       <c r="J113" s="27" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="53"/>
+      <c r="A114" s="59"/>
       <c r="B114" s="21" t="s">
         <v>177</v>
       </c>
@@ -10830,11 +10841,11 @@
       <c r="H114" s="24"/>
       <c r="I114" s="24"/>
       <c r="J114" s="27" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="53"/>
+      <c r="A115" s="59"/>
       <c r="B115" s="21" t="s">
         <v>178</v>
       </c>
@@ -10850,11 +10861,11 @@
       <c r="H115" s="24"/>
       <c r="I115" s="24"/>
       <c r="J115" s="27" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="53"/>
+      <c r="A116" s="59"/>
       <c r="B116" s="21" t="s">
         <v>179</v>
       </c>
@@ -10870,11 +10881,11 @@
       <c r="H116" s="24"/>
       <c r="I116" s="24"/>
       <c r="J116" s="27" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="53" t="s">
+      <c r="A117" s="59" t="s">
         <v>180</v>
       </c>
       <c r="B117" s="21" t="s">
@@ -10892,11 +10903,11 @@
       <c r="H117" s="24"/>
       <c r="I117" s="24"/>
       <c r="J117" s="27" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="53"/>
+      <c r="A118" s="59"/>
       <c r="B118" s="21" t="s">
         <v>181</v>
       </c>
@@ -10912,16 +10923,16 @@
       <c r="H118" s="24"/>
       <c r="I118" s="24"/>
       <c r="J118" s="27" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="53"/>
+      <c r="A119" s="59"/>
       <c r="B119" s="21" t="s">
         <v>182</v>
       </c>
       <c r="C119" s="22" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D119" s="30"/>
       <c r="E119" s="24"/>
@@ -10930,16 +10941,16 @@
       <c r="H119" s="24"/>
       <c r="I119" s="24"/>
       <c r="J119" s="27" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="53"/>
+      <c r="A120" s="59"/>
       <c r="B120" s="21" t="s">
         <v>183</v>
       </c>
       <c r="C120" s="22" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D120" s="30"/>
       <c r="E120" s="24"/>
@@ -10948,12 +10959,12 @@
       <c r="H120" s="24"/>
       <c r="I120" s="24"/>
       <c r="J120" s="27" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="53" t="s">
-        <v>836</v>
+      <c r="A121" s="59" t="s">
+        <v>835</v>
       </c>
       <c r="B121" s="21" t="s">
         <v>107</v>
@@ -10970,13 +10981,13 @@
       <c r="H121" s="24"/>
       <c r="I121" s="24"/>
       <c r="J121" s="27" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="53"/>
+      <c r="A122" s="59"/>
       <c r="B122" s="29" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C122" s="22" t="s">
         <v>17</v>
@@ -10990,16 +11001,16 @@
       <c r="H122" s="24"/>
       <c r="I122" s="24"/>
       <c r="J122" s="27" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="53"/>
+      <c r="A123" s="59"/>
       <c r="B123" s="21" t="s">
         <v>184</v>
       </c>
       <c r="C123" s="22" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D123" s="30"/>
       <c r="E123" s="24"/>
@@ -11008,11 +11019,11 @@
       <c r="H123" s="24"/>
       <c r="I123" s="24"/>
       <c r="J123" s="27" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="53"/>
+      <c r="A124" s="59"/>
       <c r="B124" s="21" t="s">
         <v>185</v>
       </c>
@@ -11028,7 +11039,7 @@
       <c r="H124" s="24"/>
       <c r="I124" s="24"/>
       <c r="J124" s="27" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
@@ -11055,6 +11066,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="A121:A124"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="A106:A108"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="A100:A102"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="A58:A68"/>
+    <mergeCell ref="A78:A84"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A29"/>
     <mergeCell ref="A69:A77"/>
@@ -11064,41 +11086,30 @@
     <mergeCell ref="A40:A49"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="A100:A102"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="A58:A68"/>
-    <mergeCell ref="A78:A84"/>
-    <mergeCell ref="A117:A120"/>
-    <mergeCell ref="A121:A124"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="A106:A108"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="cellIs" dxfId="49" priority="2" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="60" priority="2" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:E1">
-    <cfRule type="cellIs" dxfId="48" priority="5" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="59" priority="5" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:H1">
-    <cfRule type="cellIs" dxfId="47" priority="3" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="58" priority="3" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="46" priority="4" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="57" priority="4" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="45" priority="1" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="56" priority="1" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11165,7 +11176,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="60" t="s">
         <v>186</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -11193,7 +11204,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A3" s="59"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="15" t="s">
         <v>136</v>
       </c>
@@ -11219,7 +11230,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A4" s="59"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="15" t="s">
         <v>137</v>
       </c>
@@ -11245,7 +11256,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A5" s="59"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="15" t="s">
         <v>190</v>
       </c>
@@ -11271,7 +11282,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A6" s="59"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="15" t="s">
         <v>192</v>
       </c>
@@ -11297,7 +11308,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="59"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="15" t="s">
         <v>194</v>
       </c>
@@ -11323,7 +11334,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="59"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="15" t="s">
         <v>196</v>
       </c>
@@ -11349,7 +11360,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A9" s="59"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="15" t="s">
         <v>198</v>
       </c>
@@ -11375,7 +11386,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A10" s="59"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="15" t="s">
         <v>148</v>
       </c>
@@ -11401,7 +11412,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A11" s="59"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="15" t="s">
         <v>201</v>
       </c>
@@ -11427,7 +11438,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A12" s="59"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="12" t="s">
         <v>203</v>
       </c>
@@ -11453,7 +11464,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A13" s="59"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="12" t="s">
         <v>205</v>
       </c>
@@ -11479,7 +11490,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A14" s="59"/>
+      <c r="A14" s="60"/>
       <c r="B14" s="15" t="s">
         <v>207</v>
       </c>
@@ -11505,7 +11516,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="60" t="s">
         <v>209</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -11533,7 +11544,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A16" s="59"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="12" t="s">
         <v>212</v>
       </c>
@@ -11559,7 +11570,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A17" s="59"/>
+      <c r="A17" s="60"/>
       <c r="B17" s="12" t="s">
         <v>214</v>
       </c>
@@ -11585,7 +11596,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A18" s="59"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="12" t="s">
         <v>216</v>
       </c>
@@ -11611,7 +11622,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A19" s="59"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="12" t="s">
         <v>218</v>
       </c>
@@ -11637,7 +11648,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A20" s="59"/>
+      <c r="A20" s="60"/>
       <c r="B20" s="12" t="s">
         <v>220</v>
       </c>
@@ -11663,7 +11674,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A21" s="59"/>
+      <c r="A21" s="60"/>
       <c r="B21" s="12" t="s">
         <v>222</v>
       </c>
@@ -11689,7 +11700,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A22" s="59"/>
+      <c r="A22" s="60"/>
       <c r="B22" s="12" t="s">
         <v>224</v>
       </c>
@@ -11715,7 +11726,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A23" s="59"/>
+      <c r="A23" s="60"/>
       <c r="B23" s="12" t="s">
         <v>226</v>
       </c>
@@ -11741,7 +11752,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A24" s="59"/>
+      <c r="A24" s="60"/>
       <c r="B24" s="12" t="s">
         <v>228</v>
       </c>
@@ -11767,7 +11778,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A25" s="59"/>
+      <c r="A25" s="60"/>
       <c r="B25" s="12" t="s">
         <v>52</v>
       </c>
@@ -11793,7 +11804,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="60" t="s">
         <v>230</v>
       </c>
       <c r="B26" s="15" t="s">
@@ -11821,7 +11832,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A27" s="59"/>
+      <c r="A27" s="60"/>
       <c r="B27" s="15" t="s">
         <v>233</v>
       </c>
@@ -11847,7 +11858,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A28" s="59"/>
+      <c r="A28" s="60"/>
       <c r="B28" s="15" t="s">
         <v>234</v>
       </c>
@@ -11873,7 +11884,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A29" s="59"/>
+      <c r="A29" s="60"/>
       <c r="B29" s="15" t="s">
         <v>52</v>
       </c>
@@ -11899,7 +11910,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A30" s="59" t="s">
+      <c r="A30" s="60" t="s">
         <v>236</v>
       </c>
       <c r="B30" s="15" t="s">
@@ -11927,7 +11938,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A31" s="59"/>
+      <c r="A31" s="60"/>
       <c r="B31" s="15" t="s">
         <v>201</v>
       </c>
@@ -11953,7 +11964,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A32" s="59"/>
+      <c r="A32" s="60"/>
       <c r="B32" s="15" t="s">
         <v>240</v>
       </c>
@@ -11979,7 +11990,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A33" s="59"/>
+      <c r="A33" s="60"/>
       <c r="B33" s="15" t="s">
         <v>52</v>
       </c>
@@ -12005,7 +12016,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A34" s="59" t="s">
+      <c r="A34" s="60" t="s">
         <v>242</v>
       </c>
       <c r="B34" s="15" t="s">
@@ -12033,7 +12044,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A35" s="59"/>
+      <c r="A35" s="60"/>
       <c r="B35" s="15" t="s">
         <v>245</v>
       </c>
@@ -12059,7 +12070,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A36" s="59"/>
+      <c r="A36" s="60"/>
       <c r="B36" s="15" t="s">
         <v>247</v>
       </c>
@@ -12085,7 +12096,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A37" s="59"/>
+      <c r="A37" s="60"/>
       <c r="B37" s="15" t="s">
         <v>52</v>
       </c>
@@ -12111,7 +12122,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A38" s="59" t="s">
+      <c r="A38" s="60" t="s">
         <v>249</v>
       </c>
       <c r="B38" s="15" t="s">
@@ -12139,7 +12150,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A39" s="59"/>
+      <c r="A39" s="60"/>
       <c r="B39" s="15" t="s">
         <v>250</v>
       </c>
@@ -12165,7 +12176,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A40" s="59"/>
+      <c r="A40" s="60"/>
       <c r="B40" s="15" t="s">
         <v>252</v>
       </c>
@@ -12191,7 +12202,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A41" s="59"/>
+      <c r="A41" s="60"/>
       <c r="B41" s="15" t="s">
         <v>201</v>
       </c>
@@ -12217,7 +12228,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A42" s="59" t="s">
+      <c r="A42" s="60" t="s">
         <v>254</v>
       </c>
       <c r="B42" s="12" t="s">
@@ -12245,7 +12256,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A43" s="59"/>
+      <c r="A43" s="60"/>
       <c r="B43" s="12" t="s">
         <v>255</v>
       </c>
@@ -12271,7 +12282,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A44" s="59"/>
+      <c r="A44" s="60"/>
       <c r="B44" s="12" t="s">
         <v>257</v>
       </c>
@@ -12297,7 +12308,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A45" s="59"/>
+      <c r="A45" s="60"/>
       <c r="B45" s="12" t="s">
         <v>259</v>
       </c>
@@ -12323,7 +12334,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A46" s="59"/>
+      <c r="A46" s="60"/>
       <c r="B46" s="12" t="s">
         <v>261</v>
       </c>
@@ -12349,7 +12360,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A47" s="59"/>
+      <c r="A47" s="60"/>
       <c r="B47" s="12" t="s">
         <v>263</v>
       </c>
@@ -12375,7 +12386,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A48" s="59"/>
+      <c r="A48" s="60"/>
       <c r="B48" s="12" t="s">
         <v>265</v>
       </c>
@@ -12401,7 +12412,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A49" s="59"/>
+      <c r="A49" s="60"/>
       <c r="B49" s="12" t="s">
         <v>267</v>
       </c>
@@ -12427,7 +12438,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A50" s="59"/>
+      <c r="A50" s="60"/>
       <c r="B50" s="12" t="s">
         <v>269</v>
       </c>
@@ -12453,7 +12464,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A51" s="59"/>
+      <c r="A51" s="60"/>
       <c r="B51" s="12" t="s">
         <v>271</v>
       </c>
@@ -12479,7 +12490,7 @@
       </c>
     </row>
     <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A52" s="59" t="s">
+      <c r="A52" s="60" t="s">
         <v>273</v>
       </c>
       <c r="B52" s="12" t="s">
@@ -12507,7 +12518,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A53" s="59"/>
+      <c r="A53" s="60"/>
       <c r="B53" s="12" t="s">
         <v>275</v>
       </c>
@@ -12533,7 +12544,7 @@
       </c>
     </row>
     <row r="54" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A54" s="59"/>
+      <c r="A54" s="60"/>
       <c r="B54" s="12" t="s">
         <v>277</v>
       </c>
@@ -12559,7 +12570,7 @@
       </c>
     </row>
     <row r="55" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A55" s="59"/>
+      <c r="A55" s="60"/>
       <c r="B55" s="12" t="s">
         <v>279</v>
       </c>
@@ -12585,7 +12596,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A56" s="59"/>
+      <c r="A56" s="60"/>
       <c r="B56" s="12" t="s">
         <v>281</v>
       </c>
@@ -12611,7 +12622,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A57" s="59"/>
+      <c r="A57" s="60"/>
       <c r="B57" s="12" t="s">
         <v>282</v>
       </c>
@@ -12637,7 +12648,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A58" s="59"/>
+      <c r="A58" s="60"/>
       <c r="B58" s="12" t="s">
         <v>19</v>
       </c>
@@ -12663,7 +12674,7 @@
       </c>
     </row>
     <row r="59" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A59" s="59"/>
+      <c r="A59" s="60"/>
       <c r="B59" s="12" t="s">
         <v>261</v>
       </c>
@@ -12689,7 +12700,7 @@
       </c>
     </row>
     <row r="60" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A60" s="59"/>
+      <c r="A60" s="60"/>
       <c r="B60" s="12" t="s">
         <v>284</v>
       </c>
@@ -12715,7 +12726,7 @@
       </c>
     </row>
     <row r="61" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A61" s="59"/>
+      <c r="A61" s="60"/>
       <c r="B61" s="12" t="s">
         <v>263</v>
       </c>
@@ -12741,7 +12752,7 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A62" s="59"/>
+      <c r="A62" s="60"/>
       <c r="B62" s="12" t="s">
         <v>257</v>
       </c>
@@ -12767,7 +12778,7 @@
       </c>
     </row>
     <row r="63" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A63" s="59"/>
+      <c r="A63" s="60"/>
       <c r="B63" s="12" t="s">
         <v>286</v>
       </c>
@@ -12793,7 +12804,7 @@
       </c>
     </row>
     <row r="64" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A64" s="59"/>
+      <c r="A64" s="60"/>
       <c r="B64" s="12" t="s">
         <v>265</v>
       </c>
@@ -12819,7 +12830,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A65" s="59"/>
+      <c r="A65" s="60"/>
       <c r="B65" s="12" t="s">
         <v>288</v>
       </c>
@@ -12845,7 +12856,7 @@
       </c>
     </row>
     <row r="66" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A66" s="59"/>
+      <c r="A66" s="60"/>
       <c r="B66" s="12" t="s">
         <v>289</v>
       </c>
@@ -12871,7 +12882,7 @@
       </c>
     </row>
     <row r="67" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A67" s="59"/>
+      <c r="A67" s="60"/>
       <c r="B67" s="12" t="s">
         <v>267</v>
       </c>
@@ -12897,7 +12908,7 @@
       </c>
     </row>
     <row r="68" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A68" s="59"/>
+      <c r="A68" s="60"/>
       <c r="B68" s="12" t="s">
         <v>290</v>
       </c>
@@ -12923,7 +12934,7 @@
       </c>
     </row>
     <row r="69" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A69" s="59"/>
+      <c r="A69" s="60"/>
       <c r="B69" s="12" t="s">
         <v>201</v>
       </c>
@@ -12949,7 +12960,7 @@
       </c>
     </row>
     <row r="70" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A70" s="59"/>
+      <c r="A70" s="60"/>
       <c r="B70" s="12" t="s">
         <v>293</v>
       </c>
@@ -12975,7 +12986,7 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A71" s="59"/>
+      <c r="A71" s="60"/>
       <c r="B71" s="12" t="s">
         <v>294</v>
       </c>
@@ -13001,7 +13012,7 @@
       </c>
     </row>
     <row r="72" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A72" s="59"/>
+      <c r="A72" s="60"/>
       <c r="B72" s="12" t="s">
         <v>295</v>
       </c>
@@ -13027,7 +13038,7 @@
       </c>
     </row>
     <row r="73" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A73" s="59"/>
+      <c r="A73" s="60"/>
       <c r="B73" s="12" t="s">
         <v>296</v>
       </c>
@@ -13053,7 +13064,7 @@
       </c>
     </row>
     <row r="74" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A74" s="59"/>
+      <c r="A74" s="60"/>
       <c r="B74" s="12" t="s">
         <v>198</v>
       </c>
@@ -13079,7 +13090,7 @@
       </c>
     </row>
     <row r="75" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A75" s="59"/>
+      <c r="A75" s="60"/>
       <c r="B75" s="12" t="s">
         <v>297</v>
       </c>
@@ -13105,7 +13116,7 @@
       </c>
     </row>
     <row r="76" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A76" s="59"/>
+      <c r="A76" s="60"/>
       <c r="B76" s="12" t="s">
         <v>299</v>
       </c>
@@ -13131,7 +13142,7 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A77" s="59"/>
+      <c r="A77" s="60"/>
       <c r="B77" s="12" t="s">
         <v>300</v>
       </c>
@@ -13157,7 +13168,7 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A78" s="59"/>
+      <c r="A78" s="60"/>
       <c r="B78" s="12" t="s">
         <v>301</v>
       </c>
@@ -13183,7 +13194,7 @@
       </c>
     </row>
     <row r="79" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A79" s="59"/>
+      <c r="A79" s="60"/>
       <c r="B79" s="12" t="s">
         <v>302</v>
       </c>
@@ -13209,7 +13220,7 @@
       </c>
     </row>
     <row r="80" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A80" s="59"/>
+      <c r="A80" s="60"/>
       <c r="B80" s="12" t="s">
         <v>303</v>
       </c>
@@ -13235,7 +13246,7 @@
       </c>
     </row>
     <row r="81" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A81" s="59"/>
+      <c r="A81" s="60"/>
       <c r="B81" s="12" t="s">
         <v>304</v>
       </c>
@@ -13261,7 +13272,7 @@
       </c>
     </row>
     <row r="82" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A82" s="59"/>
+      <c r="A82" s="60"/>
       <c r="B82" s="12" t="s">
         <v>305</v>
       </c>
@@ -13287,7 +13298,7 @@
       </c>
     </row>
     <row r="83" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A83" s="59"/>
+      <c r="A83" s="60"/>
       <c r="B83" s="12" t="s">
         <v>306</v>
       </c>
@@ -13313,7 +13324,7 @@
       </c>
     </row>
     <row r="84" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A84" s="59"/>
+      <c r="A84" s="60"/>
       <c r="B84" s="12" t="s">
         <v>307</v>
       </c>
@@ -13339,7 +13350,7 @@
       </c>
     </row>
     <row r="85" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A85" s="59"/>
+      <c r="A85" s="60"/>
       <c r="B85" s="12" t="s">
         <v>259</v>
       </c>
@@ -13365,7 +13376,7 @@
       </c>
     </row>
     <row r="86" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A86" s="59"/>
+      <c r="A86" s="60"/>
       <c r="B86" s="12" t="s">
         <v>308</v>
       </c>
@@ -13391,7 +13402,7 @@
       </c>
     </row>
     <row r="87" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A87" s="59"/>
+      <c r="A87" s="60"/>
       <c r="B87" s="12" t="s">
         <v>309</v>
       </c>
@@ -13417,7 +13428,7 @@
       </c>
     </row>
     <row r="88" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A88" s="59"/>
+      <c r="A88" s="60"/>
       <c r="B88" s="12" t="s">
         <v>311</v>
       </c>
@@ -13443,7 +13454,7 @@
       </c>
     </row>
     <row r="89" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A89" s="59"/>
+      <c r="A89" s="60"/>
       <c r="B89" s="12" t="s">
         <v>313</v>
       </c>
@@ -13469,7 +13480,7 @@
       </c>
     </row>
     <row r="90" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A90" s="59"/>
+      <c r="A90" s="60"/>
       <c r="B90" s="12" t="s">
         <v>315</v>
       </c>
@@ -13495,7 +13506,7 @@
       </c>
     </row>
     <row r="91" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A91" s="59"/>
+      <c r="A91" s="60"/>
       <c r="B91" s="12" t="s">
         <v>317</v>
       </c>
@@ -13521,7 +13532,7 @@
       </c>
     </row>
     <row r="92" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A92" s="59"/>
+      <c r="A92" s="60"/>
       <c r="B92" s="12" t="s">
         <v>318</v>
       </c>
@@ -13547,7 +13558,7 @@
       </c>
     </row>
     <row r="93" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A93" s="59" t="s">
+      <c r="A93" s="60" t="s">
         <v>320</v>
       </c>
       <c r="B93" s="12" t="s">
@@ -13575,7 +13586,7 @@
       </c>
     </row>
     <row r="94" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A94" s="59"/>
+      <c r="A94" s="60"/>
       <c r="B94" s="12" t="s">
         <v>322</v>
       </c>
@@ -13696,7 +13707,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="56" t="s">
         <v>324</v>
       </c>
       <c r="B2" t="s">
@@ -13714,7 +13725,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
+      <c r="A3" s="56"/>
       <c r="B3" t="s">
         <v>327</v>
       </c>
@@ -13730,7 +13741,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
+      <c r="A4" s="56"/>
       <c r="B4" t="s">
         <v>329</v>
       </c>
@@ -13741,7 +13752,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="56" t="s">
         <v>331</v>
       </c>
       <c r="B5" t="s">
@@ -13759,7 +13770,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
+      <c r="A6" s="56"/>
       <c r="B6" t="s">
         <v>333</v>
       </c>
@@ -13775,7 +13786,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
+      <c r="A7" s="56"/>
       <c r="B7" t="s">
         <v>335</v>
       </c>
@@ -13791,7 +13802,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
+      <c r="A8" s="56"/>
       <c r="B8" t="s">
         <v>337</v>
       </c>
@@ -13807,7 +13818,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
+      <c r="A9" s="56"/>
       <c r="B9" t="s">
         <v>339</v>
       </c>
@@ -13823,7 +13834,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="56" t="s">
         <v>341</v>
       </c>
       <c r="B10" t="s">
@@ -13841,7 +13852,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
+      <c r="A11" s="56"/>
       <c r="B11" t="s">
         <v>342</v>
       </c>
@@ -13857,7 +13868,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
+      <c r="A12" s="56"/>
       <c r="B12" t="s">
         <v>344</v>
       </c>
@@ -13964,7 +13975,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="55"/>
+      <c r="A2" s="56"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="10"/>
@@ -13975,7 +13986,7 @@
       <c r="K2" s="11"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
+      <c r="A3" s="56"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="10"/>
@@ -13986,7 +13997,7 @@
       <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
+      <c r="A4" s="56"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="10"/>
@@ -13997,7 +14008,7 @@
       <c r="K4" s="11"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
+      <c r="A5" s="56"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="10"/>
@@ -14008,7 +14019,7 @@
       <c r="K5" s="11"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
+      <c r="A6" s="56"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="10"/>
@@ -14019,7 +14030,7 @@
       <c r="K6" s="11"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
+      <c r="A7" s="56"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="10"/>
@@ -14030,7 +14041,7 @@
       <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
+      <c r="A8" s="56"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="10"/>
@@ -14041,7 +14052,7 @@
       <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
+      <c r="A9" s="56"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="10"/>
@@ -14052,7 +14063,7 @@
       <c r="K9" s="11"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
+      <c r="A10" s="56"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="10"/>
@@ -14063,13 +14074,13 @@
       <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
+      <c r="A11" s="56"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="K11" s="11"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
+      <c r="A12" s="56"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="10"/>
@@ -14080,7 +14091,7 @@
       <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
+      <c r="A13" s="56"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="10"/>
@@ -14091,7 +14102,7 @@
       <c r="K13" s="11"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
+      <c r="A14" s="56"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="10"/>
@@ -14102,7 +14113,7 @@
       <c r="K14" s="11"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
+      <c r="A15" s="56"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="10"/>
@@ -14113,7 +14124,7 @@
       <c r="K15" s="11"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
+      <c r="A16" s="56"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="10"/>
@@ -14124,7 +14135,7 @@
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
+      <c r="A17" s="56"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="10"/>
@@ -14135,7 +14146,7 @@
       <c r="K17" s="11"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
+      <c r="A18" s="56"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="10"/>
@@ -14146,7 +14157,7 @@
       <c r="K18" s="11"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
+      <c r="A19" s="56"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="10"/>
@@ -14157,7 +14168,7 @@
       <c r="K19" s="11"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="55"/>
+      <c r="A20" s="56"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="10"/>
@@ -14168,7 +14179,7 @@
       <c r="K20" s="11"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
+      <c r="A21" s="56"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="10"/>
@@ -14179,7 +14190,7 @@
       <c r="K21" s="11"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="55"/>
+      <c r="A22" s="56"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="10"/>
@@ -14190,7 +14201,7 @@
       <c r="K22" s="11"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
+      <c r="A23" s="56"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="10"/>
@@ -14201,7 +14212,7 @@
       <c r="K23" s="11"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
+      <c r="A24" s="56"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="10"/>
@@ -14212,7 +14223,7 @@
       <c r="K24" s="11"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
+      <c r="A25" s="56"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="10"/>
@@ -14223,151 +14234,151 @@
       <c r="K25" s="11"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
+      <c r="A26" s="56"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="K26" s="11"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="55"/>
+      <c r="A27" s="56"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="K27" s="11"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
+      <c r="A28" s="56"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="K28" s="11"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
+      <c r="A29" s="56"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="K29" s="11"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="55"/>
+      <c r="A30" s="56"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="K30" s="11"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
+      <c r="A31" s="56"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="K31" s="11"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="55"/>
+      <c r="A32" s="56"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="K32" s="11"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="55"/>
+      <c r="A33" s="56"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="K33" s="11"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="55"/>
+      <c r="A34" s="56"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="K34" s="11"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
+      <c r="A35" s="56"/>
       <c r="K35" s="11"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="55"/>
+      <c r="A36" s="56"/>
       <c r="K36" s="11"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
+      <c r="A37" s="56"/>
       <c r="K37" s="11"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="55"/>
+      <c r="A38" s="56"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="K38" s="11"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="55"/>
+      <c r="A39" s="56"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="K39" s="11"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="55"/>
+      <c r="A40" s="56"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="K40" s="11"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="55"/>
+      <c r="A41" s="56"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="K41" s="11"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="55"/>
+      <c r="A42" s="56"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="K42" s="11"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="55"/>
+      <c r="A43" s="56"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="K43" s="11"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="55"/>
+      <c r="A44" s="56"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="K44" s="11"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="55"/>
+      <c r="A45" s="56"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="K45" s="11"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="55"/>
+      <c r="A46" s="56"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="K46" s="11"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="55"/>
+      <c r="A47" s="56"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="K47" s="11"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="55"/>
+      <c r="A48" s="56"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="K48" s="11"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="55"/>
+      <c r="A49" s="56"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="K49" s="11"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="55"/>
+      <c r="A50" s="56"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="K50" s="11"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="55"/>
+      <c r="A51" s="56"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="K51" s="11"/>
@@ -14468,7 +14479,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="56" t="s">
         <v>346</v>
       </c>
       <c r="B2" t="s">
@@ -14490,7 +14501,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
+      <c r="A3" s="56"/>
       <c r="B3" t="s">
         <v>123</v>
       </c>
@@ -14510,7 +14521,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
+      <c r="A4" s="56"/>
       <c r="B4" t="s">
         <v>97</v>
       </c>
@@ -14530,7 +14541,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
+      <c r="A5" s="56"/>
       <c r="B5" t="s">
         <v>168</v>
       </c>
@@ -14550,7 +14561,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
+      <c r="A6" s="56"/>
       <c r="B6" t="s">
         <v>143</v>
       </c>
@@ -14570,7 +14581,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
+      <c r="A7" s="56"/>
       <c r="B7" t="s">
         <v>352</v>
       </c>
@@ -14590,7 +14601,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
+      <c r="A8" s="56"/>
       <c r="B8" t="s">
         <v>354</v>
       </c>
@@ -14610,7 +14621,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
+      <c r="A9" s="56"/>
       <c r="B9" t="s">
         <v>356</v>
       </c>
@@ -14630,7 +14641,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
+      <c r="A10" s="56"/>
       <c r="B10" t="s">
         <v>358</v>
       </c>
@@ -14650,7 +14661,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
+      <c r="A11" s="56"/>
       <c r="B11" t="s">
         <v>360</v>
       </c>
@@ -14670,7 +14681,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
+      <c r="A12" s="56"/>
       <c r="B12" t="s">
         <v>362</v>
       </c>
@@ -14690,7 +14701,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
+      <c r="A13" s="56"/>
       <c r="B13" t="s">
         <v>364</v>
       </c>
@@ -14710,7 +14721,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
+      <c r="A14" s="56"/>
       <c r="B14" t="s">
         <v>366</v>
       </c>
@@ -14730,7 +14741,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
+      <c r="A15" s="56"/>
       <c r="B15" t="s">
         <v>367</v>
       </c>
@@ -14750,7 +14761,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
+      <c r="A16" s="56"/>
       <c r="B16" t="s">
         <v>38</v>
       </c>
@@ -14766,7 +14777,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="55" t="s">
+      <c r="A17" s="56" t="s">
         <v>371</v>
       </c>
       <c r="B17" t="s">
@@ -14788,7 +14799,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
+      <c r="A18" s="56"/>
       <c r="B18" t="s">
         <v>168</v>
       </c>
@@ -14808,7 +14819,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
+      <c r="A19" s="56"/>
       <c r="B19" t="s">
         <v>141</v>
       </c>
@@ -14828,7 +14839,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="55"/>
+      <c r="A20" s="56"/>
       <c r="B20" t="s">
         <v>259</v>
       </c>
@@ -14848,7 +14859,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
+      <c r="A21" s="56"/>
       <c r="B21" t="s">
         <v>374</v>
       </c>
@@ -14868,7 +14879,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="55"/>
+      <c r="A22" s="56"/>
       <c r="B22" t="s">
         <v>376</v>
       </c>
@@ -14888,7 +14899,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
+      <c r="A23" s="56"/>
       <c r="B23" t="s">
         <v>378</v>
       </c>
@@ -14908,7 +14919,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
+      <c r="A24" s="56"/>
       <c r="B24" t="s">
         <v>380</v>
       </c>
@@ -14928,7 +14939,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
+      <c r="A25" s="56"/>
       <c r="B25" t="s">
         <v>382</v>
       </c>
@@ -14948,7 +14959,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
+      <c r="A26" s="56"/>
       <c r="B26" t="s">
         <v>384</v>
       </c>
@@ -14968,7 +14979,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="55"/>
+      <c r="A27" s="56"/>
       <c r="B27" t="s">
         <v>386</v>
       </c>
@@ -14988,7 +14999,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
+      <c r="A28" s="56"/>
       <c r="B28" t="s">
         <v>38</v>
       </c>
@@ -15004,7 +15015,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="55" t="s">
+      <c r="A29" s="56" t="s">
         <v>388</v>
       </c>
       <c r="B29" t="s">
@@ -15025,7 +15036,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="55"/>
+      <c r="A30" s="56"/>
       <c r="B30" t="s">
         <v>168</v>
       </c>
@@ -15044,7 +15055,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
+      <c r="A31" s="56"/>
       <c r="B31" t="s">
         <v>390</v>
       </c>
@@ -15063,7 +15074,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="55"/>
+      <c r="A32" s="56"/>
       <c r="B32" t="s">
         <v>123</v>
       </c>
@@ -15082,7 +15093,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="55" t="s">
+      <c r="A33" s="56" t="s">
         <v>392</v>
       </c>
       <c r="B33" t="s">
@@ -15103,7 +15114,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="55"/>
+      <c r="A34" s="56"/>
       <c r="B34" t="s">
         <v>168</v>
       </c>
@@ -15122,7 +15133,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
+      <c r="A35" s="56"/>
       <c r="B35" t="s">
         <v>123</v>
       </c>
@@ -15141,7 +15152,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="55"/>
+      <c r="A36" s="56"/>
       <c r="B36" t="s">
         <v>38</v>
       </c>
@@ -15248,7 +15259,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="56" t="s">
         <v>393</v>
       </c>
       <c r="B2" t="s">
@@ -15266,7 +15277,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
+      <c r="A3" s="56"/>
       <c r="B3" t="s">
         <v>136</v>
       </c>
@@ -15282,7 +15293,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
+      <c r="A4" s="56"/>
       <c r="B4" t="s">
         <v>201</v>
       </c>
@@ -15295,12 +15306,12 @@
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
+      <c r="A5" s="56"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="56" t="s">
         <v>395</v>
       </c>
       <c r="B6" t="s">
@@ -15318,7 +15329,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
+      <c r="A7" s="56"/>
       <c r="B7" t="s">
         <v>397</v>
       </c>
@@ -15334,7 +15345,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
+      <c r="A8" s="56"/>
       <c r="B8" t="s">
         <v>201</v>
       </c>
@@ -15350,7 +15361,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
+      <c r="A9" s="56"/>
       <c r="B9" t="s">
         <v>399</v>
       </c>
@@ -15366,7 +15377,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
+      <c r="A10" s="56"/>
       <c r="B10" t="s">
         <v>401</v>
       </c>
@@ -15382,7 +15393,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A11" s="55"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="12" t="s">
         <v>403</v>
       </c>
@@ -15398,7 +15409,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="9" t="s">
         <v>405</v>
       </c>
@@ -15414,7 +15425,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="9" t="s">
         <v>407</v>
       </c>
@@ -15430,7 +15441,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="9" t="s">
         <v>409</v>
       </c>
@@ -15446,7 +15457,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="9" t="s">
         <v>411</v>
       </c>
@@ -15462,7 +15473,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="9" t="s">
         <v>413</v>
       </c>
@@ -15478,7 +15489,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="9" t="s">
         <v>415</v>
       </c>
@@ -15494,7 +15505,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="9" t="s">
         <v>417</v>
       </c>
@@ -15510,7 +15521,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="9" t="s">
         <v>419</v>
       </c>
@@ -15526,7 +15537,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="55"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="9" t="s">
         <v>421</v>
       </c>
@@ -15542,7 +15553,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
+      <c r="A21" s="56"/>
       <c r="B21" s="9" t="s">
         <v>116</v>
       </c>
@@ -15555,7 +15566,7 @@
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="55"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="9" t="s">
         <v>423</v>
       </c>
@@ -15568,7 +15579,7 @@
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="55" t="s">
+      <c r="A23" s="56" t="s">
         <v>424</v>
       </c>
       <c r="C23" s="8"/>
@@ -15580,7 +15591,7 @@
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
+      <c r="A24" s="56"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="10"/>
@@ -15590,7 +15601,7 @@
       <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
+      <c r="A25" s="56"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="10"/>
@@ -15600,7 +15611,7 @@
       <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
+      <c r="A26" s="56"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="10"/>
@@ -15764,7 +15775,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="56" t="s">
         <v>425</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -15783,7 +15794,7 @@
       <c r="K2" s="11"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
+      <c r="A3" s="56"/>
       <c r="B3" s="9" t="s">
         <v>428</v>
       </c>
@@ -15800,7 +15811,7 @@
       <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="9" t="s">
         <v>430</v>
       </c>
@@ -15817,7 +15828,7 @@
       <c r="K4" s="11"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="9" t="s">
         <v>432</v>
       </c>
@@ -15834,7 +15845,7 @@
       <c r="K5" s="11"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="9" t="s">
         <v>434</v>
       </c>
@@ -15851,7 +15862,7 @@
       <c r="K6" s="11"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="9" t="s">
         <v>436</v>
       </c>
@@ -15868,7 +15879,7 @@
       <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
+      <c r="A8" s="56"/>
       <c r="B8" t="s">
         <v>38</v>
       </c>
@@ -15885,7 +15896,7 @@
       <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="56" t="s">
         <v>438</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -15904,7 +15915,7 @@
       <c r="K9" s="11"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="9" t="s">
         <v>439</v>
       </c>
@@ -15921,7 +15932,7 @@
       <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="9" t="s">
         <v>441</v>
       </c>
@@ -15938,7 +15949,7 @@
       <c r="K11" s="11"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="9" t="s">
         <v>443</v>
       </c>
@@ -15950,7 +15961,7 @@
       <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="9" t="s">
         <v>445</v>
       </c>
@@ -15967,7 +15978,7 @@
       <c r="K13" s="11"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="9" t="s">
         <v>447</v>
       </c>
@@ -15984,7 +15995,7 @@
       <c r="K14" s="11"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
+      <c r="A15" s="56"/>
       <c r="B15" t="s">
         <v>38</v>
       </c>
@@ -16001,7 +16012,7 @@
       <c r="K15" s="11"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="56" t="s">
         <v>449</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -16020,7 +16031,7 @@
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="9" t="s">
         <v>428</v>
       </c>
@@ -16037,7 +16048,7 @@
       <c r="K17" s="11"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="9" t="s">
         <v>426</v>
       </c>
@@ -16049,7 +16060,7 @@
       <c r="K18" s="11"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="9" t="s">
         <v>451</v>
       </c>
@@ -16061,7 +16072,7 @@
       <c r="K19" s="11"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="55"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="9" t="s">
         <v>453</v>
       </c>
@@ -16073,7 +16084,7 @@
       <c r="K20" s="11"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
+      <c r="A21" s="56"/>
       <c r="B21" s="9" t="s">
         <v>455</v>
       </c>
@@ -16085,7 +16096,7 @@
       <c r="K21" s="11"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="55"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="9" t="s">
         <v>457</v>
       </c>
@@ -16097,7 +16108,7 @@
       <c r="K22" s="11"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="9" t="s">
         <v>459</v>
       </c>
@@ -16109,7 +16120,7 @@
       <c r="K23" s="11"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="9" t="s">
         <v>286</v>
       </c>
@@ -16121,7 +16132,7 @@
       <c r="K24" s="11"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
+      <c r="A25" s="56"/>
       <c r="B25" s="9" t="s">
         <v>201</v>
       </c>
@@ -16131,7 +16142,7 @@
       <c r="K25" s="11"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
+      <c r="A26" s="56"/>
       <c r="B26" t="s">
         <v>38</v>
       </c>
@@ -16141,7 +16152,7 @@
       <c r="K26" s="11"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="55" t="s">
+      <c r="A27" s="56" t="s">
         <v>462</v>
       </c>
       <c r="B27" s="9" t="s">
@@ -16155,7 +16166,7 @@
       <c r="K27" s="11"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="9" t="s">
         <v>366</v>
       </c>
@@ -16167,7 +16178,7 @@
       <c r="K28" s="11"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
+      <c r="A29" s="56"/>
       <c r="B29" s="9" t="s">
         <v>463</v>
       </c>
@@ -16179,7 +16190,7 @@
       <c r="K29" s="11"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="55"/>
+      <c r="A30" s="56"/>
       <c r="B30" s="9" t="s">
         <v>465</v>
       </c>
@@ -16191,7 +16202,7 @@
       <c r="K30" s="11"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
+      <c r="A31" s="56"/>
       <c r="B31" s="9" t="s">
         <v>467</v>
       </c>
@@ -16203,7 +16214,7 @@
       <c r="K31" s="11"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="55"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="9" t="s">
         <v>469</v>
       </c>
@@ -16212,7 +16223,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="55"/>
+      <c r="A33" s="56"/>
       <c r="B33" s="9" t="s">
         <v>471</v>
       </c>
@@ -16221,7 +16232,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="55"/>
+      <c r="A34" s="56"/>
       <c r="B34" s="9" t="s">
         <v>426</v>
       </c>
@@ -16230,7 +16241,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
+      <c r="A35" s="56"/>
       <c r="B35" s="9" t="s">
         <v>428</v>
       </c>
@@ -16239,7 +16250,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="55"/>
+      <c r="A36" s="56"/>
       <c r="B36" s="9" t="s">
         <v>439</v>
       </c>
@@ -16248,7 +16259,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
+      <c r="A37" s="56"/>
       <c r="B37" s="9" t="s">
         <v>475</v>
       </c>
@@ -16257,7 +16268,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="55"/>
+      <c r="A38" s="56"/>
       <c r="B38" s="9" t="s">
         <v>453</v>
       </c>
@@ -16266,7 +16277,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="55"/>
+      <c r="A39" s="56"/>
       <c r="B39" s="9" t="s">
         <v>476</v>
       </c>
@@ -16275,7 +16286,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="55"/>
+      <c r="A40" s="56"/>
       <c r="B40" s="9" t="s">
         <v>56</v>
       </c>
@@ -16284,7 +16295,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="55"/>
+      <c r="A41" s="56"/>
       <c r="B41" s="9" t="s">
         <v>478</v>
       </c>
@@ -16293,7 +16304,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="55"/>
+      <c r="A42" s="56"/>
       <c r="B42" s="9" t="s">
         <v>480</v>
       </c>
@@ -16302,7 +16313,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="55"/>
+      <c r="A43" s="56"/>
       <c r="B43" s="9" t="s">
         <v>482</v>
       </c>
@@ -16311,7 +16322,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="55"/>
+      <c r="A44" s="56"/>
       <c r="B44" s="9" t="s">
         <v>366</v>
       </c>
@@ -16320,7 +16331,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="55"/>
+      <c r="A45" s="56"/>
       <c r="B45" t="s">
         <v>38</v>
       </c>
@@ -16329,7 +16340,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="55" t="s">
+      <c r="A46" s="56" t="s">
         <v>484</v>
       </c>
       <c r="B46" s="9" t="s">
@@ -16340,7 +16351,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="55"/>
+      <c r="A47" s="56"/>
       <c r="B47" s="9" t="s">
         <v>465</v>
       </c>
@@ -16349,7 +16360,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="55"/>
+      <c r="A48" s="56"/>
       <c r="B48" s="9" t="s">
         <v>486</v>
       </c>
@@ -16358,7 +16369,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="55"/>
+      <c r="A49" s="56"/>
       <c r="B49" s="9" t="s">
         <v>426</v>
       </c>
@@ -16367,7 +16378,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="55"/>
+      <c r="A50" s="56"/>
       <c r="B50" s="9" t="s">
         <v>428</v>
       </c>
@@ -16376,7 +16387,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="55"/>
+      <c r="A51" s="56"/>
       <c r="B51" s="9" t="s">
         <v>286</v>
       </c>
@@ -16385,7 +16396,7 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="55"/>
+      <c r="A52" s="56"/>
       <c r="B52" t="s">
         <v>38</v>
       </c>
@@ -16394,7 +16405,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="55" t="s">
+      <c r="A53" s="56" t="s">
         <v>488</v>
       </c>
       <c r="B53" s="9" t="s">
@@ -16405,7 +16416,7 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="55"/>
+      <c r="A54" s="56"/>
       <c r="B54" s="9" t="s">
         <v>428</v>
       </c>
@@ -16414,7 +16425,7 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="55"/>
+      <c r="A55" s="56"/>
       <c r="B55" s="9" t="s">
         <v>366</v>
       </c>
@@ -16423,7 +16434,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="55"/>
+      <c r="A56" s="56"/>
       <c r="B56" s="9" t="s">
         <v>16</v>
       </c>
@@ -16432,7 +16443,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="55"/>
+      <c r="A57" s="56"/>
       <c r="B57" s="9" t="s">
         <v>489</v>
       </c>
@@ -16441,7 +16452,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="55"/>
+      <c r="A58" s="56"/>
       <c r="B58" s="9" t="s">
         <v>467</v>
       </c>
@@ -16450,7 +16461,7 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="55"/>
+      <c r="A59" s="56"/>
       <c r="B59" s="9" t="s">
         <v>490</v>
       </c>
@@ -16459,7 +16470,7 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="55"/>
+      <c r="A60" s="56"/>
       <c r="B60" s="9" t="s">
         <v>492</v>
       </c>
@@ -16468,7 +16479,7 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="55"/>
+      <c r="A61" s="56"/>
       <c r="B61" s="9" t="s">
         <v>478</v>
       </c>
@@ -16477,7 +16488,7 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="55"/>
+      <c r="A62" s="56"/>
       <c r="B62" t="s">
         <v>38</v>
       </c>
@@ -16486,7 +16497,7 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="55" t="s">
+      <c r="A63" s="56" t="s">
         <v>495</v>
       </c>
       <c r="B63" s="9" t="s">
@@ -16497,7 +16508,7 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="55"/>
+      <c r="A64" s="56"/>
       <c r="B64" s="9" t="s">
         <v>496</v>
       </c>
@@ -16506,7 +16517,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="55"/>
+      <c r="A65" s="56"/>
       <c r="B65" s="9" t="s">
         <v>428</v>
       </c>
@@ -16515,7 +16526,7 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="55"/>
+      <c r="A66" s="56"/>
       <c r="B66" s="9" t="s">
         <v>439</v>
       </c>
@@ -16524,7 +16535,7 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="55"/>
+      <c r="A67" s="56"/>
       <c r="B67" s="9" t="s">
         <v>286</v>
       </c>
@@ -16533,7 +16544,7 @@
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="55"/>
+      <c r="A68" s="56"/>
       <c r="B68" t="s">
         <v>38</v>
       </c>
@@ -16636,7 +16647,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="55"/>
+      <c r="A2" s="56"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="10"/>
@@ -16646,7 +16657,7 @@
       <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
+      <c r="A3" s="56"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="10"/>
@@ -16656,7 +16667,7 @@
       <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
+      <c r="A4" s="56"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="10"/>
@@ -16666,7 +16677,7 @@
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
+      <c r="A5" s="56"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="10"/>
@@ -16676,7 +16687,7 @@
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
+      <c r="A6" s="56"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="10"/>
@@ -16686,7 +16697,7 @@
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
+      <c r="A7" s="56"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="10"/>
@@ -16696,7 +16707,7 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
+      <c r="A8" s="56"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="10"/>
@@ -16706,7 +16717,7 @@
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
+      <c r="A9" s="56"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="10"/>
@@ -16716,7 +16727,7 @@
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
+      <c r="A10" s="56"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="10"/>
@@ -16726,7 +16737,7 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
+      <c r="A11" s="56"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="10"/>
@@ -16736,7 +16747,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -16747,7 +16758,7 @@
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -16758,12 +16769,12 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
+      <c r="A14" s="56"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -16774,7 +16785,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="9"/>
       <c r="C16"/>
       <c r="D16" s="8"/>
@@ -16785,7 +16796,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="9"/>
       <c r="C17"/>
       <c r="D17" s="8"/>
@@ -16796,7 +16807,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="9"/>
       <c r="C18"/>
       <c r="D18" s="8"/>
@@ -16807,7 +16818,7 @@
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="9"/>
       <c r="C19"/>
       <c r="D19" s="8"/>
@@ -16818,7 +16829,7 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="55"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="9"/>
       <c r="C20"/>
       <c r="D20" s="8"/>
@@ -16829,7 +16840,7 @@
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
+      <c r="A21" s="56"/>
       <c r="B21" s="9"/>
       <c r="C21"/>
       <c r="D21" s="8"/>
@@ -16840,7 +16851,7 @@
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="55"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="9"/>
       <c r="C22"/>
       <c r="D22" s="8"/>
@@ -16851,7 +16862,7 @@
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="9"/>
       <c r="C23"/>
       <c r="D23" s="8"/>
@@ -16862,7 +16873,7 @@
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -16873,7 +16884,7 @@
       <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
+      <c r="A25" s="56"/>
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -16884,7 +16895,7 @@
       <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -16895,7 +16906,7 @@
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="55"/>
+      <c r="A27" s="56"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="10"/>
@@ -16905,7 +16916,7 @@
       <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
+      <c r="A28" s="56"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="10"/>
@@ -16915,7 +16926,7 @@
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
+      <c r="A29" s="56"/>
       <c r="C29"/>
       <c r="D29" s="8"/>
       <c r="E29" s="10"/>
@@ -16925,7 +16936,7 @@
       <c r="I29" s="8"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="55"/>
+      <c r="A30" s="56"/>
       <c r="C30"/>
       <c r="D30" s="8"/>
       <c r="E30" s="10"/>
@@ -16935,7 +16946,7 @@
       <c r="I30" s="8"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
+      <c r="A31" s="56"/>
       <c r="C31"/>
       <c r="D31" s="8"/>
       <c r="E31" s="10"/>
@@ -16945,7 +16956,7 @@
       <c r="I31" s="8"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="55"/>
+      <c r="A32" s="56"/>
       <c r="C32"/>
       <c r="D32" s="8"/>
       <c r="E32" s="10"/>
@@ -16955,7 +16966,7 @@
       <c r="I32" s="8"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="55"/>
+      <c r="A33" s="56"/>
       <c r="C33"/>
       <c r="D33" s="8"/>
       <c r="E33" s="10"/>
@@ -16965,7 +16976,7 @@
       <c r="I33" s="8"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="55"/>
+      <c r="A34" s="56"/>
       <c r="C34"/>
       <c r="D34" s="8"/>
       <c r="E34" s="10"/>
@@ -16975,7 +16986,7 @@
       <c r="I34" s="8"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
+      <c r="A35" s="56"/>
       <c r="C35"/>
       <c r="D35" s="8"/>
       <c r="E35" s="10"/>
@@ -16985,7 +16996,7 @@
       <c r="I35" s="8"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="55"/>
+      <c r="A36" s="56"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="10"/>
@@ -16995,7 +17006,7 @@
       <c r="I36" s="8"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
+      <c r="A37" s="56"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="10"/>
@@ -17005,7 +17016,7 @@
       <c r="I37" s="8"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="55"/>
+      <c r="A38" s="56"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="10"/>
@@ -17015,7 +17026,7 @@
       <c r="I38" s="8"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="55"/>
+      <c r="A39" s="56"/>
       <c r="C39"/>
       <c r="D39" s="8"/>
       <c r="E39" s="10"/>
@@ -17025,7 +17036,7 @@
       <c r="I39" s="8"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="55"/>
+      <c r="A40" s="56"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="10"/>
@@ -17035,7 +17046,7 @@
       <c r="I40" s="8"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="55"/>
+      <c r="A41" s="56"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="10"/>
@@ -17045,7 +17056,7 @@
       <c r="I41" s="8"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="55"/>
+      <c r="A42" s="56"/>
       <c r="B42" s="9"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
@@ -17056,7 +17067,7 @@
       <c r="I42" s="8"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="55"/>
+      <c r="A43" s="56"/>
       <c r="B43" s="9"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -17067,7 +17078,7 @@
       <c r="I43" s="8"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="55"/>
+      <c r="A44" s="56"/>
       <c r="B44" s="9"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -17078,7 +17089,7 @@
       <c r="I44" s="8"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="55"/>
+      <c r="A45" s="56"/>
       <c r="B45" s="9"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -17089,7 +17100,7 @@
       <c r="I45" s="8"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="55"/>
+      <c r="A46" s="56"/>
       <c r="B46" s="9"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
@@ -17100,7 +17111,7 @@
       <c r="I46" s="8"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="55"/>
+      <c r="A47" s="56"/>
       <c r="B47" s="9"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
@@ -17111,7 +17122,7 @@
       <c r="I47" s="8"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="55"/>
+      <c r="A48" s="56"/>
       <c r="B48" s="9"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -17122,7 +17133,7 @@
       <c r="I48" s="8"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="55"/>
+      <c r="A49" s="56"/>
       <c r="B49" s="9"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
@@ -17133,7 +17144,7 @@
       <c r="I49" s="8"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="55"/>
+      <c r="A50" s="56"/>
       <c r="B50" s="9"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -17144,7 +17155,7 @@
       <c r="I50" s="8"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="55"/>
+      <c r="A51" s="56"/>
       <c r="B51" s="9"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -17155,7 +17166,7 @@
       <c r="I51" s="8"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="55"/>
+      <c r="A52" s="56"/>
       <c r="B52" s="9"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
@@ -17166,7 +17177,7 @@
       <c r="I52" s="8"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="55"/>
+      <c r="A53" s="56"/>
       <c r="B53" s="9"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -17177,7 +17188,7 @@
       <c r="I53" s="8"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="55"/>
+      <c r="A54" s="56"/>
       <c r="B54" s="9"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
@@ -17188,7 +17199,7 @@
       <c r="I54" s="8"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="55"/>
+      <c r="A55" s="56"/>
       <c r="B55" s="9"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
@@ -17199,7 +17210,7 @@
       <c r="I55" s="8"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="55"/>
+      <c r="A56" s="56"/>
       <c r="B56" s="9"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
@@ -17210,7 +17221,7 @@
       <c r="I56" s="8"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="55"/>
+      <c r="A57" s="56"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
       <c r="E57" s="10"/>
@@ -17220,7 +17231,7 @@
       <c r="I57" s="8"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="55"/>
+      <c r="A58" s="56"/>
       <c r="B58" s="9"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -17231,7 +17242,7 @@
       <c r="I58" s="8"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="55"/>
+      <c r="A59" s="56"/>
       <c r="B59" s="9"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
@@ -17242,7 +17253,7 @@
       <c r="I59" s="8"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="55"/>
+      <c r="A60" s="56"/>
       <c r="B60" s="9"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
@@ -17253,7 +17264,7 @@
       <c r="I60" s="8"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="55"/>
+      <c r="A61" s="56"/>
       <c r="B61" s="9"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -17264,7 +17275,7 @@
       <c r="I61" s="8"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="55"/>
+      <c r="A62" s="56"/>
       <c r="B62" s="9"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
@@ -17275,7 +17286,7 @@
       <c r="I62" s="8"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="55"/>
+      <c r="A63" s="56"/>
       <c r="B63" s="9"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
@@ -17286,7 +17297,7 @@
       <c r="I63" s="8"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="55"/>
+      <c r="A64" s="56"/>
       <c r="B64" s="9"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -17297,7 +17308,7 @@
       <c r="I64" s="8"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="55"/>
+      <c r="A65" s="56"/>
       <c r="B65" s="9"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -17308,7 +17319,7 @@
       <c r="I65" s="8"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="55"/>
+      <c r="A66" s="56"/>
       <c r="B66" s="9"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
@@ -17319,7 +17330,7 @@
       <c r="I66" s="8"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="55"/>
+      <c r="A67" s="56"/>
       <c r="B67" s="9"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -17330,7 +17341,7 @@
       <c r="I67" s="8"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="55"/>
+      <c r="A68" s="56"/>
       <c r="B68" s="9"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
@@ -17341,7 +17352,7 @@
       <c r="I68" s="8"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="55"/>
+      <c r="A69" s="56"/>
       <c r="B69" s="9"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
@@ -17352,7 +17363,7 @@
       <c r="I69" s="8"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="55"/>
+      <c r="A70" s="56"/>
       <c r="B70" s="9"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
@@ -17363,7 +17374,7 @@
       <c r="I70" s="8"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="55"/>
+      <c r="A71" s="56"/>
       <c r="B71" s="9"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
@@ -17374,7 +17385,7 @@
       <c r="I71" s="8"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="55"/>
+      <c r="A72" s="56"/>
       <c r="B72" s="9"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
@@ -17385,7 +17396,7 @@
       <c r="I72" s="8"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="55"/>
+      <c r="A73" s="56"/>
       <c r="B73" s="9"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
@@ -17396,195 +17407,195 @@
       <c r="I73" s="8"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="55"/>
+      <c r="A74" s="56"/>
       <c r="B74" s="9"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
       <c r="G74"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="55"/>
+      <c r="A75" s="56"/>
       <c r="B75" s="9"/>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
       <c r="G75"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="55"/>
+      <c r="A76" s="56"/>
       <c r="B76" s="9"/>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
       <c r="G76"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="55"/>
+      <c r="A77" s="56"/>
       <c r="B77" s="9"/>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
       <c r="G77"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="55"/>
+      <c r="A78" s="56"/>
       <c r="B78" s="9"/>
       <c r="G78"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="55"/>
+      <c r="A79" s="56"/>
       <c r="B79" s="9"/>
       <c r="G79"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="55"/>
+      <c r="A80" s="56"/>
       <c r="B80" s="9"/>
       <c r="G80"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="55"/>
+      <c r="A81" s="56"/>
       <c r="B81" s="9"/>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
       <c r="G81"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="55"/>
+      <c r="A82" s="56"/>
       <c r="B82" s="9"/>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
       <c r="G82"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="55"/>
+      <c r="A83" s="56"/>
       <c r="B83" s="9"/>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
       <c r="G83"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="55"/>
+      <c r="A84" s="56"/>
       <c r="B84" s="9"/>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
       <c r="G84"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="55"/>
+      <c r="A85" s="56"/>
       <c r="B85" s="9"/>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
       <c r="G85"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="55"/>
+      <c r="A86" s="56"/>
       <c r="B86" s="9"/>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
       <c r="G86"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="55"/>
+      <c r="A87" s="56"/>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
       <c r="G87"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="55"/>
+      <c r="A88" s="56"/>
       <c r="B88" s="9"/>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
       <c r="G88"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="55"/>
+      <c r="A89" s="56"/>
       <c r="B89" s="9"/>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
       <c r="G89"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="55"/>
+      <c r="A90" s="56"/>
       <c r="B90" s="9"/>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
       <c r="G90"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="55"/>
+      <c r="A91" s="56"/>
       <c r="B91" s="9"/>
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
       <c r="G91"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="55"/>
+      <c r="A92" s="56"/>
       <c r="B92" s="9"/>
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
       <c r="G92"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="55"/>
+      <c r="A93" s="56"/>
       <c r="B93" s="9"/>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
       <c r="G93"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="55"/>
+      <c r="A94" s="56"/>
       <c r="B94" s="9"/>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
       <c r="G94"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="55"/>
+      <c r="A95" s="56"/>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
       <c r="G95"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="55"/>
+      <c r="A96" s="56"/>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
       <c r="G96"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="55"/>
+      <c r="A97" s="56"/>
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
       <c r="G97"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="55"/>
+      <c r="A98" s="56"/>
       <c r="C98" s="8"/>
       <c r="D98" s="8"/>
       <c r="G98"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="55"/>
+      <c r="A99" s="56"/>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
       <c r="G99"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="55"/>
+      <c r="A100" s="56"/>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
       <c r="G100"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="55"/>
+      <c r="A101" s="56"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="55"/>
+      <c r="A102" s="56"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="55"/>
+      <c r="A103" s="56"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="55"/>
+      <c r="A104" s="56"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="55"/>
+      <c r="A105" s="56"/>
     </row>
     <row r="116" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G116" s="9"/>

--- a/arch-ums/uni-life-ums.xlsx
+++ b/arch-ums/uni-life-ums.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces-Idea\proc\arch-module\arch-ums\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F595FC89-873E-41F7-B2A4-3E6A47BD3431}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2598471-B5F1-40CB-B995-074CD61EBA2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5292" yWindow="2304" windowWidth="23040" windowHeight="12312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5292" yWindow="2304" windowWidth="23040" windowHeight="12312" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="9" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2360" uniqueCount="900">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2363" uniqueCount="903">
   <si>
     <t>表名/Table</t>
   </si>
@@ -3101,6 +3101,17 @@
   </si>
   <si>
     <t>dt</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>pseq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>父节点顺序</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3381,8 +3392,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3390,14 +3401,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3405,12 +3410,88 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="75">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4044,41 +4125,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -4318,41 +4364,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4367,17 +4378,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CE11B0DB-5C62-420D-84D8-E87A9EF327B7}" name="表1" displayName="表1" ref="B1:J62" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68" headerRowCellStyle="常规 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CE11B0DB-5C62-420D-84D8-E87A9EF327B7}" name="表1" displayName="表1" ref="B1:J62" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73" headerRowCellStyle="常规 2">
   <autoFilter ref="B1:J62" xr:uid="{B6969820-1EDF-4876-9A5D-FBFC4A41984D}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{72E794A9-4DD1-49BE-A027-5ADCBA03FBD0}" name="列名/Column"/>
-    <tableColumn id="2" xr3:uid="{2BD92A17-8B86-4B03-9D18-9105A0D34354}" name="数据类型/Type" dataDxfId="67"/>
-    <tableColumn id="3" xr3:uid="{D8E94063-B8C9-4FA6-9A01-E7DF0C6D48F1}" name="长度/Length" dataDxfId="66"/>
-    <tableColumn id="4" xr3:uid="{9C5A6399-4D88-4569-8E5F-39B9DE8AF37B}" name="是否为空/Null(Y,N)" dataDxfId="65"/>
-    <tableColumn id="5" xr3:uid="{A4F55127-F997-4CC4-B0D1-1DA0A350A101}" name="默认值/Default" dataDxfId="64"/>
-    <tableColumn id="6" xr3:uid="{0F626792-F279-49AC-8EC1-BFB6B6687D67}" name="是否主键/Primary(Y,N)" dataDxfId="63"/>
-    <tableColumn id="7" xr3:uid="{7071273C-D0E4-4535-8AE8-1DA697EFE72A}" name="是否唯一/Unique(Y,N)" dataDxfId="62"/>
-    <tableColumn id="8" xr3:uid="{79AD77F4-4A81-4B14-B022-EB542F9CB50D}" name="外键/Forigen(可空)" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{2BD92A17-8B86-4B03-9D18-9105A0D34354}" name="数据类型/Type" dataDxfId="72"/>
+    <tableColumn id="3" xr3:uid="{D8E94063-B8C9-4FA6-9A01-E7DF0C6D48F1}" name="长度/Length" dataDxfId="71"/>
+    <tableColumn id="4" xr3:uid="{9C5A6399-4D88-4569-8E5F-39B9DE8AF37B}" name="是否为空/Null(Y,N)" dataDxfId="70"/>
+    <tableColumn id="5" xr3:uid="{A4F55127-F997-4CC4-B0D1-1DA0A350A101}" name="默认值/Default" dataDxfId="69"/>
+    <tableColumn id="6" xr3:uid="{0F626792-F279-49AC-8EC1-BFB6B6687D67}" name="是否主键/Primary(Y,N)" dataDxfId="68"/>
+    <tableColumn id="7" xr3:uid="{7071273C-D0E4-4535-8AE8-1DA697EFE72A}" name="是否唯一/Unique(Y,N)" dataDxfId="67"/>
+    <tableColumn id="8" xr3:uid="{79AD77F4-4A81-4B14-B022-EB542F9CB50D}" name="外键/Forigen(可空)" dataDxfId="66"/>
     <tableColumn id="9" xr3:uid="{F4869BE7-97E9-4573-A762-3FCC07598356}" name="备注/Comment"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4385,18 +4396,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D4223DF3-0FD4-4A51-9CB4-4ADBF0194284}" name="表4" displayName="表4" ref="B1:J124" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54" headerRowCellStyle="常规 2">
-  <autoFilter ref="B1:J124" xr:uid="{B9CDCF83-4341-4D97-8AF8-098A114465A9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D4223DF3-0FD4-4A51-9CB4-4ADBF0194284}" name="表4" displayName="表4" ref="B1:J125" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64" headerRowCellStyle="常规 2">
+  <autoFilter ref="B1:J125" xr:uid="{B9CDCF83-4341-4D97-8AF8-098A114465A9}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{350E8EA7-6A95-4955-AF92-86AAEA2BA677}" name="列名/Column" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{6ABB1A04-FB0D-4D10-B245-B8C8DB4828E1}" name="数据类型/Type" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{FCA6C0C7-D58A-4EB4-ADAD-587CBD0DD701}" name="长度/Length" dataDxfId="51"/>
-    <tableColumn id="4" xr3:uid="{52DA6CEC-27BC-4EAE-AE94-7470B76EC7C3}" name="是否为空/Null(Y,N)" dataDxfId="50"/>
-    <tableColumn id="5" xr3:uid="{AE35D0B9-0729-44FC-B690-C7EDD3166A02}" name="默认值/Default" dataDxfId="49"/>
-    <tableColumn id="6" xr3:uid="{6C52994F-377C-4C2E-9F7E-525CAC70A537}" name="是否主键/Primary(Y,N)" dataDxfId="48"/>
-    <tableColumn id="7" xr3:uid="{6EA4723E-17A5-4EC8-8998-8102D06DE919}" name="是否唯一/Unique(Y,N)" dataDxfId="47"/>
-    <tableColumn id="8" xr3:uid="{1A6BD3A8-4916-46D9-B4C6-624DA102515A}" name="外键/Forigen(可空)" dataDxfId="46"/>
-    <tableColumn id="9" xr3:uid="{632B0B2F-EABB-4492-9536-4E24187636CD}" name="备注/Comment" dataDxfId="45"/>
+    <tableColumn id="1" xr3:uid="{350E8EA7-6A95-4955-AF92-86AAEA2BA677}" name="列名/Column" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{6ABB1A04-FB0D-4D10-B245-B8C8DB4828E1}" name="数据类型/Type" dataDxfId="62"/>
+    <tableColumn id="3" xr3:uid="{FCA6C0C7-D58A-4EB4-ADAD-587CBD0DD701}" name="长度/Length" dataDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{52DA6CEC-27BC-4EAE-AE94-7470B76EC7C3}" name="是否为空/Null(Y,N)" dataDxfId="60"/>
+    <tableColumn id="5" xr3:uid="{AE35D0B9-0729-44FC-B690-C7EDD3166A02}" name="默认值/Default" dataDxfId="59"/>
+    <tableColumn id="6" xr3:uid="{6C52994F-377C-4C2E-9F7E-525CAC70A537}" name="是否主键/Primary(Y,N)" dataDxfId="58"/>
+    <tableColumn id="7" xr3:uid="{6EA4723E-17A5-4EC8-8998-8102D06DE919}" name="是否唯一/Unique(Y,N)" dataDxfId="57"/>
+    <tableColumn id="8" xr3:uid="{1A6BD3A8-4916-46D9-B4C6-624DA102515A}" name="外键/Forigen(可空)" dataDxfId="56"/>
+    <tableColumn id="9" xr3:uid="{632B0B2F-EABB-4492-9536-4E24187636CD}" name="备注/Comment" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4662,8 +4673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4909,8 +4920,8 @@
       <c r="B11" t="s">
         <v>896</v>
       </c>
-      <c r="C11" s="23" t="s">
-        <v>718</v>
+      <c r="C11" s="60" t="s">
+        <v>738</v>
       </c>
       <c r="D11" s="28"/>
       <c r="J11" t="s">
@@ -5110,8 +5121,8 @@
       <c r="B23" t="s">
         <v>896</v>
       </c>
-      <c r="C23" s="23" t="s">
-        <v>718</v>
+      <c r="C23" s="60" t="s">
+        <v>900</v>
       </c>
       <c r="D23" s="28"/>
       <c r="J23" s="23" t="s">
@@ -5255,7 +5266,7 @@
         <v>899</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>718</v>
+        <v>900</v>
       </c>
       <c r="D32" s="28"/>
       <c r="J32" t="s">
@@ -5358,7 +5369,7 @@
         <v>896</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>718</v>
+        <v>900</v>
       </c>
       <c r="D39" s="28"/>
       <c r="J39" t="s">
@@ -5481,7 +5492,7 @@
         <v>896</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>718</v>
+        <v>900</v>
       </c>
       <c r="D47" s="28"/>
       <c r="J47" t="s">
@@ -5612,7 +5623,7 @@
         <v>899</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>718</v>
+        <v>900</v>
       </c>
       <c r="D56" s="28"/>
       <c r="J56" t="s">
@@ -5700,7 +5711,7 @@
         <v>899</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>718</v>
+        <v>900</v>
       </c>
       <c r="D62" s="28"/>
       <c r="J62" t="s">
@@ -5827,27 +5838,27 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="cellIs" dxfId="74" priority="2" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="54" priority="2" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:E1">
-    <cfRule type="cellIs" dxfId="73" priority="5" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="53" priority="5" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:H1">
-    <cfRule type="cellIs" dxfId="72" priority="3" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="52" priority="3" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="71" priority="4" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="51" priority="4" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="70" priority="1" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="50" priority="1" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5921,7 +5932,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="59" t="s">
         <v>866</v>
       </c>
       <c r="B2" s="29" t="s">
@@ -5945,7 +5956,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
+      <c r="A3" s="59"/>
       <c r="B3" s="29" t="s">
         <v>721</v>
       </c>
@@ -5965,7 +5976,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="61"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="29" t="s">
         <v>872</v>
       </c>
@@ -5985,7 +5996,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="29" t="s">
         <v>873</v>
       </c>
@@ -6005,7 +6016,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="29" t="s">
         <v>875</v>
       </c>
@@ -6025,7 +6036,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="29" t="s">
         <v>876</v>
       </c>
@@ -6045,7 +6056,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="61"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="29" t="s">
         <v>877</v>
       </c>
@@ -6065,7 +6076,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="61"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="29" t="s">
         <v>879</v>
       </c>
@@ -6085,7 +6096,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="61"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="29" t="s">
         <v>880</v>
       </c>
@@ -6105,7 +6116,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="61"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="37" t="s">
         <v>881</v>
       </c>
@@ -6125,7 +6136,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="61"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="29" t="s">
         <v>882</v>
       </c>
@@ -6145,7 +6156,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="61"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="29" t="s">
         <v>883</v>
       </c>
@@ -6165,7 +6176,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="61"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="29" t="s">
         <v>884</v>
       </c>
@@ -6183,7 +6194,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="61"/>
+      <c r="A15" s="59"/>
       <c r="B15" s="29" t="s">
         <v>885</v>
       </c>
@@ -8397,10 +8408,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L132"/>
+  <dimension ref="A1:L133"/>
   <sheetViews>
-    <sheetView topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8450,7 +8461,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="57" t="s">
         <v>855</v>
       </c>
       <c r="B2" s="29" t="s">
@@ -8472,7 +8483,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="29" t="s">
         <v>853</v>
       </c>
@@ -8492,7 +8503,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
+      <c r="A4" s="57"/>
       <c r="B4" s="33" t="s">
         <v>751</v>
       </c>
@@ -8512,7 +8523,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="29" t="s">
         <v>854</v>
       </c>
@@ -9047,7 +9058,7 @@
         <v>897</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>718</v>
+        <v>900</v>
       </c>
       <c r="D29" s="30"/>
       <c r="E29" s="10"/>
@@ -9303,7 +9314,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="57" t="s">
+      <c r="A40" s="61" t="s">
         <v>726</v>
       </c>
       <c r="B40" s="21" t="s">
@@ -9325,7 +9336,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="58"/>
+      <c r="A41" s="5"/>
       <c r="B41" s="21" t="s">
         <v>125</v>
       </c>
@@ -9345,7 +9356,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="58"/>
+      <c r="A42" s="5"/>
       <c r="B42" s="21" t="s">
         <v>126</v>
       </c>
@@ -9365,7 +9376,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="58"/>
+      <c r="A43" s="5"/>
       <c r="B43" s="21" t="s">
         <v>127</v>
       </c>
@@ -9385,15 +9396,15 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="58"/>
-      <c r="B44" s="21" t="s">
-        <v>128</v>
+      <c r="A44" s="5"/>
+      <c r="B44" s="29" t="s">
+        <v>901</v>
       </c>
       <c r="C44" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="30">
         <v>11</v>
-      </c>
-      <c r="D44" s="30" t="s">
-        <v>748</v>
       </c>
       <c r="E44" s="24"/>
       <c r="F44" s="24"/>
@@ -9401,19 +9412,19 @@
       <c r="H44" s="24"/>
       <c r="I44" s="24"/>
       <c r="J44" s="27" t="s">
-        <v>772</v>
+        <v>902</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="58"/>
+      <c r="A45" s="5"/>
       <c r="B45" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D45" s="30" t="s">
-        <v>20</v>
+        <v>748</v>
       </c>
       <c r="E45" s="24"/>
       <c r="F45" s="24"/>
@@ -9421,19 +9432,19 @@
       <c r="H45" s="24"/>
       <c r="I45" s="24"/>
       <c r="J45" s="27" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="58"/>
+      <c r="A46" s="5"/>
       <c r="B46" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C46" s="22" t="s">
         <v>17</v>
       </c>
       <c r="D46" s="30" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E46" s="24"/>
       <c r="F46" s="24"/>
@@ -9441,19 +9452,19 @@
       <c r="H46" s="24"/>
       <c r="I46" s="24"/>
       <c r="J46" s="27" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="58"/>
+      <c r="A47" s="5"/>
       <c r="B47" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>748</v>
+        <v>12</v>
       </c>
       <c r="E47" s="24"/>
       <c r="F47" s="24"/>
@@ -9461,19 +9472,19 @@
       <c r="H47" s="24"/>
       <c r="I47" s="24"/>
       <c r="J47" s="27" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="58"/>
+      <c r="A48" s="5"/>
       <c r="B48" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>12</v>
+        <v>748</v>
       </c>
       <c r="E48" s="24"/>
       <c r="F48" s="24"/>
@@ -9481,19 +9492,19 @@
       <c r="H48" s="24"/>
       <c r="I48" s="24"/>
       <c r="J48" s="27" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="58"/>
+      <c r="A49" s="5"/>
       <c r="B49" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C49" s="22" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E49" s="24"/>
       <c r="F49" s="24"/>
@@ -9501,15 +9512,13 @@
       <c r="H49" s="24"/>
       <c r="I49" s="24"/>
       <c r="J49" s="27" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="55" t="s">
-        <v>728</v>
-      </c>
+      <c r="A50" s="5"/>
       <c r="B50" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C50" s="22" t="s">
         <v>17</v>
@@ -9517,71 +9526,67 @@
       <c r="D50" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E50" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I50" s="23"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
       <c r="J50" s="27" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="55" t="s">
+        <v>728</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I51" s="23"/>
+      <c r="J51" s="27" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="55"/>
-      <c r="B51" s="47" t="s">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="55"/>
+      <c r="B52" s="47" t="s">
         <v>836</v>
       </c>
-      <c r="C51" s="44" t="s">
+      <c r="C52" s="44" t="s">
         <v>709</v>
       </c>
-      <c r="D51" s="45" t="s">
+      <c r="D52" s="45" t="s">
         <v>748</v>
       </c>
-      <c r="E51" s="48"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="48"/>
-      <c r="H51" s="48"/>
-      <c r="I51" s="48"/>
-      <c r="J51" s="46" t="s">
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="48"/>
+      <c r="J52" s="46" t="s">
         <v>839</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="56"/>
-      <c r="B52" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="C52" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D52" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H52" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I52" s="23"/>
-      <c r="J52" s="27" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="56"/>
       <c r="B53" s="21" t="s">
-        <v>52</v>
+        <v>136</v>
       </c>
       <c r="C53" s="22" t="s">
         <v>17</v>
@@ -9593,85 +9598,91 @@
         <v>13</v>
       </c>
       <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
+      <c r="G53" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="I53" s="23"/>
       <c r="J53" s="27" t="s">
-        <v>771</v>
+        <v>779</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="55" t="s">
-        <v>841</v>
-      </c>
-      <c r="B54" s="29" t="s">
-        <v>840</v>
+      <c r="A54" s="56"/>
+      <c r="B54" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D54" s="30" t="s">
-        <v>748</v>
-      </c>
-      <c r="E54" s="10"/>
+        <v>20</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
       <c r="I54" s="23"/>
       <c r="J54" s="27" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="55" t="s">
+        <v>841</v>
+      </c>
+      <c r="B55" s="29" t="s">
+        <v>840</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="30" t="s">
+        <v>748</v>
+      </c>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="27" t="s">
         <v>780</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="56"/>
-      <c r="B55" s="47" t="s">
-        <v>836</v>
-      </c>
-      <c r="C55" s="44" t="s">
-        <v>709</v>
-      </c>
-      <c r="D55" s="45" t="s">
-        <v>748</v>
-      </c>
-      <c r="E55" s="48"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="48"/>
-      <c r="H55" s="48"/>
-      <c r="I55" s="48"/>
-      <c r="J55" s="46" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="56"/>
-      <c r="B56" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="C56" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D56" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="27" t="s">
-        <v>781</v>
+      <c r="B56" s="47" t="s">
+        <v>836</v>
+      </c>
+      <c r="C56" s="44" t="s">
+        <v>709</v>
+      </c>
+      <c r="D56" s="45" t="s">
+        <v>748</v>
+      </c>
+      <c r="E56" s="48"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="48"/>
+      <c r="I56" s="48"/>
+      <c r="J56" s="46" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="56"/>
       <c r="B57" s="21" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>708</v>
+        <v>17</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
@@ -9679,21 +9690,19 @@
       <c r="H57" s="10"/>
       <c r="I57" s="23"/>
       <c r="J57" s="27" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="55" t="s">
-        <v>842</v>
-      </c>
+      <c r="A58" s="56"/>
       <c r="B58" s="21" t="s">
-        <v>139</v>
+        <v>52</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>11</v>
+        <v>708</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>748</v>
+        <v>24</v>
       </c>
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
@@ -9701,53 +9710,55 @@
       <c r="H58" s="10"/>
       <c r="I58" s="23"/>
       <c r="J58" s="27" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="55" t="s">
+        <v>842</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="30" t="s">
+        <v>748</v>
+      </c>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="27" t="s">
         <v>783</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="56"/>
-      <c r="B59" s="47" t="s">
-        <v>836</v>
-      </c>
-      <c r="C59" s="44" t="s">
-        <v>709</v>
-      </c>
-      <c r="D59" s="45" t="s">
-        <v>748</v>
-      </c>
-      <c r="E59" s="48"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="48"/>
-      <c r="H59" s="48"/>
-      <c r="I59" s="48"/>
-      <c r="J59" s="46" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="56"/>
-      <c r="B60" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="C60" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D60" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="23"/>
-      <c r="J60" s="27" t="s">
-        <v>784</v>
+      <c r="B60" s="47" t="s">
+        <v>836</v>
+      </c>
+      <c r="C60" s="44" t="s">
+        <v>709</v>
+      </c>
+      <c r="D60" s="45" t="s">
+        <v>748</v>
+      </c>
+      <c r="E60" s="48"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="48"/>
+      <c r="H60" s="48"/>
+      <c r="I60" s="48"/>
+      <c r="J60" s="46" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="56"/>
       <c r="B61" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C61" s="22" t="s">
         <v>17</v>
@@ -9761,19 +9772,19 @@
       <c r="H61" s="10"/>
       <c r="I61" s="23"/>
       <c r="J61" s="27" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="56"/>
       <c r="B62" s="21" t="s">
-        <v>856</v>
+        <v>142</v>
       </c>
       <c r="C62" s="22" t="s">
         <v>17</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>730</v>
+        <v>35</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
@@ -9781,19 +9792,19 @@
       <c r="H62" s="10"/>
       <c r="I62" s="23"/>
       <c r="J62" s="27" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="56"/>
       <c r="B63" s="21" t="s">
-        <v>144</v>
+        <v>856</v>
       </c>
       <c r="C63" s="22" t="s">
         <v>17</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>35</v>
+        <v>730</v>
       </c>
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
@@ -9801,16 +9812,16 @@
       <c r="H63" s="10"/>
       <c r="I63" s="23"/>
       <c r="J63" s="27" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="56"/>
       <c r="B64" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>709</v>
+        <v>17</v>
       </c>
       <c r="D64" s="30" t="s">
         <v>35</v>
@@ -9821,16 +9832,16 @@
       <c r="H64" s="10"/>
       <c r="I64" s="23"/>
       <c r="J64" s="27" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="56"/>
       <c r="B65" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>17</v>
+        <v>709</v>
       </c>
       <c r="D65" s="30" t="s">
         <v>35</v>
@@ -9841,13 +9852,13 @@
       <c r="H65" s="10"/>
       <c r="I65" s="23"/>
       <c r="J65" s="27" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="56"/>
       <c r="B66" s="21" t="s">
-        <v>733</v>
+        <v>146</v>
       </c>
       <c r="C66" s="22" t="s">
         <v>17</v>
@@ -9861,19 +9872,19 @@
       <c r="H66" s="10"/>
       <c r="I66" s="23"/>
       <c r="J66" s="27" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="56"/>
       <c r="B67" s="21" t="s">
-        <v>147</v>
+        <v>733</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D67" s="30" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E67" s="10"/>
       <c r="F67" s="10"/>
@@ -9881,19 +9892,19 @@
       <c r="H67" s="10"/>
       <c r="I67" s="23"/>
       <c r="J67" s="27" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="56"/>
       <c r="B68" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C68" s="22" t="s">
         <v>23</v>
       </c>
       <c r="D68" s="30" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="10"/>
@@ -9901,21 +9912,19 @@
       <c r="H68" s="10"/>
       <c r="I68" s="23"/>
       <c r="J68" s="27" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="55" t="s">
-        <v>843</v>
-      </c>
+      <c r="A69" s="56"/>
       <c r="B69" s="21" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="C69" s="22" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>748</v>
+        <v>24</v>
       </c>
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
@@ -9923,53 +9932,55 @@
       <c r="H69" s="10"/>
       <c r="I69" s="23"/>
       <c r="J69" s="27" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="55" t="s">
+        <v>843</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C70" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="30" t="s">
+        <v>748</v>
+      </c>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="23"/>
+      <c r="J70" s="27" t="s">
         <v>780</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="56"/>
-      <c r="B70" s="47" t="s">
-        <v>836</v>
-      </c>
-      <c r="C70" s="44" t="s">
-        <v>709</v>
-      </c>
-      <c r="D70" s="45" t="s">
-        <v>748</v>
-      </c>
-      <c r="E70" s="48"/>
-      <c r="F70" s="48"/>
-      <c r="G70" s="48"/>
-      <c r="H70" s="48"/>
-      <c r="I70" s="48"/>
-      <c r="J70" s="46" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="56"/>
-      <c r="B71" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="C71" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D71" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="24"/>
-      <c r="H71" s="24"/>
-      <c r="I71" s="24"/>
-      <c r="J71" s="27" t="s">
-        <v>793</v>
+      <c r="B71" s="47" t="s">
+        <v>836</v>
+      </c>
+      <c r="C71" s="44" t="s">
+        <v>709</v>
+      </c>
+      <c r="D71" s="45" t="s">
+        <v>748</v>
+      </c>
+      <c r="E71" s="48"/>
+      <c r="F71" s="48"/>
+      <c r="G71" s="48"/>
+      <c r="H71" s="48"/>
+      <c r="I71" s="48"/>
+      <c r="J71" s="46" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="56"/>
       <c r="B72" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C72" s="22" t="s">
         <v>17</v>
@@ -9983,13 +9994,13 @@
       <c r="H72" s="24"/>
       <c r="I72" s="24"/>
       <c r="J72" s="27" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="56"/>
       <c r="B73" s="21" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C73" s="22" t="s">
         <v>17</v>
@@ -10003,19 +10014,19 @@
       <c r="H73" s="24"/>
       <c r="I73" s="24"/>
       <c r="J73" s="27" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="56"/>
       <c r="B74" s="21" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C74" s="22" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>707</v>
+        <v>35</v>
       </c>
       <c r="E74" s="24"/>
       <c r="F74" s="24"/>
@@ -10023,13 +10034,13 @@
       <c r="H74" s="24"/>
       <c r="I74" s="24"/>
       <c r="J74" s="27" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="56"/>
       <c r="B75" s="21" t="s">
-        <v>52</v>
+        <v>148</v>
       </c>
       <c r="C75" s="22" t="s">
         <v>23</v>
@@ -10043,19 +10054,19 @@
       <c r="H75" s="24"/>
       <c r="I75" s="24"/>
       <c r="J75" s="27" t="s">
-        <v>782</v>
+        <v>792</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="56"/>
       <c r="B76" s="21" t="s">
-        <v>742</v>
+        <v>52</v>
       </c>
       <c r="C76" s="22" t="s">
         <v>23</v>
       </c>
       <c r="D76" s="30" t="s">
-        <v>27</v>
+        <v>707</v>
       </c>
       <c r="E76" s="24"/>
       <c r="F76" s="24"/>
@@ -10063,19 +10074,19 @@
       <c r="H76" s="24"/>
       <c r="I76" s="24"/>
       <c r="J76" s="27" t="s">
-        <v>796</v>
+        <v>782</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="56"/>
       <c r="B77" s="21" t="s">
-        <v>136</v>
+        <v>742</v>
       </c>
       <c r="C77" s="22" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D77" s="30" t="s">
-        <v>730</v>
+        <v>27</v>
       </c>
       <c r="E77" s="24"/>
       <c r="F77" s="24"/>
@@ -10083,55 +10094,55 @@
       <c r="H77" s="24"/>
       <c r="I77" s="24"/>
       <c r="J77" s="27" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="56"/>
+      <c r="B78" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C78" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" s="30" t="s">
+        <v>730</v>
+      </c>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="24"/>
+      <c r="J78" s="27" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="55" t="s">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="55" t="s">
         <v>844</v>
       </c>
-      <c r="B78" s="47" t="s">
+      <c r="B79" s="47" t="s">
         <v>836</v>
       </c>
-      <c r="C78" s="44" t="s">
+      <c r="C79" s="44" t="s">
         <v>709</v>
       </c>
-      <c r="D78" s="45" t="s">
+      <c r="D79" s="45" t="s">
         <v>748</v>
       </c>
-      <c r="E78" s="48"/>
-      <c r="F78" s="48"/>
-      <c r="G78" s="48"/>
-      <c r="H78" s="48"/>
-      <c r="I78" s="48"/>
-      <c r="J78" s="46" t="s">
+      <c r="E79" s="48"/>
+      <c r="F79" s="48"/>
+      <c r="G79" s="48"/>
+      <c r="H79" s="48"/>
+      <c r="I79" s="48"/>
+      <c r="J79" s="46" t="s">
         <v>839</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="56"/>
-      <c r="B79" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="C79" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D79" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="E79" s="24"/>
-      <c r="F79" s="24"/>
-      <c r="G79" s="24"/>
-      <c r="H79" s="24"/>
-      <c r="I79" s="24"/>
-      <c r="J79" s="27" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="56"/>
       <c r="B80" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C80" s="22" t="s">
         <v>17</v>
@@ -10145,13 +10156,13 @@
       <c r="H80" s="24"/>
       <c r="I80" s="24"/>
       <c r="J80" s="27" t="s">
-        <v>798</v>
+        <v>731</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="56"/>
       <c r="B81" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C81" s="22" t="s">
         <v>17</v>
@@ -10165,13 +10176,13 @@
       <c r="H81" s="24"/>
       <c r="I81" s="24"/>
       <c r="J81" s="27" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="56"/>
       <c r="B82" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C82" s="22" t="s">
         <v>17</v>
@@ -10185,19 +10196,19 @@
       <c r="H82" s="24"/>
       <c r="I82" s="24"/>
       <c r="J82" s="27" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="56"/>
-      <c r="B83" s="29" t="s">
-        <v>856</v>
+      <c r="B83" s="21" t="s">
+        <v>157</v>
       </c>
       <c r="C83" s="22" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="30" t="s">
-        <v>730</v>
+        <v>35</v>
       </c>
       <c r="E83" s="24"/>
       <c r="F83" s="24"/>
@@ -10205,19 +10216,19 @@
       <c r="H83" s="24"/>
       <c r="I83" s="24"/>
       <c r="J83" s="27" t="s">
-        <v>732</v>
+        <v>800</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="56"/>
-      <c r="B84" s="21" t="s">
-        <v>52</v>
+      <c r="B84" s="29" t="s">
+        <v>856</v>
       </c>
       <c r="C84" s="22" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D84" s="30" t="s">
-        <v>158</v>
+        <v>730</v>
       </c>
       <c r="E84" s="24"/>
       <c r="F84" s="24"/>
@@ -10225,21 +10236,19 @@
       <c r="H84" s="24"/>
       <c r="I84" s="24"/>
       <c r="J84" s="27" t="s">
-        <v>782</v>
+        <v>732</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="55" t="s">
-        <v>845</v>
-      </c>
+      <c r="A85" s="56"/>
       <c r="B85" s="21" t="s">
-        <v>159</v>
+        <v>52</v>
       </c>
       <c r="C85" s="22" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D85" s="30" t="s">
-        <v>748</v>
+        <v>158</v>
       </c>
       <c r="E85" s="24"/>
       <c r="F85" s="24"/>
@@ -10247,53 +10256,55 @@
       <c r="H85" s="24"/>
       <c r="I85" s="24"/>
       <c r="J85" s="27" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="55" t="s">
+        <v>845</v>
+      </c>
+      <c r="B86" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="C86" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" s="30" t="s">
+        <v>748</v>
+      </c>
+      <c r="E86" s="24"/>
+      <c r="F86" s="24"/>
+      <c r="G86" s="24"/>
+      <c r="H86" s="24"/>
+      <c r="I86" s="24"/>
+      <c r="J86" s="27" t="s">
         <v>801</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="56"/>
-      <c r="B86" s="47" t="s">
-        <v>836</v>
-      </c>
-      <c r="C86" s="44" t="s">
-        <v>709</v>
-      </c>
-      <c r="D86" s="45" t="s">
-        <v>748</v>
-      </c>
-      <c r="E86" s="48"/>
-      <c r="F86" s="48"/>
-      <c r="G86" s="48"/>
-      <c r="H86" s="48"/>
-      <c r="I86" s="48"/>
-      <c r="J86" s="46" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="56"/>
-      <c r="B87" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="C87" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D87" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E87" s="24"/>
-      <c r="F87" s="24"/>
-      <c r="G87" s="24"/>
-      <c r="H87" s="24"/>
-      <c r="I87" s="24"/>
-      <c r="J87" s="27" t="s">
-        <v>802</v>
+      <c r="B87" s="47" t="s">
+        <v>836</v>
+      </c>
+      <c r="C87" s="44" t="s">
+        <v>709</v>
+      </c>
+      <c r="D87" s="45" t="s">
+        <v>748</v>
+      </c>
+      <c r="E87" s="48"/>
+      <c r="F87" s="48"/>
+      <c r="G87" s="48"/>
+      <c r="H87" s="48"/>
+      <c r="I87" s="48"/>
+      <c r="J87" s="46" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="56"/>
       <c r="B88" s="21" t="s">
-        <v>734</v>
+        <v>160</v>
       </c>
       <c r="C88" s="22" t="s">
         <v>17</v>
@@ -10307,13 +10318,13 @@
       <c r="H88" s="24"/>
       <c r="I88" s="24"/>
       <c r="J88" s="27" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="56"/>
       <c r="B89" s="21" t="s">
-        <v>161</v>
+        <v>734</v>
       </c>
       <c r="C89" s="22" t="s">
         <v>17</v>
@@ -10327,19 +10338,19 @@
       <c r="H89" s="24"/>
       <c r="I89" s="24"/>
       <c r="J89" s="27" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="56"/>
       <c r="B90" s="21" t="s">
-        <v>52</v>
+        <v>161</v>
       </c>
       <c r="C90" s="22" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D90" s="30" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E90" s="24"/>
       <c r="F90" s="24"/>
@@ -10347,21 +10358,19 @@
       <c r="H90" s="24"/>
       <c r="I90" s="24"/>
       <c r="J90" s="27" t="s">
-        <v>782</v>
+        <v>804</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="55" t="s">
-        <v>846</v>
-      </c>
+      <c r="A91" s="56"/>
       <c r="B91" s="21" t="s">
-        <v>162</v>
+        <v>52</v>
       </c>
       <c r="C91" s="22" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D91" s="30" t="s">
-        <v>748</v>
+        <v>24</v>
       </c>
       <c r="E91" s="24"/>
       <c r="F91" s="24"/>
@@ -10369,53 +10378,55 @@
       <c r="H91" s="24"/>
       <c r="I91" s="24"/>
       <c r="J91" s="27" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="55" t="s">
+        <v>846</v>
+      </c>
+      <c r="B92" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="C92" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" s="30" t="s">
+        <v>748</v>
+      </c>
+      <c r="E92" s="24"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="24"/>
+      <c r="H92" s="24"/>
+      <c r="I92" s="24"/>
+      <c r="J92" s="27" t="s">
         <v>801</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="56"/>
-      <c r="B92" s="47" t="s">
-        <v>836</v>
-      </c>
-      <c r="C92" s="44" t="s">
-        <v>709</v>
-      </c>
-      <c r="D92" s="45" t="s">
-        <v>748</v>
-      </c>
-      <c r="E92" s="48"/>
-      <c r="F92" s="48"/>
-      <c r="G92" s="48"/>
-      <c r="H92" s="48"/>
-      <c r="I92" s="48"/>
-      <c r="J92" s="46" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="56"/>
-      <c r="B93" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C93" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D93" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E93" s="24"/>
-      <c r="F93" s="24"/>
-      <c r="G93" s="24"/>
-      <c r="H93" s="24"/>
-      <c r="I93" s="24"/>
-      <c r="J93" s="27" t="s">
-        <v>805</v>
+      <c r="B93" s="47" t="s">
+        <v>836</v>
+      </c>
+      <c r="C93" s="44" t="s">
+        <v>709</v>
+      </c>
+      <c r="D93" s="45" t="s">
+        <v>748</v>
+      </c>
+      <c r="E93" s="48"/>
+      <c r="F93" s="48"/>
+      <c r="G93" s="48"/>
+      <c r="H93" s="48"/>
+      <c r="I93" s="48"/>
+      <c r="J93" s="46" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="56"/>
       <c r="B94" s="21" t="s">
-        <v>163</v>
+        <v>88</v>
       </c>
       <c r="C94" s="22" t="s">
         <v>17</v>
@@ -10429,13 +10440,13 @@
       <c r="H94" s="24"/>
       <c r="I94" s="24"/>
       <c r="J94" s="27" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="56"/>
       <c r="B95" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C95" s="22" t="s">
         <v>17</v>
@@ -10449,19 +10460,19 @@
       <c r="H95" s="24"/>
       <c r="I95" s="24"/>
       <c r="J95" s="27" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="56"/>
       <c r="B96" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C96" s="22" t="s">
-        <v>736</v>
+        <v>17</v>
       </c>
       <c r="D96" s="30" t="s">
-        <v>737</v>
+        <v>20</v>
       </c>
       <c r="E96" s="24"/>
       <c r="F96" s="24"/>
@@ -10469,55 +10480,55 @@
       <c r="H96" s="24"/>
       <c r="I96" s="24"/>
       <c r="J96" s="27" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="56"/>
+      <c r="B97" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="C97" s="22" t="s">
+        <v>736</v>
+      </c>
+      <c r="D97" s="30" t="s">
+        <v>737</v>
+      </c>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="24"/>
+      <c r="H97" s="24"/>
+      <c r="I97" s="24"/>
+      <c r="J97" s="27" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="55" t="s">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="55" t="s">
         <v>847</v>
       </c>
-      <c r="B97" s="47" t="s">
+      <c r="B98" s="47" t="s">
         <v>836</v>
       </c>
-      <c r="C97" s="44" t="s">
+      <c r="C98" s="44" t="s">
         <v>709</v>
       </c>
-      <c r="D97" s="45" t="s">
+      <c r="D98" s="45" t="s">
         <v>748</v>
       </c>
-      <c r="E97" s="48"/>
-      <c r="F97" s="48"/>
-      <c r="G97" s="48"/>
-      <c r="H97" s="48"/>
-      <c r="I97" s="48"/>
-      <c r="J97" s="46" t="s">
+      <c r="E98" s="48"/>
+      <c r="F98" s="48"/>
+      <c r="G98" s="48"/>
+      <c r="H98" s="48"/>
+      <c r="I98" s="48"/>
+      <c r="J98" s="46" t="s">
         <v>839</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="56"/>
-      <c r="B98" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="C98" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D98" s="30" t="s">
-        <v>729</v>
-      </c>
-      <c r="E98" s="24"/>
-      <c r="F98" s="24"/>
-      <c r="G98" s="24"/>
-      <c r="H98" s="24"/>
-      <c r="I98" s="24"/>
-      <c r="J98" s="27" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="56"/>
       <c r="B99" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C99" s="22" t="s">
         <v>11</v>
@@ -10531,55 +10542,55 @@
       <c r="H99" s="24"/>
       <c r="I99" s="24"/>
       <c r="J99" s="27" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="56"/>
+      <c r="B100" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="C100" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100" s="30" t="s">
+        <v>729</v>
+      </c>
+      <c r="E100" s="24"/>
+      <c r="F100" s="24"/>
+      <c r="G100" s="24"/>
+      <c r="H100" s="24"/>
+      <c r="I100" s="24"/>
+      <c r="J100" s="27" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="55" t="s">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="55" t="s">
         <v>848</v>
       </c>
-      <c r="B100" s="47" t="s">
+      <c r="B101" s="47" t="s">
         <v>836</v>
       </c>
-      <c r="C100" s="44" t="s">
+      <c r="C101" s="44" t="s">
         <v>709</v>
       </c>
-      <c r="D100" s="45" t="s">
+      <c r="D101" s="45" t="s">
         <v>748</v>
       </c>
-      <c r="E100" s="48"/>
-      <c r="F100" s="48"/>
-      <c r="G100" s="48"/>
-      <c r="H100" s="48"/>
-      <c r="I100" s="48"/>
-      <c r="J100" s="46" t="s">
+      <c r="E101" s="48"/>
+      <c r="F101" s="48"/>
+      <c r="G101" s="48"/>
+      <c r="H101" s="48"/>
+      <c r="I101" s="48"/>
+      <c r="J101" s="46" t="s">
         <v>839</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="56"/>
-      <c r="B101" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="C101" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D101" s="30" t="s">
-        <v>729</v>
-      </c>
-      <c r="E101" s="24"/>
-      <c r="F101" s="24"/>
-      <c r="G101" s="24"/>
-      <c r="H101" s="24"/>
-      <c r="I101" s="24"/>
-      <c r="J101" s="27" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="56"/>
       <c r="B102" s="21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C102" s="22" t="s">
         <v>11</v>
@@ -10593,55 +10604,55 @@
       <c r="H102" s="24"/>
       <c r="I102" s="24"/>
       <c r="J102" s="27" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="56"/>
+      <c r="B103" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C103" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103" s="30" t="s">
+        <v>729</v>
+      </c>
+      <c r="E103" s="24"/>
+      <c r="F103" s="24"/>
+      <c r="G103" s="24"/>
+      <c r="H103" s="24"/>
+      <c r="I103" s="24"/>
+      <c r="J103" s="27" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="55" t="s">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="55" t="s">
         <v>849</v>
       </c>
-      <c r="B103" s="47" t="s">
+      <c r="B104" s="47" t="s">
         <v>836</v>
       </c>
-      <c r="C103" s="44" t="s">
+      <c r="C104" s="44" t="s">
         <v>709</v>
       </c>
-      <c r="D103" s="45" t="s">
+      <c r="D104" s="45" t="s">
         <v>748</v>
       </c>
-      <c r="E103" s="48"/>
-      <c r="F103" s="48"/>
-      <c r="G103" s="48"/>
-      <c r="H103" s="48"/>
-      <c r="I103" s="48"/>
-      <c r="J103" s="46" t="s">
+      <c r="E104" s="48"/>
+      <c r="F104" s="48"/>
+      <c r="G104" s="48"/>
+      <c r="H104" s="48"/>
+      <c r="I104" s="48"/>
+      <c r="J104" s="46" t="s">
         <v>839</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="56"/>
-      <c r="B104" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="C104" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D104" s="30" t="s">
-        <v>729</v>
-      </c>
-      <c r="E104" s="24"/>
-      <c r="F104" s="24"/>
-      <c r="G104" s="24"/>
-      <c r="H104" s="24"/>
-      <c r="I104" s="24"/>
-      <c r="J104" s="27" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="56"/>
       <c r="B105" s="21" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C105" s="22" t="s">
         <v>11</v>
@@ -10655,55 +10666,55 @@
       <c r="H105" s="24"/>
       <c r="I105" s="24"/>
       <c r="J105" s="27" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="56"/>
+      <c r="B106" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="C106" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D106" s="30" t="s">
+        <v>729</v>
+      </c>
+      <c r="E106" s="24"/>
+      <c r="F106" s="24"/>
+      <c r="G106" s="24"/>
+      <c r="H106" s="24"/>
+      <c r="I106" s="24"/>
+      <c r="J106" s="27" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="55" t="s">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="55" t="s">
         <v>850</v>
       </c>
-      <c r="B106" s="47" t="s">
+      <c r="B107" s="47" t="s">
         <v>836</v>
       </c>
-      <c r="C106" s="44" t="s">
+      <c r="C107" s="44" t="s">
         <v>709</v>
       </c>
-      <c r="D106" s="45" t="s">
+      <c r="D107" s="45" t="s">
         <v>748</v>
       </c>
-      <c r="E106" s="48"/>
-      <c r="F106" s="48"/>
-      <c r="G106" s="48"/>
-      <c r="H106" s="48"/>
-      <c r="I106" s="48"/>
-      <c r="J106" s="46" t="s">
+      <c r="E107" s="48"/>
+      <c r="F107" s="48"/>
+      <c r="G107" s="48"/>
+      <c r="H107" s="48"/>
+      <c r="I107" s="48"/>
+      <c r="J107" s="46" t="s">
         <v>839</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="56"/>
-      <c r="B107" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="C107" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D107" s="30" t="s">
-        <v>729</v>
-      </c>
-      <c r="E107" s="24"/>
-      <c r="F107" s="24"/>
-      <c r="G107" s="24"/>
-      <c r="H107" s="24"/>
-      <c r="I107" s="24"/>
-      <c r="J107" s="27" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="56"/>
       <c r="B108" s="21" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C108" s="22" t="s">
         <v>11</v>
@@ -10717,21 +10728,19 @@
       <c r="H108" s="24"/>
       <c r="I108" s="24"/>
       <c r="J108" s="27" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="59" t="s">
-        <v>172</v>
-      </c>
+      <c r="A109" s="56"/>
       <c r="B109" s="21" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="C109" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D109" s="30">
-        <v>19</v>
+      <c r="D109" s="30" t="s">
+        <v>729</v>
       </c>
       <c r="E109" s="24"/>
       <c r="F109" s="24"/>
@@ -10739,19 +10748,21 @@
       <c r="H109" s="24"/>
       <c r="I109" s="24"/>
       <c r="J109" s="27" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="59"/>
-      <c r="B110" s="29" t="s">
-        <v>857</v>
+      <c r="A110" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="B110" s="21" t="s">
+        <v>107</v>
       </c>
       <c r="C110" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D110" s="30" t="s">
-        <v>706</v>
+        <v>11</v>
+      </c>
+      <c r="D110" s="30">
+        <v>19</v>
       </c>
       <c r="E110" s="24"/>
       <c r="F110" s="24"/>
@@ -10759,19 +10770,19 @@
       <c r="H110" s="24"/>
       <c r="I110" s="24"/>
       <c r="J110" s="27" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="59"/>
-      <c r="B111" s="21" t="s">
-        <v>174</v>
+      <c r="A111" s="54"/>
+      <c r="B111" s="29" t="s">
+        <v>857</v>
       </c>
       <c r="C111" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D111" s="30">
-        <v>32</v>
+      <c r="D111" s="30" t="s">
+        <v>706</v>
       </c>
       <c r="E111" s="24"/>
       <c r="F111" s="24"/>
@@ -10779,19 +10790,19 @@
       <c r="H111" s="24"/>
       <c r="I111" s="24"/>
       <c r="J111" s="27" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="59"/>
+      <c r="A112" s="54"/>
       <c r="B112" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C112" s="22" t="s">
-        <v>708</v>
+        <v>17</v>
       </c>
       <c r="D112" s="30">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E112" s="24"/>
       <c r="F112" s="24"/>
@@ -10799,21 +10810,19 @@
       <c r="H112" s="24"/>
       <c r="I112" s="24"/>
       <c r="J112" s="27" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="59" t="s">
-        <v>176</v>
-      </c>
+      <c r="A113" s="54"/>
       <c r="B113" s="21" t="s">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="C113" s="22" t="s">
-        <v>11</v>
+        <v>708</v>
       </c>
       <c r="D113" s="30">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E113" s="24"/>
       <c r="F113" s="24"/>
@@ -10821,19 +10830,21 @@
       <c r="H113" s="24"/>
       <c r="I113" s="24"/>
       <c r="J113" s="27" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="59"/>
+      <c r="A114" s="54" t="s">
+        <v>176</v>
+      </c>
       <c r="B114" s="21" t="s">
-        <v>177</v>
+        <v>107</v>
       </c>
       <c r="C114" s="22" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D114" s="30">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E114" s="24"/>
       <c r="F114" s="24"/>
@@ -10841,19 +10852,19 @@
       <c r="H114" s="24"/>
       <c r="I114" s="24"/>
       <c r="J114" s="27" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="59"/>
+      <c r="A115" s="54"/>
       <c r="B115" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C115" s="22" t="s">
         <v>17</v>
       </c>
       <c r="D115" s="30">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="E115" s="24"/>
       <c r="F115" s="24"/>
@@ -10861,19 +10872,19 @@
       <c r="H115" s="24"/>
       <c r="I115" s="24"/>
       <c r="J115" s="27" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="59"/>
+      <c r="A116" s="54"/>
       <c r="B116" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C116" s="22" t="s">
         <v>17</v>
       </c>
       <c r="D116" s="30">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E116" s="24"/>
       <c r="F116" s="24"/>
@@ -10881,21 +10892,19 @@
       <c r="H116" s="24"/>
       <c r="I116" s="24"/>
       <c r="J116" s="27" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="59" t="s">
-        <v>180</v>
-      </c>
+      <c r="A117" s="54"/>
       <c r="B117" s="21" t="s">
-        <v>107</v>
+        <v>179</v>
       </c>
       <c r="C117" s="22" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D117" s="30">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E117" s="24"/>
       <c r="F117" s="24"/>
@@ -10903,19 +10912,21 @@
       <c r="H117" s="24"/>
       <c r="I117" s="24"/>
       <c r="J117" s="27" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="59"/>
+      <c r="A118" s="54" t="s">
+        <v>180</v>
+      </c>
       <c r="B118" s="21" t="s">
-        <v>181</v>
+        <v>107</v>
       </c>
       <c r="C118" s="22" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D118" s="30">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E118" s="24"/>
       <c r="F118" s="24"/>
@@ -10923,31 +10934,33 @@
       <c r="H118" s="24"/>
       <c r="I118" s="24"/>
       <c r="J118" s="27" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="59"/>
+      <c r="A119" s="54"/>
       <c r="B119" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C119" s="22" t="s">
-        <v>738</v>
-      </c>
-      <c r="D119" s="30"/>
+        <v>23</v>
+      </c>
+      <c r="D119" s="30">
+        <v>3</v>
+      </c>
       <c r="E119" s="24"/>
       <c r="F119" s="24"/>
       <c r="G119" s="24"/>
       <c r="H119" s="24"/>
       <c r="I119" s="24"/>
       <c r="J119" s="27" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="59"/>
+      <c r="A120" s="54"/>
       <c r="B120" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C120" s="22" t="s">
         <v>738</v>
@@ -10959,41 +10972,39 @@
       <c r="H120" s="24"/>
       <c r="I120" s="24"/>
       <c r="J120" s="27" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="59" t="s">
-        <v>835</v>
-      </c>
+      <c r="A121" s="54"/>
       <c r="B121" s="21" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="C121" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D121" s="30">
-        <v>19</v>
-      </c>
+        <v>738</v>
+      </c>
+      <c r="D121" s="30"/>
       <c r="E121" s="24"/>
       <c r="F121" s="24"/>
       <c r="G121" s="24"/>
       <c r="H121" s="24"/>
       <c r="I121" s="24"/>
       <c r="J121" s="27" t="s">
-        <v>814</v>
+        <v>823</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="59"/>
-      <c r="B122" s="29" t="s">
-        <v>858</v>
+      <c r="A122" s="54" t="s">
+        <v>835</v>
+      </c>
+      <c r="B122" s="21" t="s">
+        <v>107</v>
       </c>
       <c r="C122" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D122" s="30" t="s">
-        <v>706</v>
+        <v>11</v>
+      </c>
+      <c r="D122" s="30">
+        <v>19</v>
       </c>
       <c r="E122" s="24"/>
       <c r="F122" s="24"/>
@@ -11001,52 +11012,69 @@
       <c r="H122" s="24"/>
       <c r="I122" s="24"/>
       <c r="J122" s="27" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="59"/>
-      <c r="B123" s="21" t="s">
-        <v>184</v>
+      <c r="A123" s="54"/>
+      <c r="B123" s="29" t="s">
+        <v>858</v>
       </c>
       <c r="C123" s="22" t="s">
-        <v>738</v>
-      </c>
-      <c r="D123" s="30"/>
+        <v>17</v>
+      </c>
+      <c r="D123" s="30" t="s">
+        <v>706</v>
+      </c>
       <c r="E123" s="24"/>
       <c r="F123" s="24"/>
       <c r="G123" s="24"/>
       <c r="H123" s="24"/>
       <c r="I123" s="24"/>
       <c r="J123" s="27" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="59"/>
+      <c r="A124" s="54"/>
       <c r="B124" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C124" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D124" s="30">
-        <v>512</v>
-      </c>
+        <v>738</v>
+      </c>
+      <c r="D124" s="30"/>
       <c r="E124" s="24"/>
       <c r="F124" s="24"/>
       <c r="G124" s="24"/>
       <c r="H124" s="24"/>
       <c r="I124" s="24"/>
       <c r="J124" s="27" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="54"/>
+      <c r="B125" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="C125" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D125" s="30">
+        <v>512</v>
+      </c>
+      <c r="E125" s="24"/>
+      <c r="F125" s="24"/>
+      <c r="G125" s="24"/>
+      <c r="H125" s="24"/>
+      <c r="I125" s="24"/>
+      <c r="J125" s="27" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="21"/>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C127" s="26"/>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="21"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C128" s="26"/>
@@ -11059,57 +11087,59 @@
     </row>
     <row r="131" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C131" s="26"/>
-      <c r="D131" s="22"/>
     </row>
     <row r="132" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C132" s="26"/>
       <c r="D132" s="22"/>
     </row>
+    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D133" s="22"/>
+    </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A117:A120"/>
-    <mergeCell ref="A121:A124"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="A106:A108"/>
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="A100:A102"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="A58:A68"/>
-    <mergeCell ref="A78:A84"/>
+  <mergeCells count="19">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A29"/>
-    <mergeCell ref="A69:A77"/>
-    <mergeCell ref="A85:A90"/>
-    <mergeCell ref="A91:A96"/>
+    <mergeCell ref="A70:A78"/>
+    <mergeCell ref="A86:A91"/>
+    <mergeCell ref="A92:A97"/>
     <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A40:A49"/>
-    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A51:A54"/>
     <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="A104:A106"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A59:A69"/>
+    <mergeCell ref="A79:A85"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="A110:A113"/>
+    <mergeCell ref="A114:A117"/>
+    <mergeCell ref="A107:A109"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="cellIs" dxfId="60" priority="2" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="49" priority="2" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:E1">
-    <cfRule type="cellIs" dxfId="59" priority="5" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="48" priority="5" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:H1">
-    <cfRule type="cellIs" dxfId="58" priority="3" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="47" priority="3" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="57" priority="4" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="46" priority="4" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="56" priority="1" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="45" priority="1" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11176,7 +11206,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="58" t="s">
         <v>186</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -11204,7 +11234,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A3" s="60"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="15" t="s">
         <v>136</v>
       </c>
@@ -11230,7 +11260,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A4" s="60"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="15" t="s">
         <v>137</v>
       </c>
@@ -11256,7 +11286,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A5" s="60"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="15" t="s">
         <v>190</v>
       </c>
@@ -11282,7 +11312,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A6" s="60"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="15" t="s">
         <v>192</v>
       </c>
@@ -11308,7 +11338,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="60"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="15" t="s">
         <v>194</v>
       </c>
@@ -11334,7 +11364,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="60"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="15" t="s">
         <v>196</v>
       </c>
@@ -11360,7 +11390,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A9" s="60"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="15" t="s">
         <v>198</v>
       </c>
@@ -11386,7 +11416,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A10" s="60"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="15" t="s">
         <v>148</v>
       </c>
@@ -11412,7 +11442,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A11" s="60"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="15" t="s">
         <v>201</v>
       </c>
@@ -11438,7 +11468,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A12" s="60"/>
+      <c r="A12" s="58"/>
       <c r="B12" s="12" t="s">
         <v>203</v>
       </c>
@@ -11464,7 +11494,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A13" s="60"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="12" t="s">
         <v>205</v>
       </c>
@@ -11490,7 +11520,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A14" s="60"/>
+      <c r="A14" s="58"/>
       <c r="B14" s="15" t="s">
         <v>207</v>
       </c>
@@ -11516,7 +11546,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="58" t="s">
         <v>209</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -11544,7 +11574,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A16" s="60"/>
+      <c r="A16" s="58"/>
       <c r="B16" s="12" t="s">
         <v>212</v>
       </c>
@@ -11570,7 +11600,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A17" s="60"/>
+      <c r="A17" s="58"/>
       <c r="B17" s="12" t="s">
         <v>214</v>
       </c>
@@ -11596,7 +11626,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A18" s="60"/>
+      <c r="A18" s="58"/>
       <c r="B18" s="12" t="s">
         <v>216</v>
       </c>
@@ -11622,7 +11652,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A19" s="60"/>
+      <c r="A19" s="58"/>
       <c r="B19" s="12" t="s">
         <v>218</v>
       </c>
@@ -11648,7 +11678,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A20" s="60"/>
+      <c r="A20" s="58"/>
       <c r="B20" s="12" t="s">
         <v>220</v>
       </c>
@@ -11674,7 +11704,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A21" s="60"/>
+      <c r="A21" s="58"/>
       <c r="B21" s="12" t="s">
         <v>222</v>
       </c>
@@ -11700,7 +11730,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A22" s="60"/>
+      <c r="A22" s="58"/>
       <c r="B22" s="12" t="s">
         <v>224</v>
       </c>
@@ -11726,7 +11756,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A23" s="60"/>
+      <c r="A23" s="58"/>
       <c r="B23" s="12" t="s">
         <v>226</v>
       </c>
@@ -11752,7 +11782,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A24" s="60"/>
+      <c r="A24" s="58"/>
       <c r="B24" s="12" t="s">
         <v>228</v>
       </c>
@@ -11778,7 +11808,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A25" s="60"/>
+      <c r="A25" s="58"/>
       <c r="B25" s="12" t="s">
         <v>52</v>
       </c>
@@ -11804,7 +11834,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A26" s="60" t="s">
+      <c r="A26" s="58" t="s">
         <v>230</v>
       </c>
       <c r="B26" s="15" t="s">
@@ -11832,7 +11862,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A27" s="60"/>
+      <c r="A27" s="58"/>
       <c r="B27" s="15" t="s">
         <v>233</v>
       </c>
@@ -11858,7 +11888,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A28" s="60"/>
+      <c r="A28" s="58"/>
       <c r="B28" s="15" t="s">
         <v>234</v>
       </c>
@@ -11884,7 +11914,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A29" s="60"/>
+      <c r="A29" s="58"/>
       <c r="B29" s="15" t="s">
         <v>52</v>
       </c>
@@ -11910,7 +11940,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A30" s="60" t="s">
+      <c r="A30" s="58" t="s">
         <v>236</v>
       </c>
       <c r="B30" s="15" t="s">
@@ -11938,7 +11968,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A31" s="60"/>
+      <c r="A31" s="58"/>
       <c r="B31" s="15" t="s">
         <v>201</v>
       </c>
@@ -11964,7 +11994,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A32" s="60"/>
+      <c r="A32" s="58"/>
       <c r="B32" s="15" t="s">
         <v>240</v>
       </c>
@@ -11990,7 +12020,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A33" s="60"/>
+      <c r="A33" s="58"/>
       <c r="B33" s="15" t="s">
         <v>52</v>
       </c>
@@ -12016,7 +12046,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A34" s="60" t="s">
+      <c r="A34" s="58" t="s">
         <v>242</v>
       </c>
       <c r="B34" s="15" t="s">
@@ -12044,7 +12074,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A35" s="60"/>
+      <c r="A35" s="58"/>
       <c r="B35" s="15" t="s">
         <v>245</v>
       </c>
@@ -12070,7 +12100,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A36" s="60"/>
+      <c r="A36" s="58"/>
       <c r="B36" s="15" t="s">
         <v>247</v>
       </c>
@@ -12096,7 +12126,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A37" s="60"/>
+      <c r="A37" s="58"/>
       <c r="B37" s="15" t="s">
         <v>52</v>
       </c>
@@ -12122,7 +12152,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A38" s="60" t="s">
+      <c r="A38" s="58" t="s">
         <v>249</v>
       </c>
       <c r="B38" s="15" t="s">
@@ -12150,7 +12180,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A39" s="60"/>
+      <c r="A39" s="58"/>
       <c r="B39" s="15" t="s">
         <v>250</v>
       </c>
@@ -12176,7 +12206,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A40" s="60"/>
+      <c r="A40" s="58"/>
       <c r="B40" s="15" t="s">
         <v>252</v>
       </c>
@@ -12202,7 +12232,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A41" s="60"/>
+      <c r="A41" s="58"/>
       <c r="B41" s="15" t="s">
         <v>201</v>
       </c>
@@ -12228,7 +12258,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A42" s="60" t="s">
+      <c r="A42" s="58" t="s">
         <v>254</v>
       </c>
       <c r="B42" s="12" t="s">
@@ -12256,7 +12286,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A43" s="60"/>
+      <c r="A43" s="58"/>
       <c r="B43" s="12" t="s">
         <v>255</v>
       </c>
@@ -12282,7 +12312,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A44" s="60"/>
+      <c r="A44" s="58"/>
       <c r="B44" s="12" t="s">
         <v>257</v>
       </c>
@@ -12308,7 +12338,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A45" s="60"/>
+      <c r="A45" s="58"/>
       <c r="B45" s="12" t="s">
         <v>259</v>
       </c>
@@ -12334,7 +12364,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A46" s="60"/>
+      <c r="A46" s="58"/>
       <c r="B46" s="12" t="s">
         <v>261</v>
       </c>
@@ -12360,7 +12390,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A47" s="60"/>
+      <c r="A47" s="58"/>
       <c r="B47" s="12" t="s">
         <v>263</v>
       </c>
@@ -12386,7 +12416,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A48" s="60"/>
+      <c r="A48" s="58"/>
       <c r="B48" s="12" t="s">
         <v>265</v>
       </c>
@@ -12412,7 +12442,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A49" s="60"/>
+      <c r="A49" s="58"/>
       <c r="B49" s="12" t="s">
         <v>267</v>
       </c>
@@ -12438,7 +12468,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A50" s="60"/>
+      <c r="A50" s="58"/>
       <c r="B50" s="12" t="s">
         <v>269</v>
       </c>
@@ -12464,7 +12494,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A51" s="60"/>
+      <c r="A51" s="58"/>
       <c r="B51" s="12" t="s">
         <v>271</v>
       </c>
@@ -12490,7 +12520,7 @@
       </c>
     </row>
     <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A52" s="60" t="s">
+      <c r="A52" s="58" t="s">
         <v>273</v>
       </c>
       <c r="B52" s="12" t="s">
@@ -12518,7 +12548,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A53" s="60"/>
+      <c r="A53" s="58"/>
       <c r="B53" s="12" t="s">
         <v>275</v>
       </c>
@@ -12544,7 +12574,7 @@
       </c>
     </row>
     <row r="54" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A54" s="60"/>
+      <c r="A54" s="58"/>
       <c r="B54" s="12" t="s">
         <v>277</v>
       </c>
@@ -12570,7 +12600,7 @@
       </c>
     </row>
     <row r="55" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A55" s="60"/>
+      <c r="A55" s="58"/>
       <c r="B55" s="12" t="s">
         <v>279</v>
       </c>
@@ -12596,7 +12626,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A56" s="60"/>
+      <c r="A56" s="58"/>
       <c r="B56" s="12" t="s">
         <v>281</v>
       </c>
@@ -12622,7 +12652,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A57" s="60"/>
+      <c r="A57" s="58"/>
       <c r="B57" s="12" t="s">
         <v>282</v>
       </c>
@@ -12648,7 +12678,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A58" s="60"/>
+      <c r="A58" s="58"/>
       <c r="B58" s="12" t="s">
         <v>19</v>
       </c>
@@ -12674,7 +12704,7 @@
       </c>
     </row>
     <row r="59" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A59" s="60"/>
+      <c r="A59" s="58"/>
       <c r="B59" s="12" t="s">
         <v>261</v>
       </c>
@@ -12700,7 +12730,7 @@
       </c>
     </row>
     <row r="60" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A60" s="60"/>
+      <c r="A60" s="58"/>
       <c r="B60" s="12" t="s">
         <v>284</v>
       </c>
@@ -12726,7 +12756,7 @@
       </c>
     </row>
     <row r="61" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A61" s="60"/>
+      <c r="A61" s="58"/>
       <c r="B61" s="12" t="s">
         <v>263</v>
       </c>
@@ -12752,7 +12782,7 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A62" s="60"/>
+      <c r="A62" s="58"/>
       <c r="B62" s="12" t="s">
         <v>257</v>
       </c>
@@ -12778,7 +12808,7 @@
       </c>
     </row>
     <row r="63" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A63" s="60"/>
+      <c r="A63" s="58"/>
       <c r="B63" s="12" t="s">
         <v>286</v>
       </c>
@@ -12804,7 +12834,7 @@
       </c>
     </row>
     <row r="64" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A64" s="60"/>
+      <c r="A64" s="58"/>
       <c r="B64" s="12" t="s">
         <v>265</v>
       </c>
@@ -12830,7 +12860,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A65" s="60"/>
+      <c r="A65" s="58"/>
       <c r="B65" s="12" t="s">
         <v>288</v>
       </c>
@@ -12856,7 +12886,7 @@
       </c>
     </row>
     <row r="66" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A66" s="60"/>
+      <c r="A66" s="58"/>
       <c r="B66" s="12" t="s">
         <v>289</v>
       </c>
@@ -12882,7 +12912,7 @@
       </c>
     </row>
     <row r="67" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A67" s="60"/>
+      <c r="A67" s="58"/>
       <c r="B67" s="12" t="s">
         <v>267</v>
       </c>
@@ -12908,7 +12938,7 @@
       </c>
     </row>
     <row r="68" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A68" s="60"/>
+      <c r="A68" s="58"/>
       <c r="B68" s="12" t="s">
         <v>290</v>
       </c>
@@ -12934,7 +12964,7 @@
       </c>
     </row>
     <row r="69" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A69" s="60"/>
+      <c r="A69" s="58"/>
       <c r="B69" s="12" t="s">
         <v>201</v>
       </c>
@@ -12960,7 +12990,7 @@
       </c>
     </row>
     <row r="70" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A70" s="60"/>
+      <c r="A70" s="58"/>
       <c r="B70" s="12" t="s">
         <v>293</v>
       </c>
@@ -12986,7 +13016,7 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A71" s="60"/>
+      <c r="A71" s="58"/>
       <c r="B71" s="12" t="s">
         <v>294</v>
       </c>
@@ -13012,7 +13042,7 @@
       </c>
     </row>
     <row r="72" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A72" s="60"/>
+      <c r="A72" s="58"/>
       <c r="B72" s="12" t="s">
         <v>295</v>
       </c>
@@ -13038,7 +13068,7 @@
       </c>
     </row>
     <row r="73" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A73" s="60"/>
+      <c r="A73" s="58"/>
       <c r="B73" s="12" t="s">
         <v>296</v>
       </c>
@@ -13064,7 +13094,7 @@
       </c>
     </row>
     <row r="74" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A74" s="60"/>
+      <c r="A74" s="58"/>
       <c r="B74" s="12" t="s">
         <v>198</v>
       </c>
@@ -13090,7 +13120,7 @@
       </c>
     </row>
     <row r="75" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A75" s="60"/>
+      <c r="A75" s="58"/>
       <c r="B75" s="12" t="s">
         <v>297</v>
       </c>
@@ -13116,7 +13146,7 @@
       </c>
     </row>
     <row r="76" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A76" s="60"/>
+      <c r="A76" s="58"/>
       <c r="B76" s="12" t="s">
         <v>299</v>
       </c>
@@ -13142,7 +13172,7 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A77" s="60"/>
+      <c r="A77" s="58"/>
       <c r="B77" s="12" t="s">
         <v>300</v>
       </c>
@@ -13168,7 +13198,7 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A78" s="60"/>
+      <c r="A78" s="58"/>
       <c r="B78" s="12" t="s">
         <v>301</v>
       </c>
@@ -13194,7 +13224,7 @@
       </c>
     </row>
     <row r="79" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A79" s="60"/>
+      <c r="A79" s="58"/>
       <c r="B79" s="12" t="s">
         <v>302</v>
       </c>
@@ -13220,7 +13250,7 @@
       </c>
     </row>
     <row r="80" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A80" s="60"/>
+      <c r="A80" s="58"/>
       <c r="B80" s="12" t="s">
         <v>303</v>
       </c>
@@ -13246,7 +13276,7 @@
       </c>
     </row>
     <row r="81" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A81" s="60"/>
+      <c r="A81" s="58"/>
       <c r="B81" s="12" t="s">
         <v>304</v>
       </c>
@@ -13272,7 +13302,7 @@
       </c>
     </row>
     <row r="82" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A82" s="60"/>
+      <c r="A82" s="58"/>
       <c r="B82" s="12" t="s">
         <v>305</v>
       </c>
@@ -13298,7 +13328,7 @@
       </c>
     </row>
     <row r="83" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A83" s="60"/>
+      <c r="A83" s="58"/>
       <c r="B83" s="12" t="s">
         <v>306</v>
       </c>
@@ -13324,7 +13354,7 @@
       </c>
     </row>
     <row r="84" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A84" s="60"/>
+      <c r="A84" s="58"/>
       <c r="B84" s="12" t="s">
         <v>307</v>
       </c>
@@ -13350,7 +13380,7 @@
       </c>
     </row>
     <row r="85" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A85" s="60"/>
+      <c r="A85" s="58"/>
       <c r="B85" s="12" t="s">
         <v>259</v>
       </c>
@@ -13376,7 +13406,7 @@
       </c>
     </row>
     <row r="86" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A86" s="60"/>
+      <c r="A86" s="58"/>
       <c r="B86" s="12" t="s">
         <v>308</v>
       </c>
@@ -13402,7 +13432,7 @@
       </c>
     </row>
     <row r="87" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A87" s="60"/>
+      <c r="A87" s="58"/>
       <c r="B87" s="12" t="s">
         <v>309</v>
       </c>
@@ -13428,7 +13458,7 @@
       </c>
     </row>
     <row r="88" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A88" s="60"/>
+      <c r="A88" s="58"/>
       <c r="B88" s="12" t="s">
         <v>311</v>
       </c>
@@ -13454,7 +13484,7 @@
       </c>
     </row>
     <row r="89" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A89" s="60"/>
+      <c r="A89" s="58"/>
       <c r="B89" s="12" t="s">
         <v>313</v>
       </c>
@@ -13480,7 +13510,7 @@
       </c>
     </row>
     <row r="90" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A90" s="60"/>
+      <c r="A90" s="58"/>
       <c r="B90" s="12" t="s">
         <v>315</v>
       </c>
@@ -13506,7 +13536,7 @@
       </c>
     </row>
     <row r="91" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A91" s="60"/>
+      <c r="A91" s="58"/>
       <c r="B91" s="12" t="s">
         <v>317</v>
       </c>
@@ -13532,7 +13562,7 @@
       </c>
     </row>
     <row r="92" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A92" s="60"/>
+      <c r="A92" s="58"/>
       <c r="B92" s="12" t="s">
         <v>318</v>
       </c>
@@ -13558,7 +13588,7 @@
       </c>
     </row>
     <row r="93" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A93" s="60" t="s">
+      <c r="A93" s="58" t="s">
         <v>320</v>
       </c>
       <c r="B93" s="12" t="s">
@@ -13586,7 +13616,7 @@
       </c>
     </row>
     <row r="94" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A94" s="60"/>
+      <c r="A94" s="58"/>
       <c r="B94" s="12" t="s">
         <v>322</v>
       </c>

--- a/arch-ums/uni-life-ums.xlsx
+++ b/arch-ums/uni-life-ums.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces-Idea\proc\arch-module\arch-ums\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2598471-B5F1-40CB-B995-074CD61EBA2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1E722A-67B3-48B9-91FA-30F399CACD16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5292" yWindow="2304" windowWidth="23040" windowHeight="12312" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2363" uniqueCount="903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2379" uniqueCount="910">
   <si>
     <t>表名/Table</t>
   </si>
@@ -3112,6 +3112,34 @@
   </si>
   <si>
     <t>父节点顺序</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>brokerage</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>总佣金</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>refrererBrokerage</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>proposedBrokerage</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐佣金</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>被推荐佣金</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3273,7 +3301,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -3386,14 +3414,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3401,8 +3432,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3410,11 +3441,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4396,8 +4427,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D4223DF3-0FD4-4A51-9CB4-4ADBF0194284}" name="表4" displayName="表4" ref="B1:J125" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64" headerRowCellStyle="常规 2">
-  <autoFilter ref="B1:J125" xr:uid="{B9CDCF83-4341-4D97-8AF8-098A114465A9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D4223DF3-0FD4-4A51-9CB4-4ADBF0194284}" name="表4" displayName="表4" ref="B1:J128" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64" headerRowCellStyle="常规 2">
+  <autoFilter ref="B1:J128" xr:uid="{B9CDCF83-4341-4D97-8AF8-098A114465A9}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{350E8EA7-6A95-4955-AF92-86AAEA2BA677}" name="列名/Column" dataDxfId="63"/>
     <tableColumn id="2" xr3:uid="{6ABB1A04-FB0D-4D10-B245-B8C8DB4828E1}" name="数据类型/Type" dataDxfId="62"/>
@@ -4724,7 +4755,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="54" t="s">
         <v>744</v>
       </c>
       <c r="B2" s="26" t="s">
@@ -4752,7 +4783,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="26" t="s">
         <v>859</v>
       </c>
@@ -4774,7 +4805,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
+      <c r="A4" s="53"/>
       <c r="B4" t="s">
         <v>19</v>
       </c>
@@ -4794,7 +4825,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
+      <c r="A5" s="53"/>
       <c r="B5" t="s">
         <v>22</v>
       </c>
@@ -4814,7 +4845,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
+      <c r="A6" s="53"/>
       <c r="B6" t="s">
         <v>26</v>
       </c>
@@ -4834,7 +4865,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
+      <c r="A7" s="53"/>
       <c r="B7" t="s">
         <v>29</v>
       </c>
@@ -4852,7 +4883,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="52"/>
+      <c r="A8" s="53"/>
       <c r="B8" t="s">
         <v>31</v>
       </c>
@@ -4872,7 +4903,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="52"/>
+      <c r="A9" s="53"/>
       <c r="B9" t="s">
         <v>33</v>
       </c>
@@ -4892,7 +4923,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="52"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="26" t="s">
         <v>860</v>
       </c>
@@ -4916,11 +4947,11 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="52"/>
+      <c r="A11" s="53"/>
       <c r="B11" t="s">
         <v>896</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="52" t="s">
         <v>738</v>
       </c>
       <c r="D11" s="28"/>
@@ -4929,7 +4960,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="53" t="s">
         <v>41</v>
       </c>
       <c r="B12" t="s">
@@ -4957,7 +4988,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="52"/>
+      <c r="A13" s="53"/>
       <c r="B13" t="s">
         <v>42</v>
       </c>
@@ -4972,7 +5003,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="52"/>
+      <c r="A14" s="53"/>
       <c r="B14" t="s">
         <v>44</v>
       </c>
@@ -4987,7 +5018,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="52"/>
+      <c r="A15" s="53"/>
       <c r="B15" t="s">
         <v>46</v>
       </c>
@@ -5002,7 +5033,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="52"/>
+      <c r="A16" s="53"/>
       <c r="B16" t="s">
         <v>48</v>
       </c>
@@ -5017,7 +5048,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="52"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="43" t="s">
         <v>832</v>
       </c>
@@ -5037,7 +5068,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="52"/>
+      <c r="A18" s="53"/>
       <c r="B18" t="s">
         <v>50</v>
       </c>
@@ -5052,7 +5083,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="52"/>
+      <c r="A19" s="53"/>
       <c r="B19" t="s">
         <v>52</v>
       </c>
@@ -5067,7 +5098,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="52"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="39" t="s">
         <v>861</v>
       </c>
@@ -5087,7 +5118,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="52"/>
+      <c r="A21" s="53"/>
       <c r="B21" t="s">
         <v>54</v>
       </c>
@@ -5102,7 +5133,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="52"/>
+      <c r="A22" s="53"/>
       <c r="B22" t="s">
         <v>56</v>
       </c>
@@ -5117,11 +5148,11 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="52"/>
+      <c r="A23" s="53"/>
       <c r="B23" t="s">
         <v>896</v>
       </c>
-      <c r="C23" s="60" t="s">
+      <c r="C23" s="52" t="s">
         <v>900</v>
       </c>
       <c r="D23" s="28"/>
@@ -5130,7 +5161,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="54" t="s">
         <v>745</v>
       </c>
       <c r="B24" t="s">
@@ -5158,7 +5189,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="52"/>
+      <c r="A25" s="53"/>
       <c r="B25" t="s">
         <v>58</v>
       </c>
@@ -5173,7 +5204,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="52"/>
+      <c r="A26" s="53"/>
       <c r="B26" t="s">
         <v>60</v>
       </c>
@@ -5188,7 +5219,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="52"/>
+      <c r="A27" s="53"/>
       <c r="B27" t="s">
         <v>62</v>
       </c>
@@ -5203,7 +5234,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="52"/>
+      <c r="A28" s="53"/>
       <c r="B28" t="s">
         <v>64</v>
       </c>
@@ -5218,7 +5249,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="52"/>
+      <c r="A29" s="53"/>
       <c r="B29" s="26" t="s">
         <v>862</v>
       </c>
@@ -5233,7 +5264,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="52"/>
+      <c r="A30" s="53"/>
       <c r="B30" t="s">
         <v>52</v>
       </c>
@@ -5248,7 +5279,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="52"/>
+      <c r="A31" s="53"/>
       <c r="B31" t="s">
         <v>67</v>
       </c>
@@ -5261,7 +5292,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="52"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="26" t="s">
         <v>899</v>
       </c>
@@ -5274,7 +5305,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="53" t="s">
         <v>69</v>
       </c>
       <c r="B33" t="s">
@@ -5291,7 +5322,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="52"/>
+      <c r="A34" s="53"/>
       <c r="B34" s="26" t="s">
         <v>863</v>
       </c>
@@ -5306,7 +5337,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="52"/>
+      <c r="A35" s="53"/>
       <c r="B35" t="s">
         <v>71</v>
       </c>
@@ -5321,7 +5352,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="52"/>
+      <c r="A36" s="53"/>
       <c r="B36" t="s">
         <v>73</v>
       </c>
@@ -5336,7 +5367,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="52"/>
+      <c r="A37" s="53"/>
       <c r="B37" t="s">
         <v>52</v>
       </c>
@@ -5351,7 +5382,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="52"/>
+      <c r="A38" s="53"/>
       <c r="B38" t="s">
         <v>75</v>
       </c>
@@ -5364,7 +5395,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="52"/>
+      <c r="A39" s="53"/>
       <c r="B39" t="s">
         <v>896</v>
       </c>
@@ -5377,7 +5408,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="52" t="s">
+      <c r="A40" s="53" t="s">
         <v>77</v>
       </c>
       <c r="B40" t="s">
@@ -5394,7 +5425,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="52"/>
+      <c r="A41" s="53"/>
       <c r="B41" t="s">
         <v>78</v>
       </c>
@@ -5409,7 +5440,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="52"/>
+      <c r="A42" s="53"/>
       <c r="B42" t="s">
         <v>80</v>
       </c>
@@ -5424,7 +5455,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="52"/>
+      <c r="A43" s="53"/>
       <c r="B43" t="s">
         <v>739</v>
       </c>
@@ -5444,7 +5475,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="52"/>
+      <c r="A44" s="53"/>
       <c r="B44" t="s">
         <v>82</v>
       </c>
@@ -5459,7 +5490,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="52"/>
+      <c r="A45" s="53"/>
       <c r="B45" t="s">
         <v>52</v>
       </c>
@@ -5474,7 +5505,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="52"/>
+      <c r="A46" s="53"/>
       <c r="B46" t="s">
         <v>75</v>
       </c>
@@ -5487,7 +5518,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="52"/>
+      <c r="A47" s="53"/>
       <c r="B47" t="s">
         <v>896</v>
       </c>
@@ -5500,7 +5531,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="52" t="s">
+      <c r="A48" s="53" t="s">
         <v>83</v>
       </c>
       <c r="B48" t="s">
@@ -5517,7 +5548,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="52"/>
+      <c r="A49" s="53"/>
       <c r="B49" t="s">
         <v>84</v>
       </c>
@@ -5532,7 +5563,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="52"/>
+      <c r="A50" s="53"/>
       <c r="B50" t="s">
         <v>86</v>
       </c>
@@ -5547,7 +5578,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="52"/>
+      <c r="A51" s="53"/>
       <c r="B51" t="s">
         <v>88</v>
       </c>
@@ -5562,7 +5593,7 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="52"/>
+      <c r="A52" s="53"/>
       <c r="B52" t="s">
         <v>90</v>
       </c>
@@ -5577,7 +5608,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="52"/>
+      <c r="A53" s="53"/>
       <c r="B53" t="s">
         <v>52</v>
       </c>
@@ -5592,7 +5623,7 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="52"/>
+      <c r="A54" s="53"/>
       <c r="B54" t="s">
         <v>92</v>
       </c>
@@ -5605,7 +5636,7 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="52"/>
+      <c r="A55" s="53"/>
       <c r="B55" t="s">
         <v>94</v>
       </c>
@@ -5618,7 +5649,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="52"/>
+      <c r="A56" s="53"/>
       <c r="B56" s="26" t="s">
         <v>899</v>
       </c>
@@ -5631,7 +5662,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="52" t="s">
+      <c r="A57" s="53" t="s">
         <v>96</v>
       </c>
       <c r="B57" t="s">
@@ -5648,7 +5679,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="52"/>
+      <c r="A58" s="53"/>
       <c r="B58" t="s">
         <v>97</v>
       </c>
@@ -5663,7 +5694,7 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="52"/>
+      <c r="A59" s="53"/>
       <c r="B59" t="s">
         <v>98</v>
       </c>
@@ -5678,7 +5709,7 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="52"/>
+      <c r="A60" s="53"/>
       <c r="B60" t="s">
         <v>100</v>
       </c>
@@ -5693,7 +5724,7 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="52"/>
+      <c r="A61" s="53"/>
       <c r="B61" t="s">
         <v>52</v>
       </c>
@@ -5706,7 +5737,7 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="52"/>
+      <c r="A62" s="53"/>
       <c r="B62" s="26" t="s">
         <v>899</v>
       </c>
@@ -5932,7 +5963,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="60" t="s">
         <v>866</v>
       </c>
       <c r="B2" s="29" t="s">
@@ -5956,7 +5987,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="29" t="s">
         <v>721</v>
       </c>
@@ -5976,7 +6007,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="29" t="s">
         <v>872</v>
       </c>
@@ -5996,7 +6027,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="29" t="s">
         <v>873</v>
       </c>
@@ -6016,7 +6047,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="29" t="s">
         <v>875</v>
       </c>
@@ -6036,7 +6067,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="59"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="29" t="s">
         <v>876</v>
       </c>
@@ -6056,7 +6087,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="59"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="29" t="s">
         <v>877</v>
       </c>
@@ -6076,7 +6107,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="59"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="29" t="s">
         <v>879</v>
       </c>
@@ -6096,7 +6127,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="59"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="29" t="s">
         <v>880</v>
       </c>
@@ -6116,7 +6147,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="59"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="37" t="s">
         <v>881</v>
       </c>
@@ -6136,7 +6167,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="59"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="29" t="s">
         <v>882</v>
       </c>
@@ -6156,7 +6187,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="59"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="29" t="s">
         <v>883</v>
       </c>
@@ -6176,7 +6207,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="59"/>
+      <c r="A14" s="60"/>
       <c r="B14" s="29" t="s">
         <v>884</v>
       </c>
@@ -6194,7 +6225,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="59"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="29" t="s">
         <v>885</v>
       </c>
@@ -6212,7 +6243,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
+      <c r="A16" s="57"/>
       <c r="B16" s="21"/>
       <c r="C16" s="22"/>
       <c r="D16" s="30"/>
@@ -6224,7 +6255,7 @@
       <c r="J16" s="27"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="56"/>
+      <c r="A17" s="57"/>
       <c r="B17" s="21"/>
       <c r="C17" s="22"/>
       <c r="D17" s="30"/>
@@ -6237,7 +6268,7 @@
       <c r="L17" s="26"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="56"/>
+      <c r="A18" s="57"/>
       <c r="B18" s="21"/>
       <c r="C18" s="22"/>
       <c r="D18" s="30"/>
@@ -6249,7 +6280,7 @@
       <c r="J18" s="27"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="56"/>
+      <c r="A19" s="57"/>
       <c r="B19" s="21"/>
       <c r="C19" s="22"/>
       <c r="D19" s="30"/>
@@ -6261,7 +6292,7 @@
       <c r="J19" s="27"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="55"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="21"/>
       <c r="C20" s="22"/>
       <c r="D20" s="30"/>
@@ -6273,7 +6304,7 @@
       <c r="J20" s="27"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="56"/>
+      <c r="A21" s="57"/>
       <c r="B21" s="29"/>
       <c r="C21" s="22"/>
       <c r="D21" s="30"/>
@@ -6285,7 +6316,7 @@
       <c r="J21" s="27"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="56"/>
+      <c r="A22" s="57"/>
       <c r="B22" s="21"/>
       <c r="C22" s="22"/>
       <c r="D22" s="30"/>
@@ -6297,7 +6328,7 @@
       <c r="J22" s="27"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="56"/>
+      <c r="A23" s="57"/>
       <c r="B23" s="21"/>
       <c r="C23" s="22"/>
       <c r="D23" s="30"/>
@@ -6309,7 +6340,7 @@
       <c r="J23" s="27"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
+      <c r="A24" s="57"/>
       <c r="B24" s="29"/>
       <c r="C24" s="22"/>
       <c r="D24" s="30"/>
@@ -6321,7 +6352,7 @@
       <c r="J24" s="27"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
+      <c r="A25" s="57"/>
       <c r="B25" s="29"/>
       <c r="C25" s="22"/>
       <c r="D25" s="30"/>
@@ -6424,7 +6455,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>498</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -6441,7 +6472,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="5" t="s">
         <v>501</v>
       </c>
@@ -6456,7 +6487,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
+      <c r="A4" s="57"/>
       <c r="B4" s="5" t="s">
         <v>503</v>
       </c>
@@ -6471,7 +6502,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="5" t="s">
         <v>505</v>
       </c>
@@ -6486,7 +6517,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="5" t="s">
         <v>507</v>
       </c>
@@ -6498,7 +6529,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="5" t="s">
         <v>509</v>
       </c>
@@ -6510,7 +6541,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="56"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="5" t="s">
         <v>511</v>
       </c>
@@ -6522,7 +6553,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="56"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="5" t="s">
         <v>513</v>
       </c>
@@ -6534,7 +6565,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="56"/>
+      <c r="A10" s="57"/>
       <c r="B10" s="5" t="s">
         <v>515</v>
       </c>
@@ -6549,7 +6580,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="56"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="5" t="s">
         <v>517</v>
       </c>
@@ -6564,7 +6595,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="56"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="5" t="s">
         <v>519</v>
       </c>
@@ -6579,7 +6610,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="56"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="5" t="s">
         <v>521</v>
       </c>
@@ -6594,7 +6625,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="56"/>
+      <c r="A14" s="57"/>
       <c r="B14" s="5" t="s">
         <v>523</v>
       </c>
@@ -6609,7 +6640,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="5" t="s">
         <v>525</v>
       </c>
@@ -6624,7 +6655,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
+      <c r="A16" s="57"/>
       <c r="B16" s="5" t="s">
         <v>527</v>
       </c>
@@ -6639,7 +6670,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="56"/>
+      <c r="A17" s="57"/>
       <c r="B17" s="5" t="s">
         <v>529</v>
       </c>
@@ -6654,7 +6685,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="56"/>
+      <c r="A18" s="57"/>
       <c r="B18" s="5" t="s">
         <v>489</v>
       </c>
@@ -6669,7 +6700,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="56"/>
+      <c r="A19" s="57"/>
       <c r="B19" s="5" t="s">
         <v>532</v>
       </c>
@@ -6684,7 +6715,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="56"/>
+      <c r="A20" s="57"/>
       <c r="B20" s="5" t="s">
         <v>534</v>
       </c>
@@ -6699,7 +6730,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="56"/>
+      <c r="A21" s="57"/>
       <c r="B21" s="5" t="s">
         <v>536</v>
       </c>
@@ -6714,7 +6745,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="56"/>
+      <c r="A22" s="57"/>
       <c r="B22" s="5" t="s">
         <v>538</v>
       </c>
@@ -6729,7 +6760,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="56"/>
+      <c r="A23" s="57"/>
       <c r="B23" s="5" t="s">
         <v>540</v>
       </c>
@@ -6744,7 +6775,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="56" t="s">
+      <c r="A24" s="57" t="s">
         <v>542</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -6761,7 +6792,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
+      <c r="A25" s="57"/>
       <c r="B25" s="5" t="s">
         <v>543</v>
       </c>
@@ -6776,7 +6807,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
+      <c r="A26" s="57"/>
       <c r="B26" s="5" t="s">
         <v>505</v>
       </c>
@@ -6791,7 +6822,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="56"/>
+      <c r="A27" s="57"/>
       <c r="B27" s="5" t="s">
         <v>546</v>
       </c>
@@ -6806,7 +6837,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="56"/>
+      <c r="A28" s="57"/>
       <c r="B28" s="5" t="s">
         <v>548</v>
       </c>
@@ -6821,7 +6852,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="56"/>
+      <c r="A29" s="57"/>
       <c r="B29" s="5" t="s">
         <v>515</v>
       </c>
@@ -6836,7 +6867,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="56"/>
+      <c r="A30" s="57"/>
       <c r="B30" s="5" t="s">
         <v>550</v>
       </c>
@@ -6851,7 +6882,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="56"/>
+      <c r="A31" s="57"/>
       <c r="B31" s="5" t="s">
         <v>552</v>
       </c>
@@ -6866,7 +6897,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="56"/>
+      <c r="A32" s="57"/>
       <c r="B32" s="5" t="s">
         <v>554</v>
       </c>
@@ -6881,7 +6912,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="56"/>
+      <c r="A33" s="57"/>
       <c r="B33" s="5" t="s">
         <v>556</v>
       </c>
@@ -6896,7 +6927,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="56"/>
+      <c r="A34" s="57"/>
       <c r="B34" s="5" t="s">
         <v>558</v>
       </c>
@@ -6911,7 +6942,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="56"/>
+      <c r="A35" s="57"/>
       <c r="B35" s="5" t="s">
         <v>561</v>
       </c>
@@ -6926,13 +6957,13 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="56"/>
+      <c r="A36" s="57"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="J36" s="5"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="56"/>
+      <c r="A37" s="57"/>
       <c r="B37" s="5" t="s">
         <v>563</v>
       </c>
@@ -6947,7 +6978,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="56"/>
+      <c r="A38" s="57"/>
       <c r="B38" s="5" t="s">
         <v>565</v>
       </c>
@@ -6962,7 +6993,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="56"/>
+      <c r="A39" s="57"/>
       <c r="B39" s="5" t="s">
         <v>566</v>
       </c>
@@ -6977,7 +7008,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="56"/>
+      <c r="A40" s="57"/>
       <c r="B40" s="5" t="s">
         <v>568</v>
       </c>
@@ -6992,13 +7023,13 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="56"/>
+      <c r="A41" s="57"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="J41" s="5"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="56"/>
+      <c r="A42" s="57"/>
       <c r="B42" s="5" t="s">
         <v>570</v>
       </c>
@@ -7013,7 +7044,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="56"/>
+      <c r="A43" s="57"/>
       <c r="B43" s="5" t="s">
         <v>572</v>
       </c>
@@ -7028,7 +7059,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="56"/>
+      <c r="A44" s="57"/>
       <c r="B44" s="5" t="s">
         <v>538</v>
       </c>
@@ -7043,7 +7074,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="56"/>
+      <c r="A45" s="57"/>
       <c r="B45" s="5" t="s">
         <v>575</v>
       </c>
@@ -7058,7 +7089,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="56"/>
+      <c r="A46" s="57"/>
       <c r="B46" s="5" t="s">
         <v>577</v>
       </c>
@@ -7073,7 +7104,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="56"/>
+      <c r="A47" s="57"/>
       <c r="B47" s="5" t="s">
         <v>579</v>
       </c>
@@ -7088,7 +7119,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="56"/>
+      <c r="A48" s="57"/>
       <c r="B48" s="5" t="s">
         <v>581</v>
       </c>
@@ -7103,7 +7134,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="56"/>
+      <c r="A49" s="57"/>
       <c r="B49" s="5" t="s">
         <v>583</v>
       </c>
@@ -7118,7 +7149,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="56"/>
+      <c r="A50" s="57"/>
       <c r="B50" s="5" t="s">
         <v>585</v>
       </c>
@@ -7130,13 +7161,13 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="56"/>
+      <c r="A51" s="57"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="J51" s="5"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="56"/>
+      <c r="A52" s="57"/>
       <c r="B52" s="5" t="s">
         <v>587</v>
       </c>
@@ -7151,7 +7182,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="56"/>
+      <c r="A53" s="57"/>
       <c r="B53" s="5" t="s">
         <v>589</v>
       </c>
@@ -7166,7 +7197,7 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="56"/>
+      <c r="A54" s="57"/>
       <c r="B54" s="5" t="s">
         <v>591</v>
       </c>
@@ -7181,7 +7212,7 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="56"/>
+      <c r="A55" s="57"/>
       <c r="B55" s="5" t="s">
         <v>593</v>
       </c>
@@ -7196,7 +7227,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="56"/>
+      <c r="A56" s="57"/>
       <c r="B56" s="5" t="s">
         <v>595</v>
       </c>
@@ -7211,7 +7242,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="56"/>
+      <c r="A57" s="57"/>
       <c r="B57" s="5" t="s">
         <v>597</v>
       </c>
@@ -7226,7 +7257,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="56"/>
+      <c r="A58" s="57"/>
       <c r="B58" s="5" t="s">
         <v>599</v>
       </c>
@@ -7241,7 +7272,7 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="56"/>
+      <c r="A59" s="57"/>
       <c r="B59" s="5" t="s">
         <v>601</v>
       </c>
@@ -7256,7 +7287,7 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="56"/>
+      <c r="A60" s="57"/>
       <c r="B60" s="5" t="s">
         <v>603</v>
       </c>
@@ -7271,7 +7302,7 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="56"/>
+      <c r="A61" s="57"/>
       <c r="B61" s="5" t="s">
         <v>605</v>
       </c>
@@ -7286,7 +7317,7 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="56"/>
+      <c r="A62" s="57"/>
       <c r="B62" s="5" t="s">
         <v>607</v>
       </c>
@@ -7301,7 +7332,7 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="56"/>
+      <c r="A63" s="57"/>
       <c r="B63" s="5" t="s">
         <v>609</v>
       </c>
@@ -7316,7 +7347,7 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="56"/>
+      <c r="A64" s="57"/>
       <c r="B64" s="5" t="s">
         <v>611</v>
       </c>
@@ -7331,7 +7362,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="56"/>
+      <c r="A65" s="57"/>
       <c r="B65" s="5" t="s">
         <v>613</v>
       </c>
@@ -7346,7 +7377,7 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="56"/>
+      <c r="A66" s="57"/>
       <c r="B66" s="5" t="s">
         <v>615</v>
       </c>
@@ -7361,13 +7392,13 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="56"/>
+      <c r="A67" s="57"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="J67" s="5"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="56"/>
+      <c r="A68" s="57"/>
       <c r="B68" s="5" t="s">
         <v>617</v>
       </c>
@@ -7379,7 +7410,7 @@
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="56"/>
+      <c r="A69" s="57"/>
       <c r="B69" s="5" t="s">
         <v>527</v>
       </c>
@@ -7394,7 +7425,7 @@
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="56"/>
+      <c r="A70" s="57"/>
       <c r="B70" s="5" t="s">
         <v>529</v>
       </c>
@@ -7409,7 +7440,7 @@
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="56"/>
+      <c r="A71" s="57"/>
       <c r="B71" s="5" t="s">
         <v>619</v>
       </c>
@@ -7424,13 +7455,13 @@
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="56"/>
+      <c r="A72" s="57"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="J72" s="5"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="56"/>
+      <c r="A73" s="57"/>
       <c r="B73" s="5" t="s">
         <v>621</v>
       </c>
@@ -7445,7 +7476,7 @@
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="56"/>
+      <c r="A74" s="57"/>
       <c r="B74" s="5" t="s">
         <v>623</v>
       </c>
@@ -7460,7 +7491,7 @@
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="56"/>
+      <c r="A75" s="57"/>
       <c r="B75" s="5" t="s">
         <v>625</v>
       </c>
@@ -7475,7 +7506,7 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="56"/>
+      <c r="A76" s="57"/>
       <c r="B76" s="5" t="s">
         <v>626</v>
       </c>
@@ -7490,7 +7521,7 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="56"/>
+      <c r="A77" s="57"/>
       <c r="B77" s="5" t="s">
         <v>628</v>
       </c>
@@ -7505,7 +7536,7 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="56"/>
+      <c r="A78" s="57"/>
       <c r="B78" s="5" t="s">
         <v>630</v>
       </c>
@@ -7520,7 +7551,7 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="56"/>
+      <c r="A79" s="57"/>
       <c r="B79" s="5" t="s">
         <v>632</v>
       </c>
@@ -7535,7 +7566,7 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="56"/>
+      <c r="A80" s="57"/>
       <c r="B80" s="5" t="s">
         <v>634</v>
       </c>
@@ -7550,7 +7581,7 @@
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="56"/>
+      <c r="A81" s="57"/>
       <c r="B81" s="5" t="s">
         <v>636</v>
       </c>
@@ -7565,7 +7596,7 @@
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="56"/>
+      <c r="A82" s="57"/>
       <c r="B82" s="5" t="s">
         <v>638</v>
       </c>
@@ -7580,7 +7611,7 @@
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="56"/>
+      <c r="A83" s="57"/>
       <c r="B83" s="5" t="s">
         <v>640</v>
       </c>
@@ -7595,7 +7626,7 @@
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="56"/>
+      <c r="A84" s="57"/>
       <c r="B84" s="5" t="s">
         <v>642</v>
       </c>
@@ -7610,7 +7641,7 @@
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="56"/>
+      <c r="A85" s="57"/>
       <c r="B85" s="5" t="s">
         <v>644</v>
       </c>
@@ -7625,7 +7656,7 @@
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="56"/>
+      <c r="A86" s="57"/>
       <c r="B86" s="5" t="s">
         <v>646</v>
       </c>
@@ -7640,7 +7671,7 @@
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="56"/>
+      <c r="A87" s="57"/>
       <c r="B87" s="5" t="s">
         <v>648</v>
       </c>
@@ -7655,7 +7686,7 @@
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="56"/>
+      <c r="A88" s="57"/>
       <c r="B88" s="5" t="s">
         <v>650</v>
       </c>
@@ -7670,7 +7701,7 @@
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="56"/>
+      <c r="A89" s="57"/>
       <c r="B89" s="5" t="s">
         <v>652</v>
       </c>
@@ -7685,7 +7716,7 @@
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="56"/>
+      <c r="A90" s="57"/>
       <c r="B90" s="5" t="s">
         <v>654</v>
       </c>
@@ -7700,13 +7731,13 @@
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="56"/>
+      <c r="A91" s="57"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="J91" s="5"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="56"/>
+      <c r="A92" s="57"/>
       <c r="B92" s="5" t="s">
         <v>656</v>
       </c>
@@ -7721,7 +7752,7 @@
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="56"/>
+      <c r="A93" s="57"/>
       <c r="B93" s="5" t="s">
         <v>658</v>
       </c>
@@ -7736,13 +7767,13 @@
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="56"/>
+      <c r="A94" s="57"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="J94" s="5"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="56"/>
+      <c r="A95" s="57"/>
       <c r="B95" s="5" t="s">
         <v>660</v>
       </c>
@@ -7757,7 +7788,7 @@
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="56"/>
+      <c r="A96" s="57"/>
       <c r="B96" s="5" t="s">
         <v>662</v>
       </c>
@@ -7772,7 +7803,7 @@
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="56"/>
+      <c r="A97" s="57"/>
       <c r="B97" s="5" t="s">
         <v>664</v>
       </c>
@@ -7784,13 +7815,13 @@
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="56"/>
+      <c r="A98" s="57"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="J98" s="5"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="56"/>
+      <c r="A99" s="57"/>
       <c r="B99" s="5" t="s">
         <v>666</v>
       </c>
@@ -7805,7 +7836,7 @@
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="56"/>
+      <c r="A100" s="57"/>
       <c r="B100" s="5" t="s">
         <v>668</v>
       </c>
@@ -7820,7 +7851,7 @@
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="56"/>
+      <c r="A101" s="57"/>
       <c r="B101" s="5" t="s">
         <v>670</v>
       </c>
@@ -7835,7 +7866,7 @@
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="56"/>
+      <c r="A102" s="57"/>
       <c r="B102" s="5" t="s">
         <v>672</v>
       </c>
@@ -7850,7 +7881,7 @@
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="56" t="s">
+      <c r="A103" s="57" t="s">
         <v>674</v>
       </c>
       <c r="B103" s="5" t="s">
@@ -7867,7 +7898,7 @@
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="56"/>
+      <c r="A104" s="57"/>
       <c r="B104" s="5" t="s">
         <v>676</v>
       </c>
@@ -7882,7 +7913,7 @@
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="56"/>
+      <c r="A105" s="57"/>
       <c r="B105" s="5" t="s">
         <v>678</v>
       </c>
@@ -7897,7 +7928,7 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="56"/>
+      <c r="A106" s="57"/>
       <c r="B106" s="5" t="s">
         <v>680</v>
       </c>
@@ -7912,7 +7943,7 @@
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="56"/>
+      <c r="A107" s="57"/>
       <c r="B107" s="5" t="s">
         <v>682</v>
       </c>
@@ -7927,7 +7958,7 @@
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="56"/>
+      <c r="A108" s="57"/>
       <c r="B108" s="5" t="s">
         <v>684</v>
       </c>
@@ -7942,7 +7973,7 @@
       </c>
     </row>
     <row r="109" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A109" s="56"/>
+      <c r="A109" s="57"/>
       <c r="B109" s="5" t="s">
         <v>686</v>
       </c>
@@ -7957,7 +7988,7 @@
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="56"/>
+      <c r="A110" s="57"/>
       <c r="B110" s="5" t="s">
         <v>688</v>
       </c>
@@ -7972,7 +8003,7 @@
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="56"/>
+      <c r="A111" s="57"/>
       <c r="B111" s="5" t="s">
         <v>690</v>
       </c>
@@ -7987,7 +8018,7 @@
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="56"/>
+      <c r="A112" s="57"/>
       <c r="B112" s="5" t="s">
         <v>692</v>
       </c>
@@ -8002,7 +8033,7 @@
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="56"/>
+      <c r="A113" s="57"/>
       <c r="B113" s="5" t="s">
         <v>694</v>
       </c>
@@ -8014,7 +8045,7 @@
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="56"/>
+      <c r="A114" s="57"/>
       <c r="B114" s="5" t="s">
         <v>696</v>
       </c>
@@ -8026,7 +8057,7 @@
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="56" t="s">
+      <c r="A115" s="57" t="s">
         <v>697</v>
       </c>
       <c r="B115" s="5" t="s">
@@ -8043,7 +8074,7 @@
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="56"/>
+      <c r="A116" s="57"/>
       <c r="B116" s="5" t="s">
         <v>676</v>
       </c>
@@ -8058,7 +8089,7 @@
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="56"/>
+      <c r="A117" s="57"/>
       <c r="B117" s="5" t="s">
         <v>678</v>
       </c>
@@ -8073,7 +8104,7 @@
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="56"/>
+      <c r="A118" s="57"/>
       <c r="B118" s="5" t="s">
         <v>682</v>
       </c>
@@ -8088,7 +8119,7 @@
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="56"/>
+      <c r="A119" s="57"/>
       <c r="B119" s="5" t="s">
         <v>587</v>
       </c>
@@ -8103,7 +8134,7 @@
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="56"/>
+      <c r="A120" s="57"/>
       <c r="B120" s="5" t="s">
         <v>589</v>
       </c>
@@ -8118,7 +8149,7 @@
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="56"/>
+      <c r="A121" s="57"/>
       <c r="B121" s="5" t="s">
         <v>591</v>
       </c>
@@ -8133,7 +8164,7 @@
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="56"/>
+      <c r="A122" s="57"/>
       <c r="B122" s="5" t="s">
         <v>593</v>
       </c>
@@ -8148,7 +8179,7 @@
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="56"/>
+      <c r="A123" s="57"/>
       <c r="B123" s="5" t="s">
         <v>595</v>
       </c>
@@ -8163,7 +8194,7 @@
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="56"/>
+      <c r="A124" s="57"/>
       <c r="B124" s="5" t="s">
         <v>597</v>
       </c>
@@ -8178,7 +8209,7 @@
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="56"/>
+      <c r="A125" s="57"/>
       <c r="B125" s="5" t="s">
         <v>599</v>
       </c>
@@ -8193,7 +8224,7 @@
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="56"/>
+      <c r="A126" s="57"/>
       <c r="B126" s="5" t="s">
         <v>601</v>
       </c>
@@ -8208,7 +8239,7 @@
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="56"/>
+      <c r="A127" s="57"/>
       <c r="B127" s="5" t="s">
         <v>603</v>
       </c>
@@ -8223,7 +8254,7 @@
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="56"/>
+      <c r="A128" s="57"/>
       <c r="B128" s="5" t="s">
         <v>605</v>
       </c>
@@ -8238,7 +8269,7 @@
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="56"/>
+      <c r="A129" s="57"/>
       <c r="B129" s="5" t="s">
         <v>607</v>
       </c>
@@ -8253,7 +8284,7 @@
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="56"/>
+      <c r="A130" s="57"/>
       <c r="B130" s="5" t="s">
         <v>609</v>
       </c>
@@ -8268,7 +8299,7 @@
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="56"/>
+      <c r="A131" s="57"/>
       <c r="B131" s="5" t="s">
         <v>611</v>
       </c>
@@ -8283,7 +8314,7 @@
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="56"/>
+      <c r="A132" s="57"/>
       <c r="B132" s="5" t="s">
         <v>613</v>
       </c>
@@ -8298,7 +8329,7 @@
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="56"/>
+      <c r="A133" s="57"/>
       <c r="B133" s="5" t="s">
         <v>615</v>
       </c>
@@ -8313,7 +8344,7 @@
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="56"/>
+      <c r="A134" s="57"/>
       <c r="B134" s="5" t="s">
         <v>699</v>
       </c>
@@ -8328,7 +8359,7 @@
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="56"/>
+      <c r="A135" s="57"/>
       <c r="B135" s="5" t="s">
         <v>701</v>
       </c>
@@ -8343,7 +8374,7 @@
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="56"/>
+      <c r="A136" s="57"/>
       <c r="B136" s="5" t="s">
         <v>703</v>
       </c>
@@ -8358,7 +8389,7 @@
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="56"/>
+      <c r="A137" s="57"/>
       <c r="B137" s="5" t="s">
         <v>696</v>
       </c>
@@ -8408,10 +8439,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L133"/>
+  <dimension ref="A1:L136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="J124" sqref="J124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8461,7 +8492,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="55" t="s">
         <v>855</v>
       </c>
       <c r="B2" s="29" t="s">
@@ -8483,7 +8514,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="29" t="s">
         <v>853</v>
       </c>
@@ -8503,7 +8534,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="33" t="s">
         <v>751</v>
       </c>
@@ -8523,7 +8554,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="29" t="s">
         <v>854</v>
       </c>
@@ -8543,7 +8574,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="56" t="s">
         <v>750</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -8565,7 +8596,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="21" t="s">
         <v>102</v>
       </c>
@@ -8589,7 +8620,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="56"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="21" t="s">
         <v>103</v>
       </c>
@@ -8611,7 +8642,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="56"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="21" t="s">
         <v>104</v>
       </c>
@@ -8633,7 +8664,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="56"/>
+      <c r="A10" s="57"/>
       <c r="B10" s="21" t="s">
         <v>105</v>
       </c>
@@ -8657,7 +8688,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="56"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="37" t="s">
         <v>828</v>
       </c>
@@ -8677,7 +8708,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="56"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="21" t="s">
         <v>106</v>
       </c>
@@ -8699,7 +8730,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="56"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="21" t="s">
         <v>715</v>
       </c>
@@ -8721,7 +8752,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="56"/>
+      <c r="A14" s="57"/>
       <c r="B14" s="21" t="s">
         <v>108</v>
       </c>
@@ -8743,7 +8774,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="21" t="s">
         <v>109</v>
       </c>
@@ -8765,7 +8796,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
+      <c r="A16" s="57"/>
       <c r="B16" s="21" t="s">
         <v>110</v>
       </c>
@@ -8787,7 +8818,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="56"/>
+      <c r="A17" s="57"/>
       <c r="B17" s="21" t="s">
         <v>111</v>
       </c>
@@ -8809,7 +8840,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="56"/>
+      <c r="A18" s="57"/>
       <c r="B18" s="21" t="s">
         <v>112</v>
       </c>
@@ -8831,7 +8862,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="56"/>
+      <c r="A19" s="57"/>
       <c r="B19" s="21" t="s">
         <v>113</v>
       </c>
@@ -8853,7 +8884,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="56"/>
+      <c r="A20" s="57"/>
       <c r="B20" s="21" t="s">
         <v>114</v>
       </c>
@@ -8875,7 +8906,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="56"/>
+      <c r="A21" s="57"/>
       <c r="B21" s="21" t="s">
         <v>115</v>
       </c>
@@ -8897,7 +8928,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="56"/>
+      <c r="A22" s="57"/>
       <c r="B22" s="21" t="s">
         <v>116</v>
       </c>
@@ -8919,7 +8950,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="56"/>
+      <c r="A23" s="57"/>
       <c r="B23" s="21" t="s">
         <v>117</v>
       </c>
@@ -8941,7 +8972,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
+      <c r="A24" s="57"/>
       <c r="B24" s="21" t="s">
         <v>118</v>
       </c>
@@ -8963,7 +8994,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
+      <c r="A25" s="57"/>
       <c r="B25" s="21" t="s">
         <v>10</v>
       </c>
@@ -8985,7 +9016,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
+      <c r="A26" s="57"/>
       <c r="B26" s="21" t="s">
         <v>119</v>
       </c>
@@ -9007,7 +9038,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="56"/>
+      <c r="A27" s="57"/>
       <c r="B27" s="21" t="s">
         <v>120</v>
       </c>
@@ -9029,7 +9060,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="56"/>
+      <c r="A28" s="57"/>
       <c r="B28" s="21" t="s">
         <v>121</v>
       </c>
@@ -9053,7 +9084,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="56"/>
+      <c r="A29" s="57"/>
       <c r="B29" s="21" t="s">
         <v>897</v>
       </c>
@@ -9069,7 +9100,7 @@
       <c r="J29" s="27"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="56" t="s">
+      <c r="A30" s="57" t="s">
         <v>719</v>
       </c>
       <c r="B30" s="21" t="s">
@@ -9097,7 +9128,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="56"/>
+      <c r="A31" s="57"/>
       <c r="B31" s="21" t="s">
         <v>722</v>
       </c>
@@ -9124,7 +9155,7 @@
       <c r="L31" s="26"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="56"/>
+      <c r="A32" s="57"/>
       <c r="B32" s="21" t="s">
         <v>122</v>
       </c>
@@ -9152,7 +9183,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="56"/>
+      <c r="A33" s="57"/>
       <c r="B33" s="21" t="s">
         <v>743</v>
       </c>
@@ -9172,7 +9203,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="55" t="s">
+      <c r="A34" s="56" t="s">
         <v>746</v>
       </c>
       <c r="B34" s="21" t="s">
@@ -9200,7 +9231,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="56"/>
+      <c r="A35" s="57"/>
       <c r="B35" s="29" t="s">
         <v>831</v>
       </c>
@@ -9226,7 +9257,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="56"/>
+      <c r="A36" s="57"/>
       <c r="B36" s="47" t="s">
         <v>836</v>
       </c>
@@ -9246,7 +9277,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="56"/>
+      <c r="A37" s="57"/>
       <c r="B37" s="47" t="s">
         <v>837</v>
       </c>
@@ -9266,7 +9297,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="56"/>
+      <c r="A38" s="57"/>
       <c r="B38" s="29" t="s">
         <v>749</v>
       </c>
@@ -9292,7 +9323,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="56"/>
+      <c r="A39" s="57"/>
       <c r="B39" s="29" t="s">
         <v>725</v>
       </c>
@@ -9336,15 +9367,15 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
+      <c r="A41" s="61"/>
       <c r="B41" s="21" t="s">
         <v>125</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D41" s="30">
         <v>11</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>748</v>
       </c>
       <c r="E41" s="24"/>
       <c r="F41" s="24"/>
@@ -9356,15 +9387,15 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
+      <c r="A42" s="61"/>
       <c r="B42" s="21" t="s">
         <v>126</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D42" s="30">
         <v>11</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>748</v>
       </c>
       <c r="E42" s="24"/>
       <c r="F42" s="24"/>
@@ -9376,15 +9407,15 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
+      <c r="A43" s="61"/>
       <c r="B43" s="21" t="s">
         <v>127</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D43" s="30">
         <v>11</v>
+      </c>
+      <c r="D43" s="30" t="s">
+        <v>748</v>
       </c>
       <c r="E43" s="24"/>
       <c r="F43" s="24"/>
@@ -9396,15 +9427,15 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
+      <c r="A44" s="61"/>
       <c r="B44" s="29" t="s">
         <v>901</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D44" s="30">
         <v>11</v>
+      </c>
+      <c r="D44" s="30" t="s">
+        <v>748</v>
       </c>
       <c r="E44" s="24"/>
       <c r="F44" s="24"/>
@@ -9416,7 +9447,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
+      <c r="A45" s="61"/>
       <c r="B45" s="21" t="s">
         <v>128</v>
       </c>
@@ -9436,7 +9467,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
+      <c r="A46" s="61"/>
       <c r="B46" s="21" t="s">
         <v>129</v>
       </c>
@@ -9456,7 +9487,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
+      <c r="A47" s="61"/>
       <c r="B47" s="21" t="s">
         <v>130</v>
       </c>
@@ -9476,7 +9507,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
+      <c r="A48" s="61"/>
       <c r="B48" s="21" t="s">
         <v>131</v>
       </c>
@@ -9496,7 +9527,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
+      <c r="A49" s="61"/>
       <c r="B49" s="21" t="s">
         <v>132</v>
       </c>
@@ -9516,7 +9547,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
+      <c r="A50" s="61"/>
       <c r="B50" s="21" t="s">
         <v>133</v>
       </c>
@@ -9536,7 +9567,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="55" t="s">
+      <c r="A51" s="56" t="s">
         <v>728</v>
       </c>
       <c r="B51" s="21" t="s">
@@ -9564,7 +9595,7 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="55"/>
+      <c r="A52" s="56"/>
       <c r="B52" s="47" t="s">
         <v>836</v>
       </c>
@@ -9584,7 +9615,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="56"/>
+      <c r="A53" s="57"/>
       <c r="B53" s="21" t="s">
         <v>136</v>
       </c>
@@ -9610,7 +9641,7 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="56"/>
+      <c r="A54" s="57"/>
       <c r="B54" s="21" t="s">
         <v>52</v>
       </c>
@@ -9632,7 +9663,7 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="55" t="s">
+      <c r="A55" s="56" t="s">
         <v>841</v>
       </c>
       <c r="B55" s="29" t="s">
@@ -9654,7 +9685,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="56"/>
+      <c r="A56" s="57"/>
       <c r="B56" s="47" t="s">
         <v>836</v>
       </c>
@@ -9674,7 +9705,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="56"/>
+      <c r="A57" s="57"/>
       <c r="B57" s="21" t="s">
         <v>137</v>
       </c>
@@ -9694,7 +9725,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="56"/>
+      <c r="A58" s="57"/>
       <c r="B58" s="21" t="s">
         <v>52</v>
       </c>
@@ -9714,7 +9745,7 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="55" t="s">
+      <c r="A59" s="56" t="s">
         <v>842</v>
       </c>
       <c r="B59" s="21" t="s">
@@ -9736,7 +9767,7 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="56"/>
+      <c r="A60" s="57"/>
       <c r="B60" s="47" t="s">
         <v>836</v>
       </c>
@@ -9756,7 +9787,7 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="56"/>
+      <c r="A61" s="57"/>
       <c r="B61" s="21" t="s">
         <v>141</v>
       </c>
@@ -9776,7 +9807,7 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="56"/>
+      <c r="A62" s="57"/>
       <c r="B62" s="21" t="s">
         <v>142</v>
       </c>
@@ -9796,7 +9827,7 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="56"/>
+      <c r="A63" s="57"/>
       <c r="B63" s="21" t="s">
         <v>856</v>
       </c>
@@ -9816,7 +9847,7 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="56"/>
+      <c r="A64" s="57"/>
       <c r="B64" s="21" t="s">
         <v>144</v>
       </c>
@@ -9836,7 +9867,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="56"/>
+      <c r="A65" s="57"/>
       <c r="B65" s="21" t="s">
         <v>145</v>
       </c>
@@ -9856,7 +9887,7 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="56"/>
+      <c r="A66" s="57"/>
       <c r="B66" s="21" t="s">
         <v>146</v>
       </c>
@@ -9876,7 +9907,7 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="56"/>
+      <c r="A67" s="57"/>
       <c r="B67" s="21" t="s">
         <v>733</v>
       </c>
@@ -9896,7 +9927,7 @@
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="56"/>
+      <c r="A68" s="57"/>
       <c r="B68" s="21" t="s">
         <v>147</v>
       </c>
@@ -9916,7 +9947,7 @@
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="56"/>
+      <c r="A69" s="57"/>
       <c r="B69" s="21" t="s">
         <v>148</v>
       </c>
@@ -9936,7 +9967,7 @@
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="55" t="s">
+      <c r="A70" s="56" t="s">
         <v>843</v>
       </c>
       <c r="B70" s="21" t="s">
@@ -9958,7 +9989,7 @@
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="56"/>
+      <c r="A71" s="57"/>
       <c r="B71" s="47" t="s">
         <v>836</v>
       </c>
@@ -9978,7 +10009,7 @@
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="56"/>
+      <c r="A72" s="57"/>
       <c r="B72" s="21" t="s">
         <v>149</v>
       </c>
@@ -9998,7 +10029,7 @@
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="56"/>
+      <c r="A73" s="57"/>
       <c r="B73" s="21" t="s">
         <v>150</v>
       </c>
@@ -10018,7 +10049,7 @@
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="56"/>
+      <c r="A74" s="57"/>
       <c r="B74" s="21" t="s">
         <v>152</v>
       </c>
@@ -10038,7 +10069,7 @@
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="56"/>
+      <c r="A75" s="57"/>
       <c r="B75" s="21" t="s">
         <v>148</v>
       </c>
@@ -10058,7 +10089,7 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="56"/>
+      <c r="A76" s="57"/>
       <c r="B76" s="21" t="s">
         <v>52</v>
       </c>
@@ -10078,7 +10109,7 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="56"/>
+      <c r="A77" s="57"/>
       <c r="B77" s="21" t="s">
         <v>742</v>
       </c>
@@ -10098,7 +10129,7 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="56"/>
+      <c r="A78" s="57"/>
       <c r="B78" s="21" t="s">
         <v>136</v>
       </c>
@@ -10118,7 +10149,7 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="55" t="s">
+      <c r="A79" s="56" t="s">
         <v>844</v>
       </c>
       <c r="B79" s="47" t="s">
@@ -10140,7 +10171,7 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="56"/>
+      <c r="A80" s="57"/>
       <c r="B80" s="21" t="s">
         <v>154</v>
       </c>
@@ -10160,7 +10191,7 @@
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="56"/>
+      <c r="A81" s="57"/>
       <c r="B81" s="21" t="s">
         <v>155</v>
       </c>
@@ -10180,7 +10211,7 @@
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="56"/>
+      <c r="A82" s="57"/>
       <c r="B82" s="21" t="s">
         <v>156</v>
       </c>
@@ -10200,7 +10231,7 @@
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="56"/>
+      <c r="A83" s="57"/>
       <c r="B83" s="21" t="s">
         <v>157</v>
       </c>
@@ -10220,7 +10251,7 @@
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="56"/>
+      <c r="A84" s="57"/>
       <c r="B84" s="29" t="s">
         <v>856</v>
       </c>
@@ -10240,7 +10271,7 @@
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="56"/>
+      <c r="A85" s="57"/>
       <c r="B85" s="21" t="s">
         <v>52</v>
       </c>
@@ -10260,7 +10291,7 @@
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="55" t="s">
+      <c r="A86" s="56" t="s">
         <v>845</v>
       </c>
       <c r="B86" s="21" t="s">
@@ -10282,7 +10313,7 @@
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="56"/>
+      <c r="A87" s="57"/>
       <c r="B87" s="47" t="s">
         <v>836</v>
       </c>
@@ -10302,7 +10333,7 @@
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="56"/>
+      <c r="A88" s="57"/>
       <c r="B88" s="21" t="s">
         <v>160</v>
       </c>
@@ -10322,7 +10353,7 @@
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="56"/>
+      <c r="A89" s="57"/>
       <c r="B89" s="21" t="s">
         <v>734</v>
       </c>
@@ -10342,7 +10373,7 @@
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="56"/>
+      <c r="A90" s="57"/>
       <c r="B90" s="21" t="s">
         <v>161</v>
       </c>
@@ -10362,7 +10393,7 @@
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="56"/>
+      <c r="A91" s="57"/>
       <c r="B91" s="21" t="s">
         <v>52</v>
       </c>
@@ -10382,7 +10413,7 @@
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="55" t="s">
+      <c r="A92" s="56" t="s">
         <v>846</v>
       </c>
       <c r="B92" s="21" t="s">
@@ -10404,7 +10435,7 @@
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="56"/>
+      <c r="A93" s="57"/>
       <c r="B93" s="47" t="s">
         <v>836</v>
       </c>
@@ -10424,7 +10455,7 @@
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="56"/>
+      <c r="A94" s="57"/>
       <c r="B94" s="21" t="s">
         <v>88</v>
       </c>
@@ -10444,7 +10475,7 @@
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="56"/>
+      <c r="A95" s="57"/>
       <c r="B95" s="21" t="s">
         <v>163</v>
       </c>
@@ -10464,7 +10495,7 @@
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="56"/>
+      <c r="A96" s="57"/>
       <c r="B96" s="21" t="s">
         <v>164</v>
       </c>
@@ -10484,7 +10515,7 @@
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="56"/>
+      <c r="A97" s="57"/>
       <c r="B97" s="21" t="s">
         <v>165</v>
       </c>
@@ -10504,7 +10535,7 @@
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="55" t="s">
+      <c r="A98" s="56" t="s">
         <v>847</v>
       </c>
       <c r="B98" s="47" t="s">
@@ -10526,7 +10557,7 @@
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="56"/>
+      <c r="A99" s="57"/>
       <c r="B99" s="21" t="s">
         <v>166</v>
       </c>
@@ -10546,7 +10577,7 @@
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="56"/>
+      <c r="A100" s="57"/>
       <c r="B100" s="21" t="s">
         <v>167</v>
       </c>
@@ -10566,7 +10597,7 @@
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="55" t="s">
+      <c r="A101" s="56" t="s">
         <v>848</v>
       </c>
       <c r="B101" s="47" t="s">
@@ -10588,7 +10619,7 @@
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="56"/>
+      <c r="A102" s="57"/>
       <c r="B102" s="21" t="s">
         <v>166</v>
       </c>
@@ -10608,7 +10639,7 @@
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="56"/>
+      <c r="A103" s="57"/>
       <c r="B103" s="21" t="s">
         <v>168</v>
       </c>
@@ -10628,7 +10659,7 @@
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="55" t="s">
+      <c r="A104" s="56" t="s">
         <v>849</v>
       </c>
       <c r="B104" s="47" t="s">
@@ -10650,7 +10681,7 @@
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="56"/>
+      <c r="A105" s="57"/>
       <c r="B105" s="21" t="s">
         <v>166</v>
       </c>
@@ -10670,7 +10701,7 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="56"/>
+      <c r="A106" s="57"/>
       <c r="B106" s="21" t="s">
         <v>170</v>
       </c>
@@ -10690,7 +10721,7 @@
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="55" t="s">
+      <c r="A107" s="56" t="s">
         <v>850</v>
       </c>
       <c r="B107" s="47" t="s">
@@ -10712,7 +10743,7 @@
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="56"/>
+      <c r="A108" s="57"/>
       <c r="B108" s="21" t="s">
         <v>166</v>
       </c>
@@ -10732,7 +10763,7 @@
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="56"/>
+      <c r="A109" s="57"/>
       <c r="B109" s="21" t="s">
         <v>171</v>
       </c>
@@ -10752,7 +10783,7 @@
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="54" t="s">
+      <c r="A110" s="58" t="s">
         <v>172</v>
       </c>
       <c r="B110" s="21" t="s">
@@ -10774,7 +10805,7 @@
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="54"/>
+      <c r="A111" s="58"/>
       <c r="B111" s="29" t="s">
         <v>857</v>
       </c>
@@ -10794,7 +10825,7 @@
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="54"/>
+      <c r="A112" s="58"/>
       <c r="B112" s="21" t="s">
         <v>174</v>
       </c>
@@ -10814,7 +10845,7 @@
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="54"/>
+      <c r="A113" s="58"/>
       <c r="B113" s="21" t="s">
         <v>175</v>
       </c>
@@ -10834,7 +10865,7 @@
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="54" t="s">
+      <c r="A114" s="58" t="s">
         <v>176</v>
       </c>
       <c r="B114" s="21" t="s">
@@ -10856,7 +10887,7 @@
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="54"/>
+      <c r="A115" s="58"/>
       <c r="B115" s="21" t="s">
         <v>177</v>
       </c>
@@ -10876,7 +10907,7 @@
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="54"/>
+      <c r="A116" s="58"/>
       <c r="B116" s="21" t="s">
         <v>178</v>
       </c>
@@ -10896,7 +10927,7 @@
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="54"/>
+      <c r="A117" s="58"/>
       <c r="B117" s="21" t="s">
         <v>179</v>
       </c>
@@ -10916,7 +10947,7 @@
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="54" t="s">
+      <c r="A118" s="5" t="s">
         <v>180</v>
       </c>
       <c r="B118" s="21" t="s">
@@ -10938,7 +10969,7 @@
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="54"/>
+      <c r="A119" s="5"/>
       <c r="B119" s="21" t="s">
         <v>181</v>
       </c>
@@ -10958,87 +10989,87 @@
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="54"/>
-      <c r="B120" s="21" t="s">
-        <v>182</v>
+      <c r="A120" s="5"/>
+      <c r="B120" s="62" t="s">
+        <v>903</v>
       </c>
       <c r="C120" s="22" t="s">
-        <v>738</v>
-      </c>
-      <c r="D120" s="30"/>
+        <v>736</v>
+      </c>
+      <c r="D120" s="38" t="s">
+        <v>904</v>
+      </c>
       <c r="E120" s="24"/>
       <c r="F120" s="24"/>
       <c r="G120" s="24"/>
       <c r="H120" s="24"/>
       <c r="I120" s="24"/>
-      <c r="J120" s="27" t="s">
-        <v>822</v>
+      <c r="J120" s="35" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="54"/>
-      <c r="B121" s="21" t="s">
-        <v>183</v>
+      <c r="A121" s="5"/>
+      <c r="B121" s="37" t="s">
+        <v>906</v>
       </c>
       <c r="C121" s="22" t="s">
-        <v>738</v>
-      </c>
-      <c r="D121" s="30"/>
+        <v>736</v>
+      </c>
+      <c r="D121" s="38" t="s">
+        <v>904</v>
+      </c>
       <c r="E121" s="24"/>
       <c r="F121" s="24"/>
       <c r="G121" s="24"/>
       <c r="H121" s="24"/>
       <c r="I121" s="24"/>
-      <c r="J121" s="27" t="s">
-        <v>823</v>
+      <c r="J121" s="35" t="s">
+        <v>908</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="54" t="s">
-        <v>835</v>
-      </c>
-      <c r="B122" s="21" t="s">
-        <v>107</v>
+      <c r="A122" s="5"/>
+      <c r="B122" s="37" t="s">
+        <v>907</v>
       </c>
       <c r="C122" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D122" s="30">
-        <v>19</v>
+        <v>736</v>
+      </c>
+      <c r="D122" s="38" t="s">
+        <v>904</v>
       </c>
       <c r="E122" s="24"/>
       <c r="F122" s="24"/>
       <c r="G122" s="24"/>
       <c r="H122" s="24"/>
       <c r="I122" s="24"/>
-      <c r="J122" s="27" t="s">
-        <v>814</v>
+      <c r="J122" s="35" t="s">
+        <v>909</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="54"/>
-      <c r="B123" s="29" t="s">
-        <v>858</v>
+      <c r="A123" s="5"/>
+      <c r="B123" s="21" t="s">
+        <v>182</v>
       </c>
       <c r="C123" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D123" s="30" t="s">
-        <v>706</v>
-      </c>
+        <v>738</v>
+      </c>
+      <c r="D123" s="30"/>
       <c r="E123" s="24"/>
       <c r="F123" s="24"/>
       <c r="G123" s="24"/>
       <c r="H123" s="24"/>
       <c r="I123" s="24"/>
       <c r="J123" s="27" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="54"/>
+      <c r="A124" s="5"/>
       <c r="B124" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C124" s="22" t="s">
         <v>738</v>
@@ -11050,19 +11081,21 @@
       <c r="H124" s="24"/>
       <c r="I124" s="24"/>
       <c r="J124" s="27" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="54"/>
+      <c r="A125" s="58" t="s">
+        <v>835</v>
+      </c>
       <c r="B125" s="21" t="s">
-        <v>185</v>
+        <v>107</v>
       </c>
       <c r="C125" s="22" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D125" s="30">
-        <v>512</v>
+        <v>19</v>
       </c>
       <c r="E125" s="24"/>
       <c r="F125" s="24"/>
@@ -11070,33 +11103,101 @@
       <c r="H125" s="24"/>
       <c r="I125" s="24"/>
       <c r="J125" s="27" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="58"/>
+      <c r="B126" s="29" t="s">
+        <v>858</v>
+      </c>
+      <c r="C126" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D126" s="30" t="s">
+        <v>706</v>
+      </c>
+      <c r="E126" s="24"/>
+      <c r="F126" s="24"/>
+      <c r="G126" s="24"/>
+      <c r="H126" s="24"/>
+      <c r="I126" s="24"/>
+      <c r="J126" s="27" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="58"/>
+      <c r="B127" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="C127" s="22" t="s">
+        <v>738</v>
+      </c>
+      <c r="D127" s="30"/>
+      <c r="E127" s="24"/>
+      <c r="F127" s="24"/>
+      <c r="G127" s="24"/>
+      <c r="H127" s="24"/>
+      <c r="I127" s="24"/>
+      <c r="J127" s="27" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="58"/>
+      <c r="B128" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="C128" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D128" s="30">
+        <v>512</v>
+      </c>
+      <c r="E128" s="24"/>
+      <c r="F128" s="24"/>
+      <c r="G128" s="24"/>
+      <c r="H128" s="24"/>
+      <c r="I128" s="24"/>
+      <c r="J128" s="27" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="21"/>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C128" s="26"/>
-    </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C129" s="26"/>
-    </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C130" s="26"/>
-    </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="21"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C131" s="26"/>
     </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C132" s="26"/>
-      <c r="D132" s="22"/>
-    </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D133" s="22"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C133" s="26"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C134" s="26"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C135" s="26"/>
+      <c r="D135" s="22"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D136" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A125:A128"/>
+    <mergeCell ref="A110:A113"/>
+    <mergeCell ref="A114:A117"/>
+    <mergeCell ref="A107:A109"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="A104:A106"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A59:A69"/>
+    <mergeCell ref="A79:A85"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A29"/>
     <mergeCell ref="A70:A78"/>
@@ -11105,17 +11206,7 @@
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A51:A54"/>
     <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A98:A100"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="A104:A106"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A59:A69"/>
-    <mergeCell ref="A79:A85"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="A110:A113"/>
-    <mergeCell ref="A114:A117"/>
-    <mergeCell ref="A107:A109"/>
+    <mergeCell ref="A40:A50"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="A1:B1">
@@ -11206,7 +11297,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="59" t="s">
         <v>186</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -11234,7 +11325,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A3" s="58"/>
+      <c r="A3" s="59"/>
       <c r="B3" s="15" t="s">
         <v>136</v>
       </c>
@@ -11260,7 +11351,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A4" s="58"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="15" t="s">
         <v>137</v>
       </c>
@@ -11286,7 +11377,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A5" s="58"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="15" t="s">
         <v>190</v>
       </c>
@@ -11312,7 +11403,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A6" s="58"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="15" t="s">
         <v>192</v>
       </c>
@@ -11338,7 +11429,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="58"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="15" t="s">
         <v>194</v>
       </c>
@@ -11364,7 +11455,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="58"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="15" t="s">
         <v>196</v>
       </c>
@@ -11390,7 +11481,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A9" s="58"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="15" t="s">
         <v>198</v>
       </c>
@@ -11416,7 +11507,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A10" s="58"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="15" t="s">
         <v>148</v>
       </c>
@@ -11442,7 +11533,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A11" s="58"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="15" t="s">
         <v>201</v>
       </c>
@@ -11468,7 +11559,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A12" s="58"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="12" t="s">
         <v>203</v>
       </c>
@@ -11494,7 +11585,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A13" s="58"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="12" t="s">
         <v>205</v>
       </c>
@@ -11520,7 +11611,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A14" s="58"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="15" t="s">
         <v>207</v>
       </c>
@@ -11546,7 +11637,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="59" t="s">
         <v>209</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -11574,7 +11665,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A16" s="58"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="12" t="s">
         <v>212</v>
       </c>
@@ -11600,7 +11691,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A17" s="58"/>
+      <c r="A17" s="59"/>
       <c r="B17" s="12" t="s">
         <v>214</v>
       </c>
@@ -11626,7 +11717,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A18" s="58"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="12" t="s">
         <v>216</v>
       </c>
@@ -11652,7 +11743,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A19" s="58"/>
+      <c r="A19" s="59"/>
       <c r="B19" s="12" t="s">
         <v>218</v>
       </c>
@@ -11678,7 +11769,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A20" s="58"/>
+      <c r="A20" s="59"/>
       <c r="B20" s="12" t="s">
         <v>220</v>
       </c>
@@ -11704,7 +11795,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A21" s="58"/>
+      <c r="A21" s="59"/>
       <c r="B21" s="12" t="s">
         <v>222</v>
       </c>
@@ -11730,7 +11821,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A22" s="58"/>
+      <c r="A22" s="59"/>
       <c r="B22" s="12" t="s">
         <v>224</v>
       </c>
@@ -11756,7 +11847,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A23" s="58"/>
+      <c r="A23" s="59"/>
       <c r="B23" s="12" t="s">
         <v>226</v>
       </c>
@@ -11782,7 +11873,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A24" s="58"/>
+      <c r="A24" s="59"/>
       <c r="B24" s="12" t="s">
         <v>228</v>
       </c>
@@ -11808,7 +11899,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A25" s="58"/>
+      <c r="A25" s="59"/>
       <c r="B25" s="12" t="s">
         <v>52</v>
       </c>
@@ -11834,7 +11925,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A26" s="58" t="s">
+      <c r="A26" s="59" t="s">
         <v>230</v>
       </c>
       <c r="B26" s="15" t="s">
@@ -11862,7 +11953,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A27" s="58"/>
+      <c r="A27" s="59"/>
       <c r="B27" s="15" t="s">
         <v>233</v>
       </c>
@@ -11888,7 +11979,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A28" s="58"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="15" t="s">
         <v>234</v>
       </c>
@@ -11914,7 +12005,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A29" s="58"/>
+      <c r="A29" s="59"/>
       <c r="B29" s="15" t="s">
         <v>52</v>
       </c>
@@ -11940,7 +12031,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A30" s="58" t="s">
+      <c r="A30" s="59" t="s">
         <v>236</v>
       </c>
       <c r="B30" s="15" t="s">
@@ -11968,7 +12059,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A31" s="58"/>
+      <c r="A31" s="59"/>
       <c r="B31" s="15" t="s">
         <v>201</v>
       </c>
@@ -11994,7 +12085,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A32" s="58"/>
+      <c r="A32" s="59"/>
       <c r="B32" s="15" t="s">
         <v>240</v>
       </c>
@@ -12020,7 +12111,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A33" s="58"/>
+      <c r="A33" s="59"/>
       <c r="B33" s="15" t="s">
         <v>52</v>
       </c>
@@ -12046,7 +12137,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A34" s="58" t="s">
+      <c r="A34" s="59" t="s">
         <v>242</v>
       </c>
       <c r="B34" s="15" t="s">
@@ -12074,7 +12165,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A35" s="58"/>
+      <c r="A35" s="59"/>
       <c r="B35" s="15" t="s">
         <v>245</v>
       </c>
@@ -12100,7 +12191,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A36" s="58"/>
+      <c r="A36" s="59"/>
       <c r="B36" s="15" t="s">
         <v>247</v>
       </c>
@@ -12126,7 +12217,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A37" s="58"/>
+      <c r="A37" s="59"/>
       <c r="B37" s="15" t="s">
         <v>52</v>
       </c>
@@ -12152,7 +12243,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A38" s="58" t="s">
+      <c r="A38" s="59" t="s">
         <v>249</v>
       </c>
       <c r="B38" s="15" t="s">
@@ -12180,7 +12271,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A39" s="58"/>
+      <c r="A39" s="59"/>
       <c r="B39" s="15" t="s">
         <v>250</v>
       </c>
@@ -12206,7 +12297,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A40" s="58"/>
+      <c r="A40" s="59"/>
       <c r="B40" s="15" t="s">
         <v>252</v>
       </c>
@@ -12232,7 +12323,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A41" s="58"/>
+      <c r="A41" s="59"/>
       <c r="B41" s="15" t="s">
         <v>201</v>
       </c>
@@ -12258,7 +12349,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A42" s="58" t="s">
+      <c r="A42" s="59" t="s">
         <v>254</v>
       </c>
       <c r="B42" s="12" t="s">
@@ -12286,7 +12377,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A43" s="58"/>
+      <c r="A43" s="59"/>
       <c r="B43" s="12" t="s">
         <v>255</v>
       </c>
@@ -12312,7 +12403,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A44" s="58"/>
+      <c r="A44" s="59"/>
       <c r="B44" s="12" t="s">
         <v>257</v>
       </c>
@@ -12338,7 +12429,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A45" s="58"/>
+      <c r="A45" s="59"/>
       <c r="B45" s="12" t="s">
         <v>259</v>
       </c>
@@ -12364,7 +12455,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A46" s="58"/>
+      <c r="A46" s="59"/>
       <c r="B46" s="12" t="s">
         <v>261</v>
       </c>
@@ -12390,7 +12481,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A47" s="58"/>
+      <c r="A47" s="59"/>
       <c r="B47" s="12" t="s">
         <v>263</v>
       </c>
@@ -12416,7 +12507,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A48" s="58"/>
+      <c r="A48" s="59"/>
       <c r="B48" s="12" t="s">
         <v>265</v>
       </c>
@@ -12442,7 +12533,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A49" s="58"/>
+      <c r="A49" s="59"/>
       <c r="B49" s="12" t="s">
         <v>267</v>
       </c>
@@ -12468,7 +12559,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A50" s="58"/>
+      <c r="A50" s="59"/>
       <c r="B50" s="12" t="s">
         <v>269</v>
       </c>
@@ -12494,7 +12585,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A51" s="58"/>
+      <c r="A51" s="59"/>
       <c r="B51" s="12" t="s">
         <v>271</v>
       </c>
@@ -12520,7 +12611,7 @@
       </c>
     </row>
     <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A52" s="58" t="s">
+      <c r="A52" s="59" t="s">
         <v>273</v>
       </c>
       <c r="B52" s="12" t="s">
@@ -12548,7 +12639,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A53" s="58"/>
+      <c r="A53" s="59"/>
       <c r="B53" s="12" t="s">
         <v>275</v>
       </c>
@@ -12574,7 +12665,7 @@
       </c>
     </row>
     <row r="54" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A54" s="58"/>
+      <c r="A54" s="59"/>
       <c r="B54" s="12" t="s">
         <v>277</v>
       </c>
@@ -12600,7 +12691,7 @@
       </c>
     </row>
     <row r="55" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A55" s="58"/>
+      <c r="A55" s="59"/>
       <c r="B55" s="12" t="s">
         <v>279</v>
       </c>
@@ -12626,7 +12717,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A56" s="58"/>
+      <c r="A56" s="59"/>
       <c r="B56" s="12" t="s">
         <v>281</v>
       </c>
@@ -12652,7 +12743,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A57" s="58"/>
+      <c r="A57" s="59"/>
       <c r="B57" s="12" t="s">
         <v>282</v>
       </c>
@@ -12678,7 +12769,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A58" s="58"/>
+      <c r="A58" s="59"/>
       <c r="B58" s="12" t="s">
         <v>19</v>
       </c>
@@ -12704,7 +12795,7 @@
       </c>
     </row>
     <row r="59" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A59" s="58"/>
+      <c r="A59" s="59"/>
       <c r="B59" s="12" t="s">
         <v>261</v>
       </c>
@@ -12730,7 +12821,7 @@
       </c>
     </row>
     <row r="60" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A60" s="58"/>
+      <c r="A60" s="59"/>
       <c r="B60" s="12" t="s">
         <v>284</v>
       </c>
@@ -12756,7 +12847,7 @@
       </c>
     </row>
     <row r="61" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A61" s="58"/>
+      <c r="A61" s="59"/>
       <c r="B61" s="12" t="s">
         <v>263</v>
       </c>
@@ -12782,7 +12873,7 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A62" s="58"/>
+      <c r="A62" s="59"/>
       <c r="B62" s="12" t="s">
         <v>257</v>
       </c>
@@ -12808,7 +12899,7 @@
       </c>
     </row>
     <row r="63" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A63" s="58"/>
+      <c r="A63" s="59"/>
       <c r="B63" s="12" t="s">
         <v>286</v>
       </c>
@@ -12834,7 +12925,7 @@
       </c>
     </row>
     <row r="64" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A64" s="58"/>
+      <c r="A64" s="59"/>
       <c r="B64" s="12" t="s">
         <v>265</v>
       </c>
@@ -12860,7 +12951,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A65" s="58"/>
+      <c r="A65" s="59"/>
       <c r="B65" s="12" t="s">
         <v>288</v>
       </c>
@@ -12886,7 +12977,7 @@
       </c>
     </row>
     <row r="66" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A66" s="58"/>
+      <c r="A66" s="59"/>
       <c r="B66" s="12" t="s">
         <v>289</v>
       </c>
@@ -12912,7 +13003,7 @@
       </c>
     </row>
     <row r="67" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A67" s="58"/>
+      <c r="A67" s="59"/>
       <c r="B67" s="12" t="s">
         <v>267</v>
       </c>
@@ -12938,7 +13029,7 @@
       </c>
     </row>
     <row r="68" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A68" s="58"/>
+      <c r="A68" s="59"/>
       <c r="B68" s="12" t="s">
         <v>290</v>
       </c>
@@ -12964,7 +13055,7 @@
       </c>
     </row>
     <row r="69" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A69" s="58"/>
+      <c r="A69" s="59"/>
       <c r="B69" s="12" t="s">
         <v>201</v>
       </c>
@@ -12990,7 +13081,7 @@
       </c>
     </row>
     <row r="70" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A70" s="58"/>
+      <c r="A70" s="59"/>
       <c r="B70" s="12" t="s">
         <v>293</v>
       </c>
@@ -13016,7 +13107,7 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A71" s="58"/>
+      <c r="A71" s="59"/>
       <c r="B71" s="12" t="s">
         <v>294</v>
       </c>
@@ -13042,7 +13133,7 @@
       </c>
     </row>
     <row r="72" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A72" s="58"/>
+      <c r="A72" s="59"/>
       <c r="B72" s="12" t="s">
         <v>295</v>
       </c>
@@ -13068,7 +13159,7 @@
       </c>
     </row>
     <row r="73" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A73" s="58"/>
+      <c r="A73" s="59"/>
       <c r="B73" s="12" t="s">
         <v>296</v>
       </c>
@@ -13094,7 +13185,7 @@
       </c>
     </row>
     <row r="74" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A74" s="58"/>
+      <c r="A74" s="59"/>
       <c r="B74" s="12" t="s">
         <v>198</v>
       </c>
@@ -13120,7 +13211,7 @@
       </c>
     </row>
     <row r="75" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A75" s="58"/>
+      <c r="A75" s="59"/>
       <c r="B75" s="12" t="s">
         <v>297</v>
       </c>
@@ -13146,7 +13237,7 @@
       </c>
     </row>
     <row r="76" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A76" s="58"/>
+      <c r="A76" s="59"/>
       <c r="B76" s="12" t="s">
         <v>299</v>
       </c>
@@ -13172,7 +13263,7 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A77" s="58"/>
+      <c r="A77" s="59"/>
       <c r="B77" s="12" t="s">
         <v>300</v>
       </c>
@@ -13198,7 +13289,7 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A78" s="58"/>
+      <c r="A78" s="59"/>
       <c r="B78" s="12" t="s">
         <v>301</v>
       </c>
@@ -13224,7 +13315,7 @@
       </c>
     </row>
     <row r="79" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A79" s="58"/>
+      <c r="A79" s="59"/>
       <c r="B79" s="12" t="s">
         <v>302</v>
       </c>
@@ -13250,7 +13341,7 @@
       </c>
     </row>
     <row r="80" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A80" s="58"/>
+      <c r="A80" s="59"/>
       <c r="B80" s="12" t="s">
         <v>303</v>
       </c>
@@ -13276,7 +13367,7 @@
       </c>
     </row>
     <row r="81" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A81" s="58"/>
+      <c r="A81" s="59"/>
       <c r="B81" s="12" t="s">
         <v>304</v>
       </c>
@@ -13302,7 +13393,7 @@
       </c>
     </row>
     <row r="82" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A82" s="58"/>
+      <c r="A82" s="59"/>
       <c r="B82" s="12" t="s">
         <v>305</v>
       </c>
@@ -13328,7 +13419,7 @@
       </c>
     </row>
     <row r="83" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A83" s="58"/>
+      <c r="A83" s="59"/>
       <c r="B83" s="12" t="s">
         <v>306</v>
       </c>
@@ -13354,7 +13445,7 @@
       </c>
     </row>
     <row r="84" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A84" s="58"/>
+      <c r="A84" s="59"/>
       <c r="B84" s="12" t="s">
         <v>307</v>
       </c>
@@ -13380,7 +13471,7 @@
       </c>
     </row>
     <row r="85" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A85" s="58"/>
+      <c r="A85" s="59"/>
       <c r="B85" s="12" t="s">
         <v>259</v>
       </c>
@@ -13406,7 +13497,7 @@
       </c>
     </row>
     <row r="86" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A86" s="58"/>
+      <c r="A86" s="59"/>
       <c r="B86" s="12" t="s">
         <v>308</v>
       </c>
@@ -13432,7 +13523,7 @@
       </c>
     </row>
     <row r="87" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A87" s="58"/>
+      <c r="A87" s="59"/>
       <c r="B87" s="12" t="s">
         <v>309</v>
       </c>
@@ -13458,7 +13549,7 @@
       </c>
     </row>
     <row r="88" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A88" s="58"/>
+      <c r="A88" s="59"/>
       <c r="B88" s="12" t="s">
         <v>311</v>
       </c>
@@ -13484,7 +13575,7 @@
       </c>
     </row>
     <row r="89" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A89" s="58"/>
+      <c r="A89" s="59"/>
       <c r="B89" s="12" t="s">
         <v>313</v>
       </c>
@@ -13510,7 +13601,7 @@
       </c>
     </row>
     <row r="90" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A90" s="58"/>
+      <c r="A90" s="59"/>
       <c r="B90" s="12" t="s">
         <v>315</v>
       </c>
@@ -13536,7 +13627,7 @@
       </c>
     </row>
     <row r="91" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A91" s="58"/>
+      <c r="A91" s="59"/>
       <c r="B91" s="12" t="s">
         <v>317</v>
       </c>
@@ -13562,7 +13653,7 @@
       </c>
     </row>
     <row r="92" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A92" s="58"/>
+      <c r="A92" s="59"/>
       <c r="B92" s="12" t="s">
         <v>318</v>
       </c>
@@ -13588,7 +13679,7 @@
       </c>
     </row>
     <row r="93" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A93" s="58" t="s">
+      <c r="A93" s="59" t="s">
         <v>320</v>
       </c>
       <c r="B93" s="12" t="s">
@@ -13616,7 +13707,7 @@
       </c>
     </row>
     <row r="94" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A94" s="58"/>
+      <c r="A94" s="59"/>
       <c r="B94" s="12" t="s">
         <v>322</v>
       </c>
@@ -13737,7 +13828,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>324</v>
       </c>
       <c r="B2" t="s">
@@ -13755,7 +13846,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
+      <c r="A3" s="57"/>
       <c r="B3" t="s">
         <v>327</v>
       </c>
@@ -13771,7 +13862,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
+      <c r="A4" s="57"/>
       <c r="B4" t="s">
         <v>329</v>
       </c>
@@ -13782,7 +13873,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="57" t="s">
         <v>331</v>
       </c>
       <c r="B5" t="s">
@@ -13800,7 +13891,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
+      <c r="A6" s="57"/>
       <c r="B6" t="s">
         <v>333</v>
       </c>
@@ -13816,7 +13907,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
+      <c r="A7" s="57"/>
       <c r="B7" t="s">
         <v>335</v>
       </c>
@@ -13832,7 +13923,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="56"/>
+      <c r="A8" s="57"/>
       <c r="B8" t="s">
         <v>337</v>
       </c>
@@ -13848,7 +13939,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="56"/>
+      <c r="A9" s="57"/>
       <c r="B9" t="s">
         <v>339</v>
       </c>
@@ -13864,7 +13955,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="57" t="s">
         <v>341</v>
       </c>
       <c r="B10" t="s">
@@ -13882,7 +13973,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="56"/>
+      <c r="A11" s="57"/>
       <c r="B11" t="s">
         <v>342</v>
       </c>
@@ -13898,7 +13989,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="56"/>
+      <c r="A12" s="57"/>
       <c r="B12" t="s">
         <v>344</v>
       </c>
@@ -14005,7 +14096,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
+      <c r="A2" s="57"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="10"/>
@@ -14016,7 +14107,7 @@
       <c r="K2" s="11"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
+      <c r="A3" s="57"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="10"/>
@@ -14027,7 +14118,7 @@
       <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
+      <c r="A4" s="57"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="10"/>
@@ -14038,7 +14129,7 @@
       <c r="K4" s="11"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
+      <c r="A5" s="57"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="10"/>
@@ -14049,7 +14140,7 @@
       <c r="K5" s="11"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
+      <c r="A6" s="57"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="10"/>
@@ -14060,7 +14151,7 @@
       <c r="K6" s="11"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
+      <c r="A7" s="57"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="10"/>
@@ -14071,7 +14162,7 @@
       <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="56"/>
+      <c r="A8" s="57"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="10"/>
@@ -14082,7 +14173,7 @@
       <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="56"/>
+      <c r="A9" s="57"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="10"/>
@@ -14093,7 +14184,7 @@
       <c r="K9" s="11"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="56"/>
+      <c r="A10" s="57"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="10"/>
@@ -14104,13 +14195,13 @@
       <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="56"/>
+      <c r="A11" s="57"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="K11" s="11"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="56"/>
+      <c r="A12" s="57"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="10"/>
@@ -14121,7 +14212,7 @@
       <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="56"/>
+      <c r="A13" s="57"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="10"/>
@@ -14132,7 +14223,7 @@
       <c r="K13" s="11"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="56"/>
+      <c r="A14" s="57"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="10"/>
@@ -14143,7 +14234,7 @@
       <c r="K14" s="11"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
+      <c r="A15" s="57"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="10"/>
@@ -14154,7 +14245,7 @@
       <c r="K15" s="11"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
+      <c r="A16" s="57"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="10"/>
@@ -14165,7 +14256,7 @@
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="56"/>
+      <c r="A17" s="57"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="10"/>
@@ -14176,7 +14267,7 @@
       <c r="K17" s="11"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="56"/>
+      <c r="A18" s="57"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="10"/>
@@ -14187,7 +14278,7 @@
       <c r="K18" s="11"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="56"/>
+      <c r="A19" s="57"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="10"/>
@@ -14198,7 +14289,7 @@
       <c r="K19" s="11"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="56"/>
+      <c r="A20" s="57"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="10"/>
@@ -14209,7 +14300,7 @@
       <c r="K20" s="11"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="56"/>
+      <c r="A21" s="57"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="10"/>
@@ -14220,7 +14311,7 @@
       <c r="K21" s="11"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="56"/>
+      <c r="A22" s="57"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="10"/>
@@ -14231,7 +14322,7 @@
       <c r="K22" s="11"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="56"/>
+      <c r="A23" s="57"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="10"/>
@@ -14242,7 +14333,7 @@
       <c r="K23" s="11"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
+      <c r="A24" s="57"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="10"/>
@@ -14253,7 +14344,7 @@
       <c r="K24" s="11"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
+      <c r="A25" s="57"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="10"/>
@@ -14264,151 +14355,151 @@
       <c r="K25" s="11"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
+      <c r="A26" s="57"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="K26" s="11"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="56"/>
+      <c r="A27" s="57"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="K27" s="11"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="56"/>
+      <c r="A28" s="57"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="K28" s="11"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="56"/>
+      <c r="A29" s="57"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="K29" s="11"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="56"/>
+      <c r="A30" s="57"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="K30" s="11"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="56"/>
+      <c r="A31" s="57"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="K31" s="11"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="56"/>
+      <c r="A32" s="57"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="K32" s="11"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="56"/>
+      <c r="A33" s="57"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="K33" s="11"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="56"/>
+      <c r="A34" s="57"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="K34" s="11"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="56"/>
+      <c r="A35" s="57"/>
       <c r="K35" s="11"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="56"/>
+      <c r="A36" s="57"/>
       <c r="K36" s="11"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="56"/>
+      <c r="A37" s="57"/>
       <c r="K37" s="11"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="56"/>
+      <c r="A38" s="57"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="K38" s="11"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="56"/>
+      <c r="A39" s="57"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="K39" s="11"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="56"/>
+      <c r="A40" s="57"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="K40" s="11"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="56"/>
+      <c r="A41" s="57"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="K41" s="11"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="56"/>
+      <c r="A42" s="57"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="K42" s="11"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="56"/>
+      <c r="A43" s="57"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="K43" s="11"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="56"/>
+      <c r="A44" s="57"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="K44" s="11"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="56"/>
+      <c r="A45" s="57"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="K45" s="11"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="56"/>
+      <c r="A46" s="57"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="K46" s="11"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="56"/>
+      <c r="A47" s="57"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="K47" s="11"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="56"/>
+      <c r="A48" s="57"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="K48" s="11"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="56"/>
+      <c r="A49" s="57"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="K49" s="11"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="56"/>
+      <c r="A50" s="57"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="K50" s="11"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="56"/>
+      <c r="A51" s="57"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="K51" s="11"/>
@@ -14509,7 +14600,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>346</v>
       </c>
       <c r="B2" t="s">
@@ -14531,7 +14622,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
+      <c r="A3" s="57"/>
       <c r="B3" t="s">
         <v>123</v>
       </c>
@@ -14551,7 +14642,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
+      <c r="A4" s="57"/>
       <c r="B4" t="s">
         <v>97</v>
       </c>
@@ -14571,7 +14662,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
+      <c r="A5" s="57"/>
       <c r="B5" t="s">
         <v>168</v>
       </c>
@@ -14591,7 +14682,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
+      <c r="A6" s="57"/>
       <c r="B6" t="s">
         <v>143</v>
       </c>
@@ -14611,7 +14702,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
+      <c r="A7" s="57"/>
       <c r="B7" t="s">
         <v>352</v>
       </c>
@@ -14631,7 +14722,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="56"/>
+      <c r="A8" s="57"/>
       <c r="B8" t="s">
         <v>354</v>
       </c>
@@ -14651,7 +14742,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="56"/>
+      <c r="A9" s="57"/>
       <c r="B9" t="s">
         <v>356</v>
       </c>
@@ -14671,7 +14762,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="56"/>
+      <c r="A10" s="57"/>
       <c r="B10" t="s">
         <v>358</v>
       </c>
@@ -14691,7 +14782,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="56"/>
+      <c r="A11" s="57"/>
       <c r="B11" t="s">
         <v>360</v>
       </c>
@@ -14711,7 +14802,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="56"/>
+      <c r="A12" s="57"/>
       <c r="B12" t="s">
         <v>362</v>
       </c>
@@ -14731,7 +14822,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="56"/>
+      <c r="A13" s="57"/>
       <c r="B13" t="s">
         <v>364</v>
       </c>
@@ -14751,7 +14842,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="56"/>
+      <c r="A14" s="57"/>
       <c r="B14" t="s">
         <v>366</v>
       </c>
@@ -14771,7 +14862,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
+      <c r="A15" s="57"/>
       <c r="B15" t="s">
         <v>367</v>
       </c>
@@ -14791,7 +14882,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
+      <c r="A16" s="57"/>
       <c r="B16" t="s">
         <v>38</v>
       </c>
@@ -14807,7 +14898,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="57" t="s">
         <v>371</v>
       </c>
       <c r="B17" t="s">
@@ -14829,7 +14920,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="56"/>
+      <c r="A18" s="57"/>
       <c r="B18" t="s">
         <v>168</v>
       </c>
@@ -14849,7 +14940,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="56"/>
+      <c r="A19" s="57"/>
       <c r="B19" t="s">
         <v>141</v>
       </c>
@@ -14869,7 +14960,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="56"/>
+      <c r="A20" s="57"/>
       <c r="B20" t="s">
         <v>259</v>
       </c>
@@ -14889,7 +14980,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="56"/>
+      <c r="A21" s="57"/>
       <c r="B21" t="s">
         <v>374</v>
       </c>
@@ -14909,7 +15000,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="56"/>
+      <c r="A22" s="57"/>
       <c r="B22" t="s">
         <v>376</v>
       </c>
@@ -14929,7 +15020,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="56"/>
+      <c r="A23" s="57"/>
       <c r="B23" t="s">
         <v>378</v>
       </c>
@@ -14949,7 +15040,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
+      <c r="A24" s="57"/>
       <c r="B24" t="s">
         <v>380</v>
       </c>
@@ -14969,7 +15060,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
+      <c r="A25" s="57"/>
       <c r="B25" t="s">
         <v>382</v>
       </c>
@@ -14989,7 +15080,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
+      <c r="A26" s="57"/>
       <c r="B26" t="s">
         <v>384</v>
       </c>
@@ -15009,7 +15100,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="56"/>
+      <c r="A27" s="57"/>
       <c r="B27" t="s">
         <v>386</v>
       </c>
@@ -15029,7 +15120,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="56"/>
+      <c r="A28" s="57"/>
       <c r="B28" t="s">
         <v>38</v>
       </c>
@@ -15045,7 +15136,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="57" t="s">
         <v>388</v>
       </c>
       <c r="B29" t="s">
@@ -15066,7 +15157,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="56"/>
+      <c r="A30" s="57"/>
       <c r="B30" t="s">
         <v>168</v>
       </c>
@@ -15085,7 +15176,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="56"/>
+      <c r="A31" s="57"/>
       <c r="B31" t="s">
         <v>390</v>
       </c>
@@ -15104,7 +15195,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="56"/>
+      <c r="A32" s="57"/>
       <c r="B32" t="s">
         <v>123</v>
       </c>
@@ -15123,7 +15214,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="56" t="s">
+      <c r="A33" s="57" t="s">
         <v>392</v>
       </c>
       <c r="B33" t="s">
@@ -15144,7 +15235,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="56"/>
+      <c r="A34" s="57"/>
       <c r="B34" t="s">
         <v>168</v>
       </c>
@@ -15163,7 +15254,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="56"/>
+      <c r="A35" s="57"/>
       <c r="B35" t="s">
         <v>123</v>
       </c>
@@ -15182,7 +15273,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="56"/>
+      <c r="A36" s="57"/>
       <c r="B36" t="s">
         <v>38</v>
       </c>
@@ -15289,7 +15380,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>393</v>
       </c>
       <c r="B2" t="s">
@@ -15307,7 +15398,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
+      <c r="A3" s="57"/>
       <c r="B3" t="s">
         <v>136</v>
       </c>
@@ -15323,7 +15414,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
+      <c r="A4" s="57"/>
       <c r="B4" t="s">
         <v>201</v>
       </c>
@@ -15336,12 +15427,12 @@
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
+      <c r="A5" s="57"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="57" t="s">
         <v>395</v>
       </c>
       <c r="B6" t="s">
@@ -15359,7 +15450,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
+      <c r="A7" s="57"/>
       <c r="B7" t="s">
         <v>397</v>
       </c>
@@ -15375,7 +15466,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="56"/>
+      <c r="A8" s="57"/>
       <c r="B8" t="s">
         <v>201</v>
       </c>
@@ -15391,7 +15482,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="56"/>
+      <c r="A9" s="57"/>
       <c r="B9" t="s">
         <v>399</v>
       </c>
@@ -15407,7 +15498,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="56"/>
+      <c r="A10" s="57"/>
       <c r="B10" t="s">
         <v>401</v>
       </c>
@@ -15423,7 +15514,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A11" s="56"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="12" t="s">
         <v>403</v>
       </c>
@@ -15439,7 +15530,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="56"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="9" t="s">
         <v>405</v>
       </c>
@@ -15455,7 +15546,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="56"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="9" t="s">
         <v>407</v>
       </c>
@@ -15471,7 +15562,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="56"/>
+      <c r="A14" s="57"/>
       <c r="B14" s="9" t="s">
         <v>409</v>
       </c>
@@ -15487,7 +15578,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="9" t="s">
         <v>411</v>
       </c>
@@ -15503,7 +15594,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
+      <c r="A16" s="57"/>
       <c r="B16" s="9" t="s">
         <v>413</v>
       </c>
@@ -15519,7 +15610,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="56"/>
+      <c r="A17" s="57"/>
       <c r="B17" s="9" t="s">
         <v>415</v>
       </c>
@@ -15535,7 +15626,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="56"/>
+      <c r="A18" s="57"/>
       <c r="B18" s="9" t="s">
         <v>417</v>
       </c>
@@ -15551,7 +15642,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="56"/>
+      <c r="A19" s="57"/>
       <c r="B19" s="9" t="s">
         <v>419</v>
       </c>
@@ -15567,7 +15658,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="56"/>
+      <c r="A20" s="57"/>
       <c r="B20" s="9" t="s">
         <v>421</v>
       </c>
@@ -15583,7 +15674,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="56"/>
+      <c r="A21" s="57"/>
       <c r="B21" s="9" t="s">
         <v>116</v>
       </c>
@@ -15596,7 +15687,7 @@
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="56"/>
+      <c r="A22" s="57"/>
       <c r="B22" s="9" t="s">
         <v>423</v>
       </c>
@@ -15609,7 +15700,7 @@
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="57" t="s">
         <v>424</v>
       </c>
       <c r="C23" s="8"/>
@@ -15621,7 +15712,7 @@
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
+      <c r="A24" s="57"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="10"/>
@@ -15631,7 +15722,7 @@
       <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
+      <c r="A25" s="57"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="10"/>
@@ -15641,7 +15732,7 @@
       <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
+      <c r="A26" s="57"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="10"/>
@@ -15805,7 +15896,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>425</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -15824,7 +15915,7 @@
       <c r="K2" s="11"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="9" t="s">
         <v>428</v>
       </c>
@@ -15841,7 +15932,7 @@
       <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
+      <c r="A4" s="57"/>
       <c r="B4" s="9" t="s">
         <v>430</v>
       </c>
@@ -15858,7 +15949,7 @@
       <c r="K4" s="11"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="9" t="s">
         <v>432</v>
       </c>
@@ -15875,7 +15966,7 @@
       <c r="K5" s="11"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="9" t="s">
         <v>434</v>
       </c>
@@ -15892,7 +15983,7 @@
       <c r="K6" s="11"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="9" t="s">
         <v>436</v>
       </c>
@@ -15909,7 +16000,7 @@
       <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="56"/>
+      <c r="A8" s="57"/>
       <c r="B8" t="s">
         <v>38</v>
       </c>
@@ -15926,7 +16017,7 @@
       <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="57" t="s">
         <v>438</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -15945,7 +16036,7 @@
       <c r="K9" s="11"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="56"/>
+      <c r="A10" s="57"/>
       <c r="B10" s="9" t="s">
         <v>439</v>
       </c>
@@ -15962,7 +16053,7 @@
       <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="56"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="9" t="s">
         <v>441</v>
       </c>
@@ -15979,7 +16070,7 @@
       <c r="K11" s="11"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="56"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="9" t="s">
         <v>443</v>
       </c>
@@ -15991,7 +16082,7 @@
       <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="56"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="9" t="s">
         <v>445</v>
       </c>
@@ -16008,7 +16099,7 @@
       <c r="K13" s="11"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="56"/>
+      <c r="A14" s="57"/>
       <c r="B14" s="9" t="s">
         <v>447</v>
       </c>
@@ -16025,7 +16116,7 @@
       <c r="K14" s="11"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
+      <c r="A15" s="57"/>
       <c r="B15" t="s">
         <v>38</v>
       </c>
@@ -16042,7 +16133,7 @@
       <c r="K15" s="11"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="57" t="s">
         <v>449</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -16061,7 +16152,7 @@
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="56"/>
+      <c r="A17" s="57"/>
       <c r="B17" s="9" t="s">
         <v>428</v>
       </c>
@@ -16078,7 +16169,7 @@
       <c r="K17" s="11"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="56"/>
+      <c r="A18" s="57"/>
       <c r="B18" s="9" t="s">
         <v>426</v>
       </c>
@@ -16090,7 +16181,7 @@
       <c r="K18" s="11"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="56"/>
+      <c r="A19" s="57"/>
       <c r="B19" s="9" t="s">
         <v>451</v>
       </c>
@@ -16102,7 +16193,7 @@
       <c r="K19" s="11"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="56"/>
+      <c r="A20" s="57"/>
       <c r="B20" s="9" t="s">
         <v>453</v>
       </c>
@@ -16114,7 +16205,7 @@
       <c r="K20" s="11"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="56"/>
+      <c r="A21" s="57"/>
       <c r="B21" s="9" t="s">
         <v>455</v>
       </c>
@@ -16126,7 +16217,7 @@
       <c r="K21" s="11"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="56"/>
+      <c r="A22" s="57"/>
       <c r="B22" s="9" t="s">
         <v>457</v>
       </c>
@@ -16138,7 +16229,7 @@
       <c r="K22" s="11"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="56"/>
+      <c r="A23" s="57"/>
       <c r="B23" s="9" t="s">
         <v>459</v>
       </c>
@@ -16150,7 +16241,7 @@
       <c r="K23" s="11"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
+      <c r="A24" s="57"/>
       <c r="B24" s="9" t="s">
         <v>286</v>
       </c>
@@ -16162,7 +16253,7 @@
       <c r="K24" s="11"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
+      <c r="A25" s="57"/>
       <c r="B25" s="9" t="s">
         <v>201</v>
       </c>
@@ -16172,7 +16263,7 @@
       <c r="K25" s="11"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
+      <c r="A26" s="57"/>
       <c r="B26" t="s">
         <v>38</v>
       </c>
@@ -16182,7 +16273,7 @@
       <c r="K26" s="11"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="56" t="s">
+      <c r="A27" s="57" t="s">
         <v>462</v>
       </c>
       <c r="B27" s="9" t="s">
@@ -16196,7 +16287,7 @@
       <c r="K27" s="11"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="56"/>
+      <c r="A28" s="57"/>
       <c r="B28" s="9" t="s">
         <v>366</v>
       </c>
@@ -16208,7 +16299,7 @@
       <c r="K28" s="11"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="56"/>
+      <c r="A29" s="57"/>
       <c r="B29" s="9" t="s">
         <v>463</v>
       </c>
@@ -16220,7 +16311,7 @@
       <c r="K29" s="11"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="56"/>
+      <c r="A30" s="57"/>
       <c r="B30" s="9" t="s">
         <v>465</v>
       </c>
@@ -16232,7 +16323,7 @@
       <c r="K30" s="11"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="56"/>
+      <c r="A31" s="57"/>
       <c r="B31" s="9" t="s">
         <v>467</v>
       </c>
@@ -16244,7 +16335,7 @@
       <c r="K31" s="11"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="56"/>
+      <c r="A32" s="57"/>
       <c r="B32" s="9" t="s">
         <v>469</v>
       </c>
@@ -16253,7 +16344,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="56"/>
+      <c r="A33" s="57"/>
       <c r="B33" s="9" t="s">
         <v>471</v>
       </c>
@@ -16262,7 +16353,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="56"/>
+      <c r="A34" s="57"/>
       <c r="B34" s="9" t="s">
         <v>426</v>
       </c>
@@ -16271,7 +16362,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="56"/>
+      <c r="A35" s="57"/>
       <c r="B35" s="9" t="s">
         <v>428</v>
       </c>
@@ -16280,7 +16371,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="56"/>
+      <c r="A36" s="57"/>
       <c r="B36" s="9" t="s">
         <v>439</v>
       </c>
@@ -16289,7 +16380,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="56"/>
+      <c r="A37" s="57"/>
       <c r="B37" s="9" t="s">
         <v>475</v>
       </c>
@@ -16298,7 +16389,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="56"/>
+      <c r="A38" s="57"/>
       <c r="B38" s="9" t="s">
         <v>453</v>
       </c>
@@ -16307,7 +16398,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="56"/>
+      <c r="A39" s="57"/>
       <c r="B39" s="9" t="s">
         <v>476</v>
       </c>
@@ -16316,7 +16407,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="56"/>
+      <c r="A40" s="57"/>
       <c r="B40" s="9" t="s">
         <v>56</v>
       </c>
@@ -16325,7 +16416,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="56"/>
+      <c r="A41" s="57"/>
       <c r="B41" s="9" t="s">
         <v>478</v>
       </c>
@@ -16334,7 +16425,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="56"/>
+      <c r="A42" s="57"/>
       <c r="B42" s="9" t="s">
         <v>480</v>
       </c>
@@ -16343,7 +16434,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="56"/>
+      <c r="A43" s="57"/>
       <c r="B43" s="9" t="s">
         <v>482</v>
       </c>
@@ -16352,7 +16443,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="56"/>
+      <c r="A44" s="57"/>
       <c r="B44" s="9" t="s">
         <v>366</v>
       </c>
@@ -16361,7 +16452,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="56"/>
+      <c r="A45" s="57"/>
       <c r="B45" t="s">
         <v>38</v>
       </c>
@@ -16370,7 +16461,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="56" t="s">
+      <c r="A46" s="57" t="s">
         <v>484</v>
       </c>
       <c r="B46" s="9" t="s">
@@ -16381,7 +16472,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="56"/>
+      <c r="A47" s="57"/>
       <c r="B47" s="9" t="s">
         <v>465</v>
       </c>
@@ -16390,7 +16481,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="56"/>
+      <c r="A48" s="57"/>
       <c r="B48" s="9" t="s">
         <v>486</v>
       </c>
@@ -16399,7 +16490,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="56"/>
+      <c r="A49" s="57"/>
       <c r="B49" s="9" t="s">
         <v>426</v>
       </c>
@@ -16408,7 +16499,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="56"/>
+      <c r="A50" s="57"/>
       <c r="B50" s="9" t="s">
         <v>428</v>
       </c>
@@ -16417,7 +16508,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="56"/>
+      <c r="A51" s="57"/>
       <c r="B51" s="9" t="s">
         <v>286</v>
       </c>
@@ -16426,7 +16517,7 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="56"/>
+      <c r="A52" s="57"/>
       <c r="B52" t="s">
         <v>38</v>
       </c>
@@ -16435,7 +16526,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="56" t="s">
+      <c r="A53" s="57" t="s">
         <v>488</v>
       </c>
       <c r="B53" s="9" t="s">
@@ -16446,7 +16537,7 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="56"/>
+      <c r="A54" s="57"/>
       <c r="B54" s="9" t="s">
         <v>428</v>
       </c>
@@ -16455,7 +16546,7 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="56"/>
+      <c r="A55" s="57"/>
       <c r="B55" s="9" t="s">
         <v>366</v>
       </c>
@@ -16464,7 +16555,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="56"/>
+      <c r="A56" s="57"/>
       <c r="B56" s="9" t="s">
         <v>16</v>
       </c>
@@ -16473,7 +16564,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="56"/>
+      <c r="A57" s="57"/>
       <c r="B57" s="9" t="s">
         <v>489</v>
       </c>
@@ -16482,7 +16573,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="56"/>
+      <c r="A58" s="57"/>
       <c r="B58" s="9" t="s">
         <v>467</v>
       </c>
@@ -16491,7 +16582,7 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="56"/>
+      <c r="A59" s="57"/>
       <c r="B59" s="9" t="s">
         <v>490</v>
       </c>
@@ -16500,7 +16591,7 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="56"/>
+      <c r="A60" s="57"/>
       <c r="B60" s="9" t="s">
         <v>492</v>
       </c>
@@ -16509,7 +16600,7 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="56"/>
+      <c r="A61" s="57"/>
       <c r="B61" s="9" t="s">
         <v>478</v>
       </c>
@@ -16518,7 +16609,7 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="56"/>
+      <c r="A62" s="57"/>
       <c r="B62" t="s">
         <v>38</v>
       </c>
@@ -16527,7 +16618,7 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="56" t="s">
+      <c r="A63" s="57" t="s">
         <v>495</v>
       </c>
       <c r="B63" s="9" t="s">
@@ -16538,7 +16629,7 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="56"/>
+      <c r="A64" s="57"/>
       <c r="B64" s="9" t="s">
         <v>496</v>
       </c>
@@ -16547,7 +16638,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="56"/>
+      <c r="A65" s="57"/>
       <c r="B65" s="9" t="s">
         <v>428</v>
       </c>
@@ -16556,7 +16647,7 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="56"/>
+      <c r="A66" s="57"/>
       <c r="B66" s="9" t="s">
         <v>439</v>
       </c>
@@ -16565,7 +16656,7 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="56"/>
+      <c r="A67" s="57"/>
       <c r="B67" s="9" t="s">
         <v>286</v>
       </c>
@@ -16574,7 +16665,7 @@
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="56"/>
+      <c r="A68" s="57"/>
       <c r="B68" t="s">
         <v>38</v>
       </c>
@@ -16677,7 +16768,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
+      <c r="A2" s="57"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="10"/>
@@ -16687,7 +16778,7 @@
       <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
+      <c r="A3" s="57"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="10"/>
@@ -16697,7 +16788,7 @@
       <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
+      <c r="A4" s="57"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="10"/>
@@ -16707,7 +16798,7 @@
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
+      <c r="A5" s="57"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="10"/>
@@ -16717,7 +16808,7 @@
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
+      <c r="A6" s="57"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="10"/>
@@ -16727,7 +16818,7 @@
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
+      <c r="A7" s="57"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="10"/>
@@ -16737,7 +16828,7 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="56"/>
+      <c r="A8" s="57"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="10"/>
@@ -16747,7 +16838,7 @@
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="56"/>
+      <c r="A9" s="57"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="10"/>
@@ -16757,7 +16848,7 @@
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="56"/>
+      <c r="A10" s="57"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="10"/>
@@ -16767,7 +16858,7 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="56"/>
+      <c r="A11" s="57"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="10"/>
@@ -16777,7 +16868,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="56"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -16788,7 +16879,7 @@
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="56"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -16799,12 +16890,12 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="56"/>
+      <c r="A14" s="57"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -16815,7 +16906,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
+      <c r="A16" s="57"/>
       <c r="B16" s="9"/>
       <c r="C16"/>
       <c r="D16" s="8"/>
@@ -16826,7 +16917,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="56"/>
+      <c r="A17" s="57"/>
       <c r="B17" s="9"/>
       <c r="C17"/>
       <c r="D17" s="8"/>
@@ -16837,7 +16928,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="56"/>
+      <c r="A18" s="57"/>
       <c r="B18" s="9"/>
       <c r="C18"/>
       <c r="D18" s="8"/>
@@ -16848,7 +16939,7 @@
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="56"/>
+      <c r="A19" s="57"/>
       <c r="B19" s="9"/>
       <c r="C19"/>
       <c r="D19" s="8"/>
@@ -16859,7 +16950,7 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="56"/>
+      <c r="A20" s="57"/>
       <c r="B20" s="9"/>
       <c r="C20"/>
       <c r="D20" s="8"/>
@@ -16870,7 +16961,7 @@
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="56"/>
+      <c r="A21" s="57"/>
       <c r="B21" s="9"/>
       <c r="C21"/>
       <c r="D21" s="8"/>
@@ -16881,7 +16972,7 @@
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="56"/>
+      <c r="A22" s="57"/>
       <c r="B22" s="9"/>
       <c r="C22"/>
       <c r="D22" s="8"/>
@@ -16892,7 +16983,7 @@
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="56"/>
+      <c r="A23" s="57"/>
       <c r="B23" s="9"/>
       <c r="C23"/>
       <c r="D23" s="8"/>
@@ -16903,7 +16994,7 @@
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
+      <c r="A24" s="57"/>
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -16914,7 +17005,7 @@
       <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
+      <c r="A25" s="57"/>
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -16925,7 +17016,7 @@
       <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
+      <c r="A26" s="57"/>
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -16936,7 +17027,7 @@
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="56"/>
+      <c r="A27" s="57"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="10"/>
@@ -16946,7 +17037,7 @@
       <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="56"/>
+      <c r="A28" s="57"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="10"/>
@@ -16956,7 +17047,7 @@
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="56"/>
+      <c r="A29" s="57"/>
       <c r="C29"/>
       <c r="D29" s="8"/>
       <c r="E29" s="10"/>
@@ -16966,7 +17057,7 @@
       <c r="I29" s="8"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="56"/>
+      <c r="A30" s="57"/>
       <c r="C30"/>
       <c r="D30" s="8"/>
       <c r="E30" s="10"/>
@@ -16976,7 +17067,7 @@
       <c r="I30" s="8"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="56"/>
+      <c r="A31" s="57"/>
       <c r="C31"/>
       <c r="D31" s="8"/>
       <c r="E31" s="10"/>
@@ -16986,7 +17077,7 @@
       <c r="I31" s="8"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="56"/>
+      <c r="A32" s="57"/>
       <c r="C32"/>
       <c r="D32" s="8"/>
       <c r="E32" s="10"/>
@@ -16996,7 +17087,7 @@
       <c r="I32" s="8"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="56"/>
+      <c r="A33" s="57"/>
       <c r="C33"/>
       <c r="D33" s="8"/>
       <c r="E33" s="10"/>
@@ -17006,7 +17097,7 @@
       <c r="I33" s="8"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="56"/>
+      <c r="A34" s="57"/>
       <c r="C34"/>
       <c r="D34" s="8"/>
       <c r="E34" s="10"/>
@@ -17016,7 +17107,7 @@
       <c r="I34" s="8"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="56"/>
+      <c r="A35" s="57"/>
       <c r="C35"/>
       <c r="D35" s="8"/>
       <c r="E35" s="10"/>
@@ -17026,7 +17117,7 @@
       <c r="I35" s="8"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="56"/>
+      <c r="A36" s="57"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="10"/>
@@ -17036,7 +17127,7 @@
       <c r="I36" s="8"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="56"/>
+      <c r="A37" s="57"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="10"/>
@@ -17046,7 +17137,7 @@
       <c r="I37" s="8"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="56"/>
+      <c r="A38" s="57"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="10"/>
@@ -17056,7 +17147,7 @@
       <c r="I38" s="8"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="56"/>
+      <c r="A39" s="57"/>
       <c r="C39"/>
       <c r="D39" s="8"/>
       <c r="E39" s="10"/>
@@ -17066,7 +17157,7 @@
       <c r="I39" s="8"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="56"/>
+      <c r="A40" s="57"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="10"/>
@@ -17076,7 +17167,7 @@
       <c r="I40" s="8"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="56"/>
+      <c r="A41" s="57"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="10"/>
@@ -17086,7 +17177,7 @@
       <c r="I41" s="8"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="56"/>
+      <c r="A42" s="57"/>
       <c r="B42" s="9"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
@@ -17097,7 +17188,7 @@
       <c r="I42" s="8"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="56"/>
+      <c r="A43" s="57"/>
       <c r="B43" s="9"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -17108,7 +17199,7 @@
       <c r="I43" s="8"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="56"/>
+      <c r="A44" s="57"/>
       <c r="B44" s="9"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -17119,7 +17210,7 @@
       <c r="I44" s="8"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="56"/>
+      <c r="A45" s="57"/>
       <c r="B45" s="9"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -17130,7 +17221,7 @@
       <c r="I45" s="8"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="56"/>
+      <c r="A46" s="57"/>
       <c r="B46" s="9"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
@@ -17141,7 +17232,7 @@
       <c r="I46" s="8"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="56"/>
+      <c r="A47" s="57"/>
       <c r="B47" s="9"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
@@ -17152,7 +17243,7 @@
       <c r="I47" s="8"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="56"/>
+      <c r="A48" s="57"/>
       <c r="B48" s="9"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -17163,7 +17254,7 @@
       <c r="I48" s="8"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="56"/>
+      <c r="A49" s="57"/>
       <c r="B49" s="9"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
@@ -17174,7 +17265,7 @@
       <c r="I49" s="8"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="56"/>
+      <c r="A50" s="57"/>
       <c r="B50" s="9"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -17185,7 +17276,7 @@
       <c r="I50" s="8"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="56"/>
+      <c r="A51" s="57"/>
       <c r="B51" s="9"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -17196,7 +17287,7 @@
       <c r="I51" s="8"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="56"/>
+      <c r="A52" s="57"/>
       <c r="B52" s="9"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
@@ -17207,7 +17298,7 @@
       <c r="I52" s="8"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="56"/>
+      <c r="A53" s="57"/>
       <c r="B53" s="9"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -17218,7 +17309,7 @@
       <c r="I53" s="8"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="56"/>
+      <c r="A54" s="57"/>
       <c r="B54" s="9"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
@@ -17229,7 +17320,7 @@
       <c r="I54" s="8"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="56"/>
+      <c r="A55" s="57"/>
       <c r="B55" s="9"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
@@ -17240,7 +17331,7 @@
       <c r="I55" s="8"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="56"/>
+      <c r="A56" s="57"/>
       <c r="B56" s="9"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
@@ -17251,7 +17342,7 @@
       <c r="I56" s="8"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="56"/>
+      <c r="A57" s="57"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
       <c r="E57" s="10"/>
@@ -17261,7 +17352,7 @@
       <c r="I57" s="8"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="56"/>
+      <c r="A58" s="57"/>
       <c r="B58" s="9"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -17272,7 +17363,7 @@
       <c r="I58" s="8"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="56"/>
+      <c r="A59" s="57"/>
       <c r="B59" s="9"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
@@ -17283,7 +17374,7 @@
       <c r="I59" s="8"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="56"/>
+      <c r="A60" s="57"/>
       <c r="B60" s="9"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
@@ -17294,7 +17385,7 @@
       <c r="I60" s="8"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="56"/>
+      <c r="A61" s="57"/>
       <c r="B61" s="9"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -17305,7 +17396,7 @@
       <c r="I61" s="8"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="56"/>
+      <c r="A62" s="57"/>
       <c r="B62" s="9"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
@@ -17316,7 +17407,7 @@
       <c r="I62" s="8"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="56"/>
+      <c r="A63" s="57"/>
       <c r="B63" s="9"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
@@ -17327,7 +17418,7 @@
       <c r="I63" s="8"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="56"/>
+      <c r="A64" s="57"/>
       <c r="B64" s="9"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -17338,7 +17429,7 @@
       <c r="I64" s="8"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="56"/>
+      <c r="A65" s="57"/>
       <c r="B65" s="9"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -17349,7 +17440,7 @@
       <c r="I65" s="8"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="56"/>
+      <c r="A66" s="57"/>
       <c r="B66" s="9"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
@@ -17360,7 +17451,7 @@
       <c r="I66" s="8"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="56"/>
+      <c r="A67" s="57"/>
       <c r="B67" s="9"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -17371,7 +17462,7 @@
       <c r="I67" s="8"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="56"/>
+      <c r="A68" s="57"/>
       <c r="B68" s="9"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
@@ -17382,7 +17473,7 @@
       <c r="I68" s="8"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="56"/>
+      <c r="A69" s="57"/>
       <c r="B69" s="9"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
@@ -17393,7 +17484,7 @@
       <c r="I69" s="8"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="56"/>
+      <c r="A70" s="57"/>
       <c r="B70" s="9"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
@@ -17404,7 +17495,7 @@
       <c r="I70" s="8"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="56"/>
+      <c r="A71" s="57"/>
       <c r="B71" s="9"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
@@ -17415,7 +17506,7 @@
       <c r="I71" s="8"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="56"/>
+      <c r="A72" s="57"/>
       <c r="B72" s="9"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
@@ -17426,7 +17517,7 @@
       <c r="I72" s="8"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="56"/>
+      <c r="A73" s="57"/>
       <c r="B73" s="9"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
@@ -17437,195 +17528,195 @@
       <c r="I73" s="8"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="56"/>
+      <c r="A74" s="57"/>
       <c r="B74" s="9"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
       <c r="G74"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="56"/>
+      <c r="A75" s="57"/>
       <c r="B75" s="9"/>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
       <c r="G75"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="56"/>
+      <c r="A76" s="57"/>
       <c r="B76" s="9"/>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
       <c r="G76"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="56"/>
+      <c r="A77" s="57"/>
       <c r="B77" s="9"/>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
       <c r="G77"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="56"/>
+      <c r="A78" s="57"/>
       <c r="B78" s="9"/>
       <c r="G78"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="56"/>
+      <c r="A79" s="57"/>
       <c r="B79" s="9"/>
       <c r="G79"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="56"/>
+      <c r="A80" s="57"/>
       <c r="B80" s="9"/>
       <c r="G80"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="56"/>
+      <c r="A81" s="57"/>
       <c r="B81" s="9"/>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
       <c r="G81"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="56"/>
+      <c r="A82" s="57"/>
       <c r="B82" s="9"/>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
       <c r="G82"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="56"/>
+      <c r="A83" s="57"/>
       <c r="B83" s="9"/>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
       <c r="G83"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="56"/>
+      <c r="A84" s="57"/>
       <c r="B84" s="9"/>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
       <c r="G84"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="56"/>
+      <c r="A85" s="57"/>
       <c r="B85" s="9"/>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
       <c r="G85"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="56"/>
+      <c r="A86" s="57"/>
       <c r="B86" s="9"/>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
       <c r="G86"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="56"/>
+      <c r="A87" s="57"/>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
       <c r="G87"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="56"/>
+      <c r="A88" s="57"/>
       <c r="B88" s="9"/>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
       <c r="G88"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="56"/>
+      <c r="A89" s="57"/>
       <c r="B89" s="9"/>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
       <c r="G89"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="56"/>
+      <c r="A90" s="57"/>
       <c r="B90" s="9"/>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
       <c r="G90"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="56"/>
+      <c r="A91" s="57"/>
       <c r="B91" s="9"/>
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
       <c r="G91"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="56"/>
+      <c r="A92" s="57"/>
       <c r="B92" s="9"/>
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
       <c r="G92"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="56"/>
+      <c r="A93" s="57"/>
       <c r="B93" s="9"/>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
       <c r="G93"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="56"/>
+      <c r="A94" s="57"/>
       <c r="B94" s="9"/>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
       <c r="G94"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="56"/>
+      <c r="A95" s="57"/>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
       <c r="G95"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="56"/>
+      <c r="A96" s="57"/>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
       <c r="G96"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="56"/>
+      <c r="A97" s="57"/>
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
       <c r="G97"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="56"/>
+      <c r="A98" s="57"/>
       <c r="C98" s="8"/>
       <c r="D98" s="8"/>
       <c r="G98"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="56"/>
+      <c r="A99" s="57"/>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
       <c r="G99"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="56"/>
+      <c r="A100" s="57"/>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
       <c r="G100"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="56"/>
+      <c r="A101" s="57"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="56"/>
+      <c r="A102" s="57"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="56"/>
+      <c r="A103" s="57"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="56"/>
+      <c r="A104" s="57"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="56"/>
+      <c r="A105" s="57"/>
     </row>
     <row r="116" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G116" s="9"/>

--- a/arch-ums/uni-life-ums.xlsx
+++ b/arch-ums/uni-life-ums.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces-Idea\proc\arch-module\arch-ums\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1E722A-67B3-48B9-91FA-30F399CACD16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23136D0F-E79F-42E6-AC22-2A6C340B4B88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5292" yWindow="2304" windowWidth="23040" windowHeight="12312" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2379" uniqueCount="910">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2383" uniqueCount="912">
   <si>
     <t>表名/Table</t>
   </si>
@@ -2234,10 +2234,6 @@
   </si>
   <si>
     <t>账号-关系/AccountRelationship</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>父节点ID（数据库自增）</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -2465,10 +2461,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>推荐人ID</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>推荐人姓名</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3111,10 +3103,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>父节点顺序</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>brokerage</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3140,6 +3128,25 @@
   </si>
   <si>
     <t>被推荐佣金</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>父节点顺序: 3,4,5,6(对应: deep-4, deep-3, deep-2, deep-1)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq 向量</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>父节点ID（数据库自增）, 没有父节点则为 -1</t>
+  </si>
+  <si>
+    <t>推荐人ID, 没有推荐人则为 -1</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3417,14 +3424,17 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3432,8 +3442,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3442,10 +3452,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4427,8 +4434,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D4223DF3-0FD4-4A51-9CB4-4ADBF0194284}" name="表4" displayName="表4" ref="B1:J128" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64" headerRowCellStyle="常规 2">
-  <autoFilter ref="B1:J128" xr:uid="{B9CDCF83-4341-4D97-8AF8-098A114465A9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D4223DF3-0FD4-4A51-9CB4-4ADBF0194284}" name="表4" displayName="表4" ref="B1:J129" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64" headerRowCellStyle="常规 2">
+  <autoFilter ref="B1:J129" xr:uid="{B9CDCF83-4341-4D97-8AF8-098A114465A9}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{350E8EA7-6A95-4955-AF92-86AAEA2BA677}" name="列名/Column" dataDxfId="63"/>
     <tableColumn id="2" xr3:uid="{6ABB1A04-FB0D-4D10-B245-B8C8DB4828E1}" name="数据类型/Type" dataDxfId="62"/>
@@ -4755,17 +4762,17 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
-        <v>744</v>
+      <c r="A2" s="55" t="s">
+        <v>743</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>13</v>
@@ -4783,9 +4790,9 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="26" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>17</v>
@@ -4805,7 +4812,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
+      <c r="A4" s="54"/>
       <c r="B4" t="s">
         <v>19</v>
       </c>
@@ -4825,7 +4832,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
+      <c r="A5" s="54"/>
       <c r="B5" t="s">
         <v>22</v>
       </c>
@@ -4845,7 +4852,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
+      <c r="A6" s="54"/>
       <c r="B6" t="s">
         <v>26</v>
       </c>
@@ -4865,7 +4872,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
+      <c r="A7" s="54"/>
       <c r="B7" t="s">
         <v>29</v>
       </c>
@@ -4883,7 +4890,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
+      <c r="A8" s="54"/>
       <c r="B8" t="s">
         <v>31</v>
       </c>
@@ -4903,7 +4910,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
+      <c r="A9" s="54"/>
       <c r="B9" t="s">
         <v>33</v>
       </c>
@@ -4923,15 +4930,15 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="26" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>14</v>
@@ -4947,12 +4954,12 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
+      <c r="A11" s="54"/>
       <c r="B11" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D11" s="28"/>
       <c r="J11" t="s">
@@ -4960,7 +4967,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="54" t="s">
         <v>41</v>
       </c>
       <c r="B12" t="s">
@@ -4970,7 +4977,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>13</v>
@@ -4988,7 +4995,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
+      <c r="A13" s="54"/>
       <c r="B13" t="s">
         <v>42</v>
       </c>
@@ -5003,7 +5010,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
+      <c r="A14" s="54"/>
       <c r="B14" t="s">
         <v>44</v>
       </c>
@@ -5018,7 +5025,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
+      <c r="A15" s="54"/>
       <c r="B15" t="s">
         <v>46</v>
       </c>
@@ -5033,7 +5040,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
+      <c r="A16" s="54"/>
       <c r="B16" t="s">
         <v>48</v>
       </c>
@@ -5048,15 +5055,15 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="43" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C17" s="40" t="s">
         <v>709</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
@@ -5064,11 +5071,11 @@
       <c r="H17" s="42"/>
       <c r="I17" s="42"/>
       <c r="J17" s="39" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
+      <c r="A18" s="54"/>
       <c r="B18" t="s">
         <v>50</v>
       </c>
@@ -5083,7 +5090,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
+      <c r="A19" s="54"/>
       <c r="B19" t="s">
         <v>52</v>
       </c>
@@ -5098,9 +5105,9 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="53"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="39" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C20" s="40" t="s">
         <v>708</v>
@@ -5114,11 +5121,11 @@
       <c r="H20" s="42"/>
       <c r="I20" s="42"/>
       <c r="J20" s="39" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
+      <c r="A21" s="54"/>
       <c r="B21" t="s">
         <v>54</v>
       </c>
@@ -5133,7 +5140,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
+      <c r="A22" s="54"/>
       <c r="B22" t="s">
         <v>56</v>
       </c>
@@ -5148,12 +5155,12 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
+      <c r="A23" s="54"/>
       <c r="B23" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D23" s="28"/>
       <c r="J23" s="23" t="s">
@@ -5161,8 +5168,8 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="54" t="s">
-        <v>745</v>
+      <c r="A24" s="55" t="s">
+        <v>744</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -5171,7 +5178,7 @@
         <v>11</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>13</v>
@@ -5189,7 +5196,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="53"/>
+      <c r="A25" s="54"/>
       <c r="B25" t="s">
         <v>58</v>
       </c>
@@ -5204,7 +5211,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="53"/>
+      <c r="A26" s="54"/>
       <c r="B26" t="s">
         <v>60</v>
       </c>
@@ -5219,7 +5226,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="53"/>
+      <c r="A27" s="54"/>
       <c r="B27" t="s">
         <v>62</v>
       </c>
@@ -5234,7 +5241,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="53"/>
+      <c r="A28" s="54"/>
       <c r="B28" t="s">
         <v>64</v>
       </c>
@@ -5249,9 +5256,9 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="53"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="26" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C29" s="23" t="s">
         <v>17</v>
@@ -5264,7 +5271,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="53"/>
+      <c r="A30" s="54"/>
       <c r="B30" t="s">
         <v>52</v>
       </c>
@@ -5279,7 +5286,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="53"/>
+      <c r="A31" s="54"/>
       <c r="B31" t="s">
         <v>67</v>
       </c>
@@ -5292,12 +5299,12 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="53"/>
+      <c r="A32" s="54"/>
       <c r="B32" s="26" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D32" s="28"/>
       <c r="J32" t="s">
@@ -5305,7 +5312,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="53" t="s">
+      <c r="A33" s="54" t="s">
         <v>69</v>
       </c>
       <c r="B33" t="s">
@@ -5315,16 +5322,16 @@
         <v>11</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="J33" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="53"/>
+      <c r="A34" s="54"/>
       <c r="B34" s="26" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C34" s="23" t="s">
         <v>17</v>
@@ -5337,7 +5344,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="53"/>
+      <c r="A35" s="54"/>
       <c r="B35" t="s">
         <v>71</v>
       </c>
@@ -5352,7 +5359,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="53"/>
+      <c r="A36" s="54"/>
       <c r="B36" t="s">
         <v>73</v>
       </c>
@@ -5367,7 +5374,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="53"/>
+      <c r="A37" s="54"/>
       <c r="B37" t="s">
         <v>52</v>
       </c>
@@ -5382,7 +5389,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="53"/>
+      <c r="A38" s="54"/>
       <c r="B38" t="s">
         <v>75</v>
       </c>
@@ -5395,12 +5402,12 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="53"/>
+      <c r="A39" s="54"/>
       <c r="B39" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D39" s="28"/>
       <c r="J39" t="s">
@@ -5408,7 +5415,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="53" t="s">
+      <c r="A40" s="54" t="s">
         <v>77</v>
       </c>
       <c r="B40" t="s">
@@ -5418,14 +5425,14 @@
         <v>11</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="J40" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="53"/>
+      <c r="A41" s="54"/>
       <c r="B41" t="s">
         <v>78</v>
       </c>
@@ -5440,7 +5447,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="53"/>
+      <c r="A42" s="54"/>
       <c r="B42" t="s">
         <v>80</v>
       </c>
@@ -5455,9 +5462,9 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="53"/>
+      <c r="A43" s="54"/>
       <c r="B43" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C43" s="23" t="s">
         <v>709</v>
@@ -5471,11 +5478,11 @@
       <c r="H43" s="32"/>
       <c r="I43" s="32"/>
       <c r="J43" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="53"/>
+      <c r="A44" s="54"/>
       <c r="B44" t="s">
         <v>82</v>
       </c>
@@ -5486,11 +5493,11 @@
         <v>706</v>
       </c>
       <c r="J44" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="53"/>
+      <c r="A45" s="54"/>
       <c r="B45" t="s">
         <v>52</v>
       </c>
@@ -5505,7 +5512,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="53"/>
+      <c r="A46" s="54"/>
       <c r="B46" t="s">
         <v>75</v>
       </c>
@@ -5518,12 +5525,12 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="53"/>
+      <c r="A47" s="54"/>
       <c r="B47" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D47" s="28"/>
       <c r="J47" t="s">
@@ -5531,7 +5538,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="53" t="s">
+      <c r="A48" s="54" t="s">
         <v>83</v>
       </c>
       <c r="B48" t="s">
@@ -5541,14 +5548,14 @@
         <v>11</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="J48" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="53"/>
+      <c r="A49" s="54"/>
       <c r="B49" t="s">
         <v>84</v>
       </c>
@@ -5563,7 +5570,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="53"/>
+      <c r="A50" s="54"/>
       <c r="B50" t="s">
         <v>86</v>
       </c>
@@ -5578,7 +5585,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="53"/>
+      <c r="A51" s="54"/>
       <c r="B51" t="s">
         <v>88</v>
       </c>
@@ -5593,7 +5600,7 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="53"/>
+      <c r="A52" s="54"/>
       <c r="B52" t="s">
         <v>90</v>
       </c>
@@ -5601,14 +5608,14 @@
         <v>17</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="J52" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="53"/>
+      <c r="A53" s="54"/>
       <c r="B53" t="s">
         <v>52</v>
       </c>
@@ -5623,7 +5630,7 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="53"/>
+      <c r="A54" s="54"/>
       <c r="B54" t="s">
         <v>92</v>
       </c>
@@ -5636,7 +5643,7 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="53"/>
+      <c r="A55" s="54"/>
       <c r="B55" t="s">
         <v>94</v>
       </c>
@@ -5649,12 +5656,12 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="53"/>
+      <c r="A56" s="54"/>
       <c r="B56" s="26" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D56" s="28"/>
       <c r="J56" t="s">
@@ -5662,7 +5669,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="53" t="s">
+      <c r="A57" s="54" t="s">
         <v>96</v>
       </c>
       <c r="B57" t="s">
@@ -5672,14 +5679,14 @@
         <v>11</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="J57" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="53"/>
+      <c r="A58" s="54"/>
       <c r="B58" t="s">
         <v>97</v>
       </c>
@@ -5694,7 +5701,7 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="53"/>
+      <c r="A59" s="54"/>
       <c r="B59" t="s">
         <v>98</v>
       </c>
@@ -5709,7 +5716,7 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="53"/>
+      <c r="A60" s="54"/>
       <c r="B60" t="s">
         <v>100</v>
       </c>
@@ -5724,7 +5731,7 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="53"/>
+      <c r="A61" s="54"/>
       <c r="B61" t="s">
         <v>52</v>
       </c>
@@ -5737,12 +5744,12 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="53"/>
+      <c r="A62" s="54"/>
       <c r="B62" s="26" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D62" s="28"/>
       <c r="J62" t="s">
@@ -5963,39 +5970,39 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="61" t="s">
+        <v>864</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>865</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>866</v>
       </c>
-      <c r="B2" s="29" t="s">
-        <v>867</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>868</v>
-      </c>
       <c r="D2" s="30" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E2" s="31"/>
       <c r="F2" s="31"/>
       <c r="G2" s="31" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="H2" s="31"/>
       <c r="I2" s="30"/>
       <c r="J2" s="27" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="60"/>
+      <c r="A3" s="61"/>
       <c r="B3" s="29" t="s">
         <v>721</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E3" s="31"/>
       <c r="F3" s="31"/>
@@ -6003,19 +6010,19 @@
       <c r="H3" s="31"/>
       <c r="I3" s="30"/>
       <c r="J3" s="27" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="61"/>
+      <c r="B4" s="29" t="s">
         <v>870</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="60"/>
-      <c r="B4" s="29" t="s">
-        <v>872</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>709</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
@@ -6023,19 +6030,19 @@
       <c r="H4" s="10"/>
       <c r="I4" s="23"/>
       <c r="J4" s="27" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="61"/>
+      <c r="B5" s="29" t="s">
         <v>871</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
-      <c r="B5" s="29" t="s">
-        <v>873</v>
       </c>
       <c r="C5" s="51" t="s">
         <v>709</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E5" s="31"/>
       <c r="F5" s="31"/>
@@ -6043,19 +6050,19 @@
       <c r="H5" s="31"/>
       <c r="I5" s="30"/>
       <c r="J5" s="27" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="60"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="29" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E6" s="34"/>
       <c r="F6" s="34"/>
@@ -6063,19 +6070,19 @@
       <c r="H6" s="34"/>
       <c r="I6" s="34"/>
       <c r="J6" s="27" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="60"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="29" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C7" s="51" t="s">
         <v>709</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E7" s="50"/>
       <c r="F7" s="24"/>
@@ -6083,19 +6090,19 @@
       <c r="H7" s="24"/>
       <c r="I7" s="24"/>
       <c r="J7" s="27" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="29" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C8" s="51" t="s">
         <v>708</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E8" s="50"/>
       <c r="F8" s="24"/>
@@ -6103,19 +6110,19 @@
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
       <c r="J8" s="27" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="60"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="29" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C9" s="51" t="s">
         <v>708</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E9" s="50"/>
       <c r="F9" s="24"/>
@@ -6123,19 +6130,19 @@
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
       <c r="J9" s="27" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="60"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="29" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C10" s="51" t="s">
         <v>709</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E10" s="50"/>
       <c r="F10" s="24"/>
@@ -6143,19 +6150,19 @@
       <c r="H10" s="24"/>
       <c r="I10" s="24"/>
       <c r="J10" s="27" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="60"/>
+      <c r="A11" s="61"/>
       <c r="B11" s="37" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C11" s="51" t="s">
         <v>709</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
@@ -6163,19 +6170,19 @@
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
       <c r="J11" s="35" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="60"/>
+      <c r="A12" s="61"/>
       <c r="B12" s="29" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C12" s="51" t="s">
         <v>709</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E12" s="50"/>
       <c r="F12" s="24"/>
@@ -6183,19 +6190,19 @@
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
       <c r="J12" s="27" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="60"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="29" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C13" s="51" t="s">
         <v>709</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E13" s="50"/>
       <c r="F13" s="24"/>
@@ -6203,13 +6210,13 @@
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
       <c r="J13" s="27" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="60"/>
+      <c r="A14" s="61"/>
       <c r="B14" s="29" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C14" s="51" t="s">
         <v>718</v>
@@ -6221,13 +6228,13 @@
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
       <c r="J14" s="27" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="60"/>
+      <c r="A15" s="61"/>
       <c r="B15" s="29" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C15" s="51" t="s">
         <v>718</v>
@@ -6239,11 +6246,11 @@
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
       <c r="J15" s="27" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="57"/>
+      <c r="A16" s="58"/>
       <c r="B16" s="21"/>
       <c r="C16" s="22"/>
       <c r="D16" s="30"/>
@@ -6255,7 +6262,7 @@
       <c r="J16" s="27"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
+      <c r="A17" s="58"/>
       <c r="B17" s="21"/>
       <c r="C17" s="22"/>
       <c r="D17" s="30"/>
@@ -6268,7 +6275,7 @@
       <c r="L17" s="26"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="57"/>
+      <c r="A18" s="58"/>
       <c r="B18" s="21"/>
       <c r="C18" s="22"/>
       <c r="D18" s="30"/>
@@ -6280,7 +6287,7 @@
       <c r="J18" s="27"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
+      <c r="A19" s="58"/>
       <c r="B19" s="21"/>
       <c r="C19" s="22"/>
       <c r="D19" s="30"/>
@@ -6292,7 +6299,7 @@
       <c r="J19" s="27"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="56"/>
+      <c r="A20" s="57"/>
       <c r="B20" s="21"/>
       <c r="C20" s="22"/>
       <c r="D20" s="30"/>
@@ -6304,7 +6311,7 @@
       <c r="J20" s="27"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
+      <c r="A21" s="58"/>
       <c r="B21" s="29"/>
       <c r="C21" s="22"/>
       <c r="D21" s="30"/>
@@ -6316,7 +6323,7 @@
       <c r="J21" s="27"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
+      <c r="A22" s="58"/>
       <c r="B22" s="21"/>
       <c r="C22" s="22"/>
       <c r="D22" s="30"/>
@@ -6328,7 +6335,7 @@
       <c r="J22" s="27"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
+      <c r="A23" s="58"/>
       <c r="B23" s="21"/>
       <c r="C23" s="22"/>
       <c r="D23" s="30"/>
@@ -6340,7 +6347,7 @@
       <c r="J23" s="27"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="57"/>
+      <c r="A24" s="58"/>
       <c r="B24" s="29"/>
       <c r="C24" s="22"/>
       <c r="D24" s="30"/>
@@ -6352,7 +6359,7 @@
       <c r="J24" s="27"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="57"/>
+      <c r="A25" s="58"/>
       <c r="B25" s="29"/>
       <c r="C25" s="22"/>
       <c r="D25" s="30"/>
@@ -6455,7 +6462,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="58" t="s">
         <v>498</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -6472,7 +6479,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="5" t="s">
         <v>501</v>
       </c>
@@ -6487,7 +6494,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="5" t="s">
         <v>503</v>
       </c>
@@ -6502,7 +6509,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="5" t="s">
         <v>505</v>
       </c>
@@ -6517,7 +6524,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="5" t="s">
         <v>507</v>
       </c>
@@ -6529,7 +6536,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="5" t="s">
         <v>509</v>
       </c>
@@ -6541,7 +6548,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="57"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="5" t="s">
         <v>511</v>
       </c>
@@ -6553,7 +6560,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="5" t="s">
         <v>513</v>
       </c>
@@ -6565,7 +6572,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="57"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="5" t="s">
         <v>515</v>
       </c>
@@ -6580,7 +6587,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="5" t="s">
         <v>517</v>
       </c>
@@ -6595,7 +6602,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
+      <c r="A12" s="58"/>
       <c r="B12" s="5" t="s">
         <v>519</v>
       </c>
@@ -6610,7 +6617,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="5" t="s">
         <v>521</v>
       </c>
@@ -6625,7 +6632,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="57"/>
+      <c r="A14" s="58"/>
       <c r="B14" s="5" t="s">
         <v>523</v>
       </c>
@@ -6640,7 +6647,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
+      <c r="A15" s="58"/>
       <c r="B15" s="5" t="s">
         <v>525</v>
       </c>
@@ -6655,7 +6662,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="57"/>
+      <c r="A16" s="58"/>
       <c r="B16" s="5" t="s">
         <v>527</v>
       </c>
@@ -6670,7 +6677,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
+      <c r="A17" s="58"/>
       <c r="B17" s="5" t="s">
         <v>529</v>
       </c>
@@ -6685,7 +6692,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="57"/>
+      <c r="A18" s="58"/>
       <c r="B18" s="5" t="s">
         <v>489</v>
       </c>
@@ -6700,7 +6707,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
+      <c r="A19" s="58"/>
       <c r="B19" s="5" t="s">
         <v>532</v>
       </c>
@@ -6715,7 +6722,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="57"/>
+      <c r="A20" s="58"/>
       <c r="B20" s="5" t="s">
         <v>534</v>
       </c>
@@ -6730,7 +6737,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
+      <c r="A21" s="58"/>
       <c r="B21" s="5" t="s">
         <v>536</v>
       </c>
@@ -6745,7 +6752,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
+      <c r="A22" s="58"/>
       <c r="B22" s="5" t="s">
         <v>538</v>
       </c>
@@ -6760,7 +6767,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
+      <c r="A23" s="58"/>
       <c r="B23" s="5" t="s">
         <v>540</v>
       </c>
@@ -6775,7 +6782,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="57" t="s">
+      <c r="A24" s="58" t="s">
         <v>542</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -6792,7 +6799,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="57"/>
+      <c r="A25" s="58"/>
       <c r="B25" s="5" t="s">
         <v>543</v>
       </c>
@@ -6807,7 +6814,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="57"/>
+      <c r="A26" s="58"/>
       <c r="B26" s="5" t="s">
         <v>505</v>
       </c>
@@ -6822,7 +6829,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="57"/>
+      <c r="A27" s="58"/>
       <c r="B27" s="5" t="s">
         <v>546</v>
       </c>
@@ -6837,7 +6844,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="57"/>
+      <c r="A28" s="58"/>
       <c r="B28" s="5" t="s">
         <v>548</v>
       </c>
@@ -6852,7 +6859,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="57"/>
+      <c r="A29" s="58"/>
       <c r="B29" s="5" t="s">
         <v>515</v>
       </c>
@@ -6867,7 +6874,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="57"/>
+      <c r="A30" s="58"/>
       <c r="B30" s="5" t="s">
         <v>550</v>
       </c>
@@ -6882,7 +6889,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="57"/>
+      <c r="A31" s="58"/>
       <c r="B31" s="5" t="s">
         <v>552</v>
       </c>
@@ -6897,7 +6904,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="57"/>
+      <c r="A32" s="58"/>
       <c r="B32" s="5" t="s">
         <v>554</v>
       </c>
@@ -6912,7 +6919,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="57"/>
+      <c r="A33" s="58"/>
       <c r="B33" s="5" t="s">
         <v>556</v>
       </c>
@@ -6927,7 +6934,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="57"/>
+      <c r="A34" s="58"/>
       <c r="B34" s="5" t="s">
         <v>558</v>
       </c>
@@ -6942,7 +6949,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="57"/>
+      <c r="A35" s="58"/>
       <c r="B35" s="5" t="s">
         <v>561</v>
       </c>
@@ -6957,13 +6964,13 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="57"/>
+      <c r="A36" s="58"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="J36" s="5"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="57"/>
+      <c r="A37" s="58"/>
       <c r="B37" s="5" t="s">
         <v>563</v>
       </c>
@@ -6978,7 +6985,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="57"/>
+      <c r="A38" s="58"/>
       <c r="B38" s="5" t="s">
         <v>565</v>
       </c>
@@ -6993,7 +7000,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="57"/>
+      <c r="A39" s="58"/>
       <c r="B39" s="5" t="s">
         <v>566</v>
       </c>
@@ -7008,7 +7015,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="57"/>
+      <c r="A40" s="58"/>
       <c r="B40" s="5" t="s">
         <v>568</v>
       </c>
@@ -7023,13 +7030,13 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="57"/>
+      <c r="A41" s="58"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="J41" s="5"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="57"/>
+      <c r="A42" s="58"/>
       <c r="B42" s="5" t="s">
         <v>570</v>
       </c>
@@ -7044,7 +7051,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="57"/>
+      <c r="A43" s="58"/>
       <c r="B43" s="5" t="s">
         <v>572</v>
       </c>
@@ -7059,7 +7066,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="57"/>
+      <c r="A44" s="58"/>
       <c r="B44" s="5" t="s">
         <v>538</v>
       </c>
@@ -7074,7 +7081,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="57"/>
+      <c r="A45" s="58"/>
       <c r="B45" s="5" t="s">
         <v>575</v>
       </c>
@@ -7089,7 +7096,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="57"/>
+      <c r="A46" s="58"/>
       <c r="B46" s="5" t="s">
         <v>577</v>
       </c>
@@ -7104,7 +7111,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="57"/>
+      <c r="A47" s="58"/>
       <c r="B47" s="5" t="s">
         <v>579</v>
       </c>
@@ -7119,7 +7126,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="57"/>
+      <c r="A48" s="58"/>
       <c r="B48" s="5" t="s">
         <v>581</v>
       </c>
@@ -7134,7 +7141,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="57"/>
+      <c r="A49" s="58"/>
       <c r="B49" s="5" t="s">
         <v>583</v>
       </c>
@@ -7149,7 +7156,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="57"/>
+      <c r="A50" s="58"/>
       <c r="B50" s="5" t="s">
         <v>585</v>
       </c>
@@ -7161,13 +7168,13 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="57"/>
+      <c r="A51" s="58"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="J51" s="5"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="57"/>
+      <c r="A52" s="58"/>
       <c r="B52" s="5" t="s">
         <v>587</v>
       </c>
@@ -7182,7 +7189,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="57"/>
+      <c r="A53" s="58"/>
       <c r="B53" s="5" t="s">
         <v>589</v>
       </c>
@@ -7197,7 +7204,7 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="57"/>
+      <c r="A54" s="58"/>
       <c r="B54" s="5" t="s">
         <v>591</v>
       </c>
@@ -7212,7 +7219,7 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="57"/>
+      <c r="A55" s="58"/>
       <c r="B55" s="5" t="s">
         <v>593</v>
       </c>
@@ -7227,7 +7234,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="57"/>
+      <c r="A56" s="58"/>
       <c r="B56" s="5" t="s">
         <v>595</v>
       </c>
@@ -7242,7 +7249,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="57"/>
+      <c r="A57" s="58"/>
       <c r="B57" s="5" t="s">
         <v>597</v>
       </c>
@@ -7257,7 +7264,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="57"/>
+      <c r="A58" s="58"/>
       <c r="B58" s="5" t="s">
         <v>599</v>
       </c>
@@ -7272,7 +7279,7 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="57"/>
+      <c r="A59" s="58"/>
       <c r="B59" s="5" t="s">
         <v>601</v>
       </c>
@@ -7287,7 +7294,7 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="57"/>
+      <c r="A60" s="58"/>
       <c r="B60" s="5" t="s">
         <v>603</v>
       </c>
@@ -7302,7 +7309,7 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="57"/>
+      <c r="A61" s="58"/>
       <c r="B61" s="5" t="s">
         <v>605</v>
       </c>
@@ -7317,7 +7324,7 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="57"/>
+      <c r="A62" s="58"/>
       <c r="B62" s="5" t="s">
         <v>607</v>
       </c>
@@ -7332,7 +7339,7 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="57"/>
+      <c r="A63" s="58"/>
       <c r="B63" s="5" t="s">
         <v>609</v>
       </c>
@@ -7347,7 +7354,7 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="57"/>
+      <c r="A64" s="58"/>
       <c r="B64" s="5" t="s">
         <v>611</v>
       </c>
@@ -7362,7 +7369,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="57"/>
+      <c r="A65" s="58"/>
       <c r="B65" s="5" t="s">
         <v>613</v>
       </c>
@@ -7377,7 +7384,7 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="57"/>
+      <c r="A66" s="58"/>
       <c r="B66" s="5" t="s">
         <v>615</v>
       </c>
@@ -7392,13 +7399,13 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="57"/>
+      <c r="A67" s="58"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="J67" s="5"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="57"/>
+      <c r="A68" s="58"/>
       <c r="B68" s="5" t="s">
         <v>617</v>
       </c>
@@ -7410,7 +7417,7 @@
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="57"/>
+      <c r="A69" s="58"/>
       <c r="B69" s="5" t="s">
         <v>527</v>
       </c>
@@ -7425,7 +7432,7 @@
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="57"/>
+      <c r="A70" s="58"/>
       <c r="B70" s="5" t="s">
         <v>529</v>
       </c>
@@ -7440,7 +7447,7 @@
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="57"/>
+      <c r="A71" s="58"/>
       <c r="B71" s="5" t="s">
         <v>619</v>
       </c>
@@ -7455,13 +7462,13 @@
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="57"/>
+      <c r="A72" s="58"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="J72" s="5"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="57"/>
+      <c r="A73" s="58"/>
       <c r="B73" s="5" t="s">
         <v>621</v>
       </c>
@@ -7476,7 +7483,7 @@
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="57"/>
+      <c r="A74" s="58"/>
       <c r="B74" s="5" t="s">
         <v>623</v>
       </c>
@@ -7491,7 +7498,7 @@
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="57"/>
+      <c r="A75" s="58"/>
       <c r="B75" s="5" t="s">
         <v>625</v>
       </c>
@@ -7506,7 +7513,7 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="57"/>
+      <c r="A76" s="58"/>
       <c r="B76" s="5" t="s">
         <v>626</v>
       </c>
@@ -7521,7 +7528,7 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="57"/>
+      <c r="A77" s="58"/>
       <c r="B77" s="5" t="s">
         <v>628</v>
       </c>
@@ -7536,7 +7543,7 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="57"/>
+      <c r="A78" s="58"/>
       <c r="B78" s="5" t="s">
         <v>630</v>
       </c>
@@ -7551,7 +7558,7 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="57"/>
+      <c r="A79" s="58"/>
       <c r="B79" s="5" t="s">
         <v>632</v>
       </c>
@@ -7566,7 +7573,7 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="57"/>
+      <c r="A80" s="58"/>
       <c r="B80" s="5" t="s">
         <v>634</v>
       </c>
@@ -7581,7 +7588,7 @@
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="57"/>
+      <c r="A81" s="58"/>
       <c r="B81" s="5" t="s">
         <v>636</v>
       </c>
@@ -7596,7 +7603,7 @@
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="57"/>
+      <c r="A82" s="58"/>
       <c r="B82" s="5" t="s">
         <v>638</v>
       </c>
@@ -7611,7 +7618,7 @@
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="57"/>
+      <c r="A83" s="58"/>
       <c r="B83" s="5" t="s">
         <v>640</v>
       </c>
@@ -7626,7 +7633,7 @@
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="57"/>
+      <c r="A84" s="58"/>
       <c r="B84" s="5" t="s">
         <v>642</v>
       </c>
@@ -7641,7 +7648,7 @@
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="57"/>
+      <c r="A85" s="58"/>
       <c r="B85" s="5" t="s">
         <v>644</v>
       </c>
@@ -7656,7 +7663,7 @@
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="57"/>
+      <c r="A86" s="58"/>
       <c r="B86" s="5" t="s">
         <v>646</v>
       </c>
@@ -7671,7 +7678,7 @@
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="57"/>
+      <c r="A87" s="58"/>
       <c r="B87" s="5" t="s">
         <v>648</v>
       </c>
@@ -7686,7 +7693,7 @@
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="57"/>
+      <c r="A88" s="58"/>
       <c r="B88" s="5" t="s">
         <v>650</v>
       </c>
@@ -7701,7 +7708,7 @@
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="57"/>
+      <c r="A89" s="58"/>
       <c r="B89" s="5" t="s">
         <v>652</v>
       </c>
@@ -7716,7 +7723,7 @@
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="57"/>
+      <c r="A90" s="58"/>
       <c r="B90" s="5" t="s">
         <v>654</v>
       </c>
@@ -7731,13 +7738,13 @@
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="57"/>
+      <c r="A91" s="58"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="J91" s="5"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="57"/>
+      <c r="A92" s="58"/>
       <c r="B92" s="5" t="s">
         <v>656</v>
       </c>
@@ -7752,7 +7759,7 @@
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="57"/>
+      <c r="A93" s="58"/>
       <c r="B93" s="5" t="s">
         <v>658</v>
       </c>
@@ -7767,13 +7774,13 @@
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="57"/>
+      <c r="A94" s="58"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="J94" s="5"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="57"/>
+      <c r="A95" s="58"/>
       <c r="B95" s="5" t="s">
         <v>660</v>
       </c>
@@ -7788,7 +7795,7 @@
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="57"/>
+      <c r="A96" s="58"/>
       <c r="B96" s="5" t="s">
         <v>662</v>
       </c>
@@ -7803,7 +7810,7 @@
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="57"/>
+      <c r="A97" s="58"/>
       <c r="B97" s="5" t="s">
         <v>664</v>
       </c>
@@ -7815,13 +7822,13 @@
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="57"/>
+      <c r="A98" s="58"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="J98" s="5"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="57"/>
+      <c r="A99" s="58"/>
       <c r="B99" s="5" t="s">
         <v>666</v>
       </c>
@@ -7836,7 +7843,7 @@
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="57"/>
+      <c r="A100" s="58"/>
       <c r="B100" s="5" t="s">
         <v>668</v>
       </c>
@@ -7851,7 +7858,7 @@
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="57"/>
+      <c r="A101" s="58"/>
       <c r="B101" s="5" t="s">
         <v>670</v>
       </c>
@@ -7866,7 +7873,7 @@
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="57"/>
+      <c r="A102" s="58"/>
       <c r="B102" s="5" t="s">
         <v>672</v>
       </c>
@@ -7881,7 +7888,7 @@
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="57" t="s">
+      <c r="A103" s="58" t="s">
         <v>674</v>
       </c>
       <c r="B103" s="5" t="s">
@@ -7898,7 +7905,7 @@
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="57"/>
+      <c r="A104" s="58"/>
       <c r="B104" s="5" t="s">
         <v>676</v>
       </c>
@@ -7913,7 +7920,7 @@
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="57"/>
+      <c r="A105" s="58"/>
       <c r="B105" s="5" t="s">
         <v>678</v>
       </c>
@@ -7928,7 +7935,7 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="57"/>
+      <c r="A106" s="58"/>
       <c r="B106" s="5" t="s">
         <v>680</v>
       </c>
@@ -7943,7 +7950,7 @@
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="57"/>
+      <c r="A107" s="58"/>
       <c r="B107" s="5" t="s">
         <v>682</v>
       </c>
@@ -7958,7 +7965,7 @@
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="57"/>
+      <c r="A108" s="58"/>
       <c r="B108" s="5" t="s">
         <v>684</v>
       </c>
@@ -7973,7 +7980,7 @@
       </c>
     </row>
     <row r="109" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A109" s="57"/>
+      <c r="A109" s="58"/>
       <c r="B109" s="5" t="s">
         <v>686</v>
       </c>
@@ -7988,7 +7995,7 @@
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="57"/>
+      <c r="A110" s="58"/>
       <c r="B110" s="5" t="s">
         <v>688</v>
       </c>
@@ -8003,7 +8010,7 @@
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="57"/>
+      <c r="A111" s="58"/>
       <c r="B111" s="5" t="s">
         <v>690</v>
       </c>
@@ -8018,7 +8025,7 @@
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="57"/>
+      <c r="A112" s="58"/>
       <c r="B112" s="5" t="s">
         <v>692</v>
       </c>
@@ -8033,7 +8040,7 @@
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="57"/>
+      <c r="A113" s="58"/>
       <c r="B113" s="5" t="s">
         <v>694</v>
       </c>
@@ -8045,7 +8052,7 @@
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="57"/>
+      <c r="A114" s="58"/>
       <c r="B114" s="5" t="s">
         <v>696</v>
       </c>
@@ -8057,7 +8064,7 @@
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="57" t="s">
+      <c r="A115" s="58" t="s">
         <v>697</v>
       </c>
       <c r="B115" s="5" t="s">
@@ -8074,7 +8081,7 @@
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="57"/>
+      <c r="A116" s="58"/>
       <c r="B116" s="5" t="s">
         <v>676</v>
       </c>
@@ -8089,7 +8096,7 @@
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="57"/>
+      <c r="A117" s="58"/>
       <c r="B117" s="5" t="s">
         <v>678</v>
       </c>
@@ -8104,7 +8111,7 @@
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="57"/>
+      <c r="A118" s="58"/>
       <c r="B118" s="5" t="s">
         <v>682</v>
       </c>
@@ -8119,7 +8126,7 @@
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="57"/>
+      <c r="A119" s="58"/>
       <c r="B119" s="5" t="s">
         <v>587</v>
       </c>
@@ -8134,7 +8141,7 @@
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="57"/>
+      <c r="A120" s="58"/>
       <c r="B120" s="5" t="s">
         <v>589</v>
       </c>
@@ -8149,7 +8156,7 @@
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="57"/>
+      <c r="A121" s="58"/>
       <c r="B121" s="5" t="s">
         <v>591</v>
       </c>
@@ -8164,7 +8171,7 @@
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="57"/>
+      <c r="A122" s="58"/>
       <c r="B122" s="5" t="s">
         <v>593</v>
       </c>
@@ -8179,7 +8186,7 @@
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="57"/>
+      <c r="A123" s="58"/>
       <c r="B123" s="5" t="s">
         <v>595</v>
       </c>
@@ -8194,7 +8201,7 @@
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="57"/>
+      <c r="A124" s="58"/>
       <c r="B124" s="5" t="s">
         <v>597</v>
       </c>
@@ -8209,7 +8216,7 @@
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="57"/>
+      <c r="A125" s="58"/>
       <c r="B125" s="5" t="s">
         <v>599</v>
       </c>
@@ -8224,7 +8231,7 @@
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="57"/>
+      <c r="A126" s="58"/>
       <c r="B126" s="5" t="s">
         <v>601</v>
       </c>
@@ -8239,7 +8246,7 @@
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="57"/>
+      <c r="A127" s="58"/>
       <c r="B127" s="5" t="s">
         <v>603</v>
       </c>
@@ -8254,7 +8261,7 @@
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="57"/>
+      <c r="A128" s="58"/>
       <c r="B128" s="5" t="s">
         <v>605</v>
       </c>
@@ -8269,7 +8276,7 @@
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="57"/>
+      <c r="A129" s="58"/>
       <c r="B129" s="5" t="s">
         <v>607</v>
       </c>
@@ -8284,7 +8291,7 @@
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="57"/>
+      <c r="A130" s="58"/>
       <c r="B130" s="5" t="s">
         <v>609</v>
       </c>
@@ -8299,7 +8306,7 @@
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="57"/>
+      <c r="A131" s="58"/>
       <c r="B131" s="5" t="s">
         <v>611</v>
       </c>
@@ -8314,7 +8321,7 @@
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="57"/>
+      <c r="A132" s="58"/>
       <c r="B132" s="5" t="s">
         <v>613</v>
       </c>
@@ -8329,7 +8336,7 @@
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="57"/>
+      <c r="A133" s="58"/>
       <c r="B133" s="5" t="s">
         <v>615</v>
       </c>
@@ -8344,7 +8351,7 @@
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="57"/>
+      <c r="A134" s="58"/>
       <c r="B134" s="5" t="s">
         <v>699</v>
       </c>
@@ -8359,7 +8366,7 @@
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="57"/>
+      <c r="A135" s="58"/>
       <c r="B135" s="5" t="s">
         <v>701</v>
       </c>
@@ -8374,7 +8381,7 @@
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="57"/>
+      <c r="A136" s="58"/>
       <c r="B136" s="5" t="s">
         <v>703</v>
       </c>
@@ -8389,7 +8396,7 @@
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="57"/>
+      <c r="A137" s="58"/>
       <c r="B137" s="5" t="s">
         <v>696</v>
       </c>
@@ -8439,10 +8446,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L136"/>
+  <dimension ref="A1:L137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="J124" sqref="J124"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8492,11 +8499,11 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
-        <v>855</v>
+      <c r="A2" s="59" t="s">
+        <v>853</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>17</v>
@@ -8510,13 +8517,13 @@
       <c r="H2" s="31"/>
       <c r="I2" s="30"/>
       <c r="J2" s="27" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
+      <c r="A3" s="59"/>
       <c r="B3" s="29" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>709</v>
@@ -8534,15 +8541,15 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="33" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C4" s="44" t="s">
         <v>709</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E4" s="36"/>
       <c r="F4" s="36"/>
@@ -8550,13 +8557,13 @@
       <c r="H4" s="36"/>
       <c r="I4" s="36"/>
       <c r="J4" s="49" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="29" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>709</v>
@@ -8570,21 +8577,21 @@
       <c r="H5" s="31"/>
       <c r="I5" s="30"/>
       <c r="J5" s="27" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="56" t="s">
-        <v>750</v>
+      <c r="A6" s="57" t="s">
+        <v>749</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E6" s="34"/>
       <c r="F6" s="34"/>
@@ -8592,11 +8599,11 @@
       <c r="H6" s="34"/>
       <c r="I6" s="34"/>
       <c r="J6" s="27" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="21" t="s">
         <v>102</v>
       </c>
@@ -8616,11 +8623,11 @@
       <c r="H7" s="24"/>
       <c r="I7" s="24"/>
       <c r="J7" s="27" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="57"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="21" t="s">
         <v>103</v>
       </c>
@@ -8638,11 +8645,11 @@
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
       <c r="J8" s="27" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="21" t="s">
         <v>104</v>
       </c>
@@ -8660,11 +8667,11 @@
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
       <c r="J9" s="27" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="57"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="21" t="s">
         <v>105</v>
       </c>
@@ -8684,19 +8691,19 @@
       <c r="H10" s="24"/>
       <c r="I10" s="24"/>
       <c r="J10" s="27" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="37" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
@@ -8704,11 +8711,11 @@
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
       <c r="J11" s="35" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
+      <c r="A12" s="58"/>
       <c r="B12" s="21" t="s">
         <v>106</v>
       </c>
@@ -8726,11 +8733,11 @@
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
       <c r="J12" s="27" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="21" t="s">
         <v>715</v>
       </c>
@@ -8748,11 +8755,11 @@
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
       <c r="J13" s="27" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="57"/>
+      <c r="A14" s="58"/>
       <c r="B14" s="21" t="s">
         <v>108</v>
       </c>
@@ -8770,11 +8777,11 @@
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
       <c r="J14" s="27" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
+      <c r="A15" s="58"/>
       <c r="B15" s="21" t="s">
         <v>109</v>
       </c>
@@ -8792,11 +8799,11 @@
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
       <c r="J15" s="27" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="57"/>
+      <c r="A16" s="58"/>
       <c r="B16" s="21" t="s">
         <v>110</v>
       </c>
@@ -8814,11 +8821,11 @@
       <c r="H16" s="24"/>
       <c r="I16" s="24"/>
       <c r="J16" s="27" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
+      <c r="A17" s="58"/>
       <c r="B17" s="21" t="s">
         <v>111</v>
       </c>
@@ -8836,11 +8843,11 @@
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
       <c r="J17" s="27" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="57"/>
+      <c r="A18" s="58"/>
       <c r="B18" s="21" t="s">
         <v>112</v>
       </c>
@@ -8858,11 +8865,11 @@
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
       <c r="J18" s="27" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
+      <c r="A19" s="58"/>
       <c r="B19" s="21" t="s">
         <v>113</v>
       </c>
@@ -8880,11 +8887,11 @@
       <c r="H19" s="24"/>
       <c r="I19" s="24"/>
       <c r="J19" s="27" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="57"/>
+      <c r="A20" s="58"/>
       <c r="B20" s="21" t="s">
         <v>114</v>
       </c>
@@ -8902,11 +8909,11 @@
       <c r="H20" s="24"/>
       <c r="I20" s="24"/>
       <c r="J20" s="27" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
+      <c r="A21" s="58"/>
       <c r="B21" s="21" t="s">
         <v>115</v>
       </c>
@@ -8924,11 +8931,11 @@
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
       <c r="J21" s="27" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
+      <c r="A22" s="58"/>
       <c r="B22" s="21" t="s">
         <v>116</v>
       </c>
@@ -8946,11 +8953,11 @@
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
       <c r="J22" s="27" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
+      <c r="A23" s="58"/>
       <c r="B23" s="21" t="s">
         <v>117</v>
       </c>
@@ -8968,11 +8975,11 @@
       <c r="H23" s="24"/>
       <c r="I23" s="24"/>
       <c r="J23" s="27" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="57"/>
+      <c r="A24" s="58"/>
       <c r="B24" s="21" t="s">
         <v>118</v>
       </c>
@@ -8990,11 +8997,11 @@
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
       <c r="J24" s="27" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="57"/>
+      <c r="A25" s="58"/>
       <c r="B25" s="21" t="s">
         <v>10</v>
       </c>
@@ -9012,11 +9019,11 @@
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
       <c r="J25" s="27" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="57"/>
+      <c r="A26" s="58"/>
       <c r="B26" s="21" t="s">
         <v>119</v>
       </c>
@@ -9034,11 +9041,11 @@
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
       <c r="J26" s="27" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="57"/>
+      <c r="A27" s="58"/>
       <c r="B27" s="21" t="s">
         <v>120</v>
       </c>
@@ -9056,11 +9063,11 @@
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
       <c r="J27" s="27" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="57"/>
+      <c r="A28" s="58"/>
       <c r="B28" s="21" t="s">
         <v>121</v>
       </c>
@@ -9080,16 +9087,16 @@
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
       <c r="J28" s="27" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="57"/>
+      <c r="A29" s="58"/>
       <c r="B29" s="21" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D29" s="30"/>
       <c r="E29" s="10"/>
@@ -9100,7 +9107,7 @@
       <c r="J29" s="27"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="57" t="s">
+      <c r="A30" s="58" t="s">
         <v>719</v>
       </c>
       <c r="B30" s="21" t="s">
@@ -9110,7 +9117,7 @@
         <v>11</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>13</v>
@@ -9128,7 +9135,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="57"/>
+      <c r="A31" s="58"/>
       <c r="B31" s="21" t="s">
         <v>722</v>
       </c>
@@ -9150,12 +9157,12 @@
       </c>
       <c r="I31" s="23"/>
       <c r="J31" s="27" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="L31" s="26"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="57"/>
+      <c r="A32" s="58"/>
       <c r="B32" s="21" t="s">
         <v>122</v>
       </c>
@@ -9179,13 +9186,13 @@
       </c>
       <c r="I32" s="23"/>
       <c r="J32" s="27" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="57"/>
+      <c r="A33" s="58"/>
       <c r="B33" s="21" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C33" s="22" t="s">
         <v>17</v>
@@ -9199,12 +9206,12 @@
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
       <c r="J33" s="27" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="56" t="s">
-        <v>746</v>
+      <c r="A34" s="57" t="s">
+        <v>745</v>
       </c>
       <c r="B34" s="21" t="s">
         <v>721</v>
@@ -9213,7 +9220,7 @@
         <v>11</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>13</v>
@@ -9231,9 +9238,9 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="57"/>
+      <c r="A35" s="58"/>
       <c r="B35" s="29" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C35" s="22" t="s">
         <v>17</v>
@@ -9257,15 +9264,15 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="57"/>
+      <c r="A36" s="58"/>
       <c r="B36" s="47" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C36" s="44" t="s">
         <v>709</v>
       </c>
       <c r="D36" s="45" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E36" s="48"/>
       <c r="F36" s="48"/>
@@ -9273,19 +9280,19 @@
       <c r="H36" s="48"/>
       <c r="I36" s="48"/>
       <c r="J36" s="46" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="57"/>
+      <c r="A37" s="58"/>
       <c r="B37" s="47" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C37" s="44" t="s">
         <v>709</v>
       </c>
       <c r="D37" s="45" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E37" s="48"/>
       <c r="F37" s="48"/>
@@ -9293,19 +9300,19 @@
       <c r="H37" s="48"/>
       <c r="I37" s="48"/>
       <c r="J37" s="46" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="57"/>
+      <c r="A38" s="58"/>
       <c r="B38" s="29" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C38" s="22" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>13</v>
@@ -9323,7 +9330,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="57"/>
+      <c r="A39" s="58"/>
       <c r="B39" s="29" t="s">
         <v>725</v>
       </c>
@@ -9341,11 +9348,11 @@
       <c r="H39" s="10"/>
       <c r="I39" s="23"/>
       <c r="J39" s="27" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="61" t="s">
+      <c r="A40" s="62" t="s">
         <v>726</v>
       </c>
       <c r="B40" s="21" t="s">
@@ -9355,7 +9362,7 @@
         <v>11</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E40" s="24"/>
       <c r="F40" s="24"/>
@@ -9363,11 +9370,11 @@
       <c r="H40" s="24"/>
       <c r="I40" s="24"/>
       <c r="J40" s="27" t="s">
-        <v>727</v>
+        <v>910</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="61"/>
+      <c r="A41" s="62"/>
       <c r="B41" s="21" t="s">
         <v>125</v>
       </c>
@@ -9375,7 +9382,7 @@
         <v>11</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E41" s="24"/>
       <c r="F41" s="24"/>
@@ -9383,11 +9390,11 @@
       <c r="H41" s="24"/>
       <c r="I41" s="24"/>
       <c r="J41" s="27" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="61"/>
+      <c r="A42" s="62"/>
       <c r="B42" s="21" t="s">
         <v>126</v>
       </c>
@@ -9395,7 +9402,7 @@
         <v>11</v>
       </c>
       <c r="D42" s="30" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E42" s="24"/>
       <c r="F42" s="24"/>
@@ -9403,11 +9410,11 @@
       <c r="H42" s="24"/>
       <c r="I42" s="24"/>
       <c r="J42" s="27" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="61"/>
+      <c r="A43" s="62"/>
       <c r="B43" s="21" t="s">
         <v>127</v>
       </c>
@@ -9415,7 +9422,7 @@
         <v>11</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E43" s="24"/>
       <c r="F43" s="24"/>
@@ -9423,39 +9430,39 @@
       <c r="H43" s="24"/>
       <c r="I43" s="24"/>
       <c r="J43" s="27" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="61"/>
-      <c r="B44" s="29" t="s">
-        <v>901</v>
+      <c r="A44" s="62"/>
+      <c r="B44" s="53" t="s">
+        <v>907</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="30" t="s">
-        <v>748</v>
+        <v>709</v>
+      </c>
+      <c r="D44" s="38" t="s">
+        <v>729</v>
       </c>
       <c r="E44" s="24"/>
       <c r="F44" s="24"/>
       <c r="G44" s="24"/>
       <c r="H44" s="24"/>
       <c r="I44" s="24"/>
-      <c r="J44" s="27" t="s">
-        <v>902</v>
+      <c r="J44" s="35" t="s">
+        <v>909</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="61"/>
-      <c r="B45" s="21" t="s">
-        <v>128</v>
+      <c r="A45" s="62"/>
+      <c r="B45" s="29" t="s">
+        <v>899</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>11</v>
+        <v>709</v>
       </c>
       <c r="D45" s="30" t="s">
-        <v>748</v>
+        <v>729</v>
       </c>
       <c r="E45" s="24"/>
       <c r="F45" s="24"/>
@@ -9463,19 +9470,19 @@
       <c r="H45" s="24"/>
       <c r="I45" s="24"/>
       <c r="J45" s="27" t="s">
-        <v>772</v>
+        <v>908</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="61"/>
+      <c r="A46" s="62"/>
       <c r="B46" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D46" s="30" t="s">
-        <v>20</v>
+        <v>747</v>
       </c>
       <c r="E46" s="24"/>
       <c r="F46" s="24"/>
@@ -9483,19 +9490,19 @@
       <c r="H46" s="24"/>
       <c r="I46" s="24"/>
       <c r="J46" s="27" t="s">
-        <v>773</v>
+        <v>911</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="61"/>
+      <c r="A47" s="62"/>
       <c r="B47" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C47" s="22" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E47" s="24"/>
       <c r="F47" s="24"/>
@@ -9503,19 +9510,19 @@
       <c r="H47" s="24"/>
       <c r="I47" s="24"/>
       <c r="J47" s="27" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="61"/>
+      <c r="A48" s="62"/>
       <c r="B48" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>748</v>
+        <v>12</v>
       </c>
       <c r="E48" s="24"/>
       <c r="F48" s="24"/>
@@ -9523,19 +9530,19 @@
       <c r="H48" s="24"/>
       <c r="I48" s="24"/>
       <c r="J48" s="27" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="61"/>
+      <c r="A49" s="62"/>
       <c r="B49" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>12</v>
+        <v>747</v>
       </c>
       <c r="E49" s="24"/>
       <c r="F49" s="24"/>
@@ -9543,19 +9550,19 @@
       <c r="H49" s="24"/>
       <c r="I49" s="24"/>
       <c r="J49" s="27" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="61"/>
+      <c r="A50" s="62"/>
       <c r="B50" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C50" s="22" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E50" s="24"/>
       <c r="F50" s="24"/>
@@ -9563,15 +9570,13 @@
       <c r="H50" s="24"/>
       <c r="I50" s="24"/>
       <c r="J50" s="27" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="56" t="s">
-        <v>728</v>
-      </c>
+      <c r="A51" s="62"/>
       <c r="B51" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C51" s="22" t="s">
         <v>17</v>
@@ -9579,71 +9584,67 @@
       <c r="D51" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E51" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H51" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I51" s="23"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
       <c r="J51" s="27" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="56"/>
-      <c r="B52" s="47" t="s">
-        <v>836</v>
-      </c>
-      <c r="C52" s="44" t="s">
-        <v>709</v>
-      </c>
-      <c r="D52" s="45" t="s">
-        <v>748</v>
-      </c>
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="48"/>
-      <c r="H52" s="48"/>
-      <c r="I52" s="48"/>
-      <c r="J52" s="46" t="s">
-        <v>839</v>
+      <c r="A52" s="57" t="s">
+        <v>727</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I52" s="23"/>
+      <c r="J52" s="27" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="57"/>
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="47" t="s">
+        <v>834</v>
+      </c>
+      <c r="C53" s="44" t="s">
+        <v>709</v>
+      </c>
+      <c r="D53" s="45" t="s">
+        <v>747</v>
+      </c>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="46" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="58"/>
+      <c r="B54" s="21" t="s">
         <v>136</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D53" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H53" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I53" s="23"/>
-      <c r="J53" s="27" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="57"/>
-      <c r="B54" s="21" t="s">
-        <v>52</v>
       </c>
       <c r="C54" s="22" t="s">
         <v>17</v>
@@ -9655,85 +9656,91 @@
         <v>13</v>
       </c>
       <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
+      <c r="G54" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="I54" s="23"/>
       <c r="J54" s="27" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="56" t="s">
-        <v>841</v>
-      </c>
-      <c r="B55" s="29" t="s">
-        <v>840</v>
+      <c r="A55" s="58"/>
+      <c r="B55" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D55" s="30" t="s">
-        <v>748</v>
-      </c>
-      <c r="E55" s="10"/>
+        <v>20</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
       <c r="I55" s="23"/>
       <c r="J55" s="27" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="57"/>
-      <c r="B56" s="47" t="s">
-        <v>836</v>
-      </c>
-      <c r="C56" s="44" t="s">
+      <c r="A56" s="57" t="s">
+        <v>839</v>
+      </c>
+      <c r="B56" s="29" t="s">
+        <v>838</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="30" t="s">
+        <v>747</v>
+      </c>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="27" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="58"/>
+      <c r="B57" s="47" t="s">
+        <v>834</v>
+      </c>
+      <c r="C57" s="44" t="s">
         <v>709</v>
       </c>
-      <c r="D56" s="45" t="s">
-        <v>748</v>
-      </c>
-      <c r="E56" s="48"/>
-      <c r="F56" s="48"/>
-      <c r="G56" s="48"/>
-      <c r="H56" s="48"/>
-      <c r="I56" s="48"/>
-      <c r="J56" s="46" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="57"/>
-      <c r="B57" s="21" t="s">
+      <c r="D57" s="45" t="s">
+        <v>747</v>
+      </c>
+      <c r="E57" s="48"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="48"/>
+      <c r="I57" s="48"/>
+      <c r="J57" s="46" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="58"/>
+      <c r="B58" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="C57" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D57" s="30" t="s">
+      <c r="C58" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="30" t="s">
         <v>35</v>
-      </c>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="27" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="57"/>
-      <c r="B58" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C58" s="22" t="s">
-        <v>708</v>
-      </c>
-      <c r="D58" s="30" t="s">
-        <v>24</v>
       </c>
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
@@ -9741,21 +9748,19 @@
       <c r="H58" s="10"/>
       <c r="I58" s="23"/>
       <c r="J58" s="27" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="56" t="s">
-        <v>842</v>
-      </c>
+      <c r="A59" s="58"/>
       <c r="B59" s="21" t="s">
-        <v>139</v>
+        <v>52</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>11</v>
+        <v>708</v>
       </c>
       <c r="D59" s="30" t="s">
-        <v>748</v>
+        <v>24</v>
       </c>
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
@@ -9763,53 +9768,55 @@
       <c r="H59" s="10"/>
       <c r="I59" s="23"/>
       <c r="J59" s="27" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="57"/>
-      <c r="B60" s="47" t="s">
-        <v>836</v>
-      </c>
-      <c r="C60" s="44" t="s">
+      <c r="A60" s="57" t="s">
+        <v>840</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="30" t="s">
+        <v>747</v>
+      </c>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="23"/>
+      <c r="J60" s="27" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="58"/>
+      <c r="B61" s="47" t="s">
+        <v>834</v>
+      </c>
+      <c r="C61" s="44" t="s">
         <v>709</v>
       </c>
-      <c r="D60" s="45" t="s">
-        <v>748</v>
-      </c>
-      <c r="E60" s="48"/>
-      <c r="F60" s="48"/>
-      <c r="G60" s="48"/>
-      <c r="H60" s="48"/>
-      <c r="I60" s="48"/>
-      <c r="J60" s="46" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="57"/>
-      <c r="B61" s="21" t="s">
+      <c r="D61" s="45" t="s">
+        <v>747</v>
+      </c>
+      <c r="E61" s="48"/>
+      <c r="F61" s="48"/>
+      <c r="G61" s="48"/>
+      <c r="H61" s="48"/>
+      <c r="I61" s="48"/>
+      <c r="J61" s="46" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="58"/>
+      <c r="B62" s="21" t="s">
         <v>141</v>
-      </c>
-      <c r="C61" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D61" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="23"/>
-      <c r="J61" s="27" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="57"/>
-      <c r="B62" s="21" t="s">
-        <v>142</v>
       </c>
       <c r="C62" s="22" t="s">
         <v>17</v>
@@ -9823,19 +9830,19 @@
       <c r="H62" s="10"/>
       <c r="I62" s="23"/>
       <c r="J62" s="27" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="57"/>
+      <c r="A63" s="58"/>
       <c r="B63" s="21" t="s">
-        <v>856</v>
+        <v>142</v>
       </c>
       <c r="C63" s="22" t="s">
         <v>17</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>730</v>
+        <v>35</v>
       </c>
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
@@ -9843,19 +9850,19 @@
       <c r="H63" s="10"/>
       <c r="I63" s="23"/>
       <c r="J63" s="27" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="57"/>
+      <c r="A64" s="58"/>
       <c r="B64" s="21" t="s">
-        <v>144</v>
+        <v>854</v>
       </c>
       <c r="C64" s="22" t="s">
         <v>17</v>
       </c>
       <c r="D64" s="30" t="s">
-        <v>35</v>
+        <v>729</v>
       </c>
       <c r="E64" s="10"/>
       <c r="F64" s="10"/>
@@ -9863,16 +9870,16 @@
       <c r="H64" s="10"/>
       <c r="I64" s="23"/>
       <c r="J64" s="27" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="57"/>
+      <c r="A65" s="58"/>
       <c r="B65" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>709</v>
+        <v>17</v>
       </c>
       <c r="D65" s="30" t="s">
         <v>35</v>
@@ -9883,16 +9890,16 @@
       <c r="H65" s="10"/>
       <c r="I65" s="23"/>
       <c r="J65" s="27" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="57"/>
+      <c r="A66" s="58"/>
       <c r="B66" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>17</v>
+        <v>709</v>
       </c>
       <c r="D66" s="30" t="s">
         <v>35</v>
@@ -9903,13 +9910,13 @@
       <c r="H66" s="10"/>
       <c r="I66" s="23"/>
       <c r="J66" s="27" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="57"/>
+      <c r="A67" s="58"/>
       <c r="B67" s="21" t="s">
-        <v>733</v>
+        <v>146</v>
       </c>
       <c r="C67" s="22" t="s">
         <v>17</v>
@@ -9923,19 +9930,19 @@
       <c r="H67" s="10"/>
       <c r="I67" s="23"/>
       <c r="J67" s="27" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="57"/>
+      <c r="A68" s="58"/>
       <c r="B68" s="21" t="s">
-        <v>147</v>
+        <v>732</v>
       </c>
       <c r="C68" s="22" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D68" s="30" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="10"/>
@@ -9943,19 +9950,19 @@
       <c r="H68" s="10"/>
       <c r="I68" s="23"/>
       <c r="J68" s="27" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="57"/>
+      <c r="A69" s="58"/>
       <c r="B69" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C69" s="22" t="s">
         <v>23</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
@@ -9963,21 +9970,19 @@
       <c r="H69" s="10"/>
       <c r="I69" s="23"/>
       <c r="J69" s="27" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="56" t="s">
-        <v>843</v>
-      </c>
+      <c r="A70" s="58"/>
       <c r="B70" s="21" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="C70" s="22" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>748</v>
+        <v>24</v>
       </c>
       <c r="E70" s="10"/>
       <c r="F70" s="10"/>
@@ -9985,53 +9990,55 @@
       <c r="H70" s="10"/>
       <c r="I70" s="23"/>
       <c r="J70" s="27" t="s">
-        <v>780</v>
+        <v>790</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="57"/>
-      <c r="B71" s="47" t="s">
-        <v>836</v>
-      </c>
-      <c r="C71" s="44" t="s">
+      <c r="A71" s="57" t="s">
+        <v>841</v>
+      </c>
+      <c r="B71" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C71" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" s="30" t="s">
+        <v>747</v>
+      </c>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="23"/>
+      <c r="J71" s="27" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="58"/>
+      <c r="B72" s="47" t="s">
+        <v>834</v>
+      </c>
+      <c r="C72" s="44" t="s">
         <v>709</v>
       </c>
-      <c r="D71" s="45" t="s">
-        <v>748</v>
-      </c>
-      <c r="E71" s="48"/>
-      <c r="F71" s="48"/>
-      <c r="G71" s="48"/>
-      <c r="H71" s="48"/>
-      <c r="I71" s="48"/>
-      <c r="J71" s="46" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="57"/>
-      <c r="B72" s="21" t="s">
+      <c r="D72" s="45" t="s">
+        <v>747</v>
+      </c>
+      <c r="E72" s="48"/>
+      <c r="F72" s="48"/>
+      <c r="G72" s="48"/>
+      <c r="H72" s="48"/>
+      <c r="I72" s="48"/>
+      <c r="J72" s="46" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="58"/>
+      <c r="B73" s="21" t="s">
         <v>149</v>
-      </c>
-      <c r="C72" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D72" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="E72" s="24"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="24"/>
-      <c r="H72" s="24"/>
-      <c r="I72" s="24"/>
-      <c r="J72" s="27" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="57"/>
-      <c r="B73" s="21" t="s">
-        <v>150</v>
       </c>
       <c r="C73" s="22" t="s">
         <v>17</v>
@@ -10045,13 +10052,13 @@
       <c r="H73" s="24"/>
       <c r="I73" s="24"/>
       <c r="J73" s="27" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="57"/>
+      <c r="A74" s="58"/>
       <c r="B74" s="21" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C74" s="22" t="s">
         <v>17</v>
@@ -10065,19 +10072,19 @@
       <c r="H74" s="24"/>
       <c r="I74" s="24"/>
       <c r="J74" s="27" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="57"/>
+      <c r="A75" s="58"/>
       <c r="B75" s="21" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C75" s="22" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D75" s="30" t="s">
-        <v>707</v>
+        <v>35</v>
       </c>
       <c r="E75" s="24"/>
       <c r="F75" s="24"/>
@@ -10085,13 +10092,13 @@
       <c r="H75" s="24"/>
       <c r="I75" s="24"/>
       <c r="J75" s="27" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="57"/>
+      <c r="A76" s="58"/>
       <c r="B76" s="21" t="s">
-        <v>52</v>
+        <v>148</v>
       </c>
       <c r="C76" s="22" t="s">
         <v>23</v>
@@ -10105,19 +10112,19 @@
       <c r="H76" s="24"/>
       <c r="I76" s="24"/>
       <c r="J76" s="27" t="s">
-        <v>782</v>
+        <v>790</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="57"/>
+      <c r="A77" s="58"/>
       <c r="B77" s="21" t="s">
-        <v>742</v>
+        <v>52</v>
       </c>
       <c r="C77" s="22" t="s">
         <v>23</v>
       </c>
       <c r="D77" s="30" t="s">
-        <v>27</v>
+        <v>707</v>
       </c>
       <c r="E77" s="24"/>
       <c r="F77" s="24"/>
@@ -10125,19 +10132,19 @@
       <c r="H77" s="24"/>
       <c r="I77" s="24"/>
       <c r="J77" s="27" t="s">
-        <v>796</v>
+        <v>780</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="57"/>
+      <c r="A78" s="58"/>
       <c r="B78" s="21" t="s">
-        <v>136</v>
+        <v>741</v>
       </c>
       <c r="C78" s="22" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D78" s="30" t="s">
-        <v>730</v>
+        <v>27</v>
       </c>
       <c r="E78" s="24"/>
       <c r="F78" s="24"/>
@@ -10145,55 +10152,55 @@
       <c r="H78" s="24"/>
       <c r="I78" s="24"/>
       <c r="J78" s="27" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="56" t="s">
-        <v>844</v>
-      </c>
-      <c r="B79" s="47" t="s">
-        <v>836</v>
-      </c>
-      <c r="C79" s="44" t="s">
+      <c r="A79" s="58"/>
+      <c r="B79" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C79" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" s="30" t="s">
+        <v>729</v>
+      </c>
+      <c r="E79" s="24"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="24"/>
+      <c r="H79" s="24"/>
+      <c r="I79" s="24"/>
+      <c r="J79" s="27" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="57" t="s">
+        <v>842</v>
+      </c>
+      <c r="B80" s="47" t="s">
+        <v>834</v>
+      </c>
+      <c r="C80" s="44" t="s">
         <v>709</v>
       </c>
-      <c r="D79" s="45" t="s">
-        <v>748</v>
-      </c>
-      <c r="E79" s="48"/>
-      <c r="F79" s="48"/>
-      <c r="G79" s="48"/>
-      <c r="H79" s="48"/>
-      <c r="I79" s="48"/>
-      <c r="J79" s="46" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="57"/>
-      <c r="B80" s="21" t="s">
+      <c r="D80" s="45" t="s">
+        <v>747</v>
+      </c>
+      <c r="E80" s="48"/>
+      <c r="F80" s="48"/>
+      <c r="G80" s="48"/>
+      <c r="H80" s="48"/>
+      <c r="I80" s="48"/>
+      <c r="J80" s="46" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="58"/>
+      <c r="B81" s="21" t="s">
         <v>154</v>
-      </c>
-      <c r="C80" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D80" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="E80" s="24"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="24"/>
-      <c r="H80" s="24"/>
-      <c r="I80" s="24"/>
-      <c r="J80" s="27" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="57"/>
-      <c r="B81" s="21" t="s">
-        <v>155</v>
       </c>
       <c r="C81" s="22" t="s">
         <v>17</v>
@@ -10207,13 +10214,13 @@
       <c r="H81" s="24"/>
       <c r="I81" s="24"/>
       <c r="J81" s="27" t="s">
-        <v>798</v>
+        <v>730</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="57"/>
+      <c r="A82" s="58"/>
       <c r="B82" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C82" s="22" t="s">
         <v>17</v>
@@ -10227,13 +10234,13 @@
       <c r="H82" s="24"/>
       <c r="I82" s="24"/>
       <c r="J82" s="27" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="57"/>
+      <c r="A83" s="58"/>
       <c r="B83" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C83" s="22" t="s">
         <v>17</v>
@@ -10247,19 +10254,19 @@
       <c r="H83" s="24"/>
       <c r="I83" s="24"/>
       <c r="J83" s="27" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="57"/>
-      <c r="B84" s="29" t="s">
-        <v>856</v>
+      <c r="A84" s="58"/>
+      <c r="B84" s="21" t="s">
+        <v>157</v>
       </c>
       <c r="C84" s="22" t="s">
         <v>17</v>
       </c>
       <c r="D84" s="30" t="s">
-        <v>730</v>
+        <v>35</v>
       </c>
       <c r="E84" s="24"/>
       <c r="F84" s="24"/>
@@ -10267,19 +10274,19 @@
       <c r="H84" s="24"/>
       <c r="I84" s="24"/>
       <c r="J84" s="27" t="s">
-        <v>732</v>
+        <v>798</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="57"/>
-      <c r="B85" s="21" t="s">
-        <v>52</v>
+      <c r="A85" s="58"/>
+      <c r="B85" s="29" t="s">
+        <v>854</v>
       </c>
       <c r="C85" s="22" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D85" s="30" t="s">
-        <v>158</v>
+        <v>729</v>
       </c>
       <c r="E85" s="24"/>
       <c r="F85" s="24"/>
@@ -10287,21 +10294,19 @@
       <c r="H85" s="24"/>
       <c r="I85" s="24"/>
       <c r="J85" s="27" t="s">
-        <v>782</v>
+        <v>731</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="56" t="s">
-        <v>845</v>
-      </c>
+      <c r="A86" s="58"/>
       <c r="B86" s="21" t="s">
-        <v>159</v>
+        <v>52</v>
       </c>
       <c r="C86" s="22" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D86" s="30" t="s">
-        <v>748</v>
+        <v>158</v>
       </c>
       <c r="E86" s="24"/>
       <c r="F86" s="24"/>
@@ -10309,53 +10314,55 @@
       <c r="H86" s="24"/>
       <c r="I86" s="24"/>
       <c r="J86" s="27" t="s">
-        <v>801</v>
+        <v>780</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="57"/>
-      <c r="B87" s="47" t="s">
-        <v>836</v>
-      </c>
-      <c r="C87" s="44" t="s">
+      <c r="A87" s="57" t="s">
+        <v>843</v>
+      </c>
+      <c r="B87" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="C87" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" s="30" t="s">
+        <v>747</v>
+      </c>
+      <c r="E87" s="24"/>
+      <c r="F87" s="24"/>
+      <c r="G87" s="24"/>
+      <c r="H87" s="24"/>
+      <c r="I87" s="24"/>
+      <c r="J87" s="27" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="58"/>
+      <c r="B88" s="47" t="s">
+        <v>834</v>
+      </c>
+      <c r="C88" s="44" t="s">
         <v>709</v>
       </c>
-      <c r="D87" s="45" t="s">
-        <v>748</v>
-      </c>
-      <c r="E87" s="48"/>
-      <c r="F87" s="48"/>
-      <c r="G87" s="48"/>
-      <c r="H87" s="48"/>
-      <c r="I87" s="48"/>
-      <c r="J87" s="46" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="57"/>
-      <c r="B88" s="21" t="s">
+      <c r="D88" s="45" t="s">
+        <v>747</v>
+      </c>
+      <c r="E88" s="48"/>
+      <c r="F88" s="48"/>
+      <c r="G88" s="48"/>
+      <c r="H88" s="48"/>
+      <c r="I88" s="48"/>
+      <c r="J88" s="46" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="58"/>
+      <c r="B89" s="21" t="s">
         <v>160</v>
-      </c>
-      <c r="C88" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D88" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="24"/>
-      <c r="H88" s="24"/>
-      <c r="I88" s="24"/>
-      <c r="J88" s="27" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="57"/>
-      <c r="B89" s="21" t="s">
-        <v>734</v>
       </c>
       <c r="C89" s="22" t="s">
         <v>17</v>
@@ -10369,13 +10376,13 @@
       <c r="H89" s="24"/>
       <c r="I89" s="24"/>
       <c r="J89" s="27" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="57"/>
+      <c r="A90" s="58"/>
       <c r="B90" s="21" t="s">
-        <v>161</v>
+        <v>733</v>
       </c>
       <c r="C90" s="22" t="s">
         <v>17</v>
@@ -10389,19 +10396,19 @@
       <c r="H90" s="24"/>
       <c r="I90" s="24"/>
       <c r="J90" s="27" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="57"/>
+      <c r="A91" s="58"/>
       <c r="B91" s="21" t="s">
-        <v>52</v>
+        <v>161</v>
       </c>
       <c r="C91" s="22" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D91" s="30" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E91" s="24"/>
       <c r="F91" s="24"/>
@@ -10409,21 +10416,19 @@
       <c r="H91" s="24"/>
       <c r="I91" s="24"/>
       <c r="J91" s="27" t="s">
-        <v>782</v>
+        <v>802</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="56" t="s">
-        <v>846</v>
-      </c>
+      <c r="A92" s="58"/>
       <c r="B92" s="21" t="s">
-        <v>162</v>
+        <v>52</v>
       </c>
       <c r="C92" s="22" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D92" s="30" t="s">
-        <v>748</v>
+        <v>24</v>
       </c>
       <c r="E92" s="24"/>
       <c r="F92" s="24"/>
@@ -10431,53 +10436,55 @@
       <c r="H92" s="24"/>
       <c r="I92" s="24"/>
       <c r="J92" s="27" t="s">
-        <v>801</v>
+        <v>780</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="57"/>
-      <c r="B93" s="47" t="s">
-        <v>836</v>
-      </c>
-      <c r="C93" s="44" t="s">
+      <c r="A93" s="57" t="s">
+        <v>844</v>
+      </c>
+      <c r="B93" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="C93" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" s="30" t="s">
+        <v>747</v>
+      </c>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="24"/>
+      <c r="H93" s="24"/>
+      <c r="I93" s="24"/>
+      <c r="J93" s="27" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="58"/>
+      <c r="B94" s="47" t="s">
+        <v>834</v>
+      </c>
+      <c r="C94" s="44" t="s">
         <v>709</v>
       </c>
-      <c r="D93" s="45" t="s">
-        <v>748</v>
-      </c>
-      <c r="E93" s="48"/>
-      <c r="F93" s="48"/>
-      <c r="G93" s="48"/>
-      <c r="H93" s="48"/>
-      <c r="I93" s="48"/>
-      <c r="J93" s="46" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="57"/>
-      <c r="B94" s="21" t="s">
+      <c r="D94" s="45" t="s">
+        <v>747</v>
+      </c>
+      <c r="E94" s="48"/>
+      <c r="F94" s="48"/>
+      <c r="G94" s="48"/>
+      <c r="H94" s="48"/>
+      <c r="I94" s="48"/>
+      <c r="J94" s="46" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="58"/>
+      <c r="B95" s="21" t="s">
         <v>88</v>
-      </c>
-      <c r="C94" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D94" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E94" s="24"/>
-      <c r="F94" s="24"/>
-      <c r="G94" s="24"/>
-      <c r="H94" s="24"/>
-      <c r="I94" s="24"/>
-      <c r="J94" s="27" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="57"/>
-      <c r="B95" s="21" t="s">
-        <v>163</v>
       </c>
       <c r="C95" s="22" t="s">
         <v>17</v>
@@ -10491,13 +10498,13 @@
       <c r="H95" s="24"/>
       <c r="I95" s="24"/>
       <c r="J95" s="27" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="57"/>
+      <c r="A96" s="58"/>
       <c r="B96" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C96" s="22" t="s">
         <v>17</v>
@@ -10511,19 +10518,19 @@
       <c r="H96" s="24"/>
       <c r="I96" s="24"/>
       <c r="J96" s="27" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="57"/>
+      <c r="A97" s="58"/>
       <c r="B97" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C97" s="22" t="s">
-        <v>736</v>
+        <v>17</v>
       </c>
       <c r="D97" s="30" t="s">
-        <v>737</v>
+        <v>20</v>
       </c>
       <c r="E97" s="24"/>
       <c r="F97" s="24"/>
@@ -10531,61 +10538,61 @@
       <c r="H97" s="24"/>
       <c r="I97" s="24"/>
       <c r="J97" s="27" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="56" t="s">
-        <v>847</v>
-      </c>
-      <c r="B98" s="47" t="s">
-        <v>836</v>
-      </c>
-      <c r="C98" s="44" t="s">
+      <c r="A98" s="58"/>
+      <c r="B98" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="C98" s="22" t="s">
+        <v>735</v>
+      </c>
+      <c r="D98" s="30" t="s">
+        <v>736</v>
+      </c>
+      <c r="E98" s="24"/>
+      <c r="F98" s="24"/>
+      <c r="G98" s="24"/>
+      <c r="H98" s="24"/>
+      <c r="I98" s="24"/>
+      <c r="J98" s="27" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="57" t="s">
+        <v>845</v>
+      </c>
+      <c r="B99" s="47" t="s">
+        <v>834</v>
+      </c>
+      <c r="C99" s="44" t="s">
         <v>709</v>
       </c>
-      <c r="D98" s="45" t="s">
-        <v>748</v>
-      </c>
-      <c r="E98" s="48"/>
-      <c r="F98" s="48"/>
-      <c r="G98" s="48"/>
-      <c r="H98" s="48"/>
-      <c r="I98" s="48"/>
-      <c r="J98" s="46" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="57"/>
-      <c r="B99" s="21" t="s">
+      <c r="D99" s="45" t="s">
+        <v>747</v>
+      </c>
+      <c r="E99" s="48"/>
+      <c r="F99" s="48"/>
+      <c r="G99" s="48"/>
+      <c r="H99" s="48"/>
+      <c r="I99" s="48"/>
+      <c r="J99" s="46" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="58"/>
+      <c r="B100" s="21" t="s">
         <v>166</v>
-      </c>
-      <c r="C99" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D99" s="30" t="s">
-        <v>729</v>
-      </c>
-      <c r="E99" s="24"/>
-      <c r="F99" s="24"/>
-      <c r="G99" s="24"/>
-      <c r="H99" s="24"/>
-      <c r="I99" s="24"/>
-      <c r="J99" s="27" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="57"/>
-      <c r="B100" s="21" t="s">
-        <v>167</v>
       </c>
       <c r="C100" s="22" t="s">
         <v>11</v>
       </c>
       <c r="D100" s="30" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E100" s="24"/>
       <c r="F100" s="24"/>
@@ -10593,61 +10600,61 @@
       <c r="H100" s="24"/>
       <c r="I100" s="24"/>
       <c r="J100" s="27" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="56" t="s">
-        <v>848</v>
-      </c>
-      <c r="B101" s="47" t="s">
-        <v>836</v>
-      </c>
-      <c r="C101" s="44" t="s">
+      <c r="A101" s="58"/>
+      <c r="B101" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="C101" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101" s="30" t="s">
+        <v>728</v>
+      </c>
+      <c r="E101" s="24"/>
+      <c r="F101" s="24"/>
+      <c r="G101" s="24"/>
+      <c r="H101" s="24"/>
+      <c r="I101" s="24"/>
+      <c r="J101" s="27" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="57" t="s">
+        <v>846</v>
+      </c>
+      <c r="B102" s="47" t="s">
+        <v>834</v>
+      </c>
+      <c r="C102" s="44" t="s">
         <v>709</v>
       </c>
-      <c r="D101" s="45" t="s">
-        <v>748</v>
-      </c>
-      <c r="E101" s="48"/>
-      <c r="F101" s="48"/>
-      <c r="G101" s="48"/>
-      <c r="H101" s="48"/>
-      <c r="I101" s="48"/>
-      <c r="J101" s="46" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="57"/>
-      <c r="B102" s="21" t="s">
+      <c r="D102" s="45" t="s">
+        <v>747</v>
+      </c>
+      <c r="E102" s="48"/>
+      <c r="F102" s="48"/>
+      <c r="G102" s="48"/>
+      <c r="H102" s="48"/>
+      <c r="I102" s="48"/>
+      <c r="J102" s="46" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="58"/>
+      <c r="B103" s="21" t="s">
         <v>166</v>
-      </c>
-      <c r="C102" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D102" s="30" t="s">
-        <v>729</v>
-      </c>
-      <c r="E102" s="24"/>
-      <c r="F102" s="24"/>
-      <c r="G102" s="24"/>
-      <c r="H102" s="24"/>
-      <c r="I102" s="24"/>
-      <c r="J102" s="27" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="57"/>
-      <c r="B103" s="21" t="s">
-        <v>168</v>
       </c>
       <c r="C103" s="22" t="s">
         <v>11</v>
       </c>
       <c r="D103" s="30" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E103" s="24"/>
       <c r="F103" s="24"/>
@@ -10655,61 +10662,61 @@
       <c r="H103" s="24"/>
       <c r="I103" s="24"/>
       <c r="J103" s="27" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="56" t="s">
-        <v>849</v>
-      </c>
-      <c r="B104" s="47" t="s">
-        <v>836</v>
-      </c>
-      <c r="C104" s="44" t="s">
+      <c r="A104" s="58"/>
+      <c r="B104" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C104" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" s="30" t="s">
+        <v>728</v>
+      </c>
+      <c r="E104" s="24"/>
+      <c r="F104" s="24"/>
+      <c r="G104" s="24"/>
+      <c r="H104" s="24"/>
+      <c r="I104" s="24"/>
+      <c r="J104" s="27" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="57" t="s">
+        <v>847</v>
+      </c>
+      <c r="B105" s="47" t="s">
+        <v>834</v>
+      </c>
+      <c r="C105" s="44" t="s">
         <v>709</v>
       </c>
-      <c r="D104" s="45" t="s">
-        <v>748</v>
-      </c>
-      <c r="E104" s="48"/>
-      <c r="F104" s="48"/>
-      <c r="G104" s="48"/>
-      <c r="H104" s="48"/>
-      <c r="I104" s="48"/>
-      <c r="J104" s="46" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="57"/>
-      <c r="B105" s="21" t="s">
+      <c r="D105" s="45" t="s">
+        <v>747</v>
+      </c>
+      <c r="E105" s="48"/>
+      <c r="F105" s="48"/>
+      <c r="G105" s="48"/>
+      <c r="H105" s="48"/>
+      <c r="I105" s="48"/>
+      <c r="J105" s="46" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="58"/>
+      <c r="B106" s="21" t="s">
         <v>166</v>
-      </c>
-      <c r="C105" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D105" s="30" t="s">
-        <v>729</v>
-      </c>
-      <c r="E105" s="24"/>
-      <c r="F105" s="24"/>
-      <c r="G105" s="24"/>
-      <c r="H105" s="24"/>
-      <c r="I105" s="24"/>
-      <c r="J105" s="27" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="57"/>
-      <c r="B106" s="21" t="s">
-        <v>170</v>
       </c>
       <c r="C106" s="22" t="s">
         <v>11</v>
       </c>
       <c r="D106" s="30" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E106" s="24"/>
       <c r="F106" s="24"/>
@@ -10717,61 +10724,61 @@
       <c r="H106" s="24"/>
       <c r="I106" s="24"/>
       <c r="J106" s="27" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="56" t="s">
-        <v>850</v>
-      </c>
-      <c r="B107" s="47" t="s">
-        <v>836</v>
-      </c>
-      <c r="C107" s="44" t="s">
+      <c r="A107" s="58"/>
+      <c r="B107" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="C107" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D107" s="30" t="s">
+        <v>728</v>
+      </c>
+      <c r="E107" s="24"/>
+      <c r="F107" s="24"/>
+      <c r="G107" s="24"/>
+      <c r="H107" s="24"/>
+      <c r="I107" s="24"/>
+      <c r="J107" s="27" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="57" t="s">
+        <v>848</v>
+      </c>
+      <c r="B108" s="47" t="s">
+        <v>834</v>
+      </c>
+      <c r="C108" s="44" t="s">
         <v>709</v>
       </c>
-      <c r="D107" s="45" t="s">
-        <v>748</v>
-      </c>
-      <c r="E107" s="48"/>
-      <c r="F107" s="48"/>
-      <c r="G107" s="48"/>
-      <c r="H107" s="48"/>
-      <c r="I107" s="48"/>
-      <c r="J107" s="46" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="57"/>
-      <c r="B108" s="21" t="s">
+      <c r="D108" s="45" t="s">
+        <v>747</v>
+      </c>
+      <c r="E108" s="48"/>
+      <c r="F108" s="48"/>
+      <c r="G108" s="48"/>
+      <c r="H108" s="48"/>
+      <c r="I108" s="48"/>
+      <c r="J108" s="46" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="58"/>
+      <c r="B109" s="21" t="s">
         <v>166</v>
-      </c>
-      <c r="C108" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D108" s="30" t="s">
-        <v>729</v>
-      </c>
-      <c r="E108" s="24"/>
-      <c r="F108" s="24"/>
-      <c r="G108" s="24"/>
-      <c r="H108" s="24"/>
-      <c r="I108" s="24"/>
-      <c r="J108" s="27" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="57"/>
-      <c r="B109" s="21" t="s">
-        <v>171</v>
       </c>
       <c r="C109" s="22" t="s">
         <v>11</v>
       </c>
       <c r="D109" s="30" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E109" s="24"/>
       <c r="F109" s="24"/>
@@ -10779,21 +10786,19 @@
       <c r="H109" s="24"/>
       <c r="I109" s="24"/>
       <c r="J109" s="27" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="58" t="s">
-        <v>172</v>
-      </c>
+      <c r="A110" s="58"/>
       <c r="B110" s="21" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="C110" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D110" s="30">
-        <v>19</v>
+      <c r="D110" s="30" t="s">
+        <v>728</v>
       </c>
       <c r="E110" s="24"/>
       <c r="F110" s="24"/>
@@ -10801,19 +10806,21 @@
       <c r="H110" s="24"/>
       <c r="I110" s="24"/>
       <c r="J110" s="27" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="58"/>
-      <c r="B111" s="29" t="s">
-        <v>857</v>
+      <c r="A111" s="56" t="s">
+        <v>172</v>
+      </c>
+      <c r="B111" s="21" t="s">
+        <v>107</v>
       </c>
       <c r="C111" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D111" s="30" t="s">
-        <v>706</v>
+        <v>11</v>
+      </c>
+      <c r="D111" s="30">
+        <v>19</v>
       </c>
       <c r="E111" s="24"/>
       <c r="F111" s="24"/>
@@ -10821,19 +10828,19 @@
       <c r="H111" s="24"/>
       <c r="I111" s="24"/>
       <c r="J111" s="27" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="58"/>
-      <c r="B112" s="21" t="s">
-        <v>174</v>
+      <c r="A112" s="56"/>
+      <c r="B112" s="29" t="s">
+        <v>855</v>
       </c>
       <c r="C112" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D112" s="30">
-        <v>32</v>
+      <c r="D112" s="30" t="s">
+        <v>706</v>
       </c>
       <c r="E112" s="24"/>
       <c r="F112" s="24"/>
@@ -10841,19 +10848,19 @@
       <c r="H112" s="24"/>
       <c r="I112" s="24"/>
       <c r="J112" s="27" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="58"/>
+      <c r="A113" s="56"/>
       <c r="B113" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C113" s="22" t="s">
-        <v>708</v>
+        <v>17</v>
       </c>
       <c r="D113" s="30">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E113" s="24"/>
       <c r="F113" s="24"/>
@@ -10861,21 +10868,19 @@
       <c r="H113" s="24"/>
       <c r="I113" s="24"/>
       <c r="J113" s="27" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="58" t="s">
-        <v>176</v>
-      </c>
+      <c r="A114" s="56"/>
       <c r="B114" s="21" t="s">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="C114" s="22" t="s">
-        <v>11</v>
+        <v>708</v>
       </c>
       <c r="D114" s="30">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E114" s="24"/>
       <c r="F114" s="24"/>
@@ -10883,19 +10888,21 @@
       <c r="H114" s="24"/>
       <c r="I114" s="24"/>
       <c r="J114" s="27" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="58"/>
+      <c r="A115" s="56" t="s">
+        <v>176</v>
+      </c>
       <c r="B115" s="21" t="s">
-        <v>177</v>
+        <v>107</v>
       </c>
       <c r="C115" s="22" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D115" s="30">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E115" s="24"/>
       <c r="F115" s="24"/>
@@ -10903,19 +10910,19 @@
       <c r="H115" s="24"/>
       <c r="I115" s="24"/>
       <c r="J115" s="27" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="58"/>
+      <c r="A116" s="56"/>
       <c r="B116" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C116" s="22" t="s">
         <v>17</v>
       </c>
       <c r="D116" s="30">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="E116" s="24"/>
       <c r="F116" s="24"/>
@@ -10923,19 +10930,19 @@
       <c r="H116" s="24"/>
       <c r="I116" s="24"/>
       <c r="J116" s="27" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="58"/>
+      <c r="A117" s="56"/>
       <c r="B117" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C117" s="22" t="s">
         <v>17</v>
       </c>
       <c r="D117" s="30">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E117" s="24"/>
       <c r="F117" s="24"/>
@@ -10943,21 +10950,19 @@
       <c r="H117" s="24"/>
       <c r="I117" s="24"/>
       <c r="J117" s="27" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="s">
-        <v>180</v>
-      </c>
+      <c r="A118" s="56"/>
       <c r="B118" s="21" t="s">
-        <v>107</v>
+        <v>179</v>
       </c>
       <c r="C118" s="22" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D118" s="30">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E118" s="24"/>
       <c r="F118" s="24"/>
@@ -10965,19 +10970,21 @@
       <c r="H118" s="24"/>
       <c r="I118" s="24"/>
       <c r="J118" s="27" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="5"/>
+      <c r="A119" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="B119" s="21" t="s">
-        <v>181</v>
+        <v>107</v>
       </c>
       <c r="C119" s="22" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D119" s="30">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E119" s="24"/>
       <c r="F119" s="24"/>
@@ -10985,39 +10992,39 @@
       <c r="H119" s="24"/>
       <c r="I119" s="24"/>
       <c r="J119" s="27" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="5"/>
-      <c r="B120" s="62" t="s">
-        <v>903</v>
+      <c r="B120" s="21" t="s">
+        <v>181</v>
       </c>
       <c r="C120" s="22" t="s">
-        <v>736</v>
-      </c>
-      <c r="D120" s="38" t="s">
-        <v>904</v>
+        <v>23</v>
+      </c>
+      <c r="D120" s="30">
+        <v>3</v>
       </c>
       <c r="E120" s="24"/>
       <c r="F120" s="24"/>
       <c r="G120" s="24"/>
       <c r="H120" s="24"/>
       <c r="I120" s="24"/>
-      <c r="J120" s="35" t="s">
-        <v>905</v>
+      <c r="J120" s="27" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="5"/>
-      <c r="B121" s="37" t="s">
-        <v>906</v>
+      <c r="B121" s="53" t="s">
+        <v>900</v>
       </c>
       <c r="C121" s="22" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D121" s="38" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="E121" s="24"/>
       <c r="F121" s="24"/>
@@ -11025,19 +11032,19 @@
       <c r="H121" s="24"/>
       <c r="I121" s="24"/>
       <c r="J121" s="35" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
       <c r="B122" s="37" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="C122" s="22" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D122" s="38" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="E122" s="24"/>
       <c r="F122" s="24"/>
@@ -11045,34 +11052,36 @@
       <c r="H122" s="24"/>
       <c r="I122" s="24"/>
       <c r="J122" s="35" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="5"/>
-      <c r="B123" s="21" t="s">
-        <v>182</v>
+      <c r="B123" s="37" t="s">
+        <v>904</v>
       </c>
       <c r="C123" s="22" t="s">
-        <v>738</v>
-      </c>
-      <c r="D123" s="30"/>
+        <v>735</v>
+      </c>
+      <c r="D123" s="38" t="s">
+        <v>901</v>
+      </c>
       <c r="E123" s="24"/>
       <c r="F123" s="24"/>
       <c r="G123" s="24"/>
       <c r="H123" s="24"/>
       <c r="I123" s="24"/>
-      <c r="J123" s="27" t="s">
-        <v>822</v>
+      <c r="J123" s="35" t="s">
+        <v>906</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="5"/>
       <c r="B124" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C124" s="22" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D124" s="30"/>
       <c r="E124" s="24"/>
@@ -11081,41 +11090,39 @@
       <c r="H124" s="24"/>
       <c r="I124" s="24"/>
       <c r="J124" s="27" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="58" t="s">
-        <v>835</v>
-      </c>
+      <c r="A125" s="5"/>
       <c r="B125" s="21" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="C125" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D125" s="30">
-        <v>19</v>
-      </c>
+        <v>737</v>
+      </c>
+      <c r="D125" s="30"/>
       <c r="E125" s="24"/>
       <c r="F125" s="24"/>
       <c r="G125" s="24"/>
       <c r="H125" s="24"/>
       <c r="I125" s="24"/>
       <c r="J125" s="27" t="s">
-        <v>814</v>
+        <v>821</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="58"/>
-      <c r="B126" s="29" t="s">
-        <v>858</v>
+      <c r="A126" s="56" t="s">
+        <v>833</v>
+      </c>
+      <c r="B126" s="21" t="s">
+        <v>107</v>
       </c>
       <c r="C126" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D126" s="30" t="s">
-        <v>706</v>
+        <v>11</v>
+      </c>
+      <c r="D126" s="30">
+        <v>19</v>
       </c>
       <c r="E126" s="24"/>
       <c r="F126" s="24"/>
@@ -11123,90 +11130,109 @@
       <c r="H126" s="24"/>
       <c r="I126" s="24"/>
       <c r="J126" s="27" t="s">
-        <v>824</v>
+        <v>812</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="58"/>
-      <c r="B127" s="21" t="s">
-        <v>184</v>
+      <c r="A127" s="56"/>
+      <c r="B127" s="29" t="s">
+        <v>856</v>
       </c>
       <c r="C127" s="22" t="s">
-        <v>738</v>
-      </c>
-      <c r="D127" s="30"/>
+        <v>17</v>
+      </c>
+      <c r="D127" s="30" t="s">
+        <v>706</v>
+      </c>
       <c r="E127" s="24"/>
       <c r="F127" s="24"/>
       <c r="G127" s="24"/>
       <c r="H127" s="24"/>
       <c r="I127" s="24"/>
       <c r="J127" s="27" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="58"/>
+      <c r="A128" s="56"/>
       <c r="B128" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C128" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D128" s="30">
-        <v>512</v>
-      </c>
+        <v>737</v>
+      </c>
+      <c r="D128" s="30"/>
       <c r="E128" s="24"/>
       <c r="F128" s="24"/>
       <c r="G128" s="24"/>
       <c r="H128" s="24"/>
       <c r="I128" s="24"/>
       <c r="J128" s="27" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="21"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C131" s="26"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="56"/>
+      <c r="B129" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="C129" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D129" s="30">
+        <v>512</v>
+      </c>
+      <c r="E129" s="24"/>
+      <c r="F129" s="24"/>
+      <c r="G129" s="24"/>
+      <c r="H129" s="24"/>
+      <c r="I129" s="24"/>
+      <c r="J129" s="27" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="21"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C132" s="26"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C133" s="26"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C134" s="26"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C135" s="26"/>
-      <c r="D135" s="22"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C136" s="26"/>
       <c r="D136" s="22"/>
     </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D137" s="22"/>
+    </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A125:A128"/>
-    <mergeCell ref="A110:A113"/>
-    <mergeCell ref="A114:A117"/>
-    <mergeCell ref="A107:A109"/>
-    <mergeCell ref="A98:A100"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="A104:A106"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A59:A69"/>
-    <mergeCell ref="A79:A85"/>
+  <mergeCells count="18">
+    <mergeCell ref="A87:A92"/>
+    <mergeCell ref="A93:A98"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="A60:A70"/>
+    <mergeCell ref="A80:A86"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A29"/>
-    <mergeCell ref="A70:A78"/>
-    <mergeCell ref="A86:A91"/>
-    <mergeCell ref="A92:A97"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A40:A50"/>
+    <mergeCell ref="A71:A79"/>
+    <mergeCell ref="A126:A129"/>
+    <mergeCell ref="A111:A114"/>
+    <mergeCell ref="A115:A118"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="A105:A107"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="A1:B1">
@@ -11297,7 +11323,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="60" t="s">
         <v>186</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -11325,7 +11351,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A3" s="59"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="15" t="s">
         <v>136</v>
       </c>
@@ -11351,7 +11377,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A4" s="59"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="15" t="s">
         <v>137</v>
       </c>
@@ -11377,7 +11403,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A5" s="59"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="15" t="s">
         <v>190</v>
       </c>
@@ -11403,7 +11429,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A6" s="59"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="15" t="s">
         <v>192</v>
       </c>
@@ -11429,7 +11455,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="59"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="15" t="s">
         <v>194</v>
       </c>
@@ -11455,7 +11481,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="59"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="15" t="s">
         <v>196</v>
       </c>
@@ -11481,7 +11507,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A9" s="59"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="15" t="s">
         <v>198</v>
       </c>
@@ -11507,7 +11533,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A10" s="59"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="15" t="s">
         <v>148</v>
       </c>
@@ -11533,7 +11559,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A11" s="59"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="15" t="s">
         <v>201</v>
       </c>
@@ -11559,7 +11585,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A12" s="59"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="12" t="s">
         <v>203</v>
       </c>
@@ -11585,7 +11611,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A13" s="59"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="12" t="s">
         <v>205</v>
       </c>
@@ -11611,7 +11637,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A14" s="59"/>
+      <c r="A14" s="60"/>
       <c r="B14" s="15" t="s">
         <v>207</v>
       </c>
@@ -11637,7 +11663,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="60" t="s">
         <v>209</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -11665,7 +11691,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A16" s="59"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="12" t="s">
         <v>212</v>
       </c>
@@ -11691,7 +11717,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A17" s="59"/>
+      <c r="A17" s="60"/>
       <c r="B17" s="12" t="s">
         <v>214</v>
       </c>
@@ -11717,7 +11743,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A18" s="59"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="12" t="s">
         <v>216</v>
       </c>
@@ -11743,7 +11769,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A19" s="59"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="12" t="s">
         <v>218</v>
       </c>
@@ -11769,7 +11795,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A20" s="59"/>
+      <c r="A20" s="60"/>
       <c r="B20" s="12" t="s">
         <v>220</v>
       </c>
@@ -11795,7 +11821,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A21" s="59"/>
+      <c r="A21" s="60"/>
       <c r="B21" s="12" t="s">
         <v>222</v>
       </c>
@@ -11821,7 +11847,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A22" s="59"/>
+      <c r="A22" s="60"/>
       <c r="B22" s="12" t="s">
         <v>224</v>
       </c>
@@ -11847,7 +11873,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A23" s="59"/>
+      <c r="A23" s="60"/>
       <c r="B23" s="12" t="s">
         <v>226</v>
       </c>
@@ -11873,7 +11899,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A24" s="59"/>
+      <c r="A24" s="60"/>
       <c r="B24" s="12" t="s">
         <v>228</v>
       </c>
@@ -11899,7 +11925,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A25" s="59"/>
+      <c r="A25" s="60"/>
       <c r="B25" s="12" t="s">
         <v>52</v>
       </c>
@@ -11925,7 +11951,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="60" t="s">
         <v>230</v>
       </c>
       <c r="B26" s="15" t="s">
@@ -11953,7 +11979,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A27" s="59"/>
+      <c r="A27" s="60"/>
       <c r="B27" s="15" t="s">
         <v>233</v>
       </c>
@@ -11979,7 +12005,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A28" s="59"/>
+      <c r="A28" s="60"/>
       <c r="B28" s="15" t="s">
         <v>234</v>
       </c>
@@ -12005,7 +12031,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A29" s="59"/>
+      <c r="A29" s="60"/>
       <c r="B29" s="15" t="s">
         <v>52</v>
       </c>
@@ -12031,7 +12057,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A30" s="59" t="s">
+      <c r="A30" s="60" t="s">
         <v>236</v>
       </c>
       <c r="B30" s="15" t="s">
@@ -12059,7 +12085,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A31" s="59"/>
+      <c r="A31" s="60"/>
       <c r="B31" s="15" t="s">
         <v>201</v>
       </c>
@@ -12085,7 +12111,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A32" s="59"/>
+      <c r="A32" s="60"/>
       <c r="B32" s="15" t="s">
         <v>240</v>
       </c>
@@ -12111,7 +12137,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A33" s="59"/>
+      <c r="A33" s="60"/>
       <c r="B33" s="15" t="s">
         <v>52</v>
       </c>
@@ -12137,7 +12163,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A34" s="59" t="s">
+      <c r="A34" s="60" t="s">
         <v>242</v>
       </c>
       <c r="B34" s="15" t="s">
@@ -12165,7 +12191,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A35" s="59"/>
+      <c r="A35" s="60"/>
       <c r="B35" s="15" t="s">
         <v>245</v>
       </c>
@@ -12191,7 +12217,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A36" s="59"/>
+      <c r="A36" s="60"/>
       <c r="B36" s="15" t="s">
         <v>247</v>
       </c>
@@ -12217,7 +12243,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A37" s="59"/>
+      <c r="A37" s="60"/>
       <c r="B37" s="15" t="s">
         <v>52</v>
       </c>
@@ -12243,7 +12269,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A38" s="59" t="s">
+      <c r="A38" s="60" t="s">
         <v>249</v>
       </c>
       <c r="B38" s="15" t="s">
@@ -12271,7 +12297,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A39" s="59"/>
+      <c r="A39" s="60"/>
       <c r="B39" s="15" t="s">
         <v>250</v>
       </c>
@@ -12297,7 +12323,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A40" s="59"/>
+      <c r="A40" s="60"/>
       <c r="B40" s="15" t="s">
         <v>252</v>
       </c>
@@ -12323,7 +12349,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A41" s="59"/>
+      <c r="A41" s="60"/>
       <c r="B41" s="15" t="s">
         <v>201</v>
       </c>
@@ -12349,7 +12375,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A42" s="59" t="s">
+      <c r="A42" s="60" t="s">
         <v>254</v>
       </c>
       <c r="B42" s="12" t="s">
@@ -12377,7 +12403,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A43" s="59"/>
+      <c r="A43" s="60"/>
       <c r="B43" s="12" t="s">
         <v>255</v>
       </c>
@@ -12403,7 +12429,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A44" s="59"/>
+      <c r="A44" s="60"/>
       <c r="B44" s="12" t="s">
         <v>257</v>
       </c>
@@ -12429,7 +12455,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A45" s="59"/>
+      <c r="A45" s="60"/>
       <c r="B45" s="12" t="s">
         <v>259</v>
       </c>
@@ -12455,7 +12481,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A46" s="59"/>
+      <c r="A46" s="60"/>
       <c r="B46" s="12" t="s">
         <v>261</v>
       </c>
@@ -12481,7 +12507,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A47" s="59"/>
+      <c r="A47" s="60"/>
       <c r="B47" s="12" t="s">
         <v>263</v>
       </c>
@@ -12507,7 +12533,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A48" s="59"/>
+      <c r="A48" s="60"/>
       <c r="B48" s="12" t="s">
         <v>265</v>
       </c>
@@ -12533,7 +12559,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A49" s="59"/>
+      <c r="A49" s="60"/>
       <c r="B49" s="12" t="s">
         <v>267</v>
       </c>
@@ -12559,7 +12585,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A50" s="59"/>
+      <c r="A50" s="60"/>
       <c r="B50" s="12" t="s">
         <v>269</v>
       </c>
@@ -12585,7 +12611,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A51" s="59"/>
+      <c r="A51" s="60"/>
       <c r="B51" s="12" t="s">
         <v>271</v>
       </c>
@@ -12611,7 +12637,7 @@
       </c>
     </row>
     <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A52" s="59" t="s">
+      <c r="A52" s="60" t="s">
         <v>273</v>
       </c>
       <c r="B52" s="12" t="s">
@@ -12639,7 +12665,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A53" s="59"/>
+      <c r="A53" s="60"/>
       <c r="B53" s="12" t="s">
         <v>275</v>
       </c>
@@ -12665,7 +12691,7 @@
       </c>
     </row>
     <row r="54" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A54" s="59"/>
+      <c r="A54" s="60"/>
       <c r="B54" s="12" t="s">
         <v>277</v>
       </c>
@@ -12691,7 +12717,7 @@
       </c>
     </row>
     <row r="55" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A55" s="59"/>
+      <c r="A55" s="60"/>
       <c r="B55" s="12" t="s">
         <v>279</v>
       </c>
@@ -12717,7 +12743,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A56" s="59"/>
+      <c r="A56" s="60"/>
       <c r="B56" s="12" t="s">
         <v>281</v>
       </c>
@@ -12743,7 +12769,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A57" s="59"/>
+      <c r="A57" s="60"/>
       <c r="B57" s="12" t="s">
         <v>282</v>
       </c>
@@ -12769,7 +12795,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A58" s="59"/>
+      <c r="A58" s="60"/>
       <c r="B58" s="12" t="s">
         <v>19</v>
       </c>
@@ -12795,7 +12821,7 @@
       </c>
     </row>
     <row r="59" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A59" s="59"/>
+      <c r="A59" s="60"/>
       <c r="B59" s="12" t="s">
         <v>261</v>
       </c>
@@ -12821,7 +12847,7 @@
       </c>
     </row>
     <row r="60" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A60" s="59"/>
+      <c r="A60" s="60"/>
       <c r="B60" s="12" t="s">
         <v>284</v>
       </c>
@@ -12847,7 +12873,7 @@
       </c>
     </row>
     <row r="61" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A61" s="59"/>
+      <c r="A61" s="60"/>
       <c r="B61" s="12" t="s">
         <v>263</v>
       </c>
@@ -12873,7 +12899,7 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A62" s="59"/>
+      <c r="A62" s="60"/>
       <c r="B62" s="12" t="s">
         <v>257</v>
       </c>
@@ -12899,7 +12925,7 @@
       </c>
     </row>
     <row r="63" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A63" s="59"/>
+      <c r="A63" s="60"/>
       <c r="B63" s="12" t="s">
         <v>286</v>
       </c>
@@ -12925,7 +12951,7 @@
       </c>
     </row>
     <row r="64" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A64" s="59"/>
+      <c r="A64" s="60"/>
       <c r="B64" s="12" t="s">
         <v>265</v>
       </c>
@@ -12951,7 +12977,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A65" s="59"/>
+      <c r="A65" s="60"/>
       <c r="B65" s="12" t="s">
         <v>288</v>
       </c>
@@ -12977,7 +13003,7 @@
       </c>
     </row>
     <row r="66" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A66" s="59"/>
+      <c r="A66" s="60"/>
       <c r="B66" s="12" t="s">
         <v>289</v>
       </c>
@@ -13003,7 +13029,7 @@
       </c>
     </row>
     <row r="67" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A67" s="59"/>
+      <c r="A67" s="60"/>
       <c r="B67" s="12" t="s">
         <v>267</v>
       </c>
@@ -13029,7 +13055,7 @@
       </c>
     </row>
     <row r="68" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A68" s="59"/>
+      <c r="A68" s="60"/>
       <c r="B68" s="12" t="s">
         <v>290</v>
       </c>
@@ -13055,7 +13081,7 @@
       </c>
     </row>
     <row r="69" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A69" s="59"/>
+      <c r="A69" s="60"/>
       <c r="B69" s="12" t="s">
         <v>201</v>
       </c>
@@ -13081,7 +13107,7 @@
       </c>
     </row>
     <row r="70" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A70" s="59"/>
+      <c r="A70" s="60"/>
       <c r="B70" s="12" t="s">
         <v>293</v>
       </c>
@@ -13107,7 +13133,7 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A71" s="59"/>
+      <c r="A71" s="60"/>
       <c r="B71" s="12" t="s">
         <v>294</v>
       </c>
@@ -13133,7 +13159,7 @@
       </c>
     </row>
     <row r="72" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A72" s="59"/>
+      <c r="A72" s="60"/>
       <c r="B72" s="12" t="s">
         <v>295</v>
       </c>
@@ -13159,7 +13185,7 @@
       </c>
     </row>
     <row r="73" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A73" s="59"/>
+      <c r="A73" s="60"/>
       <c r="B73" s="12" t="s">
         <v>296</v>
       </c>
@@ -13185,7 +13211,7 @@
       </c>
     </row>
     <row r="74" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A74" s="59"/>
+      <c r="A74" s="60"/>
       <c r="B74" s="12" t="s">
         <v>198</v>
       </c>
@@ -13211,7 +13237,7 @@
       </c>
     </row>
     <row r="75" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A75" s="59"/>
+      <c r="A75" s="60"/>
       <c r="B75" s="12" t="s">
         <v>297</v>
       </c>
@@ -13237,7 +13263,7 @@
       </c>
     </row>
     <row r="76" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A76" s="59"/>
+      <c r="A76" s="60"/>
       <c r="B76" s="12" t="s">
         <v>299</v>
       </c>
@@ -13263,7 +13289,7 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A77" s="59"/>
+      <c r="A77" s="60"/>
       <c r="B77" s="12" t="s">
         <v>300</v>
       </c>
@@ -13289,7 +13315,7 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A78" s="59"/>
+      <c r="A78" s="60"/>
       <c r="B78" s="12" t="s">
         <v>301</v>
       </c>
@@ -13315,7 +13341,7 @@
       </c>
     </row>
     <row r="79" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A79" s="59"/>
+      <c r="A79" s="60"/>
       <c r="B79" s="12" t="s">
         <v>302</v>
       </c>
@@ -13341,7 +13367,7 @@
       </c>
     </row>
     <row r="80" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A80" s="59"/>
+      <c r="A80" s="60"/>
       <c r="B80" s="12" t="s">
         <v>303</v>
       </c>
@@ -13367,7 +13393,7 @@
       </c>
     </row>
     <row r="81" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A81" s="59"/>
+      <c r="A81" s="60"/>
       <c r="B81" s="12" t="s">
         <v>304</v>
       </c>
@@ -13393,7 +13419,7 @@
       </c>
     </row>
     <row r="82" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A82" s="59"/>
+      <c r="A82" s="60"/>
       <c r="B82" s="12" t="s">
         <v>305</v>
       </c>
@@ -13419,7 +13445,7 @@
       </c>
     </row>
     <row r="83" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A83" s="59"/>
+      <c r="A83" s="60"/>
       <c r="B83" s="12" t="s">
         <v>306</v>
       </c>
@@ -13445,7 +13471,7 @@
       </c>
     </row>
     <row r="84" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A84" s="59"/>
+      <c r="A84" s="60"/>
       <c r="B84" s="12" t="s">
         <v>307</v>
       </c>
@@ -13471,7 +13497,7 @@
       </c>
     </row>
     <row r="85" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A85" s="59"/>
+      <c r="A85" s="60"/>
       <c r="B85" s="12" t="s">
         <v>259</v>
       </c>
@@ -13497,7 +13523,7 @@
       </c>
     </row>
     <row r="86" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A86" s="59"/>
+      <c r="A86" s="60"/>
       <c r="B86" s="12" t="s">
         <v>308</v>
       </c>
@@ -13523,7 +13549,7 @@
       </c>
     </row>
     <row r="87" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A87" s="59"/>
+      <c r="A87" s="60"/>
       <c r="B87" s="12" t="s">
         <v>309</v>
       </c>
@@ -13549,7 +13575,7 @@
       </c>
     </row>
     <row r="88" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A88" s="59"/>
+      <c r="A88" s="60"/>
       <c r="B88" s="12" t="s">
         <v>311</v>
       </c>
@@ -13575,7 +13601,7 @@
       </c>
     </row>
     <row r="89" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A89" s="59"/>
+      <c r="A89" s="60"/>
       <c r="B89" s="12" t="s">
         <v>313</v>
       </c>
@@ -13601,7 +13627,7 @@
       </c>
     </row>
     <row r="90" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A90" s="59"/>
+      <c r="A90" s="60"/>
       <c r="B90" s="12" t="s">
         <v>315</v>
       </c>
@@ -13627,7 +13653,7 @@
       </c>
     </row>
     <row r="91" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A91" s="59"/>
+      <c r="A91" s="60"/>
       <c r="B91" s="12" t="s">
         <v>317</v>
       </c>
@@ -13653,7 +13679,7 @@
       </c>
     </row>
     <row r="92" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A92" s="59"/>
+      <c r="A92" s="60"/>
       <c r="B92" s="12" t="s">
         <v>318</v>
       </c>
@@ -13679,7 +13705,7 @@
       </c>
     </row>
     <row r="93" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A93" s="59" t="s">
+      <c r="A93" s="60" t="s">
         <v>320</v>
       </c>
       <c r="B93" s="12" t="s">
@@ -13707,7 +13733,7 @@
       </c>
     </row>
     <row r="94" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A94" s="59"/>
+      <c r="A94" s="60"/>
       <c r="B94" s="12" t="s">
         <v>322</v>
       </c>
@@ -13828,7 +13854,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="58" t="s">
         <v>324</v>
       </c>
       <c r="B2" t="s">
@@ -13846,7 +13872,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
+      <c r="A3" s="58"/>
       <c r="B3" t="s">
         <v>327</v>
       </c>
@@ -13862,7 +13888,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
+      <c r="A4" s="58"/>
       <c r="B4" t="s">
         <v>329</v>
       </c>
@@ -13873,7 +13899,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="58" t="s">
         <v>331</v>
       </c>
       <c r="B5" t="s">
@@ -13891,7 +13917,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
+      <c r="A6" s="58"/>
       <c r="B6" t="s">
         <v>333</v>
       </c>
@@ -13907,7 +13933,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
+      <c r="A7" s="58"/>
       <c r="B7" t="s">
         <v>335</v>
       </c>
@@ -13923,7 +13949,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="57"/>
+      <c r="A8" s="58"/>
       <c r="B8" t="s">
         <v>337</v>
       </c>
@@ -13939,7 +13965,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
+      <c r="A9" s="58"/>
       <c r="B9" t="s">
         <v>339</v>
       </c>
@@ -13955,7 +13981,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="58" t="s">
         <v>341</v>
       </c>
       <c r="B10" t="s">
@@ -13973,7 +13999,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
+      <c r="A11" s="58"/>
       <c r="B11" t="s">
         <v>342</v>
       </c>
@@ -13989,7 +14015,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
+      <c r="A12" s="58"/>
       <c r="B12" t="s">
         <v>344</v>
       </c>
@@ -14096,7 +14122,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
+      <c r="A2" s="58"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="10"/>
@@ -14107,7 +14133,7 @@
       <c r="K2" s="11"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
+      <c r="A3" s="58"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="10"/>
@@ -14118,7 +14144,7 @@
       <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
+      <c r="A4" s="58"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="10"/>
@@ -14129,7 +14155,7 @@
       <c r="K4" s="11"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
+      <c r="A5" s="58"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="10"/>
@@ -14140,7 +14166,7 @@
       <c r="K5" s="11"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
+      <c r="A6" s="58"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="10"/>
@@ -14151,7 +14177,7 @@
       <c r="K6" s="11"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
+      <c r="A7" s="58"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="10"/>
@@ -14162,7 +14188,7 @@
       <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="57"/>
+      <c r="A8" s="58"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="10"/>
@@ -14173,7 +14199,7 @@
       <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
+      <c r="A9" s="58"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="10"/>
@@ -14184,7 +14210,7 @@
       <c r="K9" s="11"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="57"/>
+      <c r="A10" s="58"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="10"/>
@@ -14195,13 +14221,13 @@
       <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
+      <c r="A11" s="58"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="K11" s="11"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
+      <c r="A12" s="58"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="10"/>
@@ -14212,7 +14238,7 @@
       <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
+      <c r="A13" s="58"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="10"/>
@@ -14223,7 +14249,7 @@
       <c r="K13" s="11"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="57"/>
+      <c r="A14" s="58"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="10"/>
@@ -14234,7 +14260,7 @@
       <c r="K14" s="11"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
+      <c r="A15" s="58"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="10"/>
@@ -14245,7 +14271,7 @@
       <c r="K15" s="11"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="57"/>
+      <c r="A16" s="58"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="10"/>
@@ -14256,7 +14282,7 @@
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
+      <c r="A17" s="58"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="10"/>
@@ -14267,7 +14293,7 @@
       <c r="K17" s="11"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="57"/>
+      <c r="A18" s="58"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="10"/>
@@ -14278,7 +14304,7 @@
       <c r="K18" s="11"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
+      <c r="A19" s="58"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="10"/>
@@ -14289,7 +14315,7 @@
       <c r="K19" s="11"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="57"/>
+      <c r="A20" s="58"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="10"/>
@@ -14300,7 +14326,7 @@
       <c r="K20" s="11"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
+      <c r="A21" s="58"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="10"/>
@@ -14311,7 +14337,7 @@
       <c r="K21" s="11"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
+      <c r="A22" s="58"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="10"/>
@@ -14322,7 +14348,7 @@
       <c r="K22" s="11"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
+      <c r="A23" s="58"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="10"/>
@@ -14333,7 +14359,7 @@
       <c r="K23" s="11"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="57"/>
+      <c r="A24" s="58"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="10"/>
@@ -14344,7 +14370,7 @@
       <c r="K24" s="11"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="57"/>
+      <c r="A25" s="58"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="10"/>
@@ -14355,151 +14381,151 @@
       <c r="K25" s="11"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="57"/>
+      <c r="A26" s="58"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="K26" s="11"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="57"/>
+      <c r="A27" s="58"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="K27" s="11"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="57"/>
+      <c r="A28" s="58"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="K28" s="11"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="57"/>
+      <c r="A29" s="58"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="K29" s="11"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="57"/>
+      <c r="A30" s="58"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="K30" s="11"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="57"/>
+      <c r="A31" s="58"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="K31" s="11"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="57"/>
+      <c r="A32" s="58"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="K32" s="11"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="57"/>
+      <c r="A33" s="58"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="K33" s="11"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="57"/>
+      <c r="A34" s="58"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="K34" s="11"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="57"/>
+      <c r="A35" s="58"/>
       <c r="K35" s="11"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="57"/>
+      <c r="A36" s="58"/>
       <c r="K36" s="11"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="57"/>
+      <c r="A37" s="58"/>
       <c r="K37" s="11"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="57"/>
+      <c r="A38" s="58"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="K38" s="11"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="57"/>
+      <c r="A39" s="58"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="K39" s="11"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="57"/>
+      <c r="A40" s="58"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="K40" s="11"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="57"/>
+      <c r="A41" s="58"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="K41" s="11"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="57"/>
+      <c r="A42" s="58"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="K42" s="11"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="57"/>
+      <c r="A43" s="58"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="K43" s="11"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="57"/>
+      <c r="A44" s="58"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="K44" s="11"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="57"/>
+      <c r="A45" s="58"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="K45" s="11"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="57"/>
+      <c r="A46" s="58"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="K46" s="11"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="57"/>
+      <c r="A47" s="58"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="K47" s="11"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="57"/>
+      <c r="A48" s="58"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="K48" s="11"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="57"/>
+      <c r="A49" s="58"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="K49" s="11"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="57"/>
+      <c r="A50" s="58"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="K50" s="11"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="57"/>
+      <c r="A51" s="58"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="K51" s="11"/>
@@ -14600,7 +14626,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="58" t="s">
         <v>346</v>
       </c>
       <c r="B2" t="s">
@@ -14622,7 +14648,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
+      <c r="A3" s="58"/>
       <c r="B3" t="s">
         <v>123</v>
       </c>
@@ -14642,7 +14668,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
+      <c r="A4" s="58"/>
       <c r="B4" t="s">
         <v>97</v>
       </c>
@@ -14662,7 +14688,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
+      <c r="A5" s="58"/>
       <c r="B5" t="s">
         <v>168</v>
       </c>
@@ -14682,7 +14708,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
+      <c r="A6" s="58"/>
       <c r="B6" t="s">
         <v>143</v>
       </c>
@@ -14702,7 +14728,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
+      <c r="A7" s="58"/>
       <c r="B7" t="s">
         <v>352</v>
       </c>
@@ -14722,7 +14748,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="57"/>
+      <c r="A8" s="58"/>
       <c r="B8" t="s">
         <v>354</v>
       </c>
@@ -14742,7 +14768,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
+      <c r="A9" s="58"/>
       <c r="B9" t="s">
         <v>356</v>
       </c>
@@ -14762,7 +14788,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="57"/>
+      <c r="A10" s="58"/>
       <c r="B10" t="s">
         <v>358</v>
       </c>
@@ -14782,7 +14808,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
+      <c r="A11" s="58"/>
       <c r="B11" t="s">
         <v>360</v>
       </c>
@@ -14802,7 +14828,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
+      <c r="A12" s="58"/>
       <c r="B12" t="s">
         <v>362</v>
       </c>
@@ -14822,7 +14848,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
+      <c r="A13" s="58"/>
       <c r="B13" t="s">
         <v>364</v>
       </c>
@@ -14842,7 +14868,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="57"/>
+      <c r="A14" s="58"/>
       <c r="B14" t="s">
         <v>366</v>
       </c>
@@ -14862,7 +14888,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
+      <c r="A15" s="58"/>
       <c r="B15" t="s">
         <v>367</v>
       </c>
@@ -14882,7 +14908,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="57"/>
+      <c r="A16" s="58"/>
       <c r="B16" t="s">
         <v>38</v>
       </c>
@@ -14898,7 +14924,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="58" t="s">
         <v>371</v>
       </c>
       <c r="B17" t="s">
@@ -14920,7 +14946,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="57"/>
+      <c r="A18" s="58"/>
       <c r="B18" t="s">
         <v>168</v>
       </c>
@@ -14940,7 +14966,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
+      <c r="A19" s="58"/>
       <c r="B19" t="s">
         <v>141</v>
       </c>
@@ -14960,7 +14986,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="57"/>
+      <c r="A20" s="58"/>
       <c r="B20" t="s">
         <v>259</v>
       </c>
@@ -14980,7 +15006,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
+      <c r="A21" s="58"/>
       <c r="B21" t="s">
         <v>374</v>
       </c>
@@ -15000,7 +15026,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
+      <c r="A22" s="58"/>
       <c r="B22" t="s">
         <v>376</v>
       </c>
@@ -15020,7 +15046,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
+      <c r="A23" s="58"/>
       <c r="B23" t="s">
         <v>378</v>
       </c>
@@ -15040,7 +15066,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="57"/>
+      <c r="A24" s="58"/>
       <c r="B24" t="s">
         <v>380</v>
       </c>
@@ -15060,7 +15086,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="57"/>
+      <c r="A25" s="58"/>
       <c r="B25" t="s">
         <v>382</v>
       </c>
@@ -15080,7 +15106,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="57"/>
+      <c r="A26" s="58"/>
       <c r="B26" t="s">
         <v>384</v>
       </c>
@@ -15100,7 +15126,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="57"/>
+      <c r="A27" s="58"/>
       <c r="B27" t="s">
         <v>386</v>
       </c>
@@ -15120,7 +15146,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="57"/>
+      <c r="A28" s="58"/>
       <c r="B28" t="s">
         <v>38</v>
       </c>
@@ -15136,7 +15162,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="58" t="s">
         <v>388</v>
       </c>
       <c r="B29" t="s">
@@ -15157,7 +15183,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="57"/>
+      <c r="A30" s="58"/>
       <c r="B30" t="s">
         <v>168</v>
       </c>
@@ -15176,7 +15202,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="57"/>
+      <c r="A31" s="58"/>
       <c r="B31" t="s">
         <v>390</v>
       </c>
@@ -15195,7 +15221,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="57"/>
+      <c r="A32" s="58"/>
       <c r="B32" t="s">
         <v>123</v>
       </c>
@@ -15214,7 +15240,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="57" t="s">
+      <c r="A33" s="58" t="s">
         <v>392</v>
       </c>
       <c r="B33" t="s">
@@ -15235,7 +15261,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="57"/>
+      <c r="A34" s="58"/>
       <c r="B34" t="s">
         <v>168</v>
       </c>
@@ -15254,7 +15280,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="57"/>
+      <c r="A35" s="58"/>
       <c r="B35" t="s">
         <v>123</v>
       </c>
@@ -15273,7 +15299,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="57"/>
+      <c r="A36" s="58"/>
       <c r="B36" t="s">
         <v>38</v>
       </c>
@@ -15380,7 +15406,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="58" t="s">
         <v>393</v>
       </c>
       <c r="B2" t="s">
@@ -15398,7 +15424,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
+      <c r="A3" s="58"/>
       <c r="B3" t="s">
         <v>136</v>
       </c>
@@ -15414,7 +15440,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
+      <c r="A4" s="58"/>
       <c r="B4" t="s">
         <v>201</v>
       </c>
@@ -15427,12 +15453,12 @@
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
+      <c r="A5" s="58"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="58" t="s">
         <v>395</v>
       </c>
       <c r="B6" t="s">
@@ -15450,7 +15476,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
+      <c r="A7" s="58"/>
       <c r="B7" t="s">
         <v>397</v>
       </c>
@@ -15466,7 +15492,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="57"/>
+      <c r="A8" s="58"/>
       <c r="B8" t="s">
         <v>201</v>
       </c>
@@ -15482,7 +15508,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
+      <c r="A9" s="58"/>
       <c r="B9" t="s">
         <v>399</v>
       </c>
@@ -15498,7 +15524,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="57"/>
+      <c r="A10" s="58"/>
       <c r="B10" t="s">
         <v>401</v>
       </c>
@@ -15514,7 +15540,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A11" s="57"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="12" t="s">
         <v>403</v>
       </c>
@@ -15530,7 +15556,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
+      <c r="A12" s="58"/>
       <c r="B12" s="9" t="s">
         <v>405</v>
       </c>
@@ -15546,7 +15572,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="9" t="s">
         <v>407</v>
       </c>
@@ -15562,7 +15588,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="57"/>
+      <c r="A14" s="58"/>
       <c r="B14" s="9" t="s">
         <v>409</v>
       </c>
@@ -15578,7 +15604,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
+      <c r="A15" s="58"/>
       <c r="B15" s="9" t="s">
         <v>411</v>
       </c>
@@ -15594,7 +15620,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="57"/>
+      <c r="A16" s="58"/>
       <c r="B16" s="9" t="s">
         <v>413</v>
       </c>
@@ -15610,7 +15636,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
+      <c r="A17" s="58"/>
       <c r="B17" s="9" t="s">
         <v>415</v>
       </c>
@@ -15626,7 +15652,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="57"/>
+      <c r="A18" s="58"/>
       <c r="B18" s="9" t="s">
         <v>417</v>
       </c>
@@ -15642,7 +15668,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
+      <c r="A19" s="58"/>
       <c r="B19" s="9" t="s">
         <v>419</v>
       </c>
@@ -15658,7 +15684,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="57"/>
+      <c r="A20" s="58"/>
       <c r="B20" s="9" t="s">
         <v>421</v>
       </c>
@@ -15674,7 +15700,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
+      <c r="A21" s="58"/>
       <c r="B21" s="9" t="s">
         <v>116</v>
       </c>
@@ -15687,7 +15713,7 @@
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
+      <c r="A22" s="58"/>
       <c r="B22" s="9" t="s">
         <v>423</v>
       </c>
@@ -15700,7 +15726,7 @@
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="58" t="s">
         <v>424</v>
       </c>
       <c r="C23" s="8"/>
@@ -15712,7 +15738,7 @@
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="57"/>
+      <c r="A24" s="58"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="10"/>
@@ -15722,7 +15748,7 @@
       <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="57"/>
+      <c r="A25" s="58"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="10"/>
@@ -15732,7 +15758,7 @@
       <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="57"/>
+      <c r="A26" s="58"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="10"/>
@@ -15896,7 +15922,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="58" t="s">
         <v>425</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -15915,7 +15941,7 @@
       <c r="K2" s="11"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="9" t="s">
         <v>428</v>
       </c>
@@ -15932,7 +15958,7 @@
       <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="9" t="s">
         <v>430</v>
       </c>
@@ -15949,7 +15975,7 @@
       <c r="K4" s="11"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="9" t="s">
         <v>432</v>
       </c>
@@ -15966,7 +15992,7 @@
       <c r="K5" s="11"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="9" t="s">
         <v>434</v>
       </c>
@@ -15983,7 +16009,7 @@
       <c r="K6" s="11"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="9" t="s">
         <v>436</v>
       </c>
@@ -16000,7 +16026,7 @@
       <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="57"/>
+      <c r="A8" s="58"/>
       <c r="B8" t="s">
         <v>38</v>
       </c>
@@ -16017,7 +16043,7 @@
       <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="58" t="s">
         <v>438</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -16036,7 +16062,7 @@
       <c r="K9" s="11"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="57"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="9" t="s">
         <v>439</v>
       </c>
@@ -16053,7 +16079,7 @@
       <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="9" t="s">
         <v>441</v>
       </c>
@@ -16070,7 +16096,7 @@
       <c r="K11" s="11"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
+      <c r="A12" s="58"/>
       <c r="B12" s="9" t="s">
         <v>443</v>
       </c>
@@ -16082,7 +16108,7 @@
       <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="9" t="s">
         <v>445</v>
       </c>
@@ -16099,7 +16125,7 @@
       <c r="K13" s="11"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="57"/>
+      <c r="A14" s="58"/>
       <c r="B14" s="9" t="s">
         <v>447</v>
       </c>
@@ -16116,7 +16142,7 @@
       <c r="K14" s="11"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
+      <c r="A15" s="58"/>
       <c r="B15" t="s">
         <v>38</v>
       </c>
@@ -16133,7 +16159,7 @@
       <c r="K15" s="11"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="58" t="s">
         <v>449</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -16152,7 +16178,7 @@
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
+      <c r="A17" s="58"/>
       <c r="B17" s="9" t="s">
         <v>428</v>
       </c>
@@ -16169,7 +16195,7 @@
       <c r="K17" s="11"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="57"/>
+      <c r="A18" s="58"/>
       <c r="B18" s="9" t="s">
         <v>426</v>
       </c>
@@ -16181,7 +16207,7 @@
       <c r="K18" s="11"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
+      <c r="A19" s="58"/>
       <c r="B19" s="9" t="s">
         <v>451</v>
       </c>
@@ -16193,7 +16219,7 @@
       <c r="K19" s="11"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="57"/>
+      <c r="A20" s="58"/>
       <c r="B20" s="9" t="s">
         <v>453</v>
       </c>
@@ -16205,7 +16231,7 @@
       <c r="K20" s="11"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
+      <c r="A21" s="58"/>
       <c r="B21" s="9" t="s">
         <v>455</v>
       </c>
@@ -16217,7 +16243,7 @@
       <c r="K21" s="11"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
+      <c r="A22" s="58"/>
       <c r="B22" s="9" t="s">
         <v>457</v>
       </c>
@@ -16229,7 +16255,7 @@
       <c r="K22" s="11"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
+      <c r="A23" s="58"/>
       <c r="B23" s="9" t="s">
         <v>459</v>
       </c>
@@ -16241,7 +16267,7 @@
       <c r="K23" s="11"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="57"/>
+      <c r="A24" s="58"/>
       <c r="B24" s="9" t="s">
         <v>286</v>
       </c>
@@ -16253,7 +16279,7 @@
       <c r="K24" s="11"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="57"/>
+      <c r="A25" s="58"/>
       <c r="B25" s="9" t="s">
         <v>201</v>
       </c>
@@ -16263,7 +16289,7 @@
       <c r="K25" s="11"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="57"/>
+      <c r="A26" s="58"/>
       <c r="B26" t="s">
         <v>38</v>
       </c>
@@ -16273,7 +16299,7 @@
       <c r="K26" s="11"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="57" t="s">
+      <c r="A27" s="58" t="s">
         <v>462</v>
       </c>
       <c r="B27" s="9" t="s">
@@ -16287,7 +16313,7 @@
       <c r="K27" s="11"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="57"/>
+      <c r="A28" s="58"/>
       <c r="B28" s="9" t="s">
         <v>366</v>
       </c>
@@ -16299,7 +16325,7 @@
       <c r="K28" s="11"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="57"/>
+      <c r="A29" s="58"/>
       <c r="B29" s="9" t="s">
         <v>463</v>
       </c>
@@ -16311,7 +16337,7 @@
       <c r="K29" s="11"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="57"/>
+      <c r="A30" s="58"/>
       <c r="B30" s="9" t="s">
         <v>465</v>
       </c>
@@ -16323,7 +16349,7 @@
       <c r="K30" s="11"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="57"/>
+      <c r="A31" s="58"/>
       <c r="B31" s="9" t="s">
         <v>467</v>
       </c>
@@ -16335,7 +16361,7 @@
       <c r="K31" s="11"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="57"/>
+      <c r="A32" s="58"/>
       <c r="B32" s="9" t="s">
         <v>469</v>
       </c>
@@ -16344,7 +16370,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="57"/>
+      <c r="A33" s="58"/>
       <c r="B33" s="9" t="s">
         <v>471</v>
       </c>
@@ -16353,7 +16379,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="57"/>
+      <c r="A34" s="58"/>
       <c r="B34" s="9" t="s">
         <v>426</v>
       </c>
@@ -16362,7 +16388,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="57"/>
+      <c r="A35" s="58"/>
       <c r="B35" s="9" t="s">
         <v>428</v>
       </c>
@@ -16371,7 +16397,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="57"/>
+      <c r="A36" s="58"/>
       <c r="B36" s="9" t="s">
         <v>439</v>
       </c>
@@ -16380,7 +16406,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="57"/>
+      <c r="A37" s="58"/>
       <c r="B37" s="9" t="s">
         <v>475</v>
       </c>
@@ -16389,7 +16415,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="57"/>
+      <c r="A38" s="58"/>
       <c r="B38" s="9" t="s">
         <v>453</v>
       </c>
@@ -16398,7 +16424,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="57"/>
+      <c r="A39" s="58"/>
       <c r="B39" s="9" t="s">
         <v>476</v>
       </c>
@@ -16407,7 +16433,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="57"/>
+      <c r="A40" s="58"/>
       <c r="B40" s="9" t="s">
         <v>56</v>
       </c>
@@ -16416,7 +16442,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="57"/>
+      <c r="A41" s="58"/>
       <c r="B41" s="9" t="s">
         <v>478</v>
       </c>
@@ -16425,7 +16451,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="57"/>
+      <c r="A42" s="58"/>
       <c r="B42" s="9" t="s">
         <v>480</v>
       </c>
@@ -16434,7 +16460,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="57"/>
+      <c r="A43" s="58"/>
       <c r="B43" s="9" t="s">
         <v>482</v>
       </c>
@@ -16443,7 +16469,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="57"/>
+      <c r="A44" s="58"/>
       <c r="B44" s="9" t="s">
         <v>366</v>
       </c>
@@ -16452,7 +16478,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="57"/>
+      <c r="A45" s="58"/>
       <c r="B45" t="s">
         <v>38</v>
       </c>
@@ -16461,7 +16487,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="57" t="s">
+      <c r="A46" s="58" t="s">
         <v>484</v>
       </c>
       <c r="B46" s="9" t="s">
@@ -16472,7 +16498,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="57"/>
+      <c r="A47" s="58"/>
       <c r="B47" s="9" t="s">
         <v>465</v>
       </c>
@@ -16481,7 +16507,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="57"/>
+      <c r="A48" s="58"/>
       <c r="B48" s="9" t="s">
         <v>486</v>
       </c>
@@ -16490,7 +16516,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="57"/>
+      <c r="A49" s="58"/>
       <c r="B49" s="9" t="s">
         <v>426</v>
       </c>
@@ -16499,7 +16525,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="57"/>
+      <c r="A50" s="58"/>
       <c r="B50" s="9" t="s">
         <v>428</v>
       </c>
@@ -16508,7 +16534,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="57"/>
+      <c r="A51" s="58"/>
       <c r="B51" s="9" t="s">
         <v>286</v>
       </c>
@@ -16517,7 +16543,7 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="57"/>
+      <c r="A52" s="58"/>
       <c r="B52" t="s">
         <v>38</v>
       </c>
@@ -16526,7 +16552,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="57" t="s">
+      <c r="A53" s="58" t="s">
         <v>488</v>
       </c>
       <c r="B53" s="9" t="s">
@@ -16537,7 +16563,7 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="57"/>
+      <c r="A54" s="58"/>
       <c r="B54" s="9" t="s">
         <v>428</v>
       </c>
@@ -16546,7 +16572,7 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="57"/>
+      <c r="A55" s="58"/>
       <c r="B55" s="9" t="s">
         <v>366</v>
       </c>
@@ -16555,7 +16581,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="57"/>
+      <c r="A56" s="58"/>
       <c r="B56" s="9" t="s">
         <v>16</v>
       </c>
@@ -16564,7 +16590,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="57"/>
+      <c r="A57" s="58"/>
       <c r="B57" s="9" t="s">
         <v>489</v>
       </c>
@@ -16573,7 +16599,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="57"/>
+      <c r="A58" s="58"/>
       <c r="B58" s="9" t="s">
         <v>467</v>
       </c>
@@ -16582,7 +16608,7 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="57"/>
+      <c r="A59" s="58"/>
       <c r="B59" s="9" t="s">
         <v>490</v>
       </c>
@@ -16591,7 +16617,7 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="57"/>
+      <c r="A60" s="58"/>
       <c r="B60" s="9" t="s">
         <v>492</v>
       </c>
@@ -16600,7 +16626,7 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="57"/>
+      <c r="A61" s="58"/>
       <c r="B61" s="9" t="s">
         <v>478</v>
       </c>
@@ -16609,7 +16635,7 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="57"/>
+      <c r="A62" s="58"/>
       <c r="B62" t="s">
         <v>38</v>
       </c>
@@ -16618,7 +16644,7 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="57" t="s">
+      <c r="A63" s="58" t="s">
         <v>495</v>
       </c>
       <c r="B63" s="9" t="s">
@@ -16629,7 +16655,7 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="57"/>
+      <c r="A64" s="58"/>
       <c r="B64" s="9" t="s">
         <v>496</v>
       </c>
@@ -16638,7 +16664,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="57"/>
+      <c r="A65" s="58"/>
       <c r="B65" s="9" t="s">
         <v>428</v>
       </c>
@@ -16647,7 +16673,7 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="57"/>
+      <c r="A66" s="58"/>
       <c r="B66" s="9" t="s">
         <v>439</v>
       </c>
@@ -16656,7 +16682,7 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="57"/>
+      <c r="A67" s="58"/>
       <c r="B67" s="9" t="s">
         <v>286</v>
       </c>
@@ -16665,7 +16691,7 @@
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="57"/>
+      <c r="A68" s="58"/>
       <c r="B68" t="s">
         <v>38</v>
       </c>
@@ -16768,7 +16794,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
+      <c r="A2" s="58"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="10"/>
@@ -16778,7 +16804,7 @@
       <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
+      <c r="A3" s="58"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="10"/>
@@ -16788,7 +16814,7 @@
       <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
+      <c r="A4" s="58"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="10"/>
@@ -16798,7 +16824,7 @@
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
+      <c r="A5" s="58"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="10"/>
@@ -16808,7 +16834,7 @@
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
+      <c r="A6" s="58"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="10"/>
@@ -16818,7 +16844,7 @@
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
+      <c r="A7" s="58"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="10"/>
@@ -16828,7 +16854,7 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="57"/>
+      <c r="A8" s="58"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="10"/>
@@ -16838,7 +16864,7 @@
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
+      <c r="A9" s="58"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="10"/>
@@ -16848,7 +16874,7 @@
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="57"/>
+      <c r="A10" s="58"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="10"/>
@@ -16858,7 +16884,7 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
+      <c r="A11" s="58"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="10"/>
@@ -16868,7 +16894,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
+      <c r="A12" s="58"/>
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -16879,7 +16905,7 @@
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -16890,12 +16916,12 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="57"/>
+      <c r="A14" s="58"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
+      <c r="A15" s="58"/>
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -16906,7 +16932,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="57"/>
+      <c r="A16" s="58"/>
       <c r="B16" s="9"/>
       <c r="C16"/>
       <c r="D16" s="8"/>
@@ -16917,7 +16943,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
+      <c r="A17" s="58"/>
       <c r="B17" s="9"/>
       <c r="C17"/>
       <c r="D17" s="8"/>
@@ -16928,7 +16954,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="57"/>
+      <c r="A18" s="58"/>
       <c r="B18" s="9"/>
       <c r="C18"/>
       <c r="D18" s="8"/>
@@ -16939,7 +16965,7 @@
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
+      <c r="A19" s="58"/>
       <c r="B19" s="9"/>
       <c r="C19"/>
       <c r="D19" s="8"/>
@@ -16950,7 +16976,7 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="57"/>
+      <c r="A20" s="58"/>
       <c r="B20" s="9"/>
       <c r="C20"/>
       <c r="D20" s="8"/>
@@ -16961,7 +16987,7 @@
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
+      <c r="A21" s="58"/>
       <c r="B21" s="9"/>
       <c r="C21"/>
       <c r="D21" s="8"/>
@@ -16972,7 +16998,7 @@
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
+      <c r="A22" s="58"/>
       <c r="B22" s="9"/>
       <c r="C22"/>
       <c r="D22" s="8"/>
@@ -16983,7 +17009,7 @@
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
+      <c r="A23" s="58"/>
       <c r="B23" s="9"/>
       <c r="C23"/>
       <c r="D23" s="8"/>
@@ -16994,7 +17020,7 @@
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="57"/>
+      <c r="A24" s="58"/>
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -17005,7 +17031,7 @@
       <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="57"/>
+      <c r="A25" s="58"/>
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -17016,7 +17042,7 @@
       <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="57"/>
+      <c r="A26" s="58"/>
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -17027,7 +17053,7 @@
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="57"/>
+      <c r="A27" s="58"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="10"/>
@@ -17037,7 +17063,7 @@
       <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="57"/>
+      <c r="A28" s="58"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="10"/>
@@ -17047,7 +17073,7 @@
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="57"/>
+      <c r="A29" s="58"/>
       <c r="C29"/>
       <c r="D29" s="8"/>
       <c r="E29" s="10"/>
@@ -17057,7 +17083,7 @@
       <c r="I29" s="8"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="57"/>
+      <c r="A30" s="58"/>
       <c r="C30"/>
       <c r="D30" s="8"/>
       <c r="E30" s="10"/>
@@ -17067,7 +17093,7 @@
       <c r="I30" s="8"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="57"/>
+      <c r="A31" s="58"/>
       <c r="C31"/>
       <c r="D31" s="8"/>
       <c r="E31" s="10"/>
@@ -17077,7 +17103,7 @@
       <c r="I31" s="8"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="57"/>
+      <c r="A32" s="58"/>
       <c r="C32"/>
       <c r="D32" s="8"/>
       <c r="E32" s="10"/>
@@ -17087,7 +17113,7 @@
       <c r="I32" s="8"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="57"/>
+      <c r="A33" s="58"/>
       <c r="C33"/>
       <c r="D33" s="8"/>
       <c r="E33" s="10"/>
@@ -17097,7 +17123,7 @@
       <c r="I33" s="8"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="57"/>
+      <c r="A34" s="58"/>
       <c r="C34"/>
       <c r="D34" s="8"/>
       <c r="E34" s="10"/>
@@ -17107,7 +17133,7 @@
       <c r="I34" s="8"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="57"/>
+      <c r="A35" s="58"/>
       <c r="C35"/>
       <c r="D35" s="8"/>
       <c r="E35" s="10"/>
@@ -17117,7 +17143,7 @@
       <c r="I35" s="8"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="57"/>
+      <c r="A36" s="58"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="10"/>
@@ -17127,7 +17153,7 @@
       <c r="I36" s="8"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="57"/>
+      <c r="A37" s="58"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="10"/>
@@ -17137,7 +17163,7 @@
       <c r="I37" s="8"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="57"/>
+      <c r="A38" s="58"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="10"/>
@@ -17147,7 +17173,7 @@
       <c r="I38" s="8"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="57"/>
+      <c r="A39" s="58"/>
       <c r="C39"/>
       <c r="D39" s="8"/>
       <c r="E39" s="10"/>
@@ -17157,7 +17183,7 @@
       <c r="I39" s="8"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="57"/>
+      <c r="A40" s="58"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="10"/>
@@ -17167,7 +17193,7 @@
       <c r="I40" s="8"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="57"/>
+      <c r="A41" s="58"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="10"/>
@@ -17177,7 +17203,7 @@
       <c r="I41" s="8"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="57"/>
+      <c r="A42" s="58"/>
       <c r="B42" s="9"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
@@ -17188,7 +17214,7 @@
       <c r="I42" s="8"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="57"/>
+      <c r="A43" s="58"/>
       <c r="B43" s="9"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -17199,7 +17225,7 @@
       <c r="I43" s="8"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="57"/>
+      <c r="A44" s="58"/>
       <c r="B44" s="9"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -17210,7 +17236,7 @@
       <c r="I44" s="8"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="57"/>
+      <c r="A45" s="58"/>
       <c r="B45" s="9"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -17221,7 +17247,7 @@
       <c r="I45" s="8"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="57"/>
+      <c r="A46" s="58"/>
       <c r="B46" s="9"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
@@ -17232,7 +17258,7 @@
       <c r="I46" s="8"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="57"/>
+      <c r="A47" s="58"/>
       <c r="B47" s="9"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
@@ -17243,7 +17269,7 @@
       <c r="I47" s="8"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="57"/>
+      <c r="A48" s="58"/>
       <c r="B48" s="9"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -17254,7 +17280,7 @@
       <c r="I48" s="8"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="57"/>
+      <c r="A49" s="58"/>
       <c r="B49" s="9"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
@@ -17265,7 +17291,7 @@
       <c r="I49" s="8"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="57"/>
+      <c r="A50" s="58"/>
       <c r="B50" s="9"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -17276,7 +17302,7 @@
       <c r="I50" s="8"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="57"/>
+      <c r="A51" s="58"/>
       <c r="B51" s="9"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -17287,7 +17313,7 @@
       <c r="I51" s="8"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="57"/>
+      <c r="A52" s="58"/>
       <c r="B52" s="9"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
@@ -17298,7 +17324,7 @@
       <c r="I52" s="8"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="57"/>
+      <c r="A53" s="58"/>
       <c r="B53" s="9"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -17309,7 +17335,7 @@
       <c r="I53" s="8"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="57"/>
+      <c r="A54" s="58"/>
       <c r="B54" s="9"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
@@ -17320,7 +17346,7 @@
       <c r="I54" s="8"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="57"/>
+      <c r="A55" s="58"/>
       <c r="B55" s="9"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
@@ -17331,7 +17357,7 @@
       <c r="I55" s="8"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="57"/>
+      <c r="A56" s="58"/>
       <c r="B56" s="9"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
@@ -17342,7 +17368,7 @@
       <c r="I56" s="8"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="57"/>
+      <c r="A57" s="58"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
       <c r="E57" s="10"/>
@@ -17352,7 +17378,7 @@
       <c r="I57" s="8"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="57"/>
+      <c r="A58" s="58"/>
       <c r="B58" s="9"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -17363,7 +17389,7 @@
       <c r="I58" s="8"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="57"/>
+      <c r="A59" s="58"/>
       <c r="B59" s="9"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
@@ -17374,7 +17400,7 @@
       <c r="I59" s="8"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="57"/>
+      <c r="A60" s="58"/>
       <c r="B60" s="9"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
@@ -17385,7 +17411,7 @@
       <c r="I60" s="8"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="57"/>
+      <c r="A61" s="58"/>
       <c r="B61" s="9"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -17396,7 +17422,7 @@
       <c r="I61" s="8"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="57"/>
+      <c r="A62" s="58"/>
       <c r="B62" s="9"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
@@ -17407,7 +17433,7 @@
       <c r="I62" s="8"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="57"/>
+      <c r="A63" s="58"/>
       <c r="B63" s="9"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
@@ -17418,7 +17444,7 @@
       <c r="I63" s="8"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="57"/>
+      <c r="A64" s="58"/>
       <c r="B64" s="9"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -17429,7 +17455,7 @@
       <c r="I64" s="8"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="57"/>
+      <c r="A65" s="58"/>
       <c r="B65" s="9"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -17440,7 +17466,7 @@
       <c r="I65" s="8"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="57"/>
+      <c r="A66" s="58"/>
       <c r="B66" s="9"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
@@ -17451,7 +17477,7 @@
       <c r="I66" s="8"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="57"/>
+      <c r="A67" s="58"/>
       <c r="B67" s="9"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -17462,7 +17488,7 @@
       <c r="I67" s="8"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="57"/>
+      <c r="A68" s="58"/>
       <c r="B68" s="9"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
@@ -17473,7 +17499,7 @@
       <c r="I68" s="8"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="57"/>
+      <c r="A69" s="58"/>
       <c r="B69" s="9"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
@@ -17484,7 +17510,7 @@
       <c r="I69" s="8"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="57"/>
+      <c r="A70" s="58"/>
       <c r="B70" s="9"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
@@ -17495,7 +17521,7 @@
       <c r="I70" s="8"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="57"/>
+      <c r="A71" s="58"/>
       <c r="B71" s="9"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
@@ -17506,7 +17532,7 @@
       <c r="I71" s="8"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="57"/>
+      <c r="A72" s="58"/>
       <c r="B72" s="9"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
@@ -17517,7 +17543,7 @@
       <c r="I72" s="8"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="57"/>
+      <c r="A73" s="58"/>
       <c r="B73" s="9"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
@@ -17528,195 +17554,195 @@
       <c r="I73" s="8"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="57"/>
+      <c r="A74" s="58"/>
       <c r="B74" s="9"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
       <c r="G74"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="57"/>
+      <c r="A75" s="58"/>
       <c r="B75" s="9"/>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
       <c r="G75"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="57"/>
+      <c r="A76" s="58"/>
       <c r="B76" s="9"/>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
       <c r="G76"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="57"/>
+      <c r="A77" s="58"/>
       <c r="B77" s="9"/>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
       <c r="G77"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="57"/>
+      <c r="A78" s="58"/>
       <c r="B78" s="9"/>
       <c r="G78"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="57"/>
+      <c r="A79" s="58"/>
       <c r="B79" s="9"/>
       <c r="G79"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="57"/>
+      <c r="A80" s="58"/>
       <c r="B80" s="9"/>
       <c r="G80"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="57"/>
+      <c r="A81" s="58"/>
       <c r="B81" s="9"/>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
       <c r="G81"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="57"/>
+      <c r="A82" s="58"/>
       <c r="B82" s="9"/>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
       <c r="G82"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="57"/>
+      <c r="A83" s="58"/>
       <c r="B83" s="9"/>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
       <c r="G83"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="57"/>
+      <c r="A84" s="58"/>
       <c r="B84" s="9"/>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
       <c r="G84"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="57"/>
+      <c r="A85" s="58"/>
       <c r="B85" s="9"/>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
       <c r="G85"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="57"/>
+      <c r="A86" s="58"/>
       <c r="B86" s="9"/>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
       <c r="G86"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="57"/>
+      <c r="A87" s="58"/>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
       <c r="G87"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="57"/>
+      <c r="A88" s="58"/>
       <c r="B88" s="9"/>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
       <c r="G88"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="57"/>
+      <c r="A89" s="58"/>
       <c r="B89" s="9"/>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
       <c r="G89"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="57"/>
+      <c r="A90" s="58"/>
       <c r="B90" s="9"/>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
       <c r="G90"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="57"/>
+      <c r="A91" s="58"/>
       <c r="B91" s="9"/>
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
       <c r="G91"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="57"/>
+      <c r="A92" s="58"/>
       <c r="B92" s="9"/>
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
       <c r="G92"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="57"/>
+      <c r="A93" s="58"/>
       <c r="B93" s="9"/>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
       <c r="G93"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="57"/>
+      <c r="A94" s="58"/>
       <c r="B94" s="9"/>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
       <c r="G94"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="57"/>
+      <c r="A95" s="58"/>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
       <c r="G95"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="57"/>
+      <c r="A96" s="58"/>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
       <c r="G96"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="57"/>
+      <c r="A97" s="58"/>
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
       <c r="G97"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="57"/>
+      <c r="A98" s="58"/>
       <c r="C98" s="8"/>
       <c r="D98" s="8"/>
       <c r="G98"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="57"/>
+      <c r="A99" s="58"/>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
       <c r="G99"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="57"/>
+      <c r="A100" s="58"/>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
       <c r="G100"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="57"/>
+      <c r="A101" s="58"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="57"/>
+      <c r="A102" s="58"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="57"/>
+      <c r="A103" s="58"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="57"/>
+      <c r="A104" s="58"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="57"/>
+      <c r="A105" s="58"/>
     </row>
     <row r="116" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G116" s="9"/>

--- a/arch-ums/uni-life-ums.xlsx
+++ b/arch-ums/uni-life-ums.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces-Idea\proc\arch-module\arch-ums\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE16DDDD-173F-4058-9232-DF25677C12D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23125AB7-3F25-4610-A9B9-A690E71AA82B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="3468" windowWidth="23040" windowHeight="12312" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="30936" windowHeight="17040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="9" r:id="rId1"/>
@@ -3647,19 +3647,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3671,85 +3674,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="75">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4383,6 +4313,41 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -4622,6 +4587,41 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4636,17 +4636,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CE11B0DB-5C62-420D-84D8-E87A9EF327B7}" name="表1" displayName="表1" ref="B1:J63" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73" headerRowCellStyle="常规 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CE11B0DB-5C62-420D-84D8-E87A9EF327B7}" name="表1" displayName="表1" ref="B1:J63" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68" headerRowCellStyle="常规 2">
   <autoFilter ref="B1:J63" xr:uid="{B6969820-1EDF-4876-9A5D-FBFC4A41984D}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{72E794A9-4DD1-49BE-A027-5ADCBA03FBD0}" name="列名/Column"/>
-    <tableColumn id="2" xr3:uid="{2BD92A17-8B86-4B03-9D18-9105A0D34354}" name="数据类型/Type" dataDxfId="72"/>
-    <tableColumn id="3" xr3:uid="{D8E94063-B8C9-4FA6-9A01-E7DF0C6D48F1}" name="长度/Length" dataDxfId="71"/>
-    <tableColumn id="4" xr3:uid="{9C5A6399-4D88-4569-8E5F-39B9DE8AF37B}" name="是否为空/Null(Y,N)" dataDxfId="70"/>
-    <tableColumn id="5" xr3:uid="{A4F55127-F997-4CC4-B0D1-1DA0A350A101}" name="默认值/Default" dataDxfId="69"/>
-    <tableColumn id="6" xr3:uid="{0F626792-F279-49AC-8EC1-BFB6B6687D67}" name="是否主键/Primary(Y,N)" dataDxfId="68"/>
-    <tableColumn id="7" xr3:uid="{7071273C-D0E4-4535-8AE8-1DA697EFE72A}" name="是否唯一/Unique(Y,N)" dataDxfId="67"/>
-    <tableColumn id="8" xr3:uid="{79AD77F4-4A81-4B14-B022-EB542F9CB50D}" name="外键/Forigen(可空)" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{2BD92A17-8B86-4B03-9D18-9105A0D34354}" name="数据类型/Type" dataDxfId="67"/>
+    <tableColumn id="3" xr3:uid="{D8E94063-B8C9-4FA6-9A01-E7DF0C6D48F1}" name="长度/Length" dataDxfId="66"/>
+    <tableColumn id="4" xr3:uid="{9C5A6399-4D88-4569-8E5F-39B9DE8AF37B}" name="是否为空/Null(Y,N)" dataDxfId="65"/>
+    <tableColumn id="5" xr3:uid="{A4F55127-F997-4CC4-B0D1-1DA0A350A101}" name="默认值/Default" dataDxfId="64"/>
+    <tableColumn id="6" xr3:uid="{0F626792-F279-49AC-8EC1-BFB6B6687D67}" name="是否主键/Primary(Y,N)" dataDxfId="63"/>
+    <tableColumn id="7" xr3:uid="{7071273C-D0E4-4535-8AE8-1DA697EFE72A}" name="是否唯一/Unique(Y,N)" dataDxfId="62"/>
+    <tableColumn id="8" xr3:uid="{79AD77F4-4A81-4B14-B022-EB542F9CB50D}" name="外键/Forigen(可空)" dataDxfId="61"/>
     <tableColumn id="9" xr3:uid="{F4869BE7-97E9-4573-A762-3FCC07598356}" name="备注/Comment"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4654,18 +4654,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D4223DF3-0FD4-4A51-9CB4-4ADBF0194284}" name="表4" displayName="表4" ref="B1:J129" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64" headerRowCellStyle="常规 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D4223DF3-0FD4-4A51-9CB4-4ADBF0194284}" name="表4" displayName="表4" ref="B1:J129" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54" headerRowCellStyle="常规 2">
   <autoFilter ref="B1:J129" xr:uid="{B9CDCF83-4341-4D97-8AF8-098A114465A9}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{350E8EA7-6A95-4955-AF92-86AAEA2BA677}" name="列名/Column" dataDxfId="63"/>
-    <tableColumn id="2" xr3:uid="{6ABB1A04-FB0D-4D10-B245-B8C8DB4828E1}" name="数据类型/Type" dataDxfId="62"/>
-    <tableColumn id="3" xr3:uid="{FCA6C0C7-D58A-4EB4-ADAD-587CBD0DD701}" name="长度/Length" dataDxfId="61"/>
-    <tableColumn id="4" xr3:uid="{52DA6CEC-27BC-4EAE-AE94-7470B76EC7C3}" name="是否为空/Null(Y,N)" dataDxfId="60"/>
-    <tableColumn id="5" xr3:uid="{AE35D0B9-0729-44FC-B690-C7EDD3166A02}" name="默认值/Default" dataDxfId="59"/>
-    <tableColumn id="6" xr3:uid="{6C52994F-377C-4C2E-9F7E-525CAC70A537}" name="是否主键/Primary(Y,N)" dataDxfId="58"/>
-    <tableColumn id="7" xr3:uid="{6EA4723E-17A5-4EC8-8998-8102D06DE919}" name="是否唯一/Unique(Y,N)" dataDxfId="57"/>
-    <tableColumn id="8" xr3:uid="{1A6BD3A8-4916-46D9-B4C6-624DA102515A}" name="外键/Forigen(可空)" dataDxfId="56"/>
-    <tableColumn id="9" xr3:uid="{632B0B2F-EABB-4492-9536-4E24187636CD}" name="备注/Comment" dataDxfId="55"/>
+    <tableColumn id="1" xr3:uid="{350E8EA7-6A95-4955-AF92-86AAEA2BA677}" name="列名/Column" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{6ABB1A04-FB0D-4D10-B245-B8C8DB4828E1}" name="数据类型/Type" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{FCA6C0C7-D58A-4EB4-ADAD-587CBD0DD701}" name="长度/Length" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{52DA6CEC-27BC-4EAE-AE94-7470B76EC7C3}" name="是否为空/Null(Y,N)" dataDxfId="50"/>
+    <tableColumn id="5" xr3:uid="{AE35D0B9-0729-44FC-B690-C7EDD3166A02}" name="默认值/Default" dataDxfId="49"/>
+    <tableColumn id="6" xr3:uid="{6C52994F-377C-4C2E-9F7E-525CAC70A537}" name="是否主键/Primary(Y,N)" dataDxfId="48"/>
+    <tableColumn id="7" xr3:uid="{6EA4723E-17A5-4EC8-8998-8102D06DE919}" name="是否唯一/Unique(Y,N)" dataDxfId="47"/>
+    <tableColumn id="8" xr3:uid="{1A6BD3A8-4916-46D9-B4C6-624DA102515A}" name="外键/Forigen(可空)" dataDxfId="46"/>
+    <tableColumn id="9" xr3:uid="{632B0B2F-EABB-4492-9536-4E24187636CD}" name="备注/Comment" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4982,7 +4982,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="58" t="s">
         <v>741</v>
       </c>
       <c r="B2" s="26" t="s">
@@ -5010,7 +5010,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="26" t="s">
         <v>855</v>
       </c>
@@ -5032,7 +5032,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
+      <c r="A4" s="57"/>
       <c r="B4" t="s">
         <v>19</v>
       </c>
@@ -5052,7 +5052,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
+      <c r="A5" s="57"/>
       <c r="B5" t="s">
         <v>22</v>
       </c>
@@ -5072,7 +5072,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
+      <c r="A6" s="57"/>
       <c r="B6" t="s">
         <v>26</v>
       </c>
@@ -5092,7 +5092,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
+      <c r="A7" s="57"/>
       <c r="B7" t="s">
         <v>29</v>
       </c>
@@ -5110,7 +5110,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
+      <c r="A8" s="57"/>
       <c r="B8" t="s">
         <v>31</v>
       </c>
@@ -5130,7 +5130,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
+      <c r="A9" s="57"/>
       <c r="B9" t="s">
         <v>33</v>
       </c>
@@ -5150,7 +5150,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
+      <c r="A10" s="57"/>
       <c r="B10" s="26" t="s">
         <v>856</v>
       </c>
@@ -5174,7 +5174,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
+      <c r="A11" s="57"/>
       <c r="B11" t="s">
         <v>891</v>
       </c>
@@ -5187,7 +5187,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="57" t="s">
         <v>41</v>
       </c>
       <c r="B12" t="s">
@@ -5215,7 +5215,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
+      <c r="A13" s="57"/>
       <c r="B13" t="s">
         <v>42</v>
       </c>
@@ -5230,7 +5230,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
+      <c r="A14" s="57"/>
       <c r="B14" t="s">
         <v>44</v>
       </c>
@@ -5245,7 +5245,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
+      <c r="A15" s="57"/>
       <c r="B15" t="s">
         <v>46</v>
       </c>
@@ -5260,7 +5260,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
+      <c r="A16" s="57"/>
       <c r="B16" t="s">
         <v>48</v>
       </c>
@@ -5275,7 +5275,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
+      <c r="A17" s="57"/>
       <c r="B17" s="43" t="s">
         <v>828</v>
       </c>
@@ -5295,7 +5295,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
+      <c r="A18" s="57"/>
       <c r="B18" t="s">
         <v>50</v>
       </c>
@@ -5310,7 +5310,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
+      <c r="A19" s="57"/>
       <c r="B19" t="s">
         <v>52</v>
       </c>
@@ -5325,7 +5325,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="55"/>
+      <c r="A20" s="57"/>
       <c r="B20" s="39" t="s">
         <v>857</v>
       </c>
@@ -5345,7 +5345,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
+      <c r="A21" s="57"/>
       <c r="B21" t="s">
         <v>54</v>
       </c>
@@ -5360,7 +5360,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="55"/>
+      <c r="A22" s="57"/>
       <c r="B22" t="s">
         <v>56</v>
       </c>
@@ -5375,7 +5375,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
+      <c r="A23" s="57"/>
       <c r="B23" t="s">
         <v>891</v>
       </c>
@@ -5388,7 +5388,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="56" t="s">
+      <c r="A24" s="58" t="s">
         <v>742</v>
       </c>
       <c r="B24" t="s">
@@ -5416,7 +5416,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
+      <c r="A25" s="57"/>
       <c r="B25" t="s">
         <v>58</v>
       </c>
@@ -5431,7 +5431,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
+      <c r="A26" s="57"/>
       <c r="B26" t="s">
         <v>60</v>
       </c>
@@ -5446,7 +5446,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="55"/>
+      <c r="A27" s="57"/>
       <c r="B27" t="s">
         <v>62</v>
       </c>
@@ -5461,7 +5461,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
+      <c r="A28" s="57"/>
       <c r="B28" t="s">
         <v>64</v>
       </c>
@@ -5476,7 +5476,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
+      <c r="A29" s="57"/>
       <c r="B29" s="26" t="s">
         <v>858</v>
       </c>
@@ -5491,7 +5491,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="55"/>
+      <c r="A30" s="57"/>
       <c r="B30" t="s">
         <v>52</v>
       </c>
@@ -5506,7 +5506,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
+      <c r="A31" s="57"/>
       <c r="B31" t="s">
         <v>67</v>
       </c>
@@ -5519,7 +5519,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="55"/>
+      <c r="A32" s="57"/>
       <c r="B32" s="26" t="s">
         <v>894</v>
       </c>
@@ -5532,7 +5532,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="55" t="s">
+      <c r="A33" s="57" t="s">
         <v>69</v>
       </c>
       <c r="B33" t="s">
@@ -5549,7 +5549,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="55"/>
+      <c r="A34" s="57"/>
       <c r="B34" s="26" t="s">
         <v>859</v>
       </c>
@@ -5564,7 +5564,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
+      <c r="A35" s="57"/>
       <c r="B35" t="s">
         <v>71</v>
       </c>
@@ -5579,7 +5579,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="55"/>
+      <c r="A36" s="57"/>
       <c r="B36" t="s">
         <v>73</v>
       </c>
@@ -5594,7 +5594,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
+      <c r="A37" s="57"/>
       <c r="B37" t="s">
         <v>52</v>
       </c>
@@ -5609,7 +5609,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="55"/>
+      <c r="A38" s="57"/>
       <c r="B38" t="s">
         <v>75</v>
       </c>
@@ -5622,7 +5622,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="55"/>
+      <c r="A39" s="57"/>
       <c r="B39" t="s">
         <v>891</v>
       </c>
@@ -5635,7 +5635,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="55" t="s">
+      <c r="A40" s="57" t="s">
         <v>77</v>
       </c>
       <c r="B40" t="s">
@@ -5652,7 +5652,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="55"/>
+      <c r="A41" s="57"/>
       <c r="B41" t="s">
         <v>78</v>
       </c>
@@ -5667,7 +5667,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="55"/>
+      <c r="A42" s="57"/>
       <c r="B42" t="s">
         <v>80</v>
       </c>
@@ -5682,7 +5682,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="55"/>
+      <c r="A43" s="57"/>
       <c r="B43" t="s">
         <v>736</v>
       </c>
@@ -5702,7 +5702,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="55"/>
+      <c r="A44" s="57"/>
       <c r="B44" t="s">
         <v>82</v>
       </c>
@@ -5717,7 +5717,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="55"/>
+      <c r="A45" s="57"/>
       <c r="B45" t="s">
         <v>52</v>
       </c>
@@ -5732,7 +5732,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="55"/>
+      <c r="A46" s="57"/>
       <c r="B46" t="s">
         <v>75</v>
       </c>
@@ -5745,7 +5745,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="55"/>
+      <c r="A47" s="57"/>
       <c r="B47" t="s">
         <v>891</v>
       </c>
@@ -5758,7 +5758,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="55" t="s">
+      <c r="A48" s="57" t="s">
         <v>83</v>
       </c>
       <c r="B48" t="s">
@@ -5775,7 +5775,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="55"/>
+      <c r="A49" s="57"/>
       <c r="B49" t="s">
         <v>84</v>
       </c>
@@ -5790,7 +5790,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="55"/>
+      <c r="A50" s="57"/>
       <c r="B50" t="s">
         <v>86</v>
       </c>
@@ -5805,7 +5805,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="55"/>
+      <c r="A51" s="57"/>
       <c r="B51" t="s">
         <v>88</v>
       </c>
@@ -5820,7 +5820,7 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="55"/>
+      <c r="A52" s="57"/>
       <c r="B52" t="s">
         <v>90</v>
       </c>
@@ -5835,7 +5835,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="55"/>
+      <c r="A53" s="57"/>
       <c r="B53" t="s">
         <v>52</v>
       </c>
@@ -5850,7 +5850,7 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="55"/>
+      <c r="A54" s="57"/>
       <c r="B54" t="s">
         <v>92</v>
       </c>
@@ -5863,7 +5863,7 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="55"/>
+      <c r="A55" s="57"/>
       <c r="B55" t="s">
         <v>94</v>
       </c>
@@ -5876,7 +5876,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="55"/>
+      <c r="A56" s="57"/>
       <c r="B56" s="26" t="s">
         <v>894</v>
       </c>
@@ -5889,7 +5889,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="58" t="s">
+      <c r="A57" s="56" t="s">
         <v>96</v>
       </c>
       <c r="B57" t="s">
@@ -5906,7 +5906,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="58"/>
+      <c r="A58" s="56"/>
       <c r="B58" t="s">
         <v>97</v>
       </c>
@@ -5921,7 +5921,7 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="58"/>
+      <c r="A59" s="56"/>
       <c r="B59" t="s">
         <v>909</v>
       </c>
@@ -5941,7 +5941,7 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="58"/>
+      <c r="A60" s="56"/>
       <c r="B60" s="26" t="s">
         <v>916</v>
       </c>
@@ -5956,7 +5956,7 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="58"/>
+      <c r="A61" s="56"/>
       <c r="B61" t="s">
         <v>98</v>
       </c>
@@ -5971,7 +5971,7 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="58"/>
+      <c r="A62" s="56"/>
       <c r="B62" t="s">
         <v>52</v>
       </c>
@@ -5984,7 +5984,7 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="58"/>
+      <c r="A63" s="56"/>
       <c r="B63" s="26" t="s">
         <v>894</v>
       </c>
@@ -6116,27 +6116,27 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="cellIs" dxfId="54" priority="2" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="74" priority="2" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:E1">
-    <cfRule type="cellIs" dxfId="53" priority="5" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="73" priority="5" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:H1">
-    <cfRule type="cellIs" dxfId="52" priority="3" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="72" priority="3" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="51" priority="4" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="71" priority="4" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="50" priority="1" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="70" priority="1" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6167,7 +6167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
@@ -6210,7 +6210,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="63" t="s">
         <v>917</v>
       </c>
       <c r="B2" s="29" t="s">
@@ -6234,7 +6234,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
+      <c r="A3" s="63"/>
       <c r="B3" s="29" t="s">
         <v>719</v>
       </c>
@@ -6254,7 +6254,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
+      <c r="A4" s="63"/>
       <c r="B4" s="29" t="s">
         <v>867</v>
       </c>
@@ -6274,7 +6274,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="29" t="s">
         <v>868</v>
       </c>
@@ -6294,7 +6294,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="62"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="29" t="s">
         <v>870</v>
       </c>
@@ -6314,7 +6314,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="62"/>
+      <c r="A7" s="63"/>
       <c r="B7" s="29" t="s">
         <v>871</v>
       </c>
@@ -6334,7 +6334,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="62"/>
+      <c r="A8" s="63"/>
       <c r="B8" s="29" t="s">
         <v>872</v>
       </c>
@@ -6354,7 +6354,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="62"/>
+      <c r="A9" s="63"/>
       <c r="B9" s="29" t="s">
         <v>874</v>
       </c>
@@ -6374,7 +6374,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="62"/>
+      <c r="A10" s="63"/>
       <c r="B10" s="29" t="s">
         <v>875</v>
       </c>
@@ -6394,7 +6394,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="62"/>
+      <c r="A11" s="63"/>
       <c r="B11" s="37" t="s">
         <v>876</v>
       </c>
@@ -6414,7 +6414,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="62"/>
+      <c r="A12" s="63"/>
       <c r="B12" s="29" t="s">
         <v>877</v>
       </c>
@@ -6434,7 +6434,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="62"/>
+      <c r="A13" s="63"/>
       <c r="B13" s="29" t="s">
         <v>878</v>
       </c>
@@ -6454,7 +6454,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="62"/>
+      <c r="A14" s="63"/>
       <c r="B14" s="29" t="s">
         <v>879</v>
       </c>
@@ -6472,7 +6472,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
+      <c r="A15" s="63"/>
       <c r="B15" s="29" t="s">
         <v>880</v>
       </c>
@@ -6490,7 +6490,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="55" t="s">
         <v>944</v>
       </c>
       <c r="B16" s="29" t="s">
@@ -6512,7 +6512,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="63"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="29" t="s">
         <v>919</v>
       </c>
@@ -6533,7 +6533,7 @@
       <c r="L17" s="26"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="63"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="29" t="s">
         <v>920</v>
       </c>
@@ -6553,7 +6553,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="63"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="29" t="s">
         <v>921</v>
       </c>
@@ -6573,7 +6573,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="63"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="29" t="s">
         <v>922</v>
       </c>
@@ -6593,7 +6593,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="63"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="29" t="s">
         <v>923</v>
       </c>
@@ -6613,7 +6613,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="63"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="29" t="s">
         <v>924</v>
       </c>
@@ -6633,7 +6633,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="63"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="29" t="s">
         <v>925</v>
       </c>
@@ -6651,7 +6651,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="63"/>
+      <c r="A24" s="55"/>
       <c r="B24" s="29" t="s">
         <v>926</v>
       </c>
@@ -6671,7 +6671,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="63" t="s">
+      <c r="A25" s="55" t="s">
         <v>943</v>
       </c>
       <c r="B25" s="29" t="s">
@@ -6693,7 +6693,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="63"/>
+      <c r="A26" s="55"/>
       <c r="B26" s="29" t="s">
         <v>919</v>
       </c>
@@ -6714,7 +6714,7 @@
       <c r="L26" s="26"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="63"/>
+      <c r="A27" s="55"/>
       <c r="B27" s="29" t="s">
         <v>922</v>
       </c>
@@ -6734,7 +6734,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="63"/>
+      <c r="A28" s="55"/>
       <c r="B28" s="29" t="s">
         <v>923</v>
       </c>
@@ -6754,7 +6754,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="63"/>
+      <c r="A29" s="55"/>
       <c r="B29" s="29" t="s">
         <v>924</v>
       </c>
@@ -6774,7 +6774,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="63"/>
+      <c r="A30" s="55"/>
       <c r="B30" s="29" t="s">
         <v>925</v>
       </c>
@@ -6792,7 +6792,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="63"/>
+      <c r="A31" s="55"/>
       <c r="B31" s="29" t="s">
         <v>926</v>
       </c>
@@ -6901,7 +6901,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="56" t="s">
         <v>496</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -6918,7 +6918,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
+      <c r="A3" s="56"/>
       <c r="B3" s="5" t="s">
         <v>499</v>
       </c>
@@ -6933,7 +6933,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="5" t="s">
         <v>501</v>
       </c>
@@ -6948,7 +6948,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="5" t="s">
         <v>503</v>
       </c>
@@ -6963,7 +6963,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="58"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="5" t="s">
         <v>505</v>
       </c>
@@ -6975,7 +6975,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="5" t="s">
         <v>507</v>
       </c>
@@ -6987,7 +6987,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="58"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="5" t="s">
         <v>509</v>
       </c>
@@ -6999,7 +6999,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="58"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="5" t="s">
         <v>511</v>
       </c>
@@ -7011,7 +7011,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="58"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="5" t="s">
         <v>513</v>
       </c>
@@ -7026,7 +7026,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="58"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="5" t="s">
         <v>515</v>
       </c>
@@ -7041,7 +7041,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="58"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="5" t="s">
         <v>517</v>
       </c>
@@ -7056,7 +7056,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="5" t="s">
         <v>519</v>
       </c>
@@ -7071,7 +7071,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="58"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="5" t="s">
         <v>521</v>
       </c>
@@ -7086,7 +7086,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="58"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="5" t="s">
         <v>523</v>
       </c>
@@ -7101,7 +7101,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="5" t="s">
         <v>525</v>
       </c>
@@ -7116,7 +7116,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="5" t="s">
         <v>527</v>
       </c>
@@ -7131,7 +7131,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="5" t="s">
         <v>487</v>
       </c>
@@ -7146,7 +7146,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="5" t="s">
         <v>530</v>
       </c>
@@ -7161,7 +7161,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="58"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="5" t="s">
         <v>532</v>
       </c>
@@ -7176,7 +7176,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
+      <c r="A21" s="56"/>
       <c r="B21" s="5" t="s">
         <v>534</v>
       </c>
@@ -7191,7 +7191,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="5" t="s">
         <v>536</v>
       </c>
@@ -7206,7 +7206,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="58"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="5" t="s">
         <v>538</v>
       </c>
@@ -7221,7 +7221,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="58" t="s">
+      <c r="A24" s="56" t="s">
         <v>540</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -7238,7 +7238,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="58"/>
+      <c r="A25" s="56"/>
       <c r="B25" s="5" t="s">
         <v>541</v>
       </c>
@@ -7253,7 +7253,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="58"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="5" t="s">
         <v>503</v>
       </c>
@@ -7268,7 +7268,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="58"/>
+      <c r="A27" s="56"/>
       <c r="B27" s="5" t="s">
         <v>544</v>
       </c>
@@ -7283,7 +7283,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="58"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="5" t="s">
         <v>546</v>
       </c>
@@ -7298,7 +7298,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="58"/>
+      <c r="A29" s="56"/>
       <c r="B29" s="5" t="s">
         <v>513</v>
       </c>
@@ -7313,7 +7313,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="58"/>
+      <c r="A30" s="56"/>
       <c r="B30" s="5" t="s">
         <v>548</v>
       </c>
@@ -7328,7 +7328,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="58"/>
+      <c r="A31" s="56"/>
       <c r="B31" s="5" t="s">
         <v>550</v>
       </c>
@@ -7343,7 +7343,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="58"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="5" t="s">
         <v>552</v>
       </c>
@@ -7358,7 +7358,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="58"/>
+      <c r="A33" s="56"/>
       <c r="B33" s="5" t="s">
         <v>554</v>
       </c>
@@ -7373,7 +7373,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="58"/>
+      <c r="A34" s="56"/>
       <c r="B34" s="5" t="s">
         <v>556</v>
       </c>
@@ -7388,7 +7388,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="58"/>
+      <c r="A35" s="56"/>
       <c r="B35" s="5" t="s">
         <v>559</v>
       </c>
@@ -7403,13 +7403,13 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="58"/>
+      <c r="A36" s="56"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="J36" s="5"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="58"/>
+      <c r="A37" s="56"/>
       <c r="B37" s="5" t="s">
         <v>561</v>
       </c>
@@ -7424,7 +7424,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="58"/>
+      <c r="A38" s="56"/>
       <c r="B38" s="5" t="s">
         <v>563</v>
       </c>
@@ -7439,7 +7439,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="58"/>
+      <c r="A39" s="56"/>
       <c r="B39" s="5" t="s">
         <v>564</v>
       </c>
@@ -7454,7 +7454,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="58"/>
+      <c r="A40" s="56"/>
       <c r="B40" s="5" t="s">
         <v>566</v>
       </c>
@@ -7469,13 +7469,13 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="58"/>
+      <c r="A41" s="56"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="J41" s="5"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="58"/>
+      <c r="A42" s="56"/>
       <c r="B42" s="5" t="s">
         <v>568</v>
       </c>
@@ -7490,7 +7490,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="58"/>
+      <c r="A43" s="56"/>
       <c r="B43" s="5" t="s">
         <v>570</v>
       </c>
@@ -7505,7 +7505,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="58"/>
+      <c r="A44" s="56"/>
       <c r="B44" s="5" t="s">
         <v>536</v>
       </c>
@@ -7520,7 +7520,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="58"/>
+      <c r="A45" s="56"/>
       <c r="B45" s="5" t="s">
         <v>573</v>
       </c>
@@ -7535,7 +7535,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="58"/>
+      <c r="A46" s="56"/>
       <c r="B46" s="5" t="s">
         <v>575</v>
       </c>
@@ -7550,7 +7550,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="58"/>
+      <c r="A47" s="56"/>
       <c r="B47" s="5" t="s">
         <v>577</v>
       </c>
@@ -7565,7 +7565,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="58"/>
+      <c r="A48" s="56"/>
       <c r="B48" s="5" t="s">
         <v>579</v>
       </c>
@@ -7580,7 +7580,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="58"/>
+      <c r="A49" s="56"/>
       <c r="B49" s="5" t="s">
         <v>581</v>
       </c>
@@ -7595,7 +7595,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="58"/>
+      <c r="A50" s="56"/>
       <c r="B50" s="5" t="s">
         <v>583</v>
       </c>
@@ -7607,13 +7607,13 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="58"/>
+      <c r="A51" s="56"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="J51" s="5"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="58"/>
+      <c r="A52" s="56"/>
       <c r="B52" s="5" t="s">
         <v>585</v>
       </c>
@@ -7628,7 +7628,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="58"/>
+      <c r="A53" s="56"/>
       <c r="B53" s="5" t="s">
         <v>587</v>
       </c>
@@ -7643,7 +7643,7 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="58"/>
+      <c r="A54" s="56"/>
       <c r="B54" s="5" t="s">
         <v>589</v>
       </c>
@@ -7658,7 +7658,7 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="58"/>
+      <c r="A55" s="56"/>
       <c r="B55" s="5" t="s">
         <v>591</v>
       </c>
@@ -7673,7 +7673,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="58"/>
+      <c r="A56" s="56"/>
       <c r="B56" s="5" t="s">
         <v>593</v>
       </c>
@@ -7688,7 +7688,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="58"/>
+      <c r="A57" s="56"/>
       <c r="B57" s="5" t="s">
         <v>595</v>
       </c>
@@ -7703,7 +7703,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="58"/>
+      <c r="A58" s="56"/>
       <c r="B58" s="5" t="s">
         <v>597</v>
       </c>
@@ -7718,7 +7718,7 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="58"/>
+      <c r="A59" s="56"/>
       <c r="B59" s="5" t="s">
         <v>599</v>
       </c>
@@ -7733,7 +7733,7 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="58"/>
+      <c r="A60" s="56"/>
       <c r="B60" s="5" t="s">
         <v>601</v>
       </c>
@@ -7748,7 +7748,7 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="58"/>
+      <c r="A61" s="56"/>
       <c r="B61" s="5" t="s">
         <v>603</v>
       </c>
@@ -7763,7 +7763,7 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="58"/>
+      <c r="A62" s="56"/>
       <c r="B62" s="5" t="s">
         <v>605</v>
       </c>
@@ -7778,7 +7778,7 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="58"/>
+      <c r="A63" s="56"/>
       <c r="B63" s="5" t="s">
         <v>607</v>
       </c>
@@ -7793,7 +7793,7 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="58"/>
+      <c r="A64" s="56"/>
       <c r="B64" s="5" t="s">
         <v>609</v>
       </c>
@@ -7808,7 +7808,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="58"/>
+      <c r="A65" s="56"/>
       <c r="B65" s="5" t="s">
         <v>611</v>
       </c>
@@ -7823,7 +7823,7 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="58"/>
+      <c r="A66" s="56"/>
       <c r="B66" s="5" t="s">
         <v>613</v>
       </c>
@@ -7838,13 +7838,13 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="58"/>
+      <c r="A67" s="56"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="J67" s="5"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="58"/>
+      <c r="A68" s="56"/>
       <c r="B68" s="5" t="s">
         <v>615</v>
       </c>
@@ -7856,7 +7856,7 @@
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="58"/>
+      <c r="A69" s="56"/>
       <c r="B69" s="5" t="s">
         <v>525</v>
       </c>
@@ -7871,7 +7871,7 @@
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="58"/>
+      <c r="A70" s="56"/>
       <c r="B70" s="5" t="s">
         <v>527</v>
       </c>
@@ -7886,7 +7886,7 @@
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="58"/>
+      <c r="A71" s="56"/>
       <c r="B71" s="5" t="s">
         <v>617</v>
       </c>
@@ -7901,13 +7901,13 @@
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="58"/>
+      <c r="A72" s="56"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="J72" s="5"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="58"/>
+      <c r="A73" s="56"/>
       <c r="B73" s="5" t="s">
         <v>619</v>
       </c>
@@ -7922,7 +7922,7 @@
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="58"/>
+      <c r="A74" s="56"/>
       <c r="B74" s="5" t="s">
         <v>621</v>
       </c>
@@ -7937,7 +7937,7 @@
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="58"/>
+      <c r="A75" s="56"/>
       <c r="B75" s="5" t="s">
         <v>623</v>
       </c>
@@ -7952,7 +7952,7 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="58"/>
+      <c r="A76" s="56"/>
       <c r="B76" s="5" t="s">
         <v>624</v>
       </c>
@@ -7967,7 +7967,7 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="58"/>
+      <c r="A77" s="56"/>
       <c r="B77" s="5" t="s">
         <v>626</v>
       </c>
@@ -7982,7 +7982,7 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="58"/>
+      <c r="A78" s="56"/>
       <c r="B78" s="5" t="s">
         <v>628</v>
       </c>
@@ -7997,7 +7997,7 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="58"/>
+      <c r="A79" s="56"/>
       <c r="B79" s="5" t="s">
         <v>630</v>
       </c>
@@ -8012,7 +8012,7 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="58"/>
+      <c r="A80" s="56"/>
       <c r="B80" s="5" t="s">
         <v>632</v>
       </c>
@@ -8027,7 +8027,7 @@
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="58"/>
+      <c r="A81" s="56"/>
       <c r="B81" s="5" t="s">
         <v>634</v>
       </c>
@@ -8042,7 +8042,7 @@
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="58"/>
+      <c r="A82" s="56"/>
       <c r="B82" s="5" t="s">
         <v>636</v>
       </c>
@@ -8057,7 +8057,7 @@
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="58"/>
+      <c r="A83" s="56"/>
       <c r="B83" s="5" t="s">
         <v>638</v>
       </c>
@@ -8072,7 +8072,7 @@
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="58"/>
+      <c r="A84" s="56"/>
       <c r="B84" s="5" t="s">
         <v>640</v>
       </c>
@@ -8087,7 +8087,7 @@
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="58"/>
+      <c r="A85" s="56"/>
       <c r="B85" s="5" t="s">
         <v>642</v>
       </c>
@@ -8102,7 +8102,7 @@
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="58"/>
+      <c r="A86" s="56"/>
       <c r="B86" s="5" t="s">
         <v>644</v>
       </c>
@@ -8117,7 +8117,7 @@
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="58"/>
+      <c r="A87" s="56"/>
       <c r="B87" s="5" t="s">
         <v>646</v>
       </c>
@@ -8132,7 +8132,7 @@
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="58"/>
+      <c r="A88" s="56"/>
       <c r="B88" s="5" t="s">
         <v>648</v>
       </c>
@@ -8147,7 +8147,7 @@
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="58"/>
+      <c r="A89" s="56"/>
       <c r="B89" s="5" t="s">
         <v>650</v>
       </c>
@@ -8162,7 +8162,7 @@
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="58"/>
+      <c r="A90" s="56"/>
       <c r="B90" s="5" t="s">
         <v>652</v>
       </c>
@@ -8177,13 +8177,13 @@
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="58"/>
+      <c r="A91" s="56"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="J91" s="5"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="58"/>
+      <c r="A92" s="56"/>
       <c r="B92" s="5" t="s">
         <v>654</v>
       </c>
@@ -8198,7 +8198,7 @@
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="58"/>
+      <c r="A93" s="56"/>
       <c r="B93" s="5" t="s">
         <v>656</v>
       </c>
@@ -8213,13 +8213,13 @@
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="58"/>
+      <c r="A94" s="56"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="J94" s="5"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="58"/>
+      <c r="A95" s="56"/>
       <c r="B95" s="5" t="s">
         <v>658</v>
       </c>
@@ -8234,7 +8234,7 @@
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="58"/>
+      <c r="A96" s="56"/>
       <c r="B96" s="5" t="s">
         <v>660</v>
       </c>
@@ -8249,7 +8249,7 @@
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="58"/>
+      <c r="A97" s="56"/>
       <c r="B97" s="5" t="s">
         <v>662</v>
       </c>
@@ -8261,13 +8261,13 @@
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="58"/>
+      <c r="A98" s="56"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="J98" s="5"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="58"/>
+      <c r="A99" s="56"/>
       <c r="B99" s="5" t="s">
         <v>664</v>
       </c>
@@ -8282,7 +8282,7 @@
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="58"/>
+      <c r="A100" s="56"/>
       <c r="B100" s="5" t="s">
         <v>666</v>
       </c>
@@ -8297,7 +8297,7 @@
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="58"/>
+      <c r="A101" s="56"/>
       <c r="B101" s="5" t="s">
         <v>668</v>
       </c>
@@ -8312,7 +8312,7 @@
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="58"/>
+      <c r="A102" s="56"/>
       <c r="B102" s="5" t="s">
         <v>670</v>
       </c>
@@ -8327,7 +8327,7 @@
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="58" t="s">
+      <c r="A103" s="56" t="s">
         <v>672</v>
       </c>
       <c r="B103" s="5" t="s">
@@ -8344,7 +8344,7 @@
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="58"/>
+      <c r="A104" s="56"/>
       <c r="B104" s="5" t="s">
         <v>674</v>
       </c>
@@ -8359,7 +8359,7 @@
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="58"/>
+      <c r="A105" s="56"/>
       <c r="B105" s="5" t="s">
         <v>676</v>
       </c>
@@ -8374,7 +8374,7 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="58"/>
+      <c r="A106" s="56"/>
       <c r="B106" s="5" t="s">
         <v>678</v>
       </c>
@@ -8389,7 +8389,7 @@
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="58"/>
+      <c r="A107" s="56"/>
       <c r="B107" s="5" t="s">
         <v>680</v>
       </c>
@@ -8404,7 +8404,7 @@
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="58"/>
+      <c r="A108" s="56"/>
       <c r="B108" s="5" t="s">
         <v>682</v>
       </c>
@@ -8419,7 +8419,7 @@
       </c>
     </row>
     <row r="109" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A109" s="58"/>
+      <c r="A109" s="56"/>
       <c r="B109" s="5" t="s">
         <v>684</v>
       </c>
@@ -8434,7 +8434,7 @@
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="58"/>
+      <c r="A110" s="56"/>
       <c r="B110" s="5" t="s">
         <v>686</v>
       </c>
@@ -8449,7 +8449,7 @@
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="58"/>
+      <c r="A111" s="56"/>
       <c r="B111" s="5" t="s">
         <v>688</v>
       </c>
@@ -8464,7 +8464,7 @@
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="58"/>
+      <c r="A112" s="56"/>
       <c r="B112" s="5" t="s">
         <v>690</v>
       </c>
@@ -8479,7 +8479,7 @@
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="58"/>
+      <c r="A113" s="56"/>
       <c r="B113" s="5" t="s">
         <v>692</v>
       </c>
@@ -8491,7 +8491,7 @@
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="58"/>
+      <c r="A114" s="56"/>
       <c r="B114" s="5" t="s">
         <v>694</v>
       </c>
@@ -8503,7 +8503,7 @@
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="58" t="s">
+      <c r="A115" s="56" t="s">
         <v>695</v>
       </c>
       <c r="B115" s="5" t="s">
@@ -8520,7 +8520,7 @@
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="58"/>
+      <c r="A116" s="56"/>
       <c r="B116" s="5" t="s">
         <v>674</v>
       </c>
@@ -8535,7 +8535,7 @@
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="58"/>
+      <c r="A117" s="56"/>
       <c r="B117" s="5" t="s">
         <v>676</v>
       </c>
@@ -8550,7 +8550,7 @@
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="58"/>
+      <c r="A118" s="56"/>
       <c r="B118" s="5" t="s">
         <v>680</v>
       </c>
@@ -8565,7 +8565,7 @@
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="58"/>
+      <c r="A119" s="56"/>
       <c r="B119" s="5" t="s">
         <v>585</v>
       </c>
@@ -8580,7 +8580,7 @@
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="58"/>
+      <c r="A120" s="56"/>
       <c r="B120" s="5" t="s">
         <v>587</v>
       </c>
@@ -8595,7 +8595,7 @@
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="58"/>
+      <c r="A121" s="56"/>
       <c r="B121" s="5" t="s">
         <v>589</v>
       </c>
@@ -8610,7 +8610,7 @@
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="58"/>
+      <c r="A122" s="56"/>
       <c r="B122" s="5" t="s">
         <v>591</v>
       </c>
@@ -8625,7 +8625,7 @@
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="58"/>
+      <c r="A123" s="56"/>
       <c r="B123" s="5" t="s">
         <v>593</v>
       </c>
@@ -8640,7 +8640,7 @@
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="58"/>
+      <c r="A124" s="56"/>
       <c r="B124" s="5" t="s">
         <v>595</v>
       </c>
@@ -8655,7 +8655,7 @@
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="58"/>
+      <c r="A125" s="56"/>
       <c r="B125" s="5" t="s">
         <v>597</v>
       </c>
@@ -8670,7 +8670,7 @@
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="58"/>
+      <c r="A126" s="56"/>
       <c r="B126" s="5" t="s">
         <v>599</v>
       </c>
@@ -8685,7 +8685,7 @@
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="58"/>
+      <c r="A127" s="56"/>
       <c r="B127" s="5" t="s">
         <v>601</v>
       </c>
@@ -8700,7 +8700,7 @@
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="58"/>
+      <c r="A128" s="56"/>
       <c r="B128" s="5" t="s">
         <v>603</v>
       </c>
@@ -8715,7 +8715,7 @@
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="58"/>
+      <c r="A129" s="56"/>
       <c r="B129" s="5" t="s">
         <v>605</v>
       </c>
@@ -8730,7 +8730,7 @@
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="58"/>
+      <c r="A130" s="56"/>
       <c r="B130" s="5" t="s">
         <v>607</v>
       </c>
@@ -8745,7 +8745,7 @@
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="58"/>
+      <c r="A131" s="56"/>
       <c r="B131" s="5" t="s">
         <v>609</v>
       </c>
@@ -8760,7 +8760,7 @@
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="58"/>
+      <c r="A132" s="56"/>
       <c r="B132" s="5" t="s">
         <v>611</v>
       </c>
@@ -8775,7 +8775,7 @@
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="58"/>
+      <c r="A133" s="56"/>
       <c r="B133" s="5" t="s">
         <v>613</v>
       </c>
@@ -8790,7 +8790,7 @@
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="58"/>
+      <c r="A134" s="56"/>
       <c r="B134" s="5" t="s">
         <v>697</v>
       </c>
@@ -8805,7 +8805,7 @@
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="58"/>
+      <c r="A135" s="56"/>
       <c r="B135" s="5" t="s">
         <v>699</v>
       </c>
@@ -8820,7 +8820,7 @@
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="58"/>
+      <c r="A136" s="56"/>
       <c r="B136" s="5" t="s">
         <v>701</v>
       </c>
@@ -8835,7 +8835,7 @@
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="58"/>
+      <c r="A137" s="56"/>
       <c r="B137" s="5" t="s">
         <v>694</v>
       </c>
@@ -8887,8 +8887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L137"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9020,7 +9020,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="60" t="s">
         <v>747</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -9042,7 +9042,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="21" t="s">
         <v>100</v>
       </c>
@@ -9066,7 +9066,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="58"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="21" t="s">
         <v>101</v>
       </c>
@@ -9088,7 +9088,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="58"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="21" t="s">
         <v>102</v>
       </c>
@@ -9110,7 +9110,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="58"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="21" t="s">
         <v>103</v>
       </c>
@@ -9134,7 +9134,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="58"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="37" t="s">
         <v>824</v>
       </c>
@@ -9154,7 +9154,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="58"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="21" t="s">
         <v>104</v>
       </c>
@@ -9176,7 +9176,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="21" t="s">
         <v>713</v>
       </c>
@@ -9198,7 +9198,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="58"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="21" t="s">
         <v>106</v>
       </c>
@@ -9220,7 +9220,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="58"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="21" t="s">
         <v>107</v>
       </c>
@@ -9242,7 +9242,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="21" t="s">
         <v>108</v>
       </c>
@@ -9264,7 +9264,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="21" t="s">
         <v>109</v>
       </c>
@@ -9286,7 +9286,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="21" t="s">
         <v>110</v>
       </c>
@@ -9308,7 +9308,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="21" t="s">
         <v>111</v>
       </c>
@@ -9330,7 +9330,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="58"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="21" t="s">
         <v>112</v>
       </c>
@@ -9352,7 +9352,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
+      <c r="A21" s="56"/>
       <c r="B21" s="21" t="s">
         <v>113</v>
       </c>
@@ -9374,7 +9374,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="21" t="s">
         <v>114</v>
       </c>
@@ -9396,7 +9396,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="58"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="21" t="s">
         <v>115</v>
       </c>
@@ -9418,7 +9418,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="58"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="21" t="s">
         <v>116</v>
       </c>
@@ -9440,7 +9440,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="58"/>
+      <c r="A25" s="56"/>
       <c r="B25" s="21" t="s">
         <v>10</v>
       </c>
@@ -9462,7 +9462,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="58"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="21" t="s">
         <v>117</v>
       </c>
@@ -9484,7 +9484,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="58"/>
+      <c r="A27" s="56"/>
       <c r="B27" s="21" t="s">
         <v>118</v>
       </c>
@@ -9506,7 +9506,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="58"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="21" t="s">
         <v>119</v>
       </c>
@@ -9530,7 +9530,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="58"/>
+      <c r="A29" s="56"/>
       <c r="B29" s="21" t="s">
         <v>892</v>
       </c>
@@ -9546,7 +9546,7 @@
       <c r="J29" s="27"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="58" t="s">
+      <c r="A30" s="56" t="s">
         <v>717</v>
       </c>
       <c r="B30" s="21" t="s">
@@ -9574,7 +9574,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="58"/>
+      <c r="A31" s="56"/>
       <c r="B31" s="21" t="s">
         <v>720</v>
       </c>
@@ -9601,7 +9601,7 @@
       <c r="L31" s="26"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="58"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="21" t="s">
         <v>120</v>
       </c>
@@ -9629,7 +9629,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="58"/>
+      <c r="A33" s="56"/>
       <c r="B33" s="21" t="s">
         <v>740</v>
       </c>
@@ -9649,7 +9649,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="57" t="s">
+      <c r="A34" s="60" t="s">
         <v>743</v>
       </c>
       <c r="B34" s="21" t="s">
@@ -9677,7 +9677,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="58"/>
+      <c r="A35" s="56"/>
       <c r="B35" s="29" t="s">
         <v>827</v>
       </c>
@@ -9703,7 +9703,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="58"/>
+      <c r="A36" s="56"/>
       <c r="B36" s="47" t="s">
         <v>832</v>
       </c>
@@ -9723,7 +9723,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="58"/>
+      <c r="A37" s="56"/>
       <c r="B37" s="47" t="s">
         <v>833</v>
       </c>
@@ -9743,7 +9743,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="58"/>
+      <c r="A38" s="56"/>
       <c r="B38" s="29" t="s">
         <v>746</v>
       </c>
@@ -9769,7 +9769,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="58"/>
+      <c r="A39" s="56"/>
       <c r="B39" s="29" t="s">
         <v>723</v>
       </c>
@@ -10033,7 +10033,7 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="57" t="s">
+      <c r="A52" s="60" t="s">
         <v>725</v>
       </c>
       <c r="B52" s="21" t="s">
@@ -10061,7 +10061,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="57"/>
+      <c r="A53" s="60"/>
       <c r="B53" s="47" t="s">
         <v>832</v>
       </c>
@@ -10081,7 +10081,7 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="58"/>
+      <c r="A54" s="56"/>
       <c r="B54" s="21" t="s">
         <v>134</v>
       </c>
@@ -10107,7 +10107,7 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="58"/>
+      <c r="A55" s="56"/>
       <c r="B55" s="21" t="s">
         <v>52</v>
       </c>
@@ -10129,7 +10129,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="57" t="s">
+      <c r="A56" s="60" t="s">
         <v>837</v>
       </c>
       <c r="B56" s="29" t="s">
@@ -10151,7 +10151,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="58"/>
+      <c r="A57" s="56"/>
       <c r="B57" s="47" t="s">
         <v>832</v>
       </c>
@@ -10171,7 +10171,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="58"/>
+      <c r="A58" s="56"/>
       <c r="B58" s="21" t="s">
         <v>135</v>
       </c>
@@ -10191,7 +10191,7 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="58"/>
+      <c r="A59" s="56"/>
       <c r="B59" s="21" t="s">
         <v>52</v>
       </c>
@@ -10211,7 +10211,7 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="57" t="s">
+      <c r="A60" s="60" t="s">
         <v>838</v>
       </c>
       <c r="B60" s="21" t="s">
@@ -10233,7 +10233,7 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="58"/>
+      <c r="A61" s="56"/>
       <c r="B61" s="47" t="s">
         <v>832</v>
       </c>
@@ -10253,7 +10253,7 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="58"/>
+      <c r="A62" s="56"/>
       <c r="B62" s="21" t="s">
         <v>139</v>
       </c>
@@ -10273,7 +10273,7 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="58"/>
+      <c r="A63" s="56"/>
       <c r="B63" s="21" t="s">
         <v>140</v>
       </c>
@@ -10293,7 +10293,7 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="58"/>
+      <c r="A64" s="56"/>
       <c r="B64" s="21" t="s">
         <v>852</v>
       </c>
@@ -10313,7 +10313,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="58"/>
+      <c r="A65" s="56"/>
       <c r="B65" s="21" t="s">
         <v>142</v>
       </c>
@@ -10333,7 +10333,7 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="58"/>
+      <c r="A66" s="56"/>
       <c r="B66" s="21" t="s">
         <v>143</v>
       </c>
@@ -10341,7 +10341,7 @@
         <v>707</v>
       </c>
       <c r="D66" s="30" t="s">
-        <v>35</v>
+        <v>749</v>
       </c>
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
@@ -10353,7 +10353,7 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="58"/>
+      <c r="A67" s="56"/>
       <c r="B67" s="21" t="s">
         <v>144</v>
       </c>
@@ -10373,7 +10373,7 @@
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="58"/>
+      <c r="A68" s="56"/>
       <c r="B68" s="21" t="s">
         <v>730</v>
       </c>
@@ -10393,7 +10393,7 @@
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="58"/>
+      <c r="A69" s="56"/>
       <c r="B69" s="21" t="s">
         <v>145</v>
       </c>
@@ -10413,7 +10413,7 @@
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="58"/>
+      <c r="A70" s="56"/>
       <c r="B70" s="21" t="s">
         <v>146</v>
       </c>
@@ -10433,7 +10433,7 @@
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="57" t="s">
+      <c r="A71" s="60" t="s">
         <v>839</v>
       </c>
       <c r="B71" s="21" t="s">
@@ -10455,7 +10455,7 @@
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="58"/>
+      <c r="A72" s="56"/>
       <c r="B72" s="47" t="s">
         <v>832</v>
       </c>
@@ -10475,7 +10475,7 @@
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="58"/>
+      <c r="A73" s="56"/>
       <c r="B73" s="21" t="s">
         <v>147</v>
       </c>
@@ -10495,7 +10495,7 @@
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="58"/>
+      <c r="A74" s="56"/>
       <c r="B74" s="21" t="s">
         <v>148</v>
       </c>
@@ -10515,7 +10515,7 @@
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="58"/>
+      <c r="A75" s="56"/>
       <c r="B75" s="21" t="s">
         <v>150</v>
       </c>
@@ -10535,7 +10535,7 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="58"/>
+      <c r="A76" s="56"/>
       <c r="B76" s="21" t="s">
         <v>146</v>
       </c>
@@ -10555,7 +10555,7 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="58"/>
+      <c r="A77" s="56"/>
       <c r="B77" s="21" t="s">
         <v>52</v>
       </c>
@@ -10575,7 +10575,7 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="58"/>
+      <c r="A78" s="56"/>
       <c r="B78" s="21" t="s">
         <v>739</v>
       </c>
@@ -10595,7 +10595,7 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="58"/>
+      <c r="A79" s="56"/>
       <c r="B79" s="21" t="s">
         <v>134</v>
       </c>
@@ -10615,7 +10615,7 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="57" t="s">
+      <c r="A80" s="60" t="s">
         <v>840</v>
       </c>
       <c r="B80" s="47" t="s">
@@ -10637,7 +10637,7 @@
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="58"/>
+      <c r="A81" s="56"/>
       <c r="B81" s="21" t="s">
         <v>152</v>
       </c>
@@ -10657,7 +10657,7 @@
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="58"/>
+      <c r="A82" s="56"/>
       <c r="B82" s="21" t="s">
         <v>153</v>
       </c>
@@ -10677,7 +10677,7 @@
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="58"/>
+      <c r="A83" s="56"/>
       <c r="B83" s="21" t="s">
         <v>154</v>
       </c>
@@ -10697,7 +10697,7 @@
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="58"/>
+      <c r="A84" s="56"/>
       <c r="B84" s="21" t="s">
         <v>155</v>
       </c>
@@ -10705,7 +10705,7 @@
         <v>17</v>
       </c>
       <c r="D84" s="30" t="s">
-        <v>35</v>
+        <v>749</v>
       </c>
       <c r="E84" s="24"/>
       <c r="F84" s="24"/>
@@ -10717,7 +10717,7 @@
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="58"/>
+      <c r="A85" s="56"/>
       <c r="B85" s="29" t="s">
         <v>852</v>
       </c>
@@ -10737,7 +10737,7 @@
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="58"/>
+      <c r="A86" s="56"/>
       <c r="B86" s="21" t="s">
         <v>52</v>
       </c>
@@ -10757,7 +10757,7 @@
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="57" t="s">
+      <c r="A87" s="60" t="s">
         <v>841</v>
       </c>
       <c r="B87" s="21" t="s">
@@ -10779,7 +10779,7 @@
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="58"/>
+      <c r="A88" s="56"/>
       <c r="B88" s="47" t="s">
         <v>832</v>
       </c>
@@ -10799,7 +10799,7 @@
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="58"/>
+      <c r="A89" s="56"/>
       <c r="B89" s="21" t="s">
         <v>158</v>
       </c>
@@ -10819,7 +10819,7 @@
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="58"/>
+      <c r="A90" s="56"/>
       <c r="B90" s="21" t="s">
         <v>731</v>
       </c>
@@ -10839,7 +10839,7 @@
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="58"/>
+      <c r="A91" s="56"/>
       <c r="B91" s="21" t="s">
         <v>159</v>
       </c>
@@ -10859,7 +10859,7 @@
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="58"/>
+      <c r="A92" s="56"/>
       <c r="B92" s="21" t="s">
         <v>52</v>
       </c>
@@ -10879,7 +10879,7 @@
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="57" t="s">
+      <c r="A93" s="60" t="s">
         <v>842</v>
       </c>
       <c r="B93" s="21" t="s">
@@ -10901,7 +10901,7 @@
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="58"/>
+      <c r="A94" s="56"/>
       <c r="B94" s="47" t="s">
         <v>832</v>
       </c>
@@ -10921,7 +10921,7 @@
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="58"/>
+      <c r="A95" s="56"/>
       <c r="B95" s="21" t="s">
         <v>88</v>
       </c>
@@ -10941,7 +10941,7 @@
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="58"/>
+      <c r="A96" s="56"/>
       <c r="B96" s="21" t="s">
         <v>161</v>
       </c>
@@ -10961,7 +10961,7 @@
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="58"/>
+      <c r="A97" s="56"/>
       <c r="B97" s="21" t="s">
         <v>162</v>
       </c>
@@ -10981,7 +10981,7 @@
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="58"/>
+      <c r="A98" s="56"/>
       <c r="B98" s="21" t="s">
         <v>163</v>
       </c>
@@ -11001,7 +11001,7 @@
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="57" t="s">
+      <c r="A99" s="60" t="s">
         <v>843</v>
       </c>
       <c r="B99" s="47" t="s">
@@ -11023,7 +11023,7 @@
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="58"/>
+      <c r="A100" s="56"/>
       <c r="B100" s="21" t="s">
         <v>164</v>
       </c>
@@ -11043,7 +11043,7 @@
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="58"/>
+      <c r="A101" s="56"/>
       <c r="B101" s="21" t="s">
         <v>165</v>
       </c>
@@ -11063,7 +11063,7 @@
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="57" t="s">
+      <c r="A102" s="60" t="s">
         <v>844</v>
       </c>
       <c r="B102" s="47" t="s">
@@ -11085,7 +11085,7 @@
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="58"/>
+      <c r="A103" s="56"/>
       <c r="B103" s="21" t="s">
         <v>164</v>
       </c>
@@ -11105,7 +11105,7 @@
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="58"/>
+      <c r="A104" s="56"/>
       <c r="B104" s="21" t="s">
         <v>166</v>
       </c>
@@ -11125,7 +11125,7 @@
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="57" t="s">
+      <c r="A105" s="60" t="s">
         <v>845</v>
       </c>
       <c r="B105" s="47" t="s">
@@ -11147,7 +11147,7 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="58"/>
+      <c r="A106" s="56"/>
       <c r="B106" s="21" t="s">
         <v>164</v>
       </c>
@@ -11167,7 +11167,7 @@
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="58"/>
+      <c r="A107" s="56"/>
       <c r="B107" s="21" t="s">
         <v>168</v>
       </c>
@@ -11187,7 +11187,7 @@
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="57" t="s">
+      <c r="A108" s="60" t="s">
         <v>846</v>
       </c>
       <c r="B108" s="47" t="s">
@@ -11209,7 +11209,7 @@
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="58"/>
+      <c r="A109" s="56"/>
       <c r="B109" s="21" t="s">
         <v>164</v>
       </c>
@@ -11229,7 +11229,7 @@
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="58"/>
+      <c r="A110" s="56"/>
       <c r="B110" s="21" t="s">
         <v>169</v>
       </c>
@@ -11249,7 +11249,7 @@
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="60" t="s">
+      <c r="A111" s="61" t="s">
         <v>170</v>
       </c>
       <c r="B111" s="21" t="s">
@@ -11271,7 +11271,7 @@
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="60"/>
+      <c r="A112" s="61"/>
       <c r="B112" s="29" t="s">
         <v>853</v>
       </c>
@@ -11291,7 +11291,7 @@
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="60"/>
+      <c r="A113" s="61"/>
       <c r="B113" s="21" t="s">
         <v>172</v>
       </c>
@@ -11311,7 +11311,7 @@
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="60"/>
+      <c r="A114" s="61"/>
       <c r="B114" s="21" t="s">
         <v>173</v>
       </c>
@@ -11331,7 +11331,7 @@
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="60" t="s">
+      <c r="A115" s="61" t="s">
         <v>174</v>
       </c>
       <c r="B115" s="21" t="s">
@@ -11353,7 +11353,7 @@
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="60"/>
+      <c r="A116" s="61"/>
       <c r="B116" s="21" t="s">
         <v>175</v>
       </c>
@@ -11373,7 +11373,7 @@
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="60"/>
+      <c r="A117" s="61"/>
       <c r="B117" s="21" t="s">
         <v>176</v>
       </c>
@@ -11393,7 +11393,7 @@
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="60"/>
+      <c r="A118" s="61"/>
       <c r="B118" s="21" t="s">
         <v>177</v>
       </c>
@@ -11551,7 +11551,7 @@
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="60" t="s">
+      <c r="A126" s="61" t="s">
         <v>831</v>
       </c>
       <c r="B126" s="21" t="s">
@@ -11573,7 +11573,7 @@
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="60"/>
+      <c r="A127" s="61"/>
       <c r="B127" s="29" t="s">
         <v>854</v>
       </c>
@@ -11593,7 +11593,7 @@
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="60"/>
+      <c r="A128" s="61"/>
       <c r="B128" s="21" t="s">
         <v>182</v>
       </c>
@@ -11611,7 +11611,7 @@
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="60"/>
+      <c r="A129" s="61"/>
       <c r="B129" s="21" t="s">
         <v>183</v>
       </c>
@@ -11654,6 +11654,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A60:A70"/>
+    <mergeCell ref="A80:A86"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A29"/>
     <mergeCell ref="A71:A79"/>
@@ -11670,32 +11672,30 @@
     <mergeCell ref="A52:A55"/>
     <mergeCell ref="A30:A33"/>
     <mergeCell ref="A56:A59"/>
-    <mergeCell ref="A60:A70"/>
-    <mergeCell ref="A80:A86"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="cellIs" dxfId="49" priority="2" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="60" priority="2" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:E1">
-    <cfRule type="cellIs" dxfId="48" priority="5" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="59" priority="5" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:H1">
-    <cfRule type="cellIs" dxfId="47" priority="3" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="58" priority="3" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="46" priority="4" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="57" priority="4" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="45" priority="1" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="56" priority="1" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11762,7 +11762,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="62" t="s">
         <v>184</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -11790,7 +11790,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A3" s="61"/>
+      <c r="A3" s="62"/>
       <c r="B3" s="15" t="s">
         <v>134</v>
       </c>
@@ -11816,7 +11816,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A4" s="61"/>
+      <c r="A4" s="62"/>
       <c r="B4" s="15" t="s">
         <v>135</v>
       </c>
@@ -11842,7 +11842,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A5" s="61"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="15" t="s">
         <v>188</v>
       </c>
@@ -11868,7 +11868,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A6" s="61"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="15" t="s">
         <v>190</v>
       </c>
@@ -11894,7 +11894,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="61"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="15" t="s">
         <v>192</v>
       </c>
@@ -11920,7 +11920,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="61"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="15" t="s">
         <v>194</v>
       </c>
@@ -11946,7 +11946,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A9" s="61"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="15" t="s">
         <v>196</v>
       </c>
@@ -11972,7 +11972,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A10" s="61"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="15" t="s">
         <v>146</v>
       </c>
@@ -11998,7 +11998,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A11" s="61"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="15" t="s">
         <v>199</v>
       </c>
@@ -12024,7 +12024,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A12" s="61"/>
+      <c r="A12" s="62"/>
       <c r="B12" s="12" t="s">
         <v>201</v>
       </c>
@@ -12050,7 +12050,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A13" s="61"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="12" t="s">
         <v>203</v>
       </c>
@@ -12076,7 +12076,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A14" s="61"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="15" t="s">
         <v>205</v>
       </c>
@@ -12102,7 +12102,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="62" t="s">
         <v>207</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -12130,7 +12130,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A16" s="61"/>
+      <c r="A16" s="62"/>
       <c r="B16" s="12" t="s">
         <v>210</v>
       </c>
@@ -12156,7 +12156,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A17" s="61"/>
+      <c r="A17" s="62"/>
       <c r="B17" s="12" t="s">
         <v>212</v>
       </c>
@@ -12182,7 +12182,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A18" s="61"/>
+      <c r="A18" s="62"/>
       <c r="B18" s="12" t="s">
         <v>214</v>
       </c>
@@ -12208,7 +12208,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A19" s="61"/>
+      <c r="A19" s="62"/>
       <c r="B19" s="12" t="s">
         <v>216</v>
       </c>
@@ -12234,7 +12234,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A20" s="61"/>
+      <c r="A20" s="62"/>
       <c r="B20" s="12" t="s">
         <v>218</v>
       </c>
@@ -12260,7 +12260,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A21" s="61"/>
+      <c r="A21" s="62"/>
       <c r="B21" s="12" t="s">
         <v>220</v>
       </c>
@@ -12286,7 +12286,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A22" s="61"/>
+      <c r="A22" s="62"/>
       <c r="B22" s="12" t="s">
         <v>222</v>
       </c>
@@ -12312,7 +12312,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A23" s="61"/>
+      <c r="A23" s="62"/>
       <c r="B23" s="12" t="s">
         <v>224</v>
       </c>
@@ -12338,7 +12338,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A24" s="61"/>
+      <c r="A24" s="62"/>
       <c r="B24" s="12" t="s">
         <v>226</v>
       </c>
@@ -12364,7 +12364,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A25" s="61"/>
+      <c r="A25" s="62"/>
       <c r="B25" s="12" t="s">
         <v>52</v>
       </c>
@@ -12390,7 +12390,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A26" s="61" t="s">
+      <c r="A26" s="62" t="s">
         <v>228</v>
       </c>
       <c r="B26" s="15" t="s">
@@ -12418,7 +12418,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A27" s="61"/>
+      <c r="A27" s="62"/>
       <c r="B27" s="15" t="s">
         <v>231</v>
       </c>
@@ -12444,7 +12444,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A28" s="61"/>
+      <c r="A28" s="62"/>
       <c r="B28" s="15" t="s">
         <v>232</v>
       </c>
@@ -12470,7 +12470,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A29" s="61"/>
+      <c r="A29" s="62"/>
       <c r="B29" s="15" t="s">
         <v>52</v>
       </c>
@@ -12496,7 +12496,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A30" s="61" t="s">
+      <c r="A30" s="62" t="s">
         <v>234</v>
       </c>
       <c r="B30" s="15" t="s">
@@ -12524,7 +12524,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A31" s="61"/>
+      <c r="A31" s="62"/>
       <c r="B31" s="15" t="s">
         <v>199</v>
       </c>
@@ -12550,7 +12550,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A32" s="61"/>
+      <c r="A32" s="62"/>
       <c r="B32" s="15" t="s">
         <v>238</v>
       </c>
@@ -12576,7 +12576,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A33" s="61"/>
+      <c r="A33" s="62"/>
       <c r="B33" s="15" t="s">
         <v>52</v>
       </c>
@@ -12602,7 +12602,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A34" s="61" t="s">
+      <c r="A34" s="62" t="s">
         <v>240</v>
       </c>
       <c r="B34" s="15" t="s">
@@ -12630,7 +12630,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A35" s="61"/>
+      <c r="A35" s="62"/>
       <c r="B35" s="15" t="s">
         <v>243</v>
       </c>
@@ -12656,7 +12656,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A36" s="61"/>
+      <c r="A36" s="62"/>
       <c r="B36" s="15" t="s">
         <v>245</v>
       </c>
@@ -12682,7 +12682,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A37" s="61"/>
+      <c r="A37" s="62"/>
       <c r="B37" s="15" t="s">
         <v>52</v>
       </c>
@@ -12708,7 +12708,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A38" s="61" t="s">
+      <c r="A38" s="62" t="s">
         <v>247</v>
       </c>
       <c r="B38" s="15" t="s">
@@ -12736,7 +12736,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A39" s="61"/>
+      <c r="A39" s="62"/>
       <c r="B39" s="15" t="s">
         <v>248</v>
       </c>
@@ -12762,7 +12762,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A40" s="61"/>
+      <c r="A40" s="62"/>
       <c r="B40" s="15" t="s">
         <v>250</v>
       </c>
@@ -12788,7 +12788,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A41" s="61"/>
+      <c r="A41" s="62"/>
       <c r="B41" s="15" t="s">
         <v>199</v>
       </c>
@@ -12814,7 +12814,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A42" s="61" t="s">
+      <c r="A42" s="62" t="s">
         <v>252</v>
       </c>
       <c r="B42" s="12" t="s">
@@ -12842,7 +12842,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A43" s="61"/>
+      <c r="A43" s="62"/>
       <c r="B43" s="12" t="s">
         <v>253</v>
       </c>
@@ -12868,7 +12868,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A44" s="61"/>
+      <c r="A44" s="62"/>
       <c r="B44" s="12" t="s">
         <v>255</v>
       </c>
@@ -12894,7 +12894,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A45" s="61"/>
+      <c r="A45" s="62"/>
       <c r="B45" s="12" t="s">
         <v>257</v>
       </c>
@@ -12920,7 +12920,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A46" s="61"/>
+      <c r="A46" s="62"/>
       <c r="B46" s="12" t="s">
         <v>259</v>
       </c>
@@ -12946,7 +12946,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A47" s="61"/>
+      <c r="A47" s="62"/>
       <c r="B47" s="12" t="s">
         <v>261</v>
       </c>
@@ -12972,7 +12972,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A48" s="61"/>
+      <c r="A48" s="62"/>
       <c r="B48" s="12" t="s">
         <v>263</v>
       </c>
@@ -12998,7 +12998,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A49" s="61"/>
+      <c r="A49" s="62"/>
       <c r="B49" s="12" t="s">
         <v>265</v>
       </c>
@@ -13024,7 +13024,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A50" s="61"/>
+      <c r="A50" s="62"/>
       <c r="B50" s="12" t="s">
         <v>267</v>
       </c>
@@ -13050,7 +13050,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A51" s="61"/>
+      <c r="A51" s="62"/>
       <c r="B51" s="12" t="s">
         <v>269</v>
       </c>
@@ -13076,7 +13076,7 @@
       </c>
     </row>
     <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A52" s="61" t="s">
+      <c r="A52" s="62" t="s">
         <v>271</v>
       </c>
       <c r="B52" s="12" t="s">
@@ -13104,7 +13104,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A53" s="61"/>
+      <c r="A53" s="62"/>
       <c r="B53" s="12" t="s">
         <v>273</v>
       </c>
@@ -13130,7 +13130,7 @@
       </c>
     </row>
     <row r="54" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A54" s="61"/>
+      <c r="A54" s="62"/>
       <c r="B54" s="12" t="s">
         <v>275</v>
       </c>
@@ -13156,7 +13156,7 @@
       </c>
     </row>
     <row r="55" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A55" s="61"/>
+      <c r="A55" s="62"/>
       <c r="B55" s="12" t="s">
         <v>277</v>
       </c>
@@ -13182,7 +13182,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A56" s="61"/>
+      <c r="A56" s="62"/>
       <c r="B56" s="12" t="s">
         <v>279</v>
       </c>
@@ -13208,7 +13208,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A57" s="61"/>
+      <c r="A57" s="62"/>
       <c r="B57" s="12" t="s">
         <v>280</v>
       </c>
@@ -13234,7 +13234,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A58" s="61"/>
+      <c r="A58" s="62"/>
       <c r="B58" s="12" t="s">
         <v>19</v>
       </c>
@@ -13260,7 +13260,7 @@
       </c>
     </row>
     <row r="59" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A59" s="61"/>
+      <c r="A59" s="62"/>
       <c r="B59" s="12" t="s">
         <v>259</v>
       </c>
@@ -13286,7 +13286,7 @@
       </c>
     </row>
     <row r="60" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A60" s="61"/>
+      <c r="A60" s="62"/>
       <c r="B60" s="12" t="s">
         <v>282</v>
       </c>
@@ -13312,7 +13312,7 @@
       </c>
     </row>
     <row r="61" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A61" s="61"/>
+      <c r="A61" s="62"/>
       <c r="B61" s="12" t="s">
         <v>261</v>
       </c>
@@ -13338,7 +13338,7 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A62" s="61"/>
+      <c r="A62" s="62"/>
       <c r="B62" s="12" t="s">
         <v>255</v>
       </c>
@@ -13364,7 +13364,7 @@
       </c>
     </row>
     <row r="63" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A63" s="61"/>
+      <c r="A63" s="62"/>
       <c r="B63" s="12" t="s">
         <v>284</v>
       </c>
@@ -13390,7 +13390,7 @@
       </c>
     </row>
     <row r="64" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A64" s="61"/>
+      <c r="A64" s="62"/>
       <c r="B64" s="12" t="s">
         <v>263</v>
       </c>
@@ -13416,7 +13416,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A65" s="61"/>
+      <c r="A65" s="62"/>
       <c r="B65" s="12" t="s">
         <v>286</v>
       </c>
@@ -13442,7 +13442,7 @@
       </c>
     </row>
     <row r="66" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A66" s="61"/>
+      <c r="A66" s="62"/>
       <c r="B66" s="12" t="s">
         <v>287</v>
       </c>
@@ -13468,7 +13468,7 @@
       </c>
     </row>
     <row r="67" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A67" s="61"/>
+      <c r="A67" s="62"/>
       <c r="B67" s="12" t="s">
         <v>265</v>
       </c>
@@ -13494,7 +13494,7 @@
       </c>
     </row>
     <row r="68" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A68" s="61"/>
+      <c r="A68" s="62"/>
       <c r="B68" s="12" t="s">
         <v>288</v>
       </c>
@@ -13520,7 +13520,7 @@
       </c>
     </row>
     <row r="69" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A69" s="61"/>
+      <c r="A69" s="62"/>
       <c r="B69" s="12" t="s">
         <v>199</v>
       </c>
@@ -13546,7 +13546,7 @@
       </c>
     </row>
     <row r="70" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A70" s="61"/>
+      <c r="A70" s="62"/>
       <c r="B70" s="12" t="s">
         <v>291</v>
       </c>
@@ -13572,7 +13572,7 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A71" s="61"/>
+      <c r="A71" s="62"/>
       <c r="B71" s="12" t="s">
         <v>292</v>
       </c>
@@ -13598,7 +13598,7 @@
       </c>
     </row>
     <row r="72" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A72" s="61"/>
+      <c r="A72" s="62"/>
       <c r="B72" s="12" t="s">
         <v>293</v>
       </c>
@@ -13624,7 +13624,7 @@
       </c>
     </row>
     <row r="73" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A73" s="61"/>
+      <c r="A73" s="62"/>
       <c r="B73" s="12" t="s">
         <v>294</v>
       </c>
@@ -13650,7 +13650,7 @@
       </c>
     </row>
     <row r="74" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A74" s="61"/>
+      <c r="A74" s="62"/>
       <c r="B74" s="12" t="s">
         <v>196</v>
       </c>
@@ -13676,7 +13676,7 @@
       </c>
     </row>
     <row r="75" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A75" s="61"/>
+      <c r="A75" s="62"/>
       <c r="B75" s="12" t="s">
         <v>295</v>
       </c>
@@ -13702,7 +13702,7 @@
       </c>
     </row>
     <row r="76" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A76" s="61"/>
+      <c r="A76" s="62"/>
       <c r="B76" s="12" t="s">
         <v>297</v>
       </c>
@@ -13728,7 +13728,7 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A77" s="61"/>
+      <c r="A77" s="62"/>
       <c r="B77" s="12" t="s">
         <v>298</v>
       </c>
@@ -13754,7 +13754,7 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A78" s="61"/>
+      <c r="A78" s="62"/>
       <c r="B78" s="12" t="s">
         <v>299</v>
       </c>
@@ -13780,7 +13780,7 @@
       </c>
     </row>
     <row r="79" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A79" s="61"/>
+      <c r="A79" s="62"/>
       <c r="B79" s="12" t="s">
         <v>300</v>
       </c>
@@ -13806,7 +13806,7 @@
       </c>
     </row>
     <row r="80" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A80" s="61"/>
+      <c r="A80" s="62"/>
       <c r="B80" s="12" t="s">
         <v>301</v>
       </c>
@@ -13832,7 +13832,7 @@
       </c>
     </row>
     <row r="81" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A81" s="61"/>
+      <c r="A81" s="62"/>
       <c r="B81" s="12" t="s">
         <v>302</v>
       </c>
@@ -13858,7 +13858,7 @@
       </c>
     </row>
     <row r="82" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A82" s="61"/>
+      <c r="A82" s="62"/>
       <c r="B82" s="12" t="s">
         <v>303</v>
       </c>
@@ -13884,7 +13884,7 @@
       </c>
     </row>
     <row r="83" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A83" s="61"/>
+      <c r="A83" s="62"/>
       <c r="B83" s="12" t="s">
         <v>304</v>
       </c>
@@ -13910,7 +13910,7 @@
       </c>
     </row>
     <row r="84" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A84" s="61"/>
+      <c r="A84" s="62"/>
       <c r="B84" s="12" t="s">
         <v>305</v>
       </c>
@@ -13936,7 +13936,7 @@
       </c>
     </row>
     <row r="85" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A85" s="61"/>
+      <c r="A85" s="62"/>
       <c r="B85" s="12" t="s">
         <v>257</v>
       </c>
@@ -13962,7 +13962,7 @@
       </c>
     </row>
     <row r="86" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A86" s="61"/>
+      <c r="A86" s="62"/>
       <c r="B86" s="12" t="s">
         <v>306</v>
       </c>
@@ -13988,7 +13988,7 @@
       </c>
     </row>
     <row r="87" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A87" s="61"/>
+      <c r="A87" s="62"/>
       <c r="B87" s="12" t="s">
         <v>307</v>
       </c>
@@ -14014,7 +14014,7 @@
       </c>
     </row>
     <row r="88" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A88" s="61"/>
+      <c r="A88" s="62"/>
       <c r="B88" s="12" t="s">
         <v>309</v>
       </c>
@@ -14040,7 +14040,7 @@
       </c>
     </row>
     <row r="89" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A89" s="61"/>
+      <c r="A89" s="62"/>
       <c r="B89" s="12" t="s">
         <v>311</v>
       </c>
@@ -14066,7 +14066,7 @@
       </c>
     </row>
     <row r="90" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A90" s="61"/>
+      <c r="A90" s="62"/>
       <c r="B90" s="12" t="s">
         <v>313</v>
       </c>
@@ -14092,7 +14092,7 @@
       </c>
     </row>
     <row r="91" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A91" s="61"/>
+      <c r="A91" s="62"/>
       <c r="B91" s="12" t="s">
         <v>315</v>
       </c>
@@ -14118,7 +14118,7 @@
       </c>
     </row>
     <row r="92" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A92" s="61"/>
+      <c r="A92" s="62"/>
       <c r="B92" s="12" t="s">
         <v>316</v>
       </c>
@@ -14144,7 +14144,7 @@
       </c>
     </row>
     <row r="93" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A93" s="61" t="s">
+      <c r="A93" s="62" t="s">
         <v>318</v>
       </c>
       <c r="B93" s="12" t="s">
@@ -14172,7 +14172,7 @@
       </c>
     </row>
     <row r="94" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A94" s="61"/>
+      <c r="A94" s="62"/>
       <c r="B94" s="12" t="s">
         <v>320</v>
       </c>
@@ -14293,7 +14293,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="56" t="s">
         <v>322</v>
       </c>
       <c r="B2" t="s">
@@ -14311,7 +14311,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
+      <c r="A3" s="56"/>
       <c r="B3" t="s">
         <v>325</v>
       </c>
@@ -14327,7 +14327,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
+      <c r="A4" s="56"/>
       <c r="B4" t="s">
         <v>327</v>
       </c>
@@ -14338,7 +14338,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="56" t="s">
         <v>329</v>
       </c>
       <c r="B5" t="s">
@@ -14356,7 +14356,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="58"/>
+      <c r="A6" s="56"/>
       <c r="B6" t="s">
         <v>331</v>
       </c>
@@ -14372,7 +14372,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
+      <c r="A7" s="56"/>
       <c r="B7" t="s">
         <v>333</v>
       </c>
@@ -14388,7 +14388,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="58"/>
+      <c r="A8" s="56"/>
       <c r="B8" t="s">
         <v>335</v>
       </c>
@@ -14404,7 +14404,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="58"/>
+      <c r="A9" s="56"/>
       <c r="B9" t="s">
         <v>337</v>
       </c>
@@ -14420,7 +14420,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="56" t="s">
         <v>339</v>
       </c>
       <c r="B10" t="s">
@@ -14438,7 +14438,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="58"/>
+      <c r="A11" s="56"/>
       <c r="B11" t="s">
         <v>340</v>
       </c>
@@ -14454,7 +14454,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="58"/>
+      <c r="A12" s="56"/>
       <c r="B12" t="s">
         <v>342</v>
       </c>
@@ -14561,7 +14561,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
+      <c r="A2" s="56"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="10"/>
@@ -14572,7 +14572,7 @@
       <c r="K2" s="11"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
+      <c r="A3" s="56"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="10"/>
@@ -14583,7 +14583,7 @@
       <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
+      <c r="A4" s="56"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="10"/>
@@ -14594,7 +14594,7 @@
       <c r="K4" s="11"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
+      <c r="A5" s="56"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="10"/>
@@ -14605,7 +14605,7 @@
       <c r="K5" s="11"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="58"/>
+      <c r="A6" s="56"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="10"/>
@@ -14616,7 +14616,7 @@
       <c r="K6" s="11"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
+      <c r="A7" s="56"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="10"/>
@@ -14627,7 +14627,7 @@
       <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="58"/>
+      <c r="A8" s="56"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="10"/>
@@ -14638,7 +14638,7 @@
       <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="58"/>
+      <c r="A9" s="56"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="10"/>
@@ -14649,7 +14649,7 @@
       <c r="K9" s="11"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="58"/>
+      <c r="A10" s="56"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="10"/>
@@ -14660,13 +14660,13 @@
       <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="58"/>
+      <c r="A11" s="56"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="K11" s="11"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="58"/>
+      <c r="A12" s="56"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="10"/>
@@ -14677,7 +14677,7 @@
       <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
+      <c r="A13" s="56"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="10"/>
@@ -14688,7 +14688,7 @@
       <c r="K13" s="11"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="58"/>
+      <c r="A14" s="56"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="10"/>
@@ -14699,7 +14699,7 @@
       <c r="K14" s="11"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="58"/>
+      <c r="A15" s="56"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="10"/>
@@ -14710,7 +14710,7 @@
       <c r="K15" s="11"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
+      <c r="A16" s="56"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="10"/>
@@ -14721,7 +14721,7 @@
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
+      <c r="A17" s="56"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="10"/>
@@ -14732,7 +14732,7 @@
       <c r="K17" s="11"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
+      <c r="A18" s="56"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="10"/>
@@ -14743,7 +14743,7 @@
       <c r="K18" s="11"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
+      <c r="A19" s="56"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="10"/>
@@ -14754,7 +14754,7 @@
       <c r="K19" s="11"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="58"/>
+      <c r="A20" s="56"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="10"/>
@@ -14765,7 +14765,7 @@
       <c r="K20" s="11"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
+      <c r="A21" s="56"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="10"/>
@@ -14776,7 +14776,7 @@
       <c r="K21" s="11"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
+      <c r="A22" s="56"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="10"/>
@@ -14787,7 +14787,7 @@
       <c r="K22" s="11"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="58"/>
+      <c r="A23" s="56"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="10"/>
@@ -14798,7 +14798,7 @@
       <c r="K23" s="11"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="58"/>
+      <c r="A24" s="56"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="10"/>
@@ -14809,7 +14809,7 @@
       <c r="K24" s="11"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="58"/>
+      <c r="A25" s="56"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="10"/>
@@ -14820,151 +14820,151 @@
       <c r="K25" s="11"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="58"/>
+      <c r="A26" s="56"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="K26" s="11"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="58"/>
+      <c r="A27" s="56"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="K27" s="11"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="58"/>
+      <c r="A28" s="56"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="K28" s="11"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="58"/>
+      <c r="A29" s="56"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="K29" s="11"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="58"/>
+      <c r="A30" s="56"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="K30" s="11"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="58"/>
+      <c r="A31" s="56"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="K31" s="11"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="58"/>
+      <c r="A32" s="56"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="K32" s="11"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="58"/>
+      <c r="A33" s="56"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="K33" s="11"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="58"/>
+      <c r="A34" s="56"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="K34" s="11"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="58"/>
+      <c r="A35" s="56"/>
       <c r="K35" s="11"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="58"/>
+      <c r="A36" s="56"/>
       <c r="K36" s="11"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="58"/>
+      <c r="A37" s="56"/>
       <c r="K37" s="11"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="58"/>
+      <c r="A38" s="56"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="K38" s="11"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="58"/>
+      <c r="A39" s="56"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="K39" s="11"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="58"/>
+      <c r="A40" s="56"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="K40" s="11"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="58"/>
+      <c r="A41" s="56"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="K41" s="11"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="58"/>
+      <c r="A42" s="56"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="K42" s="11"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="58"/>
+      <c r="A43" s="56"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="K43" s="11"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="58"/>
+      <c r="A44" s="56"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="K44" s="11"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="58"/>
+      <c r="A45" s="56"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="K45" s="11"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="58"/>
+      <c r="A46" s="56"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="K46" s="11"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="58"/>
+      <c r="A47" s="56"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="K47" s="11"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="58"/>
+      <c r="A48" s="56"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="K48" s="11"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="58"/>
+      <c r="A49" s="56"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="K49" s="11"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="58"/>
+      <c r="A50" s="56"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="K50" s="11"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="58"/>
+      <c r="A51" s="56"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="K51" s="11"/>
@@ -15065,7 +15065,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="56" t="s">
         <v>344</v>
       </c>
       <c r="B2" t="s">
@@ -15087,7 +15087,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
+      <c r="A3" s="56"/>
       <c r="B3" t="s">
         <v>121</v>
       </c>
@@ -15107,7 +15107,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
+      <c r="A4" s="56"/>
       <c r="B4" t="s">
         <v>97</v>
       </c>
@@ -15127,7 +15127,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
+      <c r="A5" s="56"/>
       <c r="B5" t="s">
         <v>166</v>
       </c>
@@ -15147,7 +15147,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="58"/>
+      <c r="A6" s="56"/>
       <c r="B6" t="s">
         <v>141</v>
       </c>
@@ -15167,7 +15167,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
+      <c r="A7" s="56"/>
       <c r="B7" t="s">
         <v>350</v>
       </c>
@@ -15187,7 +15187,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="58"/>
+      <c r="A8" s="56"/>
       <c r="B8" t="s">
         <v>352</v>
       </c>
@@ -15207,7 +15207,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="58"/>
+      <c r="A9" s="56"/>
       <c r="B9" t="s">
         <v>354</v>
       </c>
@@ -15227,7 +15227,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="58"/>
+      <c r="A10" s="56"/>
       <c r="B10" t="s">
         <v>356</v>
       </c>
@@ -15247,7 +15247,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="58"/>
+      <c r="A11" s="56"/>
       <c r="B11" t="s">
         <v>358</v>
       </c>
@@ -15267,7 +15267,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="58"/>
+      <c r="A12" s="56"/>
       <c r="B12" t="s">
         <v>360</v>
       </c>
@@ -15287,7 +15287,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
+      <c r="A13" s="56"/>
       <c r="B13" t="s">
         <v>362</v>
       </c>
@@ -15307,7 +15307,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="58"/>
+      <c r="A14" s="56"/>
       <c r="B14" t="s">
         <v>364</v>
       </c>
@@ -15327,7 +15327,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="58"/>
+      <c r="A15" s="56"/>
       <c r="B15" t="s">
         <v>365</v>
       </c>
@@ -15347,7 +15347,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
+      <c r="A16" s="56"/>
       <c r="B16" t="s">
         <v>38</v>
       </c>
@@ -15363,7 +15363,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="56" t="s">
         <v>369</v>
       </c>
       <c r="B17" t="s">
@@ -15385,7 +15385,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
+      <c r="A18" s="56"/>
       <c r="B18" t="s">
         <v>166</v>
       </c>
@@ -15405,7 +15405,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
+      <c r="A19" s="56"/>
       <c r="B19" t="s">
         <v>139</v>
       </c>
@@ -15425,7 +15425,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="58"/>
+      <c r="A20" s="56"/>
       <c r="B20" t="s">
         <v>257</v>
       </c>
@@ -15445,7 +15445,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
+      <c r="A21" s="56"/>
       <c r="B21" t="s">
         <v>372</v>
       </c>
@@ -15465,7 +15465,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
+      <c r="A22" s="56"/>
       <c r="B22" t="s">
         <v>374</v>
       </c>
@@ -15485,7 +15485,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="58"/>
+      <c r="A23" s="56"/>
       <c r="B23" t="s">
         <v>376</v>
       </c>
@@ -15505,7 +15505,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="58"/>
+      <c r="A24" s="56"/>
       <c r="B24" t="s">
         <v>378</v>
       </c>
@@ -15525,7 +15525,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="58"/>
+      <c r="A25" s="56"/>
       <c r="B25" t="s">
         <v>380</v>
       </c>
@@ -15545,7 +15545,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="58"/>
+      <c r="A26" s="56"/>
       <c r="B26" t="s">
         <v>382</v>
       </c>
@@ -15565,7 +15565,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="58"/>
+      <c r="A27" s="56"/>
       <c r="B27" t="s">
         <v>384</v>
       </c>
@@ -15585,7 +15585,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="58"/>
+      <c r="A28" s="56"/>
       <c r="B28" t="s">
         <v>38</v>
       </c>
@@ -15601,7 +15601,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="58" t="s">
+      <c r="A29" s="56" t="s">
         <v>386</v>
       </c>
       <c r="B29" t="s">
@@ -15622,7 +15622,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="58"/>
+      <c r="A30" s="56"/>
       <c r="B30" t="s">
         <v>166</v>
       </c>
@@ -15641,7 +15641,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="58"/>
+      <c r="A31" s="56"/>
       <c r="B31" t="s">
         <v>388</v>
       </c>
@@ -15660,7 +15660,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="58"/>
+      <c r="A32" s="56"/>
       <c r="B32" t="s">
         <v>121</v>
       </c>
@@ -15679,7 +15679,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="58" t="s">
+      <c r="A33" s="56" t="s">
         <v>390</v>
       </c>
       <c r="B33" t="s">
@@ -15700,7 +15700,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="58"/>
+      <c r="A34" s="56"/>
       <c r="B34" t="s">
         <v>166</v>
       </c>
@@ -15719,7 +15719,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="58"/>
+      <c r="A35" s="56"/>
       <c r="B35" t="s">
         <v>121</v>
       </c>
@@ -15738,7 +15738,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="58"/>
+      <c r="A36" s="56"/>
       <c r="B36" t="s">
         <v>38</v>
       </c>
@@ -15845,7 +15845,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="56" t="s">
         <v>391</v>
       </c>
       <c r="B2" t="s">
@@ -15863,7 +15863,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
+      <c r="A3" s="56"/>
       <c r="B3" t="s">
         <v>134</v>
       </c>
@@ -15879,7 +15879,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
+      <c r="A4" s="56"/>
       <c r="B4" t="s">
         <v>199</v>
       </c>
@@ -15892,12 +15892,12 @@
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
+      <c r="A5" s="56"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="56" t="s">
         <v>393</v>
       </c>
       <c r="B6" t="s">
@@ -15915,7 +15915,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
+      <c r="A7" s="56"/>
       <c r="B7" t="s">
         <v>395</v>
       </c>
@@ -15931,7 +15931,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="58"/>
+      <c r="A8" s="56"/>
       <c r="B8" t="s">
         <v>199</v>
       </c>
@@ -15947,7 +15947,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="58"/>
+      <c r="A9" s="56"/>
       <c r="B9" t="s">
         <v>397</v>
       </c>
@@ -15963,7 +15963,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="58"/>
+      <c r="A10" s="56"/>
       <c r="B10" t="s">
         <v>399</v>
       </c>
@@ -15979,7 +15979,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A11" s="58"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="12" t="s">
         <v>401</v>
       </c>
@@ -15995,7 +15995,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="58"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="9" t="s">
         <v>403</v>
       </c>
@@ -16011,7 +16011,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="9" t="s">
         <v>405</v>
       </c>
@@ -16027,7 +16027,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="58"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="9" t="s">
         <v>407</v>
       </c>
@@ -16043,7 +16043,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="58"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="9" t="s">
         <v>409</v>
       </c>
@@ -16059,7 +16059,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="9" t="s">
         <v>411</v>
       </c>
@@ -16075,7 +16075,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="9" t="s">
         <v>413</v>
       </c>
@@ -16091,7 +16091,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="9" t="s">
         <v>415</v>
       </c>
@@ -16107,7 +16107,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="9" t="s">
         <v>417</v>
       </c>
@@ -16123,7 +16123,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="58"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="9" t="s">
         <v>419</v>
       </c>
@@ -16139,7 +16139,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
+      <c r="A21" s="56"/>
       <c r="B21" s="9" t="s">
         <v>114</v>
       </c>
@@ -16152,7 +16152,7 @@
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="9" t="s">
         <v>421</v>
       </c>
@@ -16165,7 +16165,7 @@
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="58" t="s">
+      <c r="A23" s="56" t="s">
         <v>422</v>
       </c>
       <c r="C23" s="8"/>
@@ -16177,7 +16177,7 @@
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="58"/>
+      <c r="A24" s="56"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="10"/>
@@ -16187,7 +16187,7 @@
       <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="58"/>
+      <c r="A25" s="56"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="10"/>
@@ -16197,7 +16197,7 @@
       <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="58"/>
+      <c r="A26" s="56"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="10"/>
@@ -16361,7 +16361,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="56" t="s">
         <v>423</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -16380,7 +16380,7 @@
       <c r="K2" s="11"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
+      <c r="A3" s="56"/>
       <c r="B3" s="9" t="s">
         <v>426</v>
       </c>
@@ -16397,7 +16397,7 @@
       <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="9" t="s">
         <v>428</v>
       </c>
@@ -16414,7 +16414,7 @@
       <c r="K4" s="11"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="9" t="s">
         <v>430</v>
       </c>
@@ -16431,7 +16431,7 @@
       <c r="K5" s="11"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="58"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="9" t="s">
         <v>432</v>
       </c>
@@ -16448,7 +16448,7 @@
       <c r="K6" s="11"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="9" t="s">
         <v>434</v>
       </c>
@@ -16465,7 +16465,7 @@
       <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="58"/>
+      <c r="A8" s="56"/>
       <c r="B8" t="s">
         <v>38</v>
       </c>
@@ -16482,7 +16482,7 @@
       <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="56" t="s">
         <v>436</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -16501,7 +16501,7 @@
       <c r="K9" s="11"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="58"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="9" t="s">
         <v>437</v>
       </c>
@@ -16518,7 +16518,7 @@
       <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="58"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="9" t="s">
         <v>439</v>
       </c>
@@ -16535,7 +16535,7 @@
       <c r="K11" s="11"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="58"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="9" t="s">
         <v>441</v>
       </c>
@@ -16547,7 +16547,7 @@
       <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="9" t="s">
         <v>443</v>
       </c>
@@ -16564,7 +16564,7 @@
       <c r="K13" s="11"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="58"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="9" t="s">
         <v>445</v>
       </c>
@@ -16581,7 +16581,7 @@
       <c r="K14" s="11"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="58"/>
+      <c r="A15" s="56"/>
       <c r="B15" t="s">
         <v>38</v>
       </c>
@@ -16598,7 +16598,7 @@
       <c r="K15" s="11"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="56" t="s">
         <v>447</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -16617,7 +16617,7 @@
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="9" t="s">
         <v>426</v>
       </c>
@@ -16634,7 +16634,7 @@
       <c r="K17" s="11"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="9" t="s">
         <v>424</v>
       </c>
@@ -16646,7 +16646,7 @@
       <c r="K18" s="11"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="9" t="s">
         <v>449</v>
       </c>
@@ -16658,7 +16658,7 @@
       <c r="K19" s="11"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="58"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="9" t="s">
         <v>451</v>
       </c>
@@ -16670,7 +16670,7 @@
       <c r="K20" s="11"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
+      <c r="A21" s="56"/>
       <c r="B21" s="9" t="s">
         <v>453</v>
       </c>
@@ -16682,7 +16682,7 @@
       <c r="K21" s="11"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="9" t="s">
         <v>455</v>
       </c>
@@ -16694,7 +16694,7 @@
       <c r="K22" s="11"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="58"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="9" t="s">
         <v>457</v>
       </c>
@@ -16706,7 +16706,7 @@
       <c r="K23" s="11"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="58"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="9" t="s">
         <v>284</v>
       </c>
@@ -16718,7 +16718,7 @@
       <c r="K24" s="11"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="58"/>
+      <c r="A25" s="56"/>
       <c r="B25" s="9" t="s">
         <v>199</v>
       </c>
@@ -16728,7 +16728,7 @@
       <c r="K25" s="11"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="58"/>
+      <c r="A26" s="56"/>
       <c r="B26" t="s">
         <v>38</v>
       </c>
@@ -16738,7 +16738,7 @@
       <c r="K26" s="11"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="58" t="s">
+      <c r="A27" s="56" t="s">
         <v>460</v>
       </c>
       <c r="B27" s="9" t="s">
@@ -16752,7 +16752,7 @@
       <c r="K27" s="11"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="58"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="9" t="s">
         <v>364</v>
       </c>
@@ -16764,7 +16764,7 @@
       <c r="K28" s="11"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="58"/>
+      <c r="A29" s="56"/>
       <c r="B29" s="9" t="s">
         <v>461</v>
       </c>
@@ -16776,7 +16776,7 @@
       <c r="K29" s="11"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="58"/>
+      <c r="A30" s="56"/>
       <c r="B30" s="9" t="s">
         <v>463</v>
       </c>
@@ -16788,7 +16788,7 @@
       <c r="K30" s="11"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="58"/>
+      <c r="A31" s="56"/>
       <c r="B31" s="9" t="s">
         <v>465</v>
       </c>
@@ -16800,7 +16800,7 @@
       <c r="K31" s="11"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="58"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="9" t="s">
         <v>467</v>
       </c>
@@ -16809,7 +16809,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="58"/>
+      <c r="A33" s="56"/>
       <c r="B33" s="9" t="s">
         <v>469</v>
       </c>
@@ -16818,7 +16818,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="58"/>
+      <c r="A34" s="56"/>
       <c r="B34" s="9" t="s">
         <v>424</v>
       </c>
@@ -16827,7 +16827,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="58"/>
+      <c r="A35" s="56"/>
       <c r="B35" s="9" t="s">
         <v>426</v>
       </c>
@@ -16836,7 +16836,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="58"/>
+      <c r="A36" s="56"/>
       <c r="B36" s="9" t="s">
         <v>437</v>
       </c>
@@ -16845,7 +16845,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="58"/>
+      <c r="A37" s="56"/>
       <c r="B37" s="9" t="s">
         <v>473</v>
       </c>
@@ -16854,7 +16854,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="58"/>
+      <c r="A38" s="56"/>
       <c r="B38" s="9" t="s">
         <v>451</v>
       </c>
@@ -16863,7 +16863,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="58"/>
+      <c r="A39" s="56"/>
       <c r="B39" s="9" t="s">
         <v>474</v>
       </c>
@@ -16872,7 +16872,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="58"/>
+      <c r="A40" s="56"/>
       <c r="B40" s="9" t="s">
         <v>56</v>
       </c>
@@ -16881,7 +16881,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="58"/>
+      <c r="A41" s="56"/>
       <c r="B41" s="9" t="s">
         <v>476</v>
       </c>
@@ -16890,7 +16890,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="58"/>
+      <c r="A42" s="56"/>
       <c r="B42" s="9" t="s">
         <v>478</v>
       </c>
@@ -16899,7 +16899,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="58"/>
+      <c r="A43" s="56"/>
       <c r="B43" s="9" t="s">
         <v>480</v>
       </c>
@@ -16908,7 +16908,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="58"/>
+      <c r="A44" s="56"/>
       <c r="B44" s="9" t="s">
         <v>364</v>
       </c>
@@ -16917,7 +16917,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="58"/>
+      <c r="A45" s="56"/>
       <c r="B45" t="s">
         <v>38</v>
       </c>
@@ -16926,7 +16926,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="58" t="s">
+      <c r="A46" s="56" t="s">
         <v>482</v>
       </c>
       <c r="B46" s="9" t="s">
@@ -16937,7 +16937,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="58"/>
+      <c r="A47" s="56"/>
       <c r="B47" s="9" t="s">
         <v>463</v>
       </c>
@@ -16946,7 +16946,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="58"/>
+      <c r="A48" s="56"/>
       <c r="B48" s="9" t="s">
         <v>484</v>
       </c>
@@ -16955,7 +16955,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="58"/>
+      <c r="A49" s="56"/>
       <c r="B49" s="9" t="s">
         <v>424</v>
       </c>
@@ -16964,7 +16964,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="58"/>
+      <c r="A50" s="56"/>
       <c r="B50" s="9" t="s">
         <v>426</v>
       </c>
@@ -16973,7 +16973,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="58"/>
+      <c r="A51" s="56"/>
       <c r="B51" s="9" t="s">
         <v>284</v>
       </c>
@@ -16982,7 +16982,7 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="58"/>
+      <c r="A52" s="56"/>
       <c r="B52" t="s">
         <v>38</v>
       </c>
@@ -16991,7 +16991,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="58" t="s">
+      <c r="A53" s="56" t="s">
         <v>486</v>
       </c>
       <c r="B53" s="9" t="s">
@@ -17002,7 +17002,7 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="58"/>
+      <c r="A54" s="56"/>
       <c r="B54" s="9" t="s">
         <v>426</v>
       </c>
@@ -17011,7 +17011,7 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="58"/>
+      <c r="A55" s="56"/>
       <c r="B55" s="9" t="s">
         <v>364</v>
       </c>
@@ -17020,7 +17020,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="58"/>
+      <c r="A56" s="56"/>
       <c r="B56" s="9" t="s">
         <v>16</v>
       </c>
@@ -17029,7 +17029,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="58"/>
+      <c r="A57" s="56"/>
       <c r="B57" s="9" t="s">
         <v>487</v>
       </c>
@@ -17038,7 +17038,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="58"/>
+      <c r="A58" s="56"/>
       <c r="B58" s="9" t="s">
         <v>465</v>
       </c>
@@ -17047,7 +17047,7 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="58"/>
+      <c r="A59" s="56"/>
       <c r="B59" s="9" t="s">
         <v>488</v>
       </c>
@@ -17056,7 +17056,7 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="58"/>
+      <c r="A60" s="56"/>
       <c r="B60" s="9" t="s">
         <v>490</v>
       </c>
@@ -17065,7 +17065,7 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="58"/>
+      <c r="A61" s="56"/>
       <c r="B61" s="9" t="s">
         <v>476</v>
       </c>
@@ -17074,7 +17074,7 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="58"/>
+      <c r="A62" s="56"/>
       <c r="B62" t="s">
         <v>38</v>
       </c>
@@ -17083,7 +17083,7 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="58" t="s">
+      <c r="A63" s="56" t="s">
         <v>493</v>
       </c>
       <c r="B63" s="9" t="s">
@@ -17094,7 +17094,7 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="58"/>
+      <c r="A64" s="56"/>
       <c r="B64" s="9" t="s">
         <v>494</v>
       </c>
@@ -17103,7 +17103,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="58"/>
+      <c r="A65" s="56"/>
       <c r="B65" s="9" t="s">
         <v>426</v>
       </c>
@@ -17112,7 +17112,7 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="58"/>
+      <c r="A66" s="56"/>
       <c r="B66" s="9" t="s">
         <v>437</v>
       </c>
@@ -17121,7 +17121,7 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="58"/>
+      <c r="A67" s="56"/>
       <c r="B67" s="9" t="s">
         <v>284</v>
       </c>
@@ -17130,7 +17130,7 @@
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="58"/>
+      <c r="A68" s="56"/>
       <c r="B68" t="s">
         <v>38</v>
       </c>
@@ -17233,7 +17233,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
+      <c r="A2" s="56"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="10"/>
@@ -17243,7 +17243,7 @@
       <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
+      <c r="A3" s="56"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="10"/>
@@ -17253,7 +17253,7 @@
       <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
+      <c r="A4" s="56"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="10"/>
@@ -17263,7 +17263,7 @@
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
+      <c r="A5" s="56"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="10"/>
@@ -17273,7 +17273,7 @@
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="58"/>
+      <c r="A6" s="56"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="10"/>
@@ -17283,7 +17283,7 @@
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
+      <c r="A7" s="56"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="10"/>
@@ -17293,7 +17293,7 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="58"/>
+      <c r="A8" s="56"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="10"/>
@@ -17303,7 +17303,7 @@
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="58"/>
+      <c r="A9" s="56"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="10"/>
@@ -17313,7 +17313,7 @@
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="58"/>
+      <c r="A10" s="56"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="10"/>
@@ -17323,7 +17323,7 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="58"/>
+      <c r="A11" s="56"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="10"/>
@@ -17333,7 +17333,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="58"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -17344,7 +17344,7 @@
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -17355,12 +17355,12 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="58"/>
+      <c r="A14" s="56"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="58"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -17371,7 +17371,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="9"/>
       <c r="C16"/>
       <c r="D16" s="8"/>
@@ -17382,7 +17382,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="9"/>
       <c r="C17"/>
       <c r="D17" s="8"/>
@@ -17393,7 +17393,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="9"/>
       <c r="C18"/>
       <c r="D18" s="8"/>
@@ -17404,7 +17404,7 @@
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="9"/>
       <c r="C19"/>
       <c r="D19" s="8"/>
@@ -17415,7 +17415,7 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="58"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="9"/>
       <c r="C20"/>
       <c r="D20" s="8"/>
@@ -17426,7 +17426,7 @@
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
+      <c r="A21" s="56"/>
       <c r="B21" s="9"/>
       <c r="C21"/>
       <c r="D21" s="8"/>
@@ -17437,7 +17437,7 @@
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="9"/>
       <c r="C22"/>
       <c r="D22" s="8"/>
@@ -17448,7 +17448,7 @@
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="58"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="9"/>
       <c r="C23"/>
       <c r="D23" s="8"/>
@@ -17459,7 +17459,7 @@
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="58"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -17470,7 +17470,7 @@
       <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="58"/>
+      <c r="A25" s="56"/>
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -17481,7 +17481,7 @@
       <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="58"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -17492,7 +17492,7 @@
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="58"/>
+      <c r="A27" s="56"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="10"/>
@@ -17502,7 +17502,7 @@
       <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="58"/>
+      <c r="A28" s="56"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="10"/>
@@ -17512,7 +17512,7 @@
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="58"/>
+      <c r="A29" s="56"/>
       <c r="C29"/>
       <c r="D29" s="8"/>
       <c r="E29" s="10"/>
@@ -17522,7 +17522,7 @@
       <c r="I29" s="8"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="58"/>
+      <c r="A30" s="56"/>
       <c r="C30"/>
       <c r="D30" s="8"/>
       <c r="E30" s="10"/>
@@ -17532,7 +17532,7 @@
       <c r="I30" s="8"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="58"/>
+      <c r="A31" s="56"/>
       <c r="C31"/>
       <c r="D31" s="8"/>
       <c r="E31" s="10"/>
@@ -17542,7 +17542,7 @@
       <c r="I31" s="8"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="58"/>
+      <c r="A32" s="56"/>
       <c r="C32"/>
       <c r="D32" s="8"/>
       <c r="E32" s="10"/>
@@ -17552,7 +17552,7 @@
       <c r="I32" s="8"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="58"/>
+      <c r="A33" s="56"/>
       <c r="C33"/>
       <c r="D33" s="8"/>
       <c r="E33" s="10"/>
@@ -17562,7 +17562,7 @@
       <c r="I33" s="8"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="58"/>
+      <c r="A34" s="56"/>
       <c r="C34"/>
       <c r="D34" s="8"/>
       <c r="E34" s="10"/>
@@ -17572,7 +17572,7 @@
       <c r="I34" s="8"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="58"/>
+      <c r="A35" s="56"/>
       <c r="C35"/>
       <c r="D35" s="8"/>
       <c r="E35" s="10"/>
@@ -17582,7 +17582,7 @@
       <c r="I35" s="8"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="58"/>
+      <c r="A36" s="56"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="10"/>
@@ -17592,7 +17592,7 @@
       <c r="I36" s="8"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="58"/>
+      <c r="A37" s="56"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="10"/>
@@ -17602,7 +17602,7 @@
       <c r="I37" s="8"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="58"/>
+      <c r="A38" s="56"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="10"/>
@@ -17612,7 +17612,7 @@
       <c r="I38" s="8"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="58"/>
+      <c r="A39" s="56"/>
       <c r="C39"/>
       <c r="D39" s="8"/>
       <c r="E39" s="10"/>
@@ -17622,7 +17622,7 @@
       <c r="I39" s="8"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="58"/>
+      <c r="A40" s="56"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="10"/>
@@ -17632,7 +17632,7 @@
       <c r="I40" s="8"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="58"/>
+      <c r="A41" s="56"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="10"/>
@@ -17642,7 +17642,7 @@
       <c r="I41" s="8"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="58"/>
+      <c r="A42" s="56"/>
       <c r="B42" s="9"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
@@ -17653,7 +17653,7 @@
       <c r="I42" s="8"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="58"/>
+      <c r="A43" s="56"/>
       <c r="B43" s="9"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -17664,7 +17664,7 @@
       <c r="I43" s="8"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="58"/>
+      <c r="A44" s="56"/>
       <c r="B44" s="9"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -17675,7 +17675,7 @@
       <c r="I44" s="8"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="58"/>
+      <c r="A45" s="56"/>
       <c r="B45" s="9"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -17686,7 +17686,7 @@
       <c r="I45" s="8"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="58"/>
+      <c r="A46" s="56"/>
       <c r="B46" s="9"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
@@ -17697,7 +17697,7 @@
       <c r="I46" s="8"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="58"/>
+      <c r="A47" s="56"/>
       <c r="B47" s="9"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
@@ -17708,7 +17708,7 @@
       <c r="I47" s="8"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="58"/>
+      <c r="A48" s="56"/>
       <c r="B48" s="9"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -17719,7 +17719,7 @@
       <c r="I48" s="8"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="58"/>
+      <c r="A49" s="56"/>
       <c r="B49" s="9"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
@@ -17730,7 +17730,7 @@
       <c r="I49" s="8"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="58"/>
+      <c r="A50" s="56"/>
       <c r="B50" s="9"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -17741,7 +17741,7 @@
       <c r="I50" s="8"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="58"/>
+      <c r="A51" s="56"/>
       <c r="B51" s="9"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -17752,7 +17752,7 @@
       <c r="I51" s="8"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="58"/>
+      <c r="A52" s="56"/>
       <c r="B52" s="9"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
@@ -17763,7 +17763,7 @@
       <c r="I52" s="8"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="58"/>
+      <c r="A53" s="56"/>
       <c r="B53" s="9"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -17774,7 +17774,7 @@
       <c r="I53" s="8"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="58"/>
+      <c r="A54" s="56"/>
       <c r="B54" s="9"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
@@ -17785,7 +17785,7 @@
       <c r="I54" s="8"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="58"/>
+      <c r="A55" s="56"/>
       <c r="B55" s="9"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
@@ -17796,7 +17796,7 @@
       <c r="I55" s="8"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="58"/>
+      <c r="A56" s="56"/>
       <c r="B56" s="9"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
@@ -17807,7 +17807,7 @@
       <c r="I56" s="8"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="58"/>
+      <c r="A57" s="56"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
       <c r="E57" s="10"/>
@@ -17817,7 +17817,7 @@
       <c r="I57" s="8"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="58"/>
+      <c r="A58" s="56"/>
       <c r="B58" s="9"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -17828,7 +17828,7 @@
       <c r="I58" s="8"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="58"/>
+      <c r="A59" s="56"/>
       <c r="B59" s="9"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
@@ -17839,7 +17839,7 @@
       <c r="I59" s="8"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="58"/>
+      <c r="A60" s="56"/>
       <c r="B60" s="9"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
@@ -17850,7 +17850,7 @@
       <c r="I60" s="8"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="58"/>
+      <c r="A61" s="56"/>
       <c r="B61" s="9"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -17861,7 +17861,7 @@
       <c r="I61" s="8"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="58"/>
+      <c r="A62" s="56"/>
       <c r="B62" s="9"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
@@ -17872,7 +17872,7 @@
       <c r="I62" s="8"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="58"/>
+      <c r="A63" s="56"/>
       <c r="B63" s="9"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
@@ -17883,7 +17883,7 @@
       <c r="I63" s="8"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="58"/>
+      <c r="A64" s="56"/>
       <c r="B64" s="9"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -17894,7 +17894,7 @@
       <c r="I64" s="8"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="58"/>
+      <c r="A65" s="56"/>
       <c r="B65" s="9"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -17905,7 +17905,7 @@
       <c r="I65" s="8"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="58"/>
+      <c r="A66" s="56"/>
       <c r="B66" s="9"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
@@ -17916,7 +17916,7 @@
       <c r="I66" s="8"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="58"/>
+      <c r="A67" s="56"/>
       <c r="B67" s="9"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -17927,7 +17927,7 @@
       <c r="I67" s="8"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="58"/>
+      <c r="A68" s="56"/>
       <c r="B68" s="9"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
@@ -17938,7 +17938,7 @@
       <c r="I68" s="8"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="58"/>
+      <c r="A69" s="56"/>
       <c r="B69" s="9"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
@@ -17949,7 +17949,7 @@
       <c r="I69" s="8"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="58"/>
+      <c r="A70" s="56"/>
       <c r="B70" s="9"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
@@ -17960,7 +17960,7 @@
       <c r="I70" s="8"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="58"/>
+      <c r="A71" s="56"/>
       <c r="B71" s="9"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
@@ -17971,7 +17971,7 @@
       <c r="I71" s="8"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="58"/>
+      <c r="A72" s="56"/>
       <c r="B72" s="9"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
@@ -17982,7 +17982,7 @@
       <c r="I72" s="8"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="58"/>
+      <c r="A73" s="56"/>
       <c r="B73" s="9"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
@@ -17993,195 +17993,195 @@
       <c r="I73" s="8"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="58"/>
+      <c r="A74" s="56"/>
       <c r="B74" s="9"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
       <c r="G74"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="58"/>
+      <c r="A75" s="56"/>
       <c r="B75" s="9"/>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
       <c r="G75"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="58"/>
+      <c r="A76" s="56"/>
       <c r="B76" s="9"/>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
       <c r="G76"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="58"/>
+      <c r="A77" s="56"/>
       <c r="B77" s="9"/>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
       <c r="G77"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="58"/>
+      <c r="A78" s="56"/>
       <c r="B78" s="9"/>
       <c r="G78"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="58"/>
+      <c r="A79" s="56"/>
       <c r="B79" s="9"/>
       <c r="G79"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="58"/>
+      <c r="A80" s="56"/>
       <c r="B80" s="9"/>
       <c r="G80"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="58"/>
+      <c r="A81" s="56"/>
       <c r="B81" s="9"/>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
       <c r="G81"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="58"/>
+      <c r="A82" s="56"/>
       <c r="B82" s="9"/>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
       <c r="G82"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="58"/>
+      <c r="A83" s="56"/>
       <c r="B83" s="9"/>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
       <c r="G83"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="58"/>
+      <c r="A84" s="56"/>
       <c r="B84" s="9"/>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
       <c r="G84"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="58"/>
+      <c r="A85" s="56"/>
       <c r="B85" s="9"/>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
       <c r="G85"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="58"/>
+      <c r="A86" s="56"/>
       <c r="B86" s="9"/>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
       <c r="G86"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="58"/>
+      <c r="A87" s="56"/>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
       <c r="G87"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="58"/>
+      <c r="A88" s="56"/>
       <c r="B88" s="9"/>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
       <c r="G88"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="58"/>
+      <c r="A89" s="56"/>
       <c r="B89" s="9"/>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
       <c r="G89"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="58"/>
+      <c r="A90" s="56"/>
       <c r="B90" s="9"/>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
       <c r="G90"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="58"/>
+      <c r="A91" s="56"/>
       <c r="B91" s="9"/>
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
       <c r="G91"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="58"/>
+      <c r="A92" s="56"/>
       <c r="B92" s="9"/>
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
       <c r="G92"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="58"/>
+      <c r="A93" s="56"/>
       <c r="B93" s="9"/>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
       <c r="G93"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="58"/>
+      <c r="A94" s="56"/>
       <c r="B94" s="9"/>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
       <c r="G94"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="58"/>
+      <c r="A95" s="56"/>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
       <c r="G95"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="58"/>
+      <c r="A96" s="56"/>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
       <c r="G96"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="58"/>
+      <c r="A97" s="56"/>
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
       <c r="G97"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="58"/>
+      <c r="A98" s="56"/>
       <c r="C98" s="8"/>
       <c r="D98" s="8"/>
       <c r="G98"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="58"/>
+      <c r="A99" s="56"/>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
       <c r="G99"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="58"/>
+      <c r="A100" s="56"/>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
       <c r="G100"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="58"/>
+      <c r="A101" s="56"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="58"/>
+      <c r="A102" s="56"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="58"/>
+      <c r="A103" s="56"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="58"/>
+      <c r="A104" s="56"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="58"/>
+      <c r="A105" s="56"/>
     </row>
     <row r="116" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G116" s="9"/>

--- a/arch-ums/uni-life-ums.xlsx
+++ b/arch-ums/uni-life-ums.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces-Idea\proc\arch-module\arch-ums\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23125AB7-3F25-4610-A9B9-A690E71AA82B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5304A13C-B072-4BB9-A227-C9D46594A595}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="30936" windowHeight="17040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3525,7 +3525,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -3644,9 +3644,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3659,10 +3656,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3672,6 +3669,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4982,7 +4985,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="57" t="s">
         <v>741</v>
       </c>
       <c r="B2" s="26" t="s">
@@ -5010,7 +5013,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
+      <c r="A3" s="56"/>
       <c r="B3" s="26" t="s">
         <v>855</v>
       </c>
@@ -5032,7 +5035,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
+      <c r="A4" s="56"/>
       <c r="B4" t="s">
         <v>19</v>
       </c>
@@ -5052,7 +5055,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
+      <c r="A5" s="56"/>
       <c r="B5" t="s">
         <v>22</v>
       </c>
@@ -5072,7 +5075,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
+      <c r="A6" s="56"/>
       <c r="B6" t="s">
         <v>26</v>
       </c>
@@ -5092,7 +5095,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
+      <c r="A7" s="56"/>
       <c r="B7" t="s">
         <v>29</v>
       </c>
@@ -5110,7 +5113,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="57"/>
+      <c r="A8" s="56"/>
       <c r="B8" t="s">
         <v>31</v>
       </c>
@@ -5130,7 +5133,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
+      <c r="A9" s="56"/>
       <c r="B9" t="s">
         <v>33</v>
       </c>
@@ -5150,7 +5153,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="57"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="26" t="s">
         <v>856</v>
       </c>
@@ -5174,7 +5177,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
+      <c r="A11" s="56"/>
       <c r="B11" t="s">
         <v>891</v>
       </c>
@@ -5187,7 +5190,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="56" t="s">
         <v>41</v>
       </c>
       <c r="B12" t="s">
@@ -5215,7 +5218,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
+      <c r="A13" s="56"/>
       <c r="B13" t="s">
         <v>42</v>
       </c>
@@ -5230,7 +5233,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="57"/>
+      <c r="A14" s="56"/>
       <c r="B14" t="s">
         <v>44</v>
       </c>
@@ -5245,7 +5248,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
+      <c r="A15" s="56"/>
       <c r="B15" t="s">
         <v>46</v>
       </c>
@@ -5260,7 +5263,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="57"/>
+      <c r="A16" s="56"/>
       <c r="B16" t="s">
         <v>48</v>
       </c>
@@ -5275,7 +5278,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="43" t="s">
         <v>828</v>
       </c>
@@ -5295,7 +5298,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="57"/>
+      <c r="A18" s="56"/>
       <c r="B18" t="s">
         <v>50</v>
       </c>
@@ -5310,7 +5313,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
+      <c r="A19" s="56"/>
       <c r="B19" t="s">
         <v>52</v>
       </c>
@@ -5325,7 +5328,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="57"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="39" t="s">
         <v>857</v>
       </c>
@@ -5345,7 +5348,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
+      <c r="A21" s="56"/>
       <c r="B21" t="s">
         <v>54</v>
       </c>
@@ -5360,7 +5363,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
+      <c r="A22" s="56"/>
       <c r="B22" t="s">
         <v>56</v>
       </c>
@@ -5375,7 +5378,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
+      <c r="A23" s="56"/>
       <c r="B23" t="s">
         <v>891</v>
       </c>
@@ -5388,7 +5391,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="58" t="s">
+      <c r="A24" s="57" t="s">
         <v>742</v>
       </c>
       <c r="B24" t="s">
@@ -5416,7 +5419,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="57"/>
+      <c r="A25" s="56"/>
       <c r="B25" t="s">
         <v>58</v>
       </c>
@@ -5431,7 +5434,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="57"/>
+      <c r="A26" s="56"/>
       <c r="B26" t="s">
         <v>60</v>
       </c>
@@ -5446,7 +5449,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="57"/>
+      <c r="A27" s="56"/>
       <c r="B27" t="s">
         <v>62</v>
       </c>
@@ -5461,7 +5464,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="57"/>
+      <c r="A28" s="56"/>
       <c r="B28" t="s">
         <v>64</v>
       </c>
@@ -5476,7 +5479,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="57"/>
+      <c r="A29" s="56"/>
       <c r="B29" s="26" t="s">
         <v>858</v>
       </c>
@@ -5491,7 +5494,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="57"/>
+      <c r="A30" s="56"/>
       <c r="B30" t="s">
         <v>52</v>
       </c>
@@ -5506,7 +5509,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="57"/>
+      <c r="A31" s="56"/>
       <c r="B31" t="s">
         <v>67</v>
       </c>
@@ -5519,7 +5522,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="57"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="26" t="s">
         <v>894</v>
       </c>
@@ -5532,7 +5535,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="57" t="s">
+      <c r="A33" s="56" t="s">
         <v>69</v>
       </c>
       <c r="B33" t="s">
@@ -5549,7 +5552,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="57"/>
+      <c r="A34" s="56"/>
       <c r="B34" s="26" t="s">
         <v>859</v>
       </c>
@@ -5564,7 +5567,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="57"/>
+      <c r="A35" s="56"/>
       <c r="B35" t="s">
         <v>71</v>
       </c>
@@ -5579,7 +5582,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="57"/>
+      <c r="A36" s="56"/>
       <c r="B36" t="s">
         <v>73</v>
       </c>
@@ -5594,7 +5597,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="57"/>
+      <c r="A37" s="56"/>
       <c r="B37" t="s">
         <v>52</v>
       </c>
@@ -5609,7 +5612,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="57"/>
+      <c r="A38" s="56"/>
       <c r="B38" t="s">
         <v>75</v>
       </c>
@@ -5622,7 +5625,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="57"/>
+      <c r="A39" s="56"/>
       <c r="B39" t="s">
         <v>891</v>
       </c>
@@ -5635,7 +5638,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="57" t="s">
+      <c r="A40" s="56" t="s">
         <v>77</v>
       </c>
       <c r="B40" t="s">
@@ -5652,7 +5655,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="57"/>
+      <c r="A41" s="56"/>
       <c r="B41" t="s">
         <v>78</v>
       </c>
@@ -5667,7 +5670,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="57"/>
+      <c r="A42" s="56"/>
       <c r="B42" t="s">
         <v>80</v>
       </c>
@@ -5682,7 +5685,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="57"/>
+      <c r="A43" s="56"/>
       <c r="B43" t="s">
         <v>736</v>
       </c>
@@ -5702,7 +5705,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="57"/>
+      <c r="A44" s="56"/>
       <c r="B44" t="s">
         <v>82</v>
       </c>
@@ -5717,7 +5720,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="57"/>
+      <c r="A45" s="56"/>
       <c r="B45" t="s">
         <v>52</v>
       </c>
@@ -5732,7 +5735,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="57"/>
+      <c r="A46" s="56"/>
       <c r="B46" t="s">
         <v>75</v>
       </c>
@@ -5745,7 +5748,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="57"/>
+      <c r="A47" s="56"/>
       <c r="B47" t="s">
         <v>891</v>
       </c>
@@ -5758,7 +5761,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="57" t="s">
+      <c r="A48" s="56" t="s">
         <v>83</v>
       </c>
       <c r="B48" t="s">
@@ -5775,7 +5778,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="57"/>
+      <c r="A49" s="56"/>
       <c r="B49" t="s">
         <v>84</v>
       </c>
@@ -5790,7 +5793,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="57"/>
+      <c r="A50" s="56"/>
       <c r="B50" t="s">
         <v>86</v>
       </c>
@@ -5805,7 +5808,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="57"/>
+      <c r="A51" s="56"/>
       <c r="B51" t="s">
         <v>88</v>
       </c>
@@ -5820,7 +5823,7 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="57"/>
+      <c r="A52" s="56"/>
       <c r="B52" t="s">
         <v>90</v>
       </c>
@@ -5835,7 +5838,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="57"/>
+      <c r="A53" s="56"/>
       <c r="B53" t="s">
         <v>52</v>
       </c>
@@ -5850,7 +5853,7 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="57"/>
+      <c r="A54" s="56"/>
       <c r="B54" t="s">
         <v>92</v>
       </c>
@@ -5863,7 +5866,7 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="57"/>
+      <c r="A55" s="56"/>
       <c r="B55" t="s">
         <v>94</v>
       </c>
@@ -5876,7 +5879,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="57"/>
+      <c r="A56" s="56"/>
       <c r="B56" s="26" t="s">
         <v>894</v>
       </c>
@@ -5889,7 +5892,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="56" t="s">
+      <c r="A57" s="55" t="s">
         <v>96</v>
       </c>
       <c r="B57" t="s">
@@ -5906,7 +5909,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="56"/>
+      <c r="A58" s="55"/>
       <c r="B58" t="s">
         <v>97</v>
       </c>
@@ -5921,7 +5924,7 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="56"/>
+      <c r="A59" s="55"/>
       <c r="B59" t="s">
         <v>909</v>
       </c>
@@ -5941,7 +5944,7 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="56"/>
+      <c r="A60" s="55"/>
       <c r="B60" s="26" t="s">
         <v>916</v>
       </c>
@@ -5956,7 +5959,7 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="56"/>
+      <c r="A61" s="55"/>
       <c r="B61" t="s">
         <v>98</v>
       </c>
@@ -5971,7 +5974,7 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="56"/>
+      <c r="A62" s="55"/>
       <c r="B62" t="s">
         <v>52</v>
       </c>
@@ -5984,7 +5987,7 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="56"/>
+      <c r="A63" s="55"/>
       <c r="B63" s="26" t="s">
         <v>894</v>
       </c>
@@ -6210,7 +6213,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="62" t="s">
         <v>917</v>
       </c>
       <c r="B2" s="29" t="s">
@@ -6234,7 +6237,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="63"/>
+      <c r="A3" s="62"/>
       <c r="B3" s="29" t="s">
         <v>719</v>
       </c>
@@ -6254,7 +6257,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="63"/>
+      <c r="A4" s="62"/>
       <c r="B4" s="29" t="s">
         <v>867</v>
       </c>
@@ -6274,7 +6277,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="29" t="s">
         <v>868</v>
       </c>
@@ -6294,7 +6297,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="63"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="29" t="s">
         <v>870</v>
       </c>
@@ -6314,7 +6317,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="29" t="s">
         <v>871</v>
       </c>
@@ -6334,7 +6337,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="63"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="29" t="s">
         <v>872</v>
       </c>
@@ -6354,7 +6357,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="63"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="29" t="s">
         <v>874</v>
       </c>
@@ -6374,7 +6377,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="63"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="29" t="s">
         <v>875</v>
       </c>
@@ -6394,7 +6397,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="63"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="37" t="s">
         <v>876</v>
       </c>
@@ -6414,7 +6417,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="63"/>
+      <c r="A12" s="62"/>
       <c r="B12" s="29" t="s">
         <v>877</v>
       </c>
@@ -6434,7 +6437,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="63"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="29" t="s">
         <v>878</v>
       </c>
@@ -6454,7 +6457,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="63"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="29" t="s">
         <v>879</v>
       </c>
@@ -6472,7 +6475,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="63"/>
+      <c r="A15" s="62"/>
       <c r="B15" s="29" t="s">
         <v>880</v>
       </c>
@@ -6490,7 +6493,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="54" t="s">
         <v>944</v>
       </c>
       <c r="B16" s="29" t="s">
@@ -6512,7 +6515,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="29" t="s">
         <v>919</v>
       </c>
@@ -6533,7 +6536,7 @@
       <c r="L17" s="26"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="29" t="s">
         <v>920</v>
       </c>
@@ -6553,7 +6556,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="29" t="s">
         <v>921</v>
       </c>
@@ -6573,7 +6576,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="55"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="29" t="s">
         <v>922</v>
       </c>
@@ -6593,7 +6596,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="29" t="s">
         <v>923</v>
       </c>
@@ -6613,7 +6616,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="55"/>
+      <c r="A22" s="54"/>
       <c r="B22" s="29" t="s">
         <v>924</v>
       </c>
@@ -6633,7 +6636,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
+      <c r="A23" s="54"/>
       <c r="B23" s="29" t="s">
         <v>925</v>
       </c>
@@ -6651,7 +6654,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
+      <c r="A24" s="54"/>
       <c r="B24" s="29" t="s">
         <v>926</v>
       </c>
@@ -6671,7 +6674,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="55" t="s">
+      <c r="A25" s="54" t="s">
         <v>943</v>
       </c>
       <c r="B25" s="29" t="s">
@@ -6693,7 +6696,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
+      <c r="A26" s="54"/>
       <c r="B26" s="29" t="s">
         <v>919</v>
       </c>
@@ -6714,7 +6717,7 @@
       <c r="L26" s="26"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="55"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="29" t="s">
         <v>922</v>
       </c>
@@ -6734,7 +6737,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="29" t="s">
         <v>923</v>
       </c>
@@ -6754,7 +6757,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="29" t="s">
         <v>924</v>
       </c>
@@ -6774,7 +6777,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="55"/>
+      <c r="A30" s="54"/>
       <c r="B30" s="29" t="s">
         <v>925</v>
       </c>
@@ -6792,7 +6795,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="29" t="s">
         <v>926</v>
       </c>
@@ -6901,7 +6904,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="55" t="s">
         <v>496</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -6918,7 +6921,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="5" t="s">
         <v>499</v>
       </c>
@@ -6933,7 +6936,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="5" t="s">
         <v>501</v>
       </c>
@@ -6948,7 +6951,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="5" t="s">
         <v>503</v>
       </c>
@@ -6963,7 +6966,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="5" t="s">
         <v>505</v>
       </c>
@@ -6975,7 +6978,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="5" t="s">
         <v>507</v>
       </c>
@@ -6987,7 +6990,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="56"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="5" t="s">
         <v>509</v>
       </c>
@@ -6999,7 +7002,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="56"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="5" t="s">
         <v>511</v>
       </c>
@@ -7011,7 +7014,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="56"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="5" t="s">
         <v>513</v>
       </c>
@@ -7026,7 +7029,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="56"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="5" t="s">
         <v>515</v>
       </c>
@@ -7041,7 +7044,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="56"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="5" t="s">
         <v>517</v>
       </c>
@@ -7056,7 +7059,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="56"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="5" t="s">
         <v>519</v>
       </c>
@@ -7071,7 +7074,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="56"/>
+      <c r="A14" s="55"/>
       <c r="B14" s="5" t="s">
         <v>521</v>
       </c>
@@ -7086,7 +7089,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="5" t="s">
         <v>523</v>
       </c>
@@ -7101,7 +7104,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="5" t="s">
         <v>525</v>
       </c>
@@ -7116,7 +7119,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="56"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="5" t="s">
         <v>527</v>
       </c>
@@ -7131,7 +7134,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="56"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="5" t="s">
         <v>487</v>
       </c>
@@ -7146,7 +7149,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="56"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="5" t="s">
         <v>530</v>
       </c>
@@ -7161,7 +7164,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="56"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="5" t="s">
         <v>532</v>
       </c>
@@ -7176,7 +7179,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="56"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="5" t="s">
         <v>534</v>
       </c>
@@ -7191,7 +7194,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="56"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="5" t="s">
         <v>536</v>
       </c>
@@ -7206,7 +7209,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="56"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="5" t="s">
         <v>538</v>
       </c>
@@ -7221,7 +7224,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="56" t="s">
+      <c r="A24" s="55" t="s">
         <v>540</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -7238,7 +7241,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="5" t="s">
         <v>541</v>
       </c>
@@ -7253,7 +7256,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
+      <c r="A26" s="55"/>
       <c r="B26" s="5" t="s">
         <v>503</v>
       </c>
@@ -7268,7 +7271,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="56"/>
+      <c r="A27" s="55"/>
       <c r="B27" s="5" t="s">
         <v>544</v>
       </c>
@@ -7283,7 +7286,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="56"/>
+      <c r="A28" s="55"/>
       <c r="B28" s="5" t="s">
         <v>546</v>
       </c>
@@ -7298,7 +7301,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="56"/>
+      <c r="A29" s="55"/>
       <c r="B29" s="5" t="s">
         <v>513</v>
       </c>
@@ -7313,7 +7316,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="56"/>
+      <c r="A30" s="55"/>
       <c r="B30" s="5" t="s">
         <v>548</v>
       </c>
@@ -7328,7 +7331,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="56"/>
+      <c r="A31" s="55"/>
       <c r="B31" s="5" t="s">
         <v>550</v>
       </c>
@@ -7343,7 +7346,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="56"/>
+      <c r="A32" s="55"/>
       <c r="B32" s="5" t="s">
         <v>552</v>
       </c>
@@ -7358,7 +7361,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="56"/>
+      <c r="A33" s="55"/>
       <c r="B33" s="5" t="s">
         <v>554</v>
       </c>
@@ -7373,7 +7376,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="56"/>
+      <c r="A34" s="55"/>
       <c r="B34" s="5" t="s">
         <v>556</v>
       </c>
@@ -7388,7 +7391,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="56"/>
+      <c r="A35" s="55"/>
       <c r="B35" s="5" t="s">
         <v>559</v>
       </c>
@@ -7403,13 +7406,13 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="56"/>
+      <c r="A36" s="55"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="J36" s="5"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="56"/>
+      <c r="A37" s="55"/>
       <c r="B37" s="5" t="s">
         <v>561</v>
       </c>
@@ -7424,7 +7427,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="56"/>
+      <c r="A38" s="55"/>
       <c r="B38" s="5" t="s">
         <v>563</v>
       </c>
@@ -7439,7 +7442,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="56"/>
+      <c r="A39" s="55"/>
       <c r="B39" s="5" t="s">
         <v>564</v>
       </c>
@@ -7454,7 +7457,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="56"/>
+      <c r="A40" s="55"/>
       <c r="B40" s="5" t="s">
         <v>566</v>
       </c>
@@ -7469,13 +7472,13 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="56"/>
+      <c r="A41" s="55"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="J41" s="5"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="56"/>
+      <c r="A42" s="55"/>
       <c r="B42" s="5" t="s">
         <v>568</v>
       </c>
@@ -7490,7 +7493,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="56"/>
+      <c r="A43" s="55"/>
       <c r="B43" s="5" t="s">
         <v>570</v>
       </c>
@@ -7505,7 +7508,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="56"/>
+      <c r="A44" s="55"/>
       <c r="B44" s="5" t="s">
         <v>536</v>
       </c>
@@ -7520,7 +7523,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="56"/>
+      <c r="A45" s="55"/>
       <c r="B45" s="5" t="s">
         <v>573</v>
       </c>
@@ -7535,7 +7538,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="56"/>
+      <c r="A46" s="55"/>
       <c r="B46" s="5" t="s">
         <v>575</v>
       </c>
@@ -7550,7 +7553,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="56"/>
+      <c r="A47" s="55"/>
       <c r="B47" s="5" t="s">
         <v>577</v>
       </c>
@@ -7565,7 +7568,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="56"/>
+      <c r="A48" s="55"/>
       <c r="B48" s="5" t="s">
         <v>579</v>
       </c>
@@ -7580,7 +7583,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="56"/>
+      <c r="A49" s="55"/>
       <c r="B49" s="5" t="s">
         <v>581</v>
       </c>
@@ -7595,7 +7598,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="56"/>
+      <c r="A50" s="55"/>
       <c r="B50" s="5" t="s">
         <v>583</v>
       </c>
@@ -7607,13 +7610,13 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="56"/>
+      <c r="A51" s="55"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="J51" s="5"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="56"/>
+      <c r="A52" s="55"/>
       <c r="B52" s="5" t="s">
         <v>585</v>
       </c>
@@ -7628,7 +7631,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="56"/>
+      <c r="A53" s="55"/>
       <c r="B53" s="5" t="s">
         <v>587</v>
       </c>
@@ -7643,7 +7646,7 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="56"/>
+      <c r="A54" s="55"/>
       <c r="B54" s="5" t="s">
         <v>589</v>
       </c>
@@ -7658,7 +7661,7 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="56"/>
+      <c r="A55" s="55"/>
       <c r="B55" s="5" t="s">
         <v>591</v>
       </c>
@@ -7673,7 +7676,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="56"/>
+      <c r="A56" s="55"/>
       <c r="B56" s="5" t="s">
         <v>593</v>
       </c>
@@ -7688,7 +7691,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="56"/>
+      <c r="A57" s="55"/>
       <c r="B57" s="5" t="s">
         <v>595</v>
       </c>
@@ -7703,7 +7706,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="56"/>
+      <c r="A58" s="55"/>
       <c r="B58" s="5" t="s">
         <v>597</v>
       </c>
@@ -7718,7 +7721,7 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="56"/>
+      <c r="A59" s="55"/>
       <c r="B59" s="5" t="s">
         <v>599</v>
       </c>
@@ -7733,7 +7736,7 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="56"/>
+      <c r="A60" s="55"/>
       <c r="B60" s="5" t="s">
         <v>601</v>
       </c>
@@ -7748,7 +7751,7 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="56"/>
+      <c r="A61" s="55"/>
       <c r="B61" s="5" t="s">
         <v>603</v>
       </c>
@@ -7763,7 +7766,7 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="56"/>
+      <c r="A62" s="55"/>
       <c r="B62" s="5" t="s">
         <v>605</v>
       </c>
@@ -7778,7 +7781,7 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="56"/>
+      <c r="A63" s="55"/>
       <c r="B63" s="5" t="s">
         <v>607</v>
       </c>
@@ -7793,7 +7796,7 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="56"/>
+      <c r="A64" s="55"/>
       <c r="B64" s="5" t="s">
         <v>609</v>
       </c>
@@ -7808,7 +7811,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="56"/>
+      <c r="A65" s="55"/>
       <c r="B65" s="5" t="s">
         <v>611</v>
       </c>
@@ -7823,7 +7826,7 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="56"/>
+      <c r="A66" s="55"/>
       <c r="B66" s="5" t="s">
         <v>613</v>
       </c>
@@ -7838,13 +7841,13 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="56"/>
+      <c r="A67" s="55"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="J67" s="5"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="56"/>
+      <c r="A68" s="55"/>
       <c r="B68" s="5" t="s">
         <v>615</v>
       </c>
@@ -7856,7 +7859,7 @@
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="56"/>
+      <c r="A69" s="55"/>
       <c r="B69" s="5" t="s">
         <v>525</v>
       </c>
@@ -7871,7 +7874,7 @@
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="56"/>
+      <c r="A70" s="55"/>
       <c r="B70" s="5" t="s">
         <v>527</v>
       </c>
@@ -7886,7 +7889,7 @@
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="56"/>
+      <c r="A71" s="55"/>
       <c r="B71" s="5" t="s">
         <v>617</v>
       </c>
@@ -7901,13 +7904,13 @@
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="56"/>
+      <c r="A72" s="55"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="J72" s="5"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="56"/>
+      <c r="A73" s="55"/>
       <c r="B73" s="5" t="s">
         <v>619</v>
       </c>
@@ -7922,7 +7925,7 @@
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="56"/>
+      <c r="A74" s="55"/>
       <c r="B74" s="5" t="s">
         <v>621</v>
       </c>
@@ -7937,7 +7940,7 @@
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="56"/>
+      <c r="A75" s="55"/>
       <c r="B75" s="5" t="s">
         <v>623</v>
       </c>
@@ -7952,7 +7955,7 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="56"/>
+      <c r="A76" s="55"/>
       <c r="B76" s="5" t="s">
         <v>624</v>
       </c>
@@ -7967,7 +7970,7 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="56"/>
+      <c r="A77" s="55"/>
       <c r="B77" s="5" t="s">
         <v>626</v>
       </c>
@@ -7982,7 +7985,7 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="56"/>
+      <c r="A78" s="55"/>
       <c r="B78" s="5" t="s">
         <v>628</v>
       </c>
@@ -7997,7 +8000,7 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="56"/>
+      <c r="A79" s="55"/>
       <c r="B79" s="5" t="s">
         <v>630</v>
       </c>
@@ -8012,7 +8015,7 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="56"/>
+      <c r="A80" s="55"/>
       <c r="B80" s="5" t="s">
         <v>632</v>
       </c>
@@ -8027,7 +8030,7 @@
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="56"/>
+      <c r="A81" s="55"/>
       <c r="B81" s="5" t="s">
         <v>634</v>
       </c>
@@ -8042,7 +8045,7 @@
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="56"/>
+      <c r="A82" s="55"/>
       <c r="B82" s="5" t="s">
         <v>636</v>
       </c>
@@ -8057,7 +8060,7 @@
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="56"/>
+      <c r="A83" s="55"/>
       <c r="B83" s="5" t="s">
         <v>638</v>
       </c>
@@ -8072,7 +8075,7 @@
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="56"/>
+      <c r="A84" s="55"/>
       <c r="B84" s="5" t="s">
         <v>640</v>
       </c>
@@ -8087,7 +8090,7 @@
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="56"/>
+      <c r="A85" s="55"/>
       <c r="B85" s="5" t="s">
         <v>642</v>
       </c>
@@ -8102,7 +8105,7 @@
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="56"/>
+      <c r="A86" s="55"/>
       <c r="B86" s="5" t="s">
         <v>644</v>
       </c>
@@ -8117,7 +8120,7 @@
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="56"/>
+      <c r="A87" s="55"/>
       <c r="B87" s="5" t="s">
         <v>646</v>
       </c>
@@ -8132,7 +8135,7 @@
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="56"/>
+      <c r="A88" s="55"/>
       <c r="B88" s="5" t="s">
         <v>648</v>
       </c>
@@ -8147,7 +8150,7 @@
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="56"/>
+      <c r="A89" s="55"/>
       <c r="B89" s="5" t="s">
         <v>650</v>
       </c>
@@ -8162,7 +8165,7 @@
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="56"/>
+      <c r="A90" s="55"/>
       <c r="B90" s="5" t="s">
         <v>652</v>
       </c>
@@ -8177,13 +8180,13 @@
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="56"/>
+      <c r="A91" s="55"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="J91" s="5"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="56"/>
+      <c r="A92" s="55"/>
       <c r="B92" s="5" t="s">
         <v>654</v>
       </c>
@@ -8198,7 +8201,7 @@
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="56"/>
+      <c r="A93" s="55"/>
       <c r="B93" s="5" t="s">
         <v>656</v>
       </c>
@@ -8213,13 +8216,13 @@
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="56"/>
+      <c r="A94" s="55"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="J94" s="5"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="56"/>
+      <c r="A95" s="55"/>
       <c r="B95" s="5" t="s">
         <v>658</v>
       </c>
@@ -8234,7 +8237,7 @@
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="56"/>
+      <c r="A96" s="55"/>
       <c r="B96" s="5" t="s">
         <v>660</v>
       </c>
@@ -8249,7 +8252,7 @@
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="56"/>
+      <c r="A97" s="55"/>
       <c r="B97" s="5" t="s">
         <v>662</v>
       </c>
@@ -8261,13 +8264,13 @@
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="56"/>
+      <c r="A98" s="55"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="J98" s="5"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="56"/>
+      <c r="A99" s="55"/>
       <c r="B99" s="5" t="s">
         <v>664</v>
       </c>
@@ -8282,7 +8285,7 @@
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="56"/>
+      <c r="A100" s="55"/>
       <c r="B100" s="5" t="s">
         <v>666</v>
       </c>
@@ -8297,7 +8300,7 @@
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="56"/>
+      <c r="A101" s="55"/>
       <c r="B101" s="5" t="s">
         <v>668</v>
       </c>
@@ -8312,7 +8315,7 @@
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="56"/>
+      <c r="A102" s="55"/>
       <c r="B102" s="5" t="s">
         <v>670</v>
       </c>
@@ -8327,7 +8330,7 @@
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="56" t="s">
+      <c r="A103" s="55" t="s">
         <v>672</v>
       </c>
       <c r="B103" s="5" t="s">
@@ -8344,7 +8347,7 @@
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="56"/>
+      <c r="A104" s="55"/>
       <c r="B104" s="5" t="s">
         <v>674</v>
       </c>
@@ -8359,7 +8362,7 @@
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="56"/>
+      <c r="A105" s="55"/>
       <c r="B105" s="5" t="s">
         <v>676</v>
       </c>
@@ -8374,7 +8377,7 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="56"/>
+      <c r="A106" s="55"/>
       <c r="B106" s="5" t="s">
         <v>678</v>
       </c>
@@ -8389,7 +8392,7 @@
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="56"/>
+      <c r="A107" s="55"/>
       <c r="B107" s="5" t="s">
         <v>680</v>
       </c>
@@ -8404,7 +8407,7 @@
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="56"/>
+      <c r="A108" s="55"/>
       <c r="B108" s="5" t="s">
         <v>682</v>
       </c>
@@ -8419,7 +8422,7 @@
       </c>
     </row>
     <row r="109" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A109" s="56"/>
+      <c r="A109" s="55"/>
       <c r="B109" s="5" t="s">
         <v>684</v>
       </c>
@@ -8434,7 +8437,7 @@
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="56"/>
+      <c r="A110" s="55"/>
       <c r="B110" s="5" t="s">
         <v>686</v>
       </c>
@@ -8449,7 +8452,7 @@
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="56"/>
+      <c r="A111" s="55"/>
       <c r="B111" s="5" t="s">
         <v>688</v>
       </c>
@@ -8464,7 +8467,7 @@
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="56"/>
+      <c r="A112" s="55"/>
       <c r="B112" s="5" t="s">
         <v>690</v>
       </c>
@@ -8479,7 +8482,7 @@
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="56"/>
+      <c r="A113" s="55"/>
       <c r="B113" s="5" t="s">
         <v>692</v>
       </c>
@@ -8491,7 +8494,7 @@
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="56"/>
+      <c r="A114" s="55"/>
       <c r="B114" s="5" t="s">
         <v>694</v>
       </c>
@@ -8503,7 +8506,7 @@
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="56" t="s">
+      <c r="A115" s="55" t="s">
         <v>695</v>
       </c>
       <c r="B115" s="5" t="s">
@@ -8520,7 +8523,7 @@
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="56"/>
+      <c r="A116" s="55"/>
       <c r="B116" s="5" t="s">
         <v>674</v>
       </c>
@@ -8535,7 +8538,7 @@
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="56"/>
+      <c r="A117" s="55"/>
       <c r="B117" s="5" t="s">
         <v>676</v>
       </c>
@@ -8550,7 +8553,7 @@
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="56"/>
+      <c r="A118" s="55"/>
       <c r="B118" s="5" t="s">
         <v>680</v>
       </c>
@@ -8565,7 +8568,7 @@
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="56"/>
+      <c r="A119" s="55"/>
       <c r="B119" s="5" t="s">
         <v>585</v>
       </c>
@@ -8580,7 +8583,7 @@
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="56"/>
+      <c r="A120" s="55"/>
       <c r="B120" s="5" t="s">
         <v>587</v>
       </c>
@@ -8595,7 +8598,7 @@
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="56"/>
+      <c r="A121" s="55"/>
       <c r="B121" s="5" t="s">
         <v>589</v>
       </c>
@@ -8610,7 +8613,7 @@
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="56"/>
+      <c r="A122" s="55"/>
       <c r="B122" s="5" t="s">
         <v>591</v>
       </c>
@@ -8625,7 +8628,7 @@
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="56"/>
+      <c r="A123" s="55"/>
       <c r="B123" s="5" t="s">
         <v>593</v>
       </c>
@@ -8640,7 +8643,7 @@
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="56"/>
+      <c r="A124" s="55"/>
       <c r="B124" s="5" t="s">
         <v>595</v>
       </c>
@@ -8655,7 +8658,7 @@
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="56"/>
+      <c r="A125" s="55"/>
       <c r="B125" s="5" t="s">
         <v>597</v>
       </c>
@@ -8670,7 +8673,7 @@
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="56"/>
+      <c r="A126" s="55"/>
       <c r="B126" s="5" t="s">
         <v>599</v>
       </c>
@@ -8685,7 +8688,7 @@
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="56"/>
+      <c r="A127" s="55"/>
       <c r="B127" s="5" t="s">
         <v>601</v>
       </c>
@@ -8700,7 +8703,7 @@
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="56"/>
+      <c r="A128" s="55"/>
       <c r="B128" s="5" t="s">
         <v>603</v>
       </c>
@@ -8715,7 +8718,7 @@
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="56"/>
+      <c r="A129" s="55"/>
       <c r="B129" s="5" t="s">
         <v>605</v>
       </c>
@@ -8730,7 +8733,7 @@
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="56"/>
+      <c r="A130" s="55"/>
       <c r="B130" s="5" t="s">
         <v>607</v>
       </c>
@@ -8745,7 +8748,7 @@
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="56"/>
+      <c r="A131" s="55"/>
       <c r="B131" s="5" t="s">
         <v>609</v>
       </c>
@@ -8760,7 +8763,7 @@
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="56"/>
+      <c r="A132" s="55"/>
       <c r="B132" s="5" t="s">
         <v>611</v>
       </c>
@@ -8775,7 +8778,7 @@
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="56"/>
+      <c r="A133" s="55"/>
       <c r="B133" s="5" t="s">
         <v>613</v>
       </c>
@@ -8790,7 +8793,7 @@
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="56"/>
+      <c r="A134" s="55"/>
       <c r="B134" s="5" t="s">
         <v>697</v>
       </c>
@@ -8805,7 +8808,7 @@
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="56"/>
+      <c r="A135" s="55"/>
       <c r="B135" s="5" t="s">
         <v>699</v>
       </c>
@@ -8820,7 +8823,7 @@
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="56"/>
+      <c r="A136" s="55"/>
       <c r="B136" s="5" t="s">
         <v>701</v>
       </c>
@@ -8835,7 +8838,7 @@
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="56"/>
+      <c r="A137" s="55"/>
       <c r="B137" s="5" t="s">
         <v>694</v>
       </c>
@@ -8887,8 +8890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9020,7 +9023,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="58" t="s">
         <v>747</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -9042,7 +9045,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="21" t="s">
         <v>100</v>
       </c>
@@ -9066,7 +9069,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="56"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="21" t="s">
         <v>101</v>
       </c>
@@ -9088,7 +9091,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="56"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="21" t="s">
         <v>102</v>
       </c>
@@ -9110,7 +9113,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="56"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="21" t="s">
         <v>103</v>
       </c>
@@ -9134,7 +9137,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="56"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="37" t="s">
         <v>824</v>
       </c>
@@ -9154,7 +9157,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="56"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="21" t="s">
         <v>104</v>
       </c>
@@ -9176,7 +9179,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="56"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="21" t="s">
         <v>713</v>
       </c>
@@ -9198,7 +9201,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="56"/>
+      <c r="A14" s="55"/>
       <c r="B14" s="21" t="s">
         <v>106</v>
       </c>
@@ -9220,7 +9223,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="21" t="s">
         <v>107</v>
       </c>
@@ -9242,7 +9245,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="21" t="s">
         <v>108</v>
       </c>
@@ -9264,7 +9267,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="56"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="21" t="s">
         <v>109</v>
       </c>
@@ -9286,7 +9289,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="56"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="21" t="s">
         <v>110</v>
       </c>
@@ -9308,7 +9311,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="56"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="21" t="s">
         <v>111</v>
       </c>
@@ -9330,7 +9333,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="56"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="21" t="s">
         <v>112</v>
       </c>
@@ -9352,7 +9355,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="56"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="21" t="s">
         <v>113</v>
       </c>
@@ -9374,7 +9377,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="56"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="21" t="s">
         <v>114</v>
       </c>
@@ -9396,7 +9399,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="56"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="21" t="s">
         <v>115</v>
       </c>
@@ -9418,7 +9421,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
+      <c r="A24" s="55"/>
       <c r="B24" s="21" t="s">
         <v>116</v>
       </c>
@@ -9440,7 +9443,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="21" t="s">
         <v>10</v>
       </c>
@@ -9462,7 +9465,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
+      <c r="A26" s="55"/>
       <c r="B26" s="21" t="s">
         <v>117</v>
       </c>
@@ -9484,7 +9487,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="56"/>
+      <c r="A27" s="55"/>
       <c r="B27" s="21" t="s">
         <v>118</v>
       </c>
@@ -9506,7 +9509,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="56"/>
+      <c r="A28" s="55"/>
       <c r="B28" s="21" t="s">
         <v>119</v>
       </c>
@@ -9530,7 +9533,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="56"/>
+      <c r="A29" s="55"/>
       <c r="B29" s="21" t="s">
         <v>892</v>
       </c>
@@ -9546,7 +9549,7 @@
       <c r="J29" s="27"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="56" t="s">
+      <c r="A30" s="55" t="s">
         <v>717</v>
       </c>
       <c r="B30" s="21" t="s">
@@ -9574,7 +9577,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="56"/>
+      <c r="A31" s="55"/>
       <c r="B31" s="21" t="s">
         <v>720</v>
       </c>
@@ -9601,7 +9604,7 @@
       <c r="L31" s="26"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="56"/>
+      <c r="A32" s="55"/>
       <c r="B32" s="21" t="s">
         <v>120</v>
       </c>
@@ -9629,7 +9632,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="56"/>
+      <c r="A33" s="55"/>
       <c r="B33" s="21" t="s">
         <v>740</v>
       </c>
@@ -9649,7 +9652,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="60" t="s">
+      <c r="A34" s="58" t="s">
         <v>743</v>
       </c>
       <c r="B34" s="21" t="s">
@@ -9677,7 +9680,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="56"/>
+      <c r="A35" s="55"/>
       <c r="B35" s="29" t="s">
         <v>827</v>
       </c>
@@ -9703,7 +9706,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="56"/>
+      <c r="A36" s="55"/>
       <c r="B36" s="47" t="s">
         <v>832</v>
       </c>
@@ -9723,7 +9726,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="56"/>
+      <c r="A37" s="55"/>
       <c r="B37" s="47" t="s">
         <v>833</v>
       </c>
@@ -9743,7 +9746,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="56"/>
+      <c r="A38" s="55"/>
       <c r="B38" s="29" t="s">
         <v>746</v>
       </c>
@@ -9769,7 +9772,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="56"/>
+      <c r="A39" s="55"/>
       <c r="B39" s="29" t="s">
         <v>723</v>
       </c>
@@ -9791,7 +9794,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="54" t="s">
+      <c r="A40" s="63" t="s">
         <v>724</v>
       </c>
       <c r="B40" s="21" t="s">
@@ -9813,7 +9816,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="54"/>
+      <c r="A41" s="63"/>
       <c r="B41" s="21" t="s">
         <v>123</v>
       </c>
@@ -9833,7 +9836,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="54"/>
+      <c r="A42" s="63"/>
       <c r="B42" s="21" t="s">
         <v>124</v>
       </c>
@@ -9853,7 +9856,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="54"/>
+      <c r="A43" s="63"/>
       <c r="B43" s="21" t="s">
         <v>125</v>
       </c>
@@ -9873,7 +9876,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="54"/>
+      <c r="A44" s="63"/>
       <c r="B44" s="53" t="s">
         <v>904</v>
       </c>
@@ -9893,7 +9896,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="54"/>
+      <c r="A45" s="63"/>
       <c r="B45" s="29" t="s">
         <v>896</v>
       </c>
@@ -9913,7 +9916,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="54"/>
+      <c r="A46" s="63"/>
       <c r="B46" s="21" t="s">
         <v>126</v>
       </c>
@@ -9933,7 +9936,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="54"/>
+      <c r="A47" s="63"/>
       <c r="B47" s="21" t="s">
         <v>127</v>
       </c>
@@ -9953,7 +9956,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="54"/>
+      <c r="A48" s="63"/>
       <c r="B48" s="21" t="s">
         <v>128</v>
       </c>
@@ -9973,7 +9976,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="54"/>
+      <c r="A49" s="63"/>
       <c r="B49" s="21" t="s">
         <v>129</v>
       </c>
@@ -9993,7 +9996,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="54"/>
+      <c r="A50" s="63"/>
       <c r="B50" s="21" t="s">
         <v>130</v>
       </c>
@@ -10013,7 +10016,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="54"/>
+      <c r="A51" s="63"/>
       <c r="B51" s="21" t="s">
         <v>131</v>
       </c>
@@ -10033,7 +10036,7 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="60" t="s">
+      <c r="A52" s="58" t="s">
         <v>725</v>
       </c>
       <c r="B52" s="21" t="s">
@@ -10061,7 +10064,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="60"/>
+      <c r="A53" s="58"/>
       <c r="B53" s="47" t="s">
         <v>832</v>
       </c>
@@ -10081,7 +10084,7 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="56"/>
+      <c r="A54" s="55"/>
       <c r="B54" s="21" t="s">
         <v>134</v>
       </c>
@@ -10107,7 +10110,7 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="56"/>
+      <c r="A55" s="55"/>
       <c r="B55" s="21" t="s">
         <v>52</v>
       </c>
@@ -10129,7 +10132,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="60" t="s">
+      <c r="A56" s="58" t="s">
         <v>837</v>
       </c>
       <c r="B56" s="29" t="s">
@@ -10151,7 +10154,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="56"/>
+      <c r="A57" s="55"/>
       <c r="B57" s="47" t="s">
         <v>832</v>
       </c>
@@ -10171,7 +10174,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="56"/>
+      <c r="A58" s="55"/>
       <c r="B58" s="21" t="s">
         <v>135</v>
       </c>
@@ -10191,7 +10194,7 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="56"/>
+      <c r="A59" s="55"/>
       <c r="B59" s="21" t="s">
         <v>52</v>
       </c>
@@ -10211,7 +10214,7 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="60" t="s">
+      <c r="A60" s="58" t="s">
         <v>838</v>
       </c>
       <c r="B60" s="21" t="s">
@@ -10233,7 +10236,7 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="56"/>
+      <c r="A61" s="55"/>
       <c r="B61" s="47" t="s">
         <v>832</v>
       </c>
@@ -10253,7 +10256,7 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="56"/>
+      <c r="A62" s="55"/>
       <c r="B62" s="21" t="s">
         <v>139</v>
       </c>
@@ -10273,7 +10276,7 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="56"/>
+      <c r="A63" s="55"/>
       <c r="B63" s="21" t="s">
         <v>140</v>
       </c>
@@ -10293,7 +10296,7 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="56"/>
+      <c r="A64" s="55"/>
       <c r="B64" s="21" t="s">
         <v>852</v>
       </c>
@@ -10313,7 +10316,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="56"/>
+      <c r="A65" s="55"/>
       <c r="B65" s="21" t="s">
         <v>142</v>
       </c>
@@ -10333,7 +10336,7 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="56"/>
+      <c r="A66" s="55"/>
       <c r="B66" s="21" t="s">
         <v>143</v>
       </c>
@@ -10353,7 +10356,7 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="56"/>
+      <c r="A67" s="55"/>
       <c r="B67" s="21" t="s">
         <v>144</v>
       </c>
@@ -10373,7 +10376,7 @@
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="56"/>
+      <c r="A68" s="55"/>
       <c r="B68" s="21" t="s">
         <v>730</v>
       </c>
@@ -10393,7 +10396,7 @@
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="56"/>
+      <c r="A69" s="55"/>
       <c r="B69" s="21" t="s">
         <v>145</v>
       </c>
@@ -10413,7 +10416,7 @@
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="56"/>
+      <c r="A70" s="55"/>
       <c r="B70" s="21" t="s">
         <v>146</v>
       </c>
@@ -10433,7 +10436,7 @@
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="60" t="s">
+      <c r="A71" s="58" t="s">
         <v>839</v>
       </c>
       <c r="B71" s="21" t="s">
@@ -10455,7 +10458,7 @@
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="56"/>
+      <c r="A72" s="55"/>
       <c r="B72" s="47" t="s">
         <v>832</v>
       </c>
@@ -10475,7 +10478,7 @@
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="56"/>
+      <c r="A73" s="55"/>
       <c r="B73" s="21" t="s">
         <v>147</v>
       </c>
@@ -10495,7 +10498,7 @@
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="56"/>
+      <c r="A74" s="55"/>
       <c r="B74" s="21" t="s">
         <v>148</v>
       </c>
@@ -10515,7 +10518,7 @@
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="56"/>
+      <c r="A75" s="55"/>
       <c r="B75" s="21" t="s">
         <v>150</v>
       </c>
@@ -10535,7 +10538,7 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="56"/>
+      <c r="A76" s="55"/>
       <c r="B76" s="21" t="s">
         <v>146</v>
       </c>
@@ -10555,7 +10558,7 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="56"/>
+      <c r="A77" s="55"/>
       <c r="B77" s="21" t="s">
         <v>52</v>
       </c>
@@ -10575,7 +10578,7 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="56"/>
+      <c r="A78" s="55"/>
       <c r="B78" s="21" t="s">
         <v>739</v>
       </c>
@@ -10595,7 +10598,7 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="56"/>
+      <c r="A79" s="55"/>
       <c r="B79" s="21" t="s">
         <v>134</v>
       </c>
@@ -10615,7 +10618,7 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="60" t="s">
+      <c r="A80" s="58" t="s">
         <v>840</v>
       </c>
       <c r="B80" s="47" t="s">
@@ -10637,7 +10640,7 @@
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="56"/>
+      <c r="A81" s="55"/>
       <c r="B81" s="21" t="s">
         <v>152</v>
       </c>
@@ -10657,7 +10660,7 @@
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="56"/>
+      <c r="A82" s="55"/>
       <c r="B82" s="21" t="s">
         <v>153</v>
       </c>
@@ -10677,7 +10680,7 @@
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="56"/>
+      <c r="A83" s="55"/>
       <c r="B83" s="21" t="s">
         <v>154</v>
       </c>
@@ -10697,7 +10700,7 @@
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="56"/>
+      <c r="A84" s="55"/>
       <c r="B84" s="21" t="s">
         <v>155</v>
       </c>
@@ -10717,7 +10720,7 @@
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="56"/>
+      <c r="A85" s="55"/>
       <c r="B85" s="29" t="s">
         <v>852</v>
       </c>
@@ -10737,7 +10740,7 @@
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="56"/>
+      <c r="A86" s="55"/>
       <c r="B86" s="21" t="s">
         <v>52</v>
       </c>
@@ -10757,7 +10760,7 @@
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="60" t="s">
+      <c r="A87" s="58" t="s">
         <v>841</v>
       </c>
       <c r="B87" s="21" t="s">
@@ -10779,7 +10782,7 @@
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="56"/>
+      <c r="A88" s="55"/>
       <c r="B88" s="47" t="s">
         <v>832</v>
       </c>
@@ -10799,7 +10802,7 @@
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="56"/>
+      <c r="A89" s="55"/>
       <c r="B89" s="21" t="s">
         <v>158</v>
       </c>
@@ -10819,7 +10822,7 @@
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="56"/>
+      <c r="A90" s="55"/>
       <c r="B90" s="21" t="s">
         <v>731</v>
       </c>
@@ -10839,7 +10842,7 @@
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="56"/>
+      <c r="A91" s="55"/>
       <c r="B91" s="21" t="s">
         <v>159</v>
       </c>
@@ -10859,7 +10862,7 @@
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="56"/>
+      <c r="A92" s="55"/>
       <c r="B92" s="21" t="s">
         <v>52</v>
       </c>
@@ -10879,7 +10882,7 @@
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="60" t="s">
+      <c r="A93" s="58" t="s">
         <v>842</v>
       </c>
       <c r="B93" s="21" t="s">
@@ -10901,7 +10904,7 @@
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="56"/>
+      <c r="A94" s="55"/>
       <c r="B94" s="47" t="s">
         <v>832</v>
       </c>
@@ -10921,7 +10924,7 @@
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="56"/>
+      <c r="A95" s="55"/>
       <c r="B95" s="21" t="s">
         <v>88</v>
       </c>
@@ -10941,7 +10944,7 @@
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="56"/>
+      <c r="A96" s="55"/>
       <c r="B96" s="21" t="s">
         <v>161</v>
       </c>
@@ -10961,7 +10964,7 @@
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="56"/>
+      <c r="A97" s="55"/>
       <c r="B97" s="21" t="s">
         <v>162</v>
       </c>
@@ -10981,7 +10984,7 @@
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="56"/>
+      <c r="A98" s="55"/>
       <c r="B98" s="21" t="s">
         <v>163</v>
       </c>
@@ -11001,7 +11004,7 @@
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="60" t="s">
+      <c r="A99" s="58" t="s">
         <v>843</v>
       </c>
       <c r="B99" s="47" t="s">
@@ -11023,7 +11026,7 @@
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="56"/>
+      <c r="A100" s="55"/>
       <c r="B100" s="21" t="s">
         <v>164</v>
       </c>
@@ -11043,7 +11046,7 @@
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="56"/>
+      <c r="A101" s="55"/>
       <c r="B101" s="21" t="s">
         <v>165</v>
       </c>
@@ -11063,7 +11066,7 @@
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="60" t="s">
+      <c r="A102" s="58" t="s">
         <v>844</v>
       </c>
       <c r="B102" s="47" t="s">
@@ -11085,7 +11088,7 @@
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="56"/>
+      <c r="A103" s="55"/>
       <c r="B103" s="21" t="s">
         <v>164</v>
       </c>
@@ -11105,7 +11108,7 @@
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="56"/>
+      <c r="A104" s="55"/>
       <c r="B104" s="21" t="s">
         <v>166</v>
       </c>
@@ -11125,7 +11128,7 @@
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="60" t="s">
+      <c r="A105" s="58" t="s">
         <v>845</v>
       </c>
       <c r="B105" s="47" t="s">
@@ -11147,7 +11150,7 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="56"/>
+      <c r="A106" s="55"/>
       <c r="B106" s="21" t="s">
         <v>164</v>
       </c>
@@ -11167,7 +11170,7 @@
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="56"/>
+      <c r="A107" s="55"/>
       <c r="B107" s="21" t="s">
         <v>168</v>
       </c>
@@ -11187,7 +11190,7 @@
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="60" t="s">
+      <c r="A108" s="58" t="s">
         <v>846</v>
       </c>
       <c r="B108" s="47" t="s">
@@ -11209,7 +11212,7 @@
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="56"/>
+      <c r="A109" s="55"/>
       <c r="B109" s="21" t="s">
         <v>164</v>
       </c>
@@ -11229,7 +11232,7 @@
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="56"/>
+      <c r="A110" s="55"/>
       <c r="B110" s="21" t="s">
         <v>169</v>
       </c>
@@ -11249,7 +11252,7 @@
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="61" t="s">
+      <c r="A111" s="60" t="s">
         <v>170</v>
       </c>
       <c r="B111" s="21" t="s">
@@ -11271,7 +11274,7 @@
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="61"/>
+      <c r="A112" s="60"/>
       <c r="B112" s="29" t="s">
         <v>853</v>
       </c>
@@ -11291,7 +11294,7 @@
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="61"/>
+      <c r="A113" s="60"/>
       <c r="B113" s="21" t="s">
         <v>172</v>
       </c>
@@ -11311,7 +11314,7 @@
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="61"/>
+      <c r="A114" s="60"/>
       <c r="B114" s="21" t="s">
         <v>173</v>
       </c>
@@ -11331,7 +11334,7 @@
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="61" t="s">
+      <c r="A115" s="60" t="s">
         <v>174</v>
       </c>
       <c r="B115" s="21" t="s">
@@ -11353,7 +11356,7 @@
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="61"/>
+      <c r="A116" s="60"/>
       <c r="B116" s="21" t="s">
         <v>175</v>
       </c>
@@ -11373,7 +11376,7 @@
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="61"/>
+      <c r="A117" s="60"/>
       <c r="B117" s="21" t="s">
         <v>176</v>
       </c>
@@ -11393,7 +11396,7 @@
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="61"/>
+      <c r="A118" s="60"/>
       <c r="B118" s="21" t="s">
         <v>177</v>
       </c>
@@ -11413,7 +11416,7 @@
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="5" t="s">
+      <c r="A119" s="64" t="s">
         <v>178</v>
       </c>
       <c r="B119" s="21" t="s">
@@ -11435,7 +11438,7 @@
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="5"/>
+      <c r="A120" s="64"/>
       <c r="B120" s="21" t="s">
         <v>179</v>
       </c>
@@ -11455,7 +11458,7 @@
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="5"/>
+      <c r="A121" s="64"/>
       <c r="B121" s="53" t="s">
         <v>897</v>
       </c>
@@ -11475,7 +11478,7 @@
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="5"/>
+      <c r="A122" s="64"/>
       <c r="B122" s="37" t="s">
         <v>900</v>
       </c>
@@ -11495,7 +11498,7 @@
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="5"/>
+      <c r="A123" s="64"/>
       <c r="B123" s="37" t="s">
         <v>901</v>
       </c>
@@ -11515,7 +11518,7 @@
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="5"/>
+      <c r="A124" s="64"/>
       <c r="B124" s="21" t="s">
         <v>180</v>
       </c>
@@ -11533,7 +11536,7 @@
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="5"/>
+      <c r="A125" s="64"/>
       <c r="B125" s="21" t="s">
         <v>181</v>
       </c>
@@ -11551,7 +11554,7 @@
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="61" t="s">
+      <c r="A126" s="60" t="s">
         <v>831</v>
       </c>
       <c r="B126" s="21" t="s">
@@ -11573,7 +11576,7 @@
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="61"/>
+      <c r="A127" s="60"/>
       <c r="B127" s="29" t="s">
         <v>854</v>
       </c>
@@ -11593,7 +11596,7 @@
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="61"/>
+      <c r="A128" s="60"/>
       <c r="B128" s="21" t="s">
         <v>182</v>
       </c>
@@ -11611,7 +11614,7 @@
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="61"/>
+      <c r="A129" s="60"/>
       <c r="B129" s="21" t="s">
         <v>183</v>
       </c>
@@ -11653,12 +11656,14 @@
       <c r="D137" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A60:A70"/>
-    <mergeCell ref="A80:A86"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A29"/>
-    <mergeCell ref="A71:A79"/>
+  <mergeCells count="20">
+    <mergeCell ref="A87:A92"/>
+    <mergeCell ref="A93:A98"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="A40:A51"/>
     <mergeCell ref="A126:A129"/>
     <mergeCell ref="A111:A114"/>
     <mergeCell ref="A115:A118"/>
@@ -11666,12 +11671,12 @@
     <mergeCell ref="A99:A101"/>
     <mergeCell ref="A102:A104"/>
     <mergeCell ref="A105:A107"/>
-    <mergeCell ref="A87:A92"/>
-    <mergeCell ref="A93:A98"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="A119:A125"/>
+    <mergeCell ref="A60:A70"/>
+    <mergeCell ref="A80:A86"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A29"/>
+    <mergeCell ref="A71:A79"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="A1:B1">
@@ -11762,7 +11767,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="61" t="s">
         <v>184</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -11790,7 +11795,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A3" s="62"/>
+      <c r="A3" s="61"/>
       <c r="B3" s="15" t="s">
         <v>134</v>
       </c>
@@ -11816,7 +11821,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A4" s="62"/>
+      <c r="A4" s="61"/>
       <c r="B4" s="15" t="s">
         <v>135</v>
       </c>
@@ -11842,7 +11847,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A5" s="62"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="15" t="s">
         <v>188</v>
       </c>
@@ -11868,7 +11873,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A6" s="62"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="15" t="s">
         <v>190</v>
       </c>
@@ -11894,7 +11899,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="62"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="15" t="s">
         <v>192</v>
       </c>
@@ -11920,7 +11925,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="62"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="15" t="s">
         <v>194</v>
       </c>
@@ -11946,7 +11951,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A9" s="62"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="15" t="s">
         <v>196</v>
       </c>
@@ -11972,7 +11977,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A10" s="62"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="15" t="s">
         <v>146</v>
       </c>
@@ -11998,7 +12003,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A11" s="62"/>
+      <c r="A11" s="61"/>
       <c r="B11" s="15" t="s">
         <v>199</v>
       </c>
@@ -12024,7 +12029,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A12" s="62"/>
+      <c r="A12" s="61"/>
       <c r="B12" s="12" t="s">
         <v>201</v>
       </c>
@@ -12050,7 +12055,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A13" s="62"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="12" t="s">
         <v>203</v>
       </c>
@@ -12076,7 +12081,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A14" s="62"/>
+      <c r="A14" s="61"/>
       <c r="B14" s="15" t="s">
         <v>205</v>
       </c>
@@ -12102,7 +12107,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="61" t="s">
         <v>207</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -12130,7 +12135,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A16" s="62"/>
+      <c r="A16" s="61"/>
       <c r="B16" s="12" t="s">
         <v>210</v>
       </c>
@@ -12156,7 +12161,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A17" s="62"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="12" t="s">
         <v>212</v>
       </c>
@@ -12182,7 +12187,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A18" s="62"/>
+      <c r="A18" s="61"/>
       <c r="B18" s="12" t="s">
         <v>214</v>
       </c>
@@ -12208,7 +12213,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A19" s="62"/>
+      <c r="A19" s="61"/>
       <c r="B19" s="12" t="s">
         <v>216</v>
       </c>
@@ -12234,7 +12239,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A20" s="62"/>
+      <c r="A20" s="61"/>
       <c r="B20" s="12" t="s">
         <v>218</v>
       </c>
@@ -12260,7 +12265,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A21" s="62"/>
+      <c r="A21" s="61"/>
       <c r="B21" s="12" t="s">
         <v>220</v>
       </c>
@@ -12286,7 +12291,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A22" s="62"/>
+      <c r="A22" s="61"/>
       <c r="B22" s="12" t="s">
         <v>222</v>
       </c>
@@ -12312,7 +12317,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A23" s="62"/>
+      <c r="A23" s="61"/>
       <c r="B23" s="12" t="s">
         <v>224</v>
       </c>
@@ -12338,7 +12343,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A24" s="62"/>
+      <c r="A24" s="61"/>
       <c r="B24" s="12" t="s">
         <v>226</v>
       </c>
@@ -12364,7 +12369,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A25" s="62"/>
+      <c r="A25" s="61"/>
       <c r="B25" s="12" t="s">
         <v>52</v>
       </c>
@@ -12390,7 +12395,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="61" t="s">
         <v>228</v>
       </c>
       <c r="B26" s="15" t="s">
@@ -12418,7 +12423,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A27" s="62"/>
+      <c r="A27" s="61"/>
       <c r="B27" s="15" t="s">
         <v>231</v>
       </c>
@@ -12444,7 +12449,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A28" s="62"/>
+      <c r="A28" s="61"/>
       <c r="B28" s="15" t="s">
         <v>232</v>
       </c>
@@ -12470,7 +12475,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A29" s="62"/>
+      <c r="A29" s="61"/>
       <c r="B29" s="15" t="s">
         <v>52</v>
       </c>
@@ -12496,7 +12501,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A30" s="62" t="s">
+      <c r="A30" s="61" t="s">
         <v>234</v>
       </c>
       <c r="B30" s="15" t="s">
@@ -12524,7 +12529,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A31" s="62"/>
+      <c r="A31" s="61"/>
       <c r="B31" s="15" t="s">
         <v>199</v>
       </c>
@@ -12550,7 +12555,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A32" s="62"/>
+      <c r="A32" s="61"/>
       <c r="B32" s="15" t="s">
         <v>238</v>
       </c>
@@ -12576,7 +12581,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A33" s="62"/>
+      <c r="A33" s="61"/>
       <c r="B33" s="15" t="s">
         <v>52</v>
       </c>
@@ -12602,7 +12607,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A34" s="62" t="s">
+      <c r="A34" s="61" t="s">
         <v>240</v>
       </c>
       <c r="B34" s="15" t="s">
@@ -12630,7 +12635,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A35" s="62"/>
+      <c r="A35" s="61"/>
       <c r="B35" s="15" t="s">
         <v>243</v>
       </c>
@@ -12656,7 +12661,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A36" s="62"/>
+      <c r="A36" s="61"/>
       <c r="B36" s="15" t="s">
         <v>245</v>
       </c>
@@ -12682,7 +12687,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A37" s="62"/>
+      <c r="A37" s="61"/>
       <c r="B37" s="15" t="s">
         <v>52</v>
       </c>
@@ -12708,7 +12713,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A38" s="62" t="s">
+      <c r="A38" s="61" t="s">
         <v>247</v>
       </c>
       <c r="B38" s="15" t="s">
@@ -12736,7 +12741,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A39" s="62"/>
+      <c r="A39" s="61"/>
       <c r="B39" s="15" t="s">
         <v>248</v>
       </c>
@@ -12762,7 +12767,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A40" s="62"/>
+      <c r="A40" s="61"/>
       <c r="B40" s="15" t="s">
         <v>250</v>
       </c>
@@ -12788,7 +12793,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A41" s="62"/>
+      <c r="A41" s="61"/>
       <c r="B41" s="15" t="s">
         <v>199</v>
       </c>
@@ -12814,7 +12819,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A42" s="62" t="s">
+      <c r="A42" s="61" t="s">
         <v>252</v>
       </c>
       <c r="B42" s="12" t="s">
@@ -12842,7 +12847,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A43" s="62"/>
+      <c r="A43" s="61"/>
       <c r="B43" s="12" t="s">
         <v>253</v>
       </c>
@@ -12868,7 +12873,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A44" s="62"/>
+      <c r="A44" s="61"/>
       <c r="B44" s="12" t="s">
         <v>255</v>
       </c>
@@ -12894,7 +12899,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A45" s="62"/>
+      <c r="A45" s="61"/>
       <c r="B45" s="12" t="s">
         <v>257</v>
       </c>
@@ -12920,7 +12925,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A46" s="62"/>
+      <c r="A46" s="61"/>
       <c r="B46" s="12" t="s">
         <v>259</v>
       </c>
@@ -12946,7 +12951,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A47" s="62"/>
+      <c r="A47" s="61"/>
       <c r="B47" s="12" t="s">
         <v>261</v>
       </c>
@@ -12972,7 +12977,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A48" s="62"/>
+      <c r="A48" s="61"/>
       <c r="B48" s="12" t="s">
         <v>263</v>
       </c>
@@ -12998,7 +13003,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A49" s="62"/>
+      <c r="A49" s="61"/>
       <c r="B49" s="12" t="s">
         <v>265</v>
       </c>
@@ -13024,7 +13029,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A50" s="62"/>
+      <c r="A50" s="61"/>
       <c r="B50" s="12" t="s">
         <v>267</v>
       </c>
@@ -13050,7 +13055,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A51" s="62"/>
+      <c r="A51" s="61"/>
       <c r="B51" s="12" t="s">
         <v>269</v>
       </c>
@@ -13076,7 +13081,7 @@
       </c>
     </row>
     <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A52" s="62" t="s">
+      <c r="A52" s="61" t="s">
         <v>271</v>
       </c>
       <c r="B52" s="12" t="s">
@@ -13104,7 +13109,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A53" s="62"/>
+      <c r="A53" s="61"/>
       <c r="B53" s="12" t="s">
         <v>273</v>
       </c>
@@ -13130,7 +13135,7 @@
       </c>
     </row>
     <row r="54" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A54" s="62"/>
+      <c r="A54" s="61"/>
       <c r="B54" s="12" t="s">
         <v>275</v>
       </c>
@@ -13156,7 +13161,7 @@
       </c>
     </row>
     <row r="55" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A55" s="62"/>
+      <c r="A55" s="61"/>
       <c r="B55" s="12" t="s">
         <v>277</v>
       </c>
@@ -13182,7 +13187,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A56" s="62"/>
+      <c r="A56" s="61"/>
       <c r="B56" s="12" t="s">
         <v>279</v>
       </c>
@@ -13208,7 +13213,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A57" s="62"/>
+      <c r="A57" s="61"/>
       <c r="B57" s="12" t="s">
         <v>280</v>
       </c>
@@ -13234,7 +13239,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A58" s="62"/>
+      <c r="A58" s="61"/>
       <c r="B58" s="12" t="s">
         <v>19</v>
       </c>
@@ -13260,7 +13265,7 @@
       </c>
     </row>
     <row r="59" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A59" s="62"/>
+      <c r="A59" s="61"/>
       <c r="B59" s="12" t="s">
         <v>259</v>
       </c>
@@ -13286,7 +13291,7 @@
       </c>
     </row>
     <row r="60" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A60" s="62"/>
+      <c r="A60" s="61"/>
       <c r="B60" s="12" t="s">
         <v>282</v>
       </c>
@@ -13312,7 +13317,7 @@
       </c>
     </row>
     <row r="61" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A61" s="62"/>
+      <c r="A61" s="61"/>
       <c r="B61" s="12" t="s">
         <v>261</v>
       </c>
@@ -13338,7 +13343,7 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A62" s="62"/>
+      <c r="A62" s="61"/>
       <c r="B62" s="12" t="s">
         <v>255</v>
       </c>
@@ -13364,7 +13369,7 @@
       </c>
     </row>
     <row r="63" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A63" s="62"/>
+      <c r="A63" s="61"/>
       <c r="B63" s="12" t="s">
         <v>284</v>
       </c>
@@ -13390,7 +13395,7 @@
       </c>
     </row>
     <row r="64" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A64" s="62"/>
+      <c r="A64" s="61"/>
       <c r="B64" s="12" t="s">
         <v>263</v>
       </c>
@@ -13416,7 +13421,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A65" s="62"/>
+      <c r="A65" s="61"/>
       <c r="B65" s="12" t="s">
         <v>286</v>
       </c>
@@ -13442,7 +13447,7 @@
       </c>
     </row>
     <row r="66" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A66" s="62"/>
+      <c r="A66" s="61"/>
       <c r="B66" s="12" t="s">
         <v>287</v>
       </c>
@@ -13468,7 +13473,7 @@
       </c>
     </row>
     <row r="67" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A67" s="62"/>
+      <c r="A67" s="61"/>
       <c r="B67" s="12" t="s">
         <v>265</v>
       </c>
@@ -13494,7 +13499,7 @@
       </c>
     </row>
     <row r="68" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A68" s="62"/>
+      <c r="A68" s="61"/>
       <c r="B68" s="12" t="s">
         <v>288</v>
       </c>
@@ -13520,7 +13525,7 @@
       </c>
     </row>
     <row r="69" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A69" s="62"/>
+      <c r="A69" s="61"/>
       <c r="B69" s="12" t="s">
         <v>199</v>
       </c>
@@ -13546,7 +13551,7 @@
       </c>
     </row>
     <row r="70" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A70" s="62"/>
+      <c r="A70" s="61"/>
       <c r="B70" s="12" t="s">
         <v>291</v>
       </c>
@@ -13572,7 +13577,7 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A71" s="62"/>
+      <c r="A71" s="61"/>
       <c r="B71" s="12" t="s">
         <v>292</v>
       </c>
@@ -13598,7 +13603,7 @@
       </c>
     </row>
     <row r="72" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A72" s="62"/>
+      <c r="A72" s="61"/>
       <c r="B72" s="12" t="s">
         <v>293</v>
       </c>
@@ -13624,7 +13629,7 @@
       </c>
     </row>
     <row r="73" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A73" s="62"/>
+      <c r="A73" s="61"/>
       <c r="B73" s="12" t="s">
         <v>294</v>
       </c>
@@ -13650,7 +13655,7 @@
       </c>
     </row>
     <row r="74" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A74" s="62"/>
+      <c r="A74" s="61"/>
       <c r="B74" s="12" t="s">
         <v>196</v>
       </c>
@@ -13676,7 +13681,7 @@
       </c>
     </row>
     <row r="75" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A75" s="62"/>
+      <c r="A75" s="61"/>
       <c r="B75" s="12" t="s">
         <v>295</v>
       </c>
@@ -13702,7 +13707,7 @@
       </c>
     </row>
     <row r="76" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A76" s="62"/>
+      <c r="A76" s="61"/>
       <c r="B76" s="12" t="s">
         <v>297</v>
       </c>
@@ -13728,7 +13733,7 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A77" s="62"/>
+      <c r="A77" s="61"/>
       <c r="B77" s="12" t="s">
         <v>298</v>
       </c>
@@ -13754,7 +13759,7 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A78" s="62"/>
+      <c r="A78" s="61"/>
       <c r="B78" s="12" t="s">
         <v>299</v>
       </c>
@@ -13780,7 +13785,7 @@
       </c>
     </row>
     <row r="79" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A79" s="62"/>
+      <c r="A79" s="61"/>
       <c r="B79" s="12" t="s">
         <v>300</v>
       </c>
@@ -13806,7 +13811,7 @@
       </c>
     </row>
     <row r="80" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A80" s="62"/>
+      <c r="A80" s="61"/>
       <c r="B80" s="12" t="s">
         <v>301</v>
       </c>
@@ -13832,7 +13837,7 @@
       </c>
     </row>
     <row r="81" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A81" s="62"/>
+      <c r="A81" s="61"/>
       <c r="B81" s="12" t="s">
         <v>302</v>
       </c>
@@ -13858,7 +13863,7 @@
       </c>
     </row>
     <row r="82" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A82" s="62"/>
+      <c r="A82" s="61"/>
       <c r="B82" s="12" t="s">
         <v>303</v>
       </c>
@@ -13884,7 +13889,7 @@
       </c>
     </row>
     <row r="83" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A83" s="62"/>
+      <c r="A83" s="61"/>
       <c r="B83" s="12" t="s">
         <v>304</v>
       </c>
@@ -13910,7 +13915,7 @@
       </c>
     </row>
     <row r="84" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A84" s="62"/>
+      <c r="A84" s="61"/>
       <c r="B84" s="12" t="s">
         <v>305</v>
       </c>
@@ -13936,7 +13941,7 @@
       </c>
     </row>
     <row r="85" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A85" s="62"/>
+      <c r="A85" s="61"/>
       <c r="B85" s="12" t="s">
         <v>257</v>
       </c>
@@ -13962,7 +13967,7 @@
       </c>
     </row>
     <row r="86" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A86" s="62"/>
+      <c r="A86" s="61"/>
       <c r="B86" s="12" t="s">
         <v>306</v>
       </c>
@@ -13988,7 +13993,7 @@
       </c>
     </row>
     <row r="87" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A87" s="62"/>
+      <c r="A87" s="61"/>
       <c r="B87" s="12" t="s">
         <v>307</v>
       </c>
@@ -14014,7 +14019,7 @@
       </c>
     </row>
     <row r="88" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A88" s="62"/>
+      <c r="A88" s="61"/>
       <c r="B88" s="12" t="s">
         <v>309</v>
       </c>
@@ -14040,7 +14045,7 @@
       </c>
     </row>
     <row r="89" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A89" s="62"/>
+      <c r="A89" s="61"/>
       <c r="B89" s="12" t="s">
         <v>311</v>
       </c>
@@ -14066,7 +14071,7 @@
       </c>
     </row>
     <row r="90" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A90" s="62"/>
+      <c r="A90" s="61"/>
       <c r="B90" s="12" t="s">
         <v>313</v>
       </c>
@@ -14092,7 +14097,7 @@
       </c>
     </row>
     <row r="91" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A91" s="62"/>
+      <c r="A91" s="61"/>
       <c r="B91" s="12" t="s">
         <v>315</v>
       </c>
@@ -14118,7 +14123,7 @@
       </c>
     </row>
     <row r="92" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A92" s="62"/>
+      <c r="A92" s="61"/>
       <c r="B92" s="12" t="s">
         <v>316</v>
       </c>
@@ -14144,7 +14149,7 @@
       </c>
     </row>
     <row r="93" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A93" s="62" t="s">
+      <c r="A93" s="61" t="s">
         <v>318</v>
       </c>
       <c r="B93" s="12" t="s">
@@ -14172,7 +14177,7 @@
       </c>
     </row>
     <row r="94" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A94" s="62"/>
+      <c r="A94" s="61"/>
       <c r="B94" s="12" t="s">
         <v>320</v>
       </c>
@@ -14293,7 +14298,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="55" t="s">
         <v>322</v>
       </c>
       <c r="B2" t="s">
@@ -14311,7 +14316,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
+      <c r="A3" s="55"/>
       <c r="B3" t="s">
         <v>325</v>
       </c>
@@ -14327,7 +14332,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
+      <c r="A4" s="55"/>
       <c r="B4" t="s">
         <v>327</v>
       </c>
@@ -14338,7 +14343,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="55" t="s">
         <v>329</v>
       </c>
       <c r="B5" t="s">
@@ -14356,7 +14361,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
+      <c r="A6" s="55"/>
       <c r="B6" t="s">
         <v>331</v>
       </c>
@@ -14372,7 +14377,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
+      <c r="A7" s="55"/>
       <c r="B7" t="s">
         <v>333</v>
       </c>
@@ -14388,7 +14393,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="56"/>
+      <c r="A8" s="55"/>
       <c r="B8" t="s">
         <v>335</v>
       </c>
@@ -14404,7 +14409,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="56"/>
+      <c r="A9" s="55"/>
       <c r="B9" t="s">
         <v>337</v>
       </c>
@@ -14420,7 +14425,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="55" t="s">
         <v>339</v>
       </c>
       <c r="B10" t="s">
@@ -14438,7 +14443,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="56"/>
+      <c r="A11" s="55"/>
       <c r="B11" t="s">
         <v>340</v>
       </c>
@@ -14454,7 +14459,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="56"/>
+      <c r="A12" s="55"/>
       <c r="B12" t="s">
         <v>342</v>
       </c>
@@ -14561,7 +14566,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
+      <c r="A2" s="55"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="10"/>
@@ -14572,7 +14577,7 @@
       <c r="K2" s="11"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
+      <c r="A3" s="55"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="10"/>
@@ -14583,7 +14588,7 @@
       <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
+      <c r="A4" s="55"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="10"/>
@@ -14594,7 +14599,7 @@
       <c r="K4" s="11"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
+      <c r="A5" s="55"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="10"/>
@@ -14605,7 +14610,7 @@
       <c r="K5" s="11"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
+      <c r="A6" s="55"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="10"/>
@@ -14616,7 +14621,7 @@
       <c r="K6" s="11"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
+      <c r="A7" s="55"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="10"/>
@@ -14627,7 +14632,7 @@
       <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="56"/>
+      <c r="A8" s="55"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="10"/>
@@ -14638,7 +14643,7 @@
       <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="56"/>
+      <c r="A9" s="55"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="10"/>
@@ -14649,7 +14654,7 @@
       <c r="K9" s="11"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="56"/>
+      <c r="A10" s="55"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="10"/>
@@ -14660,13 +14665,13 @@
       <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="56"/>
+      <c r="A11" s="55"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="K11" s="11"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="56"/>
+      <c r="A12" s="55"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="10"/>
@@ -14677,7 +14682,7 @@
       <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="56"/>
+      <c r="A13" s="55"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="10"/>
@@ -14688,7 +14693,7 @@
       <c r="K13" s="11"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="56"/>
+      <c r="A14" s="55"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="10"/>
@@ -14699,7 +14704,7 @@
       <c r="K14" s="11"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
+      <c r="A15" s="55"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="10"/>
@@ -14710,7 +14715,7 @@
       <c r="K15" s="11"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
+      <c r="A16" s="55"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="10"/>
@@ -14721,7 +14726,7 @@
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="56"/>
+      <c r="A17" s="55"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="10"/>
@@ -14732,7 +14737,7 @@
       <c r="K17" s="11"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="56"/>
+      <c r="A18" s="55"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="10"/>
@@ -14743,7 +14748,7 @@
       <c r="K18" s="11"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="56"/>
+      <c r="A19" s="55"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="10"/>
@@ -14754,7 +14759,7 @@
       <c r="K19" s="11"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="56"/>
+      <c r="A20" s="55"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="10"/>
@@ -14765,7 +14770,7 @@
       <c r="K20" s="11"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="56"/>
+      <c r="A21" s="55"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="10"/>
@@ -14776,7 +14781,7 @@
       <c r="K21" s="11"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="56"/>
+      <c r="A22" s="55"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="10"/>
@@ -14787,7 +14792,7 @@
       <c r="K22" s="11"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="56"/>
+      <c r="A23" s="55"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="10"/>
@@ -14798,7 +14803,7 @@
       <c r="K23" s="11"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
+      <c r="A24" s="55"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="10"/>
@@ -14809,7 +14814,7 @@
       <c r="K24" s="11"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
+      <c r="A25" s="55"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="10"/>
@@ -14820,151 +14825,151 @@
       <c r="K25" s="11"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
+      <c r="A26" s="55"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="K26" s="11"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="56"/>
+      <c r="A27" s="55"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="K27" s="11"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="56"/>
+      <c r="A28" s="55"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="K28" s="11"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="56"/>
+      <c r="A29" s="55"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="K29" s="11"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="56"/>
+      <c r="A30" s="55"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="K30" s="11"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="56"/>
+      <c r="A31" s="55"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="K31" s="11"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="56"/>
+      <c r="A32" s="55"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="K32" s="11"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="56"/>
+      <c r="A33" s="55"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="K33" s="11"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="56"/>
+      <c r="A34" s="55"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="K34" s="11"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="56"/>
+      <c r="A35" s="55"/>
       <c r="K35" s="11"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="56"/>
+      <c r="A36" s="55"/>
       <c r="K36" s="11"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="56"/>
+      <c r="A37" s="55"/>
       <c r="K37" s="11"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="56"/>
+      <c r="A38" s="55"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="K38" s="11"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="56"/>
+      <c r="A39" s="55"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="K39" s="11"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="56"/>
+      <c r="A40" s="55"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="K40" s="11"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="56"/>
+      <c r="A41" s="55"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="K41" s="11"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="56"/>
+      <c r="A42" s="55"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="K42" s="11"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="56"/>
+      <c r="A43" s="55"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="K43" s="11"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="56"/>
+      <c r="A44" s="55"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="K44" s="11"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="56"/>
+      <c r="A45" s="55"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="K45" s="11"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="56"/>
+      <c r="A46" s="55"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="K46" s="11"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="56"/>
+      <c r="A47" s="55"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="K47" s="11"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="56"/>
+      <c r="A48" s="55"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="K48" s="11"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="56"/>
+      <c r="A49" s="55"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="K49" s="11"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="56"/>
+      <c r="A50" s="55"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="K50" s="11"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="56"/>
+      <c r="A51" s="55"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="K51" s="11"/>
@@ -15065,7 +15070,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="55" t="s">
         <v>344</v>
       </c>
       <c r="B2" t="s">
@@ -15087,7 +15092,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
+      <c r="A3" s="55"/>
       <c r="B3" t="s">
         <v>121</v>
       </c>
@@ -15107,7 +15112,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
+      <c r="A4" s="55"/>
       <c r="B4" t="s">
         <v>97</v>
       </c>
@@ -15127,7 +15132,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
+      <c r="A5" s="55"/>
       <c r="B5" t="s">
         <v>166</v>
       </c>
@@ -15147,7 +15152,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
+      <c r="A6" s="55"/>
       <c r="B6" t="s">
         <v>141</v>
       </c>
@@ -15167,7 +15172,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
+      <c r="A7" s="55"/>
       <c r="B7" t="s">
         <v>350</v>
       </c>
@@ -15187,7 +15192,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="56"/>
+      <c r="A8" s="55"/>
       <c r="B8" t="s">
         <v>352</v>
       </c>
@@ -15207,7 +15212,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="56"/>
+      <c r="A9" s="55"/>
       <c r="B9" t="s">
         <v>354</v>
       </c>
@@ -15227,7 +15232,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="56"/>
+      <c r="A10" s="55"/>
       <c r="B10" t="s">
         <v>356</v>
       </c>
@@ -15247,7 +15252,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="56"/>
+      <c r="A11" s="55"/>
       <c r="B11" t="s">
         <v>358</v>
       </c>
@@ -15267,7 +15272,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="56"/>
+      <c r="A12" s="55"/>
       <c r="B12" t="s">
         <v>360</v>
       </c>
@@ -15287,7 +15292,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="56"/>
+      <c r="A13" s="55"/>
       <c r="B13" t="s">
         <v>362</v>
       </c>
@@ -15307,7 +15312,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="56"/>
+      <c r="A14" s="55"/>
       <c r="B14" t="s">
         <v>364</v>
       </c>
@@ -15327,7 +15332,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
+      <c r="A15" s="55"/>
       <c r="B15" t="s">
         <v>365</v>
       </c>
@@ -15347,7 +15352,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
+      <c r="A16" s="55"/>
       <c r="B16" t="s">
         <v>38</v>
       </c>
@@ -15363,7 +15368,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="55" t="s">
         <v>369</v>
       </c>
       <c r="B17" t="s">
@@ -15385,7 +15390,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="56"/>
+      <c r="A18" s="55"/>
       <c r="B18" t="s">
         <v>166</v>
       </c>
@@ -15405,7 +15410,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="56"/>
+      <c r="A19" s="55"/>
       <c r="B19" t="s">
         <v>139</v>
       </c>
@@ -15425,7 +15430,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="56"/>
+      <c r="A20" s="55"/>
       <c r="B20" t="s">
         <v>257</v>
       </c>
@@ -15445,7 +15450,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="56"/>
+      <c r="A21" s="55"/>
       <c r="B21" t="s">
         <v>372</v>
       </c>
@@ -15465,7 +15470,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="56"/>
+      <c r="A22" s="55"/>
       <c r="B22" t="s">
         <v>374</v>
       </c>
@@ -15485,7 +15490,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="56"/>
+      <c r="A23" s="55"/>
       <c r="B23" t="s">
         <v>376</v>
       </c>
@@ -15505,7 +15510,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
+      <c r="A24" s="55"/>
       <c r="B24" t="s">
         <v>378</v>
       </c>
@@ -15525,7 +15530,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
+      <c r="A25" s="55"/>
       <c r="B25" t="s">
         <v>380</v>
       </c>
@@ -15545,7 +15550,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
+      <c r="A26" s="55"/>
       <c r="B26" t="s">
         <v>382</v>
       </c>
@@ -15565,7 +15570,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="56"/>
+      <c r="A27" s="55"/>
       <c r="B27" t="s">
         <v>384</v>
       </c>
@@ -15585,7 +15590,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="56"/>
+      <c r="A28" s="55"/>
       <c r="B28" t="s">
         <v>38</v>
       </c>
@@ -15601,7 +15606,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="55" t="s">
         <v>386</v>
       </c>
       <c r="B29" t="s">
@@ -15622,7 +15627,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="56"/>
+      <c r="A30" s="55"/>
       <c r="B30" t="s">
         <v>166</v>
       </c>
@@ -15641,7 +15646,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="56"/>
+      <c r="A31" s="55"/>
       <c r="B31" t="s">
         <v>388</v>
       </c>
@@ -15660,7 +15665,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="56"/>
+      <c r="A32" s="55"/>
       <c r="B32" t="s">
         <v>121</v>
       </c>
@@ -15679,7 +15684,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="56" t="s">
+      <c r="A33" s="55" t="s">
         <v>390</v>
       </c>
       <c r="B33" t="s">
@@ -15700,7 +15705,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="56"/>
+      <c r="A34" s="55"/>
       <c r="B34" t="s">
         <v>166</v>
       </c>
@@ -15719,7 +15724,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="56"/>
+      <c r="A35" s="55"/>
       <c r="B35" t="s">
         <v>121</v>
       </c>
@@ -15738,7 +15743,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="56"/>
+      <c r="A36" s="55"/>
       <c r="B36" t="s">
         <v>38</v>
       </c>
@@ -15845,7 +15850,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="55" t="s">
         <v>391</v>
       </c>
       <c r="B2" t="s">
@@ -15863,7 +15868,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
+      <c r="A3" s="55"/>
       <c r="B3" t="s">
         <v>134</v>
       </c>
@@ -15879,7 +15884,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
+      <c r="A4" s="55"/>
       <c r="B4" t="s">
         <v>199</v>
       </c>
@@ -15892,12 +15897,12 @@
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
+      <c r="A5" s="55"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="55" t="s">
         <v>393</v>
       </c>
       <c r="B6" t="s">
@@ -15915,7 +15920,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
+      <c r="A7" s="55"/>
       <c r="B7" t="s">
         <v>395</v>
       </c>
@@ -15931,7 +15936,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="56"/>
+      <c r="A8" s="55"/>
       <c r="B8" t="s">
         <v>199</v>
       </c>
@@ -15947,7 +15952,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="56"/>
+      <c r="A9" s="55"/>
       <c r="B9" t="s">
         <v>397</v>
       </c>
@@ -15963,7 +15968,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="56"/>
+      <c r="A10" s="55"/>
       <c r="B10" t="s">
         <v>399</v>
       </c>
@@ -15979,7 +15984,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A11" s="56"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="12" t="s">
         <v>401</v>
       </c>
@@ -15995,7 +16000,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="56"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="9" t="s">
         <v>403</v>
       </c>
@@ -16011,7 +16016,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="56"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="9" t="s">
         <v>405</v>
       </c>
@@ -16027,7 +16032,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="56"/>
+      <c r="A14" s="55"/>
       <c r="B14" s="9" t="s">
         <v>407</v>
       </c>
@@ -16043,7 +16048,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="9" t="s">
         <v>409</v>
       </c>
@@ -16059,7 +16064,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="9" t="s">
         <v>411</v>
       </c>
@@ -16075,7 +16080,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="56"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="9" t="s">
         <v>413</v>
       </c>
@@ -16091,7 +16096,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="56"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="9" t="s">
         <v>415</v>
       </c>
@@ -16107,7 +16112,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="56"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="9" t="s">
         <v>417</v>
       </c>
@@ -16123,7 +16128,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="56"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="9" t="s">
         <v>419</v>
       </c>
@@ -16139,7 +16144,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="56"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="9" t="s">
         <v>114</v>
       </c>
@@ -16152,7 +16157,7 @@
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="56"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="9" t="s">
         <v>421</v>
       </c>
@@ -16165,7 +16170,7 @@
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="55" t="s">
         <v>422</v>
       </c>
       <c r="C23" s="8"/>
@@ -16177,7 +16182,7 @@
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
+      <c r="A24" s="55"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="10"/>
@@ -16187,7 +16192,7 @@
       <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
+      <c r="A25" s="55"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="10"/>
@@ -16197,7 +16202,7 @@
       <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
+      <c r="A26" s="55"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="10"/>
@@ -16361,7 +16366,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="55" t="s">
         <v>423</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -16380,7 +16385,7 @@
       <c r="K2" s="11"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="9" t="s">
         <v>426</v>
       </c>
@@ -16397,7 +16402,7 @@
       <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="9" t="s">
         <v>428</v>
       </c>
@@ -16414,7 +16419,7 @@
       <c r="K4" s="11"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="9" t="s">
         <v>430</v>
       </c>
@@ -16431,7 +16436,7 @@
       <c r="K5" s="11"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="9" t="s">
         <v>432</v>
       </c>
@@ -16448,7 +16453,7 @@
       <c r="K6" s="11"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="9" t="s">
         <v>434</v>
       </c>
@@ -16465,7 +16470,7 @@
       <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="56"/>
+      <c r="A8" s="55"/>
       <c r="B8" t="s">
         <v>38</v>
       </c>
@@ -16482,7 +16487,7 @@
       <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="55" t="s">
         <v>436</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -16501,7 +16506,7 @@
       <c r="K9" s="11"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="56"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="9" t="s">
         <v>437</v>
       </c>
@@ -16518,7 +16523,7 @@
       <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="56"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="9" t="s">
         <v>439</v>
       </c>
@@ -16535,7 +16540,7 @@
       <c r="K11" s="11"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="56"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="9" t="s">
         <v>441</v>
       </c>
@@ -16547,7 +16552,7 @@
       <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="56"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="9" t="s">
         <v>443</v>
       </c>
@@ -16564,7 +16569,7 @@
       <c r="K13" s="11"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="56"/>
+      <c r="A14" s="55"/>
       <c r="B14" s="9" t="s">
         <v>445</v>
       </c>
@@ -16581,7 +16586,7 @@
       <c r="K14" s="11"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
+      <c r="A15" s="55"/>
       <c r="B15" t="s">
         <v>38</v>
       </c>
@@ -16598,7 +16603,7 @@
       <c r="K15" s="11"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="55" t="s">
         <v>447</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -16617,7 +16622,7 @@
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="56"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="9" t="s">
         <v>426</v>
       </c>
@@ -16634,7 +16639,7 @@
       <c r="K17" s="11"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="56"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="9" t="s">
         <v>424</v>
       </c>
@@ -16646,7 +16651,7 @@
       <c r="K18" s="11"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="56"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="9" t="s">
         <v>449</v>
       </c>
@@ -16658,7 +16663,7 @@
       <c r="K19" s="11"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="56"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="9" t="s">
         <v>451</v>
       </c>
@@ -16670,7 +16675,7 @@
       <c r="K20" s="11"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="56"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="9" t="s">
         <v>453</v>
       </c>
@@ -16682,7 +16687,7 @@
       <c r="K21" s="11"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="56"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="9" t="s">
         <v>455</v>
       </c>
@@ -16694,7 +16699,7 @@
       <c r="K22" s="11"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="56"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="9" t="s">
         <v>457</v>
       </c>
@@ -16706,7 +16711,7 @@
       <c r="K23" s="11"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
+      <c r="A24" s="55"/>
       <c r="B24" s="9" t="s">
         <v>284</v>
       </c>
@@ -16718,7 +16723,7 @@
       <c r="K24" s="11"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="9" t="s">
         <v>199</v>
       </c>
@@ -16728,7 +16733,7 @@
       <c r="K25" s="11"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
+      <c r="A26" s="55"/>
       <c r="B26" t="s">
         <v>38</v>
       </c>
@@ -16738,7 +16743,7 @@
       <c r="K26" s="11"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="56" t="s">
+      <c r="A27" s="55" t="s">
         <v>460</v>
       </c>
       <c r="B27" s="9" t="s">
@@ -16752,7 +16757,7 @@
       <c r="K27" s="11"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="56"/>
+      <c r="A28" s="55"/>
       <c r="B28" s="9" t="s">
         <v>364</v>
       </c>
@@ -16764,7 +16769,7 @@
       <c r="K28" s="11"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="56"/>
+      <c r="A29" s="55"/>
       <c r="B29" s="9" t="s">
         <v>461</v>
       </c>
@@ -16776,7 +16781,7 @@
       <c r="K29" s="11"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="56"/>
+      <c r="A30" s="55"/>
       <c r="B30" s="9" t="s">
         <v>463</v>
       </c>
@@ -16788,7 +16793,7 @@
       <c r="K30" s="11"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="56"/>
+      <c r="A31" s="55"/>
       <c r="B31" s="9" t="s">
         <v>465</v>
       </c>
@@ -16800,7 +16805,7 @@
       <c r="K31" s="11"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="56"/>
+      <c r="A32" s="55"/>
       <c r="B32" s="9" t="s">
         <v>467</v>
       </c>
@@ -16809,7 +16814,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="56"/>
+      <c r="A33" s="55"/>
       <c r="B33" s="9" t="s">
         <v>469</v>
       </c>
@@ -16818,7 +16823,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="56"/>
+      <c r="A34" s="55"/>
       <c r="B34" s="9" t="s">
         <v>424</v>
       </c>
@@ -16827,7 +16832,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="56"/>
+      <c r="A35" s="55"/>
       <c r="B35" s="9" t="s">
         <v>426</v>
       </c>
@@ -16836,7 +16841,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="56"/>
+      <c r="A36" s="55"/>
       <c r="B36" s="9" t="s">
         <v>437</v>
       </c>
@@ -16845,7 +16850,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="56"/>
+      <c r="A37" s="55"/>
       <c r="B37" s="9" t="s">
         <v>473</v>
       </c>
@@ -16854,7 +16859,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="56"/>
+      <c r="A38" s="55"/>
       <c r="B38" s="9" t="s">
         <v>451</v>
       </c>
@@ -16863,7 +16868,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="56"/>
+      <c r="A39" s="55"/>
       <c r="B39" s="9" t="s">
         <v>474</v>
       </c>
@@ -16872,7 +16877,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="56"/>
+      <c r="A40" s="55"/>
       <c r="B40" s="9" t="s">
         <v>56</v>
       </c>
@@ -16881,7 +16886,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="56"/>
+      <c r="A41" s="55"/>
       <c r="B41" s="9" t="s">
         <v>476</v>
       </c>
@@ -16890,7 +16895,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="56"/>
+      <c r="A42" s="55"/>
       <c r="B42" s="9" t="s">
         <v>478</v>
       </c>
@@ -16899,7 +16904,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="56"/>
+      <c r="A43" s="55"/>
       <c r="B43" s="9" t="s">
         <v>480</v>
       </c>
@@ -16908,7 +16913,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="56"/>
+      <c r="A44" s="55"/>
       <c r="B44" s="9" t="s">
         <v>364</v>
       </c>
@@ -16917,7 +16922,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="56"/>
+      <c r="A45" s="55"/>
       <c r="B45" t="s">
         <v>38</v>
       </c>
@@ -16926,7 +16931,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="56" t="s">
+      <c r="A46" s="55" t="s">
         <v>482</v>
       </c>
       <c r="B46" s="9" t="s">
@@ -16937,7 +16942,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="56"/>
+      <c r="A47" s="55"/>
       <c r="B47" s="9" t="s">
         <v>463</v>
       </c>
@@ -16946,7 +16951,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="56"/>
+      <c r="A48" s="55"/>
       <c r="B48" s="9" t="s">
         <v>484</v>
       </c>
@@ -16955,7 +16960,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="56"/>
+      <c r="A49" s="55"/>
       <c r="B49" s="9" t="s">
         <v>424</v>
       </c>
@@ -16964,7 +16969,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="56"/>
+      <c r="A50" s="55"/>
       <c r="B50" s="9" t="s">
         <v>426</v>
       </c>
@@ -16973,7 +16978,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="56"/>
+      <c r="A51" s="55"/>
       <c r="B51" s="9" t="s">
         <v>284</v>
       </c>
@@ -16982,7 +16987,7 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="56"/>
+      <c r="A52" s="55"/>
       <c r="B52" t="s">
         <v>38</v>
       </c>
@@ -16991,7 +16996,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="56" t="s">
+      <c r="A53" s="55" t="s">
         <v>486</v>
       </c>
       <c r="B53" s="9" t="s">
@@ -17002,7 +17007,7 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="56"/>
+      <c r="A54" s="55"/>
       <c r="B54" s="9" t="s">
         <v>426</v>
       </c>
@@ -17011,7 +17016,7 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="56"/>
+      <c r="A55" s="55"/>
       <c r="B55" s="9" t="s">
         <v>364</v>
       </c>
@@ -17020,7 +17025,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="56"/>
+      <c r="A56" s="55"/>
       <c r="B56" s="9" t="s">
         <v>16</v>
       </c>
@@ -17029,7 +17034,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="56"/>
+      <c r="A57" s="55"/>
       <c r="B57" s="9" t="s">
         <v>487</v>
       </c>
@@ -17038,7 +17043,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="56"/>
+      <c r="A58" s="55"/>
       <c r="B58" s="9" t="s">
         <v>465</v>
       </c>
@@ -17047,7 +17052,7 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="56"/>
+      <c r="A59" s="55"/>
       <c r="B59" s="9" t="s">
         <v>488</v>
       </c>
@@ -17056,7 +17061,7 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="56"/>
+      <c r="A60" s="55"/>
       <c r="B60" s="9" t="s">
         <v>490</v>
       </c>
@@ -17065,7 +17070,7 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="56"/>
+      <c r="A61" s="55"/>
       <c r="B61" s="9" t="s">
         <v>476</v>
       </c>
@@ -17074,7 +17079,7 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="56"/>
+      <c r="A62" s="55"/>
       <c r="B62" t="s">
         <v>38</v>
       </c>
@@ -17083,7 +17088,7 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="56" t="s">
+      <c r="A63" s="55" t="s">
         <v>493</v>
       </c>
       <c r="B63" s="9" t="s">
@@ -17094,7 +17099,7 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="56"/>
+      <c r="A64" s="55"/>
       <c r="B64" s="9" t="s">
         <v>494</v>
       </c>
@@ -17103,7 +17108,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="56"/>
+      <c r="A65" s="55"/>
       <c r="B65" s="9" t="s">
         <v>426</v>
       </c>
@@ -17112,7 +17117,7 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="56"/>
+      <c r="A66" s="55"/>
       <c r="B66" s="9" t="s">
         <v>437</v>
       </c>
@@ -17121,7 +17126,7 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="56"/>
+      <c r="A67" s="55"/>
       <c r="B67" s="9" t="s">
         <v>284</v>
       </c>
@@ -17130,7 +17135,7 @@
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="56"/>
+      <c r="A68" s="55"/>
       <c r="B68" t="s">
         <v>38</v>
       </c>
@@ -17233,7 +17238,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
+      <c r="A2" s="55"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="10"/>
@@ -17243,7 +17248,7 @@
       <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
+      <c r="A3" s="55"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="10"/>
@@ -17253,7 +17258,7 @@
       <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
+      <c r="A4" s="55"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="10"/>
@@ -17263,7 +17268,7 @@
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
+      <c r="A5" s="55"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="10"/>
@@ -17273,7 +17278,7 @@
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
+      <c r="A6" s="55"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="10"/>
@@ -17283,7 +17288,7 @@
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
+      <c r="A7" s="55"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="10"/>
@@ -17293,7 +17298,7 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="56"/>
+      <c r="A8" s="55"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="10"/>
@@ -17303,7 +17308,7 @@
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="56"/>
+      <c r="A9" s="55"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="10"/>
@@ -17313,7 +17318,7 @@
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="56"/>
+      <c r="A10" s="55"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="10"/>
@@ -17323,7 +17328,7 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="56"/>
+      <c r="A11" s="55"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="10"/>
@@ -17333,7 +17338,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="56"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -17344,7 +17349,7 @@
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="56"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -17355,12 +17360,12 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="56"/>
+      <c r="A14" s="55"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -17371,7 +17376,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="9"/>
       <c r="C16"/>
       <c r="D16" s="8"/>
@@ -17382,7 +17387,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="56"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="9"/>
       <c r="C17"/>
       <c r="D17" s="8"/>
@@ -17393,7 +17398,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="56"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="9"/>
       <c r="C18"/>
       <c r="D18" s="8"/>
@@ -17404,7 +17409,7 @@
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="56"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="9"/>
       <c r="C19"/>
       <c r="D19" s="8"/>
@@ -17415,7 +17420,7 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="56"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="9"/>
       <c r="C20"/>
       <c r="D20" s="8"/>
@@ -17426,7 +17431,7 @@
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="56"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="9"/>
       <c r="C21"/>
       <c r="D21" s="8"/>
@@ -17437,7 +17442,7 @@
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="56"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="9"/>
       <c r="C22"/>
       <c r="D22" s="8"/>
@@ -17448,7 +17453,7 @@
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="56"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="9"/>
       <c r="C23"/>
       <c r="D23" s="8"/>
@@ -17459,7 +17464,7 @@
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
+      <c r="A24" s="55"/>
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -17470,7 +17475,7 @@
       <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -17481,7 +17486,7 @@
       <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
+      <c r="A26" s="55"/>
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -17492,7 +17497,7 @@
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="56"/>
+      <c r="A27" s="55"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="10"/>
@@ -17502,7 +17507,7 @@
       <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="56"/>
+      <c r="A28" s="55"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="10"/>
@@ -17512,7 +17517,7 @@
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="56"/>
+      <c r="A29" s="55"/>
       <c r="C29"/>
       <c r="D29" s="8"/>
       <c r="E29" s="10"/>
@@ -17522,7 +17527,7 @@
       <c r="I29" s="8"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="56"/>
+      <c r="A30" s="55"/>
       <c r="C30"/>
       <c r="D30" s="8"/>
       <c r="E30" s="10"/>
@@ -17532,7 +17537,7 @@
       <c r="I30" s="8"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="56"/>
+      <c r="A31" s="55"/>
       <c r="C31"/>
       <c r="D31" s="8"/>
       <c r="E31" s="10"/>
@@ -17542,7 +17547,7 @@
       <c r="I31" s="8"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="56"/>
+      <c r="A32" s="55"/>
       <c r="C32"/>
       <c r="D32" s="8"/>
       <c r="E32" s="10"/>
@@ -17552,7 +17557,7 @@
       <c r="I32" s="8"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="56"/>
+      <c r="A33" s="55"/>
       <c r="C33"/>
       <c r="D33" s="8"/>
       <c r="E33" s="10"/>
@@ -17562,7 +17567,7 @@
       <c r="I33" s="8"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="56"/>
+      <c r="A34" s="55"/>
       <c r="C34"/>
       <c r="D34" s="8"/>
       <c r="E34" s="10"/>
@@ -17572,7 +17577,7 @@
       <c r="I34" s="8"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="56"/>
+      <c r="A35" s="55"/>
       <c r="C35"/>
       <c r="D35" s="8"/>
       <c r="E35" s="10"/>
@@ -17582,7 +17587,7 @@
       <c r="I35" s="8"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="56"/>
+      <c r="A36" s="55"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="10"/>
@@ -17592,7 +17597,7 @@
       <c r="I36" s="8"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="56"/>
+      <c r="A37" s="55"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="10"/>
@@ -17602,7 +17607,7 @@
       <c r="I37" s="8"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="56"/>
+      <c r="A38" s="55"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="10"/>
@@ -17612,7 +17617,7 @@
       <c r="I38" s="8"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="56"/>
+      <c r="A39" s="55"/>
       <c r="C39"/>
       <c r="D39" s="8"/>
       <c r="E39" s="10"/>
@@ -17622,7 +17627,7 @@
       <c r="I39" s="8"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="56"/>
+      <c r="A40" s="55"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="10"/>
@@ -17632,7 +17637,7 @@
       <c r="I40" s="8"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="56"/>
+      <c r="A41" s="55"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="10"/>
@@ -17642,7 +17647,7 @@
       <c r="I41" s="8"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="56"/>
+      <c r="A42" s="55"/>
       <c r="B42" s="9"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
@@ -17653,7 +17658,7 @@
       <c r="I42" s="8"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="56"/>
+      <c r="A43" s="55"/>
       <c r="B43" s="9"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -17664,7 +17669,7 @@
       <c r="I43" s="8"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="56"/>
+      <c r="A44" s="55"/>
       <c r="B44" s="9"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -17675,7 +17680,7 @@
       <c r="I44" s="8"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="56"/>
+      <c r="A45" s="55"/>
       <c r="B45" s="9"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -17686,7 +17691,7 @@
       <c r="I45" s="8"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="56"/>
+      <c r="A46" s="55"/>
       <c r="B46" s="9"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
@@ -17697,7 +17702,7 @@
       <c r="I46" s="8"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="56"/>
+      <c r="A47" s="55"/>
       <c r="B47" s="9"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
@@ -17708,7 +17713,7 @@
       <c r="I47" s="8"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="56"/>
+      <c r="A48" s="55"/>
       <c r="B48" s="9"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -17719,7 +17724,7 @@
       <c r="I48" s="8"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="56"/>
+      <c r="A49" s="55"/>
       <c r="B49" s="9"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
@@ -17730,7 +17735,7 @@
       <c r="I49" s="8"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="56"/>
+      <c r="A50" s="55"/>
       <c r="B50" s="9"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -17741,7 +17746,7 @@
       <c r="I50" s="8"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="56"/>
+      <c r="A51" s="55"/>
       <c r="B51" s="9"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -17752,7 +17757,7 @@
       <c r="I51" s="8"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="56"/>
+      <c r="A52" s="55"/>
       <c r="B52" s="9"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
@@ -17763,7 +17768,7 @@
       <c r="I52" s="8"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="56"/>
+      <c r="A53" s="55"/>
       <c r="B53" s="9"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -17774,7 +17779,7 @@
       <c r="I53" s="8"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="56"/>
+      <c r="A54" s="55"/>
       <c r="B54" s="9"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
@@ -17785,7 +17790,7 @@
       <c r="I54" s="8"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="56"/>
+      <c r="A55" s="55"/>
       <c r="B55" s="9"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
@@ -17796,7 +17801,7 @@
       <c r="I55" s="8"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="56"/>
+      <c r="A56" s="55"/>
       <c r="B56" s="9"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
@@ -17807,7 +17812,7 @@
       <c r="I56" s="8"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="56"/>
+      <c r="A57" s="55"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
       <c r="E57" s="10"/>
@@ -17817,7 +17822,7 @@
       <c r="I57" s="8"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="56"/>
+      <c r="A58" s="55"/>
       <c r="B58" s="9"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -17828,7 +17833,7 @@
       <c r="I58" s="8"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="56"/>
+      <c r="A59" s="55"/>
       <c r="B59" s="9"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
@@ -17839,7 +17844,7 @@
       <c r="I59" s="8"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="56"/>
+      <c r="A60" s="55"/>
       <c r="B60" s="9"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
@@ -17850,7 +17855,7 @@
       <c r="I60" s="8"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="56"/>
+      <c r="A61" s="55"/>
       <c r="B61" s="9"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -17861,7 +17866,7 @@
       <c r="I61" s="8"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="56"/>
+      <c r="A62" s="55"/>
       <c r="B62" s="9"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
@@ -17872,7 +17877,7 @@
       <c r="I62" s="8"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="56"/>
+      <c r="A63" s="55"/>
       <c r="B63" s="9"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
@@ -17883,7 +17888,7 @@
       <c r="I63" s="8"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="56"/>
+      <c r="A64" s="55"/>
       <c r="B64" s="9"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -17894,7 +17899,7 @@
       <c r="I64" s="8"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="56"/>
+      <c r="A65" s="55"/>
       <c r="B65" s="9"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -17905,7 +17910,7 @@
       <c r="I65" s="8"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="56"/>
+      <c r="A66" s="55"/>
       <c r="B66" s="9"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
@@ -17916,7 +17921,7 @@
       <c r="I66" s="8"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="56"/>
+      <c r="A67" s="55"/>
       <c r="B67" s="9"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -17927,7 +17932,7 @@
       <c r="I67" s="8"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="56"/>
+      <c r="A68" s="55"/>
       <c r="B68" s="9"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
@@ -17938,7 +17943,7 @@
       <c r="I68" s="8"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="56"/>
+      <c r="A69" s="55"/>
       <c r="B69" s="9"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
@@ -17949,7 +17954,7 @@
       <c r="I69" s="8"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="56"/>
+      <c r="A70" s="55"/>
       <c r="B70" s="9"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
@@ -17960,7 +17965,7 @@
       <c r="I70" s="8"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="56"/>
+      <c r="A71" s="55"/>
       <c r="B71" s="9"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
@@ -17971,7 +17976,7 @@
       <c r="I71" s="8"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="56"/>
+      <c r="A72" s="55"/>
       <c r="B72" s="9"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
@@ -17982,7 +17987,7 @@
       <c r="I72" s="8"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="56"/>
+      <c r="A73" s="55"/>
       <c r="B73" s="9"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
@@ -17993,195 +17998,195 @@
       <c r="I73" s="8"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="56"/>
+      <c r="A74" s="55"/>
       <c r="B74" s="9"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
       <c r="G74"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="56"/>
+      <c r="A75" s="55"/>
       <c r="B75" s="9"/>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
       <c r="G75"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="56"/>
+      <c r="A76" s="55"/>
       <c r="B76" s="9"/>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
       <c r="G76"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="56"/>
+      <c r="A77" s="55"/>
       <c r="B77" s="9"/>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
       <c r="G77"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="56"/>
+      <c r="A78" s="55"/>
       <c r="B78" s="9"/>
       <c r="G78"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="56"/>
+      <c r="A79" s="55"/>
       <c r="B79" s="9"/>
       <c r="G79"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="56"/>
+      <c r="A80" s="55"/>
       <c r="B80" s="9"/>
       <c r="G80"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="56"/>
+      <c r="A81" s="55"/>
       <c r="B81" s="9"/>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
       <c r="G81"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="56"/>
+      <c r="A82" s="55"/>
       <c r="B82" s="9"/>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
       <c r="G82"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="56"/>
+      <c r="A83" s="55"/>
       <c r="B83" s="9"/>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
       <c r="G83"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="56"/>
+      <c r="A84" s="55"/>
       <c r="B84" s="9"/>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
       <c r="G84"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="56"/>
+      <c r="A85" s="55"/>
       <c r="B85" s="9"/>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
       <c r="G85"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="56"/>
+      <c r="A86" s="55"/>
       <c r="B86" s="9"/>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
       <c r="G86"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="56"/>
+      <c r="A87" s="55"/>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
       <c r="G87"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="56"/>
+      <c r="A88" s="55"/>
       <c r="B88" s="9"/>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
       <c r="G88"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="56"/>
+      <c r="A89" s="55"/>
       <c r="B89" s="9"/>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
       <c r="G89"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="56"/>
+      <c r="A90" s="55"/>
       <c r="B90" s="9"/>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
       <c r="G90"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="56"/>
+      <c r="A91" s="55"/>
       <c r="B91" s="9"/>
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
       <c r="G91"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="56"/>
+      <c r="A92" s="55"/>
       <c r="B92" s="9"/>
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
       <c r="G92"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="56"/>
+      <c r="A93" s="55"/>
       <c r="B93" s="9"/>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
       <c r="G93"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="56"/>
+      <c r="A94" s="55"/>
       <c r="B94" s="9"/>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
       <c r="G94"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="56"/>
+      <c r="A95" s="55"/>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
       <c r="G95"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="56"/>
+      <c r="A96" s="55"/>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
       <c r="G96"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="56"/>
+      <c r="A97" s="55"/>
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
       <c r="G97"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="56"/>
+      <c r="A98" s="55"/>
       <c r="C98" s="8"/>
       <c r="D98" s="8"/>
       <c r="G98"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="56"/>
+      <c r="A99" s="55"/>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
       <c r="G99"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="56"/>
+      <c r="A100" s="55"/>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
       <c r="G100"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="56"/>
+      <c r="A101" s="55"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="56"/>
+      <c r="A102" s="55"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="56"/>
+      <c r="A103" s="55"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="56"/>
+      <c r="A104" s="55"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="56"/>
+      <c r="A105" s="55"/>
     </row>
     <row r="116" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G116" s="9"/>

--- a/arch-ums/uni-life-ums.xlsx
+++ b/arch-ums/uni-life-ums.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces-Idea\proc\arch-module\arch-ums\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5304A13C-B072-4BB9-A227-C9D46594A595}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29009BC-C8BD-4E13-ACD2-5A8696EACFA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="30936" windowHeight="17040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7680" yWindow="3204" windowWidth="23040" windowHeight="12312" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="9" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2451" uniqueCount="947">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2455" uniqueCount="950">
   <si>
     <t>表名/Table</t>
   </si>
@@ -3364,6 +3364,18 @@
   </si>
   <si>
     <t>手机前缀(3/4)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>role_ids</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色 id 列表, 通过逗号分割</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>512</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3525,7 +3537,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -3603,12 +3615,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3633,7 +3641,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3659,11 +3666,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3671,18 +3684,83 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="75">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4316,41 +4394,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -4590,41 +4633,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4639,17 +4647,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CE11B0DB-5C62-420D-84D8-E87A9EF327B7}" name="表1" displayName="表1" ref="B1:J63" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68" headerRowCellStyle="常规 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CE11B0DB-5C62-420D-84D8-E87A9EF327B7}" name="表1" displayName="表1" ref="B1:J63" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73" headerRowCellStyle="常规 2">
   <autoFilter ref="B1:J63" xr:uid="{B6969820-1EDF-4876-9A5D-FBFC4A41984D}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{72E794A9-4DD1-49BE-A027-5ADCBA03FBD0}" name="列名/Column"/>
-    <tableColumn id="2" xr3:uid="{2BD92A17-8B86-4B03-9D18-9105A0D34354}" name="数据类型/Type" dataDxfId="67"/>
-    <tableColumn id="3" xr3:uid="{D8E94063-B8C9-4FA6-9A01-E7DF0C6D48F1}" name="长度/Length" dataDxfId="66"/>
-    <tableColumn id="4" xr3:uid="{9C5A6399-4D88-4569-8E5F-39B9DE8AF37B}" name="是否为空/Null(Y,N)" dataDxfId="65"/>
-    <tableColumn id="5" xr3:uid="{A4F55127-F997-4CC4-B0D1-1DA0A350A101}" name="默认值/Default" dataDxfId="64"/>
-    <tableColumn id="6" xr3:uid="{0F626792-F279-49AC-8EC1-BFB6B6687D67}" name="是否主键/Primary(Y,N)" dataDxfId="63"/>
-    <tableColumn id="7" xr3:uid="{7071273C-D0E4-4535-8AE8-1DA697EFE72A}" name="是否唯一/Unique(Y,N)" dataDxfId="62"/>
-    <tableColumn id="8" xr3:uid="{79AD77F4-4A81-4B14-B022-EB542F9CB50D}" name="外键/Forigen(可空)" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{2BD92A17-8B86-4B03-9D18-9105A0D34354}" name="数据类型/Type" dataDxfId="72"/>
+    <tableColumn id="3" xr3:uid="{D8E94063-B8C9-4FA6-9A01-E7DF0C6D48F1}" name="长度/Length" dataDxfId="71"/>
+    <tableColumn id="4" xr3:uid="{9C5A6399-4D88-4569-8E5F-39B9DE8AF37B}" name="是否为空/Null(Y,N)" dataDxfId="70"/>
+    <tableColumn id="5" xr3:uid="{A4F55127-F997-4CC4-B0D1-1DA0A350A101}" name="默认值/Default" dataDxfId="69"/>
+    <tableColumn id="6" xr3:uid="{0F626792-F279-49AC-8EC1-BFB6B6687D67}" name="是否主键/Primary(Y,N)" dataDxfId="68"/>
+    <tableColumn id="7" xr3:uid="{7071273C-D0E4-4535-8AE8-1DA697EFE72A}" name="是否唯一/Unique(Y,N)" dataDxfId="67"/>
+    <tableColumn id="8" xr3:uid="{79AD77F4-4A81-4B14-B022-EB542F9CB50D}" name="外键/Forigen(可空)" dataDxfId="66"/>
     <tableColumn id="9" xr3:uid="{F4869BE7-97E9-4573-A762-3FCC07598356}" name="备注/Comment"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4657,18 +4665,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D4223DF3-0FD4-4A51-9CB4-4ADBF0194284}" name="表4" displayName="表4" ref="B1:J129" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54" headerRowCellStyle="常规 2">
-  <autoFilter ref="B1:J129" xr:uid="{B9CDCF83-4341-4D97-8AF8-098A114465A9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D4223DF3-0FD4-4A51-9CB4-4ADBF0194284}" name="表4" displayName="表4" ref="B1:J130" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64" headerRowCellStyle="常规 2">
+  <autoFilter ref="B1:J130" xr:uid="{B9CDCF83-4341-4D97-8AF8-098A114465A9}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{350E8EA7-6A95-4955-AF92-86AAEA2BA677}" name="列名/Column" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{6ABB1A04-FB0D-4D10-B245-B8C8DB4828E1}" name="数据类型/Type" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{FCA6C0C7-D58A-4EB4-ADAD-587CBD0DD701}" name="长度/Length" dataDxfId="51"/>
-    <tableColumn id="4" xr3:uid="{52DA6CEC-27BC-4EAE-AE94-7470B76EC7C3}" name="是否为空/Null(Y,N)" dataDxfId="50"/>
-    <tableColumn id="5" xr3:uid="{AE35D0B9-0729-44FC-B690-C7EDD3166A02}" name="默认值/Default" dataDxfId="49"/>
-    <tableColumn id="6" xr3:uid="{6C52994F-377C-4C2E-9F7E-525CAC70A537}" name="是否主键/Primary(Y,N)" dataDxfId="48"/>
-    <tableColumn id="7" xr3:uid="{6EA4723E-17A5-4EC8-8998-8102D06DE919}" name="是否唯一/Unique(Y,N)" dataDxfId="47"/>
-    <tableColumn id="8" xr3:uid="{1A6BD3A8-4916-46D9-B4C6-624DA102515A}" name="外键/Forigen(可空)" dataDxfId="46"/>
-    <tableColumn id="9" xr3:uid="{632B0B2F-EABB-4492-9536-4E24187636CD}" name="备注/Comment" dataDxfId="45"/>
+    <tableColumn id="1" xr3:uid="{350E8EA7-6A95-4955-AF92-86AAEA2BA677}" name="列名/Column" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{6ABB1A04-FB0D-4D10-B245-B8C8DB4828E1}" name="数据类型/Type" dataDxfId="62"/>
+    <tableColumn id="3" xr3:uid="{FCA6C0C7-D58A-4EB4-ADAD-587CBD0DD701}" name="长度/Length" dataDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{52DA6CEC-27BC-4EAE-AE94-7470B76EC7C3}" name="是否为空/Null(Y,N)" dataDxfId="60"/>
+    <tableColumn id="5" xr3:uid="{AE35D0B9-0729-44FC-B690-C7EDD3166A02}" name="默认值/Default" dataDxfId="59"/>
+    <tableColumn id="6" xr3:uid="{6C52994F-377C-4C2E-9F7E-525CAC70A537}" name="是否主键/Primary(Y,N)" dataDxfId="58"/>
+    <tableColumn id="7" xr3:uid="{6EA4723E-17A5-4EC8-8998-8102D06DE919}" name="是否唯一/Unique(Y,N)" dataDxfId="57"/>
+    <tableColumn id="8" xr3:uid="{1A6BD3A8-4916-46D9-B4C6-624DA102515A}" name="外键/Forigen(可空)" dataDxfId="56"/>
+    <tableColumn id="9" xr3:uid="{632B0B2F-EABB-4492-9536-4E24187636CD}" name="备注/Comment" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4985,7 +4993,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="54" t="s">
         <v>741</v>
       </c>
       <c r="B2" s="26" t="s">
@@ -5013,7 +5021,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="26" t="s">
         <v>855</v>
       </c>
@@ -5035,7 +5043,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" t="s">
         <v>19</v>
       </c>
@@ -5055,7 +5063,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
+      <c r="A5" s="53"/>
       <c r="B5" t="s">
         <v>22</v>
       </c>
@@ -5075,7 +5083,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" t="s">
         <v>26</v>
       </c>
@@ -5095,7 +5103,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
+      <c r="A7" s="53"/>
       <c r="B7" t="s">
         <v>29</v>
       </c>
@@ -5113,7 +5121,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="56"/>
+      <c r="A8" s="53"/>
       <c r="B8" t="s">
         <v>31</v>
       </c>
@@ -5133,7 +5141,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="56"/>
+      <c r="A9" s="53"/>
       <c r="B9" t="s">
         <v>33</v>
       </c>
@@ -5153,7 +5161,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="56"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="26" t="s">
         <v>856</v>
       </c>
@@ -5177,11 +5185,11 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="56"/>
+      <c r="A11" s="53"/>
       <c r="B11" t="s">
         <v>891</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="49" t="s">
         <v>735</v>
       </c>
       <c r="D11" s="28"/>
@@ -5190,7 +5198,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="53" t="s">
         <v>41</v>
       </c>
       <c r="B12" t="s">
@@ -5218,7 +5226,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="56"/>
+      <c r="A13" s="53"/>
       <c r="B13" t="s">
         <v>42</v>
       </c>
@@ -5233,7 +5241,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="56"/>
+      <c r="A14" s="53"/>
       <c r="B14" t="s">
         <v>44</v>
       </c>
@@ -5248,7 +5256,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
+      <c r="A15" s="53"/>
       <c r="B15" t="s">
         <v>46</v>
       </c>
@@ -5263,7 +5271,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
+      <c r="A16" s="53"/>
       <c r="B16" t="s">
         <v>48</v>
       </c>
@@ -5278,27 +5286,27 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="56"/>
-      <c r="B17" s="43" t="s">
+      <c r="A17" s="53"/>
+      <c r="B17" s="41" t="s">
         <v>828</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="38" t="s">
         <v>707</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="39" t="s">
         <v>727</v>
       </c>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="39" t="s">
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="37" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="56"/>
+      <c r="A18" s="53"/>
       <c r="B18" t="s">
         <v>50</v>
       </c>
@@ -5313,7 +5321,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="56"/>
+      <c r="A19" s="53"/>
       <c r="B19" t="s">
         <v>52</v>
       </c>
@@ -5328,27 +5336,27 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="56"/>
-      <c r="B20" s="39" t="s">
+      <c r="A20" s="53"/>
+      <c r="B20" s="37" t="s">
         <v>857</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="38" t="s">
         <v>706</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D20" s="39" t="s">
         <v>709</v>
       </c>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="39" t="s">
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="37" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="56"/>
+      <c r="A21" s="53"/>
       <c r="B21" t="s">
         <v>54</v>
       </c>
@@ -5363,7 +5371,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="56"/>
+      <c r="A22" s="53"/>
       <c r="B22" t="s">
         <v>56</v>
       </c>
@@ -5378,11 +5386,11 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="56"/>
+      <c r="A23" s="53"/>
       <c r="B23" t="s">
         <v>891</v>
       </c>
-      <c r="C23" s="52" t="s">
+      <c r="C23" s="49" t="s">
         <v>895</v>
       </c>
       <c r="D23" s="28"/>
@@ -5391,7 +5399,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="57" t="s">
+      <c r="A24" s="54" t="s">
         <v>742</v>
       </c>
       <c r="B24" t="s">
@@ -5419,7 +5427,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
+      <c r="A25" s="53"/>
       <c r="B25" t="s">
         <v>58</v>
       </c>
@@ -5434,7 +5442,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
+      <c r="A26" s="53"/>
       <c r="B26" t="s">
         <v>60</v>
       </c>
@@ -5449,7 +5457,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="56"/>
+      <c r="A27" s="53"/>
       <c r="B27" t="s">
         <v>62</v>
       </c>
@@ -5464,7 +5472,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="56"/>
+      <c r="A28" s="53"/>
       <c r="B28" t="s">
         <v>64</v>
       </c>
@@ -5479,7 +5487,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="56"/>
+      <c r="A29" s="53"/>
       <c r="B29" s="26" t="s">
         <v>858</v>
       </c>
@@ -5494,7 +5502,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="56"/>
+      <c r="A30" s="53"/>
       <c r="B30" t="s">
         <v>52</v>
       </c>
@@ -5509,7 +5517,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="56"/>
+      <c r="A31" s="53"/>
       <c r="B31" t="s">
         <v>67</v>
       </c>
@@ -5522,7 +5530,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="56"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="26" t="s">
         <v>894</v>
       </c>
@@ -5535,7 +5543,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="56" t="s">
+      <c r="A33" s="53" t="s">
         <v>69</v>
       </c>
       <c r="B33" t="s">
@@ -5552,7 +5560,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="56"/>
+      <c r="A34" s="53"/>
       <c r="B34" s="26" t="s">
         <v>859</v>
       </c>
@@ -5567,7 +5575,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="56"/>
+      <c r="A35" s="53"/>
       <c r="B35" t="s">
         <v>71</v>
       </c>
@@ -5582,7 +5590,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="56"/>
+      <c r="A36" s="53"/>
       <c r="B36" t="s">
         <v>73</v>
       </c>
@@ -5597,7 +5605,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="56"/>
+      <c r="A37" s="53"/>
       <c r="B37" t="s">
         <v>52</v>
       </c>
@@ -5612,7 +5620,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="56"/>
+      <c r="A38" s="53"/>
       <c r="B38" t="s">
         <v>75</v>
       </c>
@@ -5625,7 +5633,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="56"/>
+      <c r="A39" s="53"/>
       <c r="B39" t="s">
         <v>891</v>
       </c>
@@ -5638,7 +5646,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="56" t="s">
+      <c r="A40" s="53" t="s">
         <v>77</v>
       </c>
       <c r="B40" t="s">
@@ -5655,7 +5663,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="56"/>
+      <c r="A41" s="53"/>
       <c r="B41" t="s">
         <v>78</v>
       </c>
@@ -5670,7 +5678,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="56"/>
+      <c r="A42" s="53"/>
       <c r="B42" t="s">
         <v>80</v>
       </c>
@@ -5685,7 +5693,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="56"/>
+      <c r="A43" s="53"/>
       <c r="B43" t="s">
         <v>736</v>
       </c>
@@ -5705,7 +5713,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="56"/>
+      <c r="A44" s="53"/>
       <c r="B44" t="s">
         <v>82</v>
       </c>
@@ -5720,7 +5728,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="56"/>
+      <c r="A45" s="53"/>
       <c r="B45" t="s">
         <v>52</v>
       </c>
@@ -5735,7 +5743,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="56"/>
+      <c r="A46" s="53"/>
       <c r="B46" t="s">
         <v>75</v>
       </c>
@@ -5748,7 +5756,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="56"/>
+      <c r="A47" s="53"/>
       <c r="B47" t="s">
         <v>891</v>
       </c>
@@ -5761,7 +5769,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="56" t="s">
+      <c r="A48" s="53" t="s">
         <v>83</v>
       </c>
       <c r="B48" t="s">
@@ -5778,7 +5786,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="56"/>
+      <c r="A49" s="53"/>
       <c r="B49" t="s">
         <v>84</v>
       </c>
@@ -5793,7 +5801,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="56"/>
+      <c r="A50" s="53"/>
       <c r="B50" t="s">
         <v>86</v>
       </c>
@@ -5808,7 +5816,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="56"/>
+      <c r="A51" s="53"/>
       <c r="B51" t="s">
         <v>88</v>
       </c>
@@ -5823,7 +5831,7 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="56"/>
+      <c r="A52" s="53"/>
       <c r="B52" t="s">
         <v>90</v>
       </c>
@@ -5838,7 +5846,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="56"/>
+      <c r="A53" s="53"/>
       <c r="B53" t="s">
         <v>52</v>
       </c>
@@ -5853,7 +5861,7 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="56"/>
+      <c r="A54" s="53"/>
       <c r="B54" t="s">
         <v>92</v>
       </c>
@@ -5866,7 +5874,7 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="56"/>
+      <c r="A55" s="53"/>
       <c r="B55" t="s">
         <v>94</v>
       </c>
@@ -5879,7 +5887,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="56"/>
+      <c r="A56" s="53"/>
       <c r="B56" s="26" t="s">
         <v>894</v>
       </c>
@@ -5892,7 +5900,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="55" t="s">
+      <c r="A57" s="52" t="s">
         <v>96</v>
       </c>
       <c r="B57" t="s">
@@ -5909,7 +5917,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="55"/>
+      <c r="A58" s="52"/>
       <c r="B58" t="s">
         <v>97</v>
       </c>
@@ -5924,11 +5932,11 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="55"/>
+      <c r="A59" s="52"/>
       <c r="B59" t="s">
         <v>909</v>
       </c>
-      <c r="C59" s="52" t="s">
+      <c r="C59" s="49" t="s">
         <v>910</v>
       </c>
       <c r="D59" s="28" t="s">
@@ -5944,7 +5952,7 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="55"/>
+      <c r="A60" s="52"/>
       <c r="B60" s="26" t="s">
         <v>916</v>
       </c>
@@ -5959,7 +5967,7 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="55"/>
+      <c r="A61" s="52"/>
       <c r="B61" t="s">
         <v>98</v>
       </c>
@@ -5974,7 +5982,7 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="55"/>
+      <c r="A62" s="52"/>
       <c r="B62" t="s">
         <v>52</v>
       </c>
@@ -5987,7 +5995,7 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="55"/>
+      <c r="A63" s="52"/>
       <c r="B63" s="26" t="s">
         <v>894</v>
       </c>
@@ -6119,27 +6127,27 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="cellIs" dxfId="74" priority="2" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="54" priority="2" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:E1">
-    <cfRule type="cellIs" dxfId="73" priority="5" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="53" priority="5" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:H1">
-    <cfRule type="cellIs" dxfId="72" priority="3" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="52" priority="3" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="71" priority="4" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="51" priority="4" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="70" priority="1" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="50" priority="1" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6213,7 +6221,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="61" t="s">
         <v>917</v>
       </c>
       <c r="B2" s="29" t="s">
@@ -6237,7 +6245,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
+      <c r="A3" s="61"/>
       <c r="B3" s="29" t="s">
         <v>719</v>
       </c>
@@ -6257,7 +6265,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
+      <c r="A4" s="61"/>
       <c r="B4" s="29" t="s">
         <v>867</v>
       </c>
@@ -6277,11 +6285,11 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="29" t="s">
         <v>868</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="48" t="s">
         <v>707</v>
       </c>
       <c r="D5" s="30" t="s">
@@ -6297,37 +6305,37 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="62"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="29" t="s">
         <v>870</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="48" t="s">
         <v>863</v>
       </c>
       <c r="D6" s="30" t="s">
         <v>745</v>
       </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
       <c r="J6" s="27" t="s">
         <v>881</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="62"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="29" t="s">
         <v>871</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="48" t="s">
         <v>707</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>726</v>
       </c>
-      <c r="E7" s="50"/>
+      <c r="E7" s="47"/>
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
       <c r="H7" s="24"/>
@@ -6337,17 +6345,17 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="62"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="29" t="s">
         <v>872</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="48" t="s">
         <v>706</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>873</v>
       </c>
-      <c r="E8" s="50"/>
+      <c r="E8" s="47"/>
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
@@ -6357,17 +6365,17 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="62"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="29" t="s">
         <v>874</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="48" t="s">
         <v>706</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>873</v>
       </c>
-      <c r="E9" s="50"/>
+      <c r="E9" s="47"/>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
@@ -6377,17 +6385,17 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="62"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="29" t="s">
         <v>875</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="48" t="s">
         <v>707</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>749</v>
       </c>
-      <c r="E10" s="50"/>
+      <c r="E10" s="47"/>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
       <c r="H10" s="24"/>
@@ -6397,14 +6405,14 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="62"/>
-      <c r="B11" s="37" t="s">
+      <c r="A11" s="61"/>
+      <c r="B11" s="35" t="s">
         <v>876</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="48" t="s">
         <v>707</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="36" t="s">
         <v>749</v>
       </c>
       <c r="E11" s="22"/>
@@ -6412,22 +6420,22 @@
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
-      <c r="J11" s="35" t="s">
+      <c r="J11" s="34" t="s">
         <v>886</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="62"/>
+      <c r="A12" s="61"/>
       <c r="B12" s="29" t="s">
         <v>877</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="48" t="s">
         <v>707</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>749</v>
       </c>
-      <c r="E12" s="50"/>
+      <c r="E12" s="47"/>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
@@ -6437,17 +6445,17 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="62"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="29" t="s">
         <v>878</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="48" t="s">
         <v>707</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>749</v>
       </c>
-      <c r="E13" s="50"/>
+      <c r="E13" s="47"/>
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
       <c r="H13" s="24"/>
@@ -6457,15 +6465,15 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="62"/>
+      <c r="A14" s="61"/>
       <c r="B14" s="29" t="s">
         <v>879</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="48" t="s">
         <v>716</v>
       </c>
       <c r="D14" s="30"/>
-      <c r="E14" s="50"/>
+      <c r="E14" s="47"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
       <c r="H14" s="24"/>
@@ -6475,15 +6483,15 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
+      <c r="A15" s="61"/>
       <c r="B15" s="29" t="s">
         <v>880</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="48" t="s">
         <v>716</v>
       </c>
       <c r="D15" s="30"/>
-      <c r="E15" s="50"/>
+      <c r="E15" s="47"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
       <c r="H15" s="24"/>
@@ -6493,7 +6501,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="51" t="s">
         <v>944</v>
       </c>
       <c r="B16" s="29" t="s">
@@ -6515,7 +6523,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="29" t="s">
         <v>919</v>
       </c>
@@ -6536,7 +6544,7 @@
       <c r="L17" s="26"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="29" t="s">
         <v>920</v>
       </c>
@@ -6556,7 +6564,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="54"/>
+      <c r="A19" s="51"/>
       <c r="B19" s="29" t="s">
         <v>921</v>
       </c>
@@ -6576,7 +6584,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
+      <c r="A20" s="51"/>
       <c r="B20" s="29" t="s">
         <v>922</v>
       </c>
@@ -6596,7 +6604,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="54"/>
+      <c r="A21" s="51"/>
       <c r="B21" s="29" t="s">
         <v>923</v>
       </c>
@@ -6616,7 +6624,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
+      <c r="A22" s="51"/>
       <c r="B22" s="29" t="s">
         <v>924</v>
       </c>
@@ -6636,7 +6644,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="54"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="29" t="s">
         <v>925</v>
       </c>
@@ -6654,7 +6662,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="54"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="29" t="s">
         <v>926</v>
       </c>
@@ -6674,7 +6682,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="54" t="s">
+      <c r="A25" s="51" t="s">
         <v>943</v>
       </c>
       <c r="B25" s="29" t="s">
@@ -6696,7 +6704,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="54"/>
+      <c r="A26" s="51"/>
       <c r="B26" s="29" t="s">
         <v>919</v>
       </c>
@@ -6717,7 +6725,7 @@
       <c r="L26" s="26"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="54"/>
+      <c r="A27" s="51"/>
       <c r="B27" s="29" t="s">
         <v>922</v>
       </c>
@@ -6737,7 +6745,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="54"/>
+      <c r="A28" s="51"/>
       <c r="B28" s="29" t="s">
         <v>923</v>
       </c>
@@ -6757,7 +6765,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="54"/>
+      <c r="A29" s="51"/>
       <c r="B29" s="29" t="s">
         <v>924</v>
       </c>
@@ -6777,7 +6785,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="54"/>
+      <c r="A30" s="51"/>
       <c r="B30" s="29" t="s">
         <v>925</v>
       </c>
@@ -6795,7 +6803,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="54"/>
+      <c r="A31" s="51"/>
       <c r="B31" s="29" t="s">
         <v>926</v>
       </c>
@@ -6904,7 +6912,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="52" t="s">
         <v>496</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -6921,7 +6929,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
+      <c r="A3" s="52"/>
       <c r="B3" s="5" t="s">
         <v>499</v>
       </c>
@@ -6936,7 +6944,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="5" t="s">
         <v>501</v>
       </c>
@@ -6951,7 +6959,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="5" t="s">
         <v>503</v>
       </c>
@@ -6966,7 +6974,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="5" t="s">
         <v>505</v>
       </c>
@@ -6978,7 +6986,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="5" t="s">
         <v>507</v>
       </c>
@@ -6990,7 +6998,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="5" t="s">
         <v>509</v>
       </c>
@@ -7002,7 +7010,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="5" t="s">
         <v>511</v>
       </c>
@@ -7014,7 +7022,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="5" t="s">
         <v>513</v>
       </c>
@@ -7029,7 +7037,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="5" t="s">
         <v>515</v>
       </c>
@@ -7044,7 +7052,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="5" t="s">
         <v>517</v>
       </c>
@@ -7059,7 +7067,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="5" t="s">
         <v>519</v>
       </c>
@@ -7074,7 +7082,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="5" t="s">
         <v>521</v>
       </c>
@@ -7089,7 +7097,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="5" t="s">
         <v>523</v>
       </c>
@@ -7104,7 +7112,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="5" t="s">
         <v>525</v>
       </c>
@@ -7119,7 +7127,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="5" t="s">
         <v>527</v>
       </c>
@@ -7134,7 +7142,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
+      <c r="A18" s="52"/>
       <c r="B18" s="5" t="s">
         <v>487</v>
       </c>
@@ -7149,7 +7157,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="5" t="s">
         <v>530</v>
       </c>
@@ -7164,7 +7172,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="55"/>
+      <c r="A20" s="52"/>
       <c r="B20" s="5" t="s">
         <v>532</v>
       </c>
@@ -7179,7 +7187,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
+      <c r="A21" s="52"/>
       <c r="B21" s="5" t="s">
         <v>534</v>
       </c>
@@ -7194,7 +7202,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="55"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="5" t="s">
         <v>536</v>
       </c>
@@ -7209,7 +7217,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
+      <c r="A23" s="52"/>
       <c r="B23" s="5" t="s">
         <v>538</v>
       </c>
@@ -7224,7 +7232,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="55" t="s">
+      <c r="A24" s="52" t="s">
         <v>540</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -7241,7 +7249,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="5" t="s">
         <v>541</v>
       </c>
@@ -7256,7 +7264,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
+      <c r="A26" s="52"/>
       <c r="B26" s="5" t="s">
         <v>503</v>
       </c>
@@ -7271,7 +7279,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="55"/>
+      <c r="A27" s="52"/>
       <c r="B27" s="5" t="s">
         <v>544</v>
       </c>
@@ -7286,7 +7294,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="5" t="s">
         <v>546</v>
       </c>
@@ -7301,7 +7309,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
+      <c r="A29" s="52"/>
       <c r="B29" s="5" t="s">
         <v>513</v>
       </c>
@@ -7316,7 +7324,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="55"/>
+      <c r="A30" s="52"/>
       <c r="B30" s="5" t="s">
         <v>548</v>
       </c>
@@ -7331,7 +7339,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
+      <c r="A31" s="52"/>
       <c r="B31" s="5" t="s">
         <v>550</v>
       </c>
@@ -7346,7 +7354,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="55"/>
+      <c r="A32" s="52"/>
       <c r="B32" s="5" t="s">
         <v>552</v>
       </c>
@@ -7361,7 +7369,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="55"/>
+      <c r="A33" s="52"/>
       <c r="B33" s="5" t="s">
         <v>554</v>
       </c>
@@ -7376,7 +7384,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="55"/>
+      <c r="A34" s="52"/>
       <c r="B34" s="5" t="s">
         <v>556</v>
       </c>
@@ -7391,7 +7399,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
+      <c r="A35" s="52"/>
       <c r="B35" s="5" t="s">
         <v>559</v>
       </c>
@@ -7406,13 +7414,13 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="55"/>
+      <c r="A36" s="52"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="J36" s="5"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
+      <c r="A37" s="52"/>
       <c r="B37" s="5" t="s">
         <v>561</v>
       </c>
@@ -7427,7 +7435,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="55"/>
+      <c r="A38" s="52"/>
       <c r="B38" s="5" t="s">
         <v>563</v>
       </c>
@@ -7442,7 +7450,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="55"/>
+      <c r="A39" s="52"/>
       <c r="B39" s="5" t="s">
         <v>564</v>
       </c>
@@ -7457,7 +7465,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="55"/>
+      <c r="A40" s="52"/>
       <c r="B40" s="5" t="s">
         <v>566</v>
       </c>
@@ -7472,13 +7480,13 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="55"/>
+      <c r="A41" s="52"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="J41" s="5"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="55"/>
+      <c r="A42" s="52"/>
       <c r="B42" s="5" t="s">
         <v>568</v>
       </c>
@@ -7493,7 +7501,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="55"/>
+      <c r="A43" s="52"/>
       <c r="B43" s="5" t="s">
         <v>570</v>
       </c>
@@ -7508,7 +7516,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="55"/>
+      <c r="A44" s="52"/>
       <c r="B44" s="5" t="s">
         <v>536</v>
       </c>
@@ -7523,7 +7531,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="55"/>
+      <c r="A45" s="52"/>
       <c r="B45" s="5" t="s">
         <v>573</v>
       </c>
@@ -7538,7 +7546,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="55"/>
+      <c r="A46" s="52"/>
       <c r="B46" s="5" t="s">
         <v>575</v>
       </c>
@@ -7553,7 +7561,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="55"/>
+      <c r="A47" s="52"/>
       <c r="B47" s="5" t="s">
         <v>577</v>
       </c>
@@ -7568,7 +7576,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="55"/>
+      <c r="A48" s="52"/>
       <c r="B48" s="5" t="s">
         <v>579</v>
       </c>
@@ -7583,7 +7591,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="55"/>
+      <c r="A49" s="52"/>
       <c r="B49" s="5" t="s">
         <v>581</v>
       </c>
@@ -7598,7 +7606,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="55"/>
+      <c r="A50" s="52"/>
       <c r="B50" s="5" t="s">
         <v>583</v>
       </c>
@@ -7610,13 +7618,13 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="55"/>
+      <c r="A51" s="52"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="J51" s="5"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="55"/>
+      <c r="A52" s="52"/>
       <c r="B52" s="5" t="s">
         <v>585</v>
       </c>
@@ -7631,7 +7639,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="55"/>
+      <c r="A53" s="52"/>
       <c r="B53" s="5" t="s">
         <v>587</v>
       </c>
@@ -7646,7 +7654,7 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="55"/>
+      <c r="A54" s="52"/>
       <c r="B54" s="5" t="s">
         <v>589</v>
       </c>
@@ -7661,7 +7669,7 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="55"/>
+      <c r="A55" s="52"/>
       <c r="B55" s="5" t="s">
         <v>591</v>
       </c>
@@ -7676,7 +7684,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="55"/>
+      <c r="A56" s="52"/>
       <c r="B56" s="5" t="s">
         <v>593</v>
       </c>
@@ -7691,7 +7699,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="55"/>
+      <c r="A57" s="52"/>
       <c r="B57" s="5" t="s">
         <v>595</v>
       </c>
@@ -7706,7 +7714,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="55"/>
+      <c r="A58" s="52"/>
       <c r="B58" s="5" t="s">
         <v>597</v>
       </c>
@@ -7721,7 +7729,7 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="55"/>
+      <c r="A59" s="52"/>
       <c r="B59" s="5" t="s">
         <v>599</v>
       </c>
@@ -7736,7 +7744,7 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="55"/>
+      <c r="A60" s="52"/>
       <c r="B60" s="5" t="s">
         <v>601</v>
       </c>
@@ -7751,7 +7759,7 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="55"/>
+      <c r="A61" s="52"/>
       <c r="B61" s="5" t="s">
         <v>603</v>
       </c>
@@ -7766,7 +7774,7 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="55"/>
+      <c r="A62" s="52"/>
       <c r="B62" s="5" t="s">
         <v>605</v>
       </c>
@@ -7781,7 +7789,7 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="55"/>
+      <c r="A63" s="52"/>
       <c r="B63" s="5" t="s">
         <v>607</v>
       </c>
@@ -7796,7 +7804,7 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="55"/>
+      <c r="A64" s="52"/>
       <c r="B64" s="5" t="s">
         <v>609</v>
       </c>
@@ -7811,7 +7819,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="55"/>
+      <c r="A65" s="52"/>
       <c r="B65" s="5" t="s">
         <v>611</v>
       </c>
@@ -7826,7 +7834,7 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="55"/>
+      <c r="A66" s="52"/>
       <c r="B66" s="5" t="s">
         <v>613</v>
       </c>
@@ -7841,13 +7849,13 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="55"/>
+      <c r="A67" s="52"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="J67" s="5"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="55"/>
+      <c r="A68" s="52"/>
       <c r="B68" s="5" t="s">
         <v>615</v>
       </c>
@@ -7859,7 +7867,7 @@
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="55"/>
+      <c r="A69" s="52"/>
       <c r="B69" s="5" t="s">
         <v>525</v>
       </c>
@@ -7874,7 +7882,7 @@
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="55"/>
+      <c r="A70" s="52"/>
       <c r="B70" s="5" t="s">
         <v>527</v>
       </c>
@@ -7889,7 +7897,7 @@
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="55"/>
+      <c r="A71" s="52"/>
       <c r="B71" s="5" t="s">
         <v>617</v>
       </c>
@@ -7904,13 +7912,13 @@
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="55"/>
+      <c r="A72" s="52"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="J72" s="5"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="55"/>
+      <c r="A73" s="52"/>
       <c r="B73" s="5" t="s">
         <v>619</v>
       </c>
@@ -7925,7 +7933,7 @@
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="55"/>
+      <c r="A74" s="52"/>
       <c r="B74" s="5" t="s">
         <v>621</v>
       </c>
@@ -7940,7 +7948,7 @@
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="55"/>
+      <c r="A75" s="52"/>
       <c r="B75" s="5" t="s">
         <v>623</v>
       </c>
@@ -7955,7 +7963,7 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="55"/>
+      <c r="A76" s="52"/>
       <c r="B76" s="5" t="s">
         <v>624</v>
       </c>
@@ -7970,7 +7978,7 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="55"/>
+      <c r="A77" s="52"/>
       <c r="B77" s="5" t="s">
         <v>626</v>
       </c>
@@ -7985,7 +7993,7 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="55"/>
+      <c r="A78" s="52"/>
       <c r="B78" s="5" t="s">
         <v>628</v>
       </c>
@@ -8000,7 +8008,7 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="55"/>
+      <c r="A79" s="52"/>
       <c r="B79" s="5" t="s">
         <v>630</v>
       </c>
@@ -8015,7 +8023,7 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="55"/>
+      <c r="A80" s="52"/>
       <c r="B80" s="5" t="s">
         <v>632</v>
       </c>
@@ -8030,7 +8038,7 @@
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="55"/>
+      <c r="A81" s="52"/>
       <c r="B81" s="5" t="s">
         <v>634</v>
       </c>
@@ -8045,7 +8053,7 @@
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="55"/>
+      <c r="A82" s="52"/>
       <c r="B82" s="5" t="s">
         <v>636</v>
       </c>
@@ -8060,7 +8068,7 @@
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="55"/>
+      <c r="A83" s="52"/>
       <c r="B83" s="5" t="s">
         <v>638</v>
       </c>
@@ -8075,7 +8083,7 @@
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="55"/>
+      <c r="A84" s="52"/>
       <c r="B84" s="5" t="s">
         <v>640</v>
       </c>
@@ -8090,7 +8098,7 @@
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="55"/>
+      <c r="A85" s="52"/>
       <c r="B85" s="5" t="s">
         <v>642</v>
       </c>
@@ -8105,7 +8113,7 @@
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="55"/>
+      <c r="A86" s="52"/>
       <c r="B86" s="5" t="s">
         <v>644</v>
       </c>
@@ -8120,7 +8128,7 @@
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="55"/>
+      <c r="A87" s="52"/>
       <c r="B87" s="5" t="s">
         <v>646</v>
       </c>
@@ -8135,7 +8143,7 @@
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="55"/>
+      <c r="A88" s="52"/>
       <c r="B88" s="5" t="s">
         <v>648</v>
       </c>
@@ -8150,7 +8158,7 @@
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="55"/>
+      <c r="A89" s="52"/>
       <c r="B89" s="5" t="s">
         <v>650</v>
       </c>
@@ -8165,7 +8173,7 @@
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="55"/>
+      <c r="A90" s="52"/>
       <c r="B90" s="5" t="s">
         <v>652</v>
       </c>
@@ -8180,13 +8188,13 @@
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="55"/>
+      <c r="A91" s="52"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="J91" s="5"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="55"/>
+      <c r="A92" s="52"/>
       <c r="B92" s="5" t="s">
         <v>654</v>
       </c>
@@ -8201,7 +8209,7 @@
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="55"/>
+      <c r="A93" s="52"/>
       <c r="B93" s="5" t="s">
         <v>656</v>
       </c>
@@ -8216,13 +8224,13 @@
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="55"/>
+      <c r="A94" s="52"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="J94" s="5"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="55"/>
+      <c r="A95" s="52"/>
       <c r="B95" s="5" t="s">
         <v>658</v>
       </c>
@@ -8237,7 +8245,7 @@
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="55"/>
+      <c r="A96" s="52"/>
       <c r="B96" s="5" t="s">
         <v>660</v>
       </c>
@@ -8252,7 +8260,7 @@
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="55"/>
+      <c r="A97" s="52"/>
       <c r="B97" s="5" t="s">
         <v>662</v>
       </c>
@@ -8264,13 +8272,13 @@
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="55"/>
+      <c r="A98" s="52"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="J98" s="5"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="55"/>
+      <c r="A99" s="52"/>
       <c r="B99" s="5" t="s">
         <v>664</v>
       </c>
@@ -8285,7 +8293,7 @@
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="55"/>
+      <c r="A100" s="52"/>
       <c r="B100" s="5" t="s">
         <v>666</v>
       </c>
@@ -8300,7 +8308,7 @@
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="55"/>
+      <c r="A101" s="52"/>
       <c r="B101" s="5" t="s">
         <v>668</v>
       </c>
@@ -8315,7 +8323,7 @@
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="55"/>
+      <c r="A102" s="52"/>
       <c r="B102" s="5" t="s">
         <v>670</v>
       </c>
@@ -8330,7 +8338,7 @@
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="55" t="s">
+      <c r="A103" s="52" t="s">
         <v>672</v>
       </c>
       <c r="B103" s="5" t="s">
@@ -8347,7 +8355,7 @@
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="55"/>
+      <c r="A104" s="52"/>
       <c r="B104" s="5" t="s">
         <v>674</v>
       </c>
@@ -8362,7 +8370,7 @@
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="55"/>
+      <c r="A105" s="52"/>
       <c r="B105" s="5" t="s">
         <v>676</v>
       </c>
@@ -8377,7 +8385,7 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="55"/>
+      <c r="A106" s="52"/>
       <c r="B106" s="5" t="s">
         <v>678</v>
       </c>
@@ -8392,7 +8400,7 @@
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="55"/>
+      <c r="A107" s="52"/>
       <c r="B107" s="5" t="s">
         <v>680</v>
       </c>
@@ -8407,7 +8415,7 @@
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="55"/>
+      <c r="A108" s="52"/>
       <c r="B108" s="5" t="s">
         <v>682</v>
       </c>
@@ -8422,7 +8430,7 @@
       </c>
     </row>
     <row r="109" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A109" s="55"/>
+      <c r="A109" s="52"/>
       <c r="B109" s="5" t="s">
         <v>684</v>
       </c>
@@ -8437,7 +8445,7 @@
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="55"/>
+      <c r="A110" s="52"/>
       <c r="B110" s="5" t="s">
         <v>686</v>
       </c>
@@ -8452,7 +8460,7 @@
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="55"/>
+      <c r="A111" s="52"/>
       <c r="B111" s="5" t="s">
         <v>688</v>
       </c>
@@ -8467,7 +8475,7 @@
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="55"/>
+      <c r="A112" s="52"/>
       <c r="B112" s="5" t="s">
         <v>690</v>
       </c>
@@ -8482,7 +8490,7 @@
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="55"/>
+      <c r="A113" s="52"/>
       <c r="B113" s="5" t="s">
         <v>692</v>
       </c>
@@ -8494,7 +8502,7 @@
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="55"/>
+      <c r="A114" s="52"/>
       <c r="B114" s="5" t="s">
         <v>694</v>
       </c>
@@ -8506,7 +8514,7 @@
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="55" t="s">
+      <c r="A115" s="52" t="s">
         <v>695</v>
       </c>
       <c r="B115" s="5" t="s">
@@ -8523,7 +8531,7 @@
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="55"/>
+      <c r="A116" s="52"/>
       <c r="B116" s="5" t="s">
         <v>674</v>
       </c>
@@ -8538,7 +8546,7 @@
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="55"/>
+      <c r="A117" s="52"/>
       <c r="B117" s="5" t="s">
         <v>676</v>
       </c>
@@ -8553,7 +8561,7 @@
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="55"/>
+      <c r="A118" s="52"/>
       <c r="B118" s="5" t="s">
         <v>680</v>
       </c>
@@ -8568,7 +8576,7 @@
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="55"/>
+      <c r="A119" s="52"/>
       <c r="B119" s="5" t="s">
         <v>585</v>
       </c>
@@ -8583,7 +8591,7 @@
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="55"/>
+      <c r="A120" s="52"/>
       <c r="B120" s="5" t="s">
         <v>587</v>
       </c>
@@ -8598,7 +8606,7 @@
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="55"/>
+      <c r="A121" s="52"/>
       <c r="B121" s="5" t="s">
         <v>589</v>
       </c>
@@ -8613,7 +8621,7 @@
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="55"/>
+      <c r="A122" s="52"/>
       <c r="B122" s="5" t="s">
         <v>591</v>
       </c>
@@ -8628,7 +8636,7 @@
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="55"/>
+      <c r="A123" s="52"/>
       <c r="B123" s="5" t="s">
         <v>593</v>
       </c>
@@ -8643,7 +8651,7 @@
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="55"/>
+      <c r="A124" s="52"/>
       <c r="B124" s="5" t="s">
         <v>595</v>
       </c>
@@ -8658,7 +8666,7 @@
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="55"/>
+      <c r="A125" s="52"/>
       <c r="B125" s="5" t="s">
         <v>597</v>
       </c>
@@ -8673,7 +8681,7 @@
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="55"/>
+      <c r="A126" s="52"/>
       <c r="B126" s="5" t="s">
         <v>599</v>
       </c>
@@ -8688,7 +8696,7 @@
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="55"/>
+      <c r="A127" s="52"/>
       <c r="B127" s="5" t="s">
         <v>601</v>
       </c>
@@ -8703,7 +8711,7 @@
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="55"/>
+      <c r="A128" s="52"/>
       <c r="B128" s="5" t="s">
         <v>603</v>
       </c>
@@ -8718,7 +8726,7 @@
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="55"/>
+      <c r="A129" s="52"/>
       <c r="B129" s="5" t="s">
         <v>605</v>
       </c>
@@ -8733,7 +8741,7 @@
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="55"/>
+      <c r="A130" s="52"/>
       <c r="B130" s="5" t="s">
         <v>607</v>
       </c>
@@ -8748,7 +8756,7 @@
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="55"/>
+      <c r="A131" s="52"/>
       <c r="B131" s="5" t="s">
         <v>609</v>
       </c>
@@ -8763,7 +8771,7 @@
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="55"/>
+      <c r="A132" s="52"/>
       <c r="B132" s="5" t="s">
         <v>611</v>
       </c>
@@ -8778,7 +8786,7 @@
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="55"/>
+      <c r="A133" s="52"/>
       <c r="B133" s="5" t="s">
         <v>613</v>
       </c>
@@ -8793,7 +8801,7 @@
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="55"/>
+      <c r="A134" s="52"/>
       <c r="B134" s="5" t="s">
         <v>697</v>
       </c>
@@ -8808,7 +8816,7 @@
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="55"/>
+      <c r="A135" s="52"/>
       <c r="B135" s="5" t="s">
         <v>699</v>
       </c>
@@ -8823,7 +8831,7 @@
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="55"/>
+      <c r="A136" s="52"/>
       <c r="B136" s="5" t="s">
         <v>701</v>
       </c>
@@ -8838,7 +8846,7 @@
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="55"/>
+      <c r="A137" s="52"/>
       <c r="B137" s="5" t="s">
         <v>694</v>
       </c>
@@ -8888,10 +8896,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L137"/>
+  <dimension ref="A1:L138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8984,122 +8992,120 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="59"/>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="50" t="s">
         <v>748</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="50" t="s">
         <v>707</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="50" t="s">
         <v>749</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="49" t="s">
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="59"/>
-      <c r="B5" s="29" t="s">
-        <v>850</v>
+      <c r="B5" s="50" t="s">
+        <v>947</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>707</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="36" t="s">
+        <v>949</v>
+      </c>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="34" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="59"/>
+      <c r="B6" s="29" t="s">
+        <v>850</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>707</v>
+      </c>
+      <c r="D6" s="30" t="s">
         <v>704</v>
       </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="27" t="s">
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="27" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="55" t="s">
         <v>747</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B7" s="21" t="s">
         <v>744</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D7" s="30" t="s">
         <v>745</v>
       </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="27" t="s">
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="27" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
-      <c r="B7" s="21" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="52"/>
+      <c r="B8" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C8" s="22" t="s">
         <v>706</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D8" s="30">
         <v>1</v>
       </c>
-      <c r="E7" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="24">
+      <c r="E8" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="24">
         <v>1</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="27" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
-      <c r="B8" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="30">
-        <v>20</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="24"/>
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
       <c r="J8" s="27" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D9" s="30">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="E9" s="25" t="s">
         <v>14</v>
@@ -9109,85 +9115,85 @@
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
       <c r="J9" s="27" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D10" s="30">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="24">
-        <v>-1</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F10" s="24"/>
       <c r="G10" s="24"/>
       <c r="H10" s="24"/>
       <c r="I10" s="24"/>
       <c r="J10" s="27" t="s">
-        <v>826</v>
+        <v>753</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
-      <c r="B11" s="37" t="s">
-        <v>824</v>
+      <c r="A11" s="52"/>
+      <c r="B11" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="30">
+        <v>20</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="24">
+        <v>-1</v>
+      </c>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="27" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="52"/>
+      <c r="B12" s="35" t="s">
+        <v>824</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="36" t="s">
         <v>726</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="35" t="s">
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="34" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
-      <c r="B12" s="21" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="52"/>
+      <c r="B13" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="C12" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="30">
+      <c r="C13" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="30">
         <v>64</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="27" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
-      <c r="B13" s="21" t="s">
-        <v>713</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="30">
-        <v>20</v>
       </c>
       <c r="E13" s="25" t="s">
         <v>14</v>
@@ -9197,19 +9203,19 @@
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
       <c r="J13" s="27" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="21" t="s">
-        <v>106</v>
+        <v>713</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="30">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="E14" s="25" t="s">
         <v>14</v>
@@ -9219,13 +9225,13 @@
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
       <c r="J14" s="27" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>17</v>
@@ -9241,13 +9247,13 @@
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
       <c r="J15" s="27" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>17</v>
@@ -9263,13 +9269,13 @@
       <c r="H16" s="24"/>
       <c r="I16" s="24"/>
       <c r="J16" s="27" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>17</v>
@@ -9285,19 +9291,19 @@
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
       <c r="J17" s="27" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
+      <c r="A18" s="52"/>
       <c r="B18" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="30">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="E18" s="25" t="s">
         <v>14</v>
@@ -9311,15 +9317,15 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="30">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="E19" s="25" t="s">
         <v>14</v>
@@ -9333,15 +9339,15 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="55"/>
+      <c r="A20" s="52"/>
       <c r="B20" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="30">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="E20" s="25" t="s">
         <v>14</v>
@@ -9351,19 +9357,19 @@
       <c r="H20" s="24"/>
       <c r="I20" s="24"/>
       <c r="J20" s="27" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
+      <c r="A21" s="52"/>
       <c r="B21" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="30">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="E21" s="25" t="s">
         <v>14</v>
@@ -9377,9 +9383,9 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="55"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C22" s="22" t="s">
         <v>17</v>
@@ -9395,13 +9401,13 @@
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
       <c r="J22" s="27" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
+      <c r="A23" s="52"/>
       <c r="B23" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C23" s="22" t="s">
         <v>17</v>
@@ -9417,13 +9423,13 @@
       <c r="H23" s="24"/>
       <c r="I23" s="24"/>
       <c r="J23" s="27" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C24" s="22" t="s">
         <v>17</v>
@@ -9443,9 +9449,9 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="21" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>17</v>
@@ -9465,9 +9471,9 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
+      <c r="A26" s="52"/>
       <c r="B26" s="21" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="C26" s="22" t="s">
         <v>17</v>
@@ -9487,9 +9493,9 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="55"/>
+      <c r="A27" s="52"/>
       <c r="B27" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C27" s="22" t="s">
         <v>17</v>
@@ -9509,104 +9515,99 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D28" s="30">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="24">
-        <v>-1</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F28" s="24"/>
       <c r="G28" s="24"/>
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
       <c r="J28" s="27" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="52"/>
+      <c r="B29" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="30">
+        <v>20</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="24">
+        <v>-1</v>
+      </c>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="27" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
-      <c r="B29" s="21" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="52"/>
+      <c r="B30" s="21" t="s">
         <v>892</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C30" s="22" t="s">
         <v>895</v>
       </c>
-      <c r="D29" s="30"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="27"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="55" t="s">
+      <c r="D30" s="30"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="27"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="52" t="s">
         <v>717</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B31" s="21" t="s">
         <v>714</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C31" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D31" s="30" t="s">
         <v>745</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I30" s="23"/>
-      <c r="J30" s="27" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
-      <c r="B31" s="21" t="s">
-        <v>720</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="30" t="s">
-        <v>35</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I31" s="23"/>
       <c r="J31" s="27" t="s">
-        <v>763</v>
-      </c>
-      <c r="L31" s="26"/>
+        <v>718</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="55"/>
+      <c r="A32" s="52"/>
       <c r="B32" s="21" t="s">
-        <v>120</v>
+        <v>720</v>
       </c>
       <c r="C32" s="22" t="s">
         <v>17</v>
@@ -9615,11 +9616,9 @@
         <v>35</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>36</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F32" s="10"/>
       <c r="G32" s="10" t="s">
         <v>13</v>
       </c>
@@ -9628,13 +9627,14 @@
       </c>
       <c r="I32" s="23"/>
       <c r="J32" s="27" t="s">
-        <v>764</v>
-      </c>
+        <v>763</v>
+      </c>
+      <c r="L32" s="26"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="55"/>
+      <c r="A33" s="52"/>
       <c r="B33" s="21" t="s">
-        <v>740</v>
+        <v>120</v>
       </c>
       <c r="C33" s="22" t="s">
         <v>17</v>
@@ -9642,183 +9642,191 @@
       <c r="D33" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
+      <c r="E33" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" s="23"/>
       <c r="J33" s="27" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="52"/>
+      <c r="B34" s="21" t="s">
+        <v>740</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="27" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="58" t="s">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="55" t="s">
         <v>743</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B35" s="21" t="s">
         <v>719</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C35" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="D35" s="30" t="s">
         <v>745</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I34" s="23"/>
-      <c r="J34" s="27" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
-      <c r="B35" s="29" t="s">
-        <v>827</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="30" t="s">
-        <v>20</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H35" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I35" s="23"/>
       <c r="J35" s="27" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="52"/>
+      <c r="B36" s="29" t="s">
+        <v>827</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" s="23"/>
+      <c r="J36" s="27" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="55"/>
-      <c r="B36" s="47" t="s">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="52"/>
+      <c r="B37" s="45" t="s">
         <v>832</v>
       </c>
-      <c r="C36" s="44" t="s">
+      <c r="C37" s="42" t="s">
         <v>707</v>
       </c>
-      <c r="D36" s="45" t="s">
+      <c r="D37" s="43" t="s">
         <v>745</v>
       </c>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="46" t="s">
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="44" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
-      <c r="B37" s="47" t="s">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="52"/>
+      <c r="B38" s="45" t="s">
         <v>833</v>
       </c>
-      <c r="C37" s="44" t="s">
+      <c r="C38" s="42" t="s">
         <v>707</v>
       </c>
-      <c r="D37" s="45" t="s">
+      <c r="D38" s="43" t="s">
         <v>749</v>
       </c>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="46" t="s">
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="44" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="55"/>
-      <c r="B38" s="29" t="s">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="52"/>
+      <c r="B39" s="29" t="s">
         <v>746</v>
       </c>
-      <c r="C38" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="30" t="s">
+      <c r="C39" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="30" t="s">
         <v>861</v>
       </c>
-      <c r="E38" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I38" s="23"/>
-      <c r="J38" s="27" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="55"/>
-      <c r="B39" s="29" t="s">
-        <v>723</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="30" t="s">
-        <v>20</v>
-      </c>
       <c r="E39" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
+      <c r="G39" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="I39" s="23"/>
       <c r="J39" s="27" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="52"/>
+      <c r="B40" s="29" t="s">
+        <v>723</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="27" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="63" t="s">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="56" t="s">
         <v>724</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B41" s="21" t="s">
         <v>122</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="30" t="s">
-        <v>745</v>
-      </c>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="27" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="63"/>
-      <c r="B41" s="21" t="s">
-        <v>123</v>
       </c>
       <c r="C41" s="22" t="s">
         <v>11</v>
@@ -9832,13 +9840,13 @@
       <c r="H41" s="24"/>
       <c r="I41" s="24"/>
       <c r="J41" s="27" t="s">
-        <v>766</v>
+        <v>907</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="63"/>
+      <c r="A42" s="56"/>
       <c r="B42" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C42" s="22" t="s">
         <v>11</v>
@@ -9852,13 +9860,13 @@
       <c r="H42" s="24"/>
       <c r="I42" s="24"/>
       <c r="J42" s="27" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="63"/>
+      <c r="A43" s="56"/>
       <c r="B43" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C43" s="22" t="s">
         <v>11</v>
@@ -9872,38 +9880,38 @@
       <c r="H43" s="24"/>
       <c r="I43" s="24"/>
       <c r="J43" s="27" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="63"/>
-      <c r="B44" s="53" t="s">
-        <v>904</v>
+      <c r="A44" s="56"/>
+      <c r="B44" s="21" t="s">
+        <v>125</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>707</v>
-      </c>
-      <c r="D44" s="38" t="s">
-        <v>727</v>
+        <v>11</v>
+      </c>
+      <c r="D44" s="30" t="s">
+        <v>745</v>
       </c>
       <c r="E44" s="24"/>
       <c r="F44" s="24"/>
       <c r="G44" s="24"/>
       <c r="H44" s="24"/>
       <c r="I44" s="24"/>
-      <c r="J44" s="35" t="s">
-        <v>906</v>
+      <c r="J44" s="27" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="63"/>
-      <c r="B45" s="29" t="s">
-        <v>896</v>
+      <c r="A45" s="56"/>
+      <c r="B45" s="50" t="s">
+        <v>904</v>
       </c>
       <c r="C45" s="22" t="s">
         <v>707</v>
       </c>
-      <c r="D45" s="30" t="s">
+      <c r="D45" s="36" t="s">
         <v>727</v>
       </c>
       <c r="E45" s="24"/>
@@ -9911,20 +9919,20 @@
       <c r="G45" s="24"/>
       <c r="H45" s="24"/>
       <c r="I45" s="24"/>
-      <c r="J45" s="27" t="s">
-        <v>905</v>
+      <c r="J45" s="34" t="s">
+        <v>906</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="63"/>
-      <c r="B46" s="21" t="s">
-        <v>126</v>
+      <c r="A46" s="56"/>
+      <c r="B46" s="29" t="s">
+        <v>896</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>11</v>
+        <v>707</v>
       </c>
       <c r="D46" s="30" t="s">
-        <v>745</v>
+        <v>727</v>
       </c>
       <c r="E46" s="24"/>
       <c r="F46" s="24"/>
@@ -9932,19 +9940,19 @@
       <c r="H46" s="24"/>
       <c r="I46" s="24"/>
       <c r="J46" s="27" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="63"/>
+      <c r="A47" s="56"/>
       <c r="B47" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>20</v>
+        <v>745</v>
       </c>
       <c r="E47" s="24"/>
       <c r="F47" s="24"/>
@@ -9952,19 +9960,19 @@
       <c r="H47" s="24"/>
       <c r="I47" s="24"/>
       <c r="J47" s="27" t="s">
-        <v>769</v>
+        <v>908</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="63"/>
+      <c r="A48" s="56"/>
       <c r="B48" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C48" s="22" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E48" s="24"/>
       <c r="F48" s="24"/>
@@ -9972,19 +9980,19 @@
       <c r="H48" s="24"/>
       <c r="I48" s="24"/>
       <c r="J48" s="27" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="63"/>
+      <c r="A49" s="56"/>
       <c r="B49" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>745</v>
+        <v>12</v>
       </c>
       <c r="E49" s="24"/>
       <c r="F49" s="24"/>
@@ -9992,19 +10000,19 @@
       <c r="H49" s="24"/>
       <c r="I49" s="24"/>
       <c r="J49" s="27" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="63"/>
+      <c r="A50" s="56"/>
       <c r="B50" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>12</v>
+        <v>745</v>
       </c>
       <c r="E50" s="24"/>
       <c r="F50" s="24"/>
@@ -10012,19 +10020,19 @@
       <c r="H50" s="24"/>
       <c r="I50" s="24"/>
       <c r="J50" s="27" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="63"/>
+      <c r="A51" s="56"/>
       <c r="B51" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C51" s="22" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E51" s="24"/>
       <c r="F51" s="24"/>
@@ -10032,15 +10040,13 @@
       <c r="H51" s="24"/>
       <c r="I51" s="24"/>
       <c r="J51" s="27" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="58" t="s">
-        <v>725</v>
-      </c>
+      <c r="A52" s="56"/>
       <c r="B52" s="21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C52" s="22" t="s">
         <v>17</v>
@@ -10048,71 +10054,67 @@
       <c r="D52" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E52" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H52" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I52" s="23"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
       <c r="J52" s="27" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="55" t="s">
+        <v>725</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53" s="23"/>
+      <c r="J53" s="27" t="s">
         <v>774</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="58"/>
-      <c r="B53" s="47" t="s">
-        <v>832</v>
-      </c>
-      <c r="C53" s="44" t="s">
-        <v>707</v>
-      </c>
-      <c r="D53" s="45" t="s">
-        <v>745</v>
-      </c>
-      <c r="E53" s="48"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="48"/>
-      <c r="H53" s="48"/>
-      <c r="I53" s="48"/>
-      <c r="J53" s="46" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="55"/>
-      <c r="B54" s="21" t="s">
+      <c r="B54" s="45" t="s">
+        <v>832</v>
+      </c>
+      <c r="C54" s="42" t="s">
+        <v>707</v>
+      </c>
+      <c r="D54" s="43" t="s">
+        <v>745</v>
+      </c>
+      <c r="E54" s="46"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="46"/>
+      <c r="J54" s="44" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="52"/>
+      <c r="B55" s="21" t="s">
         <v>134</v>
-      </c>
-      <c r="C54" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D54" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H54" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I54" s="23"/>
-      <c r="J54" s="27" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="55"/>
-      <c r="B55" s="21" t="s">
-        <v>52</v>
       </c>
       <c r="C55" s="22" t="s">
         <v>17</v>
@@ -10124,85 +10126,91 @@
         <v>13</v>
       </c>
       <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
+      <c r="G55" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="I55" s="23"/>
       <c r="J55" s="27" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="58" t="s">
-        <v>837</v>
-      </c>
-      <c r="B56" s="29" t="s">
-        <v>836</v>
+      <c r="A56" s="52"/>
+      <c r="B56" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D56" s="30" t="s">
-        <v>745</v>
-      </c>
-      <c r="E56" s="10"/>
+        <v>20</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
       <c r="I56" s="23"/>
       <c r="J56" s="27" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="55" t="s">
+        <v>837</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>836</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="30" t="s">
+        <v>745</v>
+      </c>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="27" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="55"/>
-      <c r="B57" s="47" t="s">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="52"/>
+      <c r="B58" s="45" t="s">
         <v>832</v>
       </c>
-      <c r="C57" s="44" t="s">
+      <c r="C58" s="42" t="s">
         <v>707</v>
       </c>
-      <c r="D57" s="45" t="s">
+      <c r="D58" s="43" t="s">
         <v>745</v>
       </c>
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="48"/>
-      <c r="I57" s="48"/>
-      <c r="J57" s="46" t="s">
+      <c r="E58" s="46"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="46"/>
+      <c r="J58" s="44" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="55"/>
-      <c r="B58" s="21" t="s">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="52"/>
+      <c r="B59" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C58" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D58" s="30" t="s">
+      <c r="C59" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="30" t="s">
         <v>35</v>
-      </c>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="27" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="55"/>
-      <c r="B59" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C59" s="22" t="s">
-        <v>706</v>
-      </c>
-      <c r="D59" s="30" t="s">
-        <v>24</v>
       </c>
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
@@ -10210,21 +10218,19 @@
       <c r="H59" s="10"/>
       <c r="I59" s="23"/>
       <c r="J59" s="27" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="58" t="s">
-        <v>838</v>
-      </c>
+      <c r="A60" s="52"/>
       <c r="B60" s="21" t="s">
-        <v>137</v>
+        <v>52</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>11</v>
+        <v>706</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>745</v>
+        <v>24</v>
       </c>
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
@@ -10232,53 +10238,55 @@
       <c r="H60" s="10"/>
       <c r="I60" s="23"/>
       <c r="J60" s="27" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="55" t="s">
+        <v>838</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="30" t="s">
+        <v>745</v>
+      </c>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="27" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="55"/>
-      <c r="B61" s="47" t="s">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="52"/>
+      <c r="B62" s="45" t="s">
         <v>832</v>
       </c>
-      <c r="C61" s="44" t="s">
+      <c r="C62" s="42" t="s">
         <v>707</v>
       </c>
-      <c r="D61" s="45" t="s">
+      <c r="D62" s="43" t="s">
         <v>745</v>
       </c>
-      <c r="E61" s="48"/>
-      <c r="F61" s="48"/>
-      <c r="G61" s="48"/>
-      <c r="H61" s="48"/>
-      <c r="I61" s="48"/>
-      <c r="J61" s="46" t="s">
+      <c r="E62" s="46"/>
+      <c r="F62" s="46"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="46"/>
+      <c r="I62" s="46"/>
+      <c r="J62" s="44" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="55"/>
-      <c r="B62" s="21" t="s">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="52"/>
+      <c r="B63" s="21" t="s">
         <v>139</v>
-      </c>
-      <c r="C62" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D62" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="23"/>
-      <c r="J62" s="27" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="55"/>
-      <c r="B63" s="21" t="s">
-        <v>140</v>
       </c>
       <c r="C63" s="22" t="s">
         <v>17</v>
@@ -10292,19 +10300,19 @@
       <c r="H63" s="10"/>
       <c r="I63" s="23"/>
       <c r="J63" s="27" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="55"/>
+      <c r="A64" s="52"/>
       <c r="B64" s="21" t="s">
-        <v>852</v>
+        <v>140</v>
       </c>
       <c r="C64" s="22" t="s">
         <v>17</v>
       </c>
       <c r="D64" s="30" t="s">
-        <v>727</v>
+        <v>35</v>
       </c>
       <c r="E64" s="10"/>
       <c r="F64" s="10"/>
@@ -10312,19 +10320,19 @@
       <c r="H64" s="10"/>
       <c r="I64" s="23"/>
       <c r="J64" s="27" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="55"/>
+      <c r="A65" s="52"/>
       <c r="B65" s="21" t="s">
-        <v>142</v>
+        <v>852</v>
       </c>
       <c r="C65" s="22" t="s">
         <v>17</v>
       </c>
       <c r="D65" s="30" t="s">
-        <v>35</v>
+        <v>727</v>
       </c>
       <c r="E65" s="10"/>
       <c r="F65" s="10"/>
@@ -10332,19 +10340,19 @@
       <c r="H65" s="10"/>
       <c r="I65" s="23"/>
       <c r="J65" s="27" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="55"/>
+      <c r="A66" s="52"/>
       <c r="B66" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>707</v>
+        <v>17</v>
       </c>
       <c r="D66" s="30" t="s">
-        <v>749</v>
+        <v>35</v>
       </c>
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
@@ -10352,19 +10360,19 @@
       <c r="H66" s="10"/>
       <c r="I66" s="23"/>
       <c r="J66" s="27" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="55"/>
+      <c r="A67" s="52"/>
       <c r="B67" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>17</v>
+        <v>707</v>
       </c>
       <c r="D67" s="30" t="s">
-        <v>35</v>
+        <v>749</v>
       </c>
       <c r="E67" s="10"/>
       <c r="F67" s="10"/>
@@ -10372,13 +10380,13 @@
       <c r="H67" s="10"/>
       <c r="I67" s="23"/>
       <c r="J67" s="27" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="55"/>
+      <c r="A68" s="52"/>
       <c r="B68" s="21" t="s">
-        <v>730</v>
+        <v>144</v>
       </c>
       <c r="C68" s="22" t="s">
         <v>17</v>
@@ -10392,19 +10400,19 @@
       <c r="H68" s="10"/>
       <c r="I68" s="23"/>
       <c r="J68" s="27" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="55"/>
+      <c r="A69" s="52"/>
       <c r="B69" s="21" t="s">
-        <v>145</v>
+        <v>730</v>
       </c>
       <c r="C69" s="22" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
@@ -10412,19 +10420,19 @@
       <c r="H69" s="10"/>
       <c r="I69" s="23"/>
       <c r="J69" s="27" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="55"/>
+      <c r="A70" s="52"/>
       <c r="B70" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C70" s="22" t="s">
         <v>23</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E70" s="10"/>
       <c r="F70" s="10"/>
@@ -10432,21 +10440,19 @@
       <c r="H70" s="10"/>
       <c r="I70" s="23"/>
       <c r="J70" s="27" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="58" t="s">
-        <v>839</v>
-      </c>
+      <c r="A71" s="52"/>
       <c r="B71" s="21" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="C71" s="22" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D71" s="30" t="s">
-        <v>745</v>
+        <v>24</v>
       </c>
       <c r="E71" s="10"/>
       <c r="F71" s="10"/>
@@ -10454,53 +10460,55 @@
       <c r="H71" s="10"/>
       <c r="I71" s="23"/>
       <c r="J71" s="27" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="55" t="s">
+        <v>839</v>
+      </c>
+      <c r="B72" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" s="30" t="s">
+        <v>745</v>
+      </c>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="23"/>
+      <c r="J72" s="27" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="55"/>
-      <c r="B72" s="47" t="s">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="52"/>
+      <c r="B73" s="45" t="s">
         <v>832</v>
       </c>
-      <c r="C72" s="44" t="s">
+      <c r="C73" s="42" t="s">
         <v>707</v>
       </c>
-      <c r="D72" s="45" t="s">
+      <c r="D73" s="43" t="s">
         <v>745</v>
       </c>
-      <c r="E72" s="48"/>
-      <c r="F72" s="48"/>
-      <c r="G72" s="48"/>
-      <c r="H72" s="48"/>
-      <c r="I72" s="48"/>
-      <c r="J72" s="46" t="s">
+      <c r="E73" s="46"/>
+      <c r="F73" s="46"/>
+      <c r="G73" s="46"/>
+      <c r="H73" s="46"/>
+      <c r="I73" s="46"/>
+      <c r="J73" s="44" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="55"/>
-      <c r="B73" s="21" t="s">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="52"/>
+      <c r="B74" s="21" t="s">
         <v>147</v>
-      </c>
-      <c r="C73" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D73" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="E73" s="24"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="24"/>
-      <c r="I73" s="24"/>
-      <c r="J73" s="27" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="55"/>
-      <c r="B74" s="21" t="s">
-        <v>148</v>
       </c>
       <c r="C74" s="22" t="s">
         <v>17</v>
@@ -10514,13 +10522,13 @@
       <c r="H74" s="24"/>
       <c r="I74" s="24"/>
       <c r="J74" s="27" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="55"/>
+      <c r="A75" s="52"/>
       <c r="B75" s="21" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C75" s="22" t="s">
         <v>17</v>
@@ -10534,19 +10542,19 @@
       <c r="H75" s="24"/>
       <c r="I75" s="24"/>
       <c r="J75" s="27" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="55"/>
+      <c r="A76" s="52"/>
       <c r="B76" s="21" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C76" s="22" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D76" s="30" t="s">
-        <v>705</v>
+        <v>35</v>
       </c>
       <c r="E76" s="24"/>
       <c r="F76" s="24"/>
@@ -10554,13 +10562,13 @@
       <c r="H76" s="24"/>
       <c r="I76" s="24"/>
       <c r="J76" s="27" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="55"/>
+      <c r="A77" s="52"/>
       <c r="B77" s="21" t="s">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="C77" s="22" t="s">
         <v>23</v>
@@ -10574,19 +10582,19 @@
       <c r="H77" s="24"/>
       <c r="I77" s="24"/>
       <c r="J77" s="27" t="s">
-        <v>778</v>
+        <v>788</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="55"/>
+      <c r="A78" s="52"/>
       <c r="B78" s="21" t="s">
-        <v>739</v>
+        <v>52</v>
       </c>
       <c r="C78" s="22" t="s">
         <v>23</v>
       </c>
       <c r="D78" s="30" t="s">
-        <v>27</v>
+        <v>705</v>
       </c>
       <c r="E78" s="24"/>
       <c r="F78" s="24"/>
@@ -10594,19 +10602,19 @@
       <c r="H78" s="24"/>
       <c r="I78" s="24"/>
       <c r="J78" s="27" t="s">
-        <v>792</v>
+        <v>778</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="55"/>
+      <c r="A79" s="52"/>
       <c r="B79" s="21" t="s">
-        <v>134</v>
+        <v>739</v>
       </c>
       <c r="C79" s="22" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D79" s="30" t="s">
-        <v>727</v>
+        <v>27</v>
       </c>
       <c r="E79" s="24"/>
       <c r="F79" s="24"/>
@@ -10614,55 +10622,55 @@
       <c r="H79" s="24"/>
       <c r="I79" s="24"/>
       <c r="J79" s="27" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="52"/>
+      <c r="B80" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C80" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" s="30" t="s">
+        <v>727</v>
+      </c>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="24"/>
+      <c r="H80" s="24"/>
+      <c r="I80" s="24"/>
+      <c r="J80" s="27" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="58" t="s">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="55" t="s">
         <v>840</v>
       </c>
-      <c r="B80" s="47" t="s">
+      <c r="B81" s="45" t="s">
         <v>832</v>
       </c>
-      <c r="C80" s="44" t="s">
+      <c r="C81" s="42" t="s">
         <v>707</v>
       </c>
-      <c r="D80" s="45" t="s">
+      <c r="D81" s="43" t="s">
         <v>745</v>
       </c>
-      <c r="E80" s="48"/>
-      <c r="F80" s="48"/>
-      <c r="G80" s="48"/>
-      <c r="H80" s="48"/>
-      <c r="I80" s="48"/>
-      <c r="J80" s="46" t="s">
+      <c r="E81" s="46"/>
+      <c r="F81" s="46"/>
+      <c r="G81" s="46"/>
+      <c r="H81" s="46"/>
+      <c r="I81" s="46"/>
+      <c r="J81" s="44" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="55"/>
-      <c r="B81" s="21" t="s">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="52"/>
+      <c r="B82" s="21" t="s">
         <v>152</v>
-      </c>
-      <c r="C81" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D81" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="E81" s="24"/>
-      <c r="F81" s="24"/>
-      <c r="G81" s="24"/>
-      <c r="H81" s="24"/>
-      <c r="I81" s="24"/>
-      <c r="J81" s="27" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="55"/>
-      <c r="B82" s="21" t="s">
-        <v>153</v>
       </c>
       <c r="C82" s="22" t="s">
         <v>17</v>
@@ -10676,13 +10684,13 @@
       <c r="H82" s="24"/>
       <c r="I82" s="24"/>
       <c r="J82" s="27" t="s">
-        <v>794</v>
+        <v>728</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="55"/>
+      <c r="A83" s="52"/>
       <c r="B83" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C83" s="22" t="s">
         <v>17</v>
@@ -10696,19 +10704,19 @@
       <c r="H83" s="24"/>
       <c r="I83" s="24"/>
       <c r="J83" s="27" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="55"/>
+      <c r="A84" s="52"/>
       <c r="B84" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C84" s="22" t="s">
         <v>17</v>
       </c>
       <c r="D84" s="30" t="s">
-        <v>749</v>
+        <v>35</v>
       </c>
       <c r="E84" s="24"/>
       <c r="F84" s="24"/>
@@ -10716,19 +10724,19 @@
       <c r="H84" s="24"/>
       <c r="I84" s="24"/>
       <c r="J84" s="27" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="55"/>
-      <c r="B85" s="29" t="s">
-        <v>852</v>
+      <c r="A85" s="52"/>
+      <c r="B85" s="21" t="s">
+        <v>155</v>
       </c>
       <c r="C85" s="22" t="s">
         <v>17</v>
       </c>
       <c r="D85" s="30" t="s">
-        <v>727</v>
+        <v>749</v>
       </c>
       <c r="E85" s="24"/>
       <c r="F85" s="24"/>
@@ -10736,19 +10744,19 @@
       <c r="H85" s="24"/>
       <c r="I85" s="24"/>
       <c r="J85" s="27" t="s">
-        <v>729</v>
+        <v>796</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="55"/>
-      <c r="B86" s="21" t="s">
-        <v>52</v>
+      <c r="A86" s="52"/>
+      <c r="B86" s="29" t="s">
+        <v>852</v>
       </c>
       <c r="C86" s="22" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D86" s="30" t="s">
-        <v>156</v>
+        <v>727</v>
       </c>
       <c r="E86" s="24"/>
       <c r="F86" s="24"/>
@@ -10756,21 +10764,19 @@
       <c r="H86" s="24"/>
       <c r="I86" s="24"/>
       <c r="J86" s="27" t="s">
-        <v>778</v>
+        <v>729</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="58" t="s">
-        <v>841</v>
-      </c>
+      <c r="A87" s="52"/>
       <c r="B87" s="21" t="s">
-        <v>157</v>
+        <v>52</v>
       </c>
       <c r="C87" s="22" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D87" s="30" t="s">
-        <v>745</v>
+        <v>156</v>
       </c>
       <c r="E87" s="24"/>
       <c r="F87" s="24"/>
@@ -10778,53 +10784,55 @@
       <c r="H87" s="24"/>
       <c r="I87" s="24"/>
       <c r="J87" s="27" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="55" t="s">
+        <v>841</v>
+      </c>
+      <c r="B88" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="C88" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" s="30" t="s">
+        <v>745</v>
+      </c>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="24"/>
+      <c r="I88" s="24"/>
+      <c r="J88" s="27" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="55"/>
-      <c r="B88" s="47" t="s">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="52"/>
+      <c r="B89" s="45" t="s">
         <v>832</v>
       </c>
-      <c r="C88" s="44" t="s">
+      <c r="C89" s="42" t="s">
         <v>707</v>
       </c>
-      <c r="D88" s="45" t="s">
+      <c r="D89" s="43" t="s">
         <v>745</v>
       </c>
-      <c r="E88" s="48"/>
-      <c r="F88" s="48"/>
-      <c r="G88" s="48"/>
-      <c r="H88" s="48"/>
-      <c r="I88" s="48"/>
-      <c r="J88" s="46" t="s">
+      <c r="E89" s="46"/>
+      <c r="F89" s="46"/>
+      <c r="G89" s="46"/>
+      <c r="H89" s="46"/>
+      <c r="I89" s="46"/>
+      <c r="J89" s="44" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="55"/>
-      <c r="B89" s="21" t="s">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="52"/>
+      <c r="B90" s="21" t="s">
         <v>158</v>
-      </c>
-      <c r="C89" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D89" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E89" s="24"/>
-      <c r="F89" s="24"/>
-      <c r="G89" s="24"/>
-      <c r="H89" s="24"/>
-      <c r="I89" s="24"/>
-      <c r="J89" s="27" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="55"/>
-      <c r="B90" s="21" t="s">
-        <v>731</v>
       </c>
       <c r="C90" s="22" t="s">
         <v>17</v>
@@ -10838,13 +10846,13 @@
       <c r="H90" s="24"/>
       <c r="I90" s="24"/>
       <c r="J90" s="27" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="55"/>
+      <c r="A91" s="52"/>
       <c r="B91" s="21" t="s">
-        <v>159</v>
+        <v>731</v>
       </c>
       <c r="C91" s="22" t="s">
         <v>17</v>
@@ -10858,19 +10866,19 @@
       <c r="H91" s="24"/>
       <c r="I91" s="24"/>
       <c r="J91" s="27" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="55"/>
+      <c r="A92" s="52"/>
       <c r="B92" s="21" t="s">
-        <v>52</v>
+        <v>159</v>
       </c>
       <c r="C92" s="22" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D92" s="30" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E92" s="24"/>
       <c r="F92" s="24"/>
@@ -10878,21 +10886,19 @@
       <c r="H92" s="24"/>
       <c r="I92" s="24"/>
       <c r="J92" s="27" t="s">
-        <v>778</v>
+        <v>800</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="58" t="s">
-        <v>842</v>
-      </c>
+      <c r="A93" s="52"/>
       <c r="B93" s="21" t="s">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="C93" s="22" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D93" s="30" t="s">
-        <v>745</v>
+        <v>24</v>
       </c>
       <c r="E93" s="24"/>
       <c r="F93" s="24"/>
@@ -10900,53 +10906,55 @@
       <c r="H93" s="24"/>
       <c r="I93" s="24"/>
       <c r="J93" s="27" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="55" t="s">
+        <v>842</v>
+      </c>
+      <c r="B94" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="C94" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" s="30" t="s">
+        <v>745</v>
+      </c>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="24"/>
+      <c r="H94" s="24"/>
+      <c r="I94" s="24"/>
+      <c r="J94" s="27" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="55"/>
-      <c r="B94" s="47" t="s">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="52"/>
+      <c r="B95" s="45" t="s">
         <v>832</v>
       </c>
-      <c r="C94" s="44" t="s">
+      <c r="C95" s="42" t="s">
         <v>707</v>
       </c>
-      <c r="D94" s="45" t="s">
+      <c r="D95" s="43" t="s">
         <v>745</v>
       </c>
-      <c r="E94" s="48"/>
-      <c r="F94" s="48"/>
-      <c r="G94" s="48"/>
-      <c r="H94" s="48"/>
-      <c r="I94" s="48"/>
-      <c r="J94" s="46" t="s">
+      <c r="E95" s="46"/>
+      <c r="F95" s="46"/>
+      <c r="G95" s="46"/>
+      <c r="H95" s="46"/>
+      <c r="I95" s="46"/>
+      <c r="J95" s="44" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="55"/>
-      <c r="B95" s="21" t="s">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="52"/>
+      <c r="B96" s="21" t="s">
         <v>88</v>
-      </c>
-      <c r="C95" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D95" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E95" s="24"/>
-      <c r="F95" s="24"/>
-      <c r="G95" s="24"/>
-      <c r="H95" s="24"/>
-      <c r="I95" s="24"/>
-      <c r="J95" s="27" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="55"/>
-      <c r="B96" s="21" t="s">
-        <v>161</v>
       </c>
       <c r="C96" s="22" t="s">
         <v>17</v>
@@ -10960,13 +10968,13 @@
       <c r="H96" s="24"/>
       <c r="I96" s="24"/>
       <c r="J96" s="27" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="55"/>
+      <c r="A97" s="52"/>
       <c r="B97" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C97" s="22" t="s">
         <v>17</v>
@@ -10980,19 +10988,19 @@
       <c r="H97" s="24"/>
       <c r="I97" s="24"/>
       <c r="J97" s="27" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="55"/>
+      <c r="A98" s="52"/>
       <c r="B98" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C98" s="22" t="s">
-        <v>733</v>
+        <v>17</v>
       </c>
       <c r="D98" s="30" t="s">
-        <v>734</v>
+        <v>20</v>
       </c>
       <c r="E98" s="24"/>
       <c r="F98" s="24"/>
@@ -11000,55 +11008,55 @@
       <c r="H98" s="24"/>
       <c r="I98" s="24"/>
       <c r="J98" s="27" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="52"/>
+      <c r="B99" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="C99" s="22" t="s">
+        <v>733</v>
+      </c>
+      <c r="D99" s="30" t="s">
+        <v>734</v>
+      </c>
+      <c r="E99" s="24"/>
+      <c r="F99" s="24"/>
+      <c r="G99" s="24"/>
+      <c r="H99" s="24"/>
+      <c r="I99" s="24"/>
+      <c r="J99" s="27" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="58" t="s">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="55" t="s">
         <v>843</v>
       </c>
-      <c r="B99" s="47" t="s">
+      <c r="B100" s="45" t="s">
         <v>832</v>
       </c>
-      <c r="C99" s="44" t="s">
+      <c r="C100" s="42" t="s">
         <v>707</v>
       </c>
-      <c r="D99" s="45" t="s">
+      <c r="D100" s="43" t="s">
         <v>745</v>
       </c>
-      <c r="E99" s="48"/>
-      <c r="F99" s="48"/>
-      <c r="G99" s="48"/>
-      <c r="H99" s="48"/>
-      <c r="I99" s="48"/>
-      <c r="J99" s="46" t="s">
+      <c r="E100" s="46"/>
+      <c r="F100" s="46"/>
+      <c r="G100" s="46"/>
+      <c r="H100" s="46"/>
+      <c r="I100" s="46"/>
+      <c r="J100" s="44" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="55"/>
-      <c r="B100" s="21" t="s">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="52"/>
+      <c r="B101" s="21" t="s">
         <v>164</v>
-      </c>
-      <c r="C100" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D100" s="30" t="s">
-        <v>726</v>
-      </c>
-      <c r="E100" s="24"/>
-      <c r="F100" s="24"/>
-      <c r="G100" s="24"/>
-      <c r="H100" s="24"/>
-      <c r="I100" s="24"/>
-      <c r="J100" s="27" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="55"/>
-      <c r="B101" s="21" t="s">
-        <v>165</v>
       </c>
       <c r="C101" s="22" t="s">
         <v>11</v>
@@ -11062,55 +11070,55 @@
       <c r="H101" s="24"/>
       <c r="I101" s="24"/>
       <c r="J101" s="27" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="52"/>
+      <c r="B102" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="C102" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" s="30" t="s">
+        <v>726</v>
+      </c>
+      <c r="E102" s="24"/>
+      <c r="F102" s="24"/>
+      <c r="G102" s="24"/>
+      <c r="H102" s="24"/>
+      <c r="I102" s="24"/>
+      <c r="J102" s="27" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="58" t="s">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="55" t="s">
         <v>844</v>
       </c>
-      <c r="B102" s="47" t="s">
+      <c r="B103" s="45" t="s">
         <v>832</v>
       </c>
-      <c r="C102" s="44" t="s">
+      <c r="C103" s="42" t="s">
         <v>707</v>
       </c>
-      <c r="D102" s="45" t="s">
+      <c r="D103" s="43" t="s">
         <v>745</v>
       </c>
-      <c r="E102" s="48"/>
-      <c r="F102" s="48"/>
-      <c r="G102" s="48"/>
-      <c r="H102" s="48"/>
-      <c r="I102" s="48"/>
-      <c r="J102" s="46" t="s">
+      <c r="E103" s="46"/>
+      <c r="F103" s="46"/>
+      <c r="G103" s="46"/>
+      <c r="H103" s="46"/>
+      <c r="I103" s="46"/>
+      <c r="J103" s="44" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="55"/>
-      <c r="B103" s="21" t="s">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="52"/>
+      <c r="B104" s="21" t="s">
         <v>164</v>
-      </c>
-      <c r="C103" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D103" s="30" t="s">
-        <v>726</v>
-      </c>
-      <c r="E103" s="24"/>
-      <c r="F103" s="24"/>
-      <c r="G103" s="24"/>
-      <c r="H103" s="24"/>
-      <c r="I103" s="24"/>
-      <c r="J103" s="27" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="55"/>
-      <c r="B104" s="21" t="s">
-        <v>166</v>
       </c>
       <c r="C104" s="22" t="s">
         <v>11</v>
@@ -11124,55 +11132,55 @@
       <c r="H104" s="24"/>
       <c r="I104" s="24"/>
       <c r="J104" s="27" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="52"/>
+      <c r="B105" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C105" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D105" s="30" t="s">
+        <v>726</v>
+      </c>
+      <c r="E105" s="24"/>
+      <c r="F105" s="24"/>
+      <c r="G105" s="24"/>
+      <c r="H105" s="24"/>
+      <c r="I105" s="24"/>
+      <c r="J105" s="27" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="58" t="s">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="55" t="s">
         <v>845</v>
       </c>
-      <c r="B105" s="47" t="s">
+      <c r="B106" s="45" t="s">
         <v>832</v>
       </c>
-      <c r="C105" s="44" t="s">
+      <c r="C106" s="42" t="s">
         <v>707</v>
       </c>
-      <c r="D105" s="45" t="s">
+      <c r="D106" s="43" t="s">
         <v>745</v>
       </c>
-      <c r="E105" s="48"/>
-      <c r="F105" s="48"/>
-      <c r="G105" s="48"/>
-      <c r="H105" s="48"/>
-      <c r="I105" s="48"/>
-      <c r="J105" s="46" t="s">
+      <c r="E106" s="46"/>
+      <c r="F106" s="46"/>
+      <c r="G106" s="46"/>
+      <c r="H106" s="46"/>
+      <c r="I106" s="46"/>
+      <c r="J106" s="44" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="55"/>
-      <c r="B106" s="21" t="s">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="52"/>
+      <c r="B107" s="21" t="s">
         <v>164</v>
-      </c>
-      <c r="C106" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D106" s="30" t="s">
-        <v>726</v>
-      </c>
-      <c r="E106" s="24"/>
-      <c r="F106" s="24"/>
-      <c r="G106" s="24"/>
-      <c r="H106" s="24"/>
-      <c r="I106" s="24"/>
-      <c r="J106" s="27" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="55"/>
-      <c r="B107" s="21" t="s">
-        <v>168</v>
       </c>
       <c r="C107" s="22" t="s">
         <v>11</v>
@@ -11186,55 +11194,55 @@
       <c r="H107" s="24"/>
       <c r="I107" s="24"/>
       <c r="J107" s="27" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="52"/>
+      <c r="B108" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C108" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" s="30" t="s">
+        <v>726</v>
+      </c>
+      <c r="E108" s="24"/>
+      <c r="F108" s="24"/>
+      <c r="G108" s="24"/>
+      <c r="H108" s="24"/>
+      <c r="I108" s="24"/>
+      <c r="J108" s="27" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="58" t="s">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="55" t="s">
         <v>846</v>
       </c>
-      <c r="B108" s="47" t="s">
+      <c r="B109" s="45" t="s">
         <v>832</v>
       </c>
-      <c r="C108" s="44" t="s">
+      <c r="C109" s="42" t="s">
         <v>707</v>
       </c>
-      <c r="D108" s="45" t="s">
+      <c r="D109" s="43" t="s">
         <v>745</v>
       </c>
-      <c r="E108" s="48"/>
-      <c r="F108" s="48"/>
-      <c r="G108" s="48"/>
-      <c r="H108" s="48"/>
-      <c r="I108" s="48"/>
-      <c r="J108" s="46" t="s">
+      <c r="E109" s="46"/>
+      <c r="F109" s="46"/>
+      <c r="G109" s="46"/>
+      <c r="H109" s="46"/>
+      <c r="I109" s="46"/>
+      <c r="J109" s="44" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="55"/>
-      <c r="B109" s="21" t="s">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="52"/>
+      <c r="B110" s="21" t="s">
         <v>164</v>
-      </c>
-      <c r="C109" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D109" s="30" t="s">
-        <v>726</v>
-      </c>
-      <c r="E109" s="24"/>
-      <c r="F109" s="24"/>
-      <c r="G109" s="24"/>
-      <c r="H109" s="24"/>
-      <c r="I109" s="24"/>
-      <c r="J109" s="27" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="55"/>
-      <c r="B110" s="21" t="s">
-        <v>169</v>
       </c>
       <c r="C110" s="22" t="s">
         <v>11</v>
@@ -11248,21 +11256,19 @@
       <c r="H110" s="24"/>
       <c r="I110" s="24"/>
       <c r="J110" s="27" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="60" t="s">
-        <v>170</v>
-      </c>
+      <c r="A111" s="52"/>
       <c r="B111" s="21" t="s">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="C111" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D111" s="30">
-        <v>19</v>
+      <c r="D111" s="30" t="s">
+        <v>726</v>
       </c>
       <c r="E111" s="24"/>
       <c r="F111" s="24"/>
@@ -11270,19 +11276,21 @@
       <c r="H111" s="24"/>
       <c r="I111" s="24"/>
       <c r="J111" s="27" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="60"/>
-      <c r="B112" s="29" t="s">
-        <v>853</v>
+      <c r="A112" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="B112" s="21" t="s">
+        <v>105</v>
       </c>
       <c r="C112" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D112" s="30" t="s">
-        <v>704</v>
+        <v>11</v>
+      </c>
+      <c r="D112" s="30">
+        <v>19</v>
       </c>
       <c r="E112" s="24"/>
       <c r="F112" s="24"/>
@@ -11290,19 +11298,19 @@
       <c r="H112" s="24"/>
       <c r="I112" s="24"/>
       <c r="J112" s="27" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="60"/>
-      <c r="B113" s="21" t="s">
-        <v>172</v>
+      <c r="A113" s="57"/>
+      <c r="B113" s="29" t="s">
+        <v>853</v>
       </c>
       <c r="C113" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D113" s="30">
-        <v>32</v>
+      <c r="D113" s="30" t="s">
+        <v>704</v>
       </c>
       <c r="E113" s="24"/>
       <c r="F113" s="24"/>
@@ -11310,19 +11318,19 @@
       <c r="H113" s="24"/>
       <c r="I113" s="24"/>
       <c r="J113" s="27" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="60"/>
+      <c r="A114" s="57"/>
       <c r="B114" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C114" s="22" t="s">
-        <v>706</v>
+        <v>17</v>
       </c>
       <c r="D114" s="30">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E114" s="24"/>
       <c r="F114" s="24"/>
@@ -11330,21 +11338,19 @@
       <c r="H114" s="24"/>
       <c r="I114" s="24"/>
       <c r="J114" s="27" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="60" t="s">
-        <v>174</v>
-      </c>
+      <c r="A115" s="57"/>
       <c r="B115" s="21" t="s">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="C115" s="22" t="s">
-        <v>11</v>
+        <v>706</v>
       </c>
       <c r="D115" s="30">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E115" s="24"/>
       <c r="F115" s="24"/>
@@ -11352,19 +11358,21 @@
       <c r="H115" s="24"/>
       <c r="I115" s="24"/>
       <c r="J115" s="27" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="60"/>
+      <c r="A116" s="57" t="s">
+        <v>174</v>
+      </c>
       <c r="B116" s="21" t="s">
-        <v>175</v>
+        <v>105</v>
       </c>
       <c r="C116" s="22" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D116" s="30">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E116" s="24"/>
       <c r="F116" s="24"/>
@@ -11372,19 +11380,19 @@
       <c r="H116" s="24"/>
       <c r="I116" s="24"/>
       <c r="J116" s="27" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="60"/>
+      <c r="A117" s="57"/>
       <c r="B117" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C117" s="22" t="s">
         <v>17</v>
       </c>
       <c r="D117" s="30">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="E117" s="24"/>
       <c r="F117" s="24"/>
@@ -11392,19 +11400,19 @@
       <c r="H117" s="24"/>
       <c r="I117" s="24"/>
       <c r="J117" s="27" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="60"/>
+      <c r="A118" s="57"/>
       <c r="B118" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C118" s="22" t="s">
         <v>17</v>
       </c>
       <c r="D118" s="30">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E118" s="24"/>
       <c r="F118" s="24"/>
@@ -11412,21 +11420,19 @@
       <c r="H118" s="24"/>
       <c r="I118" s="24"/>
       <c r="J118" s="27" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="64" t="s">
-        <v>178</v>
-      </c>
+      <c r="A119" s="57"/>
       <c r="B119" s="21" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="C119" s="22" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D119" s="30">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E119" s="24"/>
       <c r="F119" s="24"/>
@@ -11434,19 +11440,21 @@
       <c r="H119" s="24"/>
       <c r="I119" s="24"/>
       <c r="J119" s="27" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="64"/>
+      <c r="A120" s="58" t="s">
+        <v>178</v>
+      </c>
       <c r="B120" s="21" t="s">
-        <v>179</v>
+        <v>105</v>
       </c>
       <c r="C120" s="22" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D120" s="30">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E120" s="24"/>
       <c r="F120" s="24"/>
@@ -11454,38 +11462,38 @@
       <c r="H120" s="24"/>
       <c r="I120" s="24"/>
       <c r="J120" s="27" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="64"/>
-      <c r="B121" s="53" t="s">
-        <v>897</v>
+      <c r="A121" s="58"/>
+      <c r="B121" s="21" t="s">
+        <v>179</v>
       </c>
       <c r="C121" s="22" t="s">
-        <v>733</v>
-      </c>
-      <c r="D121" s="38" t="s">
-        <v>898</v>
+        <v>23</v>
+      </c>
+      <c r="D121" s="30">
+        <v>3</v>
       </c>
       <c r="E121" s="24"/>
       <c r="F121" s="24"/>
       <c r="G121" s="24"/>
       <c r="H121" s="24"/>
       <c r="I121" s="24"/>
-      <c r="J121" s="35" t="s">
-        <v>899</v>
+      <c r="J121" s="27" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="64"/>
-      <c r="B122" s="37" t="s">
-        <v>900</v>
+      <c r="A122" s="58"/>
+      <c r="B122" s="50" t="s">
+        <v>897</v>
       </c>
       <c r="C122" s="22" t="s">
         <v>733</v>
       </c>
-      <c r="D122" s="38" t="s">
+      <c r="D122" s="36" t="s">
         <v>898</v>
       </c>
       <c r="E122" s="24"/>
@@ -11493,19 +11501,19 @@
       <c r="G122" s="24"/>
       <c r="H122" s="24"/>
       <c r="I122" s="24"/>
-      <c r="J122" s="35" t="s">
-        <v>902</v>
+      <c r="J122" s="34" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="64"/>
-      <c r="B123" s="37" t="s">
-        <v>901</v>
+      <c r="A123" s="58"/>
+      <c r="B123" s="35" t="s">
+        <v>900</v>
       </c>
       <c r="C123" s="22" t="s">
         <v>733</v>
       </c>
-      <c r="D123" s="38" t="s">
+      <c r="D123" s="36" t="s">
         <v>898</v>
       </c>
       <c r="E123" s="24"/>
@@ -11513,32 +11521,34 @@
       <c r="G123" s="24"/>
       <c r="H123" s="24"/>
       <c r="I123" s="24"/>
-      <c r="J123" s="35" t="s">
-        <v>903</v>
+      <c r="J123" s="34" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="64"/>
-      <c r="B124" s="21" t="s">
-        <v>180</v>
+      <c r="A124" s="58"/>
+      <c r="B124" s="35" t="s">
+        <v>901</v>
       </c>
       <c r="C124" s="22" t="s">
-        <v>735</v>
-      </c>
-      <c r="D124" s="30"/>
+        <v>733</v>
+      </c>
+      <c r="D124" s="36" t="s">
+        <v>898</v>
+      </c>
       <c r="E124" s="24"/>
       <c r="F124" s="24"/>
       <c r="G124" s="24"/>
       <c r="H124" s="24"/>
       <c r="I124" s="24"/>
-      <c r="J124" s="27" t="s">
-        <v>818</v>
+      <c r="J124" s="34" t="s">
+        <v>903</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="64"/>
+      <c r="A125" s="58"/>
       <c r="B125" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C125" s="22" t="s">
         <v>735</v>
@@ -11550,41 +11560,39 @@
       <c r="H125" s="24"/>
       <c r="I125" s="24"/>
       <c r="J125" s="27" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="60" t="s">
-        <v>831</v>
-      </c>
+      <c r="A126" s="58"/>
       <c r="B126" s="21" t="s">
-        <v>105</v>
+        <v>181</v>
       </c>
       <c r="C126" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D126" s="30">
-        <v>19</v>
-      </c>
+        <v>735</v>
+      </c>
+      <c r="D126" s="30"/>
       <c r="E126" s="24"/>
       <c r="F126" s="24"/>
       <c r="G126" s="24"/>
       <c r="H126" s="24"/>
       <c r="I126" s="24"/>
       <c r="J126" s="27" t="s">
-        <v>810</v>
+        <v>819</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="60"/>
-      <c r="B127" s="29" t="s">
-        <v>854</v>
+      <c r="A127" s="57" t="s">
+        <v>831</v>
+      </c>
+      <c r="B127" s="21" t="s">
+        <v>105</v>
       </c>
       <c r="C127" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D127" s="30" t="s">
-        <v>704</v>
+        <v>11</v>
+      </c>
+      <c r="D127" s="30">
+        <v>19</v>
       </c>
       <c r="E127" s="24"/>
       <c r="F127" s="24"/>
@@ -11592,52 +11600,69 @@
       <c r="H127" s="24"/>
       <c r="I127" s="24"/>
       <c r="J127" s="27" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="60"/>
-      <c r="B128" s="21" t="s">
-        <v>182</v>
+      <c r="A128" s="57"/>
+      <c r="B128" s="29" t="s">
+        <v>854</v>
       </c>
       <c r="C128" s="22" t="s">
-        <v>735</v>
-      </c>
-      <c r="D128" s="30"/>
+        <v>17</v>
+      </c>
+      <c r="D128" s="30" t="s">
+        <v>704</v>
+      </c>
       <c r="E128" s="24"/>
       <c r="F128" s="24"/>
       <c r="G128" s="24"/>
       <c r="H128" s="24"/>
       <c r="I128" s="24"/>
       <c r="J128" s="27" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="60"/>
+      <c r="A129" s="57"/>
       <c r="B129" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C129" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D129" s="30">
-        <v>512</v>
-      </c>
+        <v>735</v>
+      </c>
+      <c r="D129" s="30"/>
       <c r="E129" s="24"/>
       <c r="F129" s="24"/>
       <c r="G129" s="24"/>
       <c r="H129" s="24"/>
       <c r="I129" s="24"/>
       <c r="J129" s="27" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="57"/>
+      <c r="B130" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="C130" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D130" s="30">
+        <v>512</v>
+      </c>
+      <c r="E130" s="24"/>
+      <c r="F130" s="24"/>
+      <c r="G130" s="24"/>
+      <c r="H130" s="24"/>
+      <c r="I130" s="24"/>
+      <c r="J130" s="27" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="21"/>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C132" s="26"/>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="21"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C133" s="26"/>
@@ -11650,57 +11675,60 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C136" s="26"/>
-      <c r="D136" s="22"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C137" s="26"/>
       <c r="D137" s="22"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D138" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A87:A92"/>
-    <mergeCell ref="A93:A98"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="A40:A51"/>
-    <mergeCell ref="A126:A129"/>
-    <mergeCell ref="A111:A114"/>
-    <mergeCell ref="A115:A118"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="A105:A107"/>
-    <mergeCell ref="A119:A125"/>
-    <mergeCell ref="A60:A70"/>
-    <mergeCell ref="A80:A86"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A29"/>
-    <mergeCell ref="A71:A79"/>
+    <mergeCell ref="A7:A30"/>
+    <mergeCell ref="A72:A80"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A127:A130"/>
+    <mergeCell ref="A112:A115"/>
+    <mergeCell ref="A116:A119"/>
+    <mergeCell ref="A109:A111"/>
+    <mergeCell ref="A100:A102"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="A106:A108"/>
+    <mergeCell ref="A120:A126"/>
+    <mergeCell ref="A88:A93"/>
+    <mergeCell ref="A94:A99"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A41:A52"/>
+    <mergeCell ref="A61:A71"/>
+    <mergeCell ref="A81:A87"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="cellIs" dxfId="60" priority="2" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="49" priority="2" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:E1">
-    <cfRule type="cellIs" dxfId="59" priority="5" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="48" priority="5" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:H1">
-    <cfRule type="cellIs" dxfId="58" priority="3" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="47" priority="3" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="57" priority="4" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="46" priority="4" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="56" priority="1" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="45" priority="1" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11767,7 +11795,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="60" t="s">
         <v>184</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -11795,7 +11823,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A3" s="61"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="15" t="s">
         <v>134</v>
       </c>
@@ -11821,7 +11849,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A4" s="61"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="15" t="s">
         <v>135</v>
       </c>
@@ -11847,7 +11875,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A5" s="61"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="15" t="s">
         <v>188</v>
       </c>
@@ -11873,7 +11901,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A6" s="61"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="15" t="s">
         <v>190</v>
       </c>
@@ -11899,7 +11927,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="61"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="15" t="s">
         <v>192</v>
       </c>
@@ -11925,7 +11953,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="61"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="15" t="s">
         <v>194</v>
       </c>
@@ -11951,7 +11979,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A9" s="61"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="15" t="s">
         <v>196</v>
       </c>
@@ -11977,7 +12005,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A10" s="61"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="15" t="s">
         <v>146</v>
       </c>
@@ -12003,7 +12031,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A11" s="61"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="15" t="s">
         <v>199</v>
       </c>
@@ -12029,7 +12057,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A12" s="61"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="12" t="s">
         <v>201</v>
       </c>
@@ -12055,7 +12083,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A13" s="61"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="12" t="s">
         <v>203</v>
       </c>
@@ -12081,7 +12109,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A14" s="61"/>
+      <c r="A14" s="60"/>
       <c r="B14" s="15" t="s">
         <v>205</v>
       </c>
@@ -12107,7 +12135,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="60" t="s">
         <v>207</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -12135,7 +12163,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A16" s="61"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="12" t="s">
         <v>210</v>
       </c>
@@ -12161,7 +12189,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A17" s="61"/>
+      <c r="A17" s="60"/>
       <c r="B17" s="12" t="s">
         <v>212</v>
       </c>
@@ -12187,7 +12215,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A18" s="61"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="12" t="s">
         <v>214</v>
       </c>
@@ -12213,7 +12241,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A19" s="61"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="12" t="s">
         <v>216</v>
       </c>
@@ -12239,7 +12267,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A20" s="61"/>
+      <c r="A20" s="60"/>
       <c r="B20" s="12" t="s">
         <v>218</v>
       </c>
@@ -12265,7 +12293,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A21" s="61"/>
+      <c r="A21" s="60"/>
       <c r="B21" s="12" t="s">
         <v>220</v>
       </c>
@@ -12291,7 +12319,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A22" s="61"/>
+      <c r="A22" s="60"/>
       <c r="B22" s="12" t="s">
         <v>222</v>
       </c>
@@ -12317,7 +12345,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A23" s="61"/>
+      <c r="A23" s="60"/>
       <c r="B23" s="12" t="s">
         <v>224</v>
       </c>
@@ -12343,7 +12371,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A24" s="61"/>
+      <c r="A24" s="60"/>
       <c r="B24" s="12" t="s">
         <v>226</v>
       </c>
@@ -12369,7 +12397,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A25" s="61"/>
+      <c r="A25" s="60"/>
       <c r="B25" s="12" t="s">
         <v>52</v>
       </c>
@@ -12395,7 +12423,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A26" s="61" t="s">
+      <c r="A26" s="60" t="s">
         <v>228</v>
       </c>
       <c r="B26" s="15" t="s">
@@ -12423,7 +12451,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A27" s="61"/>
+      <c r="A27" s="60"/>
       <c r="B27" s="15" t="s">
         <v>231</v>
       </c>
@@ -12449,7 +12477,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A28" s="61"/>
+      <c r="A28" s="60"/>
       <c r="B28" s="15" t="s">
         <v>232</v>
       </c>
@@ -12475,7 +12503,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A29" s="61"/>
+      <c r="A29" s="60"/>
       <c r="B29" s="15" t="s">
         <v>52</v>
       </c>
@@ -12501,7 +12529,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A30" s="61" t="s">
+      <c r="A30" s="60" t="s">
         <v>234</v>
       </c>
       <c r="B30" s="15" t="s">
@@ -12529,7 +12557,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A31" s="61"/>
+      <c r="A31" s="60"/>
       <c r="B31" s="15" t="s">
         <v>199</v>
       </c>
@@ -12555,7 +12583,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A32" s="61"/>
+      <c r="A32" s="60"/>
       <c r="B32" s="15" t="s">
         <v>238</v>
       </c>
@@ -12581,7 +12609,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A33" s="61"/>
+      <c r="A33" s="60"/>
       <c r="B33" s="15" t="s">
         <v>52</v>
       </c>
@@ -12607,7 +12635,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A34" s="61" t="s">
+      <c r="A34" s="60" t="s">
         <v>240</v>
       </c>
       <c r="B34" s="15" t="s">
@@ -12635,7 +12663,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A35" s="61"/>
+      <c r="A35" s="60"/>
       <c r="B35" s="15" t="s">
         <v>243</v>
       </c>
@@ -12661,7 +12689,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A36" s="61"/>
+      <c r="A36" s="60"/>
       <c r="B36" s="15" t="s">
         <v>245</v>
       </c>
@@ -12687,7 +12715,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A37" s="61"/>
+      <c r="A37" s="60"/>
       <c r="B37" s="15" t="s">
         <v>52</v>
       </c>
@@ -12713,7 +12741,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A38" s="61" t="s">
+      <c r="A38" s="60" t="s">
         <v>247</v>
       </c>
       <c r="B38" s="15" t="s">
@@ -12741,7 +12769,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A39" s="61"/>
+      <c r="A39" s="60"/>
       <c r="B39" s="15" t="s">
         <v>248</v>
       </c>
@@ -12767,7 +12795,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A40" s="61"/>
+      <c r="A40" s="60"/>
       <c r="B40" s="15" t="s">
         <v>250</v>
       </c>
@@ -12793,7 +12821,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A41" s="61"/>
+      <c r="A41" s="60"/>
       <c r="B41" s="15" t="s">
         <v>199</v>
       </c>
@@ -12819,7 +12847,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A42" s="61" t="s">
+      <c r="A42" s="60" t="s">
         <v>252</v>
       </c>
       <c r="B42" s="12" t="s">
@@ -12847,7 +12875,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A43" s="61"/>
+      <c r="A43" s="60"/>
       <c r="B43" s="12" t="s">
         <v>253</v>
       </c>
@@ -12873,7 +12901,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A44" s="61"/>
+      <c r="A44" s="60"/>
       <c r="B44" s="12" t="s">
         <v>255</v>
       </c>
@@ -12899,7 +12927,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A45" s="61"/>
+      <c r="A45" s="60"/>
       <c r="B45" s="12" t="s">
         <v>257</v>
       </c>
@@ -12925,7 +12953,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A46" s="61"/>
+      <c r="A46" s="60"/>
       <c r="B46" s="12" t="s">
         <v>259</v>
       </c>
@@ -12951,7 +12979,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A47" s="61"/>
+      <c r="A47" s="60"/>
       <c r="B47" s="12" t="s">
         <v>261</v>
       </c>
@@ -12977,7 +13005,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A48" s="61"/>
+      <c r="A48" s="60"/>
       <c r="B48" s="12" t="s">
         <v>263</v>
       </c>
@@ -13003,7 +13031,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A49" s="61"/>
+      <c r="A49" s="60"/>
       <c r="B49" s="12" t="s">
         <v>265</v>
       </c>
@@ -13029,7 +13057,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A50" s="61"/>
+      <c r="A50" s="60"/>
       <c r="B50" s="12" t="s">
         <v>267</v>
       </c>
@@ -13055,7 +13083,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A51" s="61"/>
+      <c r="A51" s="60"/>
       <c r="B51" s="12" t="s">
         <v>269</v>
       </c>
@@ -13081,7 +13109,7 @@
       </c>
     </row>
     <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A52" s="61" t="s">
+      <c r="A52" s="60" t="s">
         <v>271</v>
       </c>
       <c r="B52" s="12" t="s">
@@ -13109,7 +13137,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A53" s="61"/>
+      <c r="A53" s="60"/>
       <c r="B53" s="12" t="s">
         <v>273</v>
       </c>
@@ -13135,7 +13163,7 @@
       </c>
     </row>
     <row r="54" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A54" s="61"/>
+      <c r="A54" s="60"/>
       <c r="B54" s="12" t="s">
         <v>275</v>
       </c>
@@ -13161,7 +13189,7 @@
       </c>
     </row>
     <row r="55" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A55" s="61"/>
+      <c r="A55" s="60"/>
       <c r="B55" s="12" t="s">
         <v>277</v>
       </c>
@@ -13187,7 +13215,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A56" s="61"/>
+      <c r="A56" s="60"/>
       <c r="B56" s="12" t="s">
         <v>279</v>
       </c>
@@ -13213,7 +13241,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A57" s="61"/>
+      <c r="A57" s="60"/>
       <c r="B57" s="12" t="s">
         <v>280</v>
       </c>
@@ -13239,7 +13267,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A58" s="61"/>
+      <c r="A58" s="60"/>
       <c r="B58" s="12" t="s">
         <v>19</v>
       </c>
@@ -13265,7 +13293,7 @@
       </c>
     </row>
     <row r="59" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A59" s="61"/>
+      <c r="A59" s="60"/>
       <c r="B59" s="12" t="s">
         <v>259</v>
       </c>
@@ -13291,7 +13319,7 @@
       </c>
     </row>
     <row r="60" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A60" s="61"/>
+      <c r="A60" s="60"/>
       <c r="B60" s="12" t="s">
         <v>282</v>
       </c>
@@ -13317,7 +13345,7 @@
       </c>
     </row>
     <row r="61" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A61" s="61"/>
+      <c r="A61" s="60"/>
       <c r="B61" s="12" t="s">
         <v>261</v>
       </c>
@@ -13343,7 +13371,7 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A62" s="61"/>
+      <c r="A62" s="60"/>
       <c r="B62" s="12" t="s">
         <v>255</v>
       </c>
@@ -13369,7 +13397,7 @@
       </c>
     </row>
     <row r="63" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A63" s="61"/>
+      <c r="A63" s="60"/>
       <c r="B63" s="12" t="s">
         <v>284</v>
       </c>
@@ -13395,7 +13423,7 @@
       </c>
     </row>
     <row r="64" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A64" s="61"/>
+      <c r="A64" s="60"/>
       <c r="B64" s="12" t="s">
         <v>263</v>
       </c>
@@ -13421,7 +13449,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A65" s="61"/>
+      <c r="A65" s="60"/>
       <c r="B65" s="12" t="s">
         <v>286</v>
       </c>
@@ -13447,7 +13475,7 @@
       </c>
     </row>
     <row r="66" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A66" s="61"/>
+      <c r="A66" s="60"/>
       <c r="B66" s="12" t="s">
         <v>287</v>
       </c>
@@ -13473,7 +13501,7 @@
       </c>
     </row>
     <row r="67" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A67" s="61"/>
+      <c r="A67" s="60"/>
       <c r="B67" s="12" t="s">
         <v>265</v>
       </c>
@@ -13499,7 +13527,7 @@
       </c>
     </row>
     <row r="68" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A68" s="61"/>
+      <c r="A68" s="60"/>
       <c r="B68" s="12" t="s">
         <v>288</v>
       </c>
@@ -13525,7 +13553,7 @@
       </c>
     </row>
     <row r="69" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A69" s="61"/>
+      <c r="A69" s="60"/>
       <c r="B69" s="12" t="s">
         <v>199</v>
       </c>
@@ -13551,7 +13579,7 @@
       </c>
     </row>
     <row r="70" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A70" s="61"/>
+      <c r="A70" s="60"/>
       <c r="B70" s="12" t="s">
         <v>291</v>
       </c>
@@ -13577,7 +13605,7 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A71" s="61"/>
+      <c r="A71" s="60"/>
       <c r="B71" s="12" t="s">
         <v>292</v>
       </c>
@@ -13603,7 +13631,7 @@
       </c>
     </row>
     <row r="72" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A72" s="61"/>
+      <c r="A72" s="60"/>
       <c r="B72" s="12" t="s">
         <v>293</v>
       </c>
@@ -13629,7 +13657,7 @@
       </c>
     </row>
     <row r="73" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A73" s="61"/>
+      <c r="A73" s="60"/>
       <c r="B73" s="12" t="s">
         <v>294</v>
       </c>
@@ -13655,7 +13683,7 @@
       </c>
     </row>
     <row r="74" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A74" s="61"/>
+      <c r="A74" s="60"/>
       <c r="B74" s="12" t="s">
         <v>196</v>
       </c>
@@ -13681,7 +13709,7 @@
       </c>
     </row>
     <row r="75" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A75" s="61"/>
+      <c r="A75" s="60"/>
       <c r="B75" s="12" t="s">
         <v>295</v>
       </c>
@@ -13707,7 +13735,7 @@
       </c>
     </row>
     <row r="76" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A76" s="61"/>
+      <c r="A76" s="60"/>
       <c r="B76" s="12" t="s">
         <v>297</v>
       </c>
@@ -13733,7 +13761,7 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A77" s="61"/>
+      <c r="A77" s="60"/>
       <c r="B77" s="12" t="s">
         <v>298</v>
       </c>
@@ -13759,7 +13787,7 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A78" s="61"/>
+      <c r="A78" s="60"/>
       <c r="B78" s="12" t="s">
         <v>299</v>
       </c>
@@ -13785,7 +13813,7 @@
       </c>
     </row>
     <row r="79" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A79" s="61"/>
+      <c r="A79" s="60"/>
       <c r="B79" s="12" t="s">
         <v>300</v>
       </c>
@@ -13811,7 +13839,7 @@
       </c>
     </row>
     <row r="80" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A80" s="61"/>
+      <c r="A80" s="60"/>
       <c r="B80" s="12" t="s">
         <v>301</v>
       </c>
@@ -13837,7 +13865,7 @@
       </c>
     </row>
     <row r="81" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A81" s="61"/>
+      <c r="A81" s="60"/>
       <c r="B81" s="12" t="s">
         <v>302</v>
       </c>
@@ -13863,7 +13891,7 @@
       </c>
     </row>
     <row r="82" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A82" s="61"/>
+      <c r="A82" s="60"/>
       <c r="B82" s="12" t="s">
         <v>303</v>
       </c>
@@ -13889,7 +13917,7 @@
       </c>
     </row>
     <row r="83" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A83" s="61"/>
+      <c r="A83" s="60"/>
       <c r="B83" s="12" t="s">
         <v>304</v>
       </c>
@@ -13915,7 +13943,7 @@
       </c>
     </row>
     <row r="84" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A84" s="61"/>
+      <c r="A84" s="60"/>
       <c r="B84" s="12" t="s">
         <v>305</v>
       </c>
@@ -13941,7 +13969,7 @@
       </c>
     </row>
     <row r="85" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A85" s="61"/>
+      <c r="A85" s="60"/>
       <c r="B85" s="12" t="s">
         <v>257</v>
       </c>
@@ -13967,7 +13995,7 @@
       </c>
     </row>
     <row r="86" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A86" s="61"/>
+      <c r="A86" s="60"/>
       <c r="B86" s="12" t="s">
         <v>306</v>
       </c>
@@ -13993,7 +14021,7 @@
       </c>
     </row>
     <row r="87" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A87" s="61"/>
+      <c r="A87" s="60"/>
       <c r="B87" s="12" t="s">
         <v>307</v>
       </c>
@@ -14019,7 +14047,7 @@
       </c>
     </row>
     <row r="88" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A88" s="61"/>
+      <c r="A88" s="60"/>
       <c r="B88" s="12" t="s">
         <v>309</v>
       </c>
@@ -14045,7 +14073,7 @@
       </c>
     </row>
     <row r="89" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A89" s="61"/>
+      <c r="A89" s="60"/>
       <c r="B89" s="12" t="s">
         <v>311</v>
       </c>
@@ -14071,7 +14099,7 @@
       </c>
     </row>
     <row r="90" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A90" s="61"/>
+      <c r="A90" s="60"/>
       <c r="B90" s="12" t="s">
         <v>313</v>
       </c>
@@ -14097,7 +14125,7 @@
       </c>
     </row>
     <row r="91" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A91" s="61"/>
+      <c r="A91" s="60"/>
       <c r="B91" s="12" t="s">
         <v>315</v>
       </c>
@@ -14123,7 +14151,7 @@
       </c>
     </row>
     <row r="92" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A92" s="61"/>
+      <c r="A92" s="60"/>
       <c r="B92" s="12" t="s">
         <v>316</v>
       </c>
@@ -14149,7 +14177,7 @@
       </c>
     </row>
     <row r="93" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A93" s="61" t="s">
+      <c r="A93" s="60" t="s">
         <v>318</v>
       </c>
       <c r="B93" s="12" t="s">
@@ -14177,7 +14205,7 @@
       </c>
     </row>
     <row r="94" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A94" s="61"/>
+      <c r="A94" s="60"/>
       <c r="B94" s="12" t="s">
         <v>320</v>
       </c>
@@ -14298,7 +14326,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="52" t="s">
         <v>322</v>
       </c>
       <c r="B2" t="s">
@@ -14316,7 +14344,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
+      <c r="A3" s="52"/>
       <c r="B3" t="s">
         <v>325</v>
       </c>
@@ -14332,7 +14360,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
+      <c r="A4" s="52"/>
       <c r="B4" t="s">
         <v>327</v>
       </c>
@@ -14343,7 +14371,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="52" t="s">
         <v>329</v>
       </c>
       <c r="B5" t="s">
@@ -14361,7 +14389,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
+      <c r="A6" s="52"/>
       <c r="B6" t="s">
         <v>331</v>
       </c>
@@ -14377,7 +14405,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
+      <c r="A7" s="52"/>
       <c r="B7" t="s">
         <v>333</v>
       </c>
@@ -14393,7 +14421,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
+      <c r="A8" s="52"/>
       <c r="B8" t="s">
         <v>335</v>
       </c>
@@ -14409,7 +14437,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
+      <c r="A9" s="52"/>
       <c r="B9" t="s">
         <v>337</v>
       </c>
@@ -14425,7 +14453,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="52" t="s">
         <v>339</v>
       </c>
       <c r="B10" t="s">
@@ -14443,7 +14471,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
+      <c r="A11" s="52"/>
       <c r="B11" t="s">
         <v>340</v>
       </c>
@@ -14459,7 +14487,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
+      <c r="A12" s="52"/>
       <c r="B12" t="s">
         <v>342</v>
       </c>
@@ -14566,7 +14594,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="55"/>
+      <c r="A2" s="52"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="10"/>
@@ -14577,7 +14605,7 @@
       <c r="K2" s="11"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
+      <c r="A3" s="52"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="10"/>
@@ -14588,7 +14616,7 @@
       <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
+      <c r="A4" s="52"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="10"/>
@@ -14599,7 +14627,7 @@
       <c r="K4" s="11"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
+      <c r="A5" s="52"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="10"/>
@@ -14610,7 +14638,7 @@
       <c r="K5" s="11"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
+      <c r="A6" s="52"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="10"/>
@@ -14621,7 +14649,7 @@
       <c r="K6" s="11"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
+      <c r="A7" s="52"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="10"/>
@@ -14632,7 +14660,7 @@
       <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
+      <c r="A8" s="52"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="10"/>
@@ -14643,7 +14671,7 @@
       <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
+      <c r="A9" s="52"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="10"/>
@@ -14654,7 +14682,7 @@
       <c r="K9" s="11"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
+      <c r="A10" s="52"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="10"/>
@@ -14665,13 +14693,13 @@
       <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
+      <c r="A11" s="52"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="K11" s="11"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
+      <c r="A12" s="52"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="10"/>
@@ -14682,7 +14710,7 @@
       <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
+      <c r="A13" s="52"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="10"/>
@@ -14693,7 +14721,7 @@
       <c r="K13" s="11"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
+      <c r="A14" s="52"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="10"/>
@@ -14704,7 +14732,7 @@
       <c r="K14" s="11"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
+      <c r="A15" s="52"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="10"/>
@@ -14715,7 +14743,7 @@
       <c r="K15" s="11"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
+      <c r="A16" s="52"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="10"/>
@@ -14726,7 +14754,7 @@
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
+      <c r="A17" s="52"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="10"/>
@@ -14737,7 +14765,7 @@
       <c r="K17" s="11"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
+      <c r="A18" s="52"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="10"/>
@@ -14748,7 +14776,7 @@
       <c r="K18" s="11"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
+      <c r="A19" s="52"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="10"/>
@@ -14759,7 +14787,7 @@
       <c r="K19" s="11"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="55"/>
+      <c r="A20" s="52"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="10"/>
@@ -14770,7 +14798,7 @@
       <c r="K20" s="11"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
+      <c r="A21" s="52"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="10"/>
@@ -14781,7 +14809,7 @@
       <c r="K21" s="11"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="55"/>
+      <c r="A22" s="52"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="10"/>
@@ -14792,7 +14820,7 @@
       <c r="K22" s="11"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
+      <c r="A23" s="52"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="10"/>
@@ -14803,7 +14831,7 @@
       <c r="K23" s="11"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
+      <c r="A24" s="52"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="10"/>
@@ -14814,7 +14842,7 @@
       <c r="K24" s="11"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
+      <c r="A25" s="52"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="10"/>
@@ -14825,151 +14853,151 @@
       <c r="K25" s="11"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
+      <c r="A26" s="52"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="K26" s="11"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="55"/>
+      <c r="A27" s="52"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="K27" s="11"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
+      <c r="A28" s="52"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="K28" s="11"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
+      <c r="A29" s="52"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="K29" s="11"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="55"/>
+      <c r="A30" s="52"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="K30" s="11"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
+      <c r="A31" s="52"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="K31" s="11"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="55"/>
+      <c r="A32" s="52"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="K32" s="11"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="55"/>
+      <c r="A33" s="52"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="K33" s="11"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="55"/>
+      <c r="A34" s="52"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="K34" s="11"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
+      <c r="A35" s="52"/>
       <c r="K35" s="11"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="55"/>
+      <c r="A36" s="52"/>
       <c r="K36" s="11"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
+      <c r="A37" s="52"/>
       <c r="K37" s="11"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="55"/>
+      <c r="A38" s="52"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="K38" s="11"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="55"/>
+      <c r="A39" s="52"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="K39" s="11"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="55"/>
+      <c r="A40" s="52"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="K40" s="11"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="55"/>
+      <c r="A41" s="52"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="K41" s="11"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="55"/>
+      <c r="A42" s="52"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="K42" s="11"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="55"/>
+      <c r="A43" s="52"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="K43" s="11"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="55"/>
+      <c r="A44" s="52"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="K44" s="11"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="55"/>
+      <c r="A45" s="52"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="K45" s="11"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="55"/>
+      <c r="A46" s="52"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="K46" s="11"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="55"/>
+      <c r="A47" s="52"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="K47" s="11"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="55"/>
+      <c r="A48" s="52"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="K48" s="11"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="55"/>
+      <c r="A49" s="52"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="K49" s="11"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="55"/>
+      <c r="A50" s="52"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="K50" s="11"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="55"/>
+      <c r="A51" s="52"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="K51" s="11"/>
@@ -15070,7 +15098,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="52" t="s">
         <v>344</v>
       </c>
       <c r="B2" t="s">
@@ -15092,7 +15120,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
+      <c r="A3" s="52"/>
       <c r="B3" t="s">
         <v>121</v>
       </c>
@@ -15112,7 +15140,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
+      <c r="A4" s="52"/>
       <c r="B4" t="s">
         <v>97</v>
       </c>
@@ -15132,7 +15160,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
+      <c r="A5" s="52"/>
       <c r="B5" t="s">
         <v>166</v>
       </c>
@@ -15152,7 +15180,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
+      <c r="A6" s="52"/>
       <c r="B6" t="s">
         <v>141</v>
       </c>
@@ -15172,7 +15200,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
+      <c r="A7" s="52"/>
       <c r="B7" t="s">
         <v>350</v>
       </c>
@@ -15192,7 +15220,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
+      <c r="A8" s="52"/>
       <c r="B8" t="s">
         <v>352</v>
       </c>
@@ -15212,7 +15240,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
+      <c r="A9" s="52"/>
       <c r="B9" t="s">
         <v>354</v>
       </c>
@@ -15232,7 +15260,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
+      <c r="A10" s="52"/>
       <c r="B10" t="s">
         <v>356</v>
       </c>
@@ -15252,7 +15280,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
+      <c r="A11" s="52"/>
       <c r="B11" t="s">
         <v>358</v>
       </c>
@@ -15272,7 +15300,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
+      <c r="A12" s="52"/>
       <c r="B12" t="s">
         <v>360</v>
       </c>
@@ -15292,7 +15320,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
+      <c r="A13" s="52"/>
       <c r="B13" t="s">
         <v>362</v>
       </c>
@@ -15312,7 +15340,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
+      <c r="A14" s="52"/>
       <c r="B14" t="s">
         <v>364</v>
       </c>
@@ -15332,7 +15360,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
+      <c r="A15" s="52"/>
       <c r="B15" t="s">
         <v>365</v>
       </c>
@@ -15352,7 +15380,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
+      <c r="A16" s="52"/>
       <c r="B16" t="s">
         <v>38</v>
       </c>
@@ -15368,7 +15396,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="55" t="s">
+      <c r="A17" s="52" t="s">
         <v>369</v>
       </c>
       <c r="B17" t="s">
@@ -15390,7 +15418,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
+      <c r="A18" s="52"/>
       <c r="B18" t="s">
         <v>166</v>
       </c>
@@ -15410,7 +15438,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
+      <c r="A19" s="52"/>
       <c r="B19" t="s">
         <v>139</v>
       </c>
@@ -15430,7 +15458,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="55"/>
+      <c r="A20" s="52"/>
       <c r="B20" t="s">
         <v>257</v>
       </c>
@@ -15450,7 +15478,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
+      <c r="A21" s="52"/>
       <c r="B21" t="s">
         <v>372</v>
       </c>
@@ -15470,7 +15498,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="55"/>
+      <c r="A22" s="52"/>
       <c r="B22" t="s">
         <v>374</v>
       </c>
@@ -15490,7 +15518,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
+      <c r="A23" s="52"/>
       <c r="B23" t="s">
         <v>376</v>
       </c>
@@ -15510,7 +15538,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
+      <c r="A24" s="52"/>
       <c r="B24" t="s">
         <v>378</v>
       </c>
@@ -15530,7 +15558,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
+      <c r="A25" s="52"/>
       <c r="B25" t="s">
         <v>380</v>
       </c>
@@ -15550,7 +15578,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
+      <c r="A26" s="52"/>
       <c r="B26" t="s">
         <v>382</v>
       </c>
@@ -15570,7 +15598,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="55"/>
+      <c r="A27" s="52"/>
       <c r="B27" t="s">
         <v>384</v>
       </c>
@@ -15590,7 +15618,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
+      <c r="A28" s="52"/>
       <c r="B28" t="s">
         <v>38</v>
       </c>
@@ -15606,7 +15634,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="55" t="s">
+      <c r="A29" s="52" t="s">
         <v>386</v>
       </c>
       <c r="B29" t="s">
@@ -15627,7 +15655,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="55"/>
+      <c r="A30" s="52"/>
       <c r="B30" t="s">
         <v>166</v>
       </c>
@@ -15646,7 +15674,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
+      <c r="A31" s="52"/>
       <c r="B31" t="s">
         <v>388</v>
       </c>
@@ -15665,7 +15693,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="55"/>
+      <c r="A32" s="52"/>
       <c r="B32" t="s">
         <v>121</v>
       </c>
@@ -15684,7 +15712,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="55" t="s">
+      <c r="A33" s="52" t="s">
         <v>390</v>
       </c>
       <c r="B33" t="s">
@@ -15705,7 +15733,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="55"/>
+      <c r="A34" s="52"/>
       <c r="B34" t="s">
         <v>166</v>
       </c>
@@ -15724,7 +15752,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
+      <c r="A35" s="52"/>
       <c r="B35" t="s">
         <v>121</v>
       </c>
@@ -15743,7 +15771,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="55"/>
+      <c r="A36" s="52"/>
       <c r="B36" t="s">
         <v>38</v>
       </c>
@@ -15850,7 +15878,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="52" t="s">
         <v>391</v>
       </c>
       <c r="B2" t="s">
@@ -15868,7 +15896,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
+      <c r="A3" s="52"/>
       <c r="B3" t="s">
         <v>134</v>
       </c>
@@ -15884,7 +15912,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
+      <c r="A4" s="52"/>
       <c r="B4" t="s">
         <v>199</v>
       </c>
@@ -15897,12 +15925,12 @@
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
+      <c r="A5" s="52"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="52" t="s">
         <v>393</v>
       </c>
       <c r="B6" t="s">
@@ -15920,7 +15948,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
+      <c r="A7" s="52"/>
       <c r="B7" t="s">
         <v>395</v>
       </c>
@@ -15936,7 +15964,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
+      <c r="A8" s="52"/>
       <c r="B8" t="s">
         <v>199</v>
       </c>
@@ -15952,7 +15980,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
+      <c r="A9" s="52"/>
       <c r="B9" t="s">
         <v>397</v>
       </c>
@@ -15968,7 +15996,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
+      <c r="A10" s="52"/>
       <c r="B10" t="s">
         <v>399</v>
       </c>
@@ -15984,7 +16012,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A11" s="55"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="12" t="s">
         <v>401</v>
       </c>
@@ -16000,7 +16028,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="9" t="s">
         <v>403</v>
       </c>
@@ -16016,7 +16044,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="9" t="s">
         <v>405</v>
       </c>
@@ -16032,7 +16060,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="9" t="s">
         <v>407</v>
       </c>
@@ -16048,7 +16076,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="9" t="s">
         <v>409</v>
       </c>
@@ -16064,7 +16092,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="9" t="s">
         <v>411</v>
       </c>
@@ -16080,7 +16108,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="9" t="s">
         <v>413</v>
       </c>
@@ -16096,7 +16124,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
+      <c r="A18" s="52"/>
       <c r="B18" s="9" t="s">
         <v>415</v>
       </c>
@@ -16112,7 +16140,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="9" t="s">
         <v>417</v>
       </c>
@@ -16128,7 +16156,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="55"/>
+      <c r="A20" s="52"/>
       <c r="B20" s="9" t="s">
         <v>419</v>
       </c>
@@ -16144,7 +16172,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
+      <c r="A21" s="52"/>
       <c r="B21" s="9" t="s">
         <v>114</v>
       </c>
@@ -16157,7 +16185,7 @@
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="55"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="9" t="s">
         <v>421</v>
       </c>
@@ -16170,7 +16198,7 @@
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="55" t="s">
+      <c r="A23" s="52" t="s">
         <v>422</v>
       </c>
       <c r="C23" s="8"/>
@@ -16182,7 +16210,7 @@
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
+      <c r="A24" s="52"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="10"/>
@@ -16192,7 +16220,7 @@
       <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
+      <c r="A25" s="52"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="10"/>
@@ -16202,7 +16230,7 @@
       <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
+      <c r="A26" s="52"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="10"/>
@@ -16366,7 +16394,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="52" t="s">
         <v>423</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -16385,7 +16413,7 @@
       <c r="K2" s="11"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
+      <c r="A3" s="52"/>
       <c r="B3" s="9" t="s">
         <v>426</v>
       </c>
@@ -16402,7 +16430,7 @@
       <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="9" t="s">
         <v>428</v>
       </c>
@@ -16419,7 +16447,7 @@
       <c r="K4" s="11"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="9" t="s">
         <v>430</v>
       </c>
@@ -16436,7 +16464,7 @@
       <c r="K5" s="11"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="9" t="s">
         <v>432</v>
       </c>
@@ -16453,7 +16481,7 @@
       <c r="K6" s="11"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="9" t="s">
         <v>434</v>
       </c>
@@ -16470,7 +16498,7 @@
       <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
+      <c r="A8" s="52"/>
       <c r="B8" t="s">
         <v>38</v>
       </c>
@@ -16487,7 +16515,7 @@
       <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="52" t="s">
         <v>436</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -16506,7 +16534,7 @@
       <c r="K9" s="11"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="9" t="s">
         <v>437</v>
       </c>
@@ -16523,7 +16551,7 @@
       <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="9" t="s">
         <v>439</v>
       </c>
@@ -16540,7 +16568,7 @@
       <c r="K11" s="11"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="9" t="s">
         <v>441</v>
       </c>
@@ -16552,7 +16580,7 @@
       <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="9" t="s">
         <v>443</v>
       </c>
@@ -16569,7 +16597,7 @@
       <c r="K13" s="11"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="9" t="s">
         <v>445</v>
       </c>
@@ -16586,7 +16614,7 @@
       <c r="K14" s="11"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
+      <c r="A15" s="52"/>
       <c r="B15" t="s">
         <v>38</v>
       </c>
@@ -16603,7 +16631,7 @@
       <c r="K15" s="11"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="52" t="s">
         <v>447</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -16622,7 +16650,7 @@
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="9" t="s">
         <v>426</v>
       </c>
@@ -16639,7 +16667,7 @@
       <c r="K17" s="11"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
+      <c r="A18" s="52"/>
       <c r="B18" s="9" t="s">
         <v>424</v>
       </c>
@@ -16651,7 +16679,7 @@
       <c r="K18" s="11"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="9" t="s">
         <v>449</v>
       </c>
@@ -16663,7 +16691,7 @@
       <c r="K19" s="11"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="55"/>
+      <c r="A20" s="52"/>
       <c r="B20" s="9" t="s">
         <v>451</v>
       </c>
@@ -16675,7 +16703,7 @@
       <c r="K20" s="11"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
+      <c r="A21" s="52"/>
       <c r="B21" s="9" t="s">
         <v>453</v>
       </c>
@@ -16687,7 +16715,7 @@
       <c r="K21" s="11"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="55"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="9" t="s">
         <v>455</v>
       </c>
@@ -16699,7 +16727,7 @@
       <c r="K22" s="11"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
+      <c r="A23" s="52"/>
       <c r="B23" s="9" t="s">
         <v>457</v>
       </c>
@@ -16711,7 +16739,7 @@
       <c r="K23" s="11"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="9" t="s">
         <v>284</v>
       </c>
@@ -16723,7 +16751,7 @@
       <c r="K24" s="11"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="9" t="s">
         <v>199</v>
       </c>
@@ -16733,7 +16761,7 @@
       <c r="K25" s="11"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
+      <c r="A26" s="52"/>
       <c r="B26" t="s">
         <v>38</v>
       </c>
@@ -16743,7 +16771,7 @@
       <c r="K26" s="11"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="55" t="s">
+      <c r="A27" s="52" t="s">
         <v>460</v>
       </c>
       <c r="B27" s="9" t="s">
@@ -16757,7 +16785,7 @@
       <c r="K27" s="11"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="9" t="s">
         <v>364</v>
       </c>
@@ -16769,7 +16797,7 @@
       <c r="K28" s="11"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
+      <c r="A29" s="52"/>
       <c r="B29" s="9" t="s">
         <v>461</v>
       </c>
@@ -16781,7 +16809,7 @@
       <c r="K29" s="11"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="55"/>
+      <c r="A30" s="52"/>
       <c r="B30" s="9" t="s">
         <v>463</v>
       </c>
@@ -16793,7 +16821,7 @@
       <c r="K30" s="11"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
+      <c r="A31" s="52"/>
       <c r="B31" s="9" t="s">
         <v>465</v>
       </c>
@@ -16805,7 +16833,7 @@
       <c r="K31" s="11"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="55"/>
+      <c r="A32" s="52"/>
       <c r="B32" s="9" t="s">
         <v>467</v>
       </c>
@@ -16814,7 +16842,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="55"/>
+      <c r="A33" s="52"/>
       <c r="B33" s="9" t="s">
         <v>469</v>
       </c>
@@ -16823,7 +16851,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="55"/>
+      <c r="A34" s="52"/>
       <c r="B34" s="9" t="s">
         <v>424</v>
       </c>
@@ -16832,7 +16860,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
+      <c r="A35" s="52"/>
       <c r="B35" s="9" t="s">
         <v>426</v>
       </c>
@@ -16841,7 +16869,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="55"/>
+      <c r="A36" s="52"/>
       <c r="B36" s="9" t="s">
         <v>437</v>
       </c>
@@ -16850,7 +16878,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
+      <c r="A37" s="52"/>
       <c r="B37" s="9" t="s">
         <v>473</v>
       </c>
@@ -16859,7 +16887,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="55"/>
+      <c r="A38" s="52"/>
       <c r="B38" s="9" t="s">
         <v>451</v>
       </c>
@@ -16868,7 +16896,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="55"/>
+      <c r="A39" s="52"/>
       <c r="B39" s="9" t="s">
         <v>474</v>
       </c>
@@ -16877,7 +16905,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="55"/>
+      <c r="A40" s="52"/>
       <c r="B40" s="9" t="s">
         <v>56</v>
       </c>
@@ -16886,7 +16914,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="55"/>
+      <c r="A41" s="52"/>
       <c r="B41" s="9" t="s">
         <v>476</v>
       </c>
@@ -16895,7 +16923,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="55"/>
+      <c r="A42" s="52"/>
       <c r="B42" s="9" t="s">
         <v>478</v>
       </c>
@@ -16904,7 +16932,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="55"/>
+      <c r="A43" s="52"/>
       <c r="B43" s="9" t="s">
         <v>480</v>
       </c>
@@ -16913,7 +16941,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="55"/>
+      <c r="A44" s="52"/>
       <c r="B44" s="9" t="s">
         <v>364</v>
       </c>
@@ -16922,7 +16950,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="55"/>
+      <c r="A45" s="52"/>
       <c r="B45" t="s">
         <v>38</v>
       </c>
@@ -16931,7 +16959,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="55" t="s">
+      <c r="A46" s="52" t="s">
         <v>482</v>
       </c>
       <c r="B46" s="9" t="s">
@@ -16942,7 +16970,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="55"/>
+      <c r="A47" s="52"/>
       <c r="B47" s="9" t="s">
         <v>463</v>
       </c>
@@ -16951,7 +16979,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="55"/>
+      <c r="A48" s="52"/>
       <c r="B48" s="9" t="s">
         <v>484</v>
       </c>
@@ -16960,7 +16988,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="55"/>
+      <c r="A49" s="52"/>
       <c r="B49" s="9" t="s">
         <v>424</v>
       </c>
@@ -16969,7 +16997,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="55"/>
+      <c r="A50" s="52"/>
       <c r="B50" s="9" t="s">
         <v>426</v>
       </c>
@@ -16978,7 +17006,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="55"/>
+      <c r="A51" s="52"/>
       <c r="B51" s="9" t="s">
         <v>284</v>
       </c>
@@ -16987,7 +17015,7 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="55"/>
+      <c r="A52" s="52"/>
       <c r="B52" t="s">
         <v>38</v>
       </c>
@@ -16996,7 +17024,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="55" t="s">
+      <c r="A53" s="52" t="s">
         <v>486</v>
       </c>
       <c r="B53" s="9" t="s">
@@ -17007,7 +17035,7 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="55"/>
+      <c r="A54" s="52"/>
       <c r="B54" s="9" t="s">
         <v>426</v>
       </c>
@@ -17016,7 +17044,7 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="55"/>
+      <c r="A55" s="52"/>
       <c r="B55" s="9" t="s">
         <v>364</v>
       </c>
@@ -17025,7 +17053,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="55"/>
+      <c r="A56" s="52"/>
       <c r="B56" s="9" t="s">
         <v>16</v>
       </c>
@@ -17034,7 +17062,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="55"/>
+      <c r="A57" s="52"/>
       <c r="B57" s="9" t="s">
         <v>487</v>
       </c>
@@ -17043,7 +17071,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="55"/>
+      <c r="A58" s="52"/>
       <c r="B58" s="9" t="s">
         <v>465</v>
       </c>
@@ -17052,7 +17080,7 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="55"/>
+      <c r="A59" s="52"/>
       <c r="B59" s="9" t="s">
         <v>488</v>
       </c>
@@ -17061,7 +17089,7 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="55"/>
+      <c r="A60" s="52"/>
       <c r="B60" s="9" t="s">
         <v>490</v>
       </c>
@@ -17070,7 +17098,7 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="55"/>
+      <c r="A61" s="52"/>
       <c r="B61" s="9" t="s">
         <v>476</v>
       </c>
@@ -17079,7 +17107,7 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="55"/>
+      <c r="A62" s="52"/>
       <c r="B62" t="s">
         <v>38</v>
       </c>
@@ -17088,7 +17116,7 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="55" t="s">
+      <c r="A63" s="52" t="s">
         <v>493</v>
       </c>
       <c r="B63" s="9" t="s">
@@ -17099,7 +17127,7 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="55"/>
+      <c r="A64" s="52"/>
       <c r="B64" s="9" t="s">
         <v>494</v>
       </c>
@@ -17108,7 +17136,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="55"/>
+      <c r="A65" s="52"/>
       <c r="B65" s="9" t="s">
         <v>426</v>
       </c>
@@ -17117,7 +17145,7 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="55"/>
+      <c r="A66" s="52"/>
       <c r="B66" s="9" t="s">
         <v>437</v>
       </c>
@@ -17126,7 +17154,7 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="55"/>
+      <c r="A67" s="52"/>
       <c r="B67" s="9" t="s">
         <v>284</v>
       </c>
@@ -17135,7 +17163,7 @@
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="55"/>
+      <c r="A68" s="52"/>
       <c r="B68" t="s">
         <v>38</v>
       </c>
@@ -17238,7 +17266,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="55"/>
+      <c r="A2" s="52"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="10"/>
@@ -17248,7 +17276,7 @@
       <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
+      <c r="A3" s="52"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="10"/>
@@ -17258,7 +17286,7 @@
       <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
+      <c r="A4" s="52"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="10"/>
@@ -17268,7 +17296,7 @@
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
+      <c r="A5" s="52"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="10"/>
@@ -17278,7 +17306,7 @@
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
+      <c r="A6" s="52"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="10"/>
@@ -17288,7 +17316,7 @@
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
+      <c r="A7" s="52"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="10"/>
@@ -17298,7 +17326,7 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
+      <c r="A8" s="52"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="10"/>
@@ -17308,7 +17336,7 @@
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
+      <c r="A9" s="52"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="10"/>
@@ -17318,7 +17346,7 @@
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
+      <c r="A10" s="52"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="10"/>
@@ -17328,7 +17356,7 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
+      <c r="A11" s="52"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="10"/>
@@ -17338,7 +17366,7 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -17349,7 +17377,7 @@
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -17360,12 +17388,12 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
+      <c r="A14" s="52"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -17376,7 +17404,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="9"/>
       <c r="C16"/>
       <c r="D16" s="8"/>
@@ -17387,7 +17415,7 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="9"/>
       <c r="C17"/>
       <c r="D17" s="8"/>
@@ -17398,7 +17426,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
+      <c r="A18" s="52"/>
       <c r="B18" s="9"/>
       <c r="C18"/>
       <c r="D18" s="8"/>
@@ -17409,7 +17437,7 @@
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="9"/>
       <c r="C19"/>
       <c r="D19" s="8"/>
@@ -17420,7 +17448,7 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="55"/>
+      <c r="A20" s="52"/>
       <c r="B20" s="9"/>
       <c r="C20"/>
       <c r="D20" s="8"/>
@@ -17431,7 +17459,7 @@
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
+      <c r="A21" s="52"/>
       <c r="B21" s="9"/>
       <c r="C21"/>
       <c r="D21" s="8"/>
@@ -17442,7 +17470,7 @@
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="55"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="9"/>
       <c r="C22"/>
       <c r="D22" s="8"/>
@@ -17453,7 +17481,7 @@
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
+      <c r="A23" s="52"/>
       <c r="B23" s="9"/>
       <c r="C23"/>
       <c r="D23" s="8"/>
@@ -17464,7 +17492,7 @@
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -17475,7 +17503,7 @@
       <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -17486,7 +17514,7 @@
       <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
+      <c r="A26" s="52"/>
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -17497,7 +17525,7 @@
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="55"/>
+      <c r="A27" s="52"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="10"/>
@@ -17507,7 +17535,7 @@
       <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
+      <c r="A28" s="52"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="10"/>
@@ -17517,7 +17545,7 @@
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
+      <c r="A29" s="52"/>
       <c r="C29"/>
       <c r="D29" s="8"/>
       <c r="E29" s="10"/>
@@ -17527,7 +17555,7 @@
       <c r="I29" s="8"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="55"/>
+      <c r="A30" s="52"/>
       <c r="C30"/>
       <c r="D30" s="8"/>
       <c r="E30" s="10"/>
@@ -17537,7 +17565,7 @@
       <c r="I30" s="8"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
+      <c r="A31" s="52"/>
       <c r="C31"/>
       <c r="D31" s="8"/>
       <c r="E31" s="10"/>
@@ -17547,7 +17575,7 @@
       <c r="I31" s="8"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="55"/>
+      <c r="A32" s="52"/>
       <c r="C32"/>
       <c r="D32" s="8"/>
       <c r="E32" s="10"/>
@@ -17557,7 +17585,7 @@
       <c r="I32" s="8"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="55"/>
+      <c r="A33" s="52"/>
       <c r="C33"/>
       <c r="D33" s="8"/>
       <c r="E33" s="10"/>
@@ -17567,7 +17595,7 @@
       <c r="I33" s="8"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="55"/>
+      <c r="A34" s="52"/>
       <c r="C34"/>
       <c r="D34" s="8"/>
       <c r="E34" s="10"/>
@@ -17577,7 +17605,7 @@
       <c r="I34" s="8"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
+      <c r="A35" s="52"/>
       <c r="C35"/>
       <c r="D35" s="8"/>
       <c r="E35" s="10"/>
@@ -17587,7 +17615,7 @@
       <c r="I35" s="8"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="55"/>
+      <c r="A36" s="52"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="10"/>
@@ -17597,7 +17625,7 @@
       <c r="I36" s="8"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
+      <c r="A37" s="52"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="10"/>
@@ -17607,7 +17635,7 @@
       <c r="I37" s="8"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="55"/>
+      <c r="A38" s="52"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="10"/>
@@ -17617,7 +17645,7 @@
       <c r="I38" s="8"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="55"/>
+      <c r="A39" s="52"/>
       <c r="C39"/>
       <c r="D39" s="8"/>
       <c r="E39" s="10"/>
@@ -17627,7 +17655,7 @@
       <c r="I39" s="8"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="55"/>
+      <c r="A40" s="52"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="10"/>
@@ -17637,7 +17665,7 @@
       <c r="I40" s="8"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="55"/>
+      <c r="A41" s="52"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="10"/>
@@ -17647,7 +17675,7 @@
       <c r="I41" s="8"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="55"/>
+      <c r="A42" s="52"/>
       <c r="B42" s="9"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
@@ -17658,7 +17686,7 @@
       <c r="I42" s="8"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="55"/>
+      <c r="A43" s="52"/>
       <c r="B43" s="9"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -17669,7 +17697,7 @@
       <c r="I43" s="8"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="55"/>
+      <c r="A44" s="52"/>
       <c r="B44" s="9"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -17680,7 +17708,7 @@
       <c r="I44" s="8"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="55"/>
+      <c r="A45" s="52"/>
       <c r="B45" s="9"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -17691,7 +17719,7 @@
       <c r="I45" s="8"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="55"/>
+      <c r="A46" s="52"/>
       <c r="B46" s="9"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
@@ -17702,7 +17730,7 @@
       <c r="I46" s="8"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="55"/>
+      <c r="A47" s="52"/>
       <c r="B47" s="9"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
@@ -17713,7 +17741,7 @@
       <c r="I47" s="8"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="55"/>
+      <c r="A48" s="52"/>
       <c r="B48" s="9"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -17724,7 +17752,7 @@
       <c r="I48" s="8"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="55"/>
+      <c r="A49" s="52"/>
       <c r="B49" s="9"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
@@ -17735,7 +17763,7 @@
       <c r="I49" s="8"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="55"/>
+      <c r="A50" s="52"/>
       <c r="B50" s="9"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -17746,7 +17774,7 @@
       <c r="I50" s="8"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="55"/>
+      <c r="A51" s="52"/>
       <c r="B51" s="9"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -17757,7 +17785,7 @@
       <c r="I51" s="8"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="55"/>
+      <c r="A52" s="52"/>
       <c r="B52" s="9"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
@@ -17768,7 +17796,7 @@
       <c r="I52" s="8"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="55"/>
+      <c r="A53" s="52"/>
       <c r="B53" s="9"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -17779,7 +17807,7 @@
       <c r="I53" s="8"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="55"/>
+      <c r="A54" s="52"/>
       <c r="B54" s="9"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
@@ -17790,7 +17818,7 @@
       <c r="I54" s="8"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="55"/>
+      <c r="A55" s="52"/>
       <c r="B55" s="9"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
@@ -17801,7 +17829,7 @@
       <c r="I55" s="8"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="55"/>
+      <c r="A56" s="52"/>
       <c r="B56" s="9"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
@@ -17812,7 +17840,7 @@
       <c r="I56" s="8"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="55"/>
+      <c r="A57" s="52"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
       <c r="E57" s="10"/>
@@ -17822,7 +17850,7 @@
       <c r="I57" s="8"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="55"/>
+      <c r="A58" s="52"/>
       <c r="B58" s="9"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -17833,7 +17861,7 @@
       <c r="I58" s="8"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="55"/>
+      <c r="A59" s="52"/>
       <c r="B59" s="9"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
@@ -17844,7 +17872,7 @@
       <c r="I59" s="8"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="55"/>
+      <c r="A60" s="52"/>
       <c r="B60" s="9"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
@@ -17855,7 +17883,7 @@
       <c r="I60" s="8"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="55"/>
+      <c r="A61" s="52"/>
       <c r="B61" s="9"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -17866,7 +17894,7 @@
       <c r="I61" s="8"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="55"/>
+      <c r="A62" s="52"/>
       <c r="B62" s="9"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
@@ -17877,7 +17905,7 @@
       <c r="I62" s="8"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="55"/>
+      <c r="A63" s="52"/>
       <c r="B63" s="9"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
@@ -17888,7 +17916,7 @@
       <c r="I63" s="8"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="55"/>
+      <c r="A64" s="52"/>
       <c r="B64" s="9"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -17899,7 +17927,7 @@
       <c r="I64" s="8"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="55"/>
+      <c r="A65" s="52"/>
       <c r="B65" s="9"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -17910,7 +17938,7 @@
       <c r="I65" s="8"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="55"/>
+      <c r="A66" s="52"/>
       <c r="B66" s="9"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
@@ -17921,7 +17949,7 @@
       <c r="I66" s="8"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="55"/>
+      <c r="A67" s="52"/>
       <c r="B67" s="9"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -17932,7 +17960,7 @@
       <c r="I67" s="8"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="55"/>
+      <c r="A68" s="52"/>
       <c r="B68" s="9"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
@@ -17943,7 +17971,7 @@
       <c r="I68" s="8"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="55"/>
+      <c r="A69" s="52"/>
       <c r="B69" s="9"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
@@ -17954,7 +17982,7 @@
       <c r="I69" s="8"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="55"/>
+      <c r="A70" s="52"/>
       <c r="B70" s="9"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
@@ -17965,7 +17993,7 @@
       <c r="I70" s="8"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="55"/>
+      <c r="A71" s="52"/>
       <c r="B71" s="9"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
@@ -17976,7 +18004,7 @@
       <c r="I71" s="8"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="55"/>
+      <c r="A72" s="52"/>
       <c r="B72" s="9"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
@@ -17987,7 +18015,7 @@
       <c r="I72" s="8"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="55"/>
+      <c r="A73" s="52"/>
       <c r="B73" s="9"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
@@ -17998,195 +18026,195 @@
       <c r="I73" s="8"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="55"/>
+      <c r="A74" s="52"/>
       <c r="B74" s="9"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
       <c r="G74"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="55"/>
+      <c r="A75" s="52"/>
       <c r="B75" s="9"/>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
       <c r="G75"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="55"/>
+      <c r="A76" s="52"/>
       <c r="B76" s="9"/>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
       <c r="G76"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="55"/>
+      <c r="A77" s="52"/>
       <c r="B77" s="9"/>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
       <c r="G77"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="55"/>
+      <c r="A78" s="52"/>
       <c r="B78" s="9"/>
       <c r="G78"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="55"/>
+      <c r="A79" s="52"/>
       <c r="B79" s="9"/>
       <c r="G79"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="55"/>
+      <c r="A80" s="52"/>
       <c r="B80" s="9"/>
       <c r="G80"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="55"/>
+      <c r="A81" s="52"/>
       <c r="B81" s="9"/>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
       <c r="G81"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="55"/>
+      <c r="A82" s="52"/>
       <c r="B82" s="9"/>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
       <c r="G82"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="55"/>
+      <c r="A83" s="52"/>
       <c r="B83" s="9"/>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
       <c r="G83"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="55"/>
+      <c r="A84" s="52"/>
       <c r="B84" s="9"/>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
       <c r="G84"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="55"/>
+      <c r="A85" s="52"/>
       <c r="B85" s="9"/>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
       <c r="G85"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="55"/>
+      <c r="A86" s="52"/>
       <c r="B86" s="9"/>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
       <c r="G86"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="55"/>
+      <c r="A87" s="52"/>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
       <c r="G87"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="55"/>
+      <c r="A88" s="52"/>
       <c r="B88" s="9"/>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
       <c r="G88"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="55"/>
+      <c r="A89" s="52"/>
       <c r="B89" s="9"/>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
       <c r="G89"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="55"/>
+      <c r="A90" s="52"/>
       <c r="B90" s="9"/>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
       <c r="G90"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="55"/>
+      <c r="A91" s="52"/>
       <c r="B91" s="9"/>
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
       <c r="G91"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="55"/>
+      <c r="A92" s="52"/>
       <c r="B92" s="9"/>
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
       <c r="G92"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="55"/>
+      <c r="A93" s="52"/>
       <c r="B93" s="9"/>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
       <c r="G93"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="55"/>
+      <c r="A94" s="52"/>
       <c r="B94" s="9"/>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
       <c r="G94"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="55"/>
+      <c r="A95" s="52"/>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
       <c r="G95"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="55"/>
+      <c r="A96" s="52"/>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
       <c r="G96"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="55"/>
+      <c r="A97" s="52"/>
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
       <c r="G97"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="55"/>
+      <c r="A98" s="52"/>
       <c r="C98" s="8"/>
       <c r="D98" s="8"/>
       <c r="G98"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="55"/>
+      <c r="A99" s="52"/>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
       <c r="G99"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="55"/>
+      <c r="A100" s="52"/>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
       <c r="G100"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="55"/>
+      <c r="A101" s="52"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="55"/>
+      <c r="A102" s="52"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="55"/>
+      <c r="A103" s="52"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="55"/>
+      <c r="A104" s="52"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="55"/>
+      <c r="A105" s="52"/>
     </row>
     <row r="116" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G116" s="9"/>

--- a/arch-ums/uni-life-ums.xlsx
+++ b/arch-ums/uni-life-ums.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces-Idea\proc\arch-module\arch-ums\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29009BC-C8BD-4E13-ACD2-5A8696EACFA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118BDDAC-BA20-47F6-9C90-B6FF7ACF76E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7680" yWindow="3204" windowWidth="23040" windowHeight="12312" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10596" yWindow="5664" windowWidth="23040" windowHeight="12312" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="9" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2455" uniqueCount="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2505" uniqueCount="966">
   <si>
     <t>表名/Table</t>
   </si>
@@ -3376,6 +3376,70 @@
   </si>
   <si>
     <t>512</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据字典/conf_dictionary</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>mark</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据字典/conf_dictionary_item</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>dictionaryId</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>conf_dictionary id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>val</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题对应的值</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3651,9 +3715,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3666,7 +3728,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3675,7 +3737,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3684,7 +3746,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6176,15 +6240,15 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" customWidth="1"/>
+    <col min="1" max="1" width="29.77734375" customWidth="1"/>
     <col min="2" max="2" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6501,7 +6565,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="55" t="s">
         <v>944</v>
       </c>
       <c r="B16" s="29" t="s">
@@ -6515,7 +6579,9 @@
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
+      <c r="G16" s="62" t="s">
+        <v>864</v>
+      </c>
       <c r="H16" s="10"/>
       <c r="I16" s="23"/>
       <c r="J16" s="27" t="s">
@@ -6523,7 +6589,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="29" t="s">
         <v>919</v>
       </c>
@@ -6544,7 +6610,7 @@
       <c r="L17" s="26"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="29" t="s">
         <v>920</v>
       </c>
@@ -6564,7 +6630,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="29" t="s">
         <v>921</v>
       </c>
@@ -6584,7 +6650,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="51"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="29" t="s">
         <v>922</v>
       </c>
@@ -6604,7 +6670,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="29" t="s">
         <v>923</v>
       </c>
@@ -6624,7 +6690,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="29" t="s">
         <v>924</v>
       </c>
@@ -6644,7 +6710,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="51"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="29" t="s">
         <v>925</v>
       </c>
@@ -6662,7 +6728,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
+      <c r="A24" s="55"/>
       <c r="B24" s="29" t="s">
         <v>926</v>
       </c>
@@ -6682,7 +6748,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="55" t="s">
         <v>943</v>
       </c>
       <c r="B25" s="29" t="s">
@@ -6696,7 +6762,9 @@
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
+      <c r="G25" s="62" t="s">
+        <v>864</v>
+      </c>
       <c r="H25" s="10"/>
       <c r="I25" s="23"/>
       <c r="J25" s="27" t="s">
@@ -6704,7 +6772,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="51"/>
+      <c r="A26" s="55"/>
       <c r="B26" s="29" t="s">
         <v>919</v>
       </c>
@@ -6725,7 +6793,7 @@
       <c r="L26" s="26"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
+      <c r="A27" s="55"/>
       <c r="B27" s="29" t="s">
         <v>922</v>
       </c>
@@ -6745,7 +6813,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="51"/>
+      <c r="A28" s="55"/>
       <c r="B28" s="29" t="s">
         <v>923</v>
       </c>
@@ -6765,7 +6833,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="51"/>
+      <c r="A29" s="55"/>
       <c r="B29" s="29" t="s">
         <v>924</v>
       </c>
@@ -6785,7 +6853,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="51"/>
+      <c r="A30" s="55"/>
       <c r="B30" s="29" t="s">
         <v>925</v>
       </c>
@@ -6803,7 +6871,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="51"/>
+      <c r="A31" s="55"/>
       <c r="B31" s="29" t="s">
         <v>926</v>
       </c>
@@ -6822,9 +6890,231 @@
         <v>942</v>
       </c>
     </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="55" t="s">
+        <v>950</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>862</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>863</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>745</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="62" t="s">
+        <v>864</v>
+      </c>
+      <c r="H32" s="10"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="27" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="55"/>
+      <c r="B33" s="29" t="s">
+        <v>951</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>707</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>952</v>
+      </c>
+      <c r="E33" s="62" t="s">
+        <v>965</v>
+      </c>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="27" t="s">
+        <v>953</v>
+      </c>
+      <c r="L33" s="26"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="55"/>
+      <c r="B34" s="29" t="s">
+        <v>956</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>707</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>952</v>
+      </c>
+      <c r="E34" s="62" t="s">
+        <v>965</v>
+      </c>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="27" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="55"/>
+      <c r="B35" s="29" t="s">
+        <v>957</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>707</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>749</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="27" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="55" t="s">
+        <v>958</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>862</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>863</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>745</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="62" t="s">
+        <v>864</v>
+      </c>
+      <c r="H36" s="10"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="27" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="55"/>
+      <c r="B37" s="29" t="s">
+        <v>959</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>863</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>745</v>
+      </c>
+      <c r="E37" s="62" t="s">
+        <v>965</v>
+      </c>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="27" t="s">
+        <v>960</v>
+      </c>
+      <c r="L37" s="26"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="55"/>
+      <c r="B38" s="29" t="s">
+        <v>956</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>707</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>952</v>
+      </c>
+      <c r="E38" s="62" t="s">
+        <v>965</v>
+      </c>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="27" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="55"/>
+      <c r="B39" s="29" t="s">
+        <v>961</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>707</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>952</v>
+      </c>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="27" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="55"/>
+      <c r="B40" s="29" t="s">
+        <v>963</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>933</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>964</v>
+      </c>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="27" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="55"/>
+      <c r="B41" s="29" t="s">
+        <v>957</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>707</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>749</v>
+      </c>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="27" t="s">
+        <v>955</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
+    <mergeCell ref="A36:A41"/>
     <mergeCell ref="A2:A15"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="A32:A35"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="A1:B1">
@@ -8898,7 +9188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A105" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
@@ -8949,7 +9239,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="56" t="s">
         <v>851</v>
       </c>
       <c r="B2" s="29" t="s">
@@ -8971,7 +9261,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
+      <c r="A3" s="56"/>
       <c r="B3" s="29" t="s">
         <v>849</v>
       </c>
@@ -8991,7 +9281,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="50" t="s">
         <v>748</v>
       </c>
@@ -9011,7 +9301,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="50" t="s">
         <v>947</v>
       </c>
@@ -9021,17 +9311,17 @@
       <c r="D5" s="36" t="s">
         <v>949</v>
       </c>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
       <c r="J5" s="34" t="s">
         <v>948</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="29" t="s">
         <v>850</v>
       </c>
@@ -9822,7 +10112,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="56" t="s">
+      <c r="A41" s="59" t="s">
         <v>724</v>
       </c>
       <c r="B41" s="21" t="s">
@@ -9844,7 +10134,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="56"/>
+      <c r="A42" s="59"/>
       <c r="B42" s="21" t="s">
         <v>123</v>
       </c>
@@ -9864,7 +10154,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="56"/>
+      <c r="A43" s="59"/>
       <c r="B43" s="21" t="s">
         <v>124</v>
       </c>
@@ -9884,7 +10174,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="56"/>
+      <c r="A44" s="59"/>
       <c r="B44" s="21" t="s">
         <v>125</v>
       </c>
@@ -9904,7 +10194,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="56"/>
+      <c r="A45" s="59"/>
       <c r="B45" s="50" t="s">
         <v>904</v>
       </c>
@@ -9924,7 +10214,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="56"/>
+      <c r="A46" s="59"/>
       <c r="B46" s="29" t="s">
         <v>896</v>
       </c>
@@ -9944,7 +10234,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="56"/>
+      <c r="A47" s="59"/>
       <c r="B47" s="21" t="s">
         <v>126</v>
       </c>
@@ -9964,7 +10254,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="56"/>
+      <c r="A48" s="59"/>
       <c r="B48" s="21" t="s">
         <v>127</v>
       </c>
@@ -9984,7 +10274,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="56"/>
+      <c r="A49" s="59"/>
       <c r="B49" s="21" t="s">
         <v>128</v>
       </c>
@@ -10004,7 +10294,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="56"/>
+      <c r="A50" s="59"/>
       <c r="B50" s="21" t="s">
         <v>129</v>
       </c>
@@ -10024,7 +10314,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="56"/>
+      <c r="A51" s="59"/>
       <c r="B51" s="21" t="s">
         <v>130</v>
       </c>
@@ -10044,7 +10334,7 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="56"/>
+      <c r="A52" s="59"/>
       <c r="B52" s="21" t="s">
         <v>131</v>
       </c>
@@ -11685,6 +11975,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A41:A52"/>
+    <mergeCell ref="A61:A71"/>
+    <mergeCell ref="A81:A87"/>
     <mergeCell ref="A7:A30"/>
     <mergeCell ref="A72:A80"/>
     <mergeCell ref="A2:A6"/>
@@ -11701,10 +11995,6 @@
     <mergeCell ref="A35:A40"/>
     <mergeCell ref="A53:A56"/>
     <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A41:A52"/>
-    <mergeCell ref="A61:A71"/>
-    <mergeCell ref="A81:A87"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="A1:B1">
